--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -58,8 +58,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -553,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0199746</v>
+                  <v>0.020381</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0223711</v>
+                  <v>0.0231567</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0279843</v>
+                  <v>0.0281757</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0374557</v>
+                  <v>0.0352799</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0541003</v>
+                  <v>0.04539</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0739308</v>
+                  <v>0.06491429999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0908332</v>
+                  <v>0.0891632</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119418</v>
+                  <v>0.112722</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0160955</v>
+                  <v>0.017053</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0165233</v>
+                  <v>0.0176131</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0170052</v>
+                  <v>0.018294</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0176545</v>
+                  <v>0.019009</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.018734</v>
+                  <v>0.0202027</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020118</v>
+                  <v>0.0216873</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0231423</v>
+                  <v>0.0238871</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0275752</v>
+                  <v>0.0283309</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0337269</v>
+                  <v>0.0347629</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0441174</v>
+                  <v>0.0427405</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0560327</v>
+                  <v>0.0557526</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0735251</v>
+                  <v>0.0731723</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.09810720000000001</v>
+                  <v>0.0958377</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.118682</v>
+                  <v>0.12115</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0168617</v>
+                  <v>0.0167999</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017117</v>
+                  <v>0.017383</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0179684</v>
+                  <v>0.0183382</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.018842</v>
+                  <v>0.0193988</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.020762</v>
+                  <v>0.0205537</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0229493</v>
+                  <v>0.0226966</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0261253</v>
+                  <v>0.0250047</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0299548</v>
+                  <v>0.0309238</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351932</v>
+                  <v>0.0361738</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0437828</v>
+                  <v>0.0455675</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0554948</v>
+                  <v>0.0564017</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.07231650000000001</v>
+                  <v>0.0722527</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09074749999999999</v>
+                  <v>0.09413820000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.117374</v>
+                  <v>0.118638</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0170956</v>
+                  <v>0.0174142</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178543</v>
+                  <v>0.0181997</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0189841</v>
+                  <v>0.0191908</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0200948</v>
+                  <v>0.0204403</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0217684</v>
+                  <v>0.021836</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244338</v>
+                  <v>0.0239224</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277674</v>
+                  <v>0.0276839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0324631</v>
+                  <v>0.0315092</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0387566</v>
+                  <v>0.0372217</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.044976</v>
+                  <v>0.0454352</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0559175</v>
+                  <v>0.0550601</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0710027</v>
+                  <v>0.0703042</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0908212</v>
+                  <v>0.0905224</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117424</v>
+                  <v>0.115437</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.140864</v>
+                  <v>0.1408</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0189027</v>
+                  <v>0.0192387</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0201008</v>
+                  <v>0.0204627</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.021583</v>
+                  <v>0.0220737</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0235148</v>
+                  <v>0.0239349</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0261005</v>
+                  <v>0.0262923</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0293833</v>
+                  <v>0.0297657</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0337692</v>
+                  <v>0.0341001</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0392899</v>
+                  <v>0.0395028</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.046662</v>
+                  <v>0.0465838</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0562823</v>
+                  <v>0.0559668</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0701638</v>
+                  <v>0.0699388</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0890341</v>
+                  <v>0.0889996</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114833</v>
+                  <v>0.114856</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.144939</v>
+                  <v>0.145398</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197502</v>
+                  <v>0.0196969</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210028</v>
+                  <v>0.02093</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0227789</v>
+                  <v>0.0224969</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246593</v>
+                  <v>0.0245783</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0270269</v>
+                  <v>0.027095</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0302493</v>
+                  <v>0.0303959</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0342455</v>
+                  <v>0.0348732</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0395435</v>
+                  <v>0.0401107</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0466214</v>
+                  <v>0.0469689</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0559597</v>
+                  <v>0.056182</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0685593</v>
+                  <v>0.0692083</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0867699</v>
+                  <v>0.0876976</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.111201</v>
+                  <v>0.112624</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.141494</v>
+                  <v>0.143056</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0200207</v>
+                  <v>0.0203051</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212269</v>
+                  <v>0.0214311</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0226945</v>
+                  <v>0.0227951</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0246895</v>
+                  <v>0.0248606</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274303</v>
+                  <v>0.0274961</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0301632</v>
+                  <v>0.0304265</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343383</v>
+                  <v>0.034491</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0393209</v>
+                  <v>0.0392189</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454285</v>
+                  <v>0.0454425</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543419</v>
+                  <v>0.054124</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.06590409999999999</v>
+                  <v>0.0660497</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.08316999999999999</v>
+                  <v>0.0833161</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.106615</v>
+                  <v>0.107117</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.136838</v>
+                  <v>0.137068</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0207148</v>
+                  <v>0.0205917</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0218231</v>
+                  <v>0.0217319</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0235618</v>
+                  <v>0.0234086</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254205</v>
+                  <v>0.0249196</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0277238</v>
+                  <v>0.0271441</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0309717</v>
+                  <v>0.0301186</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034493</v>
+                  <v>0.034225</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0401348</v>
+                  <v>0.0395874</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464552</v>
+                  <v>0.046425</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0546064</v>
+                  <v>0.0547381</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.065411</v>
+                  <v>0.0655719</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.08111790000000001</v>
+                  <v>0.0810201</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.10261</v>
+                  <v>0.103131</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131855</v>
+                  <v>0.132455</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167859</v>
+                  <v>0.167936</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0308739</v>
+                  <v>0.0314641</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032613</v>
+                  <v>0.0327748</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034221</v>
+                  <v>0.0344387</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0360225</v>
+                  <v>0.0359115</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383657</v>
+                  <v>0.0384212</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408546</v>
+                  <v>0.0411013</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441552</v>
+                  <v>0.0443196</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0485179</v>
+                  <v>0.0490798</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0552273</v>
+                  <v>0.0556472</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.06492580000000001</v>
+                  <v>0.0652692</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791367</v>
+                  <v>0.080124</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0999347</v>
+                  <v>0.100594</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128094</v>
+                  <v>0.128412</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163548</v>
+                  <v>0.163387</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0346339</v>
+                  <v>0.0342733</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0355354</v>
+                  <v>0.0354023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0372352</v>
+                  <v>0.0369613</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0385047</v>
+                  <v>0.0386997</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0411049</v>
+                  <v>0.0406429</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0439798</v>
+                  <v>0.0434292</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.04739</v>
+                  <v>0.0467513</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0521658</v>
+                  <v>0.0511822</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586895</v>
+                  <v>0.0585649</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0680711</v>
+                  <v>0.0673728</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0820838</v>
+                  <v>0.08104450000000001</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101855</v>
+                  <v>0.101034</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.12951</v>
+                  <v>0.128826</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163867</v>
+                  <v>0.16274</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468922</v>
+                  <v>0.0471946</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0482012</v>
+                  <v>0.0480173</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491648</v>
+                  <v>0.0491618</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0527207</v>
+                  <v>0.0504992</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0528154</v>
+                  <v>0.0529453</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.055782</v>
+                  <v>0.0554429</v>
                 </pt>
               </numCache>
             </numRef>
@@ -987,7 +986,7 @@
           <idx val="4"/>
           <order val="1"/>
           <tx>
-            <v>foa_unordered_rc16_map</v>
+            <v>boost::unordered_flat_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -1447,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0185839</v>
+                  <v>0.0243821</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0180835</v>
+                  <v>0.0263419</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0186575</v>
+                  <v>0.03189</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0219409</v>
+                  <v>0.0372784</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0348619</v>
+                  <v>0.0515556</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.046746</v>
+                  <v>0.06764829999999999</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0887013</v>
+                  <v>0.08149480000000001</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.119804</v>
+                  <v>0.129222</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0180709</v>
+                  <v>0.0208127</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0184204</v>
+                  <v>0.0213278</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0189457</v>
+                  <v>0.0218828</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0193755</v>
+                  <v>0.02263</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0198448</v>
+                  <v>0.0232512</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.020306</v>
+                  <v>0.0241428</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0209034</v>
+                  <v>0.0268695</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0227075</v>
+                  <v>0.0288871</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0253999</v>
+                  <v>0.0328262</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0319034</v>
+                  <v>0.0390993</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0383341</v>
+                  <v>0.0470423</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0568493</v>
+                  <v>0.0633778</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0838647</v>
+                  <v>0.088602</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.131653</v>
+                  <v>0.13405</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0187591</v>
+                  <v>0.0214978</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0191409</v>
+                  <v>0.0219645</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197405</v>
+                  <v>0.0227306</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020439</v>
+                  <v>0.0236983</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0212415</v>
+                  <v>0.0246423</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0219892</v>
+                  <v>0.025917</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0234121</v>
+                  <v>0.0281203</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0264304</v>
+                  <v>0.0305191</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0302305</v>
+                  <v>0.0351044</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0366198</v>
+                  <v>0.0407874</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0459437</v>
+                  <v>0.0501899</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0594599</v>
+                  <v>0.06329070000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0878531</v>
+                  <v>0.0883089</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.129282</v>
+                  <v>0.125523</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0198852</v>
+                  <v>0.0226441</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0203496</v>
+                  <v>0.0231278</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0210131</v>
+                  <v>0.0239266</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0216736</v>
+                  <v>0.024755</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0228112</v>
+                  <v>0.0260181</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240973</v>
+                  <v>0.0274856</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0257658</v>
+                  <v>0.0292543</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0290975</v>
+                  <v>0.0326774</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0349767</v>
+                  <v>0.0370439</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0398391</v>
+                  <v>0.0430271</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0491529</v>
+                  <v>0.0514098</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.06340750000000001</v>
+                  <v>0.0649906</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0843724</v>
+                  <v>0.0841389</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.121267</v>
+                  <v>0.117343</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.167097</v>
+                  <v>0.163332</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0213247</v>
+                  <v>0.0241041</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0219345</v>
+                  <v>0.0248142</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.022889</v>
+                  <v>0.0258859</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0238477</v>
+                  <v>0.0269065</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0253224</v>
+                  <v>0.0285555</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0275992</v>
+                  <v>0.0308138</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0302451</v>
+                  <v>0.0334128</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0345438</v>
+                  <v>0.0373409</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0408319</v>
+                  <v>0.043244</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0492235</v>
+                  <v>0.0514921</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.061553</v>
+                  <v>0.0631197</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0805206</v>
+                  <v>0.08064549999999999</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.113447</v>
+                  <v>0.111224</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.161291</v>
+                  <v>0.156782</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0217627</v>
+                  <v>0.0246273</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.022553</v>
+                  <v>0.0254874</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0235574</v>
+                  <v>0.026515</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0246975</v>
+                  <v>0.0276786</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0260874</v>
+                  <v>0.0291119</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0279758</v>
+                  <v>0.0311576</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.030811</v>
+                  <v>0.0339469</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.034622</v>
+                  <v>0.0377205</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0402214</v>
+                  <v>0.0430427</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.047952</v>
+                  <v>0.0505867</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0592906</v>
+                  <v>0.0612508</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.07559440000000001</v>
+                  <v>0.0763192</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.103124</v>
+                  <v>0.101765</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.148399</v>
+                  <v>0.144347</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223391</v>
+                  <v>0.0253488</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0231769</v>
+                  <v>0.026265</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0241129</v>
+                  <v>0.0271908</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0252673</v>
+                  <v>0.0284288</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0268372</v>
+                  <v>0.03001</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0286828</v>
+                  <v>0.0319039</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0310672</v>
+                  <v>0.0343672</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0345672</v>
+                  <v>0.0378547</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0394295</v>
+                  <v>0.0426376</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0468561</v>
+                  <v>0.0498571</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0569589</v>
+                  <v>0.059631</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.07245</v>
+                  <v>0.0742997</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.09784569999999999</v>
+                  <v>0.0979019</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139669</v>
+                  <v>0.137136</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0237499</v>
+                  <v>0.0270102</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0249294</v>
+                  <v>0.0282021</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0266465</v>
+                  <v>0.0301873</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0293475</v>
+                  <v>0.0330636</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0325618</v>
+                  <v>0.0367725</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0359918</v>
+                  <v>0.0404956</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0391962</v>
+                  <v>0.0438179</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0423199</v>
+                  <v>0.0472354</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0459227</v>
+                  <v>0.0509235</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0516739</v>
+                  <v>0.0560138</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0586182</v>
+                  <v>0.06314790000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07141210000000001</v>
+                  <v>0.07436619999999999</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.09303640000000001</v>
+                  <v>0.0937021</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.131746</v>
+                  <v>0.129268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.183631</v>
+                  <v>0.180556</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0382801</v>
+                  <v>0.0432623</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0392846</v>
+                  <v>0.0443061</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.040221</v>
+                  <v>0.0453678</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0413197</v>
+                  <v>0.0466564</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0426685</v>
+                  <v>0.0481</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0443478</v>
+                  <v>0.0498885</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0465075</v>
+                  <v>0.0522653</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0495102</v>
+                  <v>0.0552329</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0538235</v>
+                  <v>0.0592122</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0601526</v>
+                  <v>0.0652914</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0710412</v>
+                  <v>0.0749547</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0895113</v>
+                  <v>0.09116730000000001</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.122948</v>
+                  <v>0.12157</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.172866</v>
+                  <v>0.169666</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0424721</v>
+                  <v>0.0485409</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0434258</v>
+                  <v>0.0498932</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.044818</v>
+                  <v>0.0510164</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0458006</v>
+                  <v>0.0521044</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0473031</v>
+                  <v>0.0539084</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0493497</v>
+                  <v>0.0557247</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0516778</v>
+                  <v>0.0579581</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0546998</v>
+                  <v>0.0612119</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0591634</v>
+                  <v>0.0655746</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0653265</v>
+                  <v>0.07118579999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0752591</v>
+                  <v>0.0805454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0919177</v>
+                  <v>0.0955641</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.121142</v>
+                  <v>0.122167</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.1684</v>
+                  <v>0.166136</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0552701</v>
+                  <v>0.0632577</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0564094</v>
+                  <v>0.0643639</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0574369</v>
+                  <v>0.0654462</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0586381</v>
+                  <v>0.0668815</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0601686</v>
+                  <v>0.0683774</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0620335</v>
+                  <v>0.07045510000000001</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2341,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0201621</v>
+                  <v>0.0213141</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0205927</v>
+                  <v>0.0220012</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0213328</v>
+                  <v>0.0228637</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0224255</v>
+                  <v>0.0244676</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0228236</v>
+                  <v>0.0259604</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0246502</v>
+                  <v>0.028658</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0289321</v>
+                  <v>0.0371282</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0176491</v>
+                  <v>0.0186849</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0179043</v>
+                  <v>0.0189948</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0181965</v>
+                  <v>0.0192948</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0185586</v>
+                  <v>0.0198101</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0189253</v>
+                  <v>0.0200323</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0192987</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0198485</v>
+                  <v>0.0207002</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0203825</v>
+                  <v>0.0214276</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0208815</v>
+                  <v>0.022011</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0220019</v>
+                  <v>0.0230028</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.022769</v>
+                  <v>0.0242253</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0243123</v>
+                  <v>0.0262024</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0273683</v>
+                  <v>0.030044</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0323586</v>
+                  <v>0.0370516</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.017563</v>
+                  <v>0.0188867</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0179077</v>
+                  <v>0.0192237</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0181191</v>
+                  <v>0.0194425</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0185128</v>
+                  <v>0.0197946</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0188997</v>
+                  <v>0.0201342</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0193475</v>
+                  <v>0.0205266</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0197701</v>
+                  <v>0.020959</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0202878</v>
+                  <v>0.0214844</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0211156</v>
+                  <v>0.0223231</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0221556</v>
+                  <v>0.0233566</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0232419</v>
+                  <v>0.0248748</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0249746</v>
+                  <v>0.0269432</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0282488</v>
+                  <v>0.0307678</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0352729</v>
+                  <v>0.0381048</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.017949</v>
+                  <v>0.019505</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0182123</v>
+                  <v>0.0197378</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0184241</v>
+                  <v>0.0199753</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187582</v>
+                  <v>0.0202695</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0191191</v>
+                  <v>0.0205809</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0195615</v>
+                  <v>0.0210132</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0201191</v>
+                  <v>0.0215764</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0206961</v>
+                  <v>0.0222081</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0215587</v>
+                  <v>0.0231524</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0226734</v>
+                  <v>0.0243994</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0242101</v>
+                  <v>0.0261699</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0265092</v>
+                  <v>0.0288567</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0299203</v>
+                  <v>0.0324993</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0362318</v>
+                  <v>0.0388699</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.018616</v>
+                  <v>0.0203994</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0188728</v>
+                  <v>0.0206304</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191354</v>
+                  <v>0.020899</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0194676</v>
+                  <v>0.0212713</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0198285</v>
+                  <v>0.0215734</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0202084</v>
+                  <v>0.0220027</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0207233</v>
+                  <v>0.0224713</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0213995</v>
+                  <v>0.0232356</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0222513</v>
+                  <v>0.0241598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.023328</v>
+                  <v>0.0252935</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0249404</v>
+                  <v>0.0270674</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.027529</v>
+                  <v>0.0297328</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0313116</v>
+                  <v>0.0338401</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0376983</v>
+                  <v>0.0404851</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0489477</v>
+                  <v>0.0515575</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.019011</v>
+                  <v>0.020937</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0193203</v>
+                  <v>0.0212617</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0197232</v>
+                  <v>0.0215815</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0201442</v>
+                  <v>0.0219942</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0205764</v>
+                  <v>0.0224339</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0210852</v>
+                  <v>0.0229822</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0217122</v>
+                  <v>0.0236686</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.022629</v>
+                  <v>0.0245813</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0237333</v>
+                  <v>0.0258009</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0254197</v>
+                  <v>0.0276711</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0277608</v>
+                  <v>0.0301418</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0313383</v>
+                  <v>0.0339599</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.037026</v>
+                  <v>0.039757</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0465119</v>
+                  <v>0.0495474</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0192382</v>
+                  <v>0.021192</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0195643</v>
+                  <v>0.0215353</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0199296</v>
+                  <v>0.0219745</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0204282</v>
+                  <v>0.0224512</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0208927</v>
+                  <v>0.0229726</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.021538</v>
+                  <v>0.0236312</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0222851</v>
+                  <v>0.0244723</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0232149</v>
+                  <v>0.0253764</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0244507</v>
+                  <v>0.0267266</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0259784</v>
+                  <v>0.02845</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0282943</v>
+                  <v>0.0307713</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0314579</v>
+                  <v>0.0342051</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0365879</v>
+                  <v>0.039387</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0450952</v>
+                  <v>0.0481448</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0208871</v>
+                  <v>0.0230461</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0214555</v>
+                  <v>0.0235885</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0220137</v>
+                  <v>0.0240683</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0225922</v>
+                  <v>0.0245612</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0232915</v>
+                  <v>0.0254625</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0246113</v>
+                  <v>0.0269155</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0266287</v>
+                  <v>0.0289929</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0293725</v>
+                  <v>0.0319022</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0323838</v>
+                  <v>0.0353162</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0353862</v>
+                  <v>0.0382454</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0384466</v>
+                  <v>0.0414212</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0416202</v>
+                  <v>0.0448928</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0456443</v>
+                  <v>0.0491213</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0519131</v>
+                  <v>0.0556722</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0324166</v>
+                  <v>0.0349946</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0334394</v>
+                  <v>0.036062</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0342435</v>
+                  <v>0.0370126</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0350556</v>
+                  <v>0.0378882</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0358717</v>
+                  <v>0.0386232</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0366873</v>
+                  <v>0.039608</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0376708</v>
+                  <v>0.0405332</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0386302</v>
+                  <v>0.0416032</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0398146</v>
+                  <v>0.0429799</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0412212</v>
+                  <v>0.044442</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0429427</v>
+                  <v>0.0464735</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0455556</v>
+                  <v>0.0490779</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0491536</v>
+                  <v>0.0526027</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.054736</v>
+                  <v>0.0585157</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0644487</v>
+                  <v>0.0682112</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0379716</v>
+                  <v>0.0416503</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0387374</v>
+                  <v>0.0422691</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.039425</v>
+                  <v>0.0430552</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0400483</v>
+                  <v>0.04371</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0410584</v>
+                  <v>0.0446326</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0419449</v>
+                  <v>0.045744</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0429313</v>
+                  <v>0.0464876</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0441977</v>
+                  <v>0.0480236</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0457638</v>
+                  <v>0.0497905</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0475294</v>
+                  <v>0.0515751</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0500786</v>
+                  <v>0.0541836</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0536186</v>
+                  <v>0.0578235</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0591599</v>
+                  <v>0.06359289999999999</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.0689019</v>
+                  <v>0.07301820000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0534654</v>
+                  <v>0.0587163</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0539555</v>
+                  <v>0.0595507</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0548494</v>
+                  <v>0.0603892</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0553747</v>
+                  <v>0.0609068</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0561235</v>
+                  <v>0.0617944</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0611306</v>
+                  <v>0.0626568</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0579442</v>
+                  <v>0.0637523</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3222,8 +3221,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="5" min="1" style="1" width="11.42578125"/>
-    <col customWidth="1" max="16384" min="6" style="1" width="11.42578125"/>
+    <col customWidth="1" max="6" min="1" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3248,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103582</v>
+        <v>0.105237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0611738</v>
+        <v>0.0692242</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0677294</v>
+        <v>0.09195970000000001</v>
       </c>
     </row>
     <row r="3">
@@ -3262,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110834</v>
+        <v>0.11111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0627648</v>
+        <v>0.0692405</v>
       </c>
       <c r="D3" t="n">
-        <v>0.068315</v>
+        <v>0.0922765</v>
       </c>
     </row>
     <row r="4">
@@ -3276,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1226</v>
+        <v>0.121854</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0653246</v>
+        <v>0.0696765</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06697989999999999</v>
+        <v>0.0921868</v>
       </c>
     </row>
     <row r="5">
@@ -3290,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.143474</v>
+        <v>0.138232</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0763099</v>
+        <v>0.0684825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06763669999999999</v>
+        <v>0.09266199999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3304,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170281</v>
+        <v>0.164559</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0906874</v>
+        <v>0.0696677</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0685818</v>
+        <v>0.09470240000000001</v>
       </c>
     </row>
     <row r="7">
@@ -3318,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.205788</v>
+        <v>0.200764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.112586</v>
+        <v>0.0727657</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0721567</v>
+        <v>0.10092</v>
       </c>
     </row>
     <row r="8">
@@ -3332,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.252766</v>
+        <v>0.246307</v>
       </c>
       <c r="C8" t="n">
-        <v>0.15218</v>
+        <v>0.08793810000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0863329</v>
+        <v>0.121315</v>
       </c>
     </row>
     <row r="9">
@@ -3346,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.304998</v>
+        <v>0.288181</v>
       </c>
       <c r="C9" t="n">
-        <v>0.190742</v>
+        <v>0.0690622</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0675253</v>
+        <v>0.0913316</v>
       </c>
     </row>
     <row r="10">
@@ -3360,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09510540000000001</v>
+        <v>0.0959361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0634078</v>
+        <v>0.06928579999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0685278</v>
+        <v>0.0915065</v>
       </c>
     </row>
     <row r="11">
@@ -3374,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0962615</v>
+        <v>0.09732109999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0624877</v>
+        <v>0.0692738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0678749</v>
+        <v>0.091862</v>
       </c>
     </row>
     <row r="12">
@@ -3388,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.102825</v>
+        <v>0.09878290000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0626916</v>
+        <v>0.0695207</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0680354</v>
+        <v>0.09185649999999999</v>
       </c>
     </row>
     <row r="13">
@@ -3402,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.102165</v>
+        <v>0.100583</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0624084</v>
+        <v>0.069912</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0681933</v>
+        <v>0.0920887</v>
       </c>
     </row>
     <row r="14">
@@ -3416,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102819</v>
+        <v>0.103458</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06290229999999999</v>
+        <v>0.0701422</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0684454</v>
+        <v>0.09237570000000001</v>
       </c>
     </row>
     <row r="15">
@@ -3430,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10667</v>
+        <v>0.108097</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06349009999999999</v>
+        <v>0.0703561</v>
       </c>
       <c r="D15" t="n">
-        <v>0.06867669999999999</v>
+        <v>0.092488</v>
       </c>
     </row>
     <row r="16">
@@ -3444,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.114115</v>
+        <v>0.113709</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0667835</v>
+        <v>0.0701355</v>
       </c>
       <c r="D16" t="n">
-        <v>0.06911340000000001</v>
+        <v>0.09288589999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3458,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.122743</v>
+        <v>0.122423</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0754755</v>
+        <v>0.07073260000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>0.06957579999999999</v>
+        <v>0.0932682</v>
       </c>
     </row>
     <row r="18">
@@ -3472,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134938</v>
+        <v>0.134313</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0798383</v>
+        <v>0.0712634</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0700366</v>
+        <v>0.0934053</v>
       </c>
     </row>
     <row r="19">
@@ -3486,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.155294</v>
+        <v>0.14962</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0899205</v>
+        <v>0.0708884</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0712164</v>
+        <v>0.0942766</v>
       </c>
     </row>
     <row r="20">
@@ -3500,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.17291</v>
+        <v>0.171461</v>
       </c>
       <c r="C20" t="n">
-        <v>0.102405</v>
+        <v>0.0746045</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0750856</v>
+        <v>0.0979648</v>
       </c>
     </row>
     <row r="21">
@@ -3514,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.204145</v>
+        <v>0.201729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.119522</v>
+        <v>0.08231620000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08303480000000001</v>
+        <v>0.106853</v>
       </c>
     </row>
     <row r="22">
@@ -3528,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.243354</v>
+        <v>0.242626</v>
       </c>
       <c r="C22" t="n">
-        <v>0.153113</v>
+        <v>0.0977995</v>
       </c>
       <c r="D22" t="n">
-        <v>0.10297</v>
+        <v>0.123657</v>
       </c>
     </row>
     <row r="23">
@@ -3542,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.292103</v>
+        <v>0.290017</v>
       </c>
       <c r="C23" t="n">
-        <v>0.195041</v>
+        <v>0.0710694</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0692733</v>
+        <v>0.0928253</v>
       </c>
     </row>
     <row r="24">
@@ -3556,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100545</v>
+        <v>0.10104</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0664136</v>
+        <v>0.0711608</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0693498</v>
+        <v>0.0929635</v>
       </c>
     </row>
     <row r="25">
@@ -3570,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101786</v>
+        <v>0.102115</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0666293</v>
+        <v>0.071494</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0695374</v>
+        <v>0.09312189999999999</v>
       </c>
     </row>
     <row r="26">
@@ -3584,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103407</v>
+        <v>0.103845</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0670152</v>
+        <v>0.0717829</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0697055</v>
+        <v>0.0935479</v>
       </c>
     </row>
     <row r="27">
@@ -3598,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.108801</v>
+        <v>0.106184</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0672415</v>
+        <v>0.0720224</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0700778</v>
+        <v>0.0938399</v>
       </c>
     </row>
     <row r="28">
@@ -3612,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108897</v>
+        <v>0.109387</v>
       </c>
       <c r="C28" t="n">
-        <v>0.06813429999999999</v>
+        <v>0.07228270000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0702513</v>
+        <v>0.0938264</v>
       </c>
     </row>
     <row r="29">
@@ -3626,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113419</v>
+        <v>0.11382</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0701222</v>
+        <v>0.0726499</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0705315</v>
+        <v>0.0942699</v>
       </c>
     </row>
     <row r="30">
@@ -3640,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.121093</v>
+        <v>0.119995</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0736921</v>
+        <v>0.07305490000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07106750000000001</v>
+        <v>0.09494610000000001</v>
       </c>
     </row>
     <row r="31">
@@ -3654,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.136136</v>
+        <v>0.127695</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0792085</v>
+        <v>0.0734653</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0753733</v>
+        <v>0.095642</v>
       </c>
     </row>
     <row r="32">
@@ -3668,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.141166</v>
+        <v>0.138226</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0839447</v>
+        <v>0.0746132</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07520839999999999</v>
+        <v>0.097083</v>
       </c>
     </row>
     <row r="33">
@@ -3682,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.161591</v>
+        <v>0.152194</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0917943</v>
+        <v>0.0766574</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0788457</v>
+        <v>0.0978955</v>
       </c>
     </row>
     <row r="34">
@@ -3696,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.179211</v>
+        <v>0.16971</v>
       </c>
       <c r="C34" t="n">
-        <v>0.104176</v>
+        <v>0.0813849</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09003079999999999</v>
+        <v>0.103179</v>
       </c>
     </row>
     <row r="35">
@@ -3710,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.19651</v>
+        <v>0.194438</v>
       </c>
       <c r="C35" t="n">
-        <v>0.121623</v>
+        <v>0.0880522</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0971506</v>
+        <v>0.110806</v>
       </c>
     </row>
     <row r="36">
@@ -3724,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.241375</v>
+        <v>0.231318</v>
       </c>
       <c r="C36" t="n">
-        <v>0.146377</v>
+        <v>0.09814580000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.108194</v>
+        <v>0.12183</v>
       </c>
     </row>
     <row r="37">
@@ -3738,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.28056</v>
+        <v>0.301029</v>
       </c>
       <c r="C37" t="n">
-        <v>0.187915</v>
+        <v>0.07180549999999999</v>
       </c>
       <c r="D37" t="n">
-        <v>0.07115589999999999</v>
+        <v>0.0931809</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.107998</v>
+        <v>0.104243</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07485899999999999</v>
+        <v>0.07210220000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0712554</v>
+        <v>0.0933389</v>
       </c>
     </row>
     <row r="39">
@@ -3766,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.113208</v>
+        <v>0.105447</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07538069999999999</v>
+        <v>0.0722979</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0715298</v>
+        <v>0.0935839</v>
       </c>
     </row>
     <row r="40">
@@ -3780,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.109801</v>
+        <v>0.107081</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0820912</v>
+        <v>0.0726459</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0726661</v>
+        <v>0.0938909</v>
       </c>
     </row>
     <row r="41">
@@ -3794,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.120352</v>
+        <v>0.109376</v>
       </c>
       <c r="C41" t="n">
-        <v>0.072062</v>
+        <v>0.0729857</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0752635</v>
+        <v>0.09423189999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3808,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.115111</v>
+        <v>0.112858</v>
       </c>
       <c r="C42" t="n">
-        <v>0.07369530000000001</v>
+        <v>0.0732109</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0797162</v>
+        <v>0.0946099</v>
       </c>
     </row>
     <row r="43">
@@ -3822,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116427</v>
+        <v>0.117388</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0756626</v>
+        <v>0.07392319999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0762572</v>
+        <v>0.09512900000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3836,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.130789</v>
+        <v>0.124148</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0782453</v>
+        <v>0.0744266</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0813489</v>
+        <v>0.0959284</v>
       </c>
     </row>
     <row r="45">
@@ -3850,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130416</v>
+        <v>0.130136</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0903369</v>
+        <v>0.07543320000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0787065</v>
+        <v>0.09702570000000001</v>
       </c>
     </row>
     <row r="46">
@@ -3864,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.142205</v>
+        <v>0.139243</v>
       </c>
       <c r="C46" t="n">
-        <v>0.09516330000000001</v>
+        <v>0.0770005</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0848349</v>
+        <v>0.0983811</v>
       </c>
     </row>
     <row r="47">
@@ -3878,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151765</v>
+        <v>0.151882</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0929127</v>
+        <v>0.0797775</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0787655</v>
+        <v>0.101262</v>
       </c>
     </row>
     <row r="48">
@@ -3892,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167873</v>
+        <v>0.169065</v>
       </c>
       <c r="C48" t="n">
-        <v>0.101186</v>
+        <v>0.0836066</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0855991</v>
+        <v>0.105502</v>
       </c>
     </row>
     <row r="49">
@@ -3906,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.201646</v>
+        <v>0.192485</v>
       </c>
       <c r="C49" t="n">
-        <v>0.114681</v>
+        <v>0.08916490000000001</v>
       </c>
       <c r="D49" t="n">
-        <v>0.0870084</v>
+        <v>0.111675</v>
       </c>
     </row>
     <row r="50">
@@ -3920,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.236672</v>
+        <v>0.22733</v>
       </c>
       <c r="C50" t="n">
-        <v>0.136357</v>
+        <v>0.09847450000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.10643</v>
+        <v>0.121196</v>
       </c>
     </row>
     <row r="51">
@@ -3934,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268964</v>
+        <v>0.270292</v>
       </c>
       <c r="C51" t="n">
-        <v>0.170421</v>
+        <v>0.0735941</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0762193</v>
+        <v>0.095903</v>
       </c>
     </row>
     <row r="52">
@@ -3948,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.322081</v>
+        <v>0.320691</v>
       </c>
       <c r="C52" t="n">
-        <v>0.247425</v>
+        <v>0.0738325</v>
       </c>
       <c r="D52" t="n">
-        <v>0.08234519999999999</v>
+        <v>0.09569560000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3962,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.11243</v>
+        <v>0.110177</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0810953</v>
+        <v>0.07441150000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.07412580000000001</v>
+        <v>0.09599050000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3976,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.113716</v>
+        <v>0.111007</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0801345</v>
+        <v>0.0745962</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0818387</v>
+        <v>0.0964874</v>
       </c>
     </row>
     <row r="55">
@@ -3990,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11641</v>
+        <v>0.112908</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0814962</v>
+        <v>0.0757138</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0817684</v>
+        <v>0.09663040000000001</v>
       </c>
     </row>
     <row r="56">
@@ -4004,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.119918</v>
+        <v>0.116565</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0888639</v>
+        <v>0.0753687</v>
       </c>
       <c r="D56" t="n">
-        <v>0.07585989999999999</v>
+        <v>0.09705709999999999</v>
       </c>
     </row>
     <row r="57">
@@ -4018,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.123372</v>
+        <v>0.121298</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0845065</v>
+        <v>0.0766931</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0827856</v>
+        <v>0.09770230000000001</v>
       </c>
     </row>
     <row r="58">
@@ -4032,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.138277</v>
+        <v>0.125602</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09013640000000001</v>
+        <v>0.0769411</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0881562</v>
+        <v>0.09883160000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4046,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.133718</v>
+        <v>0.132723</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0856688</v>
+        <v>0.07776569999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0798113</v>
+        <v>0.0995366</v>
       </c>
     </row>
     <row r="60">
@@ -4060,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142731</v>
+        <v>0.138985</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09455769999999999</v>
+        <v>0.07997840000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.08072360000000001</v>
+        <v>0.101321</v>
       </c>
     </row>
     <row r="61">
@@ -4074,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.15553</v>
+        <v>0.151209</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0939506</v>
+        <v>0.0820227</v>
       </c>
       <c r="D61" t="n">
-        <v>0.08566219999999999</v>
+        <v>0.103633</v>
       </c>
     </row>
     <row r="62">
@@ -4088,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.171719</v>
+        <v>0.167484</v>
       </c>
       <c r="C62" t="n">
-        <v>0.102933</v>
+        <v>0.0850742</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0926772</v>
+        <v>0.107383</v>
       </c>
     </row>
     <row r="63">
@@ -4102,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189475</v>
+        <v>0.189894</v>
       </c>
       <c r="C63" t="n">
-        <v>0.124695</v>
+        <v>0.0903846</v>
       </c>
       <c r="D63" t="n">
-        <v>0.0917999</v>
+        <v>0.113072</v>
       </c>
     </row>
     <row r="64">
@@ -4116,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.221164</v>
+        <v>0.219278</v>
       </c>
       <c r="C64" t="n">
-        <v>0.136095</v>
+        <v>0.0996112</v>
       </c>
       <c r="D64" t="n">
-        <v>0.104209</v>
+        <v>0.121121</v>
       </c>
     </row>
     <row r="65">
@@ -4130,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262895</v>
+        <v>0.260285</v>
       </c>
       <c r="C65" t="n">
-        <v>0.17623</v>
+        <v>0.113145</v>
       </c>
       <c r="D65" t="n">
-        <v>0.111973</v>
+        <v>0.134871</v>
       </c>
     </row>
     <row r="66">
@@ -4144,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.320234</v>
+        <v>0.312806</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216845</v>
+        <v>0.0806825</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0918399</v>
+        <v>0.103267</v>
       </c>
     </row>
     <row r="67">
@@ -4158,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121801</v>
+        <v>0.121768</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0811163</v>
+        <v>0.081334</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0787443</v>
+        <v>0.103584</v>
       </c>
     </row>
     <row r="68">
@@ -4172,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.12269</v>
+        <v>0.12266</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0837777</v>
+        <v>0.081827</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0822452</v>
+        <v>0.104201</v>
       </c>
     </row>
     <row r="69">
@@ -4186,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.133951</v>
+        <v>0.125513</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0830361</v>
+        <v>0.0818062</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0803347</v>
+        <v>0.104223</v>
       </c>
     </row>
     <row r="70">
@@ -4200,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.127829</v>
+        <v>0.127533</v>
       </c>
       <c r="C70" t="n">
-        <v>0.08957809999999999</v>
+        <v>0.0822218</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0830034</v>
+        <v>0.10602</v>
       </c>
     </row>
     <row r="71">
@@ -4214,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142257</v>
+        <v>0.132134</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0922593</v>
+        <v>0.08278720000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.08227180000000001</v>
+        <v>0.10756</v>
       </c>
     </row>
     <row r="72">
@@ -4228,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.140254</v>
+        <v>0.146605</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0935595</v>
+        <v>0.0840844</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0863821</v>
+        <v>0.107146</v>
       </c>
     </row>
     <row r="73">
@@ -4242,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.152729</v>
+        <v>0.142832</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0990815</v>
+        <v>0.0853941</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0890084</v>
+        <v>0.107805</v>
       </c>
     </row>
     <row r="74">
@@ -4256,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.159908</v>
+        <v>0.150714</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101885</v>
+        <v>0.08688170000000001</v>
       </c>
       <c r="D74" t="n">
-        <v>0.08556999999999999</v>
+        <v>0.11075</v>
       </c>
     </row>
     <row r="75">
@@ -4270,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.161384</v>
+        <v>0.162371</v>
       </c>
       <c r="C75" t="n">
-        <v>0.106068</v>
+        <v>0.0878965</v>
       </c>
       <c r="D75" t="n">
-        <v>0.087149</v>
+        <v>0.111246</v>
       </c>
     </row>
     <row r="76">
@@ -4284,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.177393</v>
+        <v>0.175471</v>
       </c>
       <c r="C76" t="n">
-        <v>0.112658</v>
+        <v>0.09139849999999999</v>
       </c>
       <c r="D76" t="n">
-        <v>0.0900994</v>
+        <v>0.113953</v>
       </c>
     </row>
     <row r="77">
@@ -4298,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19554</v>
+        <v>0.196412</v>
       </c>
       <c r="C77" t="n">
-        <v>0.121085</v>
+        <v>0.0959699</v>
       </c>
       <c r="D77" t="n">
-        <v>0.0938417</v>
+        <v>0.11539</v>
       </c>
     </row>
     <row r="78">
@@ -4312,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.224925</v>
+        <v>0.225481</v>
       </c>
       <c r="C78" t="n">
-        <v>0.1387</v>
+        <v>0.104349</v>
       </c>
       <c r="D78" t="n">
-        <v>0.102364</v>
+        <v>0.123939</v>
       </c>
     </row>
     <row r="79">
@@ -4326,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.267949</v>
+        <v>0.27071</v>
       </c>
       <c r="C79" t="n">
-        <v>0.179779</v>
+        <v>0.117089</v>
       </c>
       <c r="D79" t="n">
-        <v>0.115141</v>
+        <v>0.140517</v>
       </c>
     </row>
     <row r="80">
@@ -4340,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.319161</v>
+        <v>0.322076</v>
       </c>
       <c r="C80" t="n">
-        <v>0.230277</v>
+        <v>0.08848200000000001</v>
       </c>
       <c r="D80" t="n">
-        <v>0.0873539</v>
+        <v>0.111303</v>
       </c>
     </row>
     <row r="81">
@@ -4354,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135401</v>
+        <v>0.135223</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0937016</v>
+        <v>0.0888719</v>
       </c>
       <c r="D81" t="n">
-        <v>0.08740829999999999</v>
+        <v>0.111994</v>
       </c>
     </row>
     <row r="82">
@@ -4368,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137443</v>
+        <v>0.137646</v>
       </c>
       <c r="C82" t="n">
-        <v>0.092406</v>
+        <v>0.0896078</v>
       </c>
       <c r="D82" t="n">
-        <v>0.0883429</v>
+        <v>0.11259</v>
       </c>
     </row>
     <row r="83">
@@ -4382,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139492</v>
+        <v>0.139069</v>
       </c>
       <c r="C83" t="n">
-        <v>0.09427919999999999</v>
+        <v>0.0902835</v>
       </c>
       <c r="D83" t="n">
-        <v>0.0893304</v>
+        <v>0.113106</v>
       </c>
     </row>
     <row r="84">
@@ -4396,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152288</v>
+        <v>0.141945</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0965752</v>
+        <v>0.09117219999999999</v>
       </c>
       <c r="D84" t="n">
-        <v>0.0945385</v>
+        <v>0.11381</v>
       </c>
     </row>
     <row r="85">
@@ -4410,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146074</v>
+        <v>0.145944</v>
       </c>
       <c r="C85" t="n">
-        <v>0.103589</v>
+        <v>0.0925252</v>
       </c>
       <c r="D85" t="n">
-        <v>0.0913322</v>
+        <v>0.115076</v>
       </c>
     </row>
     <row r="86">
@@ -4424,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.151129</v>
+        <v>0.160609</v>
       </c>
       <c r="C86" t="n">
-        <v>0.10512</v>
+        <v>0.09330140000000001</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0959632</v>
+        <v>0.116243</v>
       </c>
     </row>
     <row r="87">
@@ -4438,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.156729</v>
+        <v>0.157168</v>
       </c>
       <c r="C87" t="n">
-        <v>0.105281</v>
+        <v>0.096027</v>
       </c>
       <c r="D87" t="n">
-        <v>0.0998068</v>
+        <v>0.117979</v>
       </c>
     </row>
     <row r="88">
@@ -4452,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.164497</v>
+        <v>0.175869</v>
       </c>
       <c r="C88" t="n">
-        <v>0.117184</v>
+        <v>0.097178</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0956813</v>
+        <v>0.120259</v>
       </c>
     </row>
     <row r="89">
@@ -4466,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186843</v>
+        <v>0.177389</v>
       </c>
       <c r="C89" t="n">
-        <v>0.125204</v>
+        <v>0.100439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.101449</v>
+        <v>0.123508</v>
       </c>
     </row>
     <row r="90">
@@ -4480,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.191571</v>
+        <v>0.195356</v>
       </c>
       <c r="C90" t="n">
-        <v>0.129357</v>
+        <v>0.104539</v>
       </c>
       <c r="D90" t="n">
-        <v>0.102364</v>
+        <v>0.128054</v>
       </c>
     </row>
     <row r="91">
@@ -4494,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.222055</v>
+        <v>0.220103</v>
       </c>
       <c r="C91" t="n">
-        <v>0.143247</v>
+        <v>0.111113</v>
       </c>
       <c r="D91" t="n">
-        <v>0.113983</v>
+        <v>0.134079</v>
       </c>
     </row>
     <row r="92">
@@ -4508,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240128</v>
+        <v>0.253955</v>
       </c>
       <c r="C92" t="n">
-        <v>0.163113</v>
+        <v>0.120535</v>
       </c>
       <c r="D92" t="n">
-        <v>0.116766</v>
+        <v>0.143741</v>
       </c>
     </row>
     <row r="93">
@@ -4522,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.283522</v>
+        <v>0.302179</v>
       </c>
       <c r="C93" t="n">
-        <v>0.193881</v>
+        <v>0.131987</v>
       </c>
       <c r="D93" t="n">
-        <v>0.135479</v>
+        <v>0.155751</v>
       </c>
     </row>
     <row r="94">
@@ -4536,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.348829</v>
+        <v>0.350257</v>
       </c>
       <c r="C94" t="n">
-        <v>0.254652</v>
+        <v>0.100354</v>
       </c>
       <c r="D94" t="n">
-        <v>0.09651559999999999</v>
+        <v>0.121742</v>
       </c>
     </row>
     <row r="95">
@@ -4550,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.15417</v>
+        <v>0.160598</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11066</v>
+        <v>0.102244</v>
       </c>
       <c r="D95" t="n">
-        <v>0.0973903</v>
+        <v>0.124183</v>
       </c>
     </row>
     <row r="96">
@@ -4564,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.151675</v>
+        <v>0.1635</v>
       </c>
       <c r="C96" t="n">
-        <v>0.114044</v>
+        <v>0.103554</v>
       </c>
       <c r="D96" t="n">
-        <v>0.0986263</v>
+        <v>0.124495</v>
       </c>
     </row>
     <row r="97">
@@ -4578,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.161965</v>
+        <v>0.167147</v>
       </c>
       <c r="C97" t="n">
-        <v>0.117853</v>
+        <v>0.103759</v>
       </c>
       <c r="D97" t="n">
-        <v>0.09976939999999999</v>
+        <v>0.127599</v>
       </c>
     </row>
     <row r="98">
@@ -4592,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.156497</v>
+        <v>0.171124</v>
       </c>
       <c r="C98" t="n">
-        <v>0.122349</v>
+        <v>0.107179</v>
       </c>
       <c r="D98" t="n">
-        <v>0.101489</v>
+        <v>0.12818</v>
       </c>
     </row>
     <row r="99">
@@ -4606,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.17131</v>
+        <v>0.165208</v>
       </c>
       <c r="C99" t="n">
-        <v>0.124718</v>
+        <v>0.109489</v>
       </c>
       <c r="D99" t="n">
-        <v>0.103467</v>
+        <v>0.132214</v>
       </c>
     </row>
     <row r="100">
@@ -4620,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167798</v>
+        <v>0.170897</v>
       </c>
       <c r="C100" t="n">
-        <v>0.134047</v>
+        <v>0.111171</v>
       </c>
       <c r="D100" t="n">
-        <v>0.106427</v>
+        <v>0.131922</v>
       </c>
     </row>
     <row r="101">
@@ -4634,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.175752</v>
+        <v>0.188238</v>
       </c>
       <c r="C101" t="n">
-        <v>0.141249</v>
+        <v>0.113178</v>
       </c>
       <c r="D101" t="n">
-        <v>0.110099</v>
+        <v>0.135077</v>
       </c>
     </row>
     <row r="102">
@@ -4648,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.190605</v>
+        <v>0.186591</v>
       </c>
       <c r="C102" t="n">
-        <v>0.146617</v>
+        <v>0.116171</v>
       </c>
       <c r="D102" t="n">
-        <v>0.112731</v>
+        <v>0.137654</v>
       </c>
     </row>
     <row r="103">
@@ -4662,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.201415</v>
+        <v>0.208024</v>
       </c>
       <c r="C103" t="n">
-        <v>0.159639</v>
+        <v>0.118176</v>
       </c>
       <c r="D103" t="n">
-        <v>0.11783</v>
+        <v>0.141075</v>
       </c>
     </row>
     <row r="104">
@@ -4676,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.222123</v>
+        <v>0.222822</v>
       </c>
       <c r="C104" t="n">
-        <v>0.171983</v>
+        <v>0.122409</v>
       </c>
       <c r="D104" t="n">
-        <v>0.127302</v>
+        <v>0.14527</v>
       </c>
     </row>
     <row r="105">
@@ -4690,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243824</v>
+        <v>0.233896</v>
       </c>
       <c r="C105" t="n">
-        <v>0.188161</v>
+        <v>0.128662</v>
       </c>
       <c r="D105" t="n">
-        <v>0.13518</v>
+        <v>0.15252</v>
       </c>
     </row>
     <row r="106">
@@ -4704,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.284233</v>
+        <v>0.263305</v>
       </c>
       <c r="C106" t="n">
-        <v>0.20894</v>
+        <v>0.136734</v>
       </c>
       <c r="D106" t="n">
-        <v>0.146074</v>
+        <v>0.160168</v>
       </c>
     </row>
     <row r="107">
@@ -4718,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.330318</v>
+        <v>0.313596</v>
       </c>
       <c r="C107" t="n">
-        <v>0.247867</v>
+        <v>0.149541</v>
       </c>
       <c r="D107" t="n">
-        <v>0.161957</v>
+        <v>0.175566</v>
       </c>
     </row>
     <row r="108">
@@ -4732,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.40116</v>
+        <v>0.378315</v>
       </c>
       <c r="C108" t="n">
-        <v>0.302463</v>
+        <v>0.109278</v>
       </c>
       <c r="D108" t="n">
-        <v>0.114815</v>
+        <v>0.131232</v>
       </c>
     </row>
     <row r="109">
@@ -4746,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.481575</v>
+        <v>0.474852</v>
       </c>
       <c r="C109" t="n">
-        <v>0.381909</v>
+        <v>0.111266</v>
       </c>
       <c r="D109" t="n">
-        <v>0.116912</v>
+        <v>0.132625</v>
       </c>
     </row>
     <row r="110">
@@ -4760,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.170931</v>
+        <v>0.162044</v>
       </c>
       <c r="C110" t="n">
-        <v>0.143672</v>
+        <v>0.112278</v>
       </c>
       <c r="D110" t="n">
-        <v>0.119076</v>
+        <v>0.134032</v>
       </c>
     </row>
     <row r="111">
@@ -4774,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.179322</v>
+        <v>0.175905</v>
       </c>
       <c r="C111" t="n">
-        <v>0.147058</v>
+        <v>0.113797</v>
       </c>
       <c r="D111" t="n">
-        <v>0.121866</v>
+        <v>0.135426</v>
       </c>
     </row>
     <row r="112">
@@ -4788,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.181539</v>
+        <v>0.18006</v>
       </c>
       <c r="C112" t="n">
-        <v>0.150175</v>
+        <v>0.115825</v>
       </c>
       <c r="D112" t="n">
-        <v>0.123991</v>
+        <v>0.137252</v>
       </c>
     </row>
     <row r="113">
@@ -4802,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.184601</v>
+        <v>0.176243</v>
       </c>
       <c r="C113" t="n">
-        <v>0.15462</v>
+        <v>0.117926</v>
       </c>
       <c r="D113" t="n">
-        <v>0.126449</v>
+        <v>0.139897</v>
       </c>
     </row>
     <row r="114">
@@ -4816,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.200222</v>
+        <v>0.180221</v>
       </c>
       <c r="C114" t="n">
-        <v>0.159116</v>
+        <v>0.120295</v>
       </c>
       <c r="D114" t="n">
-        <v>0.129458</v>
+        <v>0.141845</v>
       </c>
     </row>
     <row r="115">
@@ -4830,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.206425</v>
+        <v>0.190526</v>
       </c>
       <c r="C115" t="n">
-        <v>0.164627</v>
+        <v>0.123375</v>
       </c>
       <c r="D115" t="n">
-        <v>0.132558</v>
+        <v>0.144645</v>
       </c>
     </row>
     <row r="116">
@@ -4844,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211674</v>
+        <v>0.210862</v>
       </c>
       <c r="C116" t="n">
-        <v>0.171162</v>
+        <v>0.126887</v>
       </c>
       <c r="D116" t="n">
-        <v>0.135842</v>
+        <v>0.148723</v>
       </c>
     </row>
     <row r="117">
@@ -4858,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.230808</v>
+        <v>0.212387</v>
       </c>
       <c r="C117" t="n">
-        <v>0.180274</v>
+        <v>0.130979</v>
       </c>
       <c r="D117" t="n">
-        <v>0.139612</v>
+        <v>0.152403</v>
       </c>
     </row>
     <row r="118">
@@ -4872,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.244976</v>
+        <v>0.238491</v>
       </c>
       <c r="C118" t="n">
-        <v>0.191244</v>
+        <v>0.1371</v>
       </c>
       <c r="D118" t="n">
-        <v>0.145045</v>
+        <v>0.159958</v>
       </c>
     </row>
     <row r="119">
@@ -4886,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262444</v>
+        <v>0.25442</v>
       </c>
       <c r="C119" t="n">
-        <v>0.205235</v>
+        <v>0.14467</v>
       </c>
       <c r="D119" t="n">
-        <v>0.154795</v>
+        <v>0.169598</v>
       </c>
     </row>
     <row r="120">
@@ -4900,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.297468</v>
+        <v>0.299765</v>
       </c>
       <c r="C120" t="n">
-        <v>0.227421</v>
+        <v>0.155371</v>
       </c>
       <c r="D120" t="n">
-        <v>0.160763</v>
+        <v>0.179465</v>
       </c>
     </row>
     <row r="121">
@@ -4914,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.33196</v>
+        <v>0.332818</v>
       </c>
       <c r="C121" t="n">
-        <v>0.25795</v>
+        <v>0.171055</v>
       </c>
       <c r="D121" t="n">
-        <v>0.174353</v>
+        <v>0.196413</v>
       </c>
     </row>
     <row r="122">
@@ -4928,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.398085</v>
+        <v>0.399337</v>
       </c>
       <c r="C122" t="n">
-        <v>0.307016</v>
+        <v>0.193624</v>
       </c>
       <c r="D122" t="n">
-        <v>0.198331</v>
+        <v>0.221386</v>
       </c>
     </row>
     <row r="123">
@@ -4942,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.49456</v>
+        <v>0.496397</v>
       </c>
       <c r="C123" t="n">
-        <v>0.386956</v>
+        <v>0.132463</v>
       </c>
       <c r="D123" t="n">
-        <v>0.133264</v>
+        <v>0.155647</v>
       </c>
     </row>
     <row r="124">
@@ -4956,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.189479</v>
+        <v>0.197703</v>
       </c>
       <c r="C124" t="n">
-        <v>0.163042</v>
+        <v>0.139761</v>
       </c>
       <c r="D124" t="n">
-        <v>0.134838</v>
+        <v>0.161368</v>
       </c>
     </row>
     <row r="125">
@@ -4970,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.193454</v>
+        <v>0.196201</v>
       </c>
       <c r="C125" t="n">
-        <v>0.167994</v>
+        <v>0.14033</v>
       </c>
       <c r="D125" t="n">
-        <v>0.139102</v>
+        <v>0.165777</v>
       </c>
     </row>
     <row r="126">
@@ -4984,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.196442</v>
+        <v>0.205221</v>
       </c>
       <c r="C126" t="n">
-        <v>0.170745</v>
+        <v>0.141008</v>
       </c>
       <c r="D126" t="n">
-        <v>0.142569</v>
+        <v>0.166871</v>
       </c>
     </row>
     <row r="127">
@@ -4998,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.208702</v>
+        <v>0.212497</v>
       </c>
       <c r="C127" t="n">
-        <v>0.174067</v>
+        <v>0.145544</v>
       </c>
       <c r="D127" t="n">
-        <v>0.145984</v>
+        <v>0.171992</v>
       </c>
     </row>
     <row r="128">
@@ -5012,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.214612</v>
+        <v>0.209771</v>
       </c>
       <c r="C128" t="n">
-        <v>0.1796</v>
+        <v>0.146965</v>
       </c>
       <c r="D128" t="n">
-        <v>0.144582</v>
+        <v>0.174756</v>
       </c>
     </row>
     <row r="129">
@@ -5026,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.223622</v>
+        <v>0.226844</v>
       </c>
       <c r="C129" t="n">
-        <v>0.185494</v>
+        <v>0.152142</v>
       </c>
       <c r="D129" t="n">
-        <v>0.148098</v>
+        <v>0.180475</v>
       </c>
     </row>
     <row r="130">
@@ -5040,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.234122</v>
+        <v>0.237993</v>
       </c>
       <c r="C130" t="n">
-        <v>0.192089</v>
+        <v>0.156632</v>
       </c>
       <c r="D130" t="n">
-        <v>0.150672</v>
+        <v>0.180525</v>
       </c>
     </row>
     <row r="131">
@@ -5054,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.238208</v>
+        <v>0.244609</v>
       </c>
       <c r="C131" t="n">
-        <v>0.198093</v>
+        <v>0.157584</v>
       </c>
       <c r="D131" t="n">
-        <v>0.160197</v>
+        <v>0.182897</v>
       </c>
     </row>
     <row r="132">
@@ -5068,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.259497</v>
+        <v>0.262834</v>
       </c>
       <c r="C132" t="n">
-        <v>0.211373</v>
+        <v>0.160076</v>
       </c>
       <c r="D132" t="n">
-        <v>0.160871</v>
+        <v>0.18731</v>
       </c>
     </row>
     <row r="133">
@@ -5082,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27918</v>
+        <v>0.29111</v>
       </c>
       <c r="C133" t="n">
-        <v>0.227039</v>
+        <v>0.167339</v>
       </c>
       <c r="D133" t="n">
-        <v>0.167904</v>
+        <v>0.194051</v>
       </c>
     </row>
     <row r="134">
@@ -5096,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.314898</v>
+        <v>0.316752</v>
       </c>
       <c r="C134" t="n">
-        <v>0.24505</v>
+        <v>0.174963</v>
       </c>
       <c r="D134" t="n">
-        <v>0.175833</v>
+        <v>0.206573</v>
       </c>
     </row>
     <row r="135">
@@ -5110,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.351217</v>
+        <v>0.34683</v>
       </c>
       <c r="C135" t="n">
-        <v>0.27735</v>
+        <v>0.186908</v>
       </c>
       <c r="D135" t="n">
-        <v>0.194395</v>
+        <v>0.217801</v>
       </c>
     </row>
     <row r="136">
@@ -5124,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.414078</v>
+        <v>0.411055</v>
       </c>
       <c r="C136" t="n">
-        <v>0.327996</v>
+        <v>0.209002</v>
       </c>
       <c r="D136" t="n">
-        <v>0.210785</v>
+        <v>0.243424</v>
       </c>
     </row>
     <row r="137">
@@ -5138,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.5080750000000001</v>
+        <v>0.508695</v>
       </c>
       <c r="C137" t="n">
-        <v>0.411943</v>
+        <v>0.254938</v>
       </c>
       <c r="D137" t="n">
-        <v>0.257779</v>
+        <v>0.289802</v>
       </c>
     </row>
     <row r="138">
@@ -5152,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.331104</v>
+        <v>0.336581</v>
       </c>
       <c r="C138" t="n">
-        <v>0.269955</v>
+        <v>0.256013</v>
       </c>
       <c r="D138" t="n">
-        <v>0.258192</v>
+        <v>0.293561</v>
       </c>
     </row>
     <row r="139">
@@ -5166,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.336003</v>
+        <v>0.3287</v>
       </c>
       <c r="C139" t="n">
-        <v>0.273243</v>
+        <v>0.260966</v>
       </c>
       <c r="D139" t="n">
-        <v>0.26347</v>
+        <v>0.298363</v>
       </c>
     </row>
     <row r="140">
@@ -5180,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.342306</v>
+        <v>0.338149</v>
       </c>
       <c r="C140" t="n">
-        <v>0.277799</v>
+        <v>0.263354</v>
       </c>
       <c r="D140" t="n">
-        <v>0.265095</v>
+        <v>0.303562</v>
       </c>
     </row>
     <row r="141">
@@ -5194,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.345906</v>
+        <v>0.34874</v>
       </c>
       <c r="C141" t="n">
-        <v>0.280536</v>
+        <v>0.264628</v>
       </c>
       <c r="D141" t="n">
-        <v>0.265107</v>
+        <v>0.307407</v>
       </c>
     </row>
     <row r="142">
@@ -5208,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.358959</v>
+        <v>0.361515</v>
       </c>
       <c r="C142" t="n">
-        <v>0.284456</v>
+        <v>0.265597</v>
       </c>
       <c r="D142" t="n">
-        <v>0.26898</v>
+        <v>0.311045</v>
       </c>
     </row>
     <row r="143">
@@ -5222,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.361726</v>
+        <v>0.370548</v>
       </c>
       <c r="C143" t="n">
-        <v>0.290888</v>
+        <v>0.268918</v>
       </c>
       <c r="D143" t="n">
-        <v>0.269878</v>
+        <v>0.312813</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.105237</v>
+        <v>0.105168</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0692242</v>
+        <v>0.06953959999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.09195970000000001</v>
+        <v>0.0921737</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11111</v>
+        <v>0.111178</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0692405</v>
+        <v>0.06930939999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0922765</v>
+        <v>0.0922357</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121854</v>
+        <v>0.12186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0696765</v>
+        <v>0.0697406</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0921868</v>
+        <v>0.09204</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138232</v>
+        <v>0.138509</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0684825</v>
+        <v>0.0684717</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09266199999999999</v>
+        <v>0.09258280000000001</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.164559</v>
+        <v>0.164195</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0696677</v>
+        <v>0.0734558</v>
       </c>
       <c r="D6" t="n">
-        <v>0.09470240000000001</v>
+        <v>0.0941246</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200764</v>
+        <v>0.200478</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0727657</v>
+        <v>0.07450569999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.10092</v>
+        <v>0.100933</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246307</v>
+        <v>0.245699</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08793810000000001</v>
+        <v>0.0938712</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121315</v>
+        <v>0.121537</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.288181</v>
+        <v>0.308012</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0690622</v>
+        <v>0.0691485</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0913316</v>
+        <v>0.09157410000000001</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0959361</v>
+        <v>0.09599389999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06928579999999999</v>
+        <v>0.0692569</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0915065</v>
+        <v>0.0918088</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09732109999999999</v>
+        <v>0.105168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0692738</v>
+        <v>0.06956080000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.091862</v>
+        <v>0.0919336</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09878290000000001</v>
+        <v>0.0987365</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0695207</v>
+        <v>0.0694398</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09185649999999999</v>
+        <v>0.0918032</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100583</v>
+        <v>0.10066</v>
       </c>
       <c r="C13" t="n">
-        <v>0.069912</v>
+        <v>0.072592</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0920887</v>
+        <v>0.0949483</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.103458</v>
+        <v>0.103599</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0701422</v>
+        <v>0.0717206</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09237570000000001</v>
+        <v>0.0934183</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108097</v>
+        <v>0.108198</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0703561</v>
+        <v>0.0701994</v>
       </c>
       <c r="D15" t="n">
-        <v>0.092488</v>
+        <v>0.0949995</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.113709</v>
+        <v>0.113772</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0701355</v>
+        <v>0.0739828</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09288589999999999</v>
+        <v>0.0932576</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.122423</v>
+        <v>0.130137</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07073260000000001</v>
+        <v>0.0740336</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0932682</v>
+        <v>0.0947511</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134313</v>
+        <v>0.138263</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0712634</v>
+        <v>0.0751242</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0934053</v>
+        <v>0.0959183</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.14962</v>
+        <v>0.158233</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0708884</v>
+        <v>0.0752082</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0942766</v>
+        <v>0.0978291</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171461</v>
+        <v>0.178552</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0746045</v>
+        <v>0.07839019999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0979648</v>
+        <v>0.10193</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.201729</v>
+        <v>0.21374</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08231620000000001</v>
+        <v>0.08816939999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.106853</v>
+        <v>0.112414</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242626</v>
+        <v>0.250817</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0977995</v>
+        <v>0.0991378</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123657</v>
+        <v>0.131174</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.290017</v>
+        <v>0.318106</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0710694</v>
+        <v>0.07534150000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0928253</v>
+        <v>0.0964016</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10104</v>
+        <v>0.105571</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0711608</v>
+        <v>0.0759007</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0929635</v>
+        <v>0.0970259</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102115</v>
+        <v>0.108976</v>
       </c>
       <c r="C25" t="n">
-        <v>0.071494</v>
+        <v>0.0740712</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09312189999999999</v>
+        <v>0.09709950000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103845</v>
+        <v>0.105148</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0717829</v>
+        <v>0.0759831</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0935479</v>
+        <v>0.09434439999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106184</v>
+        <v>0.107903</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0720224</v>
+        <v>0.07466250000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0938399</v>
+        <v>0.0942607</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109387</v>
+        <v>0.110094</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07228270000000001</v>
+        <v>0.07591059999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0938264</v>
+        <v>0.097945</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.11382</v>
+        <v>0.115341</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0726499</v>
+        <v>0.0747129</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0942699</v>
+        <v>0.0989371</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119995</v>
+        <v>0.120115</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07305490000000001</v>
+        <v>0.07547130000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.09494610000000001</v>
+        <v>0.0955565</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127695</v>
+        <v>0.127754</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0734653</v>
+        <v>0.0784318</v>
       </c>
       <c r="D31" t="n">
-        <v>0.095642</v>
+        <v>0.100466</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138226</v>
+        <v>0.139509</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0746132</v>
+        <v>0.0793867</v>
       </c>
       <c r="D32" t="n">
-        <v>0.097083</v>
+        <v>0.100545</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.152194</v>
+        <v>0.161233</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0766574</v>
+        <v>0.0791444</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0978955</v>
+        <v>0.102373</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.16971</v>
+        <v>0.169976</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0813849</v>
+        <v>0.08634319999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.103179</v>
+        <v>0.102975</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194438</v>
+        <v>0.194621</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0880522</v>
+        <v>0.0936491</v>
       </c>
       <c r="D35" t="n">
-        <v>0.110806</v>
+        <v>0.111989</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231318</v>
+        <v>0.234309</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09814580000000001</v>
+        <v>0.09931189999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>0.12183</v>
+        <v>0.130032</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.301029</v>
+        <v>0.280478</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07180549999999999</v>
+        <v>0.0733647</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0931809</v>
+        <v>0.09798519999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104243</v>
+        <v>0.105405</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07210220000000001</v>
+        <v>0.0770237</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0933389</v>
+        <v>0.094115</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105447</v>
+        <v>0.114638</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0722979</v>
+        <v>0.0769161</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0935839</v>
+        <v>0.09405760000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107081</v>
+        <v>0.108995</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0726459</v>
+        <v>0.07416</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0938909</v>
+        <v>0.09398869999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109376</v>
+        <v>0.111096</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0729857</v>
+        <v>0.0755767</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09423189999999999</v>
+        <v>0.0948155</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112858</v>
+        <v>0.117476</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0732109</v>
+        <v>0.0775091</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0946099</v>
+        <v>0.09613770000000001</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.117388</v>
+        <v>0.125499</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07392319999999999</v>
+        <v>0.07832799999999999</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09512900000000001</v>
+        <v>0.09612660000000001</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.124148</v>
+        <v>0.124828</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0744266</v>
+        <v>0.0763375</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0959284</v>
+        <v>0.0995837</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130136</v>
+        <v>0.130246</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07543320000000001</v>
+        <v>0.0778476</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09702570000000001</v>
+        <v>0.09762759999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139243</v>
+        <v>0.139231</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0770005</v>
+        <v>0.0789704</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0983811</v>
+        <v>0.10389</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151882</v>
+        <v>0.151865</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0797775</v>
+        <v>0.08346439999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.101262</v>
+        <v>0.106251</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169065</v>
+        <v>0.17371</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0836066</v>
+        <v>0.0898104</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105502</v>
+        <v>0.105975</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192485</v>
+        <v>0.192622</v>
       </c>
       <c r="C49" t="n">
-        <v>0.08916490000000001</v>
+        <v>0.0908119</v>
       </c>
       <c r="D49" t="n">
-        <v>0.111675</v>
+        <v>0.112153</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.22733</v>
+        <v>0.227249</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09847450000000001</v>
+        <v>0.09872980000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.121196</v>
+        <v>0.129475</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.270292</v>
+        <v>0.27696</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0735941</v>
+        <v>0.0764798</v>
       </c>
       <c r="D51" t="n">
-        <v>0.095903</v>
+        <v>0.0967573</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.320691</v>
+        <v>0.329046</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0738325</v>
+        <v>0.0764233</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09569560000000001</v>
+        <v>0.101223</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.110177</v>
+        <v>0.119645</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07441150000000001</v>
+        <v>0.0792891</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09599050000000001</v>
+        <v>0.0965974</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.111007</v>
+        <v>0.112959</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0745962</v>
+        <v>0.0801057</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0964874</v>
+        <v>0.102284</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.112908</v>
+        <v>0.117669</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0757138</v>
+        <v>0.0770025</v>
       </c>
       <c r="D55" t="n">
-        <v>0.09663040000000001</v>
+        <v>0.0974657</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116565</v>
+        <v>0.119693</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0753687</v>
+        <v>0.0814595</v>
       </c>
       <c r="D56" t="n">
-        <v>0.09705709999999999</v>
+        <v>0.0989423</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121298</v>
+        <v>0.131898</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0766931</v>
+        <v>0.08323120000000001</v>
       </c>
       <c r="D57" t="n">
-        <v>0.09770230000000001</v>
+        <v>0.103556</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.125602</v>
+        <v>0.128442</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0769411</v>
+        <v>0.08189249999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09883160000000001</v>
+        <v>0.105316</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.132723</v>
+        <v>0.136681</v>
       </c>
       <c r="C59" t="n">
-        <v>0.07776569999999999</v>
+        <v>0.08471620000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0995366</v>
+        <v>0.1044</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138985</v>
+        <v>0.142447</v>
       </c>
       <c r="C60" t="n">
-        <v>0.07997840000000001</v>
+        <v>0.08583399999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.101321</v>
+        <v>0.103296</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151209</v>
+        <v>0.154595</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0820227</v>
+        <v>0.08453280000000001</v>
       </c>
       <c r="D61" t="n">
-        <v>0.103633</v>
+        <v>0.11017</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167484</v>
+        <v>0.169658</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0850742</v>
+        <v>0.0923573</v>
       </c>
       <c r="D62" t="n">
-        <v>0.107383</v>
+        <v>0.114506</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189894</v>
+        <v>0.202895</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0903846</v>
+        <v>0.0978185</v>
       </c>
       <c r="D63" t="n">
-        <v>0.113072</v>
+        <v>0.119959</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.219278</v>
+        <v>0.237196</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0996112</v>
+        <v>0.104487</v>
       </c>
       <c r="D64" t="n">
-        <v>0.121121</v>
+        <v>0.129694</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260285</v>
+        <v>0.268882</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113145</v>
+        <v>0.119483</v>
       </c>
       <c r="D65" t="n">
-        <v>0.134871</v>
+        <v>0.147225</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.312806</v>
+        <v>0.335946</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0806825</v>
+        <v>0.0831255</v>
       </c>
       <c r="D66" t="n">
-        <v>0.103267</v>
+        <v>0.104543</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121768</v>
+        <v>0.121852</v>
       </c>
       <c r="C67" t="n">
-        <v>0.081334</v>
+        <v>0.0818774</v>
       </c>
       <c r="D67" t="n">
-        <v>0.103584</v>
+        <v>0.105766</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.12266</v>
+        <v>0.123529</v>
       </c>
       <c r="C68" t="n">
-        <v>0.081827</v>
+        <v>0.0816326</v>
       </c>
       <c r="D68" t="n">
-        <v>0.104201</v>
+        <v>0.104713</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125513</v>
+        <v>0.128388</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0818062</v>
+        <v>0.0825432</v>
       </c>
       <c r="D69" t="n">
-        <v>0.104223</v>
+        <v>0.105776</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.127533</v>
+        <v>0.139162</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0822218</v>
+        <v>0.0889494</v>
       </c>
       <c r="D70" t="n">
-        <v>0.10602</v>
+        <v>0.10608</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132134</v>
+        <v>0.132477</v>
       </c>
       <c r="C71" t="n">
-        <v>0.08278720000000001</v>
+        <v>0.088467</v>
       </c>
       <c r="D71" t="n">
-        <v>0.10756</v>
+        <v>0.106811</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146605</v>
+        <v>0.138704</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0840844</v>
+        <v>0.0893785</v>
       </c>
       <c r="D72" t="n">
-        <v>0.107146</v>
+        <v>0.107906</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142832</v>
+        <v>0.14365</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0853941</v>
+        <v>0.0870567</v>
       </c>
       <c r="D73" t="n">
-        <v>0.107805</v>
+        <v>0.115739</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150714</v>
+        <v>0.162931</v>
       </c>
       <c r="C74" t="n">
-        <v>0.08688170000000001</v>
+        <v>0.0864904</v>
       </c>
       <c r="D74" t="n">
-        <v>0.11075</v>
+        <v>0.116144</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162371</v>
+        <v>0.164568</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0878965</v>
+        <v>0.0949792</v>
       </c>
       <c r="D75" t="n">
-        <v>0.111246</v>
+        <v>0.112942</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175471</v>
+        <v>0.182037</v>
       </c>
       <c r="C76" t="n">
-        <v>0.09139849999999999</v>
+        <v>0.0929263</v>
       </c>
       <c r="D76" t="n">
-        <v>0.113953</v>
+        <v>0.122837</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196412</v>
+        <v>0.199389</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0959699</v>
+        <v>0.09801</v>
       </c>
       <c r="D77" t="n">
-        <v>0.11539</v>
+        <v>0.128113</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225481</v>
+        <v>0.230311</v>
       </c>
       <c r="C78" t="n">
-        <v>0.104349</v>
+        <v>0.105678</v>
       </c>
       <c r="D78" t="n">
-        <v>0.123939</v>
+        <v>0.127749</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27071</v>
+        <v>0.265498</v>
       </c>
       <c r="C79" t="n">
-        <v>0.117089</v>
+        <v>0.119227</v>
       </c>
       <c r="D79" t="n">
-        <v>0.140517</v>
+        <v>0.144214</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322076</v>
+        <v>0.323478</v>
       </c>
       <c r="C80" t="n">
-        <v>0.08848200000000001</v>
+        <v>0.0963576</v>
       </c>
       <c r="D80" t="n">
-        <v>0.111303</v>
+        <v>0.119162</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135223</v>
+        <v>0.145983</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0888719</v>
+        <v>0.0935226</v>
       </c>
       <c r="D81" t="n">
-        <v>0.111994</v>
+        <v>0.114417</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137646</v>
+        <v>0.138295</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0896078</v>
+        <v>0.0914746</v>
       </c>
       <c r="D82" t="n">
-        <v>0.11259</v>
+        <v>0.12031</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139069</v>
+        <v>0.150608</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0902835</v>
+        <v>0.0958562</v>
       </c>
       <c r="D83" t="n">
-        <v>0.113106</v>
+        <v>0.113761</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.141945</v>
+        <v>0.153044</v>
       </c>
       <c r="C84" t="n">
-        <v>0.09117219999999999</v>
+        <v>0.0990018</v>
       </c>
       <c r="D84" t="n">
-        <v>0.11381</v>
+        <v>0.12111</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145944</v>
+        <v>0.156809</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0925252</v>
+        <v>0.0948441</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115076</v>
+        <v>0.119384</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.160609</v>
+        <v>0.156918</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09330140000000001</v>
+        <v>0.101891</v>
       </c>
       <c r="D86" t="n">
-        <v>0.116243</v>
+        <v>0.118417</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.157168</v>
+        <v>0.168432</v>
       </c>
       <c r="C87" t="n">
-        <v>0.096027</v>
+        <v>0.104169</v>
       </c>
       <c r="D87" t="n">
-        <v>0.117979</v>
+        <v>0.126605</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.175869</v>
+        <v>0.177595</v>
       </c>
       <c r="C88" t="n">
-        <v>0.097178</v>
+        <v>0.101013</v>
       </c>
       <c r="D88" t="n">
-        <v>0.120259</v>
+        <v>0.130899</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177389</v>
+        <v>0.186862</v>
       </c>
       <c r="C89" t="n">
-        <v>0.100439</v>
+        <v>0.10461</v>
       </c>
       <c r="D89" t="n">
-        <v>0.123508</v>
+        <v>0.126078</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.195356</v>
+        <v>0.19785</v>
       </c>
       <c r="C90" t="n">
-        <v>0.104539</v>
+        <v>0.113285</v>
       </c>
       <c r="D90" t="n">
-        <v>0.128054</v>
+        <v>0.129488</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.220103</v>
+        <v>0.226097</v>
       </c>
       <c r="C91" t="n">
-        <v>0.111113</v>
+        <v>0.119741</v>
       </c>
       <c r="D91" t="n">
-        <v>0.134079</v>
+        <v>0.142067</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.253955</v>
+        <v>0.253739</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120535</v>
+        <v>0.121788</v>
       </c>
       <c r="D92" t="n">
-        <v>0.143741</v>
+        <v>0.149224</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.302179</v>
+        <v>0.295068</v>
       </c>
       <c r="C93" t="n">
-        <v>0.131987</v>
+        <v>0.144114</v>
       </c>
       <c r="D93" t="n">
-        <v>0.155751</v>
+        <v>0.169185</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.350257</v>
+        <v>0.361906</v>
       </c>
       <c r="C94" t="n">
-        <v>0.100354</v>
+        <v>0.105168</v>
       </c>
       <c r="D94" t="n">
-        <v>0.121742</v>
+        <v>0.121062</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160598</v>
+        <v>0.150517</v>
       </c>
       <c r="C95" t="n">
-        <v>0.102244</v>
+        <v>0.101075</v>
       </c>
       <c r="D95" t="n">
-        <v>0.124183</v>
+        <v>0.123468</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.1635</v>
+        <v>0.163182</v>
       </c>
       <c r="C96" t="n">
-        <v>0.103554</v>
+        <v>0.107331</v>
       </c>
       <c r="D96" t="n">
-        <v>0.124495</v>
+        <v>0.124564</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.167147</v>
+        <v>0.15685</v>
       </c>
       <c r="C97" t="n">
-        <v>0.103759</v>
+        <v>0.104094</v>
       </c>
       <c r="D97" t="n">
-        <v>0.127599</v>
+        <v>0.126093</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.171124</v>
+        <v>0.160414</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107179</v>
+        <v>0.107409</v>
       </c>
       <c r="D98" t="n">
-        <v>0.12818</v>
+        <v>0.129571</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.165208</v>
+        <v>0.16458</v>
       </c>
       <c r="C99" t="n">
-        <v>0.109489</v>
+        <v>0.108485</v>
       </c>
       <c r="D99" t="n">
-        <v>0.132214</v>
+        <v>0.131542</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170897</v>
+        <v>0.177293</v>
       </c>
       <c r="C100" t="n">
-        <v>0.111171</v>
+        <v>0.110763</v>
       </c>
       <c r="D100" t="n">
-        <v>0.131922</v>
+        <v>0.133281</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.188238</v>
+        <v>0.177421</v>
       </c>
       <c r="C101" t="n">
-        <v>0.113178</v>
+        <v>0.112883</v>
       </c>
       <c r="D101" t="n">
-        <v>0.135077</v>
+        <v>0.141635</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186591</v>
+        <v>0.193372</v>
       </c>
       <c r="C102" t="n">
-        <v>0.116171</v>
+        <v>0.118454</v>
       </c>
       <c r="D102" t="n">
-        <v>0.137654</v>
+        <v>0.136358</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.208024</v>
+        <v>0.208285</v>
       </c>
       <c r="C103" t="n">
-        <v>0.118176</v>
+        <v>0.120133</v>
       </c>
       <c r="D103" t="n">
-        <v>0.141075</v>
+        <v>0.142029</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.222822</v>
+        <v>0.213817</v>
       </c>
       <c r="C104" t="n">
-        <v>0.122409</v>
+        <v>0.124062</v>
       </c>
       <c r="D104" t="n">
-        <v>0.14527</v>
+        <v>0.146418</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.233896</v>
+        <v>0.238236</v>
       </c>
       <c r="C105" t="n">
-        <v>0.128662</v>
+        <v>0.12833</v>
       </c>
       <c r="D105" t="n">
-        <v>0.15252</v>
+        <v>0.152118</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.263305</v>
+        <v>0.263746</v>
       </c>
       <c r="C106" t="n">
-        <v>0.136734</v>
+        <v>0.137016</v>
       </c>
       <c r="D106" t="n">
-        <v>0.160168</v>
+        <v>0.1611</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.313596</v>
+        <v>0.310873</v>
       </c>
       <c r="C107" t="n">
-        <v>0.149541</v>
+        <v>0.156796</v>
       </c>
       <c r="D107" t="n">
-        <v>0.175566</v>
+        <v>0.183818</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.378315</v>
+        <v>0.372338</v>
       </c>
       <c r="C108" t="n">
-        <v>0.109278</v>
+        <v>0.110984</v>
       </c>
       <c r="D108" t="n">
-        <v>0.131232</v>
+        <v>0.131305</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.474852</v>
+        <v>0.46981</v>
       </c>
       <c r="C109" t="n">
-        <v>0.111266</v>
+        <v>0.115857</v>
       </c>
       <c r="D109" t="n">
-        <v>0.132625</v>
+        <v>0.13268</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162044</v>
+        <v>0.162534</v>
       </c>
       <c r="C110" t="n">
-        <v>0.112278</v>
+        <v>0.118246</v>
       </c>
       <c r="D110" t="n">
-        <v>0.134032</v>
+        <v>0.133424</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175905</v>
+        <v>0.173826</v>
       </c>
       <c r="C111" t="n">
-        <v>0.113797</v>
+        <v>0.119032</v>
       </c>
       <c r="D111" t="n">
-        <v>0.135426</v>
+        <v>0.135839</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.18006</v>
+        <v>0.169409</v>
       </c>
       <c r="C112" t="n">
-        <v>0.115825</v>
+        <v>0.114947</v>
       </c>
       <c r="D112" t="n">
-        <v>0.137252</v>
+        <v>0.137518</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.176243</v>
+        <v>0.183168</v>
       </c>
       <c r="C113" t="n">
-        <v>0.117926</v>
+        <v>0.117344</v>
       </c>
       <c r="D113" t="n">
-        <v>0.139897</v>
+        <v>0.146079</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180221</v>
+        <v>0.190752</v>
       </c>
       <c r="C114" t="n">
-        <v>0.120295</v>
+        <v>0.125517</v>
       </c>
       <c r="D114" t="n">
-        <v>0.141845</v>
+        <v>0.14214</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.190526</v>
+        <v>0.188169</v>
       </c>
       <c r="C115" t="n">
-        <v>0.123375</v>
+        <v>0.122413</v>
       </c>
       <c r="D115" t="n">
-        <v>0.144645</v>
+        <v>0.150888</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.210862</v>
+        <v>0.199276</v>
       </c>
       <c r="C116" t="n">
-        <v>0.126887</v>
+        <v>0.133629</v>
       </c>
       <c r="D116" t="n">
-        <v>0.148723</v>
+        <v>0.148641</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.212387</v>
+        <v>0.224381</v>
       </c>
       <c r="C117" t="n">
-        <v>0.130979</v>
+        <v>0.130714</v>
       </c>
       <c r="D117" t="n">
-        <v>0.152403</v>
+        <v>0.153811</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.238491</v>
+        <v>0.240888</v>
       </c>
       <c r="C118" t="n">
-        <v>0.1371</v>
+        <v>0.142419</v>
       </c>
       <c r="D118" t="n">
-        <v>0.159958</v>
+        <v>0.160508</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.25442</v>
+        <v>0.254486</v>
       </c>
       <c r="C119" t="n">
-        <v>0.14467</v>
+        <v>0.145438</v>
       </c>
       <c r="D119" t="n">
-        <v>0.169598</v>
+        <v>0.176397</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.299765</v>
+        <v>0.298755</v>
       </c>
       <c r="C120" t="n">
-        <v>0.155371</v>
+        <v>0.161566</v>
       </c>
       <c r="D120" t="n">
-        <v>0.179465</v>
+        <v>0.180449</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.332818</v>
+        <v>0.333185</v>
       </c>
       <c r="C121" t="n">
-        <v>0.171055</v>
+        <v>0.171237</v>
       </c>
       <c r="D121" t="n">
-        <v>0.196413</v>
+        <v>0.201696</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.399337</v>
+        <v>0.403993</v>
       </c>
       <c r="C122" t="n">
-        <v>0.193624</v>
+        <v>0.203818</v>
       </c>
       <c r="D122" t="n">
-        <v>0.221386</v>
+        <v>0.223881</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.496397</v>
+        <v>0.494904</v>
       </c>
       <c r="C123" t="n">
-        <v>0.132463</v>
+        <v>0.141507</v>
       </c>
       <c r="D123" t="n">
-        <v>0.155647</v>
+        <v>0.171586</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.197703</v>
+        <v>0.191201</v>
       </c>
       <c r="C124" t="n">
-        <v>0.139761</v>
+        <v>0.147897</v>
       </c>
       <c r="D124" t="n">
-        <v>0.161368</v>
+        <v>0.179345</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.196201</v>
+        <v>0.205083</v>
       </c>
       <c r="C125" t="n">
-        <v>0.14033</v>
+        <v>0.142867</v>
       </c>
       <c r="D125" t="n">
-        <v>0.165777</v>
+        <v>0.177278</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.205221</v>
+        <v>0.207005</v>
       </c>
       <c r="C126" t="n">
-        <v>0.141008</v>
+        <v>0.151169</v>
       </c>
       <c r="D126" t="n">
-        <v>0.166871</v>
+        <v>0.175145</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.212497</v>
+        <v>0.214742</v>
       </c>
       <c r="C127" t="n">
-        <v>0.145544</v>
+        <v>0.15322</v>
       </c>
       <c r="D127" t="n">
-        <v>0.171992</v>
+        <v>0.181662</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.209771</v>
+        <v>0.21567</v>
       </c>
       <c r="C128" t="n">
-        <v>0.146965</v>
+        <v>0.159023</v>
       </c>
       <c r="D128" t="n">
-        <v>0.174756</v>
+        <v>0.179267</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226844</v>
+        <v>0.229604</v>
       </c>
       <c r="C129" t="n">
-        <v>0.152142</v>
+        <v>0.166184</v>
       </c>
       <c r="D129" t="n">
-        <v>0.180475</v>
+        <v>0.189743</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.237993</v>
+        <v>0.230834</v>
       </c>
       <c r="C130" t="n">
-        <v>0.156632</v>
+        <v>0.163206</v>
       </c>
       <c r="D130" t="n">
-        <v>0.180525</v>
+        <v>0.193122</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.244609</v>
+        <v>0.240521</v>
       </c>
       <c r="C131" t="n">
-        <v>0.157584</v>
+        <v>0.164241</v>
       </c>
       <c r="D131" t="n">
-        <v>0.182897</v>
+        <v>0.188688</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.262834</v>
+        <v>0.265836</v>
       </c>
       <c r="C132" t="n">
-        <v>0.160076</v>
+        <v>0.169574</v>
       </c>
       <c r="D132" t="n">
-        <v>0.18731</v>
+        <v>0.194547</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.29111</v>
+        <v>0.284977</v>
       </c>
       <c r="C133" t="n">
-        <v>0.167339</v>
+        <v>0.177569</v>
       </c>
       <c r="D133" t="n">
-        <v>0.194051</v>
+        <v>0.200901</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.316752</v>
+        <v>0.322991</v>
       </c>
       <c r="C134" t="n">
-        <v>0.174963</v>
+        <v>0.185716</v>
       </c>
       <c r="D134" t="n">
-        <v>0.206573</v>
+        <v>0.217161</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.34683</v>
+        <v>0.361734</v>
       </c>
       <c r="C135" t="n">
-        <v>0.186908</v>
+        <v>0.190649</v>
       </c>
       <c r="D135" t="n">
-        <v>0.217801</v>
+        <v>0.230405</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411055</v>
+        <v>0.409937</v>
       </c>
       <c r="C136" t="n">
-        <v>0.209002</v>
+        <v>0.207046</v>
       </c>
       <c r="D136" t="n">
-        <v>0.243424</v>
+        <v>0.252536</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.508695</v>
+        <v>0.517672</v>
       </c>
       <c r="C137" t="n">
-        <v>0.254938</v>
+        <v>0.257579</v>
       </c>
       <c r="D137" t="n">
-        <v>0.289802</v>
+        <v>0.303267</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.336581</v>
+        <v>0.338961</v>
       </c>
       <c r="C138" t="n">
-        <v>0.256013</v>
+        <v>0.263806</v>
       </c>
       <c r="D138" t="n">
-        <v>0.293561</v>
+        <v>0.301932</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.3287</v>
+        <v>0.336815</v>
       </c>
       <c r="C139" t="n">
-        <v>0.260966</v>
+        <v>0.265028</v>
       </c>
       <c r="D139" t="n">
-        <v>0.298363</v>
+        <v>0.309687</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.338149</v>
+        <v>0.347736</v>
       </c>
       <c r="C140" t="n">
-        <v>0.263354</v>
+        <v>0.268276</v>
       </c>
       <c r="D140" t="n">
-        <v>0.303562</v>
+        <v>0.311922</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.34874</v>
+        <v>0.354404</v>
       </c>
       <c r="C141" t="n">
-        <v>0.264628</v>
+        <v>0.265246</v>
       </c>
       <c r="D141" t="n">
-        <v>0.307407</v>
+        <v>0.317047</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.361515</v>
+        <v>0.355716</v>
       </c>
       <c r="C142" t="n">
-        <v>0.265597</v>
+        <v>0.274485</v>
       </c>
       <c r="D142" t="n">
-        <v>0.311045</v>
+        <v>0.322812</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.370548</v>
+        <v>0.372361</v>
       </c>
       <c r="C143" t="n">
-        <v>0.268918</v>
+        <v>0.273831</v>
       </c>
       <c r="D143" t="n">
-        <v>0.312813</v>
+        <v>0.319248</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.105168</v>
+        <v>0.104998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06953959999999999</v>
+        <v>0.0694615</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0921737</v>
+        <v>0.092281</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111178</v>
+        <v>0.110927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06930939999999999</v>
+        <v>0.0691582</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0922357</v>
+        <v>0.09166920000000001</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12186</v>
+        <v>0.12185</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0697406</v>
+        <v>0.0696078</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09204</v>
+        <v>0.0921029</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138509</v>
+        <v>0.138394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0684717</v>
+        <v>0.0683434</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09258280000000001</v>
+        <v>0.0926028</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.164195</v>
+        <v>0.164836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0734558</v>
+        <v>0.06972299999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0941246</v>
+        <v>0.0945703</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200478</v>
+        <v>0.200794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07450569999999999</v>
+        <v>0.07273</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100933</v>
+        <v>0.100761</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245699</v>
+        <v>0.246089</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0938712</v>
+        <v>0.0882732</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121537</v>
+        <v>0.121686</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.308012</v>
+        <v>0.288242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0691485</v>
+        <v>0.0691387</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09157410000000001</v>
+        <v>0.091392</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09599389999999999</v>
+        <v>0.0954391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0692569</v>
+        <v>0.0688423</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0918088</v>
+        <v>0.0915184</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.105168</v>
+        <v>0.0967402</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06956080000000001</v>
+        <v>0.0689868</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0919336</v>
+        <v>0.09174</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0987365</v>
+        <v>0.0981533</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0694398</v>
+        <v>0.0690558</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0918032</v>
+        <v>0.09187960000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.10066</v>
+        <v>0.100027</v>
       </c>
       <c r="C13" t="n">
-        <v>0.072592</v>
+        <v>0.0696702</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0949483</v>
+        <v>0.0920878</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.103599</v>
+        <v>0.102812</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0717206</v>
+        <v>0.0698561</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0934183</v>
+        <v>0.09224</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108198</v>
+        <v>0.107548</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0701994</v>
+        <v>0.0700813</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0949995</v>
+        <v>0.0924712</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.113772</v>
+        <v>0.112972</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0739828</v>
+        <v>0.0701215</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0932576</v>
+        <v>0.09263830000000001</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130137</v>
+        <v>0.121749</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0740336</v>
+        <v>0.0705113</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0947511</v>
+        <v>0.0930096</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138263</v>
+        <v>0.133709</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0751242</v>
+        <v>0.070886</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0959183</v>
+        <v>0.0932164</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.158233</v>
+        <v>0.148786</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0752082</v>
+        <v>0.0706956</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0978291</v>
+        <v>0.0940719</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.178552</v>
+        <v>0.170432</v>
       </c>
       <c r="C20" t="n">
-        <v>0.07839019999999999</v>
+        <v>0.0747548</v>
       </c>
       <c r="D20" t="n">
-        <v>0.10193</v>
+        <v>0.09759</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.21374</v>
+        <v>0.200821</v>
       </c>
       <c r="C21" t="n">
-        <v>0.08816939999999999</v>
+        <v>0.0824153</v>
       </c>
       <c r="D21" t="n">
-        <v>0.112414</v>
+        <v>0.106515</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.250817</v>
+        <v>0.241955</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0991378</v>
+        <v>0.09719129999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>0.131174</v>
+        <v>0.123187</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.318106</v>
+        <v>0.288966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07534150000000001</v>
+        <v>0.0710489</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0964016</v>
+        <v>0.0927733</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.105571</v>
+        <v>0.100912</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0759007</v>
+        <v>0.0711005</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0970259</v>
+        <v>0.092849</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.108976</v>
+        <v>0.102057</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0740712</v>
+        <v>0.0714526</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09709950000000001</v>
+        <v>0.09312280000000001</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.105148</v>
+        <v>0.103733</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0759831</v>
+        <v>0.07164329999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09434439999999999</v>
+        <v>0.09334439999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.107903</v>
+        <v>0.106138</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07466250000000001</v>
+        <v>0.07190829999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0942607</v>
+        <v>0.0935845</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.110094</v>
+        <v>0.109151</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07591059999999999</v>
+        <v>0.0722955</v>
       </c>
       <c r="D28" t="n">
-        <v>0.097945</v>
+        <v>0.0937374</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115341</v>
+        <v>0.113597</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0747129</v>
+        <v>0.0724238</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0989371</v>
+        <v>0.094276</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120115</v>
+        <v>0.120009</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07547130000000001</v>
+        <v>0.0728423</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0955565</v>
+        <v>0.0946399</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127754</v>
+        <v>0.127132</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0784318</v>
+        <v>0.07330150000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.100466</v>
+        <v>0.0953546</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139509</v>
+        <v>0.137616</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0793867</v>
+        <v>0.0746146</v>
       </c>
       <c r="D32" t="n">
-        <v>0.100545</v>
+        <v>0.09609810000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.161233</v>
+        <v>0.154576</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0791444</v>
+        <v>0.0763987</v>
       </c>
       <c r="D33" t="n">
-        <v>0.102373</v>
+        <v>0.097591</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169976</v>
+        <v>0.17027</v>
       </c>
       <c r="C34" t="n">
-        <v>0.08634319999999999</v>
+        <v>0.0812988</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102975</v>
+        <v>0.102857</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194621</v>
+        <v>0.193558</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0936491</v>
+        <v>0.0878936</v>
       </c>
       <c r="D35" t="n">
-        <v>0.111989</v>
+        <v>0.110569</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234309</v>
+        <v>0.233283</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09931189999999999</v>
+        <v>0.0980795</v>
       </c>
       <c r="D36" t="n">
-        <v>0.130032</v>
+        <v>0.121616</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280478</v>
+        <v>0.284977</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0733647</v>
+        <v>0.07171760000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.09798519999999999</v>
+        <v>0.0931681</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105405</v>
+        <v>0.103993</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0770237</v>
+        <v>0.0721489</v>
       </c>
       <c r="D38" t="n">
-        <v>0.094115</v>
+        <v>0.0934562</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.114638</v>
+        <v>0.105313</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0769161</v>
+        <v>0.07231849999999999</v>
       </c>
       <c r="D39" t="n">
-        <v>0.09405760000000001</v>
+        <v>0.0935785</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.108995</v>
+        <v>0.106912</v>
       </c>
       <c r="C40" t="n">
-        <v>0.07416</v>
+        <v>0.0725821</v>
       </c>
       <c r="D40" t="n">
-        <v>0.09398869999999999</v>
+        <v>0.0939065</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.111096</v>
+        <v>0.109176</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0755767</v>
+        <v>0.072896</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0948155</v>
+        <v>0.09420630000000001</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.117476</v>
+        <v>0.112636</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0775091</v>
+        <v>0.0732978</v>
       </c>
       <c r="D42" t="n">
-        <v>0.09613770000000001</v>
+        <v>0.094554</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.125499</v>
+        <v>0.117195</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07832799999999999</v>
+        <v>0.0737743</v>
       </c>
       <c r="D43" t="n">
-        <v>0.09612660000000001</v>
+        <v>0.0982399</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.124828</v>
+        <v>0.12261</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0763375</v>
+        <v>0.075393</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0995837</v>
+        <v>0.100766</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130246</v>
+        <v>0.130077</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0778476</v>
+        <v>0.07559979999999999</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09762759999999999</v>
+        <v>0.0968239</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139231</v>
+        <v>0.139156</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0789704</v>
+        <v>0.07790569999999999</v>
       </c>
       <c r="D46" t="n">
-        <v>0.10389</v>
+        <v>0.09838619999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151865</v>
+        <v>0.152006</v>
       </c>
       <c r="C47" t="n">
-        <v>0.08346439999999999</v>
+        <v>0.07988199999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.106251</v>
+        <v>0.101055</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.17371</v>
+        <v>0.167836</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0898104</v>
+        <v>0.0858368</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105975</v>
+        <v>0.105429</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192622</v>
+        <v>0.191822</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0908119</v>
+        <v>0.0889432</v>
       </c>
       <c r="D49" t="n">
-        <v>0.112153</v>
+        <v>0.111542</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.227249</v>
+        <v>0.225194</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09872980000000001</v>
+        <v>0.09819840000000001</v>
       </c>
       <c r="D50" t="n">
-        <v>0.129475</v>
+        <v>0.121094</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.27696</v>
+        <v>0.270352</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0764798</v>
+        <v>0.0746507</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0967573</v>
+        <v>0.0949591</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.329046</v>
+        <v>0.320378</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0764233</v>
+        <v>0.0793944</v>
       </c>
       <c r="D52" t="n">
-        <v>0.101223</v>
+        <v>0.0952924</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.119645</v>
+        <v>0.109436</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0792891</v>
+        <v>0.07411570000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0965974</v>
+        <v>0.0959791</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.112959</v>
+        <v>0.110884</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0801057</v>
+        <v>0.07461379999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.102284</v>
+        <v>0.0962539</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.117669</v>
+        <v>0.11275</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0770025</v>
+        <v>0.0754957</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0974657</v>
+        <v>0.101781</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.119693</v>
+        <v>0.116165</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0814595</v>
+        <v>0.07724590000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0989423</v>
+        <v>0.10228</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.131898</v>
+        <v>0.12244</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08323120000000001</v>
+        <v>0.0761666</v>
       </c>
       <c r="D57" t="n">
-        <v>0.103556</v>
+        <v>0.10253</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.128442</v>
+        <v>0.128922</v>
       </c>
       <c r="C58" t="n">
-        <v>0.08189249999999999</v>
+        <v>0.07734439999999999</v>
       </c>
       <c r="D58" t="n">
-        <v>0.105316</v>
+        <v>0.10342</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.136681</v>
+        <v>0.131753</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08471620000000001</v>
+        <v>0.08229019999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.1044</v>
+        <v>0.10508</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142447</v>
+        <v>0.1413</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08583399999999999</v>
+        <v>0.08007499999999999</v>
       </c>
       <c r="D60" t="n">
-        <v>0.103296</v>
+        <v>0.105211</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.154595</v>
+        <v>0.153152</v>
       </c>
       <c r="C61" t="n">
-        <v>0.08453280000000001</v>
+        <v>0.0833604</v>
       </c>
       <c r="D61" t="n">
-        <v>0.11017</v>
+        <v>0.104528</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.169658</v>
+        <v>0.16909</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0923573</v>
+        <v>0.08569359999999999</v>
       </c>
       <c r="D62" t="n">
-        <v>0.114506</v>
+        <v>0.107349</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.202895</v>
+        <v>0.192068</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0978185</v>
+        <v>0.0985429</v>
       </c>
       <c r="D63" t="n">
-        <v>0.119959</v>
+        <v>0.113335</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.237196</v>
+        <v>0.221208</v>
       </c>
       <c r="C64" t="n">
-        <v>0.104487</v>
+        <v>0.100602</v>
       </c>
       <c r="D64" t="n">
-        <v>0.129694</v>
+        <v>0.121328</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.268882</v>
+        <v>0.26351</v>
       </c>
       <c r="C65" t="n">
-        <v>0.119483</v>
+        <v>0.124477</v>
       </c>
       <c r="D65" t="n">
-        <v>0.147225</v>
+        <v>0.136189</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.335946</v>
+        <v>0.314336</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0831255</v>
+        <v>0.0809912</v>
       </c>
       <c r="D66" t="n">
-        <v>0.104543</v>
+        <v>0.110609</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121852</v>
+        <v>0.12264</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0818774</v>
+        <v>0.0885484</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105766</v>
+        <v>0.105486</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123529</v>
+        <v>0.124718</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0816326</v>
+        <v>0.0891762</v>
       </c>
       <c r="D68" t="n">
-        <v>0.104713</v>
+        <v>0.111848</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.128388</v>
+        <v>0.128567</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0825432</v>
+        <v>0.08946809999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105776</v>
+        <v>0.105461</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.139162</v>
+        <v>0.138342</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0889494</v>
+        <v>0.0839985</v>
       </c>
       <c r="D70" t="n">
-        <v>0.10608</v>
+        <v>0.106976</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132477</v>
+        <v>0.132856</v>
       </c>
       <c r="C71" t="n">
-        <v>0.088467</v>
+        <v>0.0881139</v>
       </c>
       <c r="D71" t="n">
-        <v>0.106811</v>
+        <v>0.107871</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138704</v>
+        <v>0.136298</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0893785</v>
+        <v>0.08525339999999999</v>
       </c>
       <c r="D72" t="n">
-        <v>0.107906</v>
+        <v>0.106448</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.14365</v>
+        <v>0.143147</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0870567</v>
+        <v>0.0863199</v>
       </c>
       <c r="D73" t="n">
-        <v>0.115739</v>
+        <v>0.116545</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.162931</v>
+        <v>0.162761</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0864904</v>
+        <v>0.0944598</v>
       </c>
       <c r="D74" t="n">
-        <v>0.116144</v>
+        <v>0.112378</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.164568</v>
+        <v>0.168481</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0949792</v>
+        <v>0.08854430000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>0.112942</v>
+        <v>0.120355</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.182037</v>
+        <v>0.176716</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0929263</v>
+        <v>0.0918278</v>
       </c>
       <c r="D76" t="n">
-        <v>0.122837</v>
+        <v>0.115127</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.199389</v>
+        <v>0.21527</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09801</v>
+        <v>0.09612660000000001</v>
       </c>
       <c r="D77" t="n">
-        <v>0.128113</v>
+        <v>0.121828</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.230311</v>
+        <v>0.234054</v>
       </c>
       <c r="C78" t="n">
-        <v>0.105678</v>
+        <v>0.104084</v>
       </c>
       <c r="D78" t="n">
-        <v>0.127749</v>
+        <v>0.12906</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.265498</v>
+        <v>0.275025</v>
       </c>
       <c r="C79" t="n">
-        <v>0.119227</v>
+        <v>0.117024</v>
       </c>
       <c r="D79" t="n">
-        <v>0.144214</v>
+        <v>0.142859</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323478</v>
+        <v>0.340587</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0963576</v>
+        <v>0.0939975</v>
       </c>
       <c r="D80" t="n">
-        <v>0.119162</v>
+        <v>0.111817</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145983</v>
+        <v>0.138344</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0935226</v>
+        <v>0.09121410000000001</v>
       </c>
       <c r="D81" t="n">
-        <v>0.114417</v>
+        <v>0.113928</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.138295</v>
+        <v>0.138004</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0914746</v>
+        <v>0.0963413</v>
       </c>
       <c r="D82" t="n">
-        <v>0.12031</v>
+        <v>0.112491</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.150608</v>
+        <v>0.140709</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0958562</v>
+        <v>0.0920671</v>
       </c>
       <c r="D83" t="n">
-        <v>0.113761</v>
+        <v>0.114004</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.153044</v>
+        <v>0.152728</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0990018</v>
+        <v>0.0931945</v>
       </c>
       <c r="D84" t="n">
-        <v>0.12111</v>
+        <v>0.118612</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.156809</v>
+        <v>0.151011</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0948441</v>
+        <v>0.0938215</v>
       </c>
       <c r="D85" t="n">
-        <v>0.119384</v>
+        <v>0.115282</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.156918</v>
+        <v>0.152811</v>
       </c>
       <c r="C86" t="n">
-        <v>0.101891</v>
+        <v>0.102633</v>
       </c>
       <c r="D86" t="n">
-        <v>0.118417</v>
+        <v>0.117539</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.168432</v>
+        <v>0.169024</v>
       </c>
       <c r="C87" t="n">
-        <v>0.104169</v>
+        <v>0.09850739999999999</v>
       </c>
       <c r="D87" t="n">
-        <v>0.126605</v>
+        <v>0.119295</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.177595</v>
+        <v>0.178438</v>
       </c>
       <c r="C88" t="n">
-        <v>0.101013</v>
+        <v>0.101019</v>
       </c>
       <c r="D88" t="n">
-        <v>0.130899</v>
+        <v>0.130731</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.186862</v>
+        <v>0.179055</v>
       </c>
       <c r="C89" t="n">
-        <v>0.10461</v>
+        <v>0.102341</v>
       </c>
       <c r="D89" t="n">
-        <v>0.126078</v>
+        <v>0.124558</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19785</v>
+        <v>0.196116</v>
       </c>
       <c r="C90" t="n">
-        <v>0.113285</v>
+        <v>0.112466</v>
       </c>
       <c r="D90" t="n">
-        <v>0.129488</v>
+        <v>0.13123</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.226097</v>
+        <v>0.227105</v>
       </c>
       <c r="C91" t="n">
-        <v>0.119741</v>
+        <v>0.112513</v>
       </c>
       <c r="D91" t="n">
-        <v>0.142067</v>
+        <v>0.134447</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.253739</v>
+        <v>0.24951</v>
       </c>
       <c r="C92" t="n">
-        <v>0.121788</v>
+        <v>0.129074</v>
       </c>
       <c r="D92" t="n">
-        <v>0.149224</v>
+        <v>0.152687</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.295068</v>
+        <v>0.292087</v>
       </c>
       <c r="C93" t="n">
-        <v>0.144114</v>
+        <v>0.132794</v>
       </c>
       <c r="D93" t="n">
-        <v>0.169185</v>
+        <v>0.15596</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361906</v>
+        <v>0.356305</v>
       </c>
       <c r="C94" t="n">
-        <v>0.105168</v>
+        <v>0.0998768</v>
       </c>
       <c r="D94" t="n">
-        <v>0.121062</v>
+        <v>0.122242</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.150517</v>
+        <v>0.160051</v>
       </c>
       <c r="C95" t="n">
-        <v>0.101075</v>
+        <v>0.107773</v>
       </c>
       <c r="D95" t="n">
-        <v>0.123468</v>
+        <v>0.123931</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.163182</v>
+        <v>0.157449</v>
       </c>
       <c r="C96" t="n">
-        <v>0.107331</v>
+        <v>0.102667</v>
       </c>
       <c r="D96" t="n">
-        <v>0.124564</v>
+        <v>0.125484</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15685</v>
+        <v>0.156374</v>
       </c>
       <c r="C97" t="n">
-        <v>0.104094</v>
+        <v>0.110818</v>
       </c>
       <c r="D97" t="n">
-        <v>0.126093</v>
+        <v>0.12455</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160414</v>
+        <v>0.170175</v>
       </c>
       <c r="C98" t="n">
-        <v>0.107409</v>
+        <v>0.10645</v>
       </c>
       <c r="D98" t="n">
-        <v>0.129571</v>
+        <v>0.128231</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.16458</v>
+        <v>0.174873</v>
       </c>
       <c r="C99" t="n">
-        <v>0.108485</v>
+        <v>0.108256</v>
       </c>
       <c r="D99" t="n">
-        <v>0.131542</v>
+        <v>0.130965</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.177293</v>
+        <v>0.173767</v>
       </c>
       <c r="C100" t="n">
-        <v>0.110763</v>
+        <v>0.111945</v>
       </c>
       <c r="D100" t="n">
-        <v>0.133281</v>
+        <v>0.132061</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.177421</v>
+        <v>0.187549</v>
       </c>
       <c r="C101" t="n">
-        <v>0.112883</v>
+        <v>0.113523</v>
       </c>
       <c r="D101" t="n">
-        <v>0.141635</v>
+        <v>0.135093</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.193372</v>
+        <v>0.192552</v>
       </c>
       <c r="C102" t="n">
-        <v>0.118454</v>
+        <v>0.117723</v>
       </c>
       <c r="D102" t="n">
-        <v>0.136358</v>
+        <v>0.138128</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.208285</v>
+        <v>0.208341</v>
       </c>
       <c r="C103" t="n">
-        <v>0.120133</v>
+        <v>0.119805</v>
       </c>
       <c r="D103" t="n">
-        <v>0.142029</v>
+        <v>0.141801</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.213817</v>
+        <v>0.212514</v>
       </c>
       <c r="C104" t="n">
-        <v>0.124062</v>
+        <v>0.125365</v>
       </c>
       <c r="D104" t="n">
-        <v>0.146418</v>
+        <v>0.144145</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.238236</v>
+        <v>0.245768</v>
       </c>
       <c r="C105" t="n">
-        <v>0.12833</v>
+        <v>0.136077</v>
       </c>
       <c r="D105" t="n">
-        <v>0.152118</v>
+        <v>0.152324</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.263746</v>
+        <v>0.263162</v>
       </c>
       <c r="C106" t="n">
-        <v>0.137016</v>
+        <v>0.134837</v>
       </c>
       <c r="D106" t="n">
-        <v>0.1611</v>
+        <v>0.158991</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.310873</v>
+        <v>0.307937</v>
       </c>
       <c r="C107" t="n">
-        <v>0.156796</v>
+        <v>0.158534</v>
       </c>
       <c r="D107" t="n">
-        <v>0.183818</v>
+        <v>0.177082</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.372338</v>
+        <v>0.376139</v>
       </c>
       <c r="C108" t="n">
-        <v>0.110984</v>
+        <v>0.10941</v>
       </c>
       <c r="D108" t="n">
-        <v>0.131305</v>
+        <v>0.131106</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.46981</v>
+        <v>0.473435</v>
       </c>
       <c r="C109" t="n">
-        <v>0.115857</v>
+        <v>0.111165</v>
       </c>
       <c r="D109" t="n">
-        <v>0.13268</v>
+        <v>0.132519</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162534</v>
+        <v>0.162221</v>
       </c>
       <c r="C110" t="n">
-        <v>0.118246</v>
+        <v>0.112819</v>
       </c>
       <c r="D110" t="n">
-        <v>0.133424</v>
+        <v>0.133947</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.173826</v>
+        <v>0.176195</v>
       </c>
       <c r="C111" t="n">
-        <v>0.119032</v>
+        <v>0.113902</v>
       </c>
       <c r="D111" t="n">
-        <v>0.135839</v>
+        <v>0.135384</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.169409</v>
+        <v>0.180234</v>
       </c>
       <c r="C112" t="n">
-        <v>0.114947</v>
+        <v>0.116785</v>
       </c>
       <c r="D112" t="n">
-        <v>0.137518</v>
+        <v>0.136862</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.183168</v>
+        <v>0.176047</v>
       </c>
       <c r="C113" t="n">
-        <v>0.117344</v>
+        <v>0.119681</v>
       </c>
       <c r="D113" t="n">
-        <v>0.146079</v>
+        <v>0.140215</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.190752</v>
+        <v>0.182815</v>
       </c>
       <c r="C114" t="n">
-        <v>0.125517</v>
+        <v>0.123924</v>
       </c>
       <c r="D114" t="n">
-        <v>0.14214</v>
+        <v>0.144299</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.188169</v>
+        <v>0.201616</v>
       </c>
       <c r="C115" t="n">
-        <v>0.122413</v>
+        <v>0.125454</v>
       </c>
       <c r="D115" t="n">
-        <v>0.150888</v>
+        <v>0.146219</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.199276</v>
+        <v>0.211479</v>
       </c>
       <c r="C116" t="n">
-        <v>0.133629</v>
+        <v>0.129296</v>
       </c>
       <c r="D116" t="n">
-        <v>0.148641</v>
+        <v>0.149671</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224381</v>
+        <v>0.216025</v>
       </c>
       <c r="C117" t="n">
-        <v>0.130714</v>
+        <v>0.13781</v>
       </c>
       <c r="D117" t="n">
-        <v>0.153811</v>
+        <v>0.156951</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240888</v>
+        <v>0.233095</v>
       </c>
       <c r="C118" t="n">
-        <v>0.142419</v>
+        <v>0.144556</v>
       </c>
       <c r="D118" t="n">
-        <v>0.160508</v>
+        <v>0.162626</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254486</v>
+        <v>0.256197</v>
       </c>
       <c r="C119" t="n">
-        <v>0.145438</v>
+        <v>0.147474</v>
       </c>
       <c r="D119" t="n">
-        <v>0.176397</v>
+        <v>0.180463</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.298755</v>
+        <v>0.293143</v>
       </c>
       <c r="C120" t="n">
-        <v>0.161566</v>
+        <v>0.15658</v>
       </c>
       <c r="D120" t="n">
-        <v>0.180449</v>
+        <v>0.189261</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333185</v>
+        <v>0.329945</v>
       </c>
       <c r="C121" t="n">
-        <v>0.171237</v>
+        <v>0.171486</v>
       </c>
       <c r="D121" t="n">
-        <v>0.201696</v>
+        <v>0.200938</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403993</v>
+        <v>0.410598</v>
       </c>
       <c r="C122" t="n">
-        <v>0.203818</v>
+        <v>0.202838</v>
       </c>
       <c r="D122" t="n">
-        <v>0.223881</v>
+        <v>0.235675</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494904</v>
+        <v>0.49248</v>
       </c>
       <c r="C123" t="n">
-        <v>0.141507</v>
+        <v>0.143929</v>
       </c>
       <c r="D123" t="n">
-        <v>0.171586</v>
+        <v>0.170108</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.191201</v>
+        <v>0.201854</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147897</v>
+        <v>0.141881</v>
       </c>
       <c r="D124" t="n">
-        <v>0.179345</v>
+        <v>0.173051</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.205083</v>
+        <v>0.207119</v>
       </c>
       <c r="C125" t="n">
-        <v>0.142867</v>
+        <v>0.144571</v>
       </c>
       <c r="D125" t="n">
-        <v>0.177278</v>
+        <v>0.17041</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.207005</v>
+        <v>0.200926</v>
       </c>
       <c r="C126" t="n">
-        <v>0.151169</v>
+        <v>0.149786</v>
       </c>
       <c r="D126" t="n">
-        <v>0.175145</v>
+        <v>0.171341</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.214742</v>
+        <v>0.206368</v>
       </c>
       <c r="C127" t="n">
-        <v>0.15322</v>
+        <v>0.152686</v>
       </c>
       <c r="D127" t="n">
-        <v>0.181662</v>
+        <v>0.178911</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21567</v>
+        <v>0.213367</v>
       </c>
       <c r="C128" t="n">
-        <v>0.159023</v>
+        <v>0.147727</v>
       </c>
       <c r="D128" t="n">
-        <v>0.179267</v>
+        <v>0.181553</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.229604</v>
+        <v>0.225072</v>
       </c>
       <c r="C129" t="n">
-        <v>0.166184</v>
+        <v>0.158682</v>
       </c>
       <c r="D129" t="n">
-        <v>0.189743</v>
+        <v>0.179409</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230834</v>
+        <v>0.239522</v>
       </c>
       <c r="C130" t="n">
-        <v>0.163206</v>
+        <v>0.155385</v>
       </c>
       <c r="D130" t="n">
-        <v>0.193122</v>
+        <v>0.19019</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240521</v>
+        <v>0.245393</v>
       </c>
       <c r="C131" t="n">
-        <v>0.164241</v>
+        <v>0.159957</v>
       </c>
       <c r="D131" t="n">
-        <v>0.188688</v>
+        <v>0.193975</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265836</v>
+        <v>0.261879</v>
       </c>
       <c r="C132" t="n">
-        <v>0.169574</v>
+        <v>0.167005</v>
       </c>
       <c r="D132" t="n">
-        <v>0.194547</v>
+        <v>0.192377</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.284977</v>
+        <v>0.284716</v>
       </c>
       <c r="C133" t="n">
-        <v>0.177569</v>
+        <v>0.172462</v>
       </c>
       <c r="D133" t="n">
-        <v>0.200901</v>
+        <v>0.198989</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.322991</v>
+        <v>0.30912</v>
       </c>
       <c r="C134" t="n">
-        <v>0.185716</v>
+        <v>0.190897</v>
       </c>
       <c r="D134" t="n">
-        <v>0.217161</v>
+        <v>0.21847</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.361734</v>
+        <v>0.361285</v>
       </c>
       <c r="C135" t="n">
-        <v>0.190649</v>
+        <v>0.198985</v>
       </c>
       <c r="D135" t="n">
-        <v>0.230405</v>
+        <v>0.238773</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.409937</v>
+        <v>0.421403</v>
       </c>
       <c r="C136" t="n">
-        <v>0.207046</v>
+        <v>0.221145</v>
       </c>
       <c r="D136" t="n">
-        <v>0.252536</v>
+        <v>0.245059</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.517672</v>
+        <v>0.51414</v>
       </c>
       <c r="C137" t="n">
-        <v>0.257579</v>
+        <v>0.263262</v>
       </c>
       <c r="D137" t="n">
-        <v>0.303267</v>
+        <v>0.301721</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.338961</v>
+        <v>0.340123</v>
       </c>
       <c r="C138" t="n">
-        <v>0.263806</v>
+        <v>0.2627</v>
       </c>
       <c r="D138" t="n">
-        <v>0.301932</v>
+        <v>0.311509</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.336815</v>
+        <v>0.342251</v>
       </c>
       <c r="C139" t="n">
-        <v>0.265028</v>
+        <v>0.265815</v>
       </c>
       <c r="D139" t="n">
-        <v>0.309687</v>
+        <v>0.312093</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.347736</v>
+        <v>0.352322</v>
       </c>
       <c r="C140" t="n">
-        <v>0.268276</v>
+        <v>0.266639</v>
       </c>
       <c r="D140" t="n">
-        <v>0.311922</v>
+        <v>0.319084</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.354404</v>
+        <v>0.358102</v>
       </c>
       <c r="C141" t="n">
-        <v>0.265246</v>
+        <v>0.274802</v>
       </c>
       <c r="D141" t="n">
-        <v>0.317047</v>
+        <v>0.315061</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.355716</v>
+        <v>0.368554</v>
       </c>
       <c r="C142" t="n">
-        <v>0.274485</v>
+        <v>0.272802</v>
       </c>
       <c r="D142" t="n">
-        <v>0.322812</v>
+        <v>0.316931</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.372361</v>
+        <v>0.364751</v>
       </c>
       <c r="C143" t="n">
-        <v>0.273831</v>
+        <v>0.275202</v>
       </c>
       <c r="D143" t="n">
-        <v>0.319248</v>
+        <v>0.323613</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104998</v>
+        <v>0.103691</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0694615</v>
+        <v>0.0693156</v>
       </c>
       <c r="D2" t="n">
-        <v>0.092281</v>
+        <v>0.161133</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110927</v>
+        <v>0.107016</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0691582</v>
+        <v>0.0693497</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09166920000000001</v>
+        <v>0.167308</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12185</v>
+        <v>0.122272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0696078</v>
+        <v>0.0693279</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0921029</v>
+        <v>0.175572</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138394</v>
+        <v>0.142258</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0683434</v>
+        <v>0.06891700000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0926028</v>
+        <v>0.188088</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.164836</v>
+        <v>0.172289</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06972299999999999</v>
+        <v>0.0698426</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0945703</v>
+        <v>0.196592</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200794</v>
+        <v>0.196822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07273</v>
+        <v>0.0734662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100761</v>
+        <v>0.142795</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246089</v>
+        <v>0.242106</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0882732</v>
+        <v>0.087739</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121686</v>
+        <v>0.150996</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.288242</v>
+        <v>0.29504</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0691387</v>
+        <v>0.0688864</v>
       </c>
       <c r="D9" t="n">
-        <v>0.091392</v>
+        <v>0.158838</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0954391</v>
+        <v>0.09475500000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0688423</v>
+        <v>0.06906519999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0915184</v>
+        <v>0.166148</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0967402</v>
+        <v>0.0956183</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0689868</v>
+        <v>0.0690629</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09174</v>
+        <v>0.174348</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0981533</v>
+        <v>0.0972746</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0690558</v>
+        <v>0.06952659999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09187960000000001</v>
+        <v>0.180675</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100027</v>
+        <v>0.0990523</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0696702</v>
+        <v>0.0695679</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0920878</v>
+        <v>0.185176</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102812</v>
+        <v>0.101061</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0698561</v>
+        <v>0.0697401</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09224</v>
+        <v>0.191168</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107548</v>
+        <v>0.105122</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0700813</v>
+        <v>0.0700172</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0924712</v>
+        <v>0.19595</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112972</v>
+        <v>0.111057</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0701215</v>
+        <v>0.0701896</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09263830000000001</v>
+        <v>0.201356</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121749</v>
+        <v>0.119864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0705113</v>
+        <v>0.070617</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0930096</v>
+        <v>0.20713</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133709</v>
+        <v>0.13126</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070886</v>
+        <v>0.071127</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0932164</v>
+        <v>0.211961</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.148786</v>
+        <v>0.145576</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0706956</v>
+        <v>0.07134020000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0940719</v>
+        <v>0.217973</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170432</v>
+        <v>0.166686</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0747548</v>
+        <v>0.0752886</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09759</v>
+        <v>0.22356</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.200821</v>
+        <v>0.195869</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0824153</v>
+        <v>0.0818955</v>
       </c>
       <c r="D21" t="n">
-        <v>0.106515</v>
+        <v>0.159644</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241955</v>
+        <v>0.2401</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09719129999999999</v>
+        <v>0.0968787</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123187</v>
+        <v>0.16547</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.288966</v>
+        <v>0.283668</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0710489</v>
+        <v>0.0708543</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0927733</v>
+        <v>0.172869</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100912</v>
+        <v>0.100493</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0711005</v>
+        <v>0.0709905</v>
       </c>
       <c r="D24" t="n">
-        <v>0.092849</v>
+        <v>0.178142</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102057</v>
+        <v>0.101496</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0714526</v>
+        <v>0.0712334</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09312280000000001</v>
+        <v>0.184121</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103733</v>
+        <v>0.103415</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07164329999999999</v>
+        <v>0.0715495</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09334439999999999</v>
+        <v>0.192206</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106138</v>
+        <v>0.106092</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07190829999999999</v>
+        <v>0.0717709</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0935845</v>
+        <v>0.198884</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109151</v>
+        <v>0.109361</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0722955</v>
+        <v>0.0720702</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0937374</v>
+        <v>0.204309</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113597</v>
+        <v>0.113972</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0724238</v>
+        <v>0.07232909999999999</v>
       </c>
       <c r="D29" t="n">
-        <v>0.094276</v>
+        <v>0.209664</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120009</v>
+        <v>0.118865</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0728423</v>
+        <v>0.072574</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0946399</v>
+        <v>0.215131</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127132</v>
+        <v>0.126219</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07330150000000001</v>
+        <v>0.0733306</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0953546</v>
+        <v>0.220366</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137616</v>
+        <v>0.137316</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0746146</v>
+        <v>0.07432030000000001</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09609810000000001</v>
+        <v>0.225497</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.154576</v>
+        <v>0.15058</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0763987</v>
+        <v>0.0762221</v>
       </c>
       <c r="D33" t="n">
-        <v>0.097591</v>
+        <v>0.231186</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17027</v>
+        <v>0.168521</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0812988</v>
+        <v>0.0806625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102857</v>
+        <v>0.235942</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193558</v>
+        <v>0.195559</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0878936</v>
+        <v>0.0873189</v>
       </c>
       <c r="D35" t="n">
-        <v>0.110569</v>
+        <v>0.174564</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233283</v>
+        <v>0.239242</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0980795</v>
+        <v>0.09743250000000001</v>
       </c>
       <c r="D36" t="n">
-        <v>0.121616</v>
+        <v>0.18167</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284977</v>
+        <v>0.279268</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07171760000000001</v>
+        <v>0.0715836</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0931681</v>
+        <v>0.187985</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103993</v>
+        <v>0.103597</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0721489</v>
+        <v>0.07185519999999999</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0934562</v>
+        <v>0.19323</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105313</v>
+        <v>0.10517</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07231849999999999</v>
+        <v>0.072214</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0935785</v>
+        <v>0.199918</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106912</v>
+        <v>0.106881</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0725821</v>
+        <v>0.0723852</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0939065</v>
+        <v>0.206263</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109176</v>
+        <v>0.109482</v>
       </c>
       <c r="C41" t="n">
-        <v>0.072896</v>
+        <v>0.0727324</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09420630000000001</v>
+        <v>0.211734</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112636</v>
+        <v>0.112516</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0732978</v>
+        <v>0.0730166</v>
       </c>
       <c r="D42" t="n">
-        <v>0.094554</v>
+        <v>0.217654</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.117195</v>
+        <v>0.116561</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0737743</v>
+        <v>0.073591</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0982399</v>
+        <v>0.223061</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12261</v>
+        <v>0.121791</v>
       </c>
       <c r="C44" t="n">
-        <v>0.075393</v>
+        <v>0.0741216</v>
       </c>
       <c r="D44" t="n">
-        <v>0.100766</v>
+        <v>0.228327</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130077</v>
+        <v>0.128365</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07559979999999999</v>
+        <v>0.07523630000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0968239</v>
+        <v>0.232047</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139156</v>
+        <v>0.137128</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07790569999999999</v>
+        <v>0.076739</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09838619999999999</v>
+        <v>0.237055</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152006</v>
+        <v>0.149397</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07988199999999999</v>
+        <v>0.0799622</v>
       </c>
       <c r="D47" t="n">
-        <v>0.101055</v>
+        <v>0.243201</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167836</v>
+        <v>0.165947</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0858368</v>
+        <v>0.084315</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105429</v>
+        <v>0.247532</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191822</v>
+        <v>0.195458</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0889432</v>
+        <v>0.0885027</v>
       </c>
       <c r="D49" t="n">
-        <v>0.111542</v>
+        <v>0.255065</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.225194</v>
+        <v>0.221878</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09819840000000001</v>
+        <v>0.0975795</v>
       </c>
       <c r="D50" t="n">
-        <v>0.121094</v>
+        <v>0.178201</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.270352</v>
+        <v>0.265493</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0746507</v>
+        <v>0.0733427</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0949591</v>
+        <v>0.184468</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.320378</v>
+        <v>0.319245</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0793944</v>
+        <v>0.0740114</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0952924</v>
+        <v>0.19061</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.109436</v>
+        <v>0.109152</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07411570000000001</v>
+        <v>0.07454719999999999</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0959791</v>
+        <v>0.196737</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110884</v>
+        <v>0.110545</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07461379999999999</v>
+        <v>0.0751338</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0962539</v>
+        <v>0.202777</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11275</v>
+        <v>0.116749</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0754957</v>
+        <v>0.0756207</v>
       </c>
       <c r="D55" t="n">
-        <v>0.101781</v>
+        <v>0.208422</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116165</v>
+        <v>0.116767</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07724590000000001</v>
+        <v>0.0761442</v>
       </c>
       <c r="D56" t="n">
-        <v>0.10228</v>
+        <v>0.21466</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.12244</v>
+        <v>0.120008</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0761666</v>
+        <v>0.0760313</v>
       </c>
       <c r="D57" t="n">
-        <v>0.10253</v>
+        <v>0.218708</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.128922</v>
+        <v>0.12761</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07734439999999999</v>
+        <v>0.0766592</v>
       </c>
       <c r="D58" t="n">
-        <v>0.10342</v>
+        <v>0.223499</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131753</v>
+        <v>0.131559</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08229019999999999</v>
+        <v>0.0779276</v>
       </c>
       <c r="D59" t="n">
-        <v>0.10508</v>
+        <v>0.228433</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1413</v>
+        <v>0.141817</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08007499999999999</v>
+        <v>0.0800839</v>
       </c>
       <c r="D60" t="n">
-        <v>0.105211</v>
+        <v>0.233673</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.153152</v>
+        <v>0.150539</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0833604</v>
+        <v>0.081763</v>
       </c>
       <c r="D61" t="n">
-        <v>0.104528</v>
+        <v>0.238371</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16909</v>
+        <v>0.168704</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08569359999999999</v>
+        <v>0.08579290000000001</v>
       </c>
       <c r="D62" t="n">
-        <v>0.107349</v>
+        <v>0.244524</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192068</v>
+        <v>0.189937</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0985429</v>
+        <v>0.0906473</v>
       </c>
       <c r="D63" t="n">
-        <v>0.113335</v>
+        <v>0.249047</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.221208</v>
+        <v>0.220058</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100602</v>
+        <v>0.0996069</v>
       </c>
       <c r="D64" t="n">
-        <v>0.121328</v>
+        <v>0.185937</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26351</v>
+        <v>0.260869</v>
       </c>
       <c r="C65" t="n">
-        <v>0.124477</v>
+        <v>0.113034</v>
       </c>
       <c r="D65" t="n">
-        <v>0.136189</v>
+        <v>0.194972</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.314336</v>
+        <v>0.316034</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0809912</v>
+        <v>0.0846596</v>
       </c>
       <c r="D66" t="n">
-        <v>0.110609</v>
+        <v>0.199476</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.12264</v>
+        <v>0.132455</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0885484</v>
+        <v>0.08061699999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105486</v>
+        <v>0.208119</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124718</v>
+        <v>0.133024</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0891762</v>
+        <v>0.08122500000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.111848</v>
+        <v>0.217382</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.128567</v>
+        <v>0.128087</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08946809999999999</v>
+        <v>0.08171539999999999</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105461</v>
+        <v>0.22798</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.138342</v>
+        <v>0.135457</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0839985</v>
+        <v>0.0888438</v>
       </c>
       <c r="D70" t="n">
-        <v>0.106976</v>
+        <v>0.238457</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132856</v>
+        <v>0.142182</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0881139</v>
+        <v>0.0834432</v>
       </c>
       <c r="D71" t="n">
-        <v>0.107871</v>
+        <v>0.250085</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.136298</v>
+        <v>0.134505</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08525339999999999</v>
+        <v>0.0846991</v>
       </c>
       <c r="D72" t="n">
-        <v>0.106448</v>
+        <v>0.259917</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143147</v>
+        <v>0.14233</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0863199</v>
+        <v>0.0884151</v>
       </c>
       <c r="D73" t="n">
-        <v>0.116545</v>
+        <v>0.269641</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.162761</v>
+        <v>0.150917</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0944598</v>
+        <v>0.0866466</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112378</v>
+        <v>0.284164</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.168481</v>
+        <v>0.162687</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08854430000000001</v>
+        <v>0.0896927</v>
       </c>
       <c r="D75" t="n">
-        <v>0.120355</v>
+        <v>0.300215</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176716</v>
+        <v>0.178374</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0918278</v>
+        <v>0.0917837</v>
       </c>
       <c r="D76" t="n">
-        <v>0.115127</v>
+        <v>0.31782</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.21527</v>
+        <v>0.198958</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09612660000000001</v>
+        <v>0.0969899</v>
       </c>
       <c r="D77" t="n">
-        <v>0.121828</v>
+        <v>0.337684</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.234054</v>
+        <v>0.228157</v>
       </c>
       <c r="C78" t="n">
-        <v>0.104084</v>
+        <v>0.104152</v>
       </c>
       <c r="D78" t="n">
-        <v>0.12906</v>
+        <v>0.260749</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275025</v>
+        <v>0.26686</v>
       </c>
       <c r="C79" t="n">
-        <v>0.117024</v>
+        <v>0.117252</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142859</v>
+        <v>0.275586</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.340587</v>
+        <v>0.323776</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939975</v>
+        <v>0.0888338</v>
       </c>
       <c r="D80" t="n">
-        <v>0.111817</v>
+        <v>0.290717</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.138344</v>
+        <v>0.13589</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09121410000000001</v>
+        <v>0.0890191</v>
       </c>
       <c r="D81" t="n">
-        <v>0.113928</v>
+        <v>0.311512</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.138004</v>
+        <v>0.138288</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0963413</v>
+        <v>0.08982950000000001</v>
       </c>
       <c r="D82" t="n">
-        <v>0.112491</v>
+        <v>0.329896</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.140709</v>
+        <v>0.140242</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0920671</v>
+        <v>0.0915851</v>
       </c>
       <c r="D83" t="n">
-        <v>0.114004</v>
+        <v>0.345022</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152728</v>
+        <v>0.142828</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0931945</v>
+        <v>0.092873</v>
       </c>
       <c r="D84" t="n">
-        <v>0.118612</v>
+        <v>0.36417</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.151011</v>
+        <v>0.149763</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0938215</v>
+        <v>0.0945836</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115282</v>
+        <v>0.381896</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.152811</v>
+        <v>0.161785</v>
       </c>
       <c r="C86" t="n">
-        <v>0.102633</v>
+        <v>0.09393079999999999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.117539</v>
+        <v>0.405246</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.169024</v>
+        <v>0.159347</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09850739999999999</v>
+        <v>0.0984752</v>
       </c>
       <c r="D87" t="n">
-        <v>0.119295</v>
+        <v>0.426196</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.178438</v>
+        <v>0.176797</v>
       </c>
       <c r="C88" t="n">
-        <v>0.101019</v>
+        <v>0.09668309999999999</v>
       </c>
       <c r="D88" t="n">
-        <v>0.130731</v>
+        <v>0.446752</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179055</v>
+        <v>0.179573</v>
       </c>
       <c r="C89" t="n">
-        <v>0.102341</v>
+        <v>0.10864</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124558</v>
+        <v>0.469801</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196116</v>
+        <v>0.193365</v>
       </c>
       <c r="C90" t="n">
-        <v>0.112466</v>
+        <v>0.105725</v>
       </c>
       <c r="D90" t="n">
-        <v>0.13123</v>
+        <v>0.493457</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.227105</v>
+        <v>0.225413</v>
       </c>
       <c r="C91" t="n">
-        <v>0.112513</v>
+        <v>0.113403</v>
       </c>
       <c r="D91" t="n">
-        <v>0.134447</v>
+        <v>0.519669</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24951</v>
+        <v>0.245586</v>
       </c>
       <c r="C92" t="n">
-        <v>0.129074</v>
+        <v>0.120421</v>
       </c>
       <c r="D92" t="n">
-        <v>0.152687</v>
+        <v>0.395964</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.292087</v>
+        <v>0.288011</v>
       </c>
       <c r="C93" t="n">
-        <v>0.132794</v>
+        <v>0.133907</v>
       </c>
       <c r="D93" t="n">
-        <v>0.15596</v>
+        <v>0.413367</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.356305</v>
+        <v>0.347536</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0998768</v>
+        <v>0.09912940000000001</v>
       </c>
       <c r="D94" t="n">
-        <v>0.122242</v>
+        <v>0.431641</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160051</v>
+        <v>0.149549</v>
       </c>
       <c r="C95" t="n">
-        <v>0.107773</v>
+        <v>0.103075</v>
       </c>
       <c r="D95" t="n">
-        <v>0.123931</v>
+        <v>0.450122</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.157449</v>
+        <v>0.152328</v>
       </c>
       <c r="C96" t="n">
-        <v>0.102667</v>
+        <v>0.106962</v>
       </c>
       <c r="D96" t="n">
-        <v>0.125484</v>
+        <v>0.467539</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156374</v>
+        <v>0.155631</v>
       </c>
       <c r="C97" t="n">
-        <v>0.110818</v>
+        <v>0.104887</v>
       </c>
       <c r="D97" t="n">
-        <v>0.12455</v>
+        <v>0.488402</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170175</v>
+        <v>0.160517</v>
       </c>
       <c r="C98" t="n">
-        <v>0.10645</v>
+        <v>0.106909</v>
       </c>
       <c r="D98" t="n">
-        <v>0.128231</v>
+        <v>0.506364</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.174873</v>
+        <v>0.164089</v>
       </c>
       <c r="C99" t="n">
-        <v>0.108256</v>
+        <v>0.109783</v>
       </c>
       <c r="D99" t="n">
-        <v>0.130965</v>
+        <v>0.527016</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.173767</v>
+        <v>0.169954</v>
       </c>
       <c r="C100" t="n">
-        <v>0.111945</v>
+        <v>0.111081</v>
       </c>
       <c r="D100" t="n">
-        <v>0.132061</v>
+        <v>0.551176</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187549</v>
+        <v>0.177403</v>
       </c>
       <c r="C101" t="n">
-        <v>0.113523</v>
+        <v>0.113004</v>
       </c>
       <c r="D101" t="n">
-        <v>0.135093</v>
+        <v>0.572289</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.192552</v>
+        <v>0.188214</v>
       </c>
       <c r="C102" t="n">
-        <v>0.117723</v>
+        <v>0.115666</v>
       </c>
       <c r="D102" t="n">
-        <v>0.138128</v>
+        <v>0.594884</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.208341</v>
+        <v>0.208245</v>
       </c>
       <c r="C103" t="n">
-        <v>0.119805</v>
+        <v>0.116668</v>
       </c>
       <c r="D103" t="n">
-        <v>0.141801</v>
+        <v>0.622727</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212514</v>
+        <v>0.209384</v>
       </c>
       <c r="C104" t="n">
-        <v>0.125365</v>
+        <v>0.121329</v>
       </c>
       <c r="D104" t="n">
-        <v>0.144145</v>
+        <v>0.650188</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245768</v>
+        <v>0.233658</v>
       </c>
       <c r="C105" t="n">
-        <v>0.136077</v>
+        <v>0.12881</v>
       </c>
       <c r="D105" t="n">
-        <v>0.152324</v>
+        <v>0.674434</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.263162</v>
+        <v>0.271024</v>
       </c>
       <c r="C106" t="n">
-        <v>0.134837</v>
+        <v>0.136389</v>
       </c>
       <c r="D106" t="n">
-        <v>0.158991</v>
+        <v>0.70229</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307937</v>
+        <v>0.306103</v>
       </c>
       <c r="C107" t="n">
-        <v>0.158534</v>
+        <v>0.149536</v>
       </c>
       <c r="D107" t="n">
-        <v>0.177082</v>
+        <v>0.559095</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.376139</v>
+        <v>0.380393</v>
       </c>
       <c r="C108" t="n">
-        <v>0.10941</v>
+        <v>0.11384</v>
       </c>
       <c r="D108" t="n">
-        <v>0.131106</v>
+        <v>0.574375</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.473435</v>
+        <v>0.48072</v>
       </c>
       <c r="C109" t="n">
-        <v>0.111165</v>
+        <v>0.111102</v>
       </c>
       <c r="D109" t="n">
-        <v>0.132519</v>
+        <v>0.583299</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162221</v>
+        <v>0.161685</v>
       </c>
       <c r="C110" t="n">
-        <v>0.112819</v>
+        <v>0.112315</v>
       </c>
       <c r="D110" t="n">
-        <v>0.133947</v>
+        <v>0.603473</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.176195</v>
+        <v>0.164349</v>
       </c>
       <c r="C111" t="n">
-        <v>0.113902</v>
+        <v>0.113697</v>
       </c>
       <c r="D111" t="n">
-        <v>0.135384</v>
+        <v>0.628319</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.180234</v>
+        <v>0.168862</v>
       </c>
       <c r="C112" t="n">
-        <v>0.116785</v>
+        <v>0.114821</v>
       </c>
       <c r="D112" t="n">
-        <v>0.136862</v>
+        <v>0.657363</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.176047</v>
+        <v>0.183896</v>
       </c>
       <c r="C113" t="n">
-        <v>0.119681</v>
+        <v>0.116872</v>
       </c>
       <c r="D113" t="n">
-        <v>0.140215</v>
+        <v>0.679024</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.182815</v>
+        <v>0.179751</v>
       </c>
       <c r="C114" t="n">
-        <v>0.123924</v>
+        <v>0.121472</v>
       </c>
       <c r="D114" t="n">
-        <v>0.144299</v>
+        <v>0.69593</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.201616</v>
+        <v>0.188054</v>
       </c>
       <c r="C115" t="n">
-        <v>0.125454</v>
+        <v>0.122359</v>
       </c>
       <c r="D115" t="n">
-        <v>0.146219</v>
+        <v>0.725583</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211479</v>
+        <v>0.197173</v>
       </c>
       <c r="C116" t="n">
-        <v>0.129296</v>
+        <v>0.123132</v>
       </c>
       <c r="D116" t="n">
-        <v>0.149671</v>
+        <v>0.75069</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.216025</v>
+        <v>0.21257</v>
       </c>
       <c r="C117" t="n">
-        <v>0.13781</v>
+        <v>0.127628</v>
       </c>
       <c r="D117" t="n">
-        <v>0.156951</v>
+        <v>0.777578</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.233095</v>
+        <v>0.230409</v>
       </c>
       <c r="C118" t="n">
-        <v>0.144556</v>
+        <v>0.13277</v>
       </c>
       <c r="D118" t="n">
-        <v>0.162626</v>
+        <v>0.804173</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.256197</v>
+        <v>0.254567</v>
       </c>
       <c r="C119" t="n">
-        <v>0.147474</v>
+        <v>0.144293</v>
       </c>
       <c r="D119" t="n">
-        <v>0.180463</v>
+        <v>0.834085</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.293143</v>
+        <v>0.288248</v>
       </c>
       <c r="C120" t="n">
-        <v>0.15658</v>
+        <v>0.154408</v>
       </c>
       <c r="D120" t="n">
-        <v>0.189261</v>
+        <v>0.861173</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.329945</v>
+        <v>0.335805</v>
       </c>
       <c r="C121" t="n">
-        <v>0.171486</v>
+        <v>0.169102</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200938</v>
+        <v>0.634081</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.410598</v>
+        <v>0.40192</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202838</v>
+        <v>0.192686</v>
       </c>
       <c r="D122" t="n">
-        <v>0.235675</v>
+        <v>0.663628</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.49248</v>
+        <v>0.487289</v>
       </c>
       <c r="C123" t="n">
-        <v>0.143929</v>
+        <v>0.130717</v>
       </c>
       <c r="D123" t="n">
-        <v>0.170108</v>
+        <v>0.6821469999999999</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.201854</v>
+        <v>0.20095</v>
       </c>
       <c r="C124" t="n">
-        <v>0.141881</v>
+        <v>0.13979</v>
       </c>
       <c r="D124" t="n">
-        <v>0.173051</v>
+        <v>0.701071</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.207119</v>
+        <v>0.200107</v>
       </c>
       <c r="C125" t="n">
-        <v>0.144571</v>
+        <v>0.140401</v>
       </c>
       <c r="D125" t="n">
-        <v>0.17041</v>
+        <v>0.710488</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.200926</v>
+        <v>0.199577</v>
       </c>
       <c r="C126" t="n">
-        <v>0.149786</v>
+        <v>0.139152</v>
       </c>
       <c r="D126" t="n">
-        <v>0.171341</v>
+        <v>0.7419750000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.206368</v>
+        <v>0.206467</v>
       </c>
       <c r="C127" t="n">
-        <v>0.152686</v>
+        <v>0.142898</v>
       </c>
       <c r="D127" t="n">
-        <v>0.178911</v>
+        <v>0.764108</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.213367</v>
+        <v>0.207771</v>
       </c>
       <c r="C128" t="n">
-        <v>0.147727</v>
+        <v>0.136901</v>
       </c>
       <c r="D128" t="n">
-        <v>0.181553</v>
+        <v>0.786965</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225072</v>
+        <v>0.209253</v>
       </c>
       <c r="C129" t="n">
-        <v>0.158682</v>
+        <v>0.149301</v>
       </c>
       <c r="D129" t="n">
-        <v>0.179409</v>
+        <v>0.80172</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.239522</v>
+        <v>0.236808</v>
       </c>
       <c r="C130" t="n">
-        <v>0.155385</v>
+        <v>0.142546</v>
       </c>
       <c r="D130" t="n">
-        <v>0.19019</v>
+        <v>0.836089</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.245393</v>
+        <v>0.24315</v>
       </c>
       <c r="C131" t="n">
-        <v>0.159957</v>
+        <v>0.155445</v>
       </c>
       <c r="D131" t="n">
-        <v>0.193975</v>
+        <v>0.863054</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.261879</v>
+        <v>0.255104</v>
       </c>
       <c r="C132" t="n">
-        <v>0.167005</v>
+        <v>0.157869</v>
       </c>
       <c r="D132" t="n">
-        <v>0.192377</v>
+        <v>0.8823220000000001</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.284716</v>
+        <v>0.286876</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172462</v>
+        <v>0.166316</v>
       </c>
       <c r="D133" t="n">
-        <v>0.198989</v>
+        <v>0.921143</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.30912</v>
+        <v>0.303511</v>
       </c>
       <c r="C134" t="n">
-        <v>0.190897</v>
+        <v>0.173038</v>
       </c>
       <c r="D134" t="n">
-        <v>0.21847</v>
+        <v>0.953937</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.361285</v>
+        <v>0.346109</v>
       </c>
       <c r="C135" t="n">
-        <v>0.198985</v>
+        <v>0.18301</v>
       </c>
       <c r="D135" t="n">
-        <v>0.238773</v>
+        <v>0.679856</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.421403</v>
+        <v>0.422763</v>
       </c>
       <c r="C136" t="n">
-        <v>0.221145</v>
+        <v>0.21274</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245059</v>
+        <v>0.696088</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.51414</v>
+        <v>0.494746</v>
       </c>
       <c r="C137" t="n">
-        <v>0.263262</v>
+        <v>0.255643</v>
       </c>
       <c r="D137" t="n">
-        <v>0.301721</v>
+        <v>0.712694</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.340123</v>
+        <v>0.309933</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2627</v>
+        <v>0.246628</v>
       </c>
       <c r="D138" t="n">
-        <v>0.311509</v>
+        <v>0.722737</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342251</v>
+        <v>0.33753</v>
       </c>
       <c r="C139" t="n">
-        <v>0.265815</v>
+        <v>0.246957</v>
       </c>
       <c r="D139" t="n">
-        <v>0.312093</v>
+        <v>0.746874</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.352322</v>
+        <v>0.314696</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266639</v>
+        <v>0.244563</v>
       </c>
       <c r="D140" t="n">
-        <v>0.319084</v>
+        <v>0.765265</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.358102</v>
+        <v>0.325535</v>
       </c>
       <c r="C141" t="n">
-        <v>0.274802</v>
+        <v>0.257437</v>
       </c>
       <c r="D141" t="n">
-        <v>0.315061</v>
+        <v>0.784094</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.368554</v>
+        <v>0.361093</v>
       </c>
       <c r="C142" t="n">
-        <v>0.272802</v>
+        <v>0.248963</v>
       </c>
       <c r="D142" t="n">
-        <v>0.316931</v>
+        <v>0.798529</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.364751</v>
+        <v>0.362999</v>
       </c>
       <c r="C143" t="n">
-        <v>0.275202</v>
+        <v>0.254342</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323613</v>
+        <v>0.82399</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -552,430 +552,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.020381</v>
+                  <v>0.0196541</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0231567</v>
+                  <v>0.022714</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0281757</v>
+                  <v>0.0280732</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0352799</v>
+                  <v>0.0383508</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.04539</v>
+                  <v>0.052548</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06491429999999999</v>
+                  <v>0.066875</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0891632</v>
+                  <v>0.0901585</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.112722</v>
+                  <v>0.118385</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.017053</v>
+                  <v>0.0166794</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0176131</v>
+                  <v>0.017095</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.018294</v>
+                  <v>0.0175332</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.019009</v>
+                  <v>0.0179948</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0202027</v>
+                  <v>0.0186281</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0216873</v>
+                  <v>0.0208214</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0238871</v>
+                  <v>0.0229571</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0283309</v>
+                  <v>0.0261478</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0347629</v>
+                  <v>0.0314248</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0427405</v>
+                  <v>0.0425587</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0557526</v>
+                  <v>0.0519527</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0731723</v>
+                  <v>0.07000199999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0958377</v>
+                  <v>0.0890392</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.12115</v>
+                  <v>0.119166</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0167999</v>
+                  <v>0.0162997</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.017383</v>
+                  <v>0.0169862</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0183382</v>
+                  <v>0.0176941</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0193988</v>
+                  <v>0.0184008</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205537</v>
+                  <v>0.0198508</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226966</v>
+                  <v>0.0220004</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0250047</v>
+                  <v>0.0252038</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0309238</v>
+                  <v>0.029776</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0361738</v>
+                  <v>0.0355674</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0455675</v>
+                  <v>0.0445372</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0564017</v>
+                  <v>0.0557284</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722527</v>
+                  <v>0.0722409</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.09413820000000001</v>
+                  <v>0.0937438</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.118638</v>
+                  <v>0.120898</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0174142</v>
+                  <v>0.017101</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0181997</v>
+                  <v>0.0179106</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0191908</v>
+                  <v>0.0187733</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0204403</v>
+                  <v>0.0201048</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021836</v>
+                  <v>0.0218759</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0239224</v>
+                  <v>0.0240552</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0276839</v>
+                  <v>0.0282097</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0315092</v>
+                  <v>0.0323602</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0372217</v>
+                  <v>0.0379086</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0454352</v>
+                  <v>0.045608</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0550601</v>
+                  <v>0.056116</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0703042</v>
+                  <v>0.0707222</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0905224</v>
+                  <v>0.0919893</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.115437</v>
+                  <v>0.118674</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.1408</v>
+                  <v>0.145772</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0192387</v>
+                  <v>0.0196284</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0204627</v>
+                  <v>0.0208398</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0220737</v>
+                  <v>0.0223922</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0239349</v>
+                  <v>0.0244506</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0262923</v>
+                  <v>0.026822</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0297657</v>
+                  <v>0.0309899</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0341001</v>
+                  <v>0.0354207</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0395028</v>
+                  <v>0.0417881</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0465838</v>
+                  <v>0.0476276</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0559668</v>
+                  <v>0.0572692</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0699388</v>
+                  <v>0.0716026</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0889996</v>
+                  <v>0.0905608</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.114856</v>
+                  <v>0.116785</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.145398</v>
+                  <v>0.147933</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0196969</v>
+                  <v>0.0197012</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.02093</v>
+                  <v>0.0211376</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0224969</v>
+                  <v>0.0228213</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0245783</v>
+                  <v>0.0247479</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.027095</v>
+                  <v>0.0274354</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0303959</v>
+                  <v>0.0306606</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0348732</v>
+                  <v>0.0349113</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401107</v>
+                  <v>0.0401967</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0469689</v>
+                  <v>0.0468474</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.056182</v>
+                  <v>0.0560401</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0692083</v>
+                  <v>0.0688926</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876976</v>
+                  <v>0.0873152</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112624</v>
+                  <v>0.112319</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143056</v>
+                  <v>0.143939</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0203051</v>
+                  <v>0.0198688</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0214311</v>
+                  <v>0.0212272</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227951</v>
+                  <v>0.0227931</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248606</v>
+                  <v>0.0248234</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274961</v>
+                  <v>0.0274348</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304265</v>
+                  <v>0.0304566</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.034491</v>
+                  <v>0.03421</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392189</v>
+                  <v>0.0392722</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0454425</v>
+                  <v>0.0457853</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.054124</v>
+                  <v>0.0543613</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0660497</v>
+                  <v>0.0667861</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0833161</v>
+                  <v>0.0837842</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107117</v>
+                  <v>0.107021</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137068</v>
+                  <v>0.138367</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0205917</v>
+                  <v>0.0206107</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217319</v>
+                  <v>0.021977</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0234086</v>
+                  <v>0.0236946</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0249196</v>
+                  <v>0.0252601</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0271441</v>
+                  <v>0.0278301</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301186</v>
+                  <v>0.0304313</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.034225</v>
+                  <v>0.0347894</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0395874</v>
+                  <v>0.0397493</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.046425</v>
+                  <v>0.0462983</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0547381</v>
+                  <v>0.0543709</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0655719</v>
+                  <v>0.0656243</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810201</v>
+                  <v>0.0814584</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103131</v>
+                  <v>0.103239</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.132455</v>
+                  <v>0.133268</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.167936</v>
+                  <v>0.169441</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0314641</v>
+                  <v>0.0309188</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0327748</v>
+                  <v>0.0323647</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0344387</v>
+                  <v>0.034075</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0359115</v>
+                  <v>0.0358327</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0384212</v>
+                  <v>0.0383382</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0411013</v>
+                  <v>0.0406737</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0443196</v>
+                  <v>0.0441246</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0490798</v>
+                  <v>0.048723</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0556472</v>
+                  <v>0.0551746</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652692</v>
+                  <v>0.0650047</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.080124</v>
+                  <v>0.07941529999999999</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100594</v>
+                  <v>0.100142</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128412</v>
+                  <v>0.128345</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163387</v>
+                  <v>0.16426</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0342733</v>
+                  <v>0.0340693</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0354023</v>
+                  <v>0.035891</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369613</v>
+                  <v>0.0369158</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0386997</v>
+                  <v>0.0387195</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0406429</v>
+                  <v>0.0407176</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0434292</v>
+                  <v>0.0435753</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0467513</v>
+                  <v>0.0474413</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0511822</v>
+                  <v>0.0518101</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0585649</v>
+                  <v>0.0586713</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0673728</v>
+                  <v>0.06794360000000001</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.08104450000000001</v>
+                  <v>0.0817268</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101034</v>
+                  <v>0.101445</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.128826</v>
+                  <v>0.129425</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.16274</v>
+                  <v>0.163873</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0471946</v>
+                  <v>0.0473433</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0480173</v>
+                  <v>0.0531312</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0491618</v>
+                  <v>0.058706</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0504992</v>
+                  <v>0.0582968</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0529453</v>
+                  <v>0.0553286</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554429</v>
+                  <v>0.0675741</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1446,430 +1446,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0243821</v>
+                  <v>0.0236953</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0263419</v>
+                  <v>0.0249792</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.03189</v>
+                  <v>0.0258301</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0372784</v>
+                  <v>0.027365</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0515556</v>
+                  <v>0.0285038</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.06764829999999999</v>
+                  <v>0.0328798</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.08149480000000001</v>
+                  <v>0.0393672</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.129222</v>
+                  <v>0.0204906</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0208127</v>
+                  <v>0.0206485</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0213278</v>
+                  <v>0.0211179</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0218828</v>
+                  <v>0.0213</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.02263</v>
+                  <v>0.0216018</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0232512</v>
+                  <v>0.0219038</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0241428</v>
+                  <v>0.0225654</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0268695</v>
+                  <v>0.0230834</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0288871</v>
+                  <v>0.0241669</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0328262</v>
+                  <v>0.0251919</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0390993</v>
+                  <v>0.0266921</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0470423</v>
+                  <v>0.028982</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0633778</v>
+                  <v>0.0333148</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.088602</v>
+                  <v>0.041356</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.13405</v>
+                  <v>0.0202092</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0214978</v>
+                  <v>0.0206159</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0219645</v>
+                  <v>0.0208339</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0227306</v>
+                  <v>0.0210765</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0236983</v>
+                  <v>0.0214492</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0246423</v>
+                  <v>0.0218967</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.025917</v>
+                  <v>0.0226372</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0281203</v>
+                  <v>0.023422</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0305191</v>
+                  <v>0.0242916</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351044</v>
+                  <v>0.0254245</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0407874</v>
+                  <v>0.0274613</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0501899</v>
+                  <v>0.030458</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06329070000000001</v>
+                  <v>0.0342121</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0883089</v>
+                  <v>0.040763</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.125523</v>
+                  <v>0.0210932</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0226441</v>
+                  <v>0.0214487</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0231278</v>
+                  <v>0.0217322</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0239266</v>
+                  <v>0.0220884</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.024755</v>
+                  <v>0.0225227</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0260181</v>
+                  <v>0.022985</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0274856</v>
+                  <v>0.0235789</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0292543</v>
+                  <v>0.0242082</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0326774</v>
+                  <v>0.0251386</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0370439</v>
+                  <v>0.026316</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0430271</v>
+                  <v>0.0281349</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0514098</v>
+                  <v>0.0309591</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0649906</v>
+                  <v>0.0351441</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0841389</v>
+                  <v>0.0422416</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117343</v>
+                  <v>0.0221848</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.163332</v>
+                  <v>0.0226422</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0241041</v>
+                  <v>0.0230127</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0248142</v>
+                  <v>0.0233388</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0258859</v>
+                  <v>0.0237292</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0269065</v>
+                  <v>0.0243318</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0285555</v>
+                  <v>0.0249093</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0308138</v>
+                  <v>0.0260608</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0334128</v>
+                  <v>0.0270795</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0373409</v>
+                  <v>0.0277862</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.043244</v>
+                  <v>0.0291051</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0514921</v>
+                  <v>0.0317252</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0631197</v>
+                  <v>0.0360878</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.08064549999999999</v>
+                  <v>0.0429958</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.111224</v>
+                  <v>0.0551095</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.156782</v>
+                  <v>0.0226031</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0246273</v>
+                  <v>0.0229372</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0254874</v>
+                  <v>0.0232973</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.026515</v>
+                  <v>0.023692</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0276786</v>
+                  <v>0.0242143</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0291119</v>
+                  <v>0.0247678</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0311576</v>
+                  <v>0.0255057</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0339469</v>
+                  <v>0.0263971</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0377205</v>
+                  <v>0.0276756</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0430427</v>
+                  <v>0.0295323</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0505867</v>
+                  <v>0.0321746</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0612508</v>
+                  <v>0.0363344</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0763192</v>
+                  <v>0.0425489</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.101765</v>
+                  <v>0.0534234</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.144347</v>
+                  <v>0.0228514</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0253488</v>
+                  <v>0.0231978</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.026265</v>
+                  <v>0.0235633</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0271908</v>
+                  <v>0.0239172</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0284288</v>
+                  <v>0.0244035</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.03001</v>
+                  <v>0.025024</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0319039</v>
+                  <v>0.0259339</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0343672</v>
+                  <v>0.0269228</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0378547</v>
+                  <v>0.0282665</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0426376</v>
+                  <v>0.0299743</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0498571</v>
+                  <v>0.0325068</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.059631</v>
+                  <v>0.03601</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0742997</v>
+                  <v>0.0416961</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0979019</v>
+                  <v>0.0509443</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.137136</v>
+                  <v>0.0243696</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0270102</v>
+                  <v>0.0248253</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0282021</v>
+                  <v>0.0253215</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0301873</v>
+                  <v>0.0259145</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0330636</v>
+                  <v>0.0267649</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0367725</v>
+                  <v>0.0281154</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0404956</v>
+                  <v>0.0301922</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0438179</v>
+                  <v>0.0330066</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0472354</v>
+                  <v>0.0364155</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0509235</v>
+                  <v>0.0397311</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0560138</v>
+                  <v>0.0428055</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06314790000000001</v>
+                  <v>0.0463608</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.07436619999999999</v>
+                  <v>0.0508278</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0937021</v>
+                  <v>0.0575807</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.129268</v>
+                  <v>0.0361449</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.180556</v>
+                  <v>0.0368822</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0432623</v>
+                  <v>0.0379133</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0443061</v>
+                  <v>0.0388181</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0453678</v>
+                  <v>0.0396854</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0466564</v>
+                  <v>0.0406322</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0481</v>
+                  <v>0.0416831</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0498885</v>
+                  <v>0.0427634</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0522653</v>
+                  <v>0.0439657</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0552329</v>
+                  <v>0.0456052</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0592122</v>
+                  <v>0.0476259</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0652914</v>
+                  <v>0.0501364</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0749547</v>
+                  <v>0.0541071</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.09116730000000001</v>
+                  <v>0.0600156</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.12157</v>
+                  <v>0.0702492</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.169666</v>
+                  <v>0.0426162</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0485409</v>
+                  <v>0.0433137</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0498932</v>
+                  <v>0.0441334</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0510164</v>
+                  <v>0.0448138</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0521044</v>
+                  <v>0.0457069</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0539084</v>
+                  <v>0.0468309</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0557247</v>
+                  <v>0.047681</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0579581</v>
+                  <v>0.0488768</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0612119</v>
+                  <v>0.0504662</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0655746</v>
+                  <v>0.0524585</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.07118579999999999</v>
+                  <v>0.0553225</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0805454</v>
+                  <v>0.0590454</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0955641</v>
+                  <v>0.0649672</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.122167</v>
+                  <v>0.07502730000000001</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.166136</v>
+                  <v>0.0609618</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0632577</v>
+                  <v>0.0606272</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0643639</v>
+                  <v>0.0716113</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0654462</v>
+                  <v>0.0740532</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0668815</v>
+                  <v>0.075507</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0683774</v>
+                  <v>0.0709659</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.07045510000000001</v>
+                  <v>0.0822119</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1880,7 +1880,7 @@
           <idx val="5"/>
           <order val="2"/>
           <tx>
-            <v>foa_unordered_rc15_map</v>
+            <v>boost::unordered_map</v>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2340,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0213141</v>
+                  <v>0.0628543</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220012</v>
+                  <v>0.0664814</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228637</v>
+                  <v>0.07155309999999999</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0244676</v>
+                  <v>0.0787023</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259604</v>
+                  <v>0.0762729</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.028658</v>
+                  <v>0.0596881</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0371282</v>
+                  <v>0.0581592</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0186849</v>
+                  <v>0.0642033</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0189948</v>
+                  <v>0.066584</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0192948</v>
+                  <v>0.07067469999999999</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0198101</v>
+                  <v>0.07539460000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0200323</v>
+                  <v>0.0776222</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205084</v>
+                  <v>0.08080030000000001</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0207002</v>
+                  <v>0.08254499999999999</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0214276</v>
+                  <v>0.0868236</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.022011</v>
+                  <v>0.0901443</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0230028</v>
+                  <v>0.09041780000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0242253</v>
+                  <v>0.09432</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0262024</v>
+                  <v>0.0970657</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.030044</v>
+                  <v>0.0672951</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0370516</v>
+                  <v>0.0716408</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188867</v>
+                  <v>0.0714137</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0192237</v>
+                  <v>0.0762883</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0194425</v>
+                  <v>0.0788282</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0197946</v>
+                  <v>0.0817253</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0201342</v>
+                  <v>0.0845086</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0205266</v>
+                  <v>0.0872682</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.020959</v>
+                  <v>0.0900213</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214844</v>
+                  <v>0.0922123</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223231</v>
+                  <v>0.0951592</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233566</v>
+                  <v>0.0965795</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248748</v>
+                  <v>0.0983135</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0269432</v>
+                  <v>0.101668</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0307678</v>
+                  <v>0.06976019999999999</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0381048</v>
+                  <v>0.0732333</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.019505</v>
+                  <v>0.07563</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197378</v>
+                  <v>0.07849739999999999</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199753</v>
+                  <v>0.082784</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0202695</v>
+                  <v>0.08502469999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0205809</v>
+                  <v>0.0879409</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0210132</v>
+                  <v>0.091546</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0215764</v>
+                  <v>0.0944207</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0222081</v>
+                  <v>0.0970037</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0231524</v>
+                  <v>0.0991208</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0243994</v>
+                  <v>0.101009</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261699</v>
+                  <v>0.103707</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0288567</v>
+                  <v>0.105854</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0324993</v>
+                  <v>0.108622</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0388699</v>
+                  <v>0.07991180000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0203994</v>
+                  <v>0.0852565</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206304</v>
+                  <v>0.09070300000000001</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.020899</v>
+                  <v>0.100166</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212713</v>
+                  <v>0.104121</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0215734</v>
+                  <v>0.110505</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0220027</v>
+                  <v>0.118017</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0224713</v>
+                  <v>0.134799</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0232356</v>
+                  <v>0.150714</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0241598</v>
+                  <v>0.149598</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0252935</v>
+                  <v>0.106064</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0270674</v>
+                  <v>0.110453</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0297328</v>
+                  <v>0.112451</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0338401</v>
+                  <v>0.114784</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404851</v>
+                  <v>0.0808511</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0515575</v>
+                  <v>0.0851362</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.020937</v>
+                  <v>0.0905902</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212617</v>
+                  <v>0.0957775</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0215815</v>
+                  <v>0.09995809999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0219942</v>
+                  <v>0.105452</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0224339</v>
+                  <v>0.110664</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0229822</v>
+                  <v>0.115302</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0236686</v>
+                  <v>0.119763</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0245813</v>
+                  <v>0.125554</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0258009</v>
+                  <v>0.130129</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276711</v>
+                  <v>0.134996</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0301418</v>
+                  <v>0.141567</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0339599</v>
+                  <v>0.147833</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.039757</v>
+                  <v>0.113894</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0495474</v>
+                  <v>0.121926</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.021192</v>
+                  <v>0.12561</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0215353</v>
+                  <v>0.134696</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219745</v>
+                  <v>0.13899</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224512</v>
+                  <v>0.149483</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229726</v>
+                  <v>0.154065</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0236312</v>
+                  <v>0.163029</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244723</v>
+                  <v>0.167705</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0253764</v>
+                  <v>0.178539</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267266</v>
+                  <v>0.186083</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.02845</v>
+                  <v>0.189656</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0307713</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342051</v>
+                  <v>0.214136</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.039387</v>
+                  <v>0.155917</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0481448</v>
+                  <v>0.163239</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0230461</v>
+                  <v>0.170659</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0235885</v>
+                  <v>0.176032</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240683</v>
+                  <v>0.180564</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245612</v>
+                  <v>0.187866</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0254625</v>
+                  <v>0.197686</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0269155</v>
+                  <v>0.205106</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289929</v>
+                  <v>0.213378</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0319022</v>
+                  <v>0.22001</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0353162</v>
+                  <v>0.227646</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0382454</v>
+                  <v>0.235713</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0414212</v>
+                  <v>0.243297</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0448928</v>
+                  <v>0.252123</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491213</v>
+                  <v>0.261676</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0556722</v>
+                  <v>0.190199</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0349946</v>
+                  <v>0.197145</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.036062</v>
+                  <v>0.204605</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370126</v>
+                  <v>0.21028</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378882</v>
+                  <v>0.217256</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0386232</v>
+                  <v>0.224583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.039608</v>
+                  <v>0.233435</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0405332</v>
+                  <v>0.241083</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416032</v>
+                  <v>0.248226</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0429799</v>
+                  <v>0.256309</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.044442</v>
+                  <v>0.263815</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464735</v>
+                  <v>0.272729</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0490779</v>
+                  <v>0.281114</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526027</v>
+                  <v>0.29099</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0585157</v>
+                  <v>0.206413</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0682112</v>
+                  <v>0.211988</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0416503</v>
+                  <v>0.218375</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422691</v>
+                  <v>0.225371</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0430552</v>
+                  <v>0.233023</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.04371</v>
+                  <v>0.239145</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0446326</v>
+                  <v>0.246948</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.045744</v>
+                  <v>0.254198</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0464876</v>
+                  <v>0.261944</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480236</v>
+                  <v>0.270874</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0497905</v>
+                  <v>0.277744</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0515751</v>
+                  <v>0.285401</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541836</v>
+                  <v>0.294939</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578235</v>
+                  <v>0.304154</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.06359289999999999</v>
+                  <v>0.212796</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07301820000000001</v>
+                  <v>0.219404</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0587163</v>
+                  <v>0.226867</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0595507</v>
+                  <v>0.233183</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603892</v>
+                  <v>0.258776</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0609068</v>
+                  <v>0.2671</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0617944</v>
+                  <v>0.259936</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0626568</v>
+                  <v>0.270609</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0637523</v>
+                  <v>0.281995</v>
                 </pt>
               </numCache>
             </numRef>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104998</v>
+        <v>0.104929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0694615</v>
+        <v>0.0841496</v>
       </c>
       <c r="D2" t="n">
-        <v>0.092281</v>
+        <v>0.0841721</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110927</v>
+        <v>0.111104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0691582</v>
+        <v>0.08460819999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.09166920000000001</v>
+        <v>0.0847275</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12185</v>
+        <v>0.122225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0696078</v>
+        <v>0.0852121</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0921029</v>
+        <v>0.0846928</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138394</v>
+        <v>0.138589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0683434</v>
+        <v>0.08389919999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0926028</v>
+        <v>0.08412559999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.164836</v>
+        <v>0.16457</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06972299999999999</v>
+        <v>0.08575919999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0945703</v>
+        <v>0.086448</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200794</v>
+        <v>0.200711</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07273</v>
+        <v>0.09177589999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.100761</v>
+        <v>0.0919128</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246089</v>
+        <v>0.246004</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0882732</v>
+        <v>0.107171</v>
       </c>
       <c r="D8" t="n">
-        <v>0.121686</v>
+        <v>0.107635</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.288242</v>
+        <v>0.287752</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0691387</v>
+        <v>0.0842683</v>
       </c>
       <c r="D9" t="n">
-        <v>0.091392</v>
+        <v>0.0847781</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0954391</v>
+        <v>0.0959541</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0688423</v>
+        <v>0.08458880000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0915184</v>
+        <v>0.0848989</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0967402</v>
+        <v>0.09731339999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0689868</v>
+        <v>0.0847861</v>
       </c>
       <c r="D11" t="n">
-        <v>0.09174</v>
+        <v>0.08489770000000001</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0981533</v>
+        <v>0.104211</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0690558</v>
+        <v>0.0849384</v>
       </c>
       <c r="D12" t="n">
-        <v>0.09187960000000001</v>
+        <v>0.0852069</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100027</v>
+        <v>0.100728</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0696702</v>
+        <v>0.0851099</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0920878</v>
+        <v>0.08546579999999999</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102812</v>
+        <v>0.10352</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0698561</v>
+        <v>0.0855852</v>
       </c>
       <c r="D14" t="n">
-        <v>0.09224</v>
+        <v>0.0856445</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.107548</v>
+        <v>0.108136</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0700813</v>
+        <v>0.0858917</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0924712</v>
+        <v>0.0886789</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112972</v>
+        <v>0.113974</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0701215</v>
+        <v>0.0860967</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09263830000000001</v>
+        <v>0.0864369</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121749</v>
+        <v>0.13058</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0705113</v>
+        <v>0.089363</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0930096</v>
+        <v>0.0865402</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133709</v>
+        <v>0.135163</v>
       </c>
       <c r="C18" t="n">
-        <v>0.070886</v>
+        <v>0.08684260000000001</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0932164</v>
+        <v>0.0864685</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.148786</v>
+        <v>0.155731</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0706956</v>
+        <v>0.0906342</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0940719</v>
+        <v>0.08996510000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170432</v>
+        <v>0.178697</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0747548</v>
+        <v>0.09636450000000001</v>
       </c>
       <c r="D20" t="n">
-        <v>0.09759</v>
+        <v>0.095999</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.200821</v>
+        <v>0.202922</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0824153</v>
+        <v>0.101592</v>
       </c>
       <c r="D21" t="n">
-        <v>0.106515</v>
+        <v>0.1029</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.241955</v>
+        <v>0.24681</v>
       </c>
       <c r="C22" t="n">
-        <v>0.09719129999999999</v>
+        <v>0.117468</v>
       </c>
       <c r="D22" t="n">
-        <v>0.123187</v>
+        <v>0.1176</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.288966</v>
+        <v>0.30121</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0710489</v>
+        <v>0.0875736</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0927733</v>
+        <v>0.08682960000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100912</v>
+        <v>0.100919</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0711005</v>
+        <v>0.0893034</v>
       </c>
       <c r="D24" t="n">
-        <v>0.092849</v>
+        <v>0.0883689</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102057</v>
+        <v>0.102563</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0714526</v>
+        <v>0.09028360000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.09312280000000001</v>
+        <v>0.087364</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103733</v>
+        <v>0.103875</v>
       </c>
       <c r="C26" t="n">
-        <v>0.07164329999999999</v>
+        <v>0.08821279999999999</v>
       </c>
       <c r="D26" t="n">
-        <v>0.09334439999999999</v>
+        <v>0.08913939999999999</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106138</v>
+        <v>0.106652</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07190829999999999</v>
+        <v>0.0910136</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0935845</v>
+        <v>0.0918808</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109151</v>
+        <v>0.109628</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0722955</v>
+        <v>0.08803519999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0937374</v>
+        <v>0.0912777</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113597</v>
+        <v>0.118129</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0724238</v>
+        <v>0.09169330000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.094276</v>
+        <v>0.0912341</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120009</v>
+        <v>0.121517</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0728423</v>
+        <v>0.0897661</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0946399</v>
+        <v>0.0882817</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127132</v>
+        <v>0.129388</v>
       </c>
       <c r="C31" t="n">
-        <v>0.07330150000000001</v>
+        <v>0.0897237</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0953546</v>
+        <v>0.0887154</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137616</v>
+        <v>0.140297</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0746146</v>
+        <v>0.0914592</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09609810000000001</v>
+        <v>0.09304560000000001</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.154576</v>
+        <v>0.152399</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0763987</v>
+        <v>0.09327680000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.097591</v>
+        <v>0.0935223</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17027</v>
+        <v>0.171808</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0812988</v>
+        <v>0.09913089999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.102857</v>
+        <v>0.0972773</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193558</v>
+        <v>0.196883</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0878936</v>
+        <v>0.105356</v>
       </c>
       <c r="D35" t="n">
-        <v>0.110569</v>
+        <v>0.105523</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233283</v>
+        <v>0.234255</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0980795</v>
+        <v>0.117263</v>
       </c>
       <c r="D36" t="n">
-        <v>0.121616</v>
+        <v>0.117243</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.284977</v>
+        <v>0.286827</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07171760000000001</v>
+        <v>0.0885826</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0931681</v>
+        <v>0.0886603</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103993</v>
+        <v>0.105432</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0721489</v>
+        <v>0.08839610000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0934562</v>
+        <v>0.08894390000000001</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105313</v>
+        <v>0.11444</v>
       </c>
       <c r="C39" t="n">
-        <v>0.07231849999999999</v>
+        <v>0.092113</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0935785</v>
+        <v>0.0884562</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106912</v>
+        <v>0.10707</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0725821</v>
+        <v>0.0897949</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0939065</v>
+        <v>0.08876729999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109176</v>
+        <v>0.10947</v>
       </c>
       <c r="C41" t="n">
-        <v>0.072896</v>
+        <v>0.0893771</v>
       </c>
       <c r="D41" t="n">
-        <v>0.09420630000000001</v>
+        <v>0.0891564</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112636</v>
+        <v>0.113519</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0732978</v>
+        <v>0.09111909999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.094554</v>
+        <v>0.0897956</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.117195</v>
+        <v>0.122736</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0737743</v>
+        <v>0.0903774</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0982399</v>
+        <v>0.0902119</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12261</v>
+        <v>0.122881</v>
       </c>
       <c r="C44" t="n">
-        <v>0.075393</v>
+        <v>0.09088830000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.100766</v>
+        <v>0.0908234</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130077</v>
+        <v>0.13031</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07559979999999999</v>
+        <v>0.0918076</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0968239</v>
+        <v>0.09483519999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139156</v>
+        <v>0.139297</v>
       </c>
       <c r="C46" t="n">
-        <v>0.07790569999999999</v>
+        <v>0.0941065</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09838619999999999</v>
+        <v>0.09371119999999999</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152006</v>
+        <v>0.15198</v>
       </c>
       <c r="C47" t="n">
-        <v>0.07988199999999999</v>
+        <v>0.0961697</v>
       </c>
       <c r="D47" t="n">
-        <v>0.101055</v>
+        <v>0.100018</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167836</v>
+        <v>0.172093</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0858368</v>
+        <v>0.101178</v>
       </c>
       <c r="D48" t="n">
-        <v>0.105429</v>
+        <v>0.101055</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191822</v>
+        <v>0.195399</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0889432</v>
+        <v>0.107525</v>
       </c>
       <c r="D49" t="n">
-        <v>0.111542</v>
+        <v>0.111837</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.225194</v>
+        <v>0.227102</v>
       </c>
       <c r="C50" t="n">
-        <v>0.09819840000000001</v>
+        <v>0.117123</v>
       </c>
       <c r="D50" t="n">
-        <v>0.121094</v>
+        <v>0.116357</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.270352</v>
+        <v>0.277782</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0746507</v>
+        <v>0.0916685</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0949591</v>
+        <v>0.0917337</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.320378</v>
+        <v>0.331343</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0793944</v>
+        <v>0.0913923</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0952924</v>
+        <v>0.09075660000000001</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.109436</v>
+        <v>0.118753</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07411570000000001</v>
+        <v>0.09106980000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0959791</v>
+        <v>0.0918194</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110884</v>
+        <v>0.114368</v>
       </c>
       <c r="C54" t="n">
-        <v>0.07461379999999999</v>
+        <v>0.0933847</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0962539</v>
+        <v>0.09144049999999999</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11275</v>
+        <v>0.11683</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0754957</v>
+        <v>0.0951173</v>
       </c>
       <c r="D55" t="n">
-        <v>0.101781</v>
+        <v>0.0908726</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116165</v>
+        <v>0.120966</v>
       </c>
       <c r="C56" t="n">
-        <v>0.07724590000000001</v>
+        <v>0.0959692</v>
       </c>
       <c r="D56" t="n">
-        <v>0.10228</v>
+        <v>0.0921618</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.12244</v>
+        <v>0.129208</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0761666</v>
+        <v>0.0968294</v>
       </c>
       <c r="D57" t="n">
-        <v>0.10253</v>
+        <v>0.0966152</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.128922</v>
+        <v>0.12878</v>
       </c>
       <c r="C58" t="n">
-        <v>0.07734439999999999</v>
+        <v>0.09782</v>
       </c>
       <c r="D58" t="n">
-        <v>0.10342</v>
+        <v>0.09801650000000001</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131753</v>
+        <v>0.143807</v>
       </c>
       <c r="C59" t="n">
-        <v>0.08229019999999999</v>
+        <v>0.094107</v>
       </c>
       <c r="D59" t="n">
-        <v>0.10508</v>
+        <v>0.0991591</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.1413</v>
+        <v>0.142123</v>
       </c>
       <c r="C60" t="n">
-        <v>0.08007499999999999</v>
+        <v>0.0981017</v>
       </c>
       <c r="D60" t="n">
-        <v>0.105211</v>
+        <v>0.101124</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.153152</v>
+        <v>0.158207</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0833604</v>
+        <v>0.0996375</v>
       </c>
       <c r="D61" t="n">
-        <v>0.104528</v>
+        <v>0.0991702</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16909</v>
+        <v>0.172008</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08569359999999999</v>
+        <v>0.101582</v>
       </c>
       <c r="D62" t="n">
-        <v>0.107349</v>
+        <v>0.101535</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.192068</v>
+        <v>0.204785</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0985429</v>
+        <v>0.106668</v>
       </c>
       <c r="D63" t="n">
-        <v>0.113335</v>
+        <v>0.106238</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.221208</v>
+        <v>0.238423</v>
       </c>
       <c r="C64" t="n">
-        <v>0.100602</v>
+        <v>0.122636</v>
       </c>
       <c r="D64" t="n">
-        <v>0.121328</v>
+        <v>0.114905</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.26351</v>
+        <v>0.279066</v>
       </c>
       <c r="C65" t="n">
-        <v>0.124477</v>
+        <v>0.129634</v>
       </c>
       <c r="D65" t="n">
-        <v>0.136189</v>
+        <v>0.128964</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.314336</v>
+        <v>0.325234</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0809912</v>
+        <v>0.100848</v>
       </c>
       <c r="D66" t="n">
-        <v>0.110609</v>
+        <v>0.100655</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.12264</v>
+        <v>0.132642</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0885484</v>
+        <v>0.100227</v>
       </c>
       <c r="D67" t="n">
-        <v>0.105486</v>
+        <v>0.097646</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124718</v>
+        <v>0.131806</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0891762</v>
+        <v>0.0971239</v>
       </c>
       <c r="D68" t="n">
-        <v>0.111848</v>
+        <v>0.0971997</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.128567</v>
+        <v>0.134425</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08946809999999999</v>
+        <v>0.101361</v>
       </c>
       <c r="D69" t="n">
-        <v>0.105461</v>
+        <v>0.0965285</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.138342</v>
+        <v>0.137453</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0839985</v>
+        <v>0.0967788</v>
       </c>
       <c r="D70" t="n">
-        <v>0.106976</v>
+        <v>0.101675</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132856</v>
+        <v>0.131718</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0881139</v>
+        <v>0.0981076</v>
       </c>
       <c r="D71" t="n">
-        <v>0.107871</v>
+        <v>0.0978827</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.136298</v>
+        <v>0.135694</v>
       </c>
       <c r="C72" t="n">
-        <v>0.08525339999999999</v>
+        <v>0.10361</v>
       </c>
       <c r="D72" t="n">
-        <v>0.106448</v>
+        <v>0.09898419999999999</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143147</v>
+        <v>0.14851</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0863199</v>
+        <v>0.10499</v>
       </c>
       <c r="D73" t="n">
-        <v>0.116545</v>
+        <v>0.10481</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.162761</v>
+        <v>0.155167</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0944598</v>
+        <v>0.101727</v>
       </c>
       <c r="D74" t="n">
-        <v>0.112378</v>
+        <v>0.102516</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.168481</v>
+        <v>0.173793</v>
       </c>
       <c r="C75" t="n">
-        <v>0.08854430000000001</v>
+        <v>0.103599</v>
       </c>
       <c r="D75" t="n">
-        <v>0.120355</v>
+        <v>0.103347</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176716</v>
+        <v>0.176526</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0918278</v>
+        <v>0.107498</v>
       </c>
       <c r="D76" t="n">
-        <v>0.115127</v>
+        <v>0.105921</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.21527</v>
+        <v>0.197144</v>
       </c>
       <c r="C77" t="n">
-        <v>0.09612660000000001</v>
+        <v>0.111288</v>
       </c>
       <c r="D77" t="n">
-        <v>0.121828</v>
+        <v>0.111369</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.234054</v>
+        <v>0.228586</v>
       </c>
       <c r="C78" t="n">
-        <v>0.104084</v>
+        <v>0.126246</v>
       </c>
       <c r="D78" t="n">
-        <v>0.12906</v>
+        <v>0.126581</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275025</v>
+        <v>0.271284</v>
       </c>
       <c r="C79" t="n">
-        <v>0.117024</v>
+        <v>0.142365</v>
       </c>
       <c r="D79" t="n">
-        <v>0.142859</v>
+        <v>0.129031</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.340587</v>
+        <v>0.326896</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0939975</v>
+        <v>0.108234</v>
       </c>
       <c r="D80" t="n">
-        <v>0.111817</v>
+        <v>0.106761</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.138344</v>
+        <v>0.139132</v>
       </c>
       <c r="C81" t="n">
-        <v>0.09121410000000001</v>
+        <v>0.102647</v>
       </c>
       <c r="D81" t="n">
-        <v>0.113928</v>
+        <v>0.103258</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.138004</v>
+        <v>0.137681</v>
       </c>
       <c r="C82" t="n">
-        <v>0.0963413</v>
+        <v>0.105483</v>
       </c>
       <c r="D82" t="n">
-        <v>0.112491</v>
+        <v>0.10465</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.140709</v>
+        <v>0.142493</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0920671</v>
+        <v>0.110481</v>
       </c>
       <c r="D83" t="n">
-        <v>0.114004</v>
+        <v>0.104621</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152728</v>
+        <v>0.152619</v>
       </c>
       <c r="C84" t="n">
-        <v>0.0931945</v>
+        <v>0.111238</v>
       </c>
       <c r="D84" t="n">
-        <v>0.118612</v>
+        <v>0.106399</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.151011</v>
+        <v>0.151044</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0938215</v>
+        <v>0.106477</v>
       </c>
       <c r="D85" t="n">
-        <v>0.115282</v>
+        <v>0.111058</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.152811</v>
+        <v>0.161532</v>
       </c>
       <c r="C86" t="n">
-        <v>0.102633</v>
+        <v>0.106886</v>
       </c>
       <c r="D86" t="n">
-        <v>0.117539</v>
+        <v>0.113708</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.169024</v>
+        <v>0.157681</v>
       </c>
       <c r="C87" t="n">
-        <v>0.09850739999999999</v>
+        <v>0.114906</v>
       </c>
       <c r="D87" t="n">
-        <v>0.119295</v>
+        <v>0.114787</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.178438</v>
+        <v>0.16881</v>
       </c>
       <c r="C88" t="n">
-        <v>0.101019</v>
+        <v>0.117366</v>
       </c>
       <c r="D88" t="n">
-        <v>0.130731</v>
+        <v>0.112173</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179055</v>
+        <v>0.180379</v>
       </c>
       <c r="C89" t="n">
-        <v>0.102341</v>
+        <v>0.113943</v>
       </c>
       <c r="D89" t="n">
-        <v>0.124558</v>
+        <v>0.119077</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.196116</v>
+        <v>0.19406</v>
       </c>
       <c r="C90" t="n">
-        <v>0.112466</v>
+        <v>0.125578</v>
       </c>
       <c r="D90" t="n">
-        <v>0.13123</v>
+        <v>0.123219</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.227105</v>
+        <v>0.229411</v>
       </c>
       <c r="C91" t="n">
-        <v>0.112513</v>
+        <v>0.125643</v>
       </c>
       <c r="D91" t="n">
-        <v>0.134447</v>
+        <v>0.131178</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.24951</v>
+        <v>0.257593</v>
       </c>
       <c r="C92" t="n">
-        <v>0.129074</v>
+        <v>0.137266</v>
       </c>
       <c r="D92" t="n">
-        <v>0.152687</v>
+        <v>0.132373</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.292087</v>
+        <v>0.301946</v>
       </c>
       <c r="C93" t="n">
-        <v>0.132794</v>
+        <v>0.147606</v>
       </c>
       <c r="D93" t="n">
-        <v>0.15596</v>
+        <v>0.155083</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.356305</v>
+        <v>0.363018</v>
       </c>
       <c r="C94" t="n">
-        <v>0.0998768</v>
+        <v>0.117902</v>
       </c>
       <c r="D94" t="n">
-        <v>0.122242</v>
+        <v>0.1133</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160051</v>
+        <v>0.14988</v>
       </c>
       <c r="C95" t="n">
-        <v>0.107773</v>
+        <v>0.11305</v>
       </c>
       <c r="D95" t="n">
-        <v>0.123931</v>
+        <v>0.118298</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.157449</v>
+        <v>0.152531</v>
       </c>
       <c r="C96" t="n">
-        <v>0.102667</v>
+        <v>0.122089</v>
       </c>
       <c r="D96" t="n">
-        <v>0.125484</v>
+        <v>0.115723</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156374</v>
+        <v>0.166427</v>
       </c>
       <c r="C97" t="n">
-        <v>0.110818</v>
+        <v>0.11812</v>
       </c>
       <c r="D97" t="n">
-        <v>0.12455</v>
+        <v>0.123536</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.170175</v>
+        <v>0.169535</v>
       </c>
       <c r="C98" t="n">
-        <v>0.10645</v>
+        <v>0.125233</v>
       </c>
       <c r="D98" t="n">
-        <v>0.128231</v>
+        <v>0.125053</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.174873</v>
+        <v>0.174693</v>
       </c>
       <c r="C99" t="n">
-        <v>0.108256</v>
+        <v>0.121704</v>
       </c>
       <c r="D99" t="n">
-        <v>0.130965</v>
+        <v>0.121887</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.173767</v>
+        <v>0.18127</v>
       </c>
       <c r="C100" t="n">
-        <v>0.111945</v>
+        <v>0.1278</v>
       </c>
       <c r="D100" t="n">
-        <v>0.132061</v>
+        <v>0.122528</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187549</v>
+        <v>0.187507</v>
       </c>
       <c r="C101" t="n">
-        <v>0.113523</v>
+        <v>0.132882</v>
       </c>
       <c r="D101" t="n">
-        <v>0.135093</v>
+        <v>0.131554</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.192552</v>
+        <v>0.19668</v>
       </c>
       <c r="C102" t="n">
-        <v>0.117723</v>
+        <v>0.134786</v>
       </c>
       <c r="D102" t="n">
-        <v>0.138128</v>
+        <v>0.129051</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.208341</v>
+        <v>0.208736</v>
       </c>
       <c r="C103" t="n">
-        <v>0.119805</v>
+        <v>0.132631</v>
       </c>
       <c r="D103" t="n">
-        <v>0.141801</v>
+        <v>0.132429</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212514</v>
+        <v>0.221908</v>
       </c>
       <c r="C104" t="n">
-        <v>0.125365</v>
+        <v>0.136466</v>
       </c>
       <c r="D104" t="n">
-        <v>0.144145</v>
+        <v>0.137147</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245768</v>
+        <v>0.23649</v>
       </c>
       <c r="C105" t="n">
-        <v>0.136077</v>
+        <v>0.142449</v>
       </c>
       <c r="D105" t="n">
-        <v>0.152324</v>
+        <v>0.140528</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.263162</v>
+        <v>0.277289</v>
       </c>
       <c r="C106" t="n">
-        <v>0.134837</v>
+        <v>0.151475</v>
       </c>
       <c r="D106" t="n">
-        <v>0.158991</v>
+        <v>0.151239</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.307937</v>
+        <v>0.312615</v>
       </c>
       <c r="C107" t="n">
-        <v>0.158534</v>
+        <v>0.165206</v>
       </c>
       <c r="D107" t="n">
-        <v>0.177082</v>
+        <v>0.165668</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.376139</v>
+        <v>0.37683</v>
       </c>
       <c r="C108" t="n">
-        <v>0.10941</v>
+        <v>0.12488</v>
       </c>
       <c r="D108" t="n">
-        <v>0.131106</v>
+        <v>0.127635</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.473435</v>
+        <v>0.47976</v>
       </c>
       <c r="C109" t="n">
-        <v>0.111165</v>
+        <v>0.128037</v>
       </c>
       <c r="D109" t="n">
-        <v>0.132519</v>
+        <v>0.123162</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.162221</v>
+        <v>0.169256</v>
       </c>
       <c r="C110" t="n">
-        <v>0.112819</v>
+        <v>0.124475</v>
       </c>
       <c r="D110" t="n">
-        <v>0.133947</v>
+        <v>0.124096</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.176195</v>
+        <v>0.170251</v>
       </c>
       <c r="C111" t="n">
-        <v>0.113902</v>
+        <v>0.126234</v>
       </c>
       <c r="D111" t="n">
-        <v>0.135384</v>
+        <v>0.130974</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.180234</v>
+        <v>0.178624</v>
       </c>
       <c r="C112" t="n">
-        <v>0.116785</v>
+        <v>0.127665</v>
       </c>
       <c r="D112" t="n">
-        <v>0.136862</v>
+        <v>0.126621</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.176047</v>
+        <v>0.176429</v>
       </c>
       <c r="C113" t="n">
-        <v>0.119681</v>
+        <v>0.132808</v>
       </c>
       <c r="D113" t="n">
-        <v>0.140215</v>
+        <v>0.129692</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.182815</v>
+        <v>0.18356</v>
       </c>
       <c r="C114" t="n">
-        <v>0.123924</v>
+        <v>0.131645</v>
       </c>
       <c r="D114" t="n">
-        <v>0.144299</v>
+        <v>0.132061</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.201616</v>
+        <v>0.198744</v>
       </c>
       <c r="C115" t="n">
-        <v>0.125454</v>
+        <v>0.134546</v>
       </c>
       <c r="D115" t="n">
-        <v>0.146219</v>
+        <v>0.135406</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.211479</v>
+        <v>0.199061</v>
       </c>
       <c r="C116" t="n">
-        <v>0.129296</v>
+        <v>0.138386</v>
       </c>
       <c r="D116" t="n">
-        <v>0.149671</v>
+        <v>0.138389</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.216025</v>
+        <v>0.218136</v>
       </c>
       <c r="C117" t="n">
-        <v>0.13781</v>
+        <v>0.144525</v>
       </c>
       <c r="D117" t="n">
-        <v>0.156951</v>
+        <v>0.147217</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.233095</v>
+        <v>0.238291</v>
       </c>
       <c r="C118" t="n">
-        <v>0.144556</v>
+        <v>0.14875</v>
       </c>
       <c r="D118" t="n">
-        <v>0.162626</v>
+        <v>0.149152</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.256197</v>
+        <v>0.256414</v>
       </c>
       <c r="C119" t="n">
-        <v>0.147474</v>
+        <v>0.157778</v>
       </c>
       <c r="D119" t="n">
-        <v>0.180463</v>
+        <v>0.157622</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.293143</v>
+        <v>0.295906</v>
       </c>
       <c r="C120" t="n">
-        <v>0.15658</v>
+        <v>0.168149</v>
       </c>
       <c r="D120" t="n">
-        <v>0.189261</v>
+        <v>0.166905</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.329945</v>
+        <v>0.329925</v>
       </c>
       <c r="C121" t="n">
-        <v>0.171486</v>
+        <v>0.183483</v>
       </c>
       <c r="D121" t="n">
-        <v>0.200938</v>
+        <v>0.184707</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.410598</v>
+        <v>0.398111</v>
       </c>
       <c r="C122" t="n">
-        <v>0.202838</v>
+        <v>0.208462</v>
       </c>
       <c r="D122" t="n">
-        <v>0.235675</v>
+        <v>0.207234</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.49248</v>
+        <v>0.497616</v>
       </c>
       <c r="C123" t="n">
-        <v>0.143929</v>
+        <v>0.150936</v>
       </c>
       <c r="D123" t="n">
-        <v>0.170108</v>
+        <v>0.154476</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.201854</v>
+        <v>0.200261</v>
       </c>
       <c r="C124" t="n">
-        <v>0.141881</v>
+        <v>0.152324</v>
       </c>
       <c r="D124" t="n">
-        <v>0.173051</v>
+        <v>0.156821</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.207119</v>
+        <v>0.205662</v>
       </c>
       <c r="C125" t="n">
-        <v>0.144571</v>
+        <v>0.161341</v>
       </c>
       <c r="D125" t="n">
-        <v>0.17041</v>
+        <v>0.157032</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.200926</v>
+        <v>0.200946</v>
       </c>
       <c r="C126" t="n">
-        <v>0.149786</v>
+        <v>0.157632</v>
       </c>
       <c r="D126" t="n">
-        <v>0.171341</v>
+        <v>0.159327</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.206368</v>
+        <v>0.21515</v>
       </c>
       <c r="C127" t="n">
-        <v>0.152686</v>
+        <v>0.165557</v>
       </c>
       <c r="D127" t="n">
-        <v>0.178911</v>
+        <v>0.167302</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.213367</v>
+        <v>0.215897</v>
       </c>
       <c r="C128" t="n">
-        <v>0.147727</v>
+        <v>0.169715</v>
       </c>
       <c r="D128" t="n">
-        <v>0.181553</v>
+        <v>0.166119</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225072</v>
+        <v>0.225153</v>
       </c>
       <c r="C129" t="n">
-        <v>0.158682</v>
+        <v>0.165435</v>
       </c>
       <c r="D129" t="n">
-        <v>0.179409</v>
+        <v>0.163962</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.239522</v>
+        <v>0.231998</v>
       </c>
       <c r="C130" t="n">
-        <v>0.155385</v>
+        <v>0.169824</v>
       </c>
       <c r="D130" t="n">
-        <v>0.19019</v>
+        <v>0.170788</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.245393</v>
+        <v>0.250991</v>
       </c>
       <c r="C131" t="n">
-        <v>0.159957</v>
+        <v>0.184143</v>
       </c>
       <c r="D131" t="n">
-        <v>0.193975</v>
+        <v>0.170547</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.261879</v>
+        <v>0.259613</v>
       </c>
       <c r="C132" t="n">
-        <v>0.167005</v>
+        <v>0.177061</v>
       </c>
       <c r="D132" t="n">
-        <v>0.192377</v>
+        <v>0.176593</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.284716</v>
+        <v>0.281821</v>
       </c>
       <c r="C133" t="n">
-        <v>0.172462</v>
+        <v>0.184011</v>
       </c>
       <c r="D133" t="n">
-        <v>0.198989</v>
+        <v>0.184131</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.30912</v>
+        <v>0.308582</v>
       </c>
       <c r="C134" t="n">
-        <v>0.190897</v>
+        <v>0.196012</v>
       </c>
       <c r="D134" t="n">
-        <v>0.21847</v>
+        <v>0.199127</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.361285</v>
+        <v>0.347271</v>
       </c>
       <c r="C135" t="n">
-        <v>0.198985</v>
+        <v>0.206064</v>
       </c>
       <c r="D135" t="n">
-        <v>0.238773</v>
+        <v>0.212108</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.421403</v>
+        <v>0.419874</v>
       </c>
       <c r="C136" t="n">
-        <v>0.221145</v>
+        <v>0.231199</v>
       </c>
       <c r="D136" t="n">
-        <v>0.245059</v>
+        <v>0.229713</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.51414</v>
+        <v>0.509971</v>
       </c>
       <c r="C137" t="n">
-        <v>0.263262</v>
+        <v>0.261101</v>
       </c>
       <c r="D137" t="n">
-        <v>0.301721</v>
+        <v>0.261672</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.340123</v>
+        <v>0.344934</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2627</v>
+        <v>0.278633</v>
       </c>
       <c r="D138" t="n">
-        <v>0.311509</v>
+        <v>0.261986</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342251</v>
+        <v>0.342817</v>
       </c>
       <c r="C139" t="n">
-        <v>0.265815</v>
+        <v>0.272257</v>
       </c>
       <c r="D139" t="n">
-        <v>0.312093</v>
+        <v>0.264155</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.352322</v>
+        <v>0.344161</v>
       </c>
       <c r="C140" t="n">
-        <v>0.266639</v>
+        <v>0.271424</v>
       </c>
       <c r="D140" t="n">
-        <v>0.319084</v>
+        <v>0.266734</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.358102</v>
+        <v>0.347671</v>
       </c>
       <c r="C141" t="n">
-        <v>0.274802</v>
+        <v>0.274199</v>
       </c>
       <c r="D141" t="n">
-        <v>0.315061</v>
+        <v>0.280975</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.368554</v>
+        <v>0.349406</v>
       </c>
       <c r="C142" t="n">
-        <v>0.272802</v>
+        <v>0.291283</v>
       </c>
       <c r="D142" t="n">
-        <v>0.316931</v>
+        <v>0.283278</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.364751</v>
+        <v>0.356137</v>
       </c>
       <c r="C143" t="n">
-        <v>0.275202</v>
+        <v>0.292384</v>
       </c>
       <c r="D143" t="n">
-        <v>0.323613</v>
+        <v>0.276423</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104929</v>
+        <v>0.104895</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0841496</v>
+        <v>0.0841078</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0841721</v>
+        <v>0.0842842</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111104</v>
+        <v>0.110908</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08460819999999999</v>
+        <v>0.08456909999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0847275</v>
+        <v>0.0851118</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122225</v>
+        <v>0.121732</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0852121</v>
+        <v>0.0848361</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0846928</v>
+        <v>0.0846068</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138589</v>
+        <v>0.138471</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08389919999999999</v>
+        <v>0.0844007</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08412559999999999</v>
+        <v>0.0841187</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.16457</v>
+        <v>0.164465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08575919999999999</v>
+        <v>0.085857</v>
       </c>
       <c r="D6" t="n">
-        <v>0.086448</v>
+        <v>0.0862829</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200711</v>
+        <v>0.200458</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09177589999999999</v>
+        <v>0.09127589999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0919128</v>
+        <v>0.0920484</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.246004</v>
+        <v>0.245889</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107171</v>
+        <v>0.107294</v>
       </c>
       <c r="D8" t="n">
-        <v>0.107635</v>
+        <v>0.108094</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.287752</v>
+        <v>0.287962</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0842683</v>
+        <v>0.0844669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0847781</v>
+        <v>0.08487069999999999</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0959541</v>
+        <v>0.0960391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08458880000000001</v>
+        <v>0.08465300000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0848989</v>
+        <v>0.0847454</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09731339999999999</v>
+        <v>0.0973364</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0847861</v>
+        <v>0.0848738</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08489770000000001</v>
+        <v>0.08482489999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.104211</v>
+        <v>0.0988528</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0849384</v>
+        <v>0.0849428</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0852069</v>
+        <v>0.0853435</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100728</v>
+        <v>0.100729</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0851099</v>
+        <v>0.08509650000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08546579999999999</v>
+        <v>0.0852778</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.10352</v>
+        <v>0.103562</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0855852</v>
+        <v>0.085532</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0856445</v>
+        <v>0.0855868</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108136</v>
+        <v>0.108168</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0858917</v>
+        <v>0.0859424</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0886789</v>
+        <v>0.0859924</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.113974</v>
+        <v>0.113899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0860967</v>
+        <v>0.0860293</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0864369</v>
+        <v>0.0862704</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.13058</v>
+        <v>0.122741</v>
       </c>
       <c r="C17" t="n">
-        <v>0.089363</v>
+        <v>0.0863877</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0865402</v>
+        <v>0.0865746</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.135163</v>
+        <v>0.134421</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08684260000000001</v>
+        <v>0.08694639999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0864685</v>
+        <v>0.0865561</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.155731</v>
+        <v>0.149696</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0906342</v>
+        <v>0.08762789999999999</v>
       </c>
       <c r="D19" t="n">
-        <v>0.08996510000000001</v>
+        <v>0.0875817</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.178697</v>
+        <v>0.171285</v>
       </c>
       <c r="C20" t="n">
-        <v>0.09636450000000001</v>
+        <v>0.0923717</v>
       </c>
       <c r="D20" t="n">
-        <v>0.095999</v>
+        <v>0.092347</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.202922</v>
+        <v>0.201892</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101592</v>
+        <v>0.101614</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1029</v>
+        <v>0.101152</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24681</v>
+        <v>0.242971</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117468</v>
+        <v>0.117448</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1176</v>
+        <v>0.117906</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.30121</v>
+        <v>0.289653</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0875736</v>
+        <v>0.08631229999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08682960000000001</v>
+        <v>0.08661149999999999</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100919</v>
+        <v>0.100977</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0893034</v>
+        <v>0.0865016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0883689</v>
+        <v>0.0871118</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102563</v>
+        <v>0.102092</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09028360000000001</v>
+        <v>0.08672150000000001</v>
       </c>
       <c r="D25" t="n">
-        <v>0.087364</v>
+        <v>0.0874041</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103875</v>
+        <v>0.103808</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08821279999999999</v>
+        <v>0.08686190000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08913939999999999</v>
+        <v>0.0875703</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106652</v>
+        <v>0.106074</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0910136</v>
+        <v>0.08706419999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0918808</v>
+        <v>0.0873109</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109628</v>
+        <v>0.109449</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08803519999999999</v>
+        <v>0.08748110000000001</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0912777</v>
+        <v>0.0876659</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.118129</v>
+        <v>0.113749</v>
       </c>
       <c r="C29" t="n">
-        <v>0.09169330000000001</v>
+        <v>0.0877788</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0912341</v>
+        <v>0.08819200000000001</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.121517</v>
+        <v>0.120077</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0897661</v>
+        <v>0.0883787</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0882817</v>
+        <v>0.0882558</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.129388</v>
+        <v>0.127828</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0897237</v>
+        <v>0.0890406</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0887154</v>
+        <v>0.0892879</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.140297</v>
+        <v>0.138348</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0914592</v>
+        <v>0.0899018</v>
       </c>
       <c r="D32" t="n">
-        <v>0.09304560000000001</v>
+        <v>0.0899012</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.152399</v>
+        <v>0.15238</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09327680000000001</v>
+        <v>0.0918818</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0935223</v>
+        <v>0.0919321</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171808</v>
+        <v>0.169797</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09913089999999999</v>
+        <v>0.0976122</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0972773</v>
+        <v>0.09721589999999999</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.196883</v>
+        <v>0.194442</v>
       </c>
       <c r="C35" t="n">
-        <v>0.105356</v>
+        <v>0.105158</v>
       </c>
       <c r="D35" t="n">
-        <v>0.105523</v>
+        <v>0.104903</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.234255</v>
+        <v>0.232273</v>
       </c>
       <c r="C36" t="n">
-        <v>0.117263</v>
+        <v>0.116925</v>
       </c>
       <c r="D36" t="n">
-        <v>0.117243</v>
+        <v>0.116092</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.286827</v>
+        <v>0.280097</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0885826</v>
+        <v>0.0873559</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0886603</v>
+        <v>0.0874929</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105432</v>
+        <v>0.104235</v>
       </c>
       <c r="C38" t="n">
-        <v>0.08839610000000001</v>
+        <v>0.0875958</v>
       </c>
       <c r="D38" t="n">
-        <v>0.08894390000000001</v>
+        <v>0.0877904</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.11444</v>
+        <v>0.105429</v>
       </c>
       <c r="C39" t="n">
-        <v>0.092113</v>
+        <v>0.0878515</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0884562</v>
+        <v>0.08808050000000001</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.10707</v>
+        <v>0.107163</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0897949</v>
+        <v>0.0881849</v>
       </c>
       <c r="D40" t="n">
-        <v>0.08876729999999999</v>
+        <v>0.0882763</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.10947</v>
+        <v>0.109428</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0893771</v>
+        <v>0.08831700000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0891564</v>
+        <v>0.0885412</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113519</v>
+        <v>0.112738</v>
       </c>
       <c r="C42" t="n">
-        <v>0.09111909999999999</v>
+        <v>0.08869829999999999</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0897956</v>
+        <v>0.0888704</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.122736</v>
+        <v>0.117246</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0903774</v>
+        <v>0.0892042</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0902119</v>
+        <v>0.0897318</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122881</v>
+        <v>0.122909</v>
       </c>
       <c r="C44" t="n">
-        <v>0.09088830000000001</v>
+        <v>0.0899876</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0908234</v>
+        <v>0.0901718</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.13031</v>
+        <v>0.130238</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0918076</v>
+        <v>0.09090570000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.09483519999999999</v>
+        <v>0.0904948</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139297</v>
+        <v>0.139262</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0941065</v>
+        <v>0.0926891</v>
       </c>
       <c r="D46" t="n">
-        <v>0.09371119999999999</v>
+        <v>0.0923317</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.15198</v>
+        <v>0.152021</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0961697</v>
+        <v>0.0955433</v>
       </c>
       <c r="D47" t="n">
-        <v>0.100018</v>
+        <v>0.0953629</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.172093</v>
+        <v>0.168622</v>
       </c>
       <c r="C48" t="n">
-        <v>0.101178</v>
+        <v>0.0998691</v>
       </c>
       <c r="D48" t="n">
-        <v>0.101055</v>
+        <v>0.0997107</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195399</v>
+        <v>0.192729</v>
       </c>
       <c r="C49" t="n">
-        <v>0.107525</v>
+        <v>0.106251</v>
       </c>
       <c r="D49" t="n">
-        <v>0.111837</v>
+        <v>0.105831</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.227102</v>
+        <v>0.226568</v>
       </c>
       <c r="C50" t="n">
-        <v>0.117123</v>
+        <v>0.115835</v>
       </c>
       <c r="D50" t="n">
-        <v>0.116357</v>
+        <v>0.115612</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.277782</v>
+        <v>0.269717</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0916685</v>
+        <v>0.0893405</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0917337</v>
+        <v>0.0897391</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.331343</v>
+        <v>0.31984</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0913923</v>
+        <v>0.0894051</v>
       </c>
       <c r="D52" t="n">
-        <v>0.09075660000000001</v>
+        <v>0.0902241</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.118753</v>
+        <v>0.110333</v>
       </c>
       <c r="C53" t="n">
-        <v>0.09106980000000001</v>
+        <v>0.0901382</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0918194</v>
+        <v>0.09101720000000001</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114368</v>
+        <v>0.112453</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0933847</v>
+        <v>0.0898615</v>
       </c>
       <c r="D54" t="n">
-        <v>0.09144049999999999</v>
+        <v>0.0912274</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11683</v>
+        <v>0.11425</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0951173</v>
+        <v>0.0914486</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0908726</v>
+        <v>0.0911401</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.120966</v>
+        <v>0.117354</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0959692</v>
+        <v>0.0906961</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0921618</v>
+        <v>0.0911396</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.129208</v>
+        <v>0.122448</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0968294</v>
+        <v>0.0917891</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0966152</v>
+        <v>0.0919403</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12878</v>
+        <v>0.125312</v>
       </c>
       <c r="C58" t="n">
-        <v>0.09782</v>
+        <v>0.0931898</v>
       </c>
       <c r="D58" t="n">
-        <v>0.09801650000000001</v>
+        <v>0.0923891</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.143807</v>
+        <v>0.135829</v>
       </c>
       <c r="C59" t="n">
-        <v>0.094107</v>
+        <v>0.09404079999999999</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0991591</v>
+        <v>0.0938045</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142123</v>
+        <v>0.140272</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0981017</v>
+        <v>0.0956018</v>
       </c>
       <c r="D60" t="n">
-        <v>0.101124</v>
+        <v>0.0955463</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.158207</v>
+        <v>0.151601</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0996375</v>
+        <v>0.0984536</v>
       </c>
       <c r="D61" t="n">
-        <v>0.0991702</v>
+        <v>0.097833</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.172008</v>
+        <v>0.168854</v>
       </c>
       <c r="C62" t="n">
-        <v>0.101582</v>
+        <v>0.101166</v>
       </c>
       <c r="D62" t="n">
-        <v>0.101535</v>
+        <v>0.100886</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.204785</v>
+        <v>0.1903</v>
       </c>
       <c r="C63" t="n">
-        <v>0.106668</v>
+        <v>0.106557</v>
       </c>
       <c r="D63" t="n">
-        <v>0.106238</v>
+        <v>0.1063</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.238423</v>
+        <v>0.218899</v>
       </c>
       <c r="C64" t="n">
-        <v>0.122636</v>
+        <v>0.113657</v>
       </c>
       <c r="D64" t="n">
-        <v>0.114905</v>
+        <v>0.113909</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.279066</v>
+        <v>0.275309</v>
       </c>
       <c r="C65" t="n">
-        <v>0.129634</v>
+        <v>0.129065</v>
       </c>
       <c r="D65" t="n">
-        <v>0.128964</v>
+        <v>0.129125</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.325234</v>
+        <v>0.313675</v>
       </c>
       <c r="C66" t="n">
-        <v>0.100848</v>
+        <v>0.0960507</v>
       </c>
       <c r="D66" t="n">
-        <v>0.100655</v>
+        <v>0.0949633</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.132642</v>
+        <v>0.127857</v>
       </c>
       <c r="C67" t="n">
-        <v>0.100227</v>
+        <v>0.0956916</v>
       </c>
       <c r="D67" t="n">
-        <v>0.097646</v>
+        <v>0.0954762</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.131806</v>
+        <v>0.122462</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0971239</v>
+        <v>0.096243</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0971997</v>
+        <v>0.0965317</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.134425</v>
+        <v>0.126464</v>
       </c>
       <c r="C69" t="n">
-        <v>0.101361</v>
+        <v>0.096567</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0965285</v>
+        <v>0.0965512</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.137453</v>
+        <v>0.128589</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0967788</v>
+        <v>0.09722749999999999</v>
       </c>
       <c r="D70" t="n">
-        <v>0.101675</v>
+        <v>0.09829160000000001</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131718</v>
+        <v>0.133338</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0981076</v>
+        <v>0.098187</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0978827</v>
+        <v>0.0979025</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.135694</v>
+        <v>0.138471</v>
       </c>
       <c r="C72" t="n">
-        <v>0.10361</v>
+        <v>0.0987093</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09898419999999999</v>
+        <v>0.0987309</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.14851</v>
+        <v>0.142718</v>
       </c>
       <c r="C73" t="n">
-        <v>0.10499</v>
+        <v>0.100703</v>
       </c>
       <c r="D73" t="n">
-        <v>0.10481</v>
+        <v>0.100223</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.155167</v>
+        <v>0.150927</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101727</v>
+        <v>0.101403</v>
       </c>
       <c r="D74" t="n">
-        <v>0.102516</v>
+        <v>0.103254</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.173793</v>
+        <v>0.164222</v>
       </c>
       <c r="C75" t="n">
-        <v>0.103599</v>
+        <v>0.105487</v>
       </c>
       <c r="D75" t="n">
-        <v>0.103347</v>
+        <v>0.10348</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176526</v>
+        <v>0.176696</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107498</v>
+        <v>0.106553</v>
       </c>
       <c r="D76" t="n">
-        <v>0.105921</v>
+        <v>0.103375</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197144</v>
+        <v>0.196123</v>
       </c>
       <c r="C77" t="n">
-        <v>0.111288</v>
+        <v>0.111113</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111369</v>
+        <v>0.111535</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.228586</v>
+        <v>0.225735</v>
       </c>
       <c r="C78" t="n">
-        <v>0.126246</v>
+        <v>0.118816</v>
       </c>
       <c r="D78" t="n">
-        <v>0.126581</v>
+        <v>0.120083</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.271284</v>
+        <v>0.264522</v>
       </c>
       <c r="C79" t="n">
-        <v>0.142365</v>
+        <v>0.133422</v>
       </c>
       <c r="D79" t="n">
-        <v>0.129031</v>
+        <v>0.136073</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.326896</v>
+        <v>0.322121</v>
       </c>
       <c r="C80" t="n">
-        <v>0.108234</v>
+        <v>0.102123</v>
       </c>
       <c r="D80" t="n">
-        <v>0.106761</v>
+        <v>0.102809</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.139132</v>
+        <v>0.14465</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102647</v>
+        <v>0.103285</v>
       </c>
       <c r="D81" t="n">
-        <v>0.103258</v>
+        <v>0.105749</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137681</v>
+        <v>0.137715</v>
       </c>
       <c r="C82" t="n">
-        <v>0.105483</v>
+        <v>0.103795</v>
       </c>
       <c r="D82" t="n">
-        <v>0.10465</v>
+        <v>0.106704</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.142493</v>
+        <v>0.140063</v>
       </c>
       <c r="C83" t="n">
-        <v>0.110481</v>
+        <v>0.104694</v>
       </c>
       <c r="D83" t="n">
-        <v>0.104621</v>
+        <v>0.104626</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.152619</v>
+        <v>0.142862</v>
       </c>
       <c r="C84" t="n">
-        <v>0.111238</v>
+        <v>0.104381</v>
       </c>
       <c r="D84" t="n">
-        <v>0.106399</v>
+        <v>0.105503</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.151044</v>
+        <v>0.146469</v>
       </c>
       <c r="C85" t="n">
-        <v>0.106477</v>
+        <v>0.105337</v>
       </c>
       <c r="D85" t="n">
-        <v>0.111058</v>
+        <v>0.106828</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.161532</v>
+        <v>0.159688</v>
       </c>
       <c r="C86" t="n">
-        <v>0.106886</v>
+        <v>0.107209</v>
       </c>
       <c r="D86" t="n">
-        <v>0.113708</v>
+        <v>0.106041</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.157681</v>
+        <v>0.157823</v>
       </c>
       <c r="C87" t="n">
-        <v>0.114906</v>
+        <v>0.1084</v>
       </c>
       <c r="D87" t="n">
-        <v>0.114787</v>
+        <v>0.10797</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.16881</v>
+        <v>0.166437</v>
       </c>
       <c r="C88" t="n">
-        <v>0.117366</v>
+        <v>0.111619</v>
       </c>
       <c r="D88" t="n">
-        <v>0.112173</v>
+        <v>0.111106</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.180379</v>
+        <v>0.178089</v>
       </c>
       <c r="C89" t="n">
-        <v>0.113943</v>
+        <v>0.114815</v>
       </c>
       <c r="D89" t="n">
-        <v>0.119077</v>
+        <v>0.113149</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19406</v>
+        <v>0.193699</v>
       </c>
       <c r="C90" t="n">
-        <v>0.125578</v>
+        <v>0.118034</v>
       </c>
       <c r="D90" t="n">
-        <v>0.123219</v>
+        <v>0.119181</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.229411</v>
+        <v>0.214993</v>
       </c>
       <c r="C91" t="n">
-        <v>0.125643</v>
+        <v>0.124459</v>
       </c>
       <c r="D91" t="n">
-        <v>0.131178</v>
+        <v>0.125603</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.257593</v>
+        <v>0.256202</v>
       </c>
       <c r="C92" t="n">
-        <v>0.137266</v>
+        <v>0.134494</v>
       </c>
       <c r="D92" t="n">
-        <v>0.132373</v>
+        <v>0.134894</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.301946</v>
+        <v>0.303433</v>
       </c>
       <c r="C93" t="n">
-        <v>0.147606</v>
+        <v>0.148249</v>
       </c>
       <c r="D93" t="n">
-        <v>0.155083</v>
+        <v>0.149182</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.363018</v>
+        <v>0.347631</v>
       </c>
       <c r="C94" t="n">
-        <v>0.117902</v>
+        <v>0.112617</v>
       </c>
       <c r="D94" t="n">
-        <v>0.1133</v>
+        <v>0.112959</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.14988</v>
+        <v>0.149847</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11305</v>
+        <v>0.11304</v>
       </c>
       <c r="D95" t="n">
-        <v>0.118298</v>
+        <v>0.113856</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.152531</v>
+        <v>0.152555</v>
       </c>
       <c r="C96" t="n">
-        <v>0.122089</v>
+        <v>0.115923</v>
       </c>
       <c r="D96" t="n">
-        <v>0.115723</v>
+        <v>0.116281</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.166427</v>
+        <v>0.156031</v>
       </c>
       <c r="C97" t="n">
-        <v>0.11812</v>
+        <v>0.116634</v>
       </c>
       <c r="D97" t="n">
-        <v>0.123536</v>
+        <v>0.118318</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.169535</v>
+        <v>0.160175</v>
       </c>
       <c r="C98" t="n">
-        <v>0.125233</v>
+        <v>0.124036</v>
       </c>
       <c r="D98" t="n">
-        <v>0.125053</v>
+        <v>0.120158</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.174693</v>
+        <v>0.164932</v>
       </c>
       <c r="C99" t="n">
-        <v>0.121704</v>
+        <v>0.122067</v>
       </c>
       <c r="D99" t="n">
-        <v>0.121887</v>
+        <v>0.122289</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.18127</v>
+        <v>0.170286</v>
       </c>
       <c r="C100" t="n">
-        <v>0.1278</v>
+        <v>0.124023</v>
       </c>
       <c r="D100" t="n">
-        <v>0.122528</v>
+        <v>0.12412</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187507</v>
+        <v>0.17708</v>
       </c>
       <c r="C101" t="n">
-        <v>0.132882</v>
+        <v>0.126093</v>
       </c>
       <c r="D101" t="n">
-        <v>0.131554</v>
+        <v>0.125186</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.19668</v>
+        <v>0.195472</v>
       </c>
       <c r="C102" t="n">
-        <v>0.134786</v>
+        <v>0.127219</v>
       </c>
       <c r="D102" t="n">
-        <v>0.129051</v>
+        <v>0.129258</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.208736</v>
+        <v>0.207742</v>
       </c>
       <c r="C103" t="n">
-        <v>0.132631</v>
+        <v>0.132498</v>
       </c>
       <c r="D103" t="n">
-        <v>0.132429</v>
+        <v>0.132346</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.221908</v>
+        <v>0.214955</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136466</v>
+        <v>0.1365</v>
       </c>
       <c r="D104" t="n">
-        <v>0.137147</v>
+        <v>0.136818</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.23649</v>
+        <v>0.23329</v>
       </c>
       <c r="C105" t="n">
-        <v>0.142449</v>
+        <v>0.142278</v>
       </c>
       <c r="D105" t="n">
-        <v>0.140528</v>
+        <v>0.142692</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277289</v>
+        <v>0.262798</v>
       </c>
       <c r="C106" t="n">
-        <v>0.151475</v>
+        <v>0.154478</v>
       </c>
       <c r="D106" t="n">
-        <v>0.151239</v>
+        <v>0.152701</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.312615</v>
+        <v>0.306736</v>
       </c>
       <c r="C107" t="n">
-        <v>0.165206</v>
+        <v>0.165226</v>
       </c>
       <c r="D107" t="n">
-        <v>0.165668</v>
+        <v>0.173015</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37683</v>
+        <v>0.389731</v>
       </c>
       <c r="C108" t="n">
-        <v>0.12488</v>
+        <v>0.126197</v>
       </c>
       <c r="D108" t="n">
-        <v>0.127635</v>
+        <v>0.121903</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.47976</v>
+        <v>0.471769</v>
       </c>
       <c r="C109" t="n">
-        <v>0.128037</v>
+        <v>0.127589</v>
       </c>
       <c r="D109" t="n">
-        <v>0.123162</v>
+        <v>0.123089</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.169256</v>
+        <v>0.16205</v>
       </c>
       <c r="C110" t="n">
-        <v>0.124475</v>
+        <v>0.124445</v>
       </c>
       <c r="D110" t="n">
-        <v>0.124096</v>
+        <v>0.123703</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.170251</v>
+        <v>0.174401</v>
       </c>
       <c r="C111" t="n">
-        <v>0.126234</v>
+        <v>0.126272</v>
       </c>
       <c r="D111" t="n">
-        <v>0.130974</v>
+        <v>0.125147</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.178624</v>
+        <v>0.168805</v>
       </c>
       <c r="C112" t="n">
-        <v>0.127665</v>
+        <v>0.127827</v>
       </c>
       <c r="D112" t="n">
-        <v>0.126621</v>
+        <v>0.133151</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.176429</v>
+        <v>0.178322</v>
       </c>
       <c r="C113" t="n">
-        <v>0.132808</v>
+        <v>0.129461</v>
       </c>
       <c r="D113" t="n">
-        <v>0.129692</v>
+        <v>0.129662</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.18356</v>
+        <v>0.180149</v>
       </c>
       <c r="C114" t="n">
-        <v>0.131645</v>
+        <v>0.131884</v>
       </c>
       <c r="D114" t="n">
-        <v>0.132061</v>
+        <v>0.131828</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.198744</v>
+        <v>0.188512</v>
       </c>
       <c r="C115" t="n">
-        <v>0.134546</v>
+        <v>0.1351</v>
       </c>
       <c r="D115" t="n">
-        <v>0.135406</v>
+        <v>0.135099</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.199061</v>
+        <v>0.209536</v>
       </c>
       <c r="C116" t="n">
-        <v>0.138386</v>
+        <v>0.139092</v>
       </c>
       <c r="D116" t="n">
-        <v>0.138389</v>
+        <v>0.137841</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.218136</v>
+        <v>0.213471</v>
       </c>
       <c r="C117" t="n">
-        <v>0.144525</v>
+        <v>0.14427</v>
       </c>
       <c r="D117" t="n">
-        <v>0.147217</v>
+        <v>0.142861</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.238291</v>
+        <v>0.242447</v>
       </c>
       <c r="C118" t="n">
-        <v>0.14875</v>
+        <v>0.150259</v>
       </c>
       <c r="D118" t="n">
-        <v>0.149152</v>
+        <v>0.149151</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.256414</v>
+        <v>0.254422</v>
       </c>
       <c r="C119" t="n">
-        <v>0.157778</v>
+        <v>0.157993</v>
       </c>
       <c r="D119" t="n">
-        <v>0.157622</v>
+        <v>0.161765</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.295906</v>
+        <v>0.285292</v>
       </c>
       <c r="C120" t="n">
-        <v>0.168149</v>
+        <v>0.16787</v>
       </c>
       <c r="D120" t="n">
-        <v>0.166905</v>
+        <v>0.168146</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.329925</v>
+        <v>0.33346</v>
       </c>
       <c r="C121" t="n">
-        <v>0.183483</v>
+        <v>0.18406</v>
       </c>
       <c r="D121" t="n">
-        <v>0.184707</v>
+        <v>0.183152</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.398111</v>
+        <v>0.397804</v>
       </c>
       <c r="C122" t="n">
-        <v>0.208462</v>
+        <v>0.208334</v>
       </c>
       <c r="D122" t="n">
-        <v>0.207234</v>
+        <v>0.20954</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.497616</v>
+        <v>0.494738</v>
       </c>
       <c r="C123" t="n">
-        <v>0.150936</v>
+        <v>0.150236</v>
       </c>
       <c r="D123" t="n">
-        <v>0.154476</v>
+        <v>0.146287</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.200261</v>
+        <v>0.20308</v>
       </c>
       <c r="C124" t="n">
-        <v>0.152324</v>
+        <v>0.155524</v>
       </c>
       <c r="D124" t="n">
-        <v>0.156821</v>
+        <v>0.150832</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.205662</v>
+        <v>0.204311</v>
       </c>
       <c r="C125" t="n">
-        <v>0.161341</v>
+        <v>0.158858</v>
       </c>
       <c r="D125" t="n">
-        <v>0.157032</v>
+        <v>0.15639</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.200946</v>
+        <v>0.201065</v>
       </c>
       <c r="C126" t="n">
-        <v>0.157632</v>
+        <v>0.155912</v>
       </c>
       <c r="D126" t="n">
-        <v>0.159327</v>
+        <v>0.15622</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.21515</v>
+        <v>0.205979</v>
       </c>
       <c r="C127" t="n">
-        <v>0.165557</v>
+        <v>0.161527</v>
       </c>
       <c r="D127" t="n">
-        <v>0.167302</v>
+        <v>0.158335</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.215897</v>
+        <v>0.217226</v>
       </c>
       <c r="C128" t="n">
-        <v>0.169715</v>
+        <v>0.16229</v>
       </c>
       <c r="D128" t="n">
-        <v>0.166119</v>
+        <v>0.163181</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225153</v>
+        <v>0.219141</v>
       </c>
       <c r="C129" t="n">
-        <v>0.165435</v>
+        <v>0.171156</v>
       </c>
       <c r="D129" t="n">
-        <v>0.163962</v>
+        <v>0.171859</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.231998</v>
+        <v>0.234519</v>
       </c>
       <c r="C130" t="n">
-        <v>0.169824</v>
+        <v>0.168068</v>
       </c>
       <c r="D130" t="n">
-        <v>0.170788</v>
+        <v>0.167573</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.250991</v>
+        <v>0.239894</v>
       </c>
       <c r="C131" t="n">
-        <v>0.184143</v>
+        <v>0.171842</v>
       </c>
       <c r="D131" t="n">
-        <v>0.170547</v>
+        <v>0.172159</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.259613</v>
+        <v>0.258573</v>
       </c>
       <c r="C132" t="n">
-        <v>0.177061</v>
+        <v>0.179412</v>
       </c>
       <c r="D132" t="n">
-        <v>0.176593</v>
+        <v>0.173193</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.281821</v>
+        <v>0.283547</v>
       </c>
       <c r="C133" t="n">
-        <v>0.184011</v>
+        <v>0.186597</v>
       </c>
       <c r="D133" t="n">
-        <v>0.184131</v>
+        <v>0.180966</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.308582</v>
+        <v>0.316266</v>
       </c>
       <c r="C134" t="n">
-        <v>0.196012</v>
+        <v>0.192713</v>
       </c>
       <c r="D134" t="n">
-        <v>0.199127</v>
+        <v>0.196066</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.347271</v>
+        <v>0.3486</v>
       </c>
       <c r="C135" t="n">
-        <v>0.206064</v>
+        <v>0.205327</v>
       </c>
       <c r="D135" t="n">
-        <v>0.212108</v>
+        <v>0.205814</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.419874</v>
+        <v>0.411601</v>
       </c>
       <c r="C136" t="n">
-        <v>0.231199</v>
+        <v>0.222712</v>
       </c>
       <c r="D136" t="n">
-        <v>0.229713</v>
+        <v>0.228115</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509971</v>
+        <v>0.509116</v>
       </c>
       <c r="C137" t="n">
-        <v>0.261101</v>
+        <v>0.266646</v>
       </c>
       <c r="D137" t="n">
-        <v>0.261672</v>
+        <v>0.265779</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.344934</v>
+        <v>0.341613</v>
       </c>
       <c r="C138" t="n">
-        <v>0.278633</v>
+        <v>0.266824</v>
       </c>
       <c r="D138" t="n">
-        <v>0.261986</v>
+        <v>0.262685</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.342817</v>
+        <v>0.343194</v>
       </c>
       <c r="C139" t="n">
-        <v>0.272257</v>
+        <v>0.271862</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264155</v>
+        <v>0.264616</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.344161</v>
+        <v>0.351641</v>
       </c>
       <c r="C140" t="n">
-        <v>0.271424</v>
+        <v>0.269068</v>
       </c>
       <c r="D140" t="n">
-        <v>0.266734</v>
+        <v>0.280895</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347671</v>
+        <v>0.350978</v>
       </c>
       <c r="C141" t="n">
-        <v>0.274199</v>
+        <v>0.288996</v>
       </c>
       <c r="D141" t="n">
-        <v>0.280975</v>
+        <v>0.297798</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.349406</v>
+        <v>0.358897</v>
       </c>
       <c r="C142" t="n">
-        <v>0.291283</v>
+        <v>0.274082</v>
       </c>
       <c r="D142" t="n">
-        <v>0.283278</v>
+        <v>0.2853</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.356137</v>
+        <v>0.366579</v>
       </c>
       <c r="C143" t="n">
-        <v>0.292384</v>
+        <v>0.29528</v>
       </c>
       <c r="D143" t="n">
-        <v>0.276423</v>
+        <v>0.276178</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104895</v>
+        <v>0.104795</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0841078</v>
+        <v>0.0841229</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0842842</v>
+        <v>0.0841416</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110908</v>
+        <v>0.110789</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08456909999999999</v>
+        <v>0.0844181</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0851118</v>
+        <v>0.0847202</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.121732</v>
+        <v>0.121794</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0848361</v>
+        <v>0.08522009999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0846068</v>
+        <v>0.0843339</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138471</v>
+        <v>0.138443</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0844007</v>
+        <v>0.08407530000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0841187</v>
+        <v>0.08400489999999999</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.164465</v>
+        <v>0.164199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.085857</v>
+        <v>0.08604729999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0862829</v>
+        <v>0.0863143</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200458</v>
+        <v>0.200099</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09127589999999999</v>
+        <v>0.0912784</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0920484</v>
+        <v>0.09189310000000001</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.245889</v>
+        <v>0.245793</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107294</v>
+        <v>0.107113</v>
       </c>
       <c r="D8" t="n">
-        <v>0.108094</v>
+        <v>0.108132</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.287962</v>
+        <v>0.287641</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0844669</v>
+        <v>0.0842647</v>
       </c>
       <c r="D9" t="n">
-        <v>0.08487069999999999</v>
+        <v>0.0848232</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0960391</v>
+        <v>0.09610589999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08465300000000001</v>
+        <v>0.0845651</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0847454</v>
+        <v>0.0847832</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0973364</v>
+        <v>0.097289</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0848738</v>
+        <v>0.0847318</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08482489999999999</v>
+        <v>0.08493779999999999</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0988528</v>
+        <v>0.0987497</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0849428</v>
+        <v>0.08491559999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0853435</v>
+        <v>0.0852358</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100729</v>
+        <v>0.100675</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08509650000000001</v>
+        <v>0.0851141</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0852778</v>
+        <v>0.0852694</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.103562</v>
+        <v>0.103477</v>
       </c>
       <c r="C14" t="n">
-        <v>0.085532</v>
+        <v>0.0853754</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0855868</v>
+        <v>0.08556469999999999</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.108168</v>
+        <v>0.108154</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0859424</v>
+        <v>0.0857108</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0859924</v>
+        <v>0.0859873</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.113899</v>
+        <v>0.116393</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0860293</v>
+        <v>0.0862132</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0862704</v>
+        <v>0.08618729999999999</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.122741</v>
+        <v>0.122725</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0863877</v>
+        <v>0.0864714</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0865746</v>
+        <v>0.0864393</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134421</v>
+        <v>0.137207</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08694639999999999</v>
+        <v>0.0867998</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0865561</v>
+        <v>0.08652070000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149696</v>
+        <v>0.159209</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08762789999999999</v>
+        <v>0.0875932</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0875817</v>
+        <v>0.0874883</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171285</v>
+        <v>0.172866</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0923717</v>
+        <v>0.0942805</v>
       </c>
       <c r="D20" t="n">
-        <v>0.092347</v>
+        <v>0.09203119999999999</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.201892</v>
+        <v>0.202999</v>
       </c>
       <c r="C21" t="n">
-        <v>0.101614</v>
+        <v>0.101349</v>
       </c>
       <c r="D21" t="n">
-        <v>0.101152</v>
+        <v>0.101182</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.242971</v>
+        <v>0.243242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.117448</v>
+        <v>0.117719</v>
       </c>
       <c r="D22" t="n">
-        <v>0.117906</v>
+        <v>0.123464</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289653</v>
+        <v>0.2934</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08631229999999999</v>
+        <v>0.08620650000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08661149999999999</v>
+        <v>0.0866011</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100977</v>
+        <v>0.104858</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0865016</v>
+        <v>0.0879069</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0871118</v>
+        <v>0.08849890000000001</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102092</v>
+        <v>0.103381</v>
       </c>
       <c r="C25" t="n">
-        <v>0.08672150000000001</v>
+        <v>0.08769979999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0874041</v>
+        <v>0.0904575</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103808</v>
+        <v>0.109309</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08686190000000001</v>
+        <v>0.0906966</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0875703</v>
+        <v>0.08889900000000001</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106074</v>
+        <v>0.109052</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08706419999999999</v>
+        <v>0.0885392</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0873109</v>
+        <v>0.0893775</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109449</v>
+        <v>0.112591</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08748110000000001</v>
+        <v>0.0888174</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0876659</v>
+        <v>0.0890016</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113749</v>
+        <v>0.118255</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0877788</v>
+        <v>0.0910781</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08819200000000001</v>
+        <v>0.0912389</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120077</v>
+        <v>0.122025</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0883787</v>
+        <v>0.089633</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0882558</v>
+        <v>0.089894</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127828</v>
+        <v>0.130176</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0890406</v>
+        <v>0.0901179</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0892879</v>
+        <v>0.0902109</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138348</v>
+        <v>0.138612</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0899018</v>
+        <v>0.0915135</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0899012</v>
+        <v>0.09092359999999999</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.15238</v>
+        <v>0.155309</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0918818</v>
+        <v>0.0928611</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0919321</v>
+        <v>0.09224549999999999</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169797</v>
+        <v>0.171567</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0976122</v>
+        <v>0.0986547</v>
       </c>
       <c r="D34" t="n">
-        <v>0.09721589999999999</v>
+        <v>0.0977354</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194442</v>
+        <v>0.198875</v>
       </c>
       <c r="C35" t="n">
-        <v>0.105158</v>
+        <v>0.105852</v>
       </c>
       <c r="D35" t="n">
-        <v>0.104903</v>
+        <v>0.105435</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232273</v>
+        <v>0.232975</v>
       </c>
       <c r="C36" t="n">
-        <v>0.116925</v>
+        <v>0.117087</v>
       </c>
       <c r="D36" t="n">
-        <v>0.116092</v>
+        <v>0.116581</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280097</v>
+        <v>0.28917</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0873559</v>
+        <v>0.0885053</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0874929</v>
+        <v>0.0871174</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104235</v>
+        <v>0.10736</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0875958</v>
+        <v>0.0878221</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0877904</v>
+        <v>0.0881021</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105429</v>
+        <v>0.107483</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0878515</v>
+        <v>0.0890571</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08808050000000001</v>
+        <v>0.0877315</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107163</v>
+        <v>0.109664</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0881849</v>
+        <v>0.08923159999999999</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0882763</v>
+        <v>0.0887003</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109428</v>
+        <v>0.11249</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08831700000000001</v>
+        <v>0.0894403</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0885412</v>
+        <v>0.09189899999999999</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112738</v>
+        <v>0.116854</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08869829999999999</v>
+        <v>0.0925864</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0888704</v>
+        <v>0.08863269999999999</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.117246</v>
+        <v>0.121113</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0892042</v>
+        <v>0.0909297</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0897318</v>
+        <v>0.089986</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122909</v>
+        <v>0.127188</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0899876</v>
+        <v>0.0910924</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0901718</v>
+        <v>0.09334000000000001</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.130238</v>
+        <v>0.130269</v>
       </c>
       <c r="C45" t="n">
-        <v>0.09090570000000001</v>
+        <v>0.09069770000000001</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0904948</v>
+        <v>0.0916955</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139262</v>
+        <v>0.148161</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0926891</v>
+        <v>0.0937616</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0923317</v>
+        <v>0.0932002</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.152021</v>
+        <v>0.152008</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0955433</v>
+        <v>0.09647699999999999</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0953629</v>
+        <v>0.0960545</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.168622</v>
+        <v>0.168195</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0998691</v>
+        <v>0.100118</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0997107</v>
+        <v>0.100639</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192729</v>
+        <v>0.197108</v>
       </c>
       <c r="C49" t="n">
-        <v>0.106251</v>
+        <v>0.106906</v>
       </c>
       <c r="D49" t="n">
-        <v>0.105831</v>
+        <v>0.106408</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.226568</v>
+        <v>0.225509</v>
       </c>
       <c r="C50" t="n">
-        <v>0.115835</v>
+        <v>0.116225</v>
       </c>
       <c r="D50" t="n">
-        <v>0.115612</v>
+        <v>0.115445</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.269717</v>
+        <v>0.271324</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0893405</v>
+        <v>0.09380230000000001</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0897391</v>
+        <v>0.0924387</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.31984</v>
+        <v>0.328834</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0894051</v>
+        <v>0.0906951</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0902241</v>
+        <v>0.0898626</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.110333</v>
+        <v>0.114327</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0901382</v>
+        <v>0.0927708</v>
       </c>
       <c r="D53" t="n">
-        <v>0.09101720000000001</v>
+        <v>0.09025179999999999</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.112453</v>
+        <v>0.115662</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0898615</v>
+        <v>0.09384919999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0912274</v>
+        <v>0.0934185</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.11425</v>
+        <v>0.125878</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0914486</v>
+        <v>0.0917179</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0911401</v>
+        <v>0.091172</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.117354</v>
+        <v>0.119826</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0906961</v>
+        <v>0.0919534</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0911396</v>
+        <v>0.09172230000000001</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.122448</v>
+        <v>0.120724</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0917891</v>
+        <v>0.0924565</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0919403</v>
+        <v>0.0922507</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.125312</v>
+        <v>0.139548</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0931898</v>
+        <v>0.0964421</v>
       </c>
       <c r="D58" t="n">
-        <v>0.0923891</v>
+        <v>0.09386899999999999</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.135829</v>
+        <v>0.146835</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09404079999999999</v>
+        <v>0.0960642</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0938045</v>
+        <v>0.0959796</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.140272</v>
+        <v>0.153556</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0956018</v>
+        <v>0.0988188</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0955463</v>
+        <v>0.100508</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151601</v>
+        <v>0.154735</v>
       </c>
       <c r="C61" t="n">
-        <v>0.0984536</v>
+        <v>0.0983731</v>
       </c>
       <c r="D61" t="n">
-        <v>0.097833</v>
+        <v>0.0991442</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168854</v>
+        <v>0.172467</v>
       </c>
       <c r="C62" t="n">
-        <v>0.101166</v>
+        <v>0.101689</v>
       </c>
       <c r="D62" t="n">
-        <v>0.100886</v>
+        <v>0.10543</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1903</v>
+        <v>0.199515</v>
       </c>
       <c r="C63" t="n">
-        <v>0.106557</v>
+        <v>0.106503</v>
       </c>
       <c r="D63" t="n">
-        <v>0.1063</v>
+        <v>0.106311</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.218899</v>
+        <v>0.226354</v>
       </c>
       <c r="C64" t="n">
-        <v>0.113657</v>
+        <v>0.115478</v>
       </c>
       <c r="D64" t="n">
-        <v>0.113909</v>
+        <v>0.113582</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.275309</v>
+        <v>0.265717</v>
       </c>
       <c r="C65" t="n">
-        <v>0.129065</v>
+        <v>0.129673</v>
       </c>
       <c r="D65" t="n">
-        <v>0.129125</v>
+        <v>0.136687</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.313675</v>
+        <v>0.314214</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0960507</v>
+        <v>0.0968996</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0949633</v>
+        <v>0.100528</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.127857</v>
+        <v>0.125575</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0956916</v>
+        <v>0.09591420000000001</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0954762</v>
+        <v>0.097509</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.122462</v>
+        <v>0.124804</v>
       </c>
       <c r="C68" t="n">
-        <v>0.096243</v>
+        <v>0.09609810000000001</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0965317</v>
+        <v>0.100864</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.126464</v>
+        <v>0.135575</v>
       </c>
       <c r="C69" t="n">
-        <v>0.096567</v>
+        <v>0.0978412</v>
       </c>
       <c r="D69" t="n">
-        <v>0.0965512</v>
+        <v>0.101942</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128589</v>
+        <v>0.129506</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09722749999999999</v>
+        <v>0.102072</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09829160000000001</v>
+        <v>0.102233</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.133338</v>
+        <v>0.142662</v>
       </c>
       <c r="C71" t="n">
-        <v>0.098187</v>
+        <v>0.0984257</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0979025</v>
+        <v>0.102734</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138471</v>
+        <v>0.141916</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0987093</v>
+        <v>0.103955</v>
       </c>
       <c r="D72" t="n">
-        <v>0.0987309</v>
+        <v>0.101917</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142718</v>
+        <v>0.15348</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100703</v>
+        <v>0.102993</v>
       </c>
       <c r="D73" t="n">
-        <v>0.100223</v>
+        <v>0.10312</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150927</v>
+        <v>0.152603</v>
       </c>
       <c r="C74" t="n">
-        <v>0.101403</v>
+        <v>0.104435</v>
       </c>
       <c r="D74" t="n">
-        <v>0.103254</v>
+        <v>0.102438</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.164222</v>
+        <v>0.174475</v>
       </c>
       <c r="C75" t="n">
-        <v>0.105487</v>
+        <v>0.10834</v>
       </c>
       <c r="D75" t="n">
-        <v>0.10348</v>
+        <v>0.104521</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176696</v>
+        <v>0.179553</v>
       </c>
       <c r="C76" t="n">
-        <v>0.106553</v>
+        <v>0.112739</v>
       </c>
       <c r="D76" t="n">
-        <v>0.103375</v>
+        <v>0.106252</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196123</v>
+        <v>0.209246</v>
       </c>
       <c r="C77" t="n">
-        <v>0.111113</v>
+        <v>0.118433</v>
       </c>
       <c r="D77" t="n">
-        <v>0.111535</v>
+        <v>0.117271</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225735</v>
+        <v>0.226539</v>
       </c>
       <c r="C78" t="n">
-        <v>0.118816</v>
+        <v>0.119586</v>
       </c>
       <c r="D78" t="n">
-        <v>0.120083</v>
+        <v>0.119812</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.264522</v>
+        <v>0.274134</v>
       </c>
       <c r="C79" t="n">
-        <v>0.133422</v>
+        <v>0.13343</v>
       </c>
       <c r="D79" t="n">
-        <v>0.136073</v>
+        <v>0.132972</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322121</v>
+        <v>0.337703</v>
       </c>
       <c r="C80" t="n">
-        <v>0.102123</v>
+        <v>0.102832</v>
       </c>
       <c r="D80" t="n">
-        <v>0.102809</v>
+        <v>0.104744</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.14465</v>
+        <v>0.13664</v>
       </c>
       <c r="C81" t="n">
-        <v>0.103285</v>
+        <v>0.103457</v>
       </c>
       <c r="D81" t="n">
-        <v>0.105749</v>
+        <v>0.103135</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137715</v>
+        <v>0.137802</v>
       </c>
       <c r="C82" t="n">
-        <v>0.103795</v>
+        <v>0.10378</v>
       </c>
       <c r="D82" t="n">
-        <v>0.106704</v>
+        <v>0.103035</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.140063</v>
+        <v>0.149288</v>
       </c>
       <c r="C83" t="n">
-        <v>0.104694</v>
+        <v>0.103778</v>
       </c>
       <c r="D83" t="n">
-        <v>0.104626</v>
+        <v>0.104496</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142862</v>
+        <v>0.142161</v>
       </c>
       <c r="C84" t="n">
-        <v>0.104381</v>
+        <v>0.105311</v>
       </c>
       <c r="D84" t="n">
-        <v>0.105503</v>
+        <v>0.110436</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146469</v>
+        <v>0.156278</v>
       </c>
       <c r="C85" t="n">
-        <v>0.105337</v>
+        <v>0.108628</v>
       </c>
       <c r="D85" t="n">
-        <v>0.106828</v>
+        <v>0.111204</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.159688</v>
+        <v>0.152688</v>
       </c>
       <c r="C86" t="n">
-        <v>0.107209</v>
+        <v>0.113199</v>
       </c>
       <c r="D86" t="n">
-        <v>0.106041</v>
+        <v>0.106291</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.157823</v>
+        <v>0.167539</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1084</v>
+        <v>0.108821</v>
       </c>
       <c r="D87" t="n">
-        <v>0.10797</v>
+        <v>0.108124</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166437</v>
+        <v>0.175944</v>
       </c>
       <c r="C88" t="n">
-        <v>0.111619</v>
+        <v>0.116126</v>
       </c>
       <c r="D88" t="n">
-        <v>0.111106</v>
+        <v>0.115922</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.178089</v>
+        <v>0.188378</v>
       </c>
       <c r="C89" t="n">
-        <v>0.114815</v>
+        <v>0.113549</v>
       </c>
       <c r="D89" t="n">
-        <v>0.113149</v>
+        <v>0.116937</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.193699</v>
+        <v>0.193523</v>
       </c>
       <c r="C90" t="n">
-        <v>0.118034</v>
+        <v>0.125338</v>
       </c>
       <c r="D90" t="n">
-        <v>0.119181</v>
+        <v>0.125537</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.214993</v>
+        <v>0.227893</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124459</v>
+        <v>0.124927</v>
       </c>
       <c r="D91" t="n">
-        <v>0.125603</v>
+        <v>0.131907</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.256202</v>
+        <v>0.258412</v>
       </c>
       <c r="C92" t="n">
-        <v>0.134494</v>
+        <v>0.134527</v>
       </c>
       <c r="D92" t="n">
-        <v>0.134894</v>
+        <v>0.135915</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.303433</v>
+        <v>0.288879</v>
       </c>
       <c r="C93" t="n">
-        <v>0.148249</v>
+        <v>0.151933</v>
       </c>
       <c r="D93" t="n">
-        <v>0.149182</v>
+        <v>0.149019</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.347631</v>
+        <v>0.364323</v>
       </c>
       <c r="C94" t="n">
-        <v>0.112617</v>
+        <v>0.116703</v>
       </c>
       <c r="D94" t="n">
-        <v>0.112959</v>
+        <v>0.113303</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149847</v>
+        <v>0.149799</v>
       </c>
       <c r="C95" t="n">
-        <v>0.11304</v>
+        <v>0.116745</v>
       </c>
       <c r="D95" t="n">
-        <v>0.113856</v>
+        <v>0.120588</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.152555</v>
+        <v>0.159627</v>
       </c>
       <c r="C96" t="n">
-        <v>0.115923</v>
+        <v>0.116038</v>
       </c>
       <c r="D96" t="n">
-        <v>0.116281</v>
+        <v>0.122123</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156031</v>
+        <v>0.166692</v>
       </c>
       <c r="C97" t="n">
-        <v>0.116634</v>
+        <v>0.123853</v>
       </c>
       <c r="D97" t="n">
-        <v>0.118318</v>
+        <v>0.118133</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160175</v>
+        <v>0.17083</v>
       </c>
       <c r="C98" t="n">
-        <v>0.124036</v>
+        <v>0.119397</v>
       </c>
       <c r="D98" t="n">
-        <v>0.120158</v>
+        <v>0.124033</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164932</v>
+        <v>0.165192</v>
       </c>
       <c r="C99" t="n">
-        <v>0.122067</v>
+        <v>0.126983</v>
       </c>
       <c r="D99" t="n">
-        <v>0.122289</v>
+        <v>0.121374</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170286</v>
+        <v>0.179168</v>
       </c>
       <c r="C100" t="n">
-        <v>0.124023</v>
+        <v>0.123848</v>
       </c>
       <c r="D100" t="n">
-        <v>0.12412</v>
+        <v>0.123988</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.17708</v>
+        <v>0.188987</v>
       </c>
       <c r="C101" t="n">
-        <v>0.126093</v>
+        <v>0.129074</v>
       </c>
       <c r="D101" t="n">
-        <v>0.125186</v>
+        <v>0.131502</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.195472</v>
+        <v>0.201846</v>
       </c>
       <c r="C102" t="n">
-        <v>0.127219</v>
+        <v>0.131344</v>
       </c>
       <c r="D102" t="n">
-        <v>0.129258</v>
+        <v>0.130161</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.207742</v>
+        <v>0.209485</v>
       </c>
       <c r="C103" t="n">
-        <v>0.132498</v>
+        <v>0.138553</v>
       </c>
       <c r="D103" t="n">
-        <v>0.132346</v>
+        <v>0.133696</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.214955</v>
+        <v>0.224637</v>
       </c>
       <c r="C104" t="n">
-        <v>0.1365</v>
+        <v>0.136055</v>
       </c>
       <c r="D104" t="n">
-        <v>0.136818</v>
+        <v>0.138025</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.23329</v>
+        <v>0.237394</v>
       </c>
       <c r="C105" t="n">
-        <v>0.142278</v>
+        <v>0.144355</v>
       </c>
       <c r="D105" t="n">
-        <v>0.142692</v>
+        <v>0.144027</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262798</v>
+        <v>0.266972</v>
       </c>
       <c r="C106" t="n">
-        <v>0.154478</v>
+        <v>0.15328</v>
       </c>
       <c r="D106" t="n">
-        <v>0.152701</v>
+        <v>0.152975</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.306736</v>
+        <v>0.314316</v>
       </c>
       <c r="C107" t="n">
-        <v>0.165226</v>
+        <v>0.167753</v>
       </c>
       <c r="D107" t="n">
-        <v>0.173015</v>
+        <v>0.167759</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.389731</v>
+        <v>0.381168</v>
       </c>
       <c r="C108" t="n">
-        <v>0.126197</v>
+        <v>0.123238</v>
       </c>
       <c r="D108" t="n">
-        <v>0.121903</v>
+        <v>0.122987</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.471769</v>
+        <v>0.480715</v>
       </c>
       <c r="C109" t="n">
-        <v>0.127589</v>
+        <v>0.124768</v>
       </c>
       <c r="D109" t="n">
-        <v>0.123089</v>
+        <v>0.124335</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.16205</v>
+        <v>0.174163</v>
       </c>
       <c r="C110" t="n">
-        <v>0.124445</v>
+        <v>0.125781</v>
       </c>
       <c r="D110" t="n">
-        <v>0.123703</v>
+        <v>0.125004</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.174401</v>
+        <v>0.174515</v>
       </c>
       <c r="C111" t="n">
-        <v>0.126272</v>
+        <v>0.127228</v>
       </c>
       <c r="D111" t="n">
-        <v>0.125147</v>
+        <v>0.127364</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168805</v>
+        <v>0.178533</v>
       </c>
       <c r="C112" t="n">
-        <v>0.127827</v>
+        <v>0.129556</v>
       </c>
       <c r="D112" t="n">
-        <v>0.133151</v>
+        <v>0.129188</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.178322</v>
+        <v>0.183962</v>
       </c>
       <c r="C113" t="n">
-        <v>0.129461</v>
+        <v>0.131043</v>
       </c>
       <c r="D113" t="n">
-        <v>0.129662</v>
+        <v>0.131226</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180149</v>
+        <v>0.184362</v>
       </c>
       <c r="C114" t="n">
-        <v>0.131884</v>
+        <v>0.133933</v>
       </c>
       <c r="D114" t="n">
-        <v>0.131828</v>
+        <v>0.133797</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.188512</v>
+        <v>0.201704</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1351</v>
+        <v>0.136594</v>
       </c>
       <c r="D115" t="n">
-        <v>0.135099</v>
+        <v>0.136227</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209536</v>
+        <v>0.20892</v>
       </c>
       <c r="C116" t="n">
-        <v>0.139092</v>
+        <v>0.140297</v>
       </c>
       <c r="D116" t="n">
-        <v>0.137841</v>
+        <v>0.139595</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.213471</v>
+        <v>0.226519</v>
       </c>
       <c r="C117" t="n">
-        <v>0.14427</v>
+        <v>0.150315</v>
       </c>
       <c r="D117" t="n">
-        <v>0.142861</v>
+        <v>0.145671</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.242447</v>
+        <v>0.2343</v>
       </c>
       <c r="C118" t="n">
-        <v>0.150259</v>
+        <v>0.151552</v>
       </c>
       <c r="D118" t="n">
-        <v>0.149151</v>
+        <v>0.150612</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254422</v>
+        <v>0.266839</v>
       </c>
       <c r="C119" t="n">
-        <v>0.157993</v>
+        <v>0.159872</v>
       </c>
       <c r="D119" t="n">
-        <v>0.161765</v>
+        <v>0.159455</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.285292</v>
+        <v>0.296184</v>
       </c>
       <c r="C120" t="n">
-        <v>0.16787</v>
+        <v>0.171673</v>
       </c>
       <c r="D120" t="n">
-        <v>0.168146</v>
+        <v>0.170922</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.33346</v>
+        <v>0.337377</v>
       </c>
       <c r="C121" t="n">
-        <v>0.18406</v>
+        <v>0.193303</v>
       </c>
       <c r="D121" t="n">
-        <v>0.183152</v>
+        <v>0.194225</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.397804</v>
+        <v>0.401841</v>
       </c>
       <c r="C122" t="n">
-        <v>0.208334</v>
+        <v>0.215295</v>
       </c>
       <c r="D122" t="n">
-        <v>0.20954</v>
+        <v>0.219898</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494738</v>
+        <v>0.5068279999999999</v>
       </c>
       <c r="C123" t="n">
-        <v>0.150236</v>
+        <v>0.15172</v>
       </c>
       <c r="D123" t="n">
-        <v>0.146287</v>
+        <v>0.148278</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20308</v>
+        <v>0.201116</v>
       </c>
       <c r="C124" t="n">
-        <v>0.155524</v>
+        <v>0.153787</v>
       </c>
       <c r="D124" t="n">
-        <v>0.150832</v>
+        <v>0.151642</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.204311</v>
+        <v>0.19995</v>
       </c>
       <c r="C125" t="n">
-        <v>0.158858</v>
+        <v>0.153298</v>
       </c>
       <c r="D125" t="n">
-        <v>0.15639</v>
+        <v>0.15069</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.201065</v>
+        <v>0.201467</v>
       </c>
       <c r="C126" t="n">
-        <v>0.155912</v>
+        <v>0.158593</v>
       </c>
       <c r="D126" t="n">
-        <v>0.15622</v>
+        <v>0.158217</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.205979</v>
+        <v>0.205157</v>
       </c>
       <c r="C127" t="n">
-        <v>0.161527</v>
+        <v>0.158528</v>
       </c>
       <c r="D127" t="n">
-        <v>0.158335</v>
+        <v>0.156474</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.217226</v>
+        <v>0.215115</v>
       </c>
       <c r="C128" t="n">
-        <v>0.16229</v>
+        <v>0.168506</v>
       </c>
       <c r="D128" t="n">
-        <v>0.163181</v>
+        <v>0.165426</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.219141</v>
+        <v>0.222684</v>
       </c>
       <c r="C129" t="n">
-        <v>0.171156</v>
+        <v>0.169665</v>
       </c>
       <c r="D129" t="n">
-        <v>0.171859</v>
+        <v>0.16314</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.234519</v>
+        <v>0.232747</v>
       </c>
       <c r="C130" t="n">
-        <v>0.168068</v>
+        <v>0.167401</v>
       </c>
       <c r="D130" t="n">
-        <v>0.167573</v>
+        <v>0.169571</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.239894</v>
+        <v>0.25477</v>
       </c>
       <c r="C131" t="n">
-        <v>0.171842</v>
+        <v>0.172815</v>
       </c>
       <c r="D131" t="n">
-        <v>0.172159</v>
+        <v>0.171293</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.258573</v>
+        <v>0.260978</v>
       </c>
       <c r="C132" t="n">
-        <v>0.179412</v>
+        <v>0.17882</v>
       </c>
       <c r="D132" t="n">
-        <v>0.173193</v>
+        <v>0.179323</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.283547</v>
+        <v>0.292971</v>
       </c>
       <c r="C133" t="n">
-        <v>0.186597</v>
+        <v>0.185385</v>
       </c>
       <c r="D133" t="n">
-        <v>0.180966</v>
+        <v>0.189798</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.316266</v>
+        <v>0.310606</v>
       </c>
       <c r="C134" t="n">
-        <v>0.192713</v>
+        <v>0.192584</v>
       </c>
       <c r="D134" t="n">
-        <v>0.196066</v>
+        <v>0.192688</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.3486</v>
+        <v>0.36737</v>
       </c>
       <c r="C135" t="n">
-        <v>0.205327</v>
+        <v>0.207424</v>
       </c>
       <c r="D135" t="n">
-        <v>0.205814</v>
+        <v>0.209336</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411601</v>
+        <v>0.423773</v>
       </c>
       <c r="C136" t="n">
-        <v>0.222712</v>
+        <v>0.232365</v>
       </c>
       <c r="D136" t="n">
-        <v>0.228115</v>
+        <v>0.244198</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509116</v>
+        <v>0.5215070000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.266646</v>
+        <v>0.289498</v>
       </c>
       <c r="D137" t="n">
-        <v>0.265779</v>
+        <v>0.281107</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.341613</v>
+        <v>0.349652</v>
       </c>
       <c r="C138" t="n">
-        <v>0.266824</v>
+        <v>0.280084</v>
       </c>
       <c r="D138" t="n">
-        <v>0.262685</v>
+        <v>0.280413</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.343194</v>
+        <v>0.363928</v>
       </c>
       <c r="C139" t="n">
-        <v>0.271862</v>
+        <v>0.288561</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264616</v>
+        <v>0.291163</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.351641</v>
+        <v>0.372414</v>
       </c>
       <c r="C140" t="n">
-        <v>0.269068</v>
+        <v>0.288424</v>
       </c>
       <c r="D140" t="n">
-        <v>0.280895</v>
+        <v>0.284665</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.350978</v>
+        <v>0.374841</v>
       </c>
       <c r="C141" t="n">
-        <v>0.288996</v>
+        <v>0.304502</v>
       </c>
       <c r="D141" t="n">
-        <v>0.297798</v>
+        <v>0.284616</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.358897</v>
+        <v>0.371566</v>
       </c>
       <c r="C142" t="n">
-        <v>0.274082</v>
+        <v>0.287576</v>
       </c>
       <c r="D142" t="n">
-        <v>0.2853</v>
+        <v>0.30826</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.366579</v>
+        <v>0.376094</v>
       </c>
       <c r="C143" t="n">
-        <v>0.29528</v>
+        <v>0.299264</v>
       </c>
       <c r="D143" t="n">
-        <v>0.276178</v>
+        <v>0.29004</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103691</v>
+        <v>0.103157</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0693156</v>
+        <v>0.0844601</v>
       </c>
       <c r="D2" t="n">
-        <v>0.161133</v>
+        <v>0.174863</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107016</v>
+        <v>0.107993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0693497</v>
+        <v>0.0847832</v>
       </c>
       <c r="D3" t="n">
-        <v>0.167308</v>
+        <v>0.181544</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122272</v>
+        <v>0.122767</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0693279</v>
+        <v>0.0850236</v>
       </c>
       <c r="D4" t="n">
-        <v>0.175572</v>
+        <v>0.19114</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.142258</v>
+        <v>0.13857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06891700000000001</v>
+        <v>0.08443100000000001</v>
       </c>
       <c r="D5" t="n">
-        <v>0.188088</v>
+        <v>0.200799</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172289</v>
+        <v>0.172454</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0698426</v>
+        <v>0.0858921</v>
       </c>
       <c r="D6" t="n">
-        <v>0.196592</v>
+        <v>0.207114</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.196822</v>
+        <v>0.19372</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0734662</v>
+        <v>0.0922552</v>
       </c>
       <c r="D7" t="n">
-        <v>0.142795</v>
+        <v>0.156752</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.242106</v>
+        <v>0.241557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.087739</v>
+        <v>0.107988</v>
       </c>
       <c r="D8" t="n">
-        <v>0.150996</v>
+        <v>0.163656</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29504</v>
+        <v>0.29154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0688864</v>
+        <v>0.08435529999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.158838</v>
+        <v>0.170297</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09475500000000001</v>
+        <v>0.09417059999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06906519999999999</v>
+        <v>0.08422929999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.166148</v>
+        <v>0.177375</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0956183</v>
+        <v>0.09536310000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0690629</v>
+        <v>0.0846114</v>
       </c>
       <c r="D11" t="n">
-        <v>0.174348</v>
+        <v>0.184332</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0972746</v>
+        <v>0.09691809999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06952659999999999</v>
+        <v>0.0847545</v>
       </c>
       <c r="D12" t="n">
-        <v>0.180675</v>
+        <v>0.191964</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0990523</v>
+        <v>0.09855129999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0695679</v>
+        <v>0.08490929999999999</v>
       </c>
       <c r="D13" t="n">
-        <v>0.185176</v>
+        <v>0.198297</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101061</v>
+        <v>0.101071</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0697401</v>
+        <v>0.0851671</v>
       </c>
       <c r="D14" t="n">
-        <v>0.191168</v>
+        <v>0.205392</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105122</v>
+        <v>0.105434</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0700172</v>
+        <v>0.0856137</v>
       </c>
       <c r="D15" t="n">
-        <v>0.19595</v>
+        <v>0.213062</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.111057</v>
+        <v>0.11065</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0701896</v>
+        <v>0.08582140000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.201356</v>
+        <v>0.218638</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.119864</v>
+        <v>0.119796</v>
       </c>
       <c r="C17" t="n">
-        <v>0.070617</v>
+        <v>0.0865147</v>
       </c>
       <c r="D17" t="n">
-        <v>0.20713</v>
+        <v>0.224489</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13126</v>
+        <v>0.130516</v>
       </c>
       <c r="C18" t="n">
-        <v>0.071127</v>
+        <v>0.0867222</v>
       </c>
       <c r="D18" t="n">
-        <v>0.211961</v>
+        <v>0.230602</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.145576</v>
+        <v>0.145397</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07134020000000001</v>
+        <v>0.08787200000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>0.217973</v>
+        <v>0.236405</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.166686</v>
+        <v>0.166796</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0752886</v>
+        <v>0.092419</v>
       </c>
       <c r="D20" t="n">
-        <v>0.22356</v>
+        <v>0.242951</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195869</v>
+        <v>0.195225</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0818955</v>
+        <v>0.10099</v>
       </c>
       <c r="D21" t="n">
-        <v>0.159644</v>
+        <v>0.179605</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.2401</v>
+        <v>0.23381</v>
       </c>
       <c r="C22" t="n">
-        <v>0.0968787</v>
+        <v>0.11661</v>
       </c>
       <c r="D22" t="n">
-        <v>0.16547</v>
+        <v>0.186565</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.283668</v>
+        <v>0.281354</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0708543</v>
+        <v>0.08599130000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.172869</v>
+        <v>0.193916</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100493</v>
+        <v>0.10051</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0709905</v>
+        <v>0.0861102</v>
       </c>
       <c r="D24" t="n">
-        <v>0.178142</v>
+        <v>0.201749</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101496</v>
+        <v>0.10185</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0712334</v>
+        <v>0.0864451</v>
       </c>
       <c r="D25" t="n">
-        <v>0.184121</v>
+        <v>0.20896</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103415</v>
+        <v>0.103456</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0715495</v>
+        <v>0.08655060000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.192206</v>
+        <v>0.214223</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.106092</v>
+        <v>0.105772</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0717709</v>
+        <v>0.08679389999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.198884</v>
+        <v>0.221305</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109361</v>
+        <v>0.10883</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0720702</v>
+        <v>0.0871151</v>
       </c>
       <c r="D28" t="n">
-        <v>0.204309</v>
+        <v>0.227761</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113972</v>
+        <v>0.113724</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07232909999999999</v>
+        <v>0.0874905</v>
       </c>
       <c r="D29" t="n">
-        <v>0.209664</v>
+        <v>0.233645</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118865</v>
+        <v>0.118901</v>
       </c>
       <c r="C30" t="n">
-        <v>0.072574</v>
+        <v>0.0879591</v>
       </c>
       <c r="D30" t="n">
-        <v>0.215131</v>
+        <v>0.240179</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126219</v>
+        <v>0.126583</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0733306</v>
+        <v>0.0886164</v>
       </c>
       <c r="D31" t="n">
-        <v>0.220366</v>
+        <v>0.243769</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137316</v>
+        <v>0.137477</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07432030000000001</v>
+        <v>0.0898699</v>
       </c>
       <c r="D32" t="n">
-        <v>0.225497</v>
+        <v>0.249322</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.15058</v>
+        <v>0.151312</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0762221</v>
+        <v>0.09213150000000001</v>
       </c>
       <c r="D33" t="n">
-        <v>0.231186</v>
+        <v>0.255539</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168521</v>
+        <v>0.168923</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0806625</v>
+        <v>0.09716610000000001</v>
       </c>
       <c r="D34" t="n">
-        <v>0.235942</v>
+        <v>0.261319</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.195559</v>
+        <v>0.197634</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0873189</v>
+        <v>0.104313</v>
       </c>
       <c r="D35" t="n">
-        <v>0.174564</v>
+        <v>0.191638</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.239242</v>
+        <v>0.227732</v>
       </c>
       <c r="C36" t="n">
-        <v>0.09743250000000001</v>
+        <v>0.115477</v>
       </c>
       <c r="D36" t="n">
-        <v>0.18167</v>
+        <v>0.197333</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.279268</v>
+        <v>0.279572</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0715836</v>
+        <v>0.0872749</v>
       </c>
       <c r="D37" t="n">
-        <v>0.187985</v>
+        <v>0.205629</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103597</v>
+        <v>0.103727</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07185519999999999</v>
+        <v>0.0873698</v>
       </c>
       <c r="D38" t="n">
-        <v>0.19323</v>
+        <v>0.212441</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10517</v>
+        <v>0.105709</v>
       </c>
       <c r="C39" t="n">
-        <v>0.072214</v>
+        <v>0.0875156</v>
       </c>
       <c r="D39" t="n">
-        <v>0.199918</v>
+        <v>0.218879</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106881</v>
+        <v>0.107201</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0723852</v>
+        <v>0.0878579</v>
       </c>
       <c r="D40" t="n">
-        <v>0.206263</v>
+        <v>0.226473</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109482</v>
+        <v>0.109337</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0727324</v>
+        <v>0.08810709999999999</v>
       </c>
       <c r="D41" t="n">
-        <v>0.211734</v>
+        <v>0.23258</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112516</v>
+        <v>0.112525</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0730166</v>
+        <v>0.0884398</v>
       </c>
       <c r="D42" t="n">
-        <v>0.217654</v>
+        <v>0.238243</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116561</v>
+        <v>0.116864</v>
       </c>
       <c r="C43" t="n">
-        <v>0.073591</v>
+        <v>0.08896800000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.223061</v>
+        <v>0.245294</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.121791</v>
+        <v>0.122234</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0741216</v>
+        <v>0.08961570000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.228327</v>
+        <v>0.251387</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128365</v>
+        <v>0.128577</v>
       </c>
       <c r="C45" t="n">
-        <v>0.07523630000000001</v>
+        <v>0.0906174</v>
       </c>
       <c r="D45" t="n">
-        <v>0.232047</v>
+        <v>0.256772</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137128</v>
+        <v>0.137315</v>
       </c>
       <c r="C46" t="n">
-        <v>0.076739</v>
+        <v>0.0924465</v>
       </c>
       <c r="D46" t="n">
-        <v>0.237055</v>
+        <v>0.261779</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149397</v>
+        <v>0.149592</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0799622</v>
+        <v>0.0961192</v>
       </c>
       <c r="D47" t="n">
-        <v>0.243201</v>
+        <v>0.267982</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165947</v>
+        <v>0.166593</v>
       </c>
       <c r="C48" t="n">
-        <v>0.084315</v>
+        <v>0.09903969999999999</v>
       </c>
       <c r="D48" t="n">
-        <v>0.247532</v>
+        <v>0.273994</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.195458</v>
+        <v>0.190707</v>
       </c>
       <c r="C49" t="n">
-        <v>0.0885027</v>
+        <v>0.105314</v>
       </c>
       <c r="D49" t="n">
-        <v>0.255065</v>
+        <v>0.280366</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.221878</v>
+        <v>0.221821</v>
       </c>
       <c r="C50" t="n">
-        <v>0.0975795</v>
+        <v>0.114698</v>
       </c>
       <c r="D50" t="n">
-        <v>0.178201</v>
+        <v>0.199421</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.265493</v>
+        <v>0.266916</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0733427</v>
+        <v>0.0886875</v>
       </c>
       <c r="D51" t="n">
-        <v>0.184468</v>
+        <v>0.206398</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.319245</v>
+        <v>0.318968</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0740114</v>
+        <v>0.08942609999999999</v>
       </c>
       <c r="D52" t="n">
-        <v>0.19061</v>
+        <v>0.211824</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.109152</v>
+        <v>0.113557</v>
       </c>
       <c r="C53" t="n">
-        <v>0.07454719999999999</v>
+        <v>0.0893548</v>
       </c>
       <c r="D53" t="n">
-        <v>0.196737</v>
+        <v>0.219645</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110545</v>
+        <v>0.114864</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0751338</v>
+        <v>0.0900489</v>
       </c>
       <c r="D54" t="n">
-        <v>0.202777</v>
+        <v>0.226255</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.116749</v>
+        <v>0.113178</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0756207</v>
+        <v>0.09049649999999999</v>
       </c>
       <c r="D55" t="n">
-        <v>0.208422</v>
+        <v>0.231498</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116767</v>
+        <v>0.116016</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0761442</v>
+        <v>0.0909345</v>
       </c>
       <c r="D56" t="n">
-        <v>0.21466</v>
+        <v>0.238402</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.120008</v>
+        <v>0.120035</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0760313</v>
+        <v>0.09180389999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.218708</v>
+        <v>0.243505</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12761</v>
+        <v>0.133486</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0766592</v>
+        <v>0.0930391</v>
       </c>
       <c r="D58" t="n">
-        <v>0.223499</v>
+        <v>0.249128</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131559</v>
+        <v>0.13089</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0779276</v>
+        <v>0.0938191</v>
       </c>
       <c r="D59" t="n">
-        <v>0.228433</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.141817</v>
+        <v>0.139621</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0800839</v>
+        <v>0.0949871</v>
       </c>
       <c r="D60" t="n">
-        <v>0.233673</v>
+        <v>0.260764</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.150539</v>
+        <v>0.151021</v>
       </c>
       <c r="C61" t="n">
-        <v>0.081763</v>
+        <v>0.102884</v>
       </c>
       <c r="D61" t="n">
-        <v>0.238371</v>
+        <v>0.266529</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168704</v>
+        <v>0.167147</v>
       </c>
       <c r="C62" t="n">
-        <v>0.08579290000000001</v>
+        <v>0.100129</v>
       </c>
       <c r="D62" t="n">
-        <v>0.244524</v>
+        <v>0.271288</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.189937</v>
+        <v>0.191663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.0906473</v>
+        <v>0.106109</v>
       </c>
       <c r="D63" t="n">
-        <v>0.249047</v>
+        <v>0.278006</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.220058</v>
+        <v>0.219372</v>
       </c>
       <c r="C64" t="n">
-        <v>0.0996069</v>
+        <v>0.113165</v>
       </c>
       <c r="D64" t="n">
-        <v>0.185937</v>
+        <v>0.206349</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260869</v>
+        <v>0.261628</v>
       </c>
       <c r="C65" t="n">
-        <v>0.113034</v>
+        <v>0.127663</v>
       </c>
       <c r="D65" t="n">
-        <v>0.194972</v>
+        <v>0.214221</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.316034</v>
+        <v>0.318626</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0846596</v>
+        <v>0.0952532</v>
       </c>
       <c r="D66" t="n">
-        <v>0.199476</v>
+        <v>0.222556</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.132455</v>
+        <v>0.128985</v>
       </c>
       <c r="C67" t="n">
-        <v>0.08061699999999999</v>
+        <v>0.0980053</v>
       </c>
       <c r="D67" t="n">
-        <v>0.208119</v>
+        <v>0.230723</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.133024</v>
+        <v>0.124787</v>
       </c>
       <c r="C68" t="n">
-        <v>0.08122500000000001</v>
+        <v>0.0979983</v>
       </c>
       <c r="D68" t="n">
-        <v>0.217382</v>
+        <v>0.242253</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.128087</v>
+        <v>0.135711</v>
       </c>
       <c r="C69" t="n">
-        <v>0.08171539999999999</v>
+        <v>0.103079</v>
       </c>
       <c r="D69" t="n">
-        <v>0.22798</v>
+        <v>0.251027</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.135457</v>
+        <v>0.135814</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0888438</v>
+        <v>0.09727860000000001</v>
       </c>
       <c r="D70" t="n">
-        <v>0.238457</v>
+        <v>0.258133</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.142182</v>
+        <v>0.133495</v>
       </c>
       <c r="C71" t="n">
-        <v>0.0834432</v>
+        <v>0.101127</v>
       </c>
       <c r="D71" t="n">
-        <v>0.250085</v>
+        <v>0.270752</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.134505</v>
+        <v>0.137596</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0846991</v>
+        <v>0.0991249</v>
       </c>
       <c r="D72" t="n">
-        <v>0.259917</v>
+        <v>0.280789</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.14233</v>
+        <v>0.144751</v>
       </c>
       <c r="C73" t="n">
-        <v>0.0884151</v>
+        <v>0.100184</v>
       </c>
       <c r="D73" t="n">
-        <v>0.269641</v>
+        <v>0.291436</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150917</v>
+        <v>0.160177</v>
       </c>
       <c r="C74" t="n">
-        <v>0.0866466</v>
+        <v>0.10211</v>
       </c>
       <c r="D74" t="n">
-        <v>0.284164</v>
+        <v>0.304998</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162687</v>
+        <v>0.168535</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0896927</v>
+        <v>0.108714</v>
       </c>
       <c r="D75" t="n">
-        <v>0.300215</v>
+        <v>0.320186</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.178374</v>
+        <v>0.175536</v>
       </c>
       <c r="C76" t="n">
-        <v>0.0917837</v>
+        <v>0.107111</v>
       </c>
       <c r="D76" t="n">
-        <v>0.31782</v>
+        <v>0.339927</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198958</v>
+        <v>0.198363</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0969899</v>
+        <v>0.111694</v>
       </c>
       <c r="D77" t="n">
-        <v>0.337684</v>
+        <v>0.356616</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.228157</v>
+        <v>0.227006</v>
       </c>
       <c r="C78" t="n">
-        <v>0.104152</v>
+        <v>0.119326</v>
       </c>
       <c r="D78" t="n">
-        <v>0.260749</v>
+        <v>0.278519</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26686</v>
+        <v>0.269767</v>
       </c>
       <c r="C79" t="n">
-        <v>0.117252</v>
+        <v>0.132742</v>
       </c>
       <c r="D79" t="n">
-        <v>0.275586</v>
+        <v>0.295011</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323776</v>
+        <v>0.323164</v>
       </c>
       <c r="C80" t="n">
-        <v>0.0888338</v>
+        <v>0.108278</v>
       </c>
       <c r="D80" t="n">
-        <v>0.290717</v>
+        <v>0.309538</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.13589</v>
+        <v>0.145757</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0890191</v>
+        <v>0.102967</v>
       </c>
       <c r="D81" t="n">
-        <v>0.311512</v>
+        <v>0.325485</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.138288</v>
+        <v>0.137749</v>
       </c>
       <c r="C82" t="n">
-        <v>0.08982950000000001</v>
+        <v>0.104107</v>
       </c>
       <c r="D82" t="n">
-        <v>0.329896</v>
+        <v>0.341492</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.140242</v>
+        <v>0.139696</v>
       </c>
       <c r="C83" t="n">
-        <v>0.0915851</v>
+        <v>0.109417</v>
       </c>
       <c r="D83" t="n">
-        <v>0.345022</v>
+        <v>0.363688</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142828</v>
+        <v>0.143052</v>
       </c>
       <c r="C84" t="n">
-        <v>0.092873</v>
+        <v>0.10526</v>
       </c>
       <c r="D84" t="n">
-        <v>0.36417</v>
+        <v>0.383312</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.149763</v>
+        <v>0.156635</v>
       </c>
       <c r="C85" t="n">
-        <v>0.0945836</v>
+        <v>0.112263</v>
       </c>
       <c r="D85" t="n">
-        <v>0.381896</v>
+        <v>0.408854</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.161785</v>
+        <v>0.162524</v>
       </c>
       <c r="C86" t="n">
-        <v>0.09393079999999999</v>
+        <v>0.111874</v>
       </c>
       <c r="D86" t="n">
-        <v>0.405246</v>
+        <v>0.429891</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.159347</v>
+        <v>0.168117</v>
       </c>
       <c r="C87" t="n">
-        <v>0.0984752</v>
+        <v>0.115</v>
       </c>
       <c r="D87" t="n">
-        <v>0.426196</v>
+        <v>0.453459</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.176797</v>
+        <v>0.17836</v>
       </c>
       <c r="C88" t="n">
-        <v>0.09668309999999999</v>
+        <v>0.11255</v>
       </c>
       <c r="D88" t="n">
-        <v>0.446752</v>
+        <v>0.476017</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179573</v>
+        <v>0.188571</v>
       </c>
       <c r="C89" t="n">
-        <v>0.10864</v>
+        <v>0.120368</v>
       </c>
       <c r="D89" t="n">
-        <v>0.469801</v>
+        <v>0.501237</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.193365</v>
+        <v>0.194465</v>
       </c>
       <c r="C90" t="n">
-        <v>0.105725</v>
+        <v>0.118581</v>
       </c>
       <c r="D90" t="n">
-        <v>0.493457</v>
+        <v>0.526921</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.225413</v>
+        <v>0.215496</v>
       </c>
       <c r="C91" t="n">
-        <v>0.113403</v>
+        <v>0.124601</v>
       </c>
       <c r="D91" t="n">
-        <v>0.519669</v>
+        <v>0.555653</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.245586</v>
+        <v>0.242942</v>
       </c>
       <c r="C92" t="n">
-        <v>0.120421</v>
+        <v>0.133491</v>
       </c>
       <c r="D92" t="n">
-        <v>0.395964</v>
+        <v>0.41925</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.288011</v>
+        <v>0.295436</v>
       </c>
       <c r="C93" t="n">
-        <v>0.133907</v>
+        <v>0.157594</v>
       </c>
       <c r="D93" t="n">
-        <v>0.413367</v>
+        <v>0.43059</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.347536</v>
+        <v>0.345426</v>
       </c>
       <c r="C94" t="n">
-        <v>0.09912940000000001</v>
+        <v>0.114942</v>
       </c>
       <c r="D94" t="n">
-        <v>0.431641</v>
+        <v>0.455339</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.149549</v>
+        <v>0.160306</v>
       </c>
       <c r="C95" t="n">
-        <v>0.103075</v>
+        <v>0.120505</v>
       </c>
       <c r="D95" t="n">
-        <v>0.450122</v>
+        <v>0.474641</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.152328</v>
+        <v>0.156922</v>
       </c>
       <c r="C96" t="n">
-        <v>0.106962</v>
+        <v>0.122524</v>
       </c>
       <c r="D96" t="n">
-        <v>0.467539</v>
+        <v>0.493672</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.155631</v>
+        <v>0.156273</v>
       </c>
       <c r="C97" t="n">
-        <v>0.104887</v>
+        <v>0.118047</v>
       </c>
       <c r="D97" t="n">
-        <v>0.488402</v>
+        <v>0.517003</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160517</v>
+        <v>0.160372</v>
       </c>
       <c r="C98" t="n">
-        <v>0.106909</v>
+        <v>0.125532</v>
       </c>
       <c r="D98" t="n">
-        <v>0.506364</v>
+        <v>0.538876</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164089</v>
+        <v>0.172043</v>
       </c>
       <c r="C99" t="n">
-        <v>0.109783</v>
+        <v>0.12645</v>
       </c>
       <c r="D99" t="n">
-        <v>0.527016</v>
+        <v>0.56191</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.169954</v>
+        <v>0.170944</v>
       </c>
       <c r="C100" t="n">
-        <v>0.111081</v>
+        <v>0.126634</v>
       </c>
       <c r="D100" t="n">
-        <v>0.551176</v>
+        <v>0.584183</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.177403</v>
+        <v>0.187991</v>
       </c>
       <c r="C101" t="n">
-        <v>0.113004</v>
+        <v>0.130134</v>
       </c>
       <c r="D101" t="n">
-        <v>0.572289</v>
+        <v>0.607279</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.188214</v>
+        <v>0.196992</v>
       </c>
       <c r="C102" t="n">
-        <v>0.115666</v>
+        <v>0.12719</v>
       </c>
       <c r="D102" t="n">
-        <v>0.594884</v>
+        <v>0.635548</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.208245</v>
+        <v>0.204277</v>
       </c>
       <c r="C103" t="n">
-        <v>0.116668</v>
+        <v>0.130581</v>
       </c>
       <c r="D103" t="n">
-        <v>0.622727</v>
+        <v>0.661624</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.209384</v>
+        <v>0.212218</v>
       </c>
       <c r="C104" t="n">
-        <v>0.121329</v>
+        <v>0.136182</v>
       </c>
       <c r="D104" t="n">
-        <v>0.650188</v>
+        <v>0.692949</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.233658</v>
+        <v>0.242774</v>
       </c>
       <c r="C105" t="n">
-        <v>0.12881</v>
+        <v>0.142184</v>
       </c>
       <c r="D105" t="n">
-        <v>0.674434</v>
+        <v>0.724677</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.271024</v>
+        <v>0.273676</v>
       </c>
       <c r="C106" t="n">
-        <v>0.136389</v>
+        <v>0.154478</v>
       </c>
       <c r="D106" t="n">
-        <v>0.70229</v>
+        <v>0.755118</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.306103</v>
+        <v>0.305169</v>
       </c>
       <c r="C107" t="n">
-        <v>0.149536</v>
+        <v>0.163546</v>
       </c>
       <c r="D107" t="n">
-        <v>0.559095</v>
+        <v>0.5907289999999999</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.380393</v>
+        <v>0.37673</v>
       </c>
       <c r="C108" t="n">
-        <v>0.11384</v>
+        <v>0.122015</v>
       </c>
       <c r="D108" t="n">
-        <v>0.574375</v>
+        <v>0.612906</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.48072</v>
+        <v>0.470033</v>
       </c>
       <c r="C109" t="n">
-        <v>0.111102</v>
+        <v>0.121153</v>
       </c>
       <c r="D109" t="n">
-        <v>0.583299</v>
+        <v>0.6340980000000001</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161685</v>
+        <v>0.161901</v>
       </c>
       <c r="C110" t="n">
-        <v>0.112315</v>
+        <v>0.124593</v>
       </c>
       <c r="D110" t="n">
-        <v>0.603473</v>
+        <v>0.656208</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.164349</v>
+        <v>0.17603</v>
       </c>
       <c r="C111" t="n">
-        <v>0.113697</v>
+        <v>0.128674</v>
       </c>
       <c r="D111" t="n">
-        <v>0.628319</v>
+        <v>0.679512</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.168862</v>
+        <v>0.171384</v>
       </c>
       <c r="C112" t="n">
-        <v>0.114821</v>
+        <v>0.12774</v>
       </c>
       <c r="D112" t="n">
-        <v>0.657363</v>
+        <v>0.7025940000000001</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.183896</v>
+        <v>0.184089</v>
       </c>
       <c r="C113" t="n">
-        <v>0.116872</v>
+        <v>0.129863</v>
       </c>
       <c r="D113" t="n">
-        <v>0.679024</v>
+        <v>0.719557</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.179751</v>
+        <v>0.180133</v>
       </c>
       <c r="C114" t="n">
-        <v>0.121472</v>
+        <v>0.13213</v>
       </c>
       <c r="D114" t="n">
-        <v>0.69593</v>
+        <v>0.751336</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.188054</v>
+        <v>0.19433</v>
       </c>
       <c r="C115" t="n">
-        <v>0.122359</v>
+        <v>0.136474</v>
       </c>
       <c r="D115" t="n">
-        <v>0.725583</v>
+        <v>0.775237</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.197173</v>
+        <v>0.206011</v>
       </c>
       <c r="C116" t="n">
-        <v>0.123132</v>
+        <v>0.136123</v>
       </c>
       <c r="D116" t="n">
-        <v>0.75069</v>
+        <v>0.808577</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21257</v>
+        <v>0.21574</v>
       </c>
       <c r="C117" t="n">
-        <v>0.127628</v>
+        <v>0.143683</v>
       </c>
       <c r="D117" t="n">
-        <v>0.777578</v>
+        <v>0.838069</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.230409</v>
+        <v>0.231935</v>
       </c>
       <c r="C118" t="n">
-        <v>0.13277</v>
+        <v>0.151034</v>
       </c>
       <c r="D118" t="n">
-        <v>0.804173</v>
+        <v>0.867181</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.254567</v>
+        <v>0.252107</v>
       </c>
       <c r="C119" t="n">
-        <v>0.144293</v>
+        <v>0.157591</v>
       </c>
       <c r="D119" t="n">
-        <v>0.834085</v>
+        <v>0.893288</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288248</v>
+        <v>0.294296</v>
       </c>
       <c r="C120" t="n">
-        <v>0.154408</v>
+        <v>0.169472</v>
       </c>
       <c r="D120" t="n">
-        <v>0.861173</v>
+        <v>0.927778</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.335805</v>
+        <v>0.330196</v>
       </c>
       <c r="C121" t="n">
-        <v>0.169102</v>
+        <v>0.188307</v>
       </c>
       <c r="D121" t="n">
-        <v>0.634081</v>
+        <v>0.683376</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.40192</v>
+        <v>0.403384</v>
       </c>
       <c r="C122" t="n">
-        <v>0.192686</v>
+        <v>0.20881</v>
       </c>
       <c r="D122" t="n">
-        <v>0.663628</v>
+        <v>0.692654</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.487289</v>
+        <v>0.492182</v>
       </c>
       <c r="C123" t="n">
-        <v>0.130717</v>
+        <v>0.143011</v>
       </c>
       <c r="D123" t="n">
-        <v>0.6821469999999999</v>
+        <v>0.724695</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20095</v>
+        <v>0.199259</v>
       </c>
       <c r="C124" t="n">
-        <v>0.13979</v>
+        <v>0.147307</v>
       </c>
       <c r="D124" t="n">
-        <v>0.701071</v>
+        <v>0.746652</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.200107</v>
+        <v>0.196598</v>
       </c>
       <c r="C125" t="n">
-        <v>0.140401</v>
+        <v>0.152815</v>
       </c>
       <c r="D125" t="n">
-        <v>0.710488</v>
+        <v>0.770089</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.199577</v>
+        <v>0.196961</v>
       </c>
       <c r="C126" t="n">
-        <v>0.139152</v>
+        <v>0.1589</v>
       </c>
       <c r="D126" t="n">
-        <v>0.7419750000000001</v>
+        <v>0.78351</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.206467</v>
+        <v>0.201656</v>
       </c>
       <c r="C127" t="n">
-        <v>0.142898</v>
+        <v>0.148164</v>
       </c>
       <c r="D127" t="n">
-        <v>0.764108</v>
+        <v>0.819262</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.207771</v>
+        <v>0.211239</v>
       </c>
       <c r="C128" t="n">
-        <v>0.136901</v>
+        <v>0.162361</v>
       </c>
       <c r="D128" t="n">
-        <v>0.786965</v>
+        <v>0.845661</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.209253</v>
+        <v>0.226019</v>
       </c>
       <c r="C129" t="n">
-        <v>0.149301</v>
+        <v>0.162036</v>
       </c>
       <c r="D129" t="n">
-        <v>0.80172</v>
+        <v>0.872096</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.236808</v>
+        <v>0.234149</v>
       </c>
       <c r="C130" t="n">
-        <v>0.142546</v>
+        <v>0.163237</v>
       </c>
       <c r="D130" t="n">
-        <v>0.836089</v>
+        <v>0.900403</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.24315</v>
+        <v>0.24631</v>
       </c>
       <c r="C131" t="n">
-        <v>0.155445</v>
+        <v>0.173238</v>
       </c>
       <c r="D131" t="n">
-        <v>0.863054</v>
+        <v>0.931124</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.255104</v>
+        <v>0.265352</v>
       </c>
       <c r="C132" t="n">
-        <v>0.157869</v>
+        <v>0.165052</v>
       </c>
       <c r="D132" t="n">
-        <v>0.8823220000000001</v>
+        <v>0.962163</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.286876</v>
+        <v>0.277573</v>
       </c>
       <c r="C133" t="n">
-        <v>0.166316</v>
+        <v>0.173405</v>
       </c>
       <c r="D133" t="n">
-        <v>0.921143</v>
+        <v>0.9937279999999999</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.303511</v>
+        <v>0.304653</v>
       </c>
       <c r="C134" t="n">
-        <v>0.173038</v>
+        <v>0.189059</v>
       </c>
       <c r="D134" t="n">
-        <v>0.953937</v>
+        <v>1.02782</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.346109</v>
+        <v>0.349815</v>
       </c>
       <c r="C135" t="n">
-        <v>0.18301</v>
+        <v>0.20387</v>
       </c>
       <c r="D135" t="n">
-        <v>0.679856</v>
+        <v>0.7080920000000001</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.422763</v>
+        <v>0.411822</v>
       </c>
       <c r="C136" t="n">
-        <v>0.21274</v>
+        <v>0.219084</v>
       </c>
       <c r="D136" t="n">
-        <v>0.696088</v>
+        <v>0.725893</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.494746</v>
+        <v>0.503296</v>
       </c>
       <c r="C137" t="n">
-        <v>0.255643</v>
+        <v>0.298549</v>
       </c>
       <c r="D137" t="n">
-        <v>0.712694</v>
+        <v>0.743085</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.309933</v>
+        <v>0.33805</v>
       </c>
       <c r="C138" t="n">
-        <v>0.246628</v>
+        <v>0.273502</v>
       </c>
       <c r="D138" t="n">
-        <v>0.722737</v>
+        <v>0.762853</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.33753</v>
+        <v>0.334448</v>
       </c>
       <c r="C139" t="n">
-        <v>0.246957</v>
+        <v>0.284812</v>
       </c>
       <c r="D139" t="n">
-        <v>0.746874</v>
+        <v>0.784474</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.314696</v>
+        <v>0.340053</v>
       </c>
       <c r="C140" t="n">
-        <v>0.244563</v>
+        <v>0.260656</v>
       </c>
       <c r="D140" t="n">
-        <v>0.765265</v>
+        <v>0.805918</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.325535</v>
+        <v>0.346829</v>
       </c>
       <c r="C141" t="n">
-        <v>0.257437</v>
+        <v>0.282737</v>
       </c>
       <c r="D141" t="n">
-        <v>0.784094</v>
+        <v>0.827831</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.361093</v>
+        <v>0.358406</v>
       </c>
       <c r="C142" t="n">
-        <v>0.248963</v>
+        <v>0.290192</v>
       </c>
       <c r="D142" t="n">
-        <v>0.798529</v>
+        <v>0.852832</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.362999</v>
+        <v>0.35914</v>
       </c>
       <c r="C143" t="n">
-        <v>0.254342</v>
+        <v>0.289114</v>
       </c>
       <c r="D143" t="n">
-        <v>0.82399</v>
+        <v>0.875064</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103157</v>
+        <v>0.103261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0844601</v>
+        <v>0.0864058</v>
       </c>
       <c r="D2" t="n">
-        <v>0.174863</v>
+        <v>0.177571</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107993</v>
+        <v>0.108344</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0847832</v>
+        <v>0.0865803</v>
       </c>
       <c r="D3" t="n">
-        <v>0.181544</v>
+        <v>0.184637</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122767</v>
+        <v>0.122988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0850236</v>
+        <v>0.086891</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19114</v>
+        <v>0.191186</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13857</v>
+        <v>0.13958</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08443100000000001</v>
+        <v>0.0858632</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200799</v>
+        <v>0.200943</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172454</v>
+        <v>0.173184</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0858921</v>
+        <v>0.08798110000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207114</v>
+        <v>0.207694</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.19372</v>
+        <v>0.195202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0922552</v>
+        <v>0.0925116</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156752</v>
+        <v>0.155526</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241557</v>
+        <v>0.241644</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107988</v>
+        <v>0.115202</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163656</v>
+        <v>0.163519</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29154</v>
+        <v>0.291298</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08435529999999999</v>
+        <v>0.08667569999999999</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170297</v>
+        <v>0.170772</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09417059999999999</v>
+        <v>0.0948107</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08422929999999999</v>
+        <v>0.0867605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177375</v>
+        <v>0.177461</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09536310000000001</v>
+        <v>0.1009</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0846114</v>
+        <v>0.08667039999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184332</v>
+        <v>0.184176</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09691809999999999</v>
+        <v>0.109023</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0847545</v>
+        <v>0.0869209</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191964</v>
+        <v>0.193243</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09855129999999999</v>
+        <v>0.102444</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08490929999999999</v>
+        <v>0.0886494</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198297</v>
+        <v>0.198439</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101071</v>
+        <v>0.106257</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0851671</v>
+        <v>0.0892462</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205392</v>
+        <v>0.205622</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105434</v>
+        <v>0.109741</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0856137</v>
+        <v>0.0898215</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213062</v>
+        <v>0.212584</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11065</v>
+        <v>0.117473</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08582140000000001</v>
+        <v>0.09028360000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218638</v>
+        <v>0.218429</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.119796</v>
+        <v>0.131923</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0865147</v>
+        <v>0.0906266</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224489</v>
+        <v>0.225157</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130516</v>
+        <v>0.142365</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0867222</v>
+        <v>0.0908134</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230602</v>
+        <v>0.231406</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.145397</v>
+        <v>0.151975</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08787200000000001</v>
+        <v>0.0932062</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236405</v>
+        <v>0.237239</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.166796</v>
+        <v>0.173169</v>
       </c>
       <c r="C20" t="n">
-        <v>0.092419</v>
+        <v>0.0951201</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242951</v>
+        <v>0.243442</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195225</v>
+        <v>0.198275</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10099</v>
+        <v>0.109068</v>
       </c>
       <c r="D21" t="n">
-        <v>0.179605</v>
+        <v>0.179365</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23381</v>
+        <v>0.238361</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11661</v>
+        <v>0.125101</v>
       </c>
       <c r="D22" t="n">
-        <v>0.186565</v>
+        <v>0.185857</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.281354</v>
+        <v>0.286759</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08599130000000001</v>
+        <v>0.0899206</v>
       </c>
       <c r="D23" t="n">
-        <v>0.193916</v>
+        <v>0.192621</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10051</v>
+        <v>0.101814</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0861102</v>
+        <v>0.0904253</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201749</v>
+        <v>0.201534</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10185</v>
+        <v>0.108986</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0864451</v>
+        <v>0.089485</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20896</v>
+        <v>0.207807</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103456</v>
+        <v>0.108547</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08655060000000001</v>
+        <v>0.09007800000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>0.214223</v>
+        <v>0.21505</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105772</v>
+        <v>0.118215</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08679389999999999</v>
+        <v>0.0893205</v>
       </c>
       <c r="D27" t="n">
-        <v>0.221305</v>
+        <v>0.222089</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.10883</v>
+        <v>0.110225</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0871151</v>
+        <v>0.09093809999999999</v>
       </c>
       <c r="D28" t="n">
-        <v>0.227761</v>
+        <v>0.229462</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113724</v>
+        <v>0.116016</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0874905</v>
+        <v>0.0914365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233645</v>
+        <v>0.234146</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118901</v>
+        <v>0.127965</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0879591</v>
+        <v>0.0918588</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240179</v>
+        <v>0.239881</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126583</v>
+        <v>0.134403</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0886164</v>
+        <v>0.091117</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243769</v>
+        <v>0.245815</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137477</v>
+        <v>0.140247</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0898699</v>
+        <v>0.0937356</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249322</v>
+        <v>0.251481</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.151312</v>
+        <v>0.156116</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09213150000000001</v>
+        <v>0.0949082</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255539</v>
+        <v>0.255428</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168923</v>
+        <v>0.178455</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09716610000000001</v>
+        <v>0.100796</v>
       </c>
       <c r="D34" t="n">
-        <v>0.261319</v>
+        <v>0.261317</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197634</v>
+        <v>0.194952</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104313</v>
+        <v>0.10968</v>
       </c>
       <c r="D35" t="n">
-        <v>0.191638</v>
+        <v>0.192043</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227732</v>
+        <v>0.230486</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115477</v>
+        <v>0.12403</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197333</v>
+        <v>0.197747</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.279572</v>
+        <v>0.284023</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0872749</v>
+        <v>0.0907206</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205629</v>
+        <v>0.205484</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103727</v>
+        <v>0.106477</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0873698</v>
+        <v>0.0913197</v>
       </c>
       <c r="D38" t="n">
-        <v>0.212441</v>
+        <v>0.212741</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105709</v>
+        <v>0.113105</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0875156</v>
+        <v>0.091206</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218879</v>
+        <v>0.219402</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107201</v>
+        <v>0.114294</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0878579</v>
+        <v>0.0912688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.226473</v>
+        <v>0.226681</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109337</v>
+        <v>0.118268</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08810709999999999</v>
+        <v>0.09164360000000001</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23258</v>
+        <v>0.233033</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112525</v>
+        <v>0.119133</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0884398</v>
+        <v>0.0921839</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238243</v>
+        <v>0.239441</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116864</v>
+        <v>0.121415</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08896800000000001</v>
+        <v>0.09264840000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245294</v>
+        <v>0.245739</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122234</v>
+        <v>0.121875</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08961570000000001</v>
+        <v>0.09345920000000001</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251387</v>
+        <v>0.251424</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128577</v>
+        <v>0.131447</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0906174</v>
+        <v>0.0944586</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256772</v>
+        <v>0.256228</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137315</v>
+        <v>0.140009</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0924465</v>
+        <v>0.0956394</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261779</v>
+        <v>0.261668</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149592</v>
+        <v>0.153718</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0961192</v>
+        <v>0.0974762</v>
       </c>
       <c r="D47" t="n">
-        <v>0.267982</v>
+        <v>0.267382</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.166593</v>
+        <v>0.171013</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09903969999999999</v>
+        <v>0.103086</v>
       </c>
       <c r="D48" t="n">
-        <v>0.273994</v>
+        <v>0.273317</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190707</v>
+        <v>0.18974</v>
       </c>
       <c r="C49" t="n">
-        <v>0.105314</v>
+        <v>0.109552</v>
       </c>
       <c r="D49" t="n">
-        <v>0.280366</v>
+        <v>0.279182</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.221821</v>
+        <v>0.221114</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114698</v>
+        <v>0.11704</v>
       </c>
       <c r="D50" t="n">
-        <v>0.199421</v>
+        <v>0.198938</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.266916</v>
+        <v>0.267086</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0886875</v>
+        <v>0.092406</v>
       </c>
       <c r="D51" t="n">
-        <v>0.206398</v>
+        <v>0.205526</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318968</v>
+        <v>0.323741</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08942609999999999</v>
+        <v>0.0930154</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211824</v>
+        <v>0.211729</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.113557</v>
+        <v>0.112588</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0893548</v>
+        <v>0.0927524</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219645</v>
+        <v>0.218727</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114864</v>
+        <v>0.122051</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0900489</v>
+        <v>0.0938881</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226255</v>
+        <v>0.225149</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113178</v>
+        <v>0.123519</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09049649999999999</v>
+        <v>0.0942779</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231498</v>
+        <v>0.231407</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116016</v>
+        <v>0.119614</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0909345</v>
+        <v>0.09433130000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238402</v>
+        <v>0.23771</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.120035</v>
+        <v>0.129413</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09180389999999999</v>
+        <v>0.0943895</v>
       </c>
       <c r="D57" t="n">
-        <v>0.243505</v>
+        <v>0.242684</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.133486</v>
+        <v>0.126652</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0930391</v>
+        <v>0.0958846</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249128</v>
+        <v>0.248241</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13089</v>
+        <v>0.135327</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0938191</v>
+        <v>0.0973159</v>
       </c>
       <c r="D59" t="n">
-        <v>0.255</v>
+        <v>0.253484</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139621</v>
+        <v>0.152235</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0949871</v>
+        <v>0.0994902</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260764</v>
+        <v>0.258339</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151021</v>
+        <v>0.151303</v>
       </c>
       <c r="C61" t="n">
-        <v>0.102884</v>
+        <v>0.10115</v>
       </c>
       <c r="D61" t="n">
-        <v>0.266529</v>
+        <v>0.263377</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167147</v>
+        <v>0.16753</v>
       </c>
       <c r="C62" t="n">
-        <v>0.100129</v>
+        <v>0.103658</v>
       </c>
       <c r="D62" t="n">
-        <v>0.271288</v>
+        <v>0.268723</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191663</v>
+        <v>0.191404</v>
       </c>
       <c r="C63" t="n">
-        <v>0.106109</v>
+        <v>0.109132</v>
       </c>
       <c r="D63" t="n">
-        <v>0.278006</v>
+        <v>0.27481</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.219372</v>
+        <v>0.229584</v>
       </c>
       <c r="C64" t="n">
-        <v>0.113165</v>
+        <v>0.117683</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206349</v>
+        <v>0.203093</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.261628</v>
+        <v>0.275708</v>
       </c>
       <c r="C65" t="n">
-        <v>0.127663</v>
+        <v>0.133144</v>
       </c>
       <c r="D65" t="n">
-        <v>0.214221</v>
+        <v>0.209217</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.318626</v>
+        <v>0.319649</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0952532</v>
+        <v>0.105468</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222556</v>
+        <v>0.217182</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.128985</v>
+        <v>0.121991</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0980053</v>
+        <v>0.105254</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230723</v>
+        <v>0.225774</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124787</v>
+        <v>0.124489</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0979983</v>
+        <v>0.105941</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242253</v>
+        <v>0.232917</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.135711</v>
+        <v>0.136856</v>
       </c>
       <c r="C69" t="n">
-        <v>0.103079</v>
+        <v>0.107368</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251027</v>
+        <v>0.243139</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.135814</v>
+        <v>0.136408</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09727860000000001</v>
+        <v>0.10849</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258133</v>
+        <v>0.250896</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.133495</v>
+        <v>0.132129</v>
       </c>
       <c r="C71" t="n">
-        <v>0.101127</v>
+        <v>0.109293</v>
       </c>
       <c r="D71" t="n">
-        <v>0.270752</v>
+        <v>0.260671</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137596</v>
+        <v>0.139413</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0991249</v>
+        <v>0.110234</v>
       </c>
       <c r="D72" t="n">
-        <v>0.280789</v>
+        <v>0.271343</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.144751</v>
+        <v>0.144541</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100184</v>
+        <v>0.111406</v>
       </c>
       <c r="D73" t="n">
-        <v>0.291436</v>
+        <v>0.281393</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.160177</v>
+        <v>0.148535</v>
       </c>
       <c r="C74" t="n">
-        <v>0.10211</v>
+        <v>0.113919</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304998</v>
+        <v>0.294055</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.168535</v>
+        <v>0.170835</v>
       </c>
       <c r="C75" t="n">
-        <v>0.108714</v>
+        <v>0.115386</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320186</v>
+        <v>0.309346</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175536</v>
+        <v>0.183858</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107111</v>
+        <v>0.119016</v>
       </c>
       <c r="D76" t="n">
-        <v>0.339927</v>
+        <v>0.322098</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198363</v>
+        <v>0.195962</v>
       </c>
       <c r="C77" t="n">
-        <v>0.111694</v>
+        <v>0.123852</v>
       </c>
       <c r="D77" t="n">
-        <v>0.356616</v>
+        <v>0.338897</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.227006</v>
+        <v>0.235504</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119326</v>
+        <v>0.132006</v>
       </c>
       <c r="D78" t="n">
-        <v>0.278519</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.269767</v>
+        <v>0.277607</v>
       </c>
       <c r="C79" t="n">
-        <v>0.132742</v>
+        <v>0.145419</v>
       </c>
       <c r="D79" t="n">
-        <v>0.295011</v>
+        <v>0.281291</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323164</v>
+        <v>0.316083</v>
       </c>
       <c r="C80" t="n">
-        <v>0.108278</v>
+        <v>0.105926</v>
       </c>
       <c r="D80" t="n">
-        <v>0.309538</v>
+        <v>0.301477</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145757</v>
+        <v>0.145006</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102967</v>
+        <v>0.106224</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325485</v>
+        <v>0.320788</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137749</v>
+        <v>0.14644</v>
       </c>
       <c r="C82" t="n">
-        <v>0.104107</v>
+        <v>0.106671</v>
       </c>
       <c r="D82" t="n">
-        <v>0.341492</v>
+        <v>0.341233</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139696</v>
+        <v>0.148609</v>
       </c>
       <c r="C83" t="n">
-        <v>0.109417</v>
+        <v>0.107003</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363688</v>
+        <v>0.360209</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.143052</v>
+        <v>0.141563</v>
       </c>
       <c r="C84" t="n">
-        <v>0.10526</v>
+        <v>0.107912</v>
       </c>
       <c r="D84" t="n">
-        <v>0.383312</v>
+        <v>0.382012</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.156635</v>
+        <v>0.155399</v>
       </c>
       <c r="C85" t="n">
-        <v>0.112263</v>
+        <v>0.108804</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408854</v>
+        <v>0.404388</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.162524</v>
+        <v>0.149592</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111874</v>
+        <v>0.109707</v>
       </c>
       <c r="D86" t="n">
-        <v>0.429891</v>
+        <v>0.427211</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.168117</v>
+        <v>0.155781</v>
       </c>
       <c r="C87" t="n">
-        <v>0.115</v>
+        <v>0.111008</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453459</v>
+        <v>0.450556</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17836</v>
+        <v>0.172945</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11255</v>
+        <v>0.11218</v>
       </c>
       <c r="D88" t="n">
-        <v>0.476017</v>
+        <v>0.474786</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188571</v>
+        <v>0.174367</v>
       </c>
       <c r="C89" t="n">
-        <v>0.120368</v>
+        <v>0.115269</v>
       </c>
       <c r="D89" t="n">
-        <v>0.501237</v>
+        <v>0.499037</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194465</v>
+        <v>0.198299</v>
       </c>
       <c r="C90" t="n">
-        <v>0.118581</v>
+        <v>0.118226</v>
       </c>
       <c r="D90" t="n">
-        <v>0.526921</v>
+        <v>0.525729</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215496</v>
+        <v>0.208632</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124601</v>
+        <v>0.123816</v>
       </c>
       <c r="D91" t="n">
-        <v>0.555653</v>
+        <v>0.554129</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242942</v>
+        <v>0.23565</v>
       </c>
       <c r="C92" t="n">
-        <v>0.133491</v>
+        <v>0.132404</v>
       </c>
       <c r="D92" t="n">
-        <v>0.41925</v>
+        <v>0.416362</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.295436</v>
+        <v>0.292349</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157594</v>
+        <v>0.146178</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43059</v>
+        <v>0.434226</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.345426</v>
+        <v>0.345094</v>
       </c>
       <c r="C94" t="n">
-        <v>0.114942</v>
+        <v>0.111766</v>
       </c>
       <c r="D94" t="n">
-        <v>0.455339</v>
+        <v>0.453325</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160306</v>
+        <v>0.145706</v>
       </c>
       <c r="C95" t="n">
-        <v>0.120505</v>
+        <v>0.113918</v>
       </c>
       <c r="D95" t="n">
-        <v>0.474641</v>
+        <v>0.473991</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.156922</v>
+        <v>0.158645</v>
       </c>
       <c r="C96" t="n">
-        <v>0.122524</v>
+        <v>0.115105</v>
       </c>
       <c r="D96" t="n">
-        <v>0.493672</v>
+        <v>0.491923</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156273</v>
+        <v>0.151752</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118047</v>
+        <v>0.117445</v>
       </c>
       <c r="D97" t="n">
-        <v>0.517003</v>
+        <v>0.513432</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160372</v>
+        <v>0.162835</v>
       </c>
       <c r="C98" t="n">
-        <v>0.125532</v>
+        <v>0.116899</v>
       </c>
       <c r="D98" t="n">
-        <v>0.538876</v>
+        <v>0.535268</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.172043</v>
+        <v>0.16218</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12645</v>
+        <v>0.119402</v>
       </c>
       <c r="D99" t="n">
-        <v>0.56191</v>
+        <v>0.556675</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170944</v>
+        <v>0.177673</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126634</v>
+        <v>0.12429</v>
       </c>
       <c r="D100" t="n">
-        <v>0.584183</v>
+        <v>0.581474</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187991</v>
+        <v>0.182056</v>
       </c>
       <c r="C101" t="n">
-        <v>0.130134</v>
+        <v>0.127381</v>
       </c>
       <c r="D101" t="n">
-        <v>0.607279</v>
+        <v>0.605801</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196992</v>
+        <v>0.186296</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12719</v>
+        <v>0.128755</v>
       </c>
       <c r="D102" t="n">
-        <v>0.635548</v>
+        <v>0.632209</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204277</v>
+        <v>0.198188</v>
       </c>
       <c r="C103" t="n">
-        <v>0.130581</v>
+        <v>0.135208</v>
       </c>
       <c r="D103" t="n">
-        <v>0.661624</v>
+        <v>0.661166</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212218</v>
+        <v>0.224451</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136182</v>
+        <v>0.140467</v>
       </c>
       <c r="D104" t="n">
-        <v>0.692949</v>
+        <v>0.689076</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.242774</v>
+        <v>0.237214</v>
       </c>
       <c r="C105" t="n">
-        <v>0.142184</v>
+        <v>0.148079</v>
       </c>
       <c r="D105" t="n">
-        <v>0.724677</v>
+        <v>0.7201149999999999</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.273676</v>
+        <v>0.279974</v>
       </c>
       <c r="C106" t="n">
-        <v>0.154478</v>
+        <v>0.15591</v>
       </c>
       <c r="D106" t="n">
-        <v>0.755118</v>
+        <v>0.753596</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305169</v>
+        <v>0.322367</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163546</v>
+        <v>0.17415</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5907289999999999</v>
+        <v>0.59032</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37673</v>
+        <v>0.393624</v>
       </c>
       <c r="C108" t="n">
-        <v>0.122015</v>
+        <v>0.127617</v>
       </c>
       <c r="D108" t="n">
-        <v>0.612906</v>
+        <v>0.611644</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470033</v>
+        <v>0.476384</v>
       </c>
       <c r="C109" t="n">
-        <v>0.121153</v>
+        <v>0.129636</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6340980000000001</v>
+        <v>0.632818</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161901</v>
+        <v>0.165167</v>
       </c>
       <c r="C110" t="n">
-        <v>0.124593</v>
+        <v>0.130926</v>
       </c>
       <c r="D110" t="n">
-        <v>0.656208</v>
+        <v>0.655277</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.17603</v>
+        <v>0.169016</v>
       </c>
       <c r="C111" t="n">
-        <v>0.128674</v>
+        <v>0.133376</v>
       </c>
       <c r="D111" t="n">
-        <v>0.679512</v>
+        <v>0.677652</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.171384</v>
+        <v>0.173865</v>
       </c>
       <c r="C112" t="n">
-        <v>0.12774</v>
+        <v>0.135601</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7025940000000001</v>
+        <v>0.701249</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.184089</v>
+        <v>0.179536</v>
       </c>
       <c r="C113" t="n">
-        <v>0.129863</v>
+        <v>0.136219</v>
       </c>
       <c r="D113" t="n">
-        <v>0.719557</v>
+        <v>0.724587</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180133</v>
+        <v>0.193325</v>
       </c>
       <c r="C114" t="n">
-        <v>0.13213</v>
+        <v>0.141059</v>
       </c>
       <c r="D114" t="n">
-        <v>0.751336</v>
+        <v>0.751286</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.19433</v>
+        <v>0.194712</v>
       </c>
       <c r="C115" t="n">
-        <v>0.136474</v>
+        <v>0.144271</v>
       </c>
       <c r="D115" t="n">
-        <v>0.775237</v>
+        <v>0.777997</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206011</v>
+        <v>0.205237</v>
       </c>
       <c r="C116" t="n">
-        <v>0.136123</v>
+        <v>0.148447</v>
       </c>
       <c r="D116" t="n">
-        <v>0.808577</v>
+        <v>0.805625</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21574</v>
+        <v>0.218383</v>
       </c>
       <c r="C117" t="n">
-        <v>0.143683</v>
+        <v>0.153578</v>
       </c>
       <c r="D117" t="n">
-        <v>0.838069</v>
+        <v>0.834682</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231935</v>
+        <v>0.235699</v>
       </c>
       <c r="C118" t="n">
-        <v>0.151034</v>
+        <v>0.158989</v>
       </c>
       <c r="D118" t="n">
-        <v>0.867181</v>
+        <v>0.8660639999999999</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252107</v>
+        <v>0.260419</v>
       </c>
       <c r="C119" t="n">
-        <v>0.157591</v>
+        <v>0.166285</v>
       </c>
       <c r="D119" t="n">
-        <v>0.893288</v>
+        <v>0.897725</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.294296</v>
+        <v>0.290703</v>
       </c>
       <c r="C120" t="n">
-        <v>0.169472</v>
+        <v>0.176531</v>
       </c>
       <c r="D120" t="n">
-        <v>0.927778</v>
+        <v>0.9199349999999999</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330196</v>
+        <v>0.331434</v>
       </c>
       <c r="C121" t="n">
-        <v>0.188307</v>
+        <v>0.191179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683376</v>
+        <v>0.6817839999999999</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403384</v>
+        <v>0.396337</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20881</v>
+        <v>0.214533</v>
       </c>
       <c r="D122" t="n">
-        <v>0.692654</v>
+        <v>0.701925</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492182</v>
+        <v>0.493244</v>
       </c>
       <c r="C123" t="n">
-        <v>0.143011</v>
+        <v>0.144654</v>
       </c>
       <c r="D123" t="n">
-        <v>0.724695</v>
+        <v>0.722488</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.199259</v>
+        <v>0.180216</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147307</v>
+        <v>0.150517</v>
       </c>
       <c r="D124" t="n">
-        <v>0.746652</v>
+        <v>0.745717</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.196598</v>
+        <v>0.191877</v>
       </c>
       <c r="C125" t="n">
-        <v>0.152815</v>
+        <v>0.155476</v>
       </c>
       <c r="D125" t="n">
-        <v>0.770089</v>
+        <v>0.75735</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.196961</v>
+        <v>0.193568</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1589</v>
+        <v>0.153429</v>
       </c>
       <c r="D126" t="n">
-        <v>0.78351</v>
+        <v>0.781598</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201656</v>
+        <v>0.19108</v>
       </c>
       <c r="C127" t="n">
-        <v>0.148164</v>
+        <v>0.15066</v>
       </c>
       <c r="D127" t="n">
-        <v>0.819262</v>
+        <v>0.817069</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.211239</v>
+        <v>0.224141</v>
       </c>
       <c r="C128" t="n">
-        <v>0.162361</v>
+        <v>0.160007</v>
       </c>
       <c r="D128" t="n">
-        <v>0.845661</v>
+        <v>0.832851</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226019</v>
+        <v>0.220494</v>
       </c>
       <c r="C129" t="n">
-        <v>0.162036</v>
+        <v>0.163765</v>
       </c>
       <c r="D129" t="n">
-        <v>0.872096</v>
+        <v>0.869822</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.234149</v>
+        <v>0.235834</v>
       </c>
       <c r="C130" t="n">
-        <v>0.163237</v>
+        <v>0.165878</v>
       </c>
       <c r="D130" t="n">
-        <v>0.900403</v>
+        <v>0.897878</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.24631</v>
+        <v>0.239677</v>
       </c>
       <c r="C131" t="n">
-        <v>0.173238</v>
+        <v>0.171687</v>
       </c>
       <c r="D131" t="n">
-        <v>0.931124</v>
+        <v>0.926866</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265352</v>
+        <v>0.255413</v>
       </c>
       <c r="C132" t="n">
-        <v>0.165052</v>
+        <v>0.182993</v>
       </c>
       <c r="D132" t="n">
-        <v>0.962163</v>
+        <v>0.959362</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277573</v>
+        <v>0.277629</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173405</v>
+        <v>0.179941</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9937279999999999</v>
+        <v>0.99279</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.304653</v>
+        <v>0.302997</v>
       </c>
       <c r="C134" t="n">
-        <v>0.189059</v>
+        <v>0.191294</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02782</v>
+        <v>1.02732</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349815</v>
+        <v>0.346702</v>
       </c>
       <c r="C135" t="n">
-        <v>0.20387</v>
+        <v>0.20273</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7080920000000001</v>
+        <v>0.706634</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411822</v>
+        <v>0.409158</v>
       </c>
       <c r="C136" t="n">
-        <v>0.219084</v>
+        <v>0.226577</v>
       </c>
       <c r="D136" t="n">
-        <v>0.725893</v>
+        <v>0.725144</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.503296</v>
+        <v>0.503729</v>
       </c>
       <c r="C137" t="n">
-        <v>0.298549</v>
+        <v>0.281254</v>
       </c>
       <c r="D137" t="n">
-        <v>0.743085</v>
+        <v>0.743564</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.33805</v>
+        <v>0.34229</v>
       </c>
       <c r="C138" t="n">
-        <v>0.273502</v>
+        <v>0.286377</v>
       </c>
       <c r="D138" t="n">
-        <v>0.762853</v>
+        <v>0.7568049999999999</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334448</v>
+        <v>0.324599</v>
       </c>
       <c r="C139" t="n">
-        <v>0.284812</v>
+        <v>0.276835</v>
       </c>
       <c r="D139" t="n">
-        <v>0.784474</v>
+        <v>0.784129</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340053</v>
+        <v>0.344417</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260656</v>
+        <v>0.284086</v>
       </c>
       <c r="D140" t="n">
-        <v>0.805918</v>
+        <v>0.80661</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346829</v>
+        <v>0.344114</v>
       </c>
       <c r="C141" t="n">
-        <v>0.282737</v>
+        <v>0.285262</v>
       </c>
       <c r="D141" t="n">
-        <v>0.827831</v>
+        <v>0.822589</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.358406</v>
+        <v>0.351666</v>
       </c>
       <c r="C142" t="n">
-        <v>0.290192</v>
+        <v>0.290998</v>
       </c>
       <c r="D142" t="n">
-        <v>0.852832</v>
+        <v>0.853464</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.35914</v>
+        <v>0.345391</v>
       </c>
       <c r="C143" t="n">
-        <v>0.289114</v>
+        <v>0.293284</v>
       </c>
       <c r="D143" t="n">
-        <v>0.875064</v>
+        <v>0.8761100000000001</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103157</v>
+        <v>0.103347</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0844601</v>
+        <v>0.0845767</v>
       </c>
       <c r="D2" t="n">
-        <v>0.174863</v>
+        <v>0.179742</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107993</v>
+        <v>0.108324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0847832</v>
+        <v>0.08471529999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>0.181544</v>
+        <v>0.18542</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122767</v>
+        <v>0.123081</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0850236</v>
+        <v>0.0855199</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19114</v>
+        <v>0.193704</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13857</v>
+        <v>0.13862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08443100000000001</v>
+        <v>0.0843271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200799</v>
+        <v>0.201827</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172454</v>
+        <v>0.172751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0858921</v>
+        <v>0.08633159999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207114</v>
+        <v>0.208667</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.19372</v>
+        <v>0.193756</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0922552</v>
+        <v>0.0918677</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156752</v>
+        <v>0.157063</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241557</v>
+        <v>0.241401</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107988</v>
+        <v>0.107844</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163656</v>
+        <v>0.163569</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29154</v>
+        <v>0.291392</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08435529999999999</v>
+        <v>0.0843814</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170297</v>
+        <v>0.170856</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09417059999999999</v>
+        <v>0.0947291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08422929999999999</v>
+        <v>0.0843975</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177375</v>
+        <v>0.177884</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09536310000000001</v>
+        <v>0.0957606</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0846114</v>
+        <v>0.08473600000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184332</v>
+        <v>0.185546</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09691809999999999</v>
+        <v>0.0973031</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0847545</v>
+        <v>0.08499809999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191964</v>
+        <v>0.193384</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09855129999999999</v>
+        <v>0.0991731</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08490929999999999</v>
+        <v>0.085147</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198297</v>
+        <v>0.199521</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101071</v>
+        <v>0.101585</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0851671</v>
+        <v>0.0853402</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205392</v>
+        <v>0.206031</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105434</v>
+        <v>0.105586</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0856137</v>
+        <v>0.0857361</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213062</v>
+        <v>0.21374</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11065</v>
+        <v>0.110782</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08582140000000001</v>
+        <v>0.0860682</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218638</v>
+        <v>0.219806</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.119796</v>
+        <v>0.120492</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0865147</v>
+        <v>0.0865499</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224489</v>
+        <v>0.225993</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130516</v>
+        <v>0.131162</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0867222</v>
+        <v>0.086952</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230602</v>
+        <v>0.231723</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.145397</v>
+        <v>0.146327</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08787200000000001</v>
+        <v>0.0880466</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236405</v>
+        <v>0.238252</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.166796</v>
+        <v>0.16739</v>
       </c>
       <c r="C20" t="n">
-        <v>0.092419</v>
+        <v>0.0924446</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242951</v>
+        <v>0.2446</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195225</v>
+        <v>0.195962</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10099</v>
+        <v>0.102232</v>
       </c>
       <c r="D21" t="n">
-        <v>0.179605</v>
+        <v>0.180169</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23381</v>
+        <v>0.238577</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11661</v>
+        <v>0.117</v>
       </c>
       <c r="D22" t="n">
-        <v>0.186565</v>
+        <v>0.187135</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.281354</v>
+        <v>0.28678</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08599130000000001</v>
+        <v>0.08756700000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.193916</v>
+        <v>0.194243</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10051</v>
+        <v>0.100447</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0861102</v>
+        <v>0.0860575</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201749</v>
+        <v>0.201572</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10185</v>
+        <v>0.104576</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0864451</v>
+        <v>0.0896231</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20896</v>
+        <v>0.208263</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103456</v>
+        <v>0.103344</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08655060000000001</v>
+        <v>0.0890068</v>
       </c>
       <c r="D26" t="n">
-        <v>0.214223</v>
+        <v>0.215075</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105772</v>
+        <v>0.105974</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08679389999999999</v>
+        <v>0.08685320000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>0.221305</v>
+        <v>0.222389</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.10883</v>
+        <v>0.109476</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0871151</v>
+        <v>0.0885291</v>
       </c>
       <c r="D28" t="n">
-        <v>0.227761</v>
+        <v>0.229039</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113724</v>
+        <v>0.114486</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0874905</v>
+        <v>0.0912583</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233645</v>
+        <v>0.235072</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118901</v>
+        <v>0.120306</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0879591</v>
+        <v>0.08814909999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240179</v>
+        <v>0.240178</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126583</v>
+        <v>0.130964</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0886164</v>
+        <v>0.09278309999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243769</v>
+        <v>0.245522</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137477</v>
+        <v>0.140268</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0898699</v>
+        <v>0.0934701</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249322</v>
+        <v>0.251596</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.151312</v>
+        <v>0.152684</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09213150000000001</v>
+        <v>0.0936932</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255539</v>
+        <v>0.257123</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168923</v>
+        <v>0.170933</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09716610000000001</v>
+        <v>0.09824769999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>0.261319</v>
+        <v>0.262185</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197634</v>
+        <v>0.195302</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104313</v>
+        <v>0.104524</v>
       </c>
       <c r="D35" t="n">
-        <v>0.191638</v>
+        <v>0.192536</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227732</v>
+        <v>0.228804</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115477</v>
+        <v>0.117262</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197333</v>
+        <v>0.198483</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.279572</v>
+        <v>0.282249</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0872749</v>
+        <v>0.0872488</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205629</v>
+        <v>0.205816</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103727</v>
+        <v>0.103913</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0873698</v>
+        <v>0.08852450000000001</v>
       </c>
       <c r="D38" t="n">
-        <v>0.212441</v>
+        <v>0.21267</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105709</v>
+        <v>0.106066</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0875156</v>
+        <v>0.0895527</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218879</v>
+        <v>0.219183</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107201</v>
+        <v>0.108492</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0878579</v>
+        <v>0.0895624</v>
       </c>
       <c r="D40" t="n">
-        <v>0.226473</v>
+        <v>0.227479</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109337</v>
+        <v>0.109484</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08810709999999999</v>
+        <v>0.0895502</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23258</v>
+        <v>0.232601</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112525</v>
+        <v>0.115137</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0884398</v>
+        <v>0.0894803</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238243</v>
+        <v>0.2393</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116864</v>
+        <v>0.116719</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08896800000000001</v>
+        <v>0.0903397</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245294</v>
+        <v>0.245098</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122234</v>
+        <v>0.12323</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08961570000000001</v>
+        <v>0.0913144</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251387</v>
+        <v>0.251812</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128577</v>
+        <v>0.128408</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0906174</v>
+        <v>0.0909551</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256772</v>
+        <v>0.257335</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137315</v>
+        <v>0.137722</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0924465</v>
+        <v>0.0938046</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261779</v>
+        <v>0.262302</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149592</v>
+        <v>0.149604</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0961192</v>
+        <v>0.09578010000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>0.267982</v>
+        <v>0.267654</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.166593</v>
+        <v>0.16658</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09903969999999999</v>
+        <v>0.09979970000000001</v>
       </c>
       <c r="D48" t="n">
-        <v>0.273994</v>
+        <v>0.274699</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190707</v>
+        <v>0.189162</v>
       </c>
       <c r="C49" t="n">
-        <v>0.105314</v>
+        <v>0.105633</v>
       </c>
       <c r="D49" t="n">
-        <v>0.280366</v>
+        <v>0.279421</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.221821</v>
+        <v>0.223718</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114698</v>
+        <v>0.115946</v>
       </c>
       <c r="D50" t="n">
-        <v>0.199421</v>
+        <v>0.1993</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.266916</v>
+        <v>0.279271</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0886875</v>
+        <v>0.0903456</v>
       </c>
       <c r="D51" t="n">
-        <v>0.206398</v>
+        <v>0.206165</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318968</v>
+        <v>0.321271</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08942609999999999</v>
+        <v>0.0905504</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211824</v>
+        <v>0.212184</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.113557</v>
+        <v>0.119307</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0893548</v>
+        <v>0.0903426</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219645</v>
+        <v>0.219158</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114864</v>
+        <v>0.119517</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0900489</v>
+        <v>0.09037009999999999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226255</v>
+        <v>0.225436</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113178</v>
+        <v>0.116245</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09049649999999999</v>
+        <v>0.0915426</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231498</v>
+        <v>0.231711</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116016</v>
+        <v>0.1255</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0909345</v>
+        <v>0.0939844</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238402</v>
+        <v>0.237959</v>
       </c>
     </row>
     <row r="57">
@@ -4016,10 +4016,10 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.120035</v>
+        <v>0.121109</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09180389999999999</v>
+        <v>0.0918785</v>
       </c>
       <c r="D57" t="n">
         <v>0.243505</v>
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.133486</v>
+        <v>0.131771</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0930391</v>
+        <v>0.0938022</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249128</v>
+        <v>0.24856</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13089</v>
+        <v>0.140751</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0938191</v>
+        <v>0.0943001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.255</v>
+        <v>0.253623</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139621</v>
+        <v>0.141514</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0949871</v>
+        <v>0.0960288</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260764</v>
+        <v>0.258687</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151021</v>
+        <v>0.152116</v>
       </c>
       <c r="C61" t="n">
-        <v>0.102884</v>
+        <v>0.0980953</v>
       </c>
       <c r="D61" t="n">
-        <v>0.266529</v>
+        <v>0.264281</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167147</v>
+        <v>0.171492</v>
       </c>
       <c r="C62" t="n">
-        <v>0.100129</v>
+        <v>0.101801</v>
       </c>
       <c r="D62" t="n">
-        <v>0.271288</v>
+        <v>0.270462</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191663</v>
+        <v>0.193428</v>
       </c>
       <c r="C63" t="n">
-        <v>0.106109</v>
+        <v>0.10676</v>
       </c>
       <c r="D63" t="n">
-        <v>0.278006</v>
+        <v>0.276109</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.219372</v>
+        <v>0.242251</v>
       </c>
       <c r="C64" t="n">
-        <v>0.113165</v>
+        <v>0.113754</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206349</v>
+        <v>0.204607</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.261628</v>
+        <v>0.261881</v>
       </c>
       <c r="C65" t="n">
-        <v>0.127663</v>
+        <v>0.134675</v>
       </c>
       <c r="D65" t="n">
-        <v>0.214221</v>
+        <v>0.210665</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.318626</v>
+        <v>0.320115</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0952532</v>
+        <v>0.100627</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222556</v>
+        <v>0.218151</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.128985</v>
+        <v>0.123486</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0980053</v>
+        <v>0.0980216</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230723</v>
+        <v>0.227038</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124787</v>
+        <v>0.123213</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0979983</v>
+        <v>0.101181</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242253</v>
+        <v>0.235481</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.135711</v>
+        <v>0.125691</v>
       </c>
       <c r="C69" t="n">
-        <v>0.103079</v>
+        <v>0.102534</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251027</v>
+        <v>0.245093</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.135814</v>
+        <v>0.129505</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09727860000000001</v>
+        <v>0.102019</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258133</v>
+        <v>0.252356</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.133495</v>
+        <v>0.134118</v>
       </c>
       <c r="C71" t="n">
-        <v>0.101127</v>
+        <v>0.0988926</v>
       </c>
       <c r="D71" t="n">
-        <v>0.270752</v>
+        <v>0.26226</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137596</v>
+        <v>0.146491</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0991249</v>
+        <v>0.104348</v>
       </c>
       <c r="D72" t="n">
-        <v>0.280789</v>
+        <v>0.274088</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.144751</v>
+        <v>0.153009</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100184</v>
+        <v>0.100822</v>
       </c>
       <c r="D73" t="n">
-        <v>0.291436</v>
+        <v>0.283301</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.160177</v>
+        <v>0.150601</v>
       </c>
       <c r="C74" t="n">
-        <v>0.10211</v>
+        <v>0.103206</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304998</v>
+        <v>0.296048</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.168535</v>
+        <v>0.171114</v>
       </c>
       <c r="C75" t="n">
-        <v>0.108714</v>
+        <v>0.109337</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320186</v>
+        <v>0.309324</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175536</v>
+        <v>0.186565</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107111</v>
+        <v>0.112167</v>
       </c>
       <c r="D76" t="n">
-        <v>0.339927</v>
+        <v>0.323069</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198363</v>
+        <v>0.202098</v>
       </c>
       <c r="C77" t="n">
-        <v>0.111694</v>
+        <v>0.114797</v>
       </c>
       <c r="D77" t="n">
-        <v>0.356616</v>
+        <v>0.33864</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.227006</v>
+        <v>0.225534</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119326</v>
+        <v>0.126085</v>
       </c>
       <c r="D78" t="n">
-        <v>0.278519</v>
+        <v>0.265472</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.269767</v>
+        <v>0.262426</v>
       </c>
       <c r="C79" t="n">
-        <v>0.132742</v>
+        <v>0.133638</v>
       </c>
       <c r="D79" t="n">
-        <v>0.295011</v>
+        <v>0.28443</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323164</v>
+        <v>0.320041</v>
       </c>
       <c r="C80" t="n">
-        <v>0.108278</v>
+        <v>0.108326</v>
       </c>
       <c r="D80" t="n">
-        <v>0.309538</v>
+        <v>0.304044</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145757</v>
+        <v>0.145374</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102967</v>
+        <v>0.103132</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325485</v>
+        <v>0.322925</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137749</v>
+        <v>0.146969</v>
       </c>
       <c r="C82" t="n">
-        <v>0.104107</v>
+        <v>0.109081</v>
       </c>
       <c r="D82" t="n">
-        <v>0.341492</v>
+        <v>0.344315</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139696</v>
+        <v>0.140957</v>
       </c>
       <c r="C83" t="n">
-        <v>0.109417</v>
+        <v>0.104506</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363688</v>
+        <v>0.364976</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.143052</v>
+        <v>0.150686</v>
       </c>
       <c r="C84" t="n">
-        <v>0.10526</v>
+        <v>0.110721</v>
       </c>
       <c r="D84" t="n">
-        <v>0.383312</v>
+        <v>0.387672</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.156635</v>
+        <v>0.154987</v>
       </c>
       <c r="C85" t="n">
-        <v>0.112263</v>
+        <v>0.111279</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408854</v>
+        <v>0.411575</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.162524</v>
+        <v>0.159374</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111874</v>
+        <v>0.111997</v>
       </c>
       <c r="D86" t="n">
-        <v>0.429891</v>
+        <v>0.434882</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.168117</v>
+        <v>0.156039</v>
       </c>
       <c r="C87" t="n">
-        <v>0.115</v>
+        <v>0.108034</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453459</v>
+        <v>0.459276</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17836</v>
+        <v>0.163835</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11255</v>
+        <v>0.11272</v>
       </c>
       <c r="D88" t="n">
-        <v>0.476017</v>
+        <v>0.484927</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188571</v>
+        <v>0.181291</v>
       </c>
       <c r="C89" t="n">
-        <v>0.120368</v>
+        <v>0.111656</v>
       </c>
       <c r="D89" t="n">
-        <v>0.501237</v>
+        <v>0.511717</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194465</v>
+        <v>0.196848</v>
       </c>
       <c r="C90" t="n">
-        <v>0.118581</v>
+        <v>0.115254</v>
       </c>
       <c r="D90" t="n">
-        <v>0.526921</v>
+        <v>0.53936</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215496</v>
+        <v>0.218662</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124601</v>
+        <v>0.120304</v>
       </c>
       <c r="D91" t="n">
-        <v>0.555653</v>
+        <v>0.569116</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242942</v>
+        <v>0.240827</v>
       </c>
       <c r="C92" t="n">
-        <v>0.133491</v>
+        <v>0.1283</v>
       </c>
       <c r="D92" t="n">
-        <v>0.41925</v>
+        <v>0.429346</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.295436</v>
+        <v>0.292082</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157594</v>
+        <v>0.149383</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43059</v>
+        <v>0.446837</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.345426</v>
+        <v>0.342922</v>
       </c>
       <c r="C94" t="n">
-        <v>0.114942</v>
+        <v>0.108525</v>
       </c>
       <c r="D94" t="n">
-        <v>0.455339</v>
+        <v>0.465782</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160306</v>
+        <v>0.144401</v>
       </c>
       <c r="C95" t="n">
-        <v>0.120505</v>
+        <v>0.114955</v>
       </c>
       <c r="D95" t="n">
-        <v>0.474641</v>
+        <v>0.486644</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.156922</v>
+        <v>0.152664</v>
       </c>
       <c r="C96" t="n">
-        <v>0.122524</v>
+        <v>0.11657</v>
       </c>
       <c r="D96" t="n">
-        <v>0.493672</v>
+        <v>0.507887</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156273</v>
+        <v>0.150705</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118047</v>
+        <v>0.112673</v>
       </c>
       <c r="D97" t="n">
-        <v>0.517003</v>
+        <v>0.528629</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160372</v>
+        <v>0.154885</v>
       </c>
       <c r="C98" t="n">
-        <v>0.125532</v>
+        <v>0.114334</v>
       </c>
       <c r="D98" t="n">
-        <v>0.538876</v>
+        <v>0.551176</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.172043</v>
+        <v>0.160227</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12645</v>
+        <v>0.122716</v>
       </c>
       <c r="D99" t="n">
-        <v>0.56191</v>
+        <v>0.57531</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170944</v>
+        <v>0.166946</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126634</v>
+        <v>0.119814</v>
       </c>
       <c r="D100" t="n">
-        <v>0.584183</v>
+        <v>0.599854</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187991</v>
+        <v>0.186228</v>
       </c>
       <c r="C101" t="n">
-        <v>0.130134</v>
+        <v>0.12353</v>
       </c>
       <c r="D101" t="n">
-        <v>0.607279</v>
+        <v>0.62465</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196992</v>
+        <v>0.187275</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12719</v>
+        <v>0.12904</v>
       </c>
       <c r="D102" t="n">
-        <v>0.635548</v>
+        <v>0.652048</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204277</v>
+        <v>0.20791</v>
       </c>
       <c r="C103" t="n">
-        <v>0.130581</v>
+        <v>0.139221</v>
       </c>
       <c r="D103" t="n">
-        <v>0.661624</v>
+        <v>0.680215</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212218</v>
+        <v>0.226413</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136182</v>
+        <v>0.140816</v>
       </c>
       <c r="D104" t="n">
-        <v>0.692949</v>
+        <v>0.709332</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.242774</v>
+        <v>0.245696</v>
       </c>
       <c r="C105" t="n">
-        <v>0.142184</v>
+        <v>0.155128</v>
       </c>
       <c r="D105" t="n">
-        <v>0.724677</v>
+        <v>0.740888</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.273676</v>
+        <v>0.275705</v>
       </c>
       <c r="C106" t="n">
-        <v>0.154478</v>
+        <v>0.167793</v>
       </c>
       <c r="D106" t="n">
-        <v>0.755118</v>
+        <v>0.775942</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305169</v>
+        <v>0.318986</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163546</v>
+        <v>0.184518</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5907289999999999</v>
+        <v>0.610139</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37673</v>
+        <v>0.387526</v>
       </c>
       <c r="C108" t="n">
-        <v>0.122015</v>
+        <v>0.134445</v>
       </c>
       <c r="D108" t="n">
-        <v>0.612906</v>
+        <v>0.630619</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470033</v>
+        <v>0.480357</v>
       </c>
       <c r="C109" t="n">
-        <v>0.121153</v>
+        <v>0.135584</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6340980000000001</v>
+        <v>0.654725</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161901</v>
+        <v>0.183211</v>
       </c>
       <c r="C110" t="n">
-        <v>0.124593</v>
+        <v>0.134348</v>
       </c>
       <c r="D110" t="n">
-        <v>0.656208</v>
+        <v>0.677381</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.17603</v>
+        <v>0.176549</v>
       </c>
       <c r="C111" t="n">
-        <v>0.128674</v>
+        <v>0.137256</v>
       </c>
       <c r="D111" t="n">
-        <v>0.679512</v>
+        <v>0.702021</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.171384</v>
+        <v>0.192276</v>
       </c>
       <c r="C112" t="n">
-        <v>0.12774</v>
+        <v>0.139682</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7025940000000001</v>
+        <v>0.725291</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.184089</v>
+        <v>0.186963</v>
       </c>
       <c r="C113" t="n">
-        <v>0.129863</v>
+        <v>0.144976</v>
       </c>
       <c r="D113" t="n">
-        <v>0.719557</v>
+        <v>0.752274</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180133</v>
+        <v>0.204067</v>
       </c>
       <c r="C114" t="n">
-        <v>0.13213</v>
+        <v>0.145019</v>
       </c>
       <c r="D114" t="n">
-        <v>0.751336</v>
+        <v>0.778922</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.19433</v>
+        <v>0.201249</v>
       </c>
       <c r="C115" t="n">
-        <v>0.136474</v>
+        <v>0.147578</v>
       </c>
       <c r="D115" t="n">
-        <v>0.775237</v>
+        <v>0.807128</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206011</v>
+        <v>0.217724</v>
       </c>
       <c r="C116" t="n">
-        <v>0.136123</v>
+        <v>0.151087</v>
       </c>
       <c r="D116" t="n">
-        <v>0.808577</v>
+        <v>0.836968</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21574</v>
+        <v>0.224935</v>
       </c>
       <c r="C117" t="n">
-        <v>0.143683</v>
+        <v>0.155178</v>
       </c>
       <c r="D117" t="n">
-        <v>0.838069</v>
+        <v>0.866977</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231935</v>
+        <v>0.239959</v>
       </c>
       <c r="C118" t="n">
-        <v>0.151034</v>
+        <v>0.160605</v>
       </c>
       <c r="D118" t="n">
-        <v>0.867181</v>
+        <v>0.89991</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252107</v>
+        <v>0.262803</v>
       </c>
       <c r="C119" t="n">
-        <v>0.157591</v>
+        <v>0.167091</v>
       </c>
       <c r="D119" t="n">
-        <v>0.893288</v>
+        <v>0.934798</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.294296</v>
+        <v>0.292825</v>
       </c>
       <c r="C120" t="n">
-        <v>0.169472</v>
+        <v>0.179787</v>
       </c>
       <c r="D120" t="n">
-        <v>0.927778</v>
+        <v>0.97081</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330196</v>
+        <v>0.333728</v>
       </c>
       <c r="C121" t="n">
-        <v>0.188307</v>
+        <v>0.190736</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683376</v>
+        <v>0.712279</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403384</v>
+        <v>0.398873</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20881</v>
+        <v>0.215227</v>
       </c>
       <c r="D122" t="n">
-        <v>0.692654</v>
+        <v>0.733493</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492182</v>
+        <v>0.498345</v>
       </c>
       <c r="C123" t="n">
-        <v>0.143011</v>
+        <v>0.148365</v>
       </c>
       <c r="D123" t="n">
-        <v>0.724695</v>
+        <v>0.7544960000000001</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.199259</v>
+        <v>0.195549</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147307</v>
+        <v>0.151393</v>
       </c>
       <c r="D124" t="n">
-        <v>0.746652</v>
+        <v>0.7773640000000001</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.196598</v>
+        <v>0.194202</v>
       </c>
       <c r="C125" t="n">
-        <v>0.152815</v>
+        <v>0.151688</v>
       </c>
       <c r="D125" t="n">
-        <v>0.770089</v>
+        <v>0.801751</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.196961</v>
+        <v>0.210723</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1589</v>
+        <v>0.160148</v>
       </c>
       <c r="D126" t="n">
-        <v>0.78351</v>
+        <v>0.8262080000000001</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201656</v>
+        <v>0.202161</v>
       </c>
       <c r="C127" t="n">
-        <v>0.148164</v>
+        <v>0.155118</v>
       </c>
       <c r="D127" t="n">
-        <v>0.819262</v>
+        <v>0.8521260000000001</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.211239</v>
+        <v>0.21221</v>
       </c>
       <c r="C128" t="n">
-        <v>0.162361</v>
+        <v>0.166652</v>
       </c>
       <c r="D128" t="n">
-        <v>0.845661</v>
+        <v>0.878927</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226019</v>
+        <v>0.230413</v>
       </c>
       <c r="C129" t="n">
-        <v>0.162036</v>
+        <v>0.160314</v>
       </c>
       <c r="D129" t="n">
-        <v>0.872096</v>
+        <v>0.909048</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.234149</v>
+        <v>0.227839</v>
       </c>
       <c r="C130" t="n">
-        <v>0.163237</v>
+        <v>0.165489</v>
       </c>
       <c r="D130" t="n">
-        <v>0.900403</v>
+        <v>0.936586</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.24631</v>
+        <v>0.252166</v>
       </c>
       <c r="C131" t="n">
-        <v>0.173238</v>
+        <v>0.168854</v>
       </c>
       <c r="D131" t="n">
-        <v>0.931124</v>
+        <v>0.96759</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265352</v>
+        <v>0.265914</v>
       </c>
       <c r="C132" t="n">
-        <v>0.165052</v>
+        <v>0.173734</v>
       </c>
       <c r="D132" t="n">
-        <v>0.962163</v>
+        <v>1.00103</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277573</v>
+        <v>0.28736</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173405</v>
+        <v>0.183676</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9937279999999999</v>
+        <v>1.03446</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.304653</v>
+        <v>0.309795</v>
       </c>
       <c r="C134" t="n">
-        <v>0.189059</v>
+        <v>0.193061</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02782</v>
+        <v>1.07107</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349815</v>
+        <v>0.349608</v>
       </c>
       <c r="C135" t="n">
-        <v>0.20387</v>
+        <v>0.203396</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7080920000000001</v>
+        <v>0.739852</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411822</v>
+        <v>0.415153</v>
       </c>
       <c r="C136" t="n">
-        <v>0.219084</v>
+        <v>0.234532</v>
       </c>
       <c r="D136" t="n">
-        <v>0.725893</v>
+        <v>0.757875</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.503296</v>
+        <v>0.5099590000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.298549</v>
+        <v>0.278126</v>
       </c>
       <c r="D137" t="n">
-        <v>0.743085</v>
+        <v>0.777033</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.33805</v>
+        <v>0.350855</v>
       </c>
       <c r="C138" t="n">
-        <v>0.273502</v>
+        <v>0.274024</v>
       </c>
       <c r="D138" t="n">
-        <v>0.762853</v>
+        <v>0.798229</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334448</v>
+        <v>0.346578</v>
       </c>
       <c r="C139" t="n">
-        <v>0.284812</v>
+        <v>0.299299</v>
       </c>
       <c r="D139" t="n">
-        <v>0.784474</v>
+        <v>0.819341</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340053</v>
+        <v>0.357617</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260656</v>
+        <v>0.298232</v>
       </c>
       <c r="D140" t="n">
-        <v>0.805918</v>
+        <v>0.841491</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346829</v>
+        <v>0.35454</v>
       </c>
       <c r="C141" t="n">
-        <v>0.282737</v>
+        <v>0.278279</v>
       </c>
       <c r="D141" t="n">
-        <v>0.827831</v>
+        <v>0.8656160000000001</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.358406</v>
+        <v>0.363222</v>
       </c>
       <c r="C142" t="n">
-        <v>0.290192</v>
+        <v>0.281835</v>
       </c>
       <c r="D142" t="n">
-        <v>0.852832</v>
+        <v>0.889744</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.35914</v>
+        <v>0.369816</v>
       </c>
       <c r="C143" t="n">
-        <v>0.289114</v>
+        <v>0.284531</v>
       </c>
       <c r="D143" t="n">
-        <v>0.875064</v>
+        <v>0.9161589999999999</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103157</v>
+        <v>0.103263</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0844601</v>
+        <v>0.08233509999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.174863</v>
+        <v>0.178167</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.107993</v>
+        <v>0.108352</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0847832</v>
+        <v>0.0819091</v>
       </c>
       <c r="D3" t="n">
-        <v>0.181544</v>
+        <v>0.18603</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122767</v>
+        <v>0.122859</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0850236</v>
+        <v>0.0816414</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19114</v>
+        <v>0.191834</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.13857</v>
+        <v>0.138571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08443100000000001</v>
+        <v>0.0818902</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200799</v>
+        <v>0.197733</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172454</v>
+        <v>0.172484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0858921</v>
+        <v>0.0829395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207114</v>
+        <v>0.204314</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.19372</v>
+        <v>0.193843</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0922552</v>
+        <v>0.08647340000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156752</v>
+        <v>0.153534</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241557</v>
+        <v>0.241651</v>
       </c>
       <c r="C8" t="n">
-        <v>0.107988</v>
+        <v>0.10281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163656</v>
+        <v>0.160846</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29154</v>
+        <v>0.291714</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08435529999999999</v>
+        <v>0.0817657</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170297</v>
+        <v>0.167281</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09417059999999999</v>
+        <v>0.09422700000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08422929999999999</v>
+        <v>0.08205519999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177375</v>
+        <v>0.175127</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09536310000000001</v>
+        <v>0.0953064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0846114</v>
+        <v>0.08230170000000001</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184332</v>
+        <v>0.182569</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09691809999999999</v>
+        <v>0.0973241</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0847545</v>
+        <v>0.08253630000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191964</v>
+        <v>0.19031</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09855129999999999</v>
+        <v>0.09912070000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08490929999999999</v>
+        <v>0.0826894</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198297</v>
+        <v>0.197132</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101071</v>
+        <v>0.101084</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0851671</v>
+        <v>0.0828467</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205392</v>
+        <v>0.203367</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105434</v>
+        <v>0.105616</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0856137</v>
+        <v>0.08329209999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213062</v>
+        <v>0.211607</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11065</v>
+        <v>0.119777</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08582140000000001</v>
+        <v>0.0862957</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218638</v>
+        <v>0.216689</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.119796</v>
+        <v>0.121485</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0865147</v>
+        <v>0.0859684</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224489</v>
+        <v>0.222346</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130516</v>
+        <v>0.130605</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0867222</v>
+        <v>0.08716459999999999</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230602</v>
+        <v>0.229335</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.145397</v>
+        <v>0.148101</v>
       </c>
       <c r="C19" t="n">
-        <v>0.08787200000000001</v>
+        <v>0.0877631</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236405</v>
+        <v>0.234697</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.166796</v>
+        <v>0.173795</v>
       </c>
       <c r="C20" t="n">
-        <v>0.092419</v>
+        <v>0.0876223</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242951</v>
+        <v>0.240814</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195225</v>
+        <v>0.198313</v>
       </c>
       <c r="C21" t="n">
-        <v>0.10099</v>
+        <v>0.09578929999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>0.179605</v>
+        <v>0.1763</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.23381</v>
+        <v>0.240459</v>
       </c>
       <c r="C22" t="n">
-        <v>0.11661</v>
+        <v>0.110644</v>
       </c>
       <c r="D22" t="n">
-        <v>0.186565</v>
+        <v>0.183841</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.281354</v>
+        <v>0.282059</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08599130000000001</v>
+        <v>0.08524950000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.193916</v>
+        <v>0.190889</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.10051</v>
+        <v>0.104887</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0861102</v>
+        <v>0.087016</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201749</v>
+        <v>0.197887</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10185</v>
+        <v>0.105481</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0864451</v>
+        <v>0.0892748</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20896</v>
+        <v>0.205603</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103456</v>
+        <v>0.103301</v>
       </c>
       <c r="C26" t="n">
-        <v>0.08655060000000001</v>
+        <v>0.0949498</v>
       </c>
       <c r="D26" t="n">
-        <v>0.214223</v>
+        <v>0.211785</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105772</v>
+        <v>0.114429</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08679389999999999</v>
+        <v>0.0839935</v>
       </c>
       <c r="D27" t="n">
-        <v>0.221305</v>
+        <v>0.218499</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.10883</v>
+        <v>0.110979</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0871151</v>
+        <v>0.086711</v>
       </c>
       <c r="D28" t="n">
-        <v>0.227761</v>
+        <v>0.224493</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113724</v>
+        <v>0.115479</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0874905</v>
+        <v>0.08674320000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233645</v>
+        <v>0.231376</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.118901</v>
+        <v>0.11938</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0879591</v>
+        <v>0.08920450000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>0.240179</v>
+        <v>0.236676</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126583</v>
+        <v>0.134538</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0886164</v>
+        <v>0.09015280000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243769</v>
+        <v>0.241582</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.137477</v>
+        <v>0.145767</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0898699</v>
+        <v>0.0874557</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249322</v>
+        <v>0.248228</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.151312</v>
+        <v>0.151545</v>
       </c>
       <c r="C33" t="n">
-        <v>0.09213150000000001</v>
+        <v>0.0911145</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255539</v>
+        <v>0.253457</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.168923</v>
+        <v>0.17816</v>
       </c>
       <c r="C34" t="n">
-        <v>0.09716610000000001</v>
+        <v>0.0967372</v>
       </c>
       <c r="D34" t="n">
-        <v>0.261319</v>
+        <v>0.25893</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.197634</v>
+        <v>0.204897</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104313</v>
+        <v>0.104394</v>
       </c>
       <c r="D35" t="n">
-        <v>0.191638</v>
+        <v>0.189135</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.227732</v>
+        <v>0.228751</v>
       </c>
       <c r="C36" t="n">
-        <v>0.115477</v>
+        <v>0.116639</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197333</v>
+        <v>0.195863</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.279572</v>
+        <v>0.280149</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0872749</v>
+        <v>0.0839942</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205629</v>
+        <v>0.203421</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103727</v>
+        <v>0.107855</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0873698</v>
+        <v>0.0852598</v>
       </c>
       <c r="D38" t="n">
-        <v>0.212441</v>
+        <v>0.209409</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105709</v>
+        <v>0.113049</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0875156</v>
+        <v>0.0861846</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218879</v>
+        <v>0.21608</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107201</v>
+        <v>0.111783</v>
       </c>
       <c r="C40" t="n">
-        <v>0.0878579</v>
+        <v>0.089348</v>
       </c>
       <c r="D40" t="n">
-        <v>0.226473</v>
+        <v>0.222962</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109337</v>
+        <v>0.109478</v>
       </c>
       <c r="C41" t="n">
-        <v>0.08810709999999999</v>
+        <v>0.0851428</v>
       </c>
       <c r="D41" t="n">
-        <v>0.23258</v>
+        <v>0.229006</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112525</v>
+        <v>0.120486</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0884398</v>
+        <v>0.08728</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238243</v>
+        <v>0.23578</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116864</v>
+        <v>0.124807</v>
       </c>
       <c r="C43" t="n">
-        <v>0.08896800000000001</v>
+        <v>0.0860195</v>
       </c>
       <c r="D43" t="n">
-        <v>0.245294</v>
+        <v>0.241742</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122234</v>
+        <v>0.123439</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08961570000000001</v>
+        <v>0.0871189</v>
       </c>
       <c r="D44" t="n">
-        <v>0.251387</v>
+        <v>0.24776</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128577</v>
+        <v>0.128476</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0906174</v>
+        <v>0.0877425</v>
       </c>
       <c r="D45" t="n">
-        <v>0.256772</v>
+        <v>0.253751</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137315</v>
+        <v>0.137378</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0924465</v>
+        <v>0.08920350000000001</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261779</v>
+        <v>0.259591</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149592</v>
+        <v>0.151103</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0961192</v>
+        <v>0.0920397</v>
       </c>
       <c r="D47" t="n">
-        <v>0.267982</v>
+        <v>0.26513</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.166593</v>
+        <v>0.166378</v>
       </c>
       <c r="C48" t="n">
-        <v>0.09903969999999999</v>
+        <v>0.0982398</v>
       </c>
       <c r="D48" t="n">
-        <v>0.273994</v>
+        <v>0.271394</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190707</v>
+        <v>0.190975</v>
       </c>
       <c r="C49" t="n">
-        <v>0.105314</v>
+        <v>0.108</v>
       </c>
       <c r="D49" t="n">
-        <v>0.280366</v>
+        <v>0.27751</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.221821</v>
+        <v>0.224552</v>
       </c>
       <c r="C50" t="n">
-        <v>0.114698</v>
+        <v>0.120639</v>
       </c>
       <c r="D50" t="n">
-        <v>0.199421</v>
+        <v>0.196279</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.266916</v>
+        <v>0.267352</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0886875</v>
+        <v>0.0886927</v>
       </c>
       <c r="D51" t="n">
-        <v>0.206398</v>
+        <v>0.202783</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318968</v>
+        <v>0.32153</v>
       </c>
       <c r="C52" t="n">
-        <v>0.08942609999999999</v>
+        <v>0.0863824</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211824</v>
+        <v>0.209198</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.113557</v>
+        <v>0.118336</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0893548</v>
+        <v>0.0865966</v>
       </c>
       <c r="D53" t="n">
-        <v>0.219645</v>
+        <v>0.216011</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.114864</v>
+        <v>0.11216</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0900489</v>
+        <v>0.0886305</v>
       </c>
       <c r="D54" t="n">
-        <v>0.226255</v>
+        <v>0.222182</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113178</v>
+        <v>0.114288</v>
       </c>
       <c r="C55" t="n">
-        <v>0.09049649999999999</v>
+        <v>0.0917386</v>
       </c>
       <c r="D55" t="n">
-        <v>0.231498</v>
+        <v>0.228158</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116016</v>
+        <v>0.122067</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0909345</v>
+        <v>0.08865580000000001</v>
       </c>
       <c r="D56" t="n">
-        <v>0.238402</v>
+        <v>0.234277</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.120035</v>
+        <v>0.120309</v>
       </c>
       <c r="C57" t="n">
-        <v>0.09180389999999999</v>
+        <v>0.0912565</v>
       </c>
       <c r="D57" t="n">
-        <v>0.243505</v>
+        <v>0.239764</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.133486</v>
+        <v>0.126471</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0930391</v>
+        <v>0.091198</v>
       </c>
       <c r="D58" t="n">
-        <v>0.249128</v>
+        <v>0.245269</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.13089</v>
+        <v>0.142277</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0938191</v>
+        <v>0.0922118</v>
       </c>
       <c r="D59" t="n">
-        <v>0.255</v>
+        <v>0.250659</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139621</v>
+        <v>0.139964</v>
       </c>
       <c r="C60" t="n">
-        <v>0.0949871</v>
+        <v>0.102909</v>
       </c>
       <c r="D60" t="n">
-        <v>0.260764</v>
+        <v>0.255336</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.151021</v>
+        <v>0.156216</v>
       </c>
       <c r="C61" t="n">
-        <v>0.102884</v>
+        <v>0.103917</v>
       </c>
       <c r="D61" t="n">
-        <v>0.266529</v>
+        <v>0.260669</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167147</v>
+        <v>0.16926</v>
       </c>
       <c r="C62" t="n">
-        <v>0.100129</v>
+        <v>0.105788</v>
       </c>
       <c r="D62" t="n">
-        <v>0.271288</v>
+        <v>0.266724</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.191663</v>
+        <v>0.188594</v>
       </c>
       <c r="C63" t="n">
-        <v>0.106109</v>
+        <v>0.102757</v>
       </c>
       <c r="D63" t="n">
-        <v>0.278006</v>
+        <v>0.272415</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.219372</v>
+        <v>0.22108</v>
       </c>
       <c r="C64" t="n">
-        <v>0.113165</v>
+        <v>0.117756</v>
       </c>
       <c r="D64" t="n">
-        <v>0.206349</v>
+        <v>0.201265</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.261628</v>
+        <v>0.266827</v>
       </c>
       <c r="C65" t="n">
-        <v>0.127663</v>
+        <v>0.136555</v>
       </c>
       <c r="D65" t="n">
-        <v>0.214221</v>
+        <v>0.207506</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.318626</v>
+        <v>0.335898</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0952532</v>
+        <v>0.09749099999999999</v>
       </c>
       <c r="D66" t="n">
-        <v>0.222556</v>
+        <v>0.214623</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.128985</v>
+        <v>0.121663</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0980053</v>
+        <v>0.09834039999999999</v>
       </c>
       <c r="D67" t="n">
-        <v>0.230723</v>
+        <v>0.223957</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124787</v>
+        <v>0.132789</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0979983</v>
+        <v>0.0986924</v>
       </c>
       <c r="D68" t="n">
-        <v>0.242253</v>
+        <v>0.230961</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.135711</v>
+        <v>0.12737</v>
       </c>
       <c r="C69" t="n">
-        <v>0.103079</v>
+        <v>0.0950873</v>
       </c>
       <c r="D69" t="n">
-        <v>0.251027</v>
+        <v>0.240026</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.135814</v>
+        <v>0.137958</v>
       </c>
       <c r="C70" t="n">
-        <v>0.09727860000000001</v>
+        <v>0.0989042</v>
       </c>
       <c r="D70" t="n">
-        <v>0.258133</v>
+        <v>0.250612</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.133495</v>
+        <v>0.140921</v>
       </c>
       <c r="C71" t="n">
-        <v>0.101127</v>
+        <v>0.100761</v>
       </c>
       <c r="D71" t="n">
-        <v>0.270752</v>
+        <v>0.260141</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137596</v>
+        <v>0.137215</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0991249</v>
+        <v>0.0972005</v>
       </c>
       <c r="D72" t="n">
-        <v>0.280789</v>
+        <v>0.271145</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.144751</v>
+        <v>0.143646</v>
       </c>
       <c r="C73" t="n">
-        <v>0.100184</v>
+        <v>0.106867</v>
       </c>
       <c r="D73" t="n">
-        <v>0.291436</v>
+        <v>0.280992</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.160177</v>
+        <v>0.161053</v>
       </c>
       <c r="C74" t="n">
-        <v>0.10211</v>
+        <v>0.104717</v>
       </c>
       <c r="D74" t="n">
-        <v>0.304998</v>
+        <v>0.294111</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.168535</v>
+        <v>0.170026</v>
       </c>
       <c r="C75" t="n">
-        <v>0.108714</v>
+        <v>0.107654</v>
       </c>
       <c r="D75" t="n">
-        <v>0.320186</v>
+        <v>0.310064</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175536</v>
+        <v>0.176412</v>
       </c>
       <c r="C76" t="n">
-        <v>0.107111</v>
+        <v>0.116985</v>
       </c>
       <c r="D76" t="n">
-        <v>0.339927</v>
+        <v>0.324659</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.198363</v>
+        <v>0.194078</v>
       </c>
       <c r="C77" t="n">
-        <v>0.111694</v>
+        <v>0.109399</v>
       </c>
       <c r="D77" t="n">
-        <v>0.356616</v>
+        <v>0.33938</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.227006</v>
+        <v>0.238379</v>
       </c>
       <c r="C78" t="n">
-        <v>0.119326</v>
+        <v>0.124657</v>
       </c>
       <c r="D78" t="n">
-        <v>0.278519</v>
+        <v>0.264838</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.269767</v>
+        <v>0.26582</v>
       </c>
       <c r="C79" t="n">
-        <v>0.132742</v>
+        <v>0.138495</v>
       </c>
       <c r="D79" t="n">
-        <v>0.295011</v>
+        <v>0.281644</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323164</v>
+        <v>0.323739</v>
       </c>
       <c r="C80" t="n">
-        <v>0.108278</v>
+        <v>0.10736</v>
       </c>
       <c r="D80" t="n">
-        <v>0.309538</v>
+        <v>0.29867</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145757</v>
+        <v>0.138759</v>
       </c>
       <c r="C81" t="n">
-        <v>0.102967</v>
+        <v>0.10662</v>
       </c>
       <c r="D81" t="n">
-        <v>0.325485</v>
+        <v>0.318817</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137749</v>
+        <v>0.137406</v>
       </c>
       <c r="C82" t="n">
-        <v>0.104107</v>
+        <v>0.10758</v>
       </c>
       <c r="D82" t="n">
-        <v>0.341492</v>
+        <v>0.33779</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139696</v>
+        <v>0.149048</v>
       </c>
       <c r="C83" t="n">
-        <v>0.109417</v>
+        <v>0.105997</v>
       </c>
       <c r="D83" t="n">
-        <v>0.363688</v>
+        <v>0.357875</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.143052</v>
+        <v>0.151559</v>
       </c>
       <c r="C84" t="n">
-        <v>0.10526</v>
+        <v>0.108352</v>
       </c>
       <c r="D84" t="n">
-        <v>0.383312</v>
+        <v>0.379192</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.156635</v>
+        <v>0.153148</v>
       </c>
       <c r="C85" t="n">
-        <v>0.112263</v>
+        <v>0.107125</v>
       </c>
       <c r="D85" t="n">
-        <v>0.408854</v>
+        <v>0.400301</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.162524</v>
+        <v>0.150484</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111874</v>
+        <v>0.111276</v>
       </c>
       <c r="D86" t="n">
-        <v>0.429891</v>
+        <v>0.422913</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.168117</v>
+        <v>0.166562</v>
       </c>
       <c r="C87" t="n">
-        <v>0.115</v>
+        <v>0.11121</v>
       </c>
       <c r="D87" t="n">
-        <v>0.453459</v>
+        <v>0.446039</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17836</v>
+        <v>0.173161</v>
       </c>
       <c r="C88" t="n">
-        <v>0.11255</v>
+        <v>0.106759</v>
       </c>
       <c r="D88" t="n">
-        <v>0.476017</v>
+        <v>0.470397</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.188571</v>
+        <v>0.174011</v>
       </c>
       <c r="C89" t="n">
-        <v>0.120368</v>
+        <v>0.114563</v>
       </c>
       <c r="D89" t="n">
-        <v>0.501237</v>
+        <v>0.495413</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194465</v>
+        <v>0.19021</v>
       </c>
       <c r="C90" t="n">
-        <v>0.118581</v>
+        <v>0.118842</v>
       </c>
       <c r="D90" t="n">
-        <v>0.526921</v>
+        <v>0.521072</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.215496</v>
+        <v>0.219</v>
       </c>
       <c r="C91" t="n">
-        <v>0.124601</v>
+        <v>0.123299</v>
       </c>
       <c r="D91" t="n">
-        <v>0.555653</v>
+        <v>0.54874</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242942</v>
+        <v>0.249224</v>
       </c>
       <c r="C92" t="n">
-        <v>0.133491</v>
+        <v>0.131567</v>
       </c>
       <c r="D92" t="n">
-        <v>0.41925</v>
+        <v>0.412221</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.295436</v>
+        <v>0.280481</v>
       </c>
       <c r="C93" t="n">
-        <v>0.157594</v>
+        <v>0.141631</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43059</v>
+        <v>0.430316</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.345426</v>
+        <v>0.341978</v>
       </c>
       <c r="C94" t="n">
-        <v>0.114942</v>
+        <v>0.106261</v>
       </c>
       <c r="D94" t="n">
-        <v>0.455339</v>
+        <v>0.447374</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.160306</v>
+        <v>0.14448</v>
       </c>
       <c r="C95" t="n">
-        <v>0.120505</v>
+        <v>0.112662</v>
       </c>
       <c r="D95" t="n">
-        <v>0.474641</v>
+        <v>0.467204</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.156922</v>
+        <v>0.157661</v>
       </c>
       <c r="C96" t="n">
-        <v>0.122524</v>
+        <v>0.10876</v>
       </c>
       <c r="D96" t="n">
-        <v>0.493672</v>
+        <v>0.486024</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156273</v>
+        <v>0.150242</v>
       </c>
       <c r="C97" t="n">
-        <v>0.118047</v>
+        <v>0.11049</v>
       </c>
       <c r="D97" t="n">
-        <v>0.517003</v>
+        <v>0.507674</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.160372</v>
+        <v>0.154611</v>
       </c>
       <c r="C98" t="n">
-        <v>0.125532</v>
+        <v>0.112224</v>
       </c>
       <c r="D98" t="n">
-        <v>0.538876</v>
+        <v>0.529296</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.172043</v>
+        <v>0.169757</v>
       </c>
       <c r="C99" t="n">
-        <v>0.12645</v>
+        <v>0.115473</v>
       </c>
       <c r="D99" t="n">
-        <v>0.56191</v>
+        <v>0.549778</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170944</v>
+        <v>0.176844</v>
       </c>
       <c r="C100" t="n">
-        <v>0.126634</v>
+        <v>0.118262</v>
       </c>
       <c r="D100" t="n">
-        <v>0.584183</v>
+        <v>0.573203</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187991</v>
+        <v>0.175132</v>
       </c>
       <c r="C101" t="n">
-        <v>0.130134</v>
+        <v>0.127815</v>
       </c>
       <c r="D101" t="n">
-        <v>0.607279</v>
+        <v>0.599332</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196992</v>
+        <v>0.195713</v>
       </c>
       <c r="C102" t="n">
-        <v>0.12719</v>
+        <v>0.13081</v>
       </c>
       <c r="D102" t="n">
-        <v>0.635548</v>
+        <v>0.624074</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.204277</v>
+        <v>0.20067</v>
       </c>
       <c r="C103" t="n">
-        <v>0.130581</v>
+        <v>0.131471</v>
       </c>
       <c r="D103" t="n">
-        <v>0.661624</v>
+        <v>0.651143</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.212218</v>
+        <v>0.219038</v>
       </c>
       <c r="C104" t="n">
-        <v>0.136182</v>
+        <v>0.14436</v>
       </c>
       <c r="D104" t="n">
-        <v>0.692949</v>
+        <v>0.680212</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.242774</v>
+        <v>0.242212</v>
       </c>
       <c r="C105" t="n">
-        <v>0.142184</v>
+        <v>0.14855</v>
       </c>
       <c r="D105" t="n">
-        <v>0.724677</v>
+        <v>0.710037</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.273676</v>
+        <v>0.285091</v>
       </c>
       <c r="C106" t="n">
-        <v>0.154478</v>
+        <v>0.157399</v>
       </c>
       <c r="D106" t="n">
-        <v>0.755118</v>
+        <v>0.742721</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.305169</v>
+        <v>0.320495</v>
       </c>
       <c r="C107" t="n">
-        <v>0.163546</v>
+        <v>0.173002</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5907289999999999</v>
+        <v>0.580411</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.37673</v>
+        <v>0.396873</v>
       </c>
       <c r="C108" t="n">
-        <v>0.122015</v>
+        <v>0.127595</v>
       </c>
       <c r="D108" t="n">
-        <v>0.612906</v>
+        <v>0.601602</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.470033</v>
+        <v>0.486394</v>
       </c>
       <c r="C109" t="n">
-        <v>0.121153</v>
+        <v>0.1301</v>
       </c>
       <c r="D109" t="n">
-        <v>0.6340980000000001</v>
+        <v>0.622718</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161901</v>
+        <v>0.171236</v>
       </c>
       <c r="C110" t="n">
-        <v>0.124593</v>
+        <v>0.13811</v>
       </c>
       <c r="D110" t="n">
-        <v>0.656208</v>
+        <v>0.644101</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.17603</v>
+        <v>0.175513</v>
       </c>
       <c r="C111" t="n">
-        <v>0.128674</v>
+        <v>0.134908</v>
       </c>
       <c r="D111" t="n">
-        <v>0.679512</v>
+        <v>0.667134</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.171384</v>
+        <v>0.180048</v>
       </c>
       <c r="C112" t="n">
-        <v>0.12774</v>
+        <v>0.137587</v>
       </c>
       <c r="D112" t="n">
-        <v>0.7025940000000001</v>
+        <v>0.690713</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.184089</v>
+        <v>0.188128</v>
       </c>
       <c r="C113" t="n">
-        <v>0.129863</v>
+        <v>0.139964</v>
       </c>
       <c r="D113" t="n">
-        <v>0.719557</v>
+        <v>0.715403</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.180133</v>
+        <v>0.201625</v>
       </c>
       <c r="C114" t="n">
-        <v>0.13213</v>
+        <v>0.142615</v>
       </c>
       <c r="D114" t="n">
-        <v>0.751336</v>
+        <v>0.741073</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.19433</v>
+        <v>0.211101</v>
       </c>
       <c r="C115" t="n">
-        <v>0.136474</v>
+        <v>0.145691</v>
       </c>
       <c r="D115" t="n">
-        <v>0.775237</v>
+        <v>0.766797</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.206011</v>
+        <v>0.220421</v>
       </c>
       <c r="C116" t="n">
-        <v>0.136123</v>
+        <v>0.148815</v>
       </c>
       <c r="D116" t="n">
-        <v>0.808577</v>
+        <v>0.794975</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.21574</v>
+        <v>0.222359</v>
       </c>
       <c r="C117" t="n">
-        <v>0.143683</v>
+        <v>0.152656</v>
       </c>
       <c r="D117" t="n">
-        <v>0.838069</v>
+        <v>0.82182</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.231935</v>
+        <v>0.243316</v>
       </c>
       <c r="C118" t="n">
-        <v>0.151034</v>
+        <v>0.157729</v>
       </c>
       <c r="D118" t="n">
-        <v>0.867181</v>
+        <v>0.851548</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.252107</v>
+        <v>0.260896</v>
       </c>
       <c r="C119" t="n">
-        <v>0.157591</v>
+        <v>0.164166</v>
       </c>
       <c r="D119" t="n">
-        <v>0.893288</v>
+        <v>0.88246</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.294296</v>
+        <v>0.299451</v>
       </c>
       <c r="C120" t="n">
-        <v>0.169472</v>
+        <v>0.173264</v>
       </c>
       <c r="D120" t="n">
-        <v>0.927778</v>
+        <v>0.9157690000000001</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.330196</v>
+        <v>0.339492</v>
       </c>
       <c r="C121" t="n">
-        <v>0.188307</v>
+        <v>0.191332</v>
       </c>
       <c r="D121" t="n">
-        <v>0.683376</v>
+        <v>0.667903</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.403384</v>
+        <v>0.401415</v>
       </c>
       <c r="C122" t="n">
-        <v>0.20881</v>
+        <v>0.21071</v>
       </c>
       <c r="D122" t="n">
-        <v>0.692654</v>
+        <v>0.687602</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492182</v>
+        <v>0.496862</v>
       </c>
       <c r="C123" t="n">
-        <v>0.143011</v>
+        <v>0.149846</v>
       </c>
       <c r="D123" t="n">
-        <v>0.724695</v>
+        <v>0.708737</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.199259</v>
+        <v>0.1892</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147307</v>
+        <v>0.147756</v>
       </c>
       <c r="D124" t="n">
-        <v>0.746652</v>
+        <v>0.731345</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.196598</v>
+        <v>0.197793</v>
       </c>
       <c r="C125" t="n">
-        <v>0.152815</v>
+        <v>0.149452</v>
       </c>
       <c r="D125" t="n">
-        <v>0.770089</v>
+        <v>0.753977</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.196961</v>
+        <v>0.194029</v>
       </c>
       <c r="C126" t="n">
-        <v>0.1589</v>
+        <v>0.151507</v>
       </c>
       <c r="D126" t="n">
-        <v>0.78351</v>
+        <v>0.77754</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201656</v>
+        <v>0.204843</v>
       </c>
       <c r="C127" t="n">
-        <v>0.148164</v>
+        <v>0.155175</v>
       </c>
       <c r="D127" t="n">
-        <v>0.819262</v>
+        <v>0.802573</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.211239</v>
+        <v>0.216024</v>
       </c>
       <c r="C128" t="n">
-        <v>0.162361</v>
+        <v>0.157991</v>
       </c>
       <c r="D128" t="n">
-        <v>0.845661</v>
+        <v>0.82848</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226019</v>
+        <v>0.226756</v>
       </c>
       <c r="C129" t="n">
-        <v>0.162036</v>
+        <v>0.158003</v>
       </c>
       <c r="D129" t="n">
-        <v>0.872096</v>
+        <v>0.855755</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.234149</v>
+        <v>0.223331</v>
       </c>
       <c r="C130" t="n">
-        <v>0.163237</v>
+        <v>0.165681</v>
       </c>
       <c r="D130" t="n">
-        <v>0.900403</v>
+        <v>0.882468</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.24631</v>
+        <v>0.241562</v>
       </c>
       <c r="C131" t="n">
-        <v>0.173238</v>
+        <v>0.172776</v>
       </c>
       <c r="D131" t="n">
-        <v>0.931124</v>
+        <v>0.912018</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265352</v>
+        <v>0.265311</v>
       </c>
       <c r="C132" t="n">
-        <v>0.165052</v>
+        <v>0.176083</v>
       </c>
       <c r="D132" t="n">
-        <v>0.962163</v>
+        <v>0.942844</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.277573</v>
+        <v>0.27424</v>
       </c>
       <c r="C133" t="n">
-        <v>0.173405</v>
+        <v>0.176833</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9937279999999999</v>
+        <v>0.975467</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.304653</v>
+        <v>0.314797</v>
       </c>
       <c r="C134" t="n">
-        <v>0.189059</v>
+        <v>0.187601</v>
       </c>
       <c r="D134" t="n">
-        <v>1.02782</v>
+        <v>1.00992</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349815</v>
+        <v>0.349521</v>
       </c>
       <c r="C135" t="n">
-        <v>0.20387</v>
+        <v>0.200615</v>
       </c>
       <c r="D135" t="n">
-        <v>0.7080920000000001</v>
+        <v>0.691203</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.411822</v>
+        <v>0.408704</v>
       </c>
       <c r="C136" t="n">
-        <v>0.219084</v>
+        <v>0.220154</v>
       </c>
       <c r="D136" t="n">
-        <v>0.725893</v>
+        <v>0.708243</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.503296</v>
+        <v>0.50549</v>
       </c>
       <c r="C137" t="n">
-        <v>0.298549</v>
+        <v>0.261311</v>
       </c>
       <c r="D137" t="n">
-        <v>0.743085</v>
+        <v>0.72686</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.33805</v>
+        <v>0.333571</v>
       </c>
       <c r="C138" t="n">
-        <v>0.273502</v>
+        <v>0.26673</v>
       </c>
       <c r="D138" t="n">
-        <v>0.762853</v>
+        <v>0.746031</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334448</v>
+        <v>0.341144</v>
       </c>
       <c r="C139" t="n">
-        <v>0.284812</v>
+        <v>0.271284</v>
       </c>
       <c r="D139" t="n">
-        <v>0.784474</v>
+        <v>0.766212</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.340053</v>
+        <v>0.346845</v>
       </c>
       <c r="C140" t="n">
-        <v>0.260656</v>
+        <v>0.272986</v>
       </c>
       <c r="D140" t="n">
-        <v>0.805918</v>
+        <v>0.787382</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346829</v>
+        <v>0.347783</v>
       </c>
       <c r="C141" t="n">
-        <v>0.282737</v>
+        <v>0.270257</v>
       </c>
       <c r="D141" t="n">
-        <v>0.827831</v>
+        <v>0.809649</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.358406</v>
+        <v>0.35444</v>
       </c>
       <c r="C142" t="n">
-        <v>0.290192</v>
+        <v>0.2696</v>
       </c>
       <c r="D142" t="n">
-        <v>0.852832</v>
+        <v>0.832871</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.35914</v>
+        <v>0.364861</v>
       </c>
       <c r="C143" t="n">
-        <v>0.289114</v>
+        <v>0.275591</v>
       </c>
       <c r="D143" t="n">
-        <v>0.875064</v>
+        <v>0.85768</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3246,13 +3246,13 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103263</v>
+        <v>0.103518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08233509999999999</v>
+        <v>0.08232589999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.178167</v>
+        <v>0.176711</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3260,13 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.108352</v>
+        <v>0.108177</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0819091</v>
+        <v>0.08207</v>
       </c>
       <c r="D3" t="n">
-        <v>0.18603</v>
+        <v>0.183953</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3274,13 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.122859</v>
+        <v>0.123108</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0816414</v>
+        <v>0.08147459999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>0.191834</v>
+        <v>0.19085</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3288,13 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138571</v>
+        <v>0.138784</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0818902</v>
+        <v>0.0816747</v>
       </c>
       <c r="D5" t="n">
-        <v>0.197733</v>
+        <v>0.198639</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3302,13 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172484</v>
+        <v>0.172512</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0829395</v>
+        <v>0.0828036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.204314</v>
+        <v>0.206416</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3316,13 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.193843</v>
+        <v>0.193696</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08647340000000001</v>
+        <v>0.08669300000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.153534</v>
+        <v>0.154715</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3330,13 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.241651</v>
+        <v>0.242103</v>
       </c>
       <c r="C8" t="n">
-        <v>0.10281</v>
+        <v>0.102891</v>
       </c>
       <c r="D8" t="n">
-        <v>0.160846</v>
+        <v>0.16126</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3344,13 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.291714</v>
+        <v>0.291411</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0817657</v>
+        <v>0.0818107</v>
       </c>
       <c r="D9" t="n">
-        <v>0.167281</v>
+        <v>0.168336</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3358,13 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09422700000000001</v>
+        <v>0.09429510000000001</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08205519999999999</v>
+        <v>0.08205659999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175127</v>
+        <v>0.175171</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3372,13 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0953064</v>
+        <v>0.0957668</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08230170000000001</v>
+        <v>0.0823845</v>
       </c>
       <c r="D11" t="n">
-        <v>0.182569</v>
+        <v>0.182481</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3386,13 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0973241</v>
+        <v>0.09675789999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08253630000000001</v>
+        <v>0.0826142</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19031</v>
+        <v>0.190361</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3400,13 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09912070000000001</v>
+        <v>0.0986223</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0826894</v>
+        <v>0.08269020000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197132</v>
+        <v>0.197525</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3414,13 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101084</v>
+        <v>0.101647</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0828467</v>
+        <v>0.0828618</v>
       </c>
       <c r="D14" t="n">
-        <v>0.203367</v>
+        <v>0.202911</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3428,13 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105616</v>
+        <v>0.10535</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08329209999999999</v>
+        <v>0.0833474</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211607</v>
+        <v>0.211507</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3442,13 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.119777</v>
+        <v>0.111239</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0862957</v>
+        <v>0.0833025</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216689</v>
+        <v>0.217362</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3456,13 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121485</v>
+        <v>0.120107</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0859684</v>
+        <v>0.0836643</v>
       </c>
       <c r="D17" t="n">
-        <v>0.222346</v>
+        <v>0.223066</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3470,13 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130605</v>
+        <v>0.130708</v>
       </c>
       <c r="C18" t="n">
-        <v>0.08716459999999999</v>
+        <v>0.0839034</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229335</v>
+        <v>0.229267</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3484,13 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.148101</v>
+        <v>0.145615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0877631</v>
+        <v>0.0849333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234697</v>
+        <v>0.234634</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3498,13 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.173795</v>
+        <v>0.167495</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0876223</v>
+        <v>0.0892173</v>
       </c>
       <c r="D20" t="n">
-        <v>0.240814</v>
+        <v>0.241161</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3512,13 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.198313</v>
+        <v>0.195897</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09578929999999999</v>
+        <v>0.09558460000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1763</v>
+        <v>0.17684</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3526,13 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240459</v>
+        <v>0.234419</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110644</v>
+        <v>0.110609</v>
       </c>
       <c r="D22" t="n">
-        <v>0.183841</v>
+        <v>0.184039</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3540,13 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.282059</v>
+        <v>0.281264</v>
       </c>
       <c r="C23" t="n">
-        <v>0.08524950000000001</v>
+        <v>0.0829698</v>
       </c>
       <c r="D23" t="n">
-        <v>0.190889</v>
+        <v>0.19083</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3554,13 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.104887</v>
+        <v>0.100419</v>
       </c>
       <c r="C24" t="n">
-        <v>0.087016</v>
+        <v>0.08472150000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>0.197887</v>
+        <v>0.198081</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3568,13 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.105481</v>
+        <v>0.101675</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0892748</v>
+        <v>0.0844307</v>
       </c>
       <c r="D25" t="n">
-        <v>0.205603</v>
+        <v>0.204814</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3582,13 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103301</v>
+        <v>0.103684</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0949498</v>
+        <v>0.0853174</v>
       </c>
       <c r="D26" t="n">
-        <v>0.211785</v>
+        <v>0.212262</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3596,13 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.114429</v>
+        <v>0.108973</v>
       </c>
       <c r="C27" t="n">
-        <v>0.0839935</v>
+        <v>0.08545369999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218499</v>
+        <v>0.218441</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3610,13 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.110979</v>
+        <v>0.111431</v>
       </c>
       <c r="C28" t="n">
-        <v>0.086711</v>
+        <v>0.0842309</v>
       </c>
       <c r="D28" t="n">
-        <v>0.224493</v>
+        <v>0.224957</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3624,13 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115479</v>
+        <v>0.116382</v>
       </c>
       <c r="C29" t="n">
-        <v>0.08674320000000001</v>
+        <v>0.0846034</v>
       </c>
       <c r="D29" t="n">
-        <v>0.231376</v>
+        <v>0.231651</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3638,13 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11938</v>
+        <v>0.119354</v>
       </c>
       <c r="C30" t="n">
-        <v>0.08920450000000001</v>
+        <v>0.0851046</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236676</v>
+        <v>0.236449</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3652,13 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134538</v>
+        <v>0.133064</v>
       </c>
       <c r="C31" t="n">
-        <v>0.09015280000000001</v>
+        <v>0.0879626</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241582</v>
+        <v>0.241275</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3666,13 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.145767</v>
+        <v>0.138357</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0874557</v>
+        <v>0.0871494</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248228</v>
+        <v>0.247255</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3680,13 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.151545</v>
+        <v>0.157321</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0911145</v>
+        <v>0.0974059</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253457</v>
+        <v>0.253286</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3694,13 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.17816</v>
+        <v>0.169137</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0967372</v>
+        <v>0.0950743</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25893</v>
+        <v>0.258928</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3708,13 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.204897</v>
+        <v>0.208331</v>
       </c>
       <c r="C35" t="n">
-        <v>0.104394</v>
+        <v>0.103638</v>
       </c>
       <c r="D35" t="n">
-        <v>0.189135</v>
+        <v>0.18889</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3722,13 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.228751</v>
+        <v>0.238945</v>
       </c>
       <c r="C36" t="n">
-        <v>0.116639</v>
+        <v>0.131745</v>
       </c>
       <c r="D36" t="n">
-        <v>0.195863</v>
+        <v>0.195527</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3736,13 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280149</v>
+        <v>0.283565</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0839942</v>
+        <v>0.08478960000000001</v>
       </c>
       <c r="D37" t="n">
-        <v>0.203421</v>
+        <v>0.203201</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3750,13 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.107855</v>
+        <v>0.104802</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0852598</v>
+        <v>0.0932859</v>
       </c>
       <c r="D38" t="n">
-        <v>0.209409</v>
+        <v>0.209556</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3764,13 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.113049</v>
+        <v>0.105941</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0861846</v>
+        <v>0.0856103</v>
       </c>
       <c r="D39" t="n">
-        <v>0.21608</v>
+        <v>0.216186</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3778,13 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.111783</v>
+        <v>0.107662</v>
       </c>
       <c r="C40" t="n">
-        <v>0.089348</v>
+        <v>0.089452</v>
       </c>
       <c r="D40" t="n">
-        <v>0.222962</v>
+        <v>0.223029</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3792,13 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109478</v>
+        <v>0.11067</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0851428</v>
+        <v>0.0880435</v>
       </c>
       <c r="D41" t="n">
-        <v>0.229006</v>
+        <v>0.228743</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3806,13 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.120486</v>
+        <v>0.114048</v>
       </c>
       <c r="C42" t="n">
-        <v>0.08728</v>
+        <v>0.0898989</v>
       </c>
       <c r="D42" t="n">
-        <v>0.23578</v>
+        <v>0.235652</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3820,13 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.124807</v>
+        <v>0.116625</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0860195</v>
+        <v>0.09494420000000001</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241742</v>
+        <v>0.241529</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3834,13 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.123439</v>
+        <v>0.123103</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0871189</v>
+        <v>0.0947419</v>
       </c>
       <c r="D44" t="n">
-        <v>0.24776</v>
+        <v>0.24779</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3848,13 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128476</v>
+        <v>0.128667</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0877425</v>
+        <v>0.0878033</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253751</v>
+        <v>0.253512</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3862,13 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137378</v>
+        <v>0.143866</v>
       </c>
       <c r="C46" t="n">
-        <v>0.08920350000000001</v>
+        <v>0.0905</v>
       </c>
       <c r="D46" t="n">
-        <v>0.259591</v>
+        <v>0.25917</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +3876,13 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.151103</v>
+        <v>0.149517</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0920397</v>
+        <v>0.0918964</v>
       </c>
       <c r="D47" t="n">
-        <v>0.26513</v>
+        <v>0.264878</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +3890,13 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.166378</v>
+        <v>0.169146</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0982398</v>
+        <v>0.0959222</v>
       </c>
       <c r="D48" t="n">
-        <v>0.271394</v>
+        <v>0.270854</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +3904,13 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190975</v>
+        <v>0.188495</v>
       </c>
       <c r="C49" t="n">
-        <v>0.108</v>
+        <v>0.101659</v>
       </c>
       <c r="D49" t="n">
-        <v>0.27751</v>
+        <v>0.276708</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +3918,13 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224552</v>
+        <v>0.225653</v>
       </c>
       <c r="C50" t="n">
-        <v>0.120639</v>
+        <v>0.111348</v>
       </c>
       <c r="D50" t="n">
-        <v>0.196279</v>
+        <v>0.19638</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +3932,13 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.267352</v>
+        <v>0.267167</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0886927</v>
+        <v>0.0888577</v>
       </c>
       <c r="D51" t="n">
-        <v>0.202783</v>
+        <v>0.203077</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +3946,13 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.32153</v>
+        <v>0.31946</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0863824</v>
+        <v>0.0909623</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209198</v>
+        <v>0.209175</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +3960,13 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.118336</v>
+        <v>0.110326</v>
       </c>
       <c r="C53" t="n">
-        <v>0.0865966</v>
+        <v>0.08746420000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>0.216011</v>
+        <v>0.215928</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +3974,13 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.11216</v>
+        <v>0.112175</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0886305</v>
+        <v>0.0922212</v>
       </c>
       <c r="D54" t="n">
-        <v>0.222182</v>
+        <v>0.222113</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +3988,13 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.114288</v>
+        <v>0.115615</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0917386</v>
+        <v>0.0917289</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228158</v>
+        <v>0.228423</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4002,13 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.122067</v>
+        <v>0.116503</v>
       </c>
       <c r="C56" t="n">
-        <v>0.08865580000000001</v>
+        <v>0.0943785</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234277</v>
+        <v>0.234321</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4016,13 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.120309</v>
+        <v>0.1201</v>
       </c>
       <c r="C57" t="n">
-        <v>0.0912565</v>
+        <v>0.08845459999999999</v>
       </c>
       <c r="D57" t="n">
-        <v>0.239764</v>
+        <v>0.239964</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4030,13 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126471</v>
+        <v>0.12962</v>
       </c>
       <c r="C58" t="n">
-        <v>0.091198</v>
+        <v>0.0898772</v>
       </c>
       <c r="D58" t="n">
-        <v>0.245269</v>
+        <v>0.245229</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4044,13 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.142277</v>
+        <v>0.141096</v>
       </c>
       <c r="C59" t="n">
-        <v>0.0922118</v>
+        <v>0.09187960000000001</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250659</v>
+        <v>0.250512</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4058,13 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139964</v>
+        <v>0.150763</v>
       </c>
       <c r="C60" t="n">
-        <v>0.102909</v>
+        <v>0.09351950000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255336</v>
+        <v>0.255236</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4072,13 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.156216</v>
+        <v>0.152705</v>
       </c>
       <c r="C61" t="n">
-        <v>0.103917</v>
+        <v>0.10021</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260669</v>
+        <v>0.260702</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4086,13 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.16926</v>
+        <v>0.167089</v>
       </c>
       <c r="C62" t="n">
-        <v>0.105788</v>
+        <v>0.0974879</v>
       </c>
       <c r="D62" t="n">
-        <v>0.266724</v>
+        <v>0.266844</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4100,13 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188594</v>
+        <v>0.188503</v>
       </c>
       <c r="C63" t="n">
-        <v>0.102757</v>
+        <v>0.102214</v>
       </c>
       <c r="D63" t="n">
-        <v>0.272415</v>
+        <v>0.273248</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4114,13 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.22108</v>
+        <v>0.221074</v>
       </c>
       <c r="C64" t="n">
-        <v>0.117756</v>
+        <v>0.111277</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201265</v>
+        <v>0.201322</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4128,13 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266827</v>
+        <v>0.260462</v>
       </c>
       <c r="C65" t="n">
-        <v>0.136555</v>
+        <v>0.13663</v>
       </c>
       <c r="D65" t="n">
-        <v>0.207506</v>
+        <v>0.206728</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4142,13 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.335898</v>
+        <v>0.318306</v>
       </c>
       <c r="C66" t="n">
-        <v>0.09749099999999999</v>
+        <v>0.0964182</v>
       </c>
       <c r="D66" t="n">
-        <v>0.214623</v>
+        <v>0.214555</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4156,13 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121663</v>
+        <v>0.131952</v>
       </c>
       <c r="C67" t="n">
-        <v>0.09834039999999999</v>
+        <v>0.0987677</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223957</v>
+        <v>0.223852</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4170,13 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.132789</v>
+        <v>0.133381</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0986924</v>
+        <v>0.0992135</v>
       </c>
       <c r="D68" t="n">
-        <v>0.230961</v>
+        <v>0.231668</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4184,13 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.12737</v>
+        <v>0.135876</v>
       </c>
       <c r="C69" t="n">
-        <v>0.0950873</v>
+        <v>0.106051</v>
       </c>
       <c r="D69" t="n">
-        <v>0.240026</v>
+        <v>0.238982</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4198,13 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.137958</v>
+        <v>0.128972</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0989042</v>
+        <v>0.0995813</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250612</v>
+        <v>0.247924</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4212,13 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.140921</v>
+        <v>0.132326</v>
       </c>
       <c r="C71" t="n">
-        <v>0.100761</v>
+        <v>0.09654020000000001</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260141</v>
+        <v>0.259422</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4226,13 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137215</v>
+        <v>0.137679</v>
       </c>
       <c r="C72" t="n">
-        <v>0.0972005</v>
+        <v>0.100014</v>
       </c>
       <c r="D72" t="n">
-        <v>0.271145</v>
+        <v>0.267859</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4240,13 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.143646</v>
+        <v>0.153585</v>
       </c>
       <c r="C73" t="n">
-        <v>0.106867</v>
+        <v>0.105176</v>
       </c>
       <c r="D73" t="n">
-        <v>0.280992</v>
+        <v>0.277688</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4254,13 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161053</v>
+        <v>0.150943</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104717</v>
+        <v>0.104648</v>
       </c>
       <c r="D74" t="n">
-        <v>0.294111</v>
+        <v>0.289796</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4268,13 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.170026</v>
+        <v>0.16173</v>
       </c>
       <c r="C75" t="n">
-        <v>0.107654</v>
+        <v>0.10182</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310064</v>
+        <v>0.305025</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4282,13 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176412</v>
+        <v>0.186175</v>
       </c>
       <c r="C76" t="n">
-        <v>0.116985</v>
+        <v>0.108268</v>
       </c>
       <c r="D76" t="n">
-        <v>0.324659</v>
+        <v>0.321822</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4296,13 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.194078</v>
+        <v>0.197903</v>
       </c>
       <c r="C77" t="n">
-        <v>0.109399</v>
+        <v>0.110923</v>
       </c>
       <c r="D77" t="n">
-        <v>0.33938</v>
+        <v>0.340716</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4310,13 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.238379</v>
+        <v>0.222974</v>
       </c>
       <c r="C78" t="n">
-        <v>0.124657</v>
+        <v>0.12426</v>
       </c>
       <c r="D78" t="n">
-        <v>0.264838</v>
+        <v>0.26625</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4324,13 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.26582</v>
+        <v>0.266515</v>
       </c>
       <c r="C79" t="n">
-        <v>0.138495</v>
+        <v>0.138892</v>
       </c>
       <c r="D79" t="n">
-        <v>0.281644</v>
+        <v>0.283705</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4338,13 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.323739</v>
+        <v>0.333724</v>
       </c>
       <c r="C80" t="n">
-        <v>0.10736</v>
+        <v>0.10604</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29867</v>
+        <v>0.298862</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4352,13 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.138759</v>
+        <v>0.140945</v>
       </c>
       <c r="C81" t="n">
-        <v>0.10662</v>
+        <v>0.100981</v>
       </c>
       <c r="D81" t="n">
-        <v>0.318817</v>
+        <v>0.317147</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4366,13 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137406</v>
+        <v>0.145455</v>
       </c>
       <c r="C82" t="n">
-        <v>0.10758</v>
+        <v>0.10184</v>
       </c>
       <c r="D82" t="n">
-        <v>0.33779</v>
+        <v>0.338136</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4380,13 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.149048</v>
+        <v>0.139758</v>
       </c>
       <c r="C83" t="n">
-        <v>0.105997</v>
+        <v>0.107602</v>
       </c>
       <c r="D83" t="n">
-        <v>0.357875</v>
+        <v>0.358008</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4394,13 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151559</v>
+        <v>0.147898</v>
       </c>
       <c r="C84" t="n">
-        <v>0.108352</v>
+        <v>0.102357</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379192</v>
+        <v>0.379214</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4408,13 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.153148</v>
+        <v>0.144922</v>
       </c>
       <c r="C85" t="n">
-        <v>0.107125</v>
+        <v>0.10317</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400301</v>
+        <v>0.401338</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4422,13 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150484</v>
+        <v>0.159707</v>
       </c>
       <c r="C86" t="n">
-        <v>0.111276</v>
+        <v>0.104368</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422913</v>
+        <v>0.422531</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4436,13 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.166562</v>
+        <v>0.155655</v>
       </c>
       <c r="C87" t="n">
-        <v>0.11121</v>
+        <v>0.105012</v>
       </c>
       <c r="D87" t="n">
-        <v>0.446039</v>
+        <v>0.446209</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4450,13 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.173161</v>
+        <v>0.163386</v>
       </c>
       <c r="C88" t="n">
-        <v>0.106759</v>
+        <v>0.106761</v>
       </c>
       <c r="D88" t="n">
-        <v>0.470397</v>
+        <v>0.469022</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4464,13 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.174011</v>
+        <v>0.173591</v>
       </c>
       <c r="C89" t="n">
-        <v>0.114563</v>
+        <v>0.109294</v>
       </c>
       <c r="D89" t="n">
-        <v>0.495413</v>
+        <v>0.494943</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4478,13 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.19021</v>
+        <v>0.187707</v>
       </c>
       <c r="C90" t="n">
-        <v>0.118842</v>
+        <v>0.112465</v>
       </c>
       <c r="D90" t="n">
-        <v>0.521072</v>
+        <v>0.521006</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4492,13 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.219</v>
+        <v>0.212107</v>
       </c>
       <c r="C91" t="n">
-        <v>0.123299</v>
+        <v>0.12477</v>
       </c>
       <c r="D91" t="n">
-        <v>0.54874</v>
+        <v>0.548238</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4506,13 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.249224</v>
+        <v>0.237231</v>
       </c>
       <c r="C92" t="n">
-        <v>0.131567</v>
+        <v>0.133593</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412221</v>
+        <v>0.411961</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4520,13 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.280481</v>
+        <v>0.278257</v>
       </c>
       <c r="C93" t="n">
-        <v>0.141631</v>
+        <v>0.139457</v>
       </c>
       <c r="D93" t="n">
-        <v>0.430316</v>
+        <v>0.431134</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4534,13 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.341978</v>
+        <v>0.344216</v>
       </c>
       <c r="C94" t="n">
-        <v>0.106261</v>
+        <v>0.106231</v>
       </c>
       <c r="D94" t="n">
-        <v>0.447374</v>
+        <v>0.448021</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4548,13 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.14448</v>
+        <v>0.153032</v>
       </c>
       <c r="C95" t="n">
-        <v>0.112662</v>
+        <v>0.111739</v>
       </c>
       <c r="D95" t="n">
-        <v>0.467204</v>
+        <v>0.468583</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4562,13 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.157661</v>
+        <v>0.156659</v>
       </c>
       <c r="C96" t="n">
-        <v>0.10876</v>
+        <v>0.108579</v>
       </c>
       <c r="D96" t="n">
-        <v>0.486024</v>
+        <v>0.488115</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4576,13 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.150242</v>
+        <v>0.150304</v>
       </c>
       <c r="C97" t="n">
-        <v>0.11049</v>
+        <v>0.115198</v>
       </c>
       <c r="D97" t="n">
-        <v>0.507674</v>
+        <v>0.508427</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4590,13 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.154611</v>
+        <v>0.154143</v>
       </c>
       <c r="C98" t="n">
-        <v>0.112224</v>
+        <v>0.113957</v>
       </c>
       <c r="D98" t="n">
-        <v>0.529296</v>
+        <v>0.529464</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4604,13 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.169757</v>
+        <v>0.159488</v>
       </c>
       <c r="C99" t="n">
-        <v>0.115473</v>
+        <v>0.119006</v>
       </c>
       <c r="D99" t="n">
-        <v>0.549778</v>
+        <v>0.551983</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4618,13 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.176844</v>
+        <v>0.166411</v>
       </c>
       <c r="C100" t="n">
-        <v>0.118262</v>
+        <v>0.11802</v>
       </c>
       <c r="D100" t="n">
-        <v>0.573203</v>
+        <v>0.575329</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4632,13 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.175132</v>
+        <v>0.185862</v>
       </c>
       <c r="C101" t="n">
-        <v>0.127815</v>
+        <v>0.122144</v>
       </c>
       <c r="D101" t="n">
-        <v>0.599332</v>
+        <v>0.598952</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4646,13 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.195713</v>
+        <v>0.197589</v>
       </c>
       <c r="C102" t="n">
-        <v>0.13081</v>
+        <v>0.126564</v>
       </c>
       <c r="D102" t="n">
-        <v>0.624074</v>
+        <v>0.625539</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4660,13 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.20067</v>
+        <v>0.206142</v>
       </c>
       <c r="C103" t="n">
-        <v>0.131471</v>
+        <v>0.131687</v>
       </c>
       <c r="D103" t="n">
-        <v>0.651143</v>
+        <v>0.652089</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4674,13 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219038</v>
+        <v>0.229097</v>
       </c>
       <c r="C104" t="n">
-        <v>0.14436</v>
+        <v>0.141329</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680212</v>
+        <v>0.679732</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4688,13 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.242212</v>
+        <v>0.242985</v>
       </c>
       <c r="C105" t="n">
-        <v>0.14855</v>
+        <v>0.146579</v>
       </c>
       <c r="D105" t="n">
-        <v>0.710037</v>
+        <v>0.710205</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +4702,13 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.285091</v>
+        <v>0.274943</v>
       </c>
       <c r="C106" t="n">
-        <v>0.157399</v>
+        <v>0.161878</v>
       </c>
       <c r="D106" t="n">
-        <v>0.742721</v>
+        <v>0.743339</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +4716,13 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.320495</v>
+        <v>0.330679</v>
       </c>
       <c r="C107" t="n">
-        <v>0.173002</v>
+        <v>0.179872</v>
       </c>
       <c r="D107" t="n">
-        <v>0.580411</v>
+        <v>0.582525</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +4730,13 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.396873</v>
+        <v>0.385801</v>
       </c>
       <c r="C108" t="n">
-        <v>0.127595</v>
+        <v>0.127389</v>
       </c>
       <c r="D108" t="n">
-        <v>0.601602</v>
+        <v>0.60297</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +4744,13 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.486394</v>
+        <v>0.483648</v>
       </c>
       <c r="C109" t="n">
-        <v>0.1301</v>
+        <v>0.129834</v>
       </c>
       <c r="D109" t="n">
-        <v>0.622718</v>
+        <v>0.623864</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +4758,13 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.171236</v>
+        <v>0.171402</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13811</v>
+        <v>0.13241</v>
       </c>
       <c r="D110" t="n">
-        <v>0.644101</v>
+        <v>0.64622</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +4772,13 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175513</v>
+        <v>0.184929</v>
       </c>
       <c r="C111" t="n">
-        <v>0.134908</v>
+        <v>0.134802</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667134</v>
+        <v>0.669175</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +4786,13 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.180048</v>
+        <v>0.179984</v>
       </c>
       <c r="C112" t="n">
-        <v>0.137587</v>
+        <v>0.137234</v>
       </c>
       <c r="D112" t="n">
-        <v>0.690713</v>
+        <v>0.692761</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +4800,13 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.188128</v>
+        <v>0.185234</v>
       </c>
       <c r="C113" t="n">
-        <v>0.139964</v>
+        <v>0.139666</v>
       </c>
       <c r="D113" t="n">
-        <v>0.715403</v>
+        <v>0.717168</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +4814,13 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.201625</v>
+        <v>0.191706</v>
       </c>
       <c r="C114" t="n">
-        <v>0.142615</v>
+        <v>0.142388</v>
       </c>
       <c r="D114" t="n">
-        <v>0.741073</v>
+        <v>0.742206</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +4828,13 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.211101</v>
+        <v>0.200203</v>
       </c>
       <c r="C115" t="n">
-        <v>0.145691</v>
+        <v>0.145204</v>
       </c>
       <c r="D115" t="n">
-        <v>0.766797</v>
+        <v>0.768497</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +4842,13 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.220421</v>
+        <v>0.22035</v>
       </c>
       <c r="C116" t="n">
-        <v>0.148815</v>
+        <v>0.148717</v>
       </c>
       <c r="D116" t="n">
-        <v>0.794975</v>
+        <v>0.794693</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +4856,13 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222359</v>
+        <v>0.232094</v>
       </c>
       <c r="C117" t="n">
-        <v>0.152656</v>
+        <v>0.15246</v>
       </c>
       <c r="D117" t="n">
-        <v>0.82182</v>
+        <v>0.823578</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +4870,13 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.243316</v>
+        <v>0.238006</v>
       </c>
       <c r="C118" t="n">
-        <v>0.157729</v>
+        <v>0.157624</v>
       </c>
       <c r="D118" t="n">
-        <v>0.851548</v>
+        <v>0.852356</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +4884,13 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260896</v>
+        <v>0.266951</v>
       </c>
       <c r="C119" t="n">
-        <v>0.164166</v>
+        <v>0.16434</v>
       </c>
       <c r="D119" t="n">
-        <v>0.88246</v>
+        <v>0.88392</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +4898,13 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.299451</v>
+        <v>0.288912</v>
       </c>
       <c r="C120" t="n">
-        <v>0.173264</v>
+        <v>0.173271</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9157690000000001</v>
+        <v>0.917566</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +4912,13 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.339492</v>
+        <v>0.340777</v>
       </c>
       <c r="C121" t="n">
-        <v>0.191332</v>
+        <v>0.195988</v>
       </c>
       <c r="D121" t="n">
-        <v>0.667903</v>
+        <v>0.667986</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +4926,13 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.401415</v>
+        <v>0.407499</v>
       </c>
       <c r="C122" t="n">
-        <v>0.21071</v>
+        <v>0.210964</v>
       </c>
       <c r="D122" t="n">
-        <v>0.687602</v>
+        <v>0.688191</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +4940,13 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.496862</v>
+        <v>0.494356</v>
       </c>
       <c r="C123" t="n">
-        <v>0.149846</v>
+        <v>0.151222</v>
       </c>
       <c r="D123" t="n">
-        <v>0.708737</v>
+        <v>0.709338</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +4954,13 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.1892</v>
+        <v>0.198457</v>
       </c>
       <c r="C124" t="n">
-        <v>0.147756</v>
+        <v>0.145811</v>
       </c>
       <c r="D124" t="n">
-        <v>0.731345</v>
+        <v>0.731348</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +4968,13 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.197793</v>
+        <v>0.192643</v>
       </c>
       <c r="C125" t="n">
-        <v>0.149452</v>
+        <v>0.148008</v>
       </c>
       <c r="D125" t="n">
-        <v>0.753977</v>
+        <v>0.753688</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +4982,13 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.194029</v>
+        <v>0.195427</v>
       </c>
       <c r="C126" t="n">
-        <v>0.151507</v>
+        <v>0.151094</v>
       </c>
       <c r="D126" t="n">
-        <v>0.77754</v>
+        <v>0.777394</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +4996,13 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.204843</v>
+        <v>0.20297</v>
       </c>
       <c r="C127" t="n">
-        <v>0.155175</v>
+        <v>0.153819</v>
       </c>
       <c r="D127" t="n">
-        <v>0.802573</v>
+        <v>0.802175</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5010,13 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.216024</v>
+        <v>0.216634</v>
       </c>
       <c r="C128" t="n">
-        <v>0.157991</v>
+        <v>0.15725</v>
       </c>
       <c r="D128" t="n">
-        <v>0.82848</v>
+        <v>0.828304</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5024,13 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226756</v>
+        <v>0.226457</v>
       </c>
       <c r="C129" t="n">
-        <v>0.158003</v>
+        <v>0.159556</v>
       </c>
       <c r="D129" t="n">
-        <v>0.855755</v>
+        <v>0.8553190000000001</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5038,13 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.223331</v>
+        <v>0.239016</v>
       </c>
       <c r="C130" t="n">
-        <v>0.165681</v>
+        <v>0.16686</v>
       </c>
       <c r="D130" t="n">
-        <v>0.882468</v>
+        <v>0.883228</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5052,13 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.241562</v>
+        <v>0.251862</v>
       </c>
       <c r="C131" t="n">
-        <v>0.172776</v>
+        <v>0.167428</v>
       </c>
       <c r="D131" t="n">
-        <v>0.912018</v>
+        <v>0.913185</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5066,13 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.265311</v>
+        <v>0.256612</v>
       </c>
       <c r="C132" t="n">
-        <v>0.176083</v>
+        <v>0.17944</v>
       </c>
       <c r="D132" t="n">
-        <v>0.942844</v>
+        <v>0.944308</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5080,13 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.27424</v>
+        <v>0.283444</v>
       </c>
       <c r="C133" t="n">
-        <v>0.176833</v>
+        <v>0.177834</v>
       </c>
       <c r="D133" t="n">
-        <v>0.975467</v>
+        <v>0.976227</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5094,13 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.314797</v>
+        <v>0.318477</v>
       </c>
       <c r="C134" t="n">
-        <v>0.187601</v>
+        <v>0.18427</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00992</v>
+        <v>1.01038</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5108,13 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.349521</v>
+        <v>0.350414</v>
       </c>
       <c r="C135" t="n">
-        <v>0.200615</v>
+        <v>0.197733</v>
       </c>
       <c r="D135" t="n">
-        <v>0.691203</v>
+        <v>0.690519</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5122,13 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.408704</v>
+        <v>0.420566</v>
       </c>
       <c r="C136" t="n">
-        <v>0.220154</v>
+        <v>0.223409</v>
       </c>
       <c r="D136" t="n">
-        <v>0.708243</v>
+        <v>0.708055</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5136,13 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.50549</v>
+        <v>0.507259</v>
       </c>
       <c r="C137" t="n">
-        <v>0.261311</v>
+        <v>0.264351</v>
       </c>
       <c r="D137" t="n">
-        <v>0.72686</v>
+        <v>0.726391</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5150,13 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.333571</v>
+        <v>0.336019</v>
       </c>
       <c r="C138" t="n">
-        <v>0.26673</v>
+        <v>0.266441</v>
       </c>
       <c r="D138" t="n">
-        <v>0.746031</v>
+        <v>0.745886</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5164,13 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.341144</v>
+        <v>0.340818</v>
       </c>
       <c r="C139" t="n">
-        <v>0.271284</v>
+        <v>0.268618</v>
       </c>
       <c r="D139" t="n">
-        <v>0.766212</v>
+        <v>0.765734</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5178,13 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.346845</v>
+        <v>0.341356</v>
       </c>
       <c r="C140" t="n">
-        <v>0.272986</v>
+        <v>0.271066</v>
       </c>
       <c r="D140" t="n">
-        <v>0.787382</v>
+        <v>0.787222</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5192,13 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347783</v>
+        <v>0.346816</v>
       </c>
       <c r="C141" t="n">
-        <v>0.270257</v>
+        <v>0.2751</v>
       </c>
       <c r="D141" t="n">
-        <v>0.809649</v>
+        <v>0.809178</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5206,13 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35444</v>
+        <v>0.363407</v>
       </c>
       <c r="C142" t="n">
-        <v>0.2696</v>
+        <v>0.271864</v>
       </c>
       <c r="D142" t="n">
-        <v>0.832871</v>
+        <v>0.832699</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5220,13 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.364861</v>
+        <v>0.359341</v>
       </c>
       <c r="C143" t="n">
-        <v>0.275591</v>
+        <v>0.281801</v>
       </c>
       <c r="D143" t="n">
-        <v>0.85768</v>
+        <v>0.857394</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3213,7 +3213,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D143"/>
+  <dimension ref="A1:E143"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="G23" sqref="G23"/>
@@ -3246,13 +3246,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.103518</v>
+        <v>0.104029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08232589999999999</v>
+        <v>0.178813</v>
       </c>
       <c r="D2" t="n">
-        <v>0.176711</v>
+        <v>0.0825723</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.0825055</v>
       </c>
     </row>
     <row r="3">
@@ -3260,13 +3263,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.108177</v>
+        <v>0.111142</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08207</v>
+        <v>0.185673</v>
       </c>
       <c r="D3" t="n">
-        <v>0.183953</v>
+        <v>0.0808807</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.08079119999999999</v>
       </c>
     </row>
     <row r="4">
@@ -3274,13 +3280,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123108</v>
+        <v>0.126321</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08147459999999999</v>
+        <v>0.193136</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19085</v>
+        <v>0.0818097</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.0813899</v>
       </c>
     </row>
     <row r="5">
@@ -3288,13 +3297,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.138784</v>
+        <v>0.148372</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0816747</v>
+        <v>0.199849</v>
       </c>
       <c r="D5" t="n">
-        <v>0.198639</v>
+        <v>0.08167580000000001</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.081871</v>
       </c>
     </row>
     <row r="6">
@@ -3302,13 +3314,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.172512</v>
+        <v>0.163169</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0828036</v>
+        <v>0.206692</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206416</v>
+        <v>0.08306520000000001</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.0833532</v>
       </c>
     </row>
     <row r="7">
@@ -3316,13 +3331,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.193696</v>
+        <v>0.201826</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08669300000000001</v>
+        <v>0.154474</v>
       </c>
       <c r="D7" t="n">
-        <v>0.154715</v>
+        <v>0.0878973</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.0885941</v>
       </c>
     </row>
     <row r="8">
@@ -3330,13 +3348,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.242103</v>
+        <v>0.24276</v>
       </c>
       <c r="C8" t="n">
-        <v>0.102891</v>
+        <v>0.162484</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16126</v>
+        <v>0.104318</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.103249</v>
       </c>
     </row>
     <row r="9">
@@ -3344,13 +3365,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.291411</v>
+        <v>0.296557</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0818107</v>
+        <v>0.169408</v>
       </c>
       <c r="D9" t="n">
-        <v>0.168336</v>
+        <v>0.0819587</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.0821007</v>
       </c>
     </row>
     <row r="10">
@@ -3358,13 +3382,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09429510000000001</v>
+        <v>0.0956342</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08205659999999999</v>
+        <v>0.175321</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175171</v>
+        <v>0.0821429</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.08223800000000001</v>
       </c>
     </row>
     <row r="11">
@@ -3372,13 +3399,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0957668</v>
+        <v>0.0969535</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0823845</v>
+        <v>0.182876</v>
       </c>
       <c r="D11" t="n">
-        <v>0.182481</v>
+        <v>0.082328</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.082306</v>
       </c>
     </row>
     <row r="12">
@@ -3386,13 +3416,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09675789999999999</v>
+        <v>0.09817819999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0826142</v>
+        <v>0.190259</v>
       </c>
       <c r="D12" t="n">
-        <v>0.190361</v>
+        <v>0.08256670000000001</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.08257970000000001</v>
       </c>
     </row>
     <row r="13">
@@ -3400,13 +3433,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0986223</v>
+        <v>0.09980169999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.19813</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197525</v>
+        <v>0.0827552</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.0827179</v>
       </c>
     </row>
     <row r="14">
@@ -3414,13 +3450,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101647</v>
+        <v>0.102286</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0828618</v>
+        <v>0.206187</v>
       </c>
       <c r="D14" t="n">
-        <v>0.202911</v>
+        <v>0.0828521</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.0828723</v>
       </c>
     </row>
     <row r="15">
@@ -3428,13 +3467,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.10535</v>
+        <v>0.106184</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0833474</v>
+        <v>0.213359</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211507</v>
+        <v>0.0831252</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.08334610000000001</v>
       </c>
     </row>
     <row r="16">
@@ -3442,13 +3484,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.111239</v>
+        <v>0.112556</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0833025</v>
+        <v>0.218344</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217362</v>
+        <v>0.0833473</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.0835909</v>
       </c>
     </row>
     <row r="17">
@@ -3456,13 +3501,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.120107</v>
+        <v>0.121654</v>
       </c>
       <c r="C17" t="n">
-        <v>0.0836643</v>
+        <v>0.224502</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223066</v>
+        <v>0.08359320000000001</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.0840648</v>
       </c>
     </row>
     <row r="18">
@@ -3470,13 +3518,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.130708</v>
+        <v>0.134587</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0839034</v>
+        <v>0.230662</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229267</v>
+        <v>0.0835398</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.08442570000000001</v>
       </c>
     </row>
     <row r="19">
@@ -3484,13 +3535,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.145615</v>
+        <v>0.1518</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0849333</v>
+        <v>0.237447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.234634</v>
+        <v>0.0842667</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.08518770000000001</v>
       </c>
     </row>
     <row r="20">
@@ -3498,13 +3552,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.167495</v>
+        <v>0.172212</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0892173</v>
+        <v>0.243703</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241161</v>
+        <v>0.0881884</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.0890353</v>
       </c>
     </row>
     <row r="21">
@@ -3512,13 +3569,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.195897</v>
+        <v>0.199932</v>
       </c>
       <c r="C21" t="n">
-        <v>0.09558460000000001</v>
+        <v>0.179875</v>
       </c>
       <c r="D21" t="n">
-        <v>0.17684</v>
+        <v>0.0961076</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.09685000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -3526,13 +3586,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.234419</v>
+        <v>0.239842</v>
       </c>
       <c r="C22" t="n">
-        <v>0.110609</v>
+        <v>0.186537</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184039</v>
+        <v>0.110394</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.111645</v>
       </c>
     </row>
     <row r="23">
@@ -3540,13 +3603,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.281264</v>
+        <v>0.286951</v>
       </c>
       <c r="C23" t="n">
-        <v>0.0829698</v>
+        <v>0.194244</v>
       </c>
       <c r="D23" t="n">
-        <v>0.19083</v>
+        <v>0.0829691</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.08380170000000001</v>
       </c>
     </row>
     <row r="24">
@@ -3554,13 +3620,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100419</v>
+        <v>0.100666</v>
       </c>
       <c r="C24" t="n">
-        <v>0.08472150000000001</v>
+        <v>0.200709</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198081</v>
+        <v>0.0831345</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.0841422</v>
       </c>
     </row>
     <row r="25">
@@ -3568,13 +3637,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101675</v>
+        <v>0.10204</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0844307</v>
+        <v>0.208064</v>
       </c>
       <c r="D25" t="n">
-        <v>0.204814</v>
+        <v>0.0833103</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.0843907</v>
       </c>
     </row>
     <row r="26">
@@ -3582,13 +3654,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103684</v>
+        <v>0.103666</v>
       </c>
       <c r="C26" t="n">
-        <v>0.0853174</v>
+        <v>0.215073</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212262</v>
+        <v>0.08368929999999999</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.084883</v>
       </c>
     </row>
     <row r="27">
@@ -3596,13 +3671,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.108973</v>
+        <v>0.105801</v>
       </c>
       <c r="C27" t="n">
-        <v>0.08545369999999999</v>
+        <v>0.222396</v>
       </c>
       <c r="D27" t="n">
-        <v>0.218441</v>
+        <v>0.08398029999999999</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.0854263</v>
       </c>
     </row>
     <row r="28">
@@ -3610,13 +3688,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111431</v>
+        <v>0.108709</v>
       </c>
       <c r="C28" t="n">
-        <v>0.0842309</v>
+        <v>0.227582</v>
       </c>
       <c r="D28" t="n">
-        <v>0.224957</v>
+        <v>0.0841736</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.08616939999999999</v>
       </c>
     </row>
     <row r="29">
@@ -3624,13 +3705,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.116382</v>
+        <v>0.112831</v>
       </c>
       <c r="C29" t="n">
-        <v>0.0846034</v>
+        <v>0.233805</v>
       </c>
       <c r="D29" t="n">
-        <v>0.231651</v>
+        <v>0.0847185</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.08682769999999999</v>
       </c>
     </row>
     <row r="30">
@@ -3638,13 +3722,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119354</v>
+        <v>0.119497</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0851046</v>
+        <v>0.23921</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236449</v>
+        <v>0.08506660000000001</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.0877501</v>
       </c>
     </row>
     <row r="31">
@@ -3652,13 +3739,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.133064</v>
+        <v>0.127065</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0879626</v>
+        <v>0.244858</v>
       </c>
       <c r="D31" t="n">
-        <v>0.241275</v>
+        <v>0.0857598</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.0938773</v>
       </c>
     </row>
     <row r="32">
@@ -3666,13 +3756,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138357</v>
+        <v>0.138564</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0871494</v>
+        <v>0.250369</v>
       </c>
       <c r="D32" t="n">
-        <v>0.247255</v>
+        <v>0.08692900000000001</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.0901438</v>
       </c>
     </row>
     <row r="33">
@@ -3680,13 +3773,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.157321</v>
+        <v>0.150678</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0974059</v>
+        <v>0.255856</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253286</v>
+        <v>0.0902574</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.0932293</v>
       </c>
     </row>
     <row r="34">
@@ -3694,13 +3790,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169137</v>
+        <v>0.169147</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0950743</v>
+        <v>0.261154</v>
       </c>
       <c r="D34" t="n">
-        <v>0.258928</v>
+        <v>0.0954219</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.0981358</v>
       </c>
     </row>
     <row r="35">
@@ -3708,13 +3807,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.208331</v>
+        <v>0.199041</v>
       </c>
       <c r="C35" t="n">
-        <v>0.103638</v>
+        <v>0.191306</v>
       </c>
       <c r="D35" t="n">
-        <v>0.18889</v>
+        <v>0.103189</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.106004</v>
       </c>
     </row>
     <row r="36">
@@ -3722,13 +3824,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.238945</v>
+        <v>0.232101</v>
       </c>
       <c r="C36" t="n">
-        <v>0.131745</v>
+        <v>0.198107</v>
       </c>
       <c r="D36" t="n">
-        <v>0.195527</v>
+        <v>0.115034</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.117839</v>
       </c>
     </row>
     <row r="37">
@@ -3736,13 +3841,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.283565</v>
+        <v>0.289401</v>
       </c>
       <c r="C37" t="n">
-        <v>0.08478960000000001</v>
+        <v>0.204601</v>
       </c>
       <c r="D37" t="n">
-        <v>0.203201</v>
+        <v>0.0840655</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.08699229999999999</v>
       </c>
     </row>
     <row r="38">
@@ -3750,13 +3858,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104802</v>
+        <v>0.103777</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0932859</v>
+        <v>0.211559</v>
       </c>
       <c r="D38" t="n">
-        <v>0.209556</v>
+        <v>0.0843686</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.0868507</v>
       </c>
     </row>
     <row r="39">
@@ -3764,13 +3875,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105941</v>
+        <v>0.10502</v>
       </c>
       <c r="C39" t="n">
-        <v>0.0856103</v>
+        <v>0.218566</v>
       </c>
       <c r="D39" t="n">
-        <v>0.216186</v>
+        <v>0.08910360000000001</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.0903384</v>
       </c>
     </row>
     <row r="40">
@@ -3778,13 +3892,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107662</v>
+        <v>0.106676</v>
       </c>
       <c r="C40" t="n">
-        <v>0.089452</v>
+        <v>0.22472</v>
       </c>
       <c r="D40" t="n">
-        <v>0.223029</v>
+        <v>0.0848078</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.08819879999999999</v>
       </c>
     </row>
     <row r="41">
@@ -3792,13 +3909,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.11067</v>
+        <v>0.109194</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0880435</v>
+        <v>0.231704</v>
       </c>
       <c r="D41" t="n">
-        <v>0.228743</v>
+        <v>0.0861312</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.0886385</v>
       </c>
     </row>
     <row r="42">
@@ -3806,13 +3926,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114048</v>
+        <v>0.112801</v>
       </c>
       <c r="C42" t="n">
-        <v>0.0898989</v>
+        <v>0.238368</v>
       </c>
       <c r="D42" t="n">
-        <v>0.235652</v>
+        <v>0.0863604</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.0895393</v>
       </c>
     </row>
     <row r="43">
@@ -3820,13 +3943,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116625</v>
+        <v>0.116862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09494420000000001</v>
+        <v>0.244142</v>
       </c>
       <c r="D43" t="n">
-        <v>0.241529</v>
+        <v>0.0860977</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.0898399</v>
       </c>
     </row>
     <row r="44">
@@ -3834,13 +3960,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.123103</v>
+        <v>0.124823</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0947419</v>
+        <v>0.250204</v>
       </c>
       <c r="D44" t="n">
-        <v>0.24779</v>
+        <v>0.08676680000000001</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.0905504</v>
       </c>
     </row>
     <row r="45">
@@ -3848,13 +3977,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128667</v>
+        <v>0.128475</v>
       </c>
       <c r="C45" t="n">
-        <v>0.0878033</v>
+        <v>0.256067</v>
       </c>
       <c r="D45" t="n">
-        <v>0.253512</v>
+        <v>0.0881763</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.09190719999999999</v>
       </c>
     </row>
     <row r="46">
@@ -3862,13 +3994,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.143866</v>
+        <v>0.136638</v>
       </c>
       <c r="C46" t="n">
-        <v>0.0905</v>
+        <v>0.260587</v>
       </c>
       <c r="D46" t="n">
-        <v>0.25917</v>
+        <v>0.08935940000000001</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.09368310000000001</v>
       </c>
     </row>
     <row r="47">
@@ -3876,13 +4011,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149517</v>
+        <v>0.148706</v>
       </c>
       <c r="C47" t="n">
-        <v>0.0918964</v>
+        <v>0.266748</v>
       </c>
       <c r="D47" t="n">
-        <v>0.264878</v>
+        <v>0.092182</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.0963074</v>
       </c>
     </row>
     <row r="48">
@@ -3890,13 +4028,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169146</v>
+        <v>0.165564</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0959222</v>
+        <v>0.272699</v>
       </c>
       <c r="D48" t="n">
-        <v>0.270854</v>
+        <v>0.09611020000000001</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.100299</v>
       </c>
     </row>
     <row r="49">
@@ -3904,13 +4045,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.188495</v>
+        <v>0.189775</v>
       </c>
       <c r="C49" t="n">
-        <v>0.101659</v>
+        <v>0.278656</v>
       </c>
       <c r="D49" t="n">
-        <v>0.276708</v>
+        <v>0.101786</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.105912</v>
       </c>
     </row>
     <row r="50">
@@ -3918,13 +4062,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.225653</v>
+        <v>0.222489</v>
       </c>
       <c r="C50" t="n">
-        <v>0.111348</v>
+        <v>0.198228</v>
       </c>
       <c r="D50" t="n">
-        <v>0.19638</v>
+        <v>0.111709</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.116509</v>
       </c>
     </row>
     <row r="51">
@@ -3932,13 +4079,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.267167</v>
+        <v>0.268313</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0888577</v>
+        <v>0.204899</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203077</v>
+        <v>0.0866664</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.0892281</v>
       </c>
     </row>
     <row r="52">
@@ -3946,13 +4096,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.31946</v>
+        <v>0.319327</v>
       </c>
       <c r="C52" t="n">
-        <v>0.0909623</v>
+        <v>0.210853</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209175</v>
+        <v>0.0864238</v>
+      </c>
+      <c r="E52" t="n">
+        <v>0.0904891</v>
       </c>
     </row>
     <row r="53">
@@ -3960,13 +4113,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.110326</v>
+        <v>0.110611</v>
       </c>
       <c r="C53" t="n">
-        <v>0.08746420000000001</v>
+        <v>0.21753</v>
       </c>
       <c r="D53" t="n">
-        <v>0.215928</v>
+        <v>0.0875471</v>
+      </c>
+      <c r="E53" t="n">
+        <v>0.0913402</v>
       </c>
     </row>
     <row r="54">
@@ -3974,13 +4130,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.112175</v>
+        <v>0.110347</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0922212</v>
+        <v>0.223651</v>
       </c>
       <c r="D54" t="n">
-        <v>0.222113</v>
+        <v>0.0869272</v>
+      </c>
+      <c r="E54" t="n">
+        <v>0.0921106</v>
       </c>
     </row>
     <row r="55">
@@ -3988,13 +4147,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.115615</v>
+        <v>0.115749</v>
       </c>
       <c r="C55" t="n">
-        <v>0.0917289</v>
+        <v>0.230099</v>
       </c>
       <c r="D55" t="n">
-        <v>0.228423</v>
+        <v>0.0876547</v>
+      </c>
+      <c r="E55" t="n">
+        <v>0.0914441</v>
       </c>
     </row>
     <row r="56">
@@ -4002,13 +4164,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116503</v>
+        <v>0.119095</v>
       </c>
       <c r="C56" t="n">
-        <v>0.0943785</v>
+        <v>0.236441</v>
       </c>
       <c r="D56" t="n">
-        <v>0.234321</v>
+        <v>0.0877067</v>
+      </c>
+      <c r="E56" t="n">
+        <v>0.0921235</v>
       </c>
     </row>
     <row r="57">
@@ -4016,13 +4181,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1201</v>
+        <v>0.130715</v>
       </c>
       <c r="C57" t="n">
-        <v>0.08845459999999999</v>
+        <v>0.241749</v>
       </c>
       <c r="D57" t="n">
-        <v>0.239964</v>
+        <v>0.08926249999999999</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0.100688</v>
       </c>
     </row>
     <row r="58">
@@ -4030,13 +4198,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.12962</v>
+        <v>0.126423</v>
       </c>
       <c r="C58" t="n">
-        <v>0.0898772</v>
+        <v>0.246865</v>
       </c>
       <c r="D58" t="n">
-        <v>0.245229</v>
+        <v>0.08974070000000001</v>
+      </c>
+      <c r="E58" t="n">
+        <v>0.0946734</v>
       </c>
     </row>
     <row r="59">
@@ -4044,13 +4215,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.141096</v>
+        <v>0.131649</v>
       </c>
       <c r="C59" t="n">
-        <v>0.09187960000000001</v>
+        <v>0.252607</v>
       </c>
       <c r="D59" t="n">
-        <v>0.250512</v>
+        <v>0.09105539999999999</v>
+      </c>
+      <c r="E59" t="n">
+        <v>0.0950984</v>
       </c>
     </row>
     <row r="60">
@@ -4058,13 +4232,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.150763</v>
+        <v>0.141162</v>
       </c>
       <c r="C60" t="n">
-        <v>0.09351950000000001</v>
+        <v>0.257153</v>
       </c>
       <c r="D60" t="n">
-        <v>0.255236</v>
+        <v>0.09504650000000001</v>
+      </c>
+      <c r="E60" t="n">
+        <v>0.0980395</v>
       </c>
     </row>
     <row r="61">
@@ -4072,13 +4249,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.152705</v>
+        <v>0.162506</v>
       </c>
       <c r="C61" t="n">
-        <v>0.10021</v>
+        <v>0.262332</v>
       </c>
       <c r="D61" t="n">
-        <v>0.260702</v>
+        <v>0.09551949999999999</v>
+      </c>
+      <c r="E61" t="n">
+        <v>0.100874</v>
       </c>
     </row>
     <row r="62">
@@ -4086,13 +4266,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167089</v>
+        <v>0.170579</v>
       </c>
       <c r="C62" t="n">
-        <v>0.0974879</v>
+        <v>0.268512</v>
       </c>
       <c r="D62" t="n">
-        <v>0.266844</v>
+        <v>0.0992792</v>
+      </c>
+      <c r="E62" t="n">
+        <v>0.103475</v>
       </c>
     </row>
     <row r="63">
@@ -4100,13 +4283,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188503</v>
+        <v>0.187663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.102214</v>
+        <v>0.273995</v>
       </c>
       <c r="D63" t="n">
-        <v>0.273248</v>
+        <v>0.103371</v>
+      </c>
+      <c r="E63" t="n">
+        <v>0.108487</v>
       </c>
     </row>
     <row r="64">
@@ -4114,13 +4300,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.221074</v>
+        <v>0.220939</v>
       </c>
       <c r="C64" t="n">
-        <v>0.111277</v>
+        <v>0.201746</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201322</v>
+        <v>0.112488</v>
+      </c>
+      <c r="E64" t="n">
+        <v>0.117792</v>
       </c>
     </row>
     <row r="65">
@@ -4128,13 +4317,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.260462</v>
+        <v>0.267607</v>
       </c>
       <c r="C65" t="n">
-        <v>0.13663</v>
+        <v>0.209901</v>
       </c>
       <c r="D65" t="n">
-        <v>0.206728</v>
+        <v>0.128489</v>
+      </c>
+      <c r="E65" t="n">
+        <v>0.132506</v>
       </c>
     </row>
     <row r="66">
@@ -4142,13 +4334,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.318306</v>
+        <v>0.316686</v>
       </c>
       <c r="C66" t="n">
-        <v>0.0964182</v>
+        <v>0.218499</v>
       </c>
       <c r="D66" t="n">
-        <v>0.214555</v>
+        <v>0.0933807</v>
+      </c>
+      <c r="E66" t="n">
+        <v>0.0978069</v>
       </c>
     </row>
     <row r="67">
@@ -4156,13 +4351,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.131952</v>
+        <v>0.122403</v>
       </c>
       <c r="C67" t="n">
-        <v>0.0987677</v>
+        <v>0.226097</v>
       </c>
       <c r="D67" t="n">
-        <v>0.223852</v>
+        <v>0.09386410000000001</v>
+      </c>
+      <c r="E67" t="n">
+        <v>0.0982098</v>
       </c>
     </row>
     <row r="68">
@@ -4170,13 +4368,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.133381</v>
+        <v>0.124141</v>
       </c>
       <c r="C68" t="n">
-        <v>0.0992135</v>
+        <v>0.235193</v>
       </c>
       <c r="D68" t="n">
-        <v>0.231668</v>
+        <v>0.0942476</v>
+      </c>
+      <c r="E68" t="n">
+        <v>0.09892289999999999</v>
       </c>
     </row>
     <row r="69">
@@ -4184,13 +4385,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.135876</v>
+        <v>0.126997</v>
       </c>
       <c r="C69" t="n">
-        <v>0.106051</v>
+        <v>0.24376</v>
       </c>
       <c r="D69" t="n">
-        <v>0.238982</v>
+        <v>0.09941990000000001</v>
+      </c>
+      <c r="E69" t="n">
+        <v>0.100103</v>
       </c>
     </row>
     <row r="70">
@@ -4198,13 +4402,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128972</v>
+        <v>0.138413</v>
       </c>
       <c r="C70" t="n">
-        <v>0.0995813</v>
+        <v>0.256239</v>
       </c>
       <c r="D70" t="n">
-        <v>0.247924</v>
+        <v>0.09975349999999999</v>
+      </c>
+      <c r="E70" t="n">
+        <v>0.101108</v>
       </c>
     </row>
     <row r="71">
@@ -4212,13 +4419,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132326</v>
+        <v>0.143556</v>
       </c>
       <c r="C71" t="n">
-        <v>0.09654020000000001</v>
+        <v>0.265522</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259422</v>
+        <v>0.0962047</v>
+      </c>
+      <c r="E71" t="n">
+        <v>0.102072</v>
       </c>
     </row>
     <row r="72">
@@ -4226,13 +4436,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137679</v>
+        <v>0.138798</v>
       </c>
       <c r="C72" t="n">
-        <v>0.100014</v>
+        <v>0.276123</v>
       </c>
       <c r="D72" t="n">
-        <v>0.267859</v>
+        <v>0.09631439999999999</v>
+      </c>
+      <c r="E72" t="n">
+        <v>0.103631</v>
       </c>
     </row>
     <row r="73">
@@ -4240,13 +4453,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.153585</v>
+        <v>0.146165</v>
       </c>
       <c r="C73" t="n">
-        <v>0.105176</v>
+        <v>0.287509</v>
       </c>
       <c r="D73" t="n">
-        <v>0.277688</v>
+        <v>0.0982343</v>
+      </c>
+      <c r="E73" t="n">
+        <v>0.105006</v>
       </c>
     </row>
     <row r="74">
@@ -4254,13 +4470,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150943</v>
+        <v>0.155047</v>
       </c>
       <c r="C74" t="n">
-        <v>0.104648</v>
+        <v>0.304289</v>
       </c>
       <c r="D74" t="n">
-        <v>0.289796</v>
+        <v>0.0994821</v>
+      </c>
+      <c r="E74" t="n">
+        <v>0.109389</v>
       </c>
     </row>
     <row r="75">
@@ -4268,13 +4487,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.16173</v>
+        <v>0.172311</v>
       </c>
       <c r="C75" t="n">
-        <v>0.10182</v>
+        <v>0.314207</v>
       </c>
       <c r="D75" t="n">
-        <v>0.305025</v>
+        <v>0.10735</v>
+      </c>
+      <c r="E75" t="n">
+        <v>0.116336</v>
       </c>
     </row>
     <row r="76">
@@ -4282,13 +4504,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.186175</v>
+        <v>0.180267</v>
       </c>
       <c r="C76" t="n">
-        <v>0.108268</v>
+        <v>0.333846</v>
       </c>
       <c r="D76" t="n">
-        <v>0.321822</v>
+        <v>0.104664</v>
+      </c>
+      <c r="E76" t="n">
+        <v>0.113204</v>
       </c>
     </row>
     <row r="77">
@@ -4296,13 +4521,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197903</v>
+        <v>0.207186</v>
       </c>
       <c r="C77" t="n">
-        <v>0.110923</v>
+        <v>0.35021</v>
       </c>
       <c r="D77" t="n">
-        <v>0.340716</v>
+        <v>0.109943</v>
+      </c>
+      <c r="E77" t="n">
+        <v>0.118443</v>
       </c>
     </row>
     <row r="78">
@@ -4310,13 +4538,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.222974</v>
+        <v>0.226991</v>
       </c>
       <c r="C78" t="n">
-        <v>0.12426</v>
+        <v>0.275829</v>
       </c>
       <c r="D78" t="n">
-        <v>0.26625</v>
+        <v>0.117842</v>
+      </c>
+      <c r="E78" t="n">
+        <v>0.127209</v>
       </c>
     </row>
     <row r="79">
@@ -4324,13 +4555,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266515</v>
+        <v>0.266746</v>
       </c>
       <c r="C79" t="n">
-        <v>0.138892</v>
+        <v>0.292147</v>
       </c>
       <c r="D79" t="n">
-        <v>0.283705</v>
+        <v>0.131705</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0.144032</v>
       </c>
     </row>
     <row r="80">
@@ -4338,13 +4572,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.333724</v>
+        <v>0.324883</v>
       </c>
       <c r="C80" t="n">
-        <v>0.10604</v>
+        <v>0.316551</v>
       </c>
       <c r="D80" t="n">
-        <v>0.298862</v>
+        <v>0.100686</v>
+      </c>
+      <c r="E80" t="n">
+        <v>0.106022</v>
       </c>
     </row>
     <row r="81">
@@ -4352,13 +4589,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.140945</v>
+        <v>0.145169</v>
       </c>
       <c r="C81" t="n">
-        <v>0.100981</v>
+        <v>0.337268</v>
       </c>
       <c r="D81" t="n">
-        <v>0.317147</v>
+        <v>0.101029</v>
+      </c>
+      <c r="E81" t="n">
+        <v>0.106955</v>
       </c>
     </row>
     <row r="82">
@@ -4366,13 +4606,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.145455</v>
+        <v>0.147107</v>
       </c>
       <c r="C82" t="n">
-        <v>0.10184</v>
+        <v>0.35831</v>
       </c>
       <c r="D82" t="n">
-        <v>0.338136</v>
+        <v>0.101447</v>
+      </c>
+      <c r="E82" t="n">
+        <v>0.107736</v>
       </c>
     </row>
     <row r="83">
@@ -4380,13 +4623,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139758</v>
+        <v>0.148619</v>
       </c>
       <c r="C83" t="n">
-        <v>0.107602</v>
+        <v>0.381161</v>
       </c>
       <c r="D83" t="n">
-        <v>0.358008</v>
+        <v>0.101718</v>
+      </c>
+      <c r="E83" t="n">
+        <v>0.108859</v>
       </c>
     </row>
     <row r="84">
@@ -4394,13 +4640,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.147898</v>
+        <v>0.142793</v>
       </c>
       <c r="C84" t="n">
-        <v>0.102357</v>
+        <v>0.405507</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379214</v>
+        <v>0.102547</v>
+      </c>
+      <c r="E84" t="n">
+        <v>0.109925</v>
       </c>
     </row>
     <row r="85">
@@ -4408,13 +4657,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.144922</v>
+        <v>0.145643</v>
       </c>
       <c r="C85" t="n">
-        <v>0.10317</v>
+        <v>0.428238</v>
       </c>
       <c r="D85" t="n">
-        <v>0.401338</v>
+        <v>0.103726</v>
+      </c>
+      <c r="E85" t="n">
+        <v>0.111583</v>
       </c>
     </row>
     <row r="86">
@@ -4422,13 +4674,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.159707</v>
+        <v>0.150199</v>
       </c>
       <c r="C86" t="n">
-        <v>0.104368</v>
+        <v>0.454439</v>
       </c>
       <c r="D86" t="n">
-        <v>0.422531</v>
+        <v>0.104233</v>
+      </c>
+      <c r="E86" t="n">
+        <v>0.113821</v>
       </c>
     </row>
     <row r="87">
@@ -4436,13 +4691,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.155655</v>
+        <v>0.155719</v>
       </c>
       <c r="C87" t="n">
-        <v>0.105012</v>
+        <v>0.480872</v>
       </c>
       <c r="D87" t="n">
-        <v>0.446209</v>
+        <v>0.105666</v>
+      </c>
+      <c r="E87" t="n">
+        <v>0.116097</v>
       </c>
     </row>
     <row r="88">
@@ -4450,13 +4708,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.163386</v>
+        <v>0.163817</v>
       </c>
       <c r="C88" t="n">
-        <v>0.106761</v>
+        <v>0.5065190000000001</v>
       </c>
       <c r="D88" t="n">
-        <v>0.469022</v>
+        <v>0.107259</v>
+      </c>
+      <c r="E88" t="n">
+        <v>0.119153</v>
       </c>
     </row>
     <row r="89">
@@ -4464,13 +4725,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.173591</v>
+        <v>0.181382</v>
       </c>
       <c r="C89" t="n">
-        <v>0.109294</v>
+        <v>0.53388</v>
       </c>
       <c r="D89" t="n">
-        <v>0.494943</v>
+        <v>0.109384</v>
+      </c>
+      <c r="E89" t="n">
+        <v>0.123758</v>
       </c>
     </row>
     <row r="90">
@@ -4478,13 +4742,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187707</v>
+        <v>0.199843</v>
       </c>
       <c r="C90" t="n">
-        <v>0.112465</v>
+        <v>0.563423</v>
       </c>
       <c r="D90" t="n">
-        <v>0.521006</v>
+        <v>0.112829</v>
+      </c>
+      <c r="E90" t="n">
+        <v>0.130547</v>
       </c>
     </row>
     <row r="91">
@@ -4492,13 +4759,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.212107</v>
+        <v>0.218824</v>
       </c>
       <c r="C91" t="n">
-        <v>0.12477</v>
+        <v>0.593981</v>
       </c>
       <c r="D91" t="n">
-        <v>0.548238</v>
+        <v>0.118828</v>
+      </c>
+      <c r="E91" t="n">
+        <v>0.138543</v>
       </c>
     </row>
     <row r="92">
@@ -4506,13 +4776,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.237231</v>
+        <v>0.240824</v>
       </c>
       <c r="C92" t="n">
-        <v>0.133593</v>
+        <v>0.445407</v>
       </c>
       <c r="D92" t="n">
-        <v>0.411961</v>
+        <v>0.126423</v>
+      </c>
+      <c r="E92" t="n">
+        <v>0.151443</v>
       </c>
     </row>
     <row r="93">
@@ -4520,13 +4793,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.278257</v>
+        <v>0.29863</v>
       </c>
       <c r="C93" t="n">
-        <v>0.139457</v>
+        <v>0.465141</v>
       </c>
       <c r="D93" t="n">
-        <v>0.431134</v>
+        <v>0.140452</v>
+      </c>
+      <c r="E93" t="n">
+        <v>0.174071</v>
       </c>
     </row>
     <row r="94">
@@ -4534,13 +4810,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.344216</v>
+        <v>0.361856</v>
       </c>
       <c r="C94" t="n">
-        <v>0.106231</v>
+        <v>0.489583</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448021</v>
+        <v>0.10663</v>
+      </c>
+      <c r="E94" t="n">
+        <v>0.120931</v>
       </c>
     </row>
     <row r="95">
@@ -4548,13 +4827,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.153032</v>
+        <v>0.151114</v>
       </c>
       <c r="C95" t="n">
-        <v>0.111739</v>
+        <v>0.506286</v>
       </c>
       <c r="D95" t="n">
-        <v>0.468583</v>
+        <v>0.107393</v>
+      </c>
+      <c r="E95" t="n">
+        <v>0.124551</v>
       </c>
     </row>
     <row r="96">
@@ -4562,13 +4844,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.156659</v>
+        <v>0.147861</v>
       </c>
       <c r="C96" t="n">
-        <v>0.108579</v>
+        <v>0.528896</v>
       </c>
       <c r="D96" t="n">
-        <v>0.488115</v>
+        <v>0.109178</v>
+      </c>
+      <c r="E96" t="n">
+        <v>0.13072</v>
       </c>
     </row>
     <row r="97">
@@ -4576,13 +4861,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.150304</v>
+        <v>0.151612</v>
       </c>
       <c r="C97" t="n">
-        <v>0.115198</v>
+        <v>0.551775</v>
       </c>
       <c r="D97" t="n">
-        <v>0.508427</v>
+        <v>0.110957</v>
+      </c>
+      <c r="E97" t="n">
+        <v>0.135578</v>
       </c>
     </row>
     <row r="98">
@@ -4590,13 +4878,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.154143</v>
+        <v>0.157262</v>
       </c>
       <c r="C98" t="n">
-        <v>0.113957</v>
+        <v>0.576801</v>
       </c>
       <c r="D98" t="n">
-        <v>0.529464</v>
+        <v>0.113426</v>
+      </c>
+      <c r="E98" t="n">
+        <v>0.141601</v>
       </c>
     </row>
     <row r="99">
@@ -4604,13 +4895,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.159488</v>
+        <v>0.168719</v>
       </c>
       <c r="C99" t="n">
-        <v>0.119006</v>
+        <v>0.600569</v>
       </c>
       <c r="D99" t="n">
-        <v>0.551983</v>
+        <v>0.1164</v>
+      </c>
+      <c r="E99" t="n">
+        <v>0.148569</v>
       </c>
     </row>
     <row r="100">
@@ -4618,13 +4912,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.166411</v>
+        <v>0.168319</v>
       </c>
       <c r="C100" t="n">
-        <v>0.11802</v>
+        <v>0.625664</v>
       </c>
       <c r="D100" t="n">
-        <v>0.575329</v>
+        <v>0.11991</v>
+      </c>
+      <c r="E100" t="n">
+        <v>0.15552</v>
       </c>
     </row>
     <row r="101">
@@ -4632,13 +4929,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.185862</v>
+        <v>0.187773</v>
       </c>
       <c r="C101" t="n">
-        <v>0.122144</v>
+        <v>0.6543060000000001</v>
       </c>
       <c r="D101" t="n">
-        <v>0.598952</v>
+        <v>0.123549</v>
+      </c>
+      <c r="E101" t="n">
+        <v>0.16351</v>
       </c>
     </row>
     <row r="102">
@@ -4646,13 +4946,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.197589</v>
+        <v>0.199823</v>
       </c>
       <c r="C102" t="n">
-        <v>0.126564</v>
+        <v>0.682352</v>
       </c>
       <c r="D102" t="n">
-        <v>0.625539</v>
+        <v>0.128611</v>
+      </c>
+      <c r="E102" t="n">
+        <v>0.170875</v>
       </c>
     </row>
     <row r="103">
@@ -4660,13 +4963,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.206142</v>
+        <v>0.215455</v>
       </c>
       <c r="C103" t="n">
-        <v>0.131687</v>
+        <v>0.711495</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652089</v>
+        <v>0.134418</v>
+      </c>
+      <c r="E103" t="n">
+        <v>0.179389</v>
       </c>
     </row>
     <row r="104">
@@ -4674,13 +4980,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.229097</v>
+        <v>0.236352</v>
       </c>
       <c r="C104" t="n">
-        <v>0.141329</v>
+        <v>0.744345</v>
       </c>
       <c r="D104" t="n">
-        <v>0.679732</v>
+        <v>0.141347</v>
+      </c>
+      <c r="E104" t="n">
+        <v>0.192744</v>
       </c>
     </row>
     <row r="105">
@@ -4688,13 +4997,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.242985</v>
+        <v>0.259011</v>
       </c>
       <c r="C105" t="n">
-        <v>0.146579</v>
+        <v>0.777431</v>
       </c>
       <c r="D105" t="n">
-        <v>0.710205</v>
+        <v>0.150549</v>
+      </c>
+      <c r="E105" t="n">
+        <v>0.200269</v>
       </c>
     </row>
     <row r="106">
@@ -4702,13 +5014,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274943</v>
+        <v>0.292122</v>
       </c>
       <c r="C106" t="n">
-        <v>0.161878</v>
+        <v>0.813474</v>
       </c>
       <c r="D106" t="n">
-        <v>0.743339</v>
+        <v>0.16195</v>
+      </c>
+      <c r="E106" t="n">
+        <v>0.215043</v>
       </c>
     </row>
     <row r="107">
@@ -4716,13 +5031,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.330679</v>
+        <v>0.34742</v>
       </c>
       <c r="C107" t="n">
-        <v>0.179872</v>
+        <v>0.636356</v>
       </c>
       <c r="D107" t="n">
-        <v>0.582525</v>
+        <v>0.178365</v>
+      </c>
+      <c r="E107" t="n">
+        <v>0.235875</v>
       </c>
     </row>
     <row r="108">
@@ -4730,13 +5048,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.385801</v>
+        <v>0.394911</v>
       </c>
       <c r="C108" t="n">
-        <v>0.127389</v>
+        <v>0.658552</v>
       </c>
       <c r="D108" t="n">
-        <v>0.60297</v>
+        <v>0.130421</v>
+      </c>
+      <c r="E108" t="n">
+        <v>0.165483</v>
       </c>
     </row>
     <row r="109">
@@ -4744,13 +5065,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.483648</v>
+        <v>0.49468</v>
       </c>
       <c r="C109" t="n">
-        <v>0.129834</v>
+        <v>0.681494</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623864</v>
+        <v>0.133058</v>
+      </c>
+      <c r="E109" t="n">
+        <v>0.169589</v>
       </c>
     </row>
     <row r="110">
@@ -4758,13 +5082,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.171402</v>
+        <v>0.185204</v>
       </c>
       <c r="C110" t="n">
-        <v>0.13241</v>
+        <v>0.70635</v>
       </c>
       <c r="D110" t="n">
-        <v>0.64622</v>
+        <v>0.135796</v>
+      </c>
+      <c r="E110" t="n">
+        <v>0.173772</v>
       </c>
     </row>
     <row r="111">
@@ -4772,13 +5099,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.184929</v>
+        <v>0.18692</v>
       </c>
       <c r="C111" t="n">
-        <v>0.134802</v>
+        <v>0.733001</v>
       </c>
       <c r="D111" t="n">
-        <v>0.669175</v>
+        <v>0.138487</v>
+      </c>
+      <c r="E111" t="n">
+        <v>0.178135</v>
       </c>
     </row>
     <row r="112">
@@ -4786,13 +5116,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179984</v>
+        <v>0.185462</v>
       </c>
       <c r="C112" t="n">
-        <v>0.137234</v>
+        <v>0.758934</v>
       </c>
       <c r="D112" t="n">
-        <v>0.692761</v>
+        <v>0.141096</v>
+      </c>
+      <c r="E112" t="n">
+        <v>0.182189</v>
       </c>
     </row>
     <row r="113">
@@ -4800,13 +5133,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185234</v>
+        <v>0.200977</v>
       </c>
       <c r="C113" t="n">
-        <v>0.139666</v>
+        <v>0.786868</v>
       </c>
       <c r="D113" t="n">
-        <v>0.717168</v>
+        <v>0.144083</v>
+      </c>
+      <c r="E113" t="n">
+        <v>0.186808</v>
       </c>
     </row>
     <row r="114">
@@ -4814,13 +5150,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.191706</v>
+        <v>0.197272</v>
       </c>
       <c r="C114" t="n">
-        <v>0.142388</v>
+        <v>0.815024</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742206</v>
+        <v>0.147058</v>
+      </c>
+      <c r="E114" t="n">
+        <v>0.191552</v>
       </c>
     </row>
     <row r="115">
@@ -4828,13 +5167,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.200203</v>
+        <v>0.205482</v>
       </c>
       <c r="C115" t="n">
-        <v>0.145204</v>
+        <v>0.844692</v>
       </c>
       <c r="D115" t="n">
-        <v>0.768497</v>
+        <v>0.150108</v>
+      </c>
+      <c r="E115" t="n">
+        <v>0.196985</v>
       </c>
     </row>
     <row r="116">
@@ -4842,13 +5184,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22035</v>
+        <v>0.225491</v>
       </c>
       <c r="C116" t="n">
-        <v>0.148717</v>
+        <v>0.8754150000000001</v>
       </c>
       <c r="D116" t="n">
-        <v>0.794693</v>
+        <v>0.153736</v>
+      </c>
+      <c r="E116" t="n">
+        <v>0.202877</v>
       </c>
     </row>
     <row r="117">
@@ -4856,13 +5201,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232094</v>
+        <v>0.238578</v>
       </c>
       <c r="C117" t="n">
-        <v>0.15246</v>
+        <v>0.907951</v>
       </c>
       <c r="D117" t="n">
-        <v>0.823578</v>
+        <v>0.158025</v>
+      </c>
+      <c r="E117" t="n">
+        <v>0.209475</v>
       </c>
     </row>
     <row r="118">
@@ -4870,13 +5218,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.238006</v>
+        <v>0.251161</v>
       </c>
       <c r="C118" t="n">
-        <v>0.157624</v>
+        <v>0.942181</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852356</v>
+        <v>0.163611</v>
+      </c>
+      <c r="E118" t="n">
+        <v>0.217897</v>
       </c>
     </row>
     <row r="119">
@@ -4884,13 +5235,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.266951</v>
+        <v>0.269455</v>
       </c>
       <c r="C119" t="n">
-        <v>0.16434</v>
+        <v>0.976833</v>
       </c>
       <c r="D119" t="n">
-        <v>0.88392</v>
+        <v>0.170383</v>
+      </c>
+      <c r="E119" t="n">
+        <v>0.228165</v>
       </c>
     </row>
     <row r="120">
@@ -4898,13 +5252,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288912</v>
+        <v>0.311833</v>
       </c>
       <c r="C120" t="n">
-        <v>0.173271</v>
+        <v>1.01358</v>
       </c>
       <c r="D120" t="n">
-        <v>0.917566</v>
+        <v>0.179792</v>
+      </c>
+      <c r="E120" t="n">
+        <v>0.242389</v>
       </c>
     </row>
     <row r="121">
@@ -4912,13 +5269,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.340777</v>
+        <v>0.350684</v>
       </c>
       <c r="C121" t="n">
-        <v>0.195988</v>
+        <v>0.739131</v>
       </c>
       <c r="D121" t="n">
-        <v>0.667986</v>
+        <v>0.194567</v>
+      </c>
+      <c r="E121" t="n">
+        <v>0.262981</v>
       </c>
     </row>
     <row r="122">
@@ -4926,13 +5286,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.407499</v>
+        <v>0.424381</v>
       </c>
       <c r="C122" t="n">
-        <v>0.210964</v>
+        <v>0.761408</v>
       </c>
       <c r="D122" t="n">
-        <v>0.688191</v>
+        <v>0.218872</v>
+      </c>
+      <c r="E122" t="n">
+        <v>0.297184</v>
       </c>
     </row>
     <row r="123">
@@ -4940,13 +5303,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.494356</v>
+        <v>0.509914</v>
       </c>
       <c r="C123" t="n">
-        <v>0.151222</v>
+        <v>0.78487</v>
       </c>
       <c r="D123" t="n">
-        <v>0.709338</v>
+        <v>0.149589</v>
+      </c>
+      <c r="E123" t="n">
+        <v>0.193085</v>
       </c>
     </row>
     <row r="124">
@@ -4954,13 +5320,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.198457</v>
+        <v>0.20619</v>
       </c>
       <c r="C124" t="n">
-        <v>0.145811</v>
+        <v>0.809522</v>
       </c>
       <c r="D124" t="n">
-        <v>0.731348</v>
+        <v>0.154891</v>
+      </c>
+      <c r="E124" t="n">
+        <v>0.19641</v>
       </c>
     </row>
     <row r="125">
@@ -4968,13 +5337,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.192643</v>
+        <v>0.197286</v>
       </c>
       <c r="C125" t="n">
-        <v>0.148008</v>
+        <v>0.834418</v>
       </c>
       <c r="D125" t="n">
-        <v>0.753688</v>
+        <v>0.152086</v>
+      </c>
+      <c r="E125" t="n">
+        <v>0.20094</v>
       </c>
     </row>
     <row r="126">
@@ -4982,13 +5354,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.195427</v>
+        <v>0.212066</v>
       </c>
       <c r="C126" t="n">
-        <v>0.151094</v>
+        <v>0.860685</v>
       </c>
       <c r="D126" t="n">
-        <v>0.777394</v>
+        <v>0.15633</v>
+      </c>
+      <c r="E126" t="n">
+        <v>0.205845</v>
       </c>
     </row>
     <row r="127">
@@ -4996,13 +5371,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.20297</v>
+        <v>0.218945</v>
       </c>
       <c r="C127" t="n">
-        <v>0.153819</v>
+        <v>0.888089</v>
       </c>
       <c r="D127" t="n">
-        <v>0.802175</v>
+        <v>0.162636</v>
+      </c>
+      <c r="E127" t="n">
+        <v>0.209362</v>
       </c>
     </row>
     <row r="128">
@@ -5010,13 +5388,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.216634</v>
+        <v>0.226474</v>
       </c>
       <c r="C128" t="n">
-        <v>0.15725</v>
+        <v>0.917578</v>
       </c>
       <c r="D128" t="n">
-        <v>0.828304</v>
+        <v>0.163329</v>
+      </c>
+      <c r="E128" t="n">
+        <v>0.213403</v>
       </c>
     </row>
     <row r="129">
@@ -5024,13 +5405,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.226457</v>
+        <v>0.231839</v>
       </c>
       <c r="C129" t="n">
-        <v>0.159556</v>
+        <v>0.94811</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8553190000000001</v>
+        <v>0.164496</v>
+      </c>
+      <c r="E129" t="n">
+        <v>0.21992</v>
       </c>
     </row>
     <row r="130">
@@ -5038,13 +5422,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.239016</v>
+        <v>0.242041</v>
       </c>
       <c r="C130" t="n">
-        <v>0.16686</v>
+        <v>0.979407</v>
       </c>
       <c r="D130" t="n">
-        <v>0.883228</v>
+        <v>0.169646</v>
+      </c>
+      <c r="E130" t="n">
+        <v>0.22772</v>
       </c>
     </row>
     <row r="131">
@@ -5052,13 +5439,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.251862</v>
+        <v>0.255737</v>
       </c>
       <c r="C131" t="n">
-        <v>0.167428</v>
+        <v>1.01257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.913185</v>
+        <v>0.171023</v>
+      </c>
+      <c r="E131" t="n">
+        <v>0.233982</v>
       </c>
     </row>
     <row r="132">
@@ -5066,13 +5456,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.256612</v>
+        <v>0.26427</v>
       </c>
       <c r="C132" t="n">
-        <v>0.17944</v>
+        <v>1.04663</v>
       </c>
       <c r="D132" t="n">
-        <v>0.944308</v>
+        <v>0.181413</v>
+      </c>
+      <c r="E132" t="n">
+        <v>0.245899</v>
       </c>
     </row>
     <row r="133">
@@ -5080,13 +5473,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.283444</v>
+        <v>0.287215</v>
       </c>
       <c r="C133" t="n">
-        <v>0.177834</v>
+        <v>1.08271</v>
       </c>
       <c r="D133" t="n">
-        <v>0.976227</v>
+        <v>0.183998</v>
+      </c>
+      <c r="E133" t="n">
+        <v>0.258945</v>
       </c>
     </row>
     <row r="134">
@@ -5094,13 +5490,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.318477</v>
+        <v>0.324731</v>
       </c>
       <c r="C134" t="n">
-        <v>0.18427</v>
+        <v>1.12032</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01038</v>
+        <v>0.195399</v>
+      </c>
+      <c r="E134" t="n">
+        <v>0.271749</v>
       </c>
     </row>
     <row r="135">
@@ -5108,13 +5507,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.350414</v>
+        <v>0.379387</v>
       </c>
       <c r="C135" t="n">
-        <v>0.197733</v>
+        <v>0.764802</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690519</v>
+        <v>0.209558</v>
+      </c>
+      <c r="E135" t="n">
+        <v>0.293754</v>
       </c>
     </row>
     <row r="136">
@@ -5122,13 +5524,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.420566</v>
+        <v>0.438478</v>
       </c>
       <c r="C136" t="n">
-        <v>0.223409</v>
+        <v>0.784043</v>
       </c>
       <c r="D136" t="n">
-        <v>0.708055</v>
+        <v>0.232453</v>
+      </c>
+      <c r="E136" t="n">
+        <v>0.324559</v>
       </c>
     </row>
     <row r="137">
@@ -5136,13 +5541,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.507259</v>
+        <v>0.515323</v>
       </c>
       <c r="C137" t="n">
-        <v>0.264351</v>
+        <v>0.805182</v>
       </c>
       <c r="D137" t="n">
-        <v>0.726391</v>
+        <v>0.288558</v>
+      </c>
+      <c r="E137" t="n">
+        <v>0.336931</v>
       </c>
     </row>
     <row r="138">
@@ -5150,13 +5558,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.336019</v>
+        <v>0.356207</v>
       </c>
       <c r="C138" t="n">
-        <v>0.266441</v>
+        <v>0.8269069999999999</v>
       </c>
       <c r="D138" t="n">
-        <v>0.745886</v>
+        <v>0.289727</v>
+      </c>
+      <c r="E138" t="n">
+        <v>0.342718</v>
       </c>
     </row>
     <row r="139">
@@ -5164,13 +5575,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.340818</v>
+        <v>0.360382</v>
       </c>
       <c r="C139" t="n">
-        <v>0.268618</v>
+        <v>0.849218</v>
       </c>
       <c r="D139" t="n">
-        <v>0.765734</v>
+        <v>0.290594</v>
+      </c>
+      <c r="E139" t="n">
+        <v>0.347188</v>
       </c>
     </row>
     <row r="140">
@@ -5178,13 +5592,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341356</v>
+        <v>0.365373</v>
       </c>
       <c r="C140" t="n">
-        <v>0.271066</v>
+        <v>0.872877</v>
       </c>
       <c r="D140" t="n">
-        <v>0.787222</v>
+        <v>0.293927</v>
+      </c>
+      <c r="E140" t="n">
+        <v>0.351519</v>
       </c>
     </row>
     <row r="141">
@@ -5192,13 +5609,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.346816</v>
+        <v>0.373073</v>
       </c>
       <c r="C141" t="n">
-        <v>0.2751</v>
+        <v>0.897428</v>
       </c>
       <c r="D141" t="n">
-        <v>0.809178</v>
+        <v>0.29539</v>
+      </c>
+      <c r="E141" t="n">
+        <v>0.355588</v>
       </c>
     </row>
     <row r="142">
@@ -5206,13 +5626,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.363407</v>
+        <v>0.377207</v>
       </c>
       <c r="C142" t="n">
-        <v>0.271864</v>
+        <v>0.923956</v>
       </c>
       <c r="D142" t="n">
-        <v>0.832699</v>
+        <v>0.30226</v>
+      </c>
+      <c r="E142" t="n">
+        <v>0.364512</v>
       </c>
     </row>
     <row r="143">
@@ -5220,13 +5643,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.359341</v>
+        <v>0.392993</v>
       </c>
       <c r="C143" t="n">
-        <v>0.281801</v>
+        <v>0.95169</v>
       </c>
       <c r="D143" t="n">
-        <v>0.857394</v>
+        <v>0.301414</v>
+      </c>
+      <c r="E143" t="n">
+        <v>0.370487</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15840" windowWidth="29040" xWindow="-120" yWindow="-120"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="15600" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="plot" sheetId="1" state="visible" r:id="rId1"/>
@@ -89,10 +89,18 @@
         <scatterStyle val="lineMarker"/>
         <varyColors val="0"/>
         <ser>
-          <idx val="3"/>
+          <idx val="0"/>
           <order val="0"/>
           <tx>
-            <v>absl::flat_hash_map</v>
+            <strRef>
+              <f>plot!$B$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>absl::flat_hash_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -552,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0196541</v>
+                  <v>0.0188563</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.022714</v>
+                  <v>0.020482</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0280732</v>
+                  <v>0.0250918</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0383508</v>
+                  <v>0.0324396</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.052548</v>
+                  <v>0.0486736</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.066875</v>
+                  <v>0.0676407</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0901585</v>
+                  <v>0.0914015</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.118385</v>
+                  <v>0.120117</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0166794</v>
+                  <v>0.0161742</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.017095</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0175332</v>
+                  <v>0.017033</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0179948</v>
+                  <v>0.0178156</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186281</v>
+                  <v>0.0186429</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0208214</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0229571</v>
+                  <v>0.0223364</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0261478</v>
+                  <v>0.0265812</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0314248</v>
+                  <v>0.0315209</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0425587</v>
+                  <v>0.0404218</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0519527</v>
+                  <v>0.0523243</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.07000199999999999</v>
+                  <v>0.068802</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0890392</v>
+                  <v>0.0916015</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.119166</v>
+                  <v>0.115789</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0162997</v>
+                  <v>0.0165559</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0169862</v>
+                  <v>0.01713</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0176941</v>
+                  <v>0.017832</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0184008</v>
+                  <v>0.0186431</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0198508</v>
+                  <v>0.0204344</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0220004</v>
+                  <v>0.0223797</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0252038</v>
+                  <v>0.0260575</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.029776</v>
+                  <v>0.0296827</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0355674</v>
+                  <v>0.0351294</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0445372</v>
+                  <v>0.0439567</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0557284</v>
+                  <v>0.0560566</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0722409</v>
+                  <v>0.0724226</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0937438</v>
+                  <v>0.0942229</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120898</v>
+                  <v>0.120526</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.017101</v>
+                  <v>0.0171733</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0179106</v>
+                  <v>0.0178413</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187733</v>
+                  <v>0.0187789</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201048</v>
+                  <v>0.0201514</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218759</v>
+                  <v>0.0218874</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0240552</v>
+                  <v>0.0244952</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0282097</v>
+                  <v>0.0277145</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0323602</v>
+                  <v>0.0318614</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0379086</v>
+                  <v>0.038157</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.045608</v>
+                  <v>0.0458946</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.056116</v>
+                  <v>0.0561284</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0707222</v>
+                  <v>0.07138170000000001</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0919893</v>
+                  <v>0.09212090000000001</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.118674</v>
+                  <v>0.117399</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.145772</v>
+                  <v>0.142611</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0196284</v>
+                  <v>0.0191063</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0208398</v>
+                  <v>0.0202054</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0223922</v>
+                  <v>0.0216884</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0244506</v>
+                  <v>0.023762</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.026822</v>
+                  <v>0.0265754</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0309899</v>
+                  <v>0.0299431</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0354207</v>
+                  <v>0.0344095</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0417881</v>
+                  <v>0.0405591</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0476276</v>
+                  <v>0.0475581</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572692</v>
+                  <v>0.0572633</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0716026</v>
+                  <v>0.0711276</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0905608</v>
+                  <v>0.0912027</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.116785</v>
+                  <v>0.117531</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147933</v>
+                  <v>0.147591</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0197012</v>
+                  <v>0.0198684</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0211376</v>
+                  <v>0.0210982</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228213</v>
+                  <v>0.0228671</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0247479</v>
+                  <v>0.0250892</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274354</v>
+                  <v>0.0274858</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0306606</v>
+                  <v>0.0307585</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0349113</v>
+                  <v>0.0350439</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401967</v>
+                  <v>0.0401473</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0468474</v>
+                  <v>0.0470655</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0560401</v>
+                  <v>0.0565303</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0688926</v>
+                  <v>0.0694931</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0873152</v>
+                  <v>0.0876659</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112319</v>
+                  <v>0.112976</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.143939</v>
+                  <v>0.14429</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0198688</v>
+                  <v>0.0201115</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0212272</v>
+                  <v>0.0216766</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0227931</v>
+                  <v>0.0228365</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248234</v>
+                  <v>0.0248985</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0274348</v>
+                  <v>0.0272584</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0304566</v>
+                  <v>0.0302977</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.03421</v>
+                  <v>0.0342083</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0392722</v>
+                  <v>0.039444</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0457853</v>
+                  <v>0.0458422</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0543613</v>
+                  <v>0.0546333</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0667861</v>
+                  <v>0.0669435</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0837842</v>
+                  <v>0.0841283</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.107021</v>
+                  <v>0.108178</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.138367</v>
+                  <v>0.139209</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0206107</v>
+                  <v>0.0208397</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.021977</v>
+                  <v>0.0217789</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236946</v>
+                  <v>0.0236136</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0252601</v>
+                  <v>0.0250037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0278301</v>
+                  <v>0.0272123</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0304313</v>
+                  <v>0.0306604</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0347894</v>
+                  <v>0.0359699</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0397493</v>
+                  <v>0.0400556</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0462983</v>
+                  <v>0.0464214</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543709</v>
+                  <v>0.0543718</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0656243</v>
+                  <v>0.0654956</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0814584</v>
+                  <v>0.0810722</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.103239</v>
+                  <v>0.102897</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133268</v>
+                  <v>0.133253</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.169441</v>
+                  <v>0.1679</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0309188</v>
+                  <v>0.0312378</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0323647</v>
+                  <v>0.032867</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.034075</v>
+                  <v>0.0343439</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0358327</v>
+                  <v>0.0361309</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383382</v>
+                  <v>0.0383012</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0406737</v>
+                  <v>0.0408352</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0441246</v>
+                  <v>0.0439366</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.048723</v>
+                  <v>0.0486743</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0551746</v>
+                  <v>0.0550738</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0650047</v>
+                  <v>0.0645583</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07941529999999999</v>
+                  <v>0.0791676</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.100142</v>
+                  <v>0.0998057</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128345</v>
+                  <v>0.128197</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.16426</v>
+                  <v>0.163841</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0340693</v>
+                  <v>0.0345014</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035891</v>
+                  <v>0.035219</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0369158</v>
+                  <v>0.0366214</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0387195</v>
+                  <v>0.0384021</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0407176</v>
+                  <v>0.0405117</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0435753</v>
+                  <v>0.0431668</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0474413</v>
+                  <v>0.0465002</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0518101</v>
+                  <v>0.0510499</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0586713</v>
+                  <v>0.0587435</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.06794360000000001</v>
+                  <v>0.0679357</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0817268</v>
+                  <v>0.0816269</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101445</v>
+                  <v>0.101812</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129425</v>
+                  <v>0.129487</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.163873</v>
+                  <v>0.164993</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0473433</v>
+                  <v>0.0468838</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0531312</v>
+                  <v>0.0484521</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.058706</v>
+                  <v>0.0493311</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0582968</v>
+                  <v>0.0507617</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0553286</v>
+                  <v>0.0532957</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0675741</v>
+                  <v>0.0554191</v>
                 </pt>
               </numCache>
             </numRef>
@@ -983,10 +991,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="4"/>
+          <idx val="1"/>
           <order val="1"/>
           <tx>
-            <v>boost::unordered_flat_map</v>
+            <strRef>
+              <f>plot!$C$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -1446,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0236953</v>
+                  <v>0.0745743</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0249792</v>
+                  <v>0.0818991</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0258301</v>
+                  <v>0.0759394</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.027365</v>
+                  <v>0.0880992</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0285038</v>
+                  <v>0.08153489999999999</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0328798</v>
+                  <v>0.0624356</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0393672</v>
+                  <v>0.061869</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0204906</v>
+                  <v>0.0683074</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0206485</v>
+                  <v>0.0686766</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0211179</v>
+                  <v>0.07166640000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0213</v>
+                  <v>0.0739997</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0216018</v>
+                  <v>0.077265</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0219038</v>
+                  <v>0.0817507</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0225654</v>
+                  <v>0.0856117</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0230834</v>
+                  <v>0.0866362</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0241669</v>
+                  <v>0.09086229999999999</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0251919</v>
+                  <v>0.09648760000000001</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0266921</v>
+                  <v>0.096305</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.028982</v>
+                  <v>0.09784320000000001</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0333148</v>
+                  <v>0.0664341</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.041356</v>
+                  <v>0.0712783</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0202092</v>
+                  <v>0.0762056</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0206159</v>
+                  <v>0.0754963</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0208339</v>
+                  <v>0.0791755</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0210765</v>
+                  <v>0.0828492</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0214492</v>
+                  <v>0.08543870000000001</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0218967</v>
+                  <v>0.0887561</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0226372</v>
+                  <v>0.092414</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.023422</v>
+                  <v>0.0948533</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0242916</v>
+                  <v>0.0957143</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0254245</v>
+                  <v>0.09790550000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0274613</v>
+                  <v>0.09936730000000001</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.030458</v>
+                  <v>0.101587</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0342121</v>
+                  <v>0.06934940000000001</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.040763</v>
+                  <v>0.0726347</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0210932</v>
+                  <v>0.07564949999999999</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0214487</v>
+                  <v>0.0790356</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0217322</v>
+                  <v>0.0818281</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0220884</v>
+                  <v>0.0856015</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0225227</v>
+                  <v>0.08902640000000001</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.022985</v>
+                  <v>0.0915702</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0235789</v>
+                  <v>0.0953242</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0242082</v>
+                  <v>0.0973436</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0251386</v>
+                  <v>0.100137</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.026316</v>
+                  <v>0.102066</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0281349</v>
+                  <v>0.104689</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0309591</v>
+                  <v>0.106565</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0351441</v>
+                  <v>0.109417</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0422416</v>
+                  <v>0.0759278</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0221848</v>
+                  <v>0.07929940000000001</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0226422</v>
+                  <v>0.0833945</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0230127</v>
+                  <v>0.08607579999999999</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0233388</v>
+                  <v>0.0893982</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0237292</v>
+                  <v>0.0926165</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0243318</v>
+                  <v>0.09584810000000001</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0249093</v>
+                  <v>0.100165</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0260608</v>
+                  <v>0.101736</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0270795</v>
+                  <v>0.105135</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0277862</v>
+                  <v>0.107339</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0291051</v>
+                  <v>0.109803</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0317252</v>
+                  <v>0.111709</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0360878</v>
+                  <v>0.115496</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0429958</v>
+                  <v>0.0812769</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0551095</v>
+                  <v>0.08581900000000001</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0226031</v>
+                  <v>0.09048920000000001</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0229372</v>
+                  <v>0.09512900000000001</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0232973</v>
+                  <v>0.09904019999999999</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.023692</v>
+                  <v>0.103762</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0242143</v>
+                  <v>0.109767</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0247678</v>
+                  <v>0.115064</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0255057</v>
+                  <v>0.119625</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0263971</v>
+                  <v>0.123912</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0276756</v>
+                  <v>0.128639</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0295323</v>
+                  <v>0.136023</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0321746</v>
+                  <v>0.141569</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0363344</v>
+                  <v>0.147324</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0425489</v>
+                  <v>0.114448</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0534234</v>
+                  <v>0.120419</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0228514</v>
+                  <v>0.125131</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0231978</v>
+                  <v>0.131477</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0235633</v>
+                  <v>0.139604</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0239172</v>
+                  <v>0.146445</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244035</v>
+                  <v>0.154887</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.025024</v>
+                  <v>0.163154</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0259339</v>
+                  <v>0.170385</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0269228</v>
+                  <v>0.178312</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0282665</v>
+                  <v>0.182546</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0299743</v>
+                  <v>0.19023</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0325068</v>
+                  <v>0.200533</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.03601</v>
+                  <v>0.208859</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0416961</v>
+                  <v>0.157758</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0509443</v>
+                  <v>0.162746</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0243696</v>
+                  <v>0.168477</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0248253</v>
+                  <v>0.17633</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0253215</v>
+                  <v>0.183525</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0259145</v>
+                  <v>0.190701</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0267649</v>
+                  <v>0.19753</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0281154</v>
+                  <v>0.204795</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0301922</v>
+                  <v>0.226592</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0330066</v>
+                  <v>0.219043</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0364155</v>
+                  <v>0.227757</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0397311</v>
+                  <v>0.233267</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0428055</v>
+                  <v>0.243865</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0463608</v>
+                  <v>0.252361</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0508278</v>
+                  <v>0.261173</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0575807</v>
+                  <v>0.190647</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0361449</v>
+                  <v>0.197526</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0368822</v>
+                  <v>0.203566</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0379133</v>
+                  <v>0.210146</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0388181</v>
+                  <v>0.218257</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0396854</v>
+                  <v>0.224714</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0406322</v>
+                  <v>0.23258</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0416831</v>
+                  <v>0.239218</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0427634</v>
+                  <v>0.24724</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439657</v>
+                  <v>0.255715</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0456052</v>
+                  <v>0.263655</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0476259</v>
+                  <v>0.271989</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0501364</v>
+                  <v>0.282797</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0541071</v>
+                  <v>0.289767</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0600156</v>
+                  <v>0.206007</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0702492</v>
+                  <v>0.211597</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0426162</v>
+                  <v>0.217961</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0433137</v>
+                  <v>0.22481</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0441334</v>
+                  <v>0.231511</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0448138</v>
+                  <v>0.23876</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0457069</v>
+                  <v>0.246015</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0468309</v>
+                  <v>0.253902</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.047681</v>
+                  <v>0.261754</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0488768</v>
+                  <v>0.269215</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0504662</v>
+                  <v>0.276809</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0524585</v>
+                  <v>0.285243</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0553225</v>
+                  <v>0.294416</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0590454</v>
+                  <v>0.303237</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0649672</v>
+                  <v>0.212509</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07502730000000001</v>
+                  <v>0.21893</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0609618</v>
+                  <v>0.225118</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0606272</v>
+                  <v>0.232231</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0716113</v>
+                  <v>0.239705</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0740532</v>
+                  <v>0.247032</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.075507</v>
+                  <v>0.255056</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0709659</v>
+                  <v>0.262733</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0822119</v>
+                  <v>0.271863</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1877,10 +1893,18 @@
           <smooth val="0"/>
         </ser>
         <ser>
-          <idx val="5"/>
+          <idx val="2"/>
           <order val="2"/>
           <tx>
-            <v>boost::unordered_map</v>
+            <strRef>
+              <f>plot!$D$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_flat_map</v>
+                </pt>
+              </strCache>
+            </strRef>
           </tx>
           <spPr>
             <a:ln>
@@ -2340,430 +2364,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0628543</v>
+                  <v>0.0212525</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0664814</v>
+                  <v>0.0216004</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.07155309999999999</v>
+                  <v>0.0227228</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0787023</v>
+                  <v>0.0236692</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0762729</v>
+                  <v>0.025734</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0596881</v>
+                  <v>0.0307283</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0581592</v>
+                  <v>0.0400074</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0642033</v>
+                  <v>0.0191859</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.066584</v>
+                  <v>0.0194145</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07067469999999999</v>
+                  <v>0.0197171</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.07539460000000001</v>
+                  <v>0.0200098</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0776222</v>
+                  <v>0.0202944</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.08080030000000001</v>
+                  <v>0.0205605</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.08254499999999999</v>
+                  <v>0.0210623</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0868236</v>
+                  <v>0.021745</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0901443</v>
+                  <v>0.0224624</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09041780000000001</v>
+                  <v>0.0233932</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.09432</v>
+                  <v>0.0246564</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0970657</v>
+                  <v>0.0274191</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0672951</v>
+                  <v>0.0316025</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0716408</v>
+                  <v>0.0413247</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0714137</v>
+                  <v>0.0187664</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0762883</v>
+                  <v>0.0190384</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0788282</v>
+                  <v>0.019321</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0817253</v>
+                  <v>0.0195661</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0845086</v>
+                  <v>0.0198599</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0872682</v>
+                  <v>0.0203393</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0900213</v>
+                  <v>0.0209382</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0922123</v>
+                  <v>0.0214818</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0951592</v>
+                  <v>0.0223346</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0965795</v>
+                  <v>0.0233779</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0983135</v>
+                  <v>0.0247673</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101668</v>
+                  <v>0.0273931</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06976019999999999</v>
+                  <v>0.0317286</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0732333</v>
+                  <v>0.039339</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07563</v>
+                  <v>0.0193829</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.07849739999999999</v>
+                  <v>0.0197036</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.082784</v>
+                  <v>0.0199834</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.08502469999999999</v>
+                  <v>0.0203028</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0879409</v>
+                  <v>0.0206416</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.091546</v>
+                  <v>0.021054</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0944207</v>
+                  <v>0.0216854</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0970037</v>
+                  <v>0.0224175</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0991208</v>
+                  <v>0.0232548</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.101009</v>
+                  <v>0.0245789</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.103707</v>
+                  <v>0.0261833</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.105854</v>
+                  <v>0.0289704</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.108622</v>
+                  <v>0.0328291</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.07991180000000001</v>
+                  <v>0.0389724</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0852565</v>
+                  <v>0.0204109</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.09070300000000001</v>
+                  <v>0.0206887</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.100166</v>
+                  <v>0.0209817</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.104121</v>
+                  <v>0.0212755</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.110505</v>
+                  <v>0.0216547</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.118017</v>
+                  <v>0.0221738</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.134799</v>
+                  <v>0.0227227</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.150714</v>
+                  <v>0.0233788</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.149598</v>
+                  <v>0.0243162</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.106064</v>
+                  <v>0.0256636</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.110453</v>
+                  <v>0.0275441</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.112451</v>
+                  <v>0.0301356</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.114784</v>
+                  <v>0.0341597</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0808511</v>
+                  <v>0.0404667</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0851362</v>
+                  <v>0.0516123</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0905902</v>
+                  <v>0.0209483</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0957775</v>
+                  <v>0.0212904</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09995809999999999</v>
+                  <v>0.0216414</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.105452</v>
+                  <v>0.0220066</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.110664</v>
+                  <v>0.022503</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115302</v>
+                  <v>0.0230597</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119763</v>
+                  <v>0.023794</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.125554</v>
+                  <v>0.024724</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.130129</v>
+                  <v>0.0259069</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.134996</v>
+                  <v>0.0276355</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141567</v>
+                  <v>0.0302519</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147833</v>
+                  <v>0.0340355</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.113894</v>
+                  <v>0.0396979</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.121926</v>
+                  <v>0.049477</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.12561</v>
+                  <v>0.0212779</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.134696</v>
+                  <v>0.0216341</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.13899</v>
+                  <v>0.0219984</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.149483</v>
+                  <v>0.0224363</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154065</v>
+                  <v>0.0229328</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163029</v>
+                  <v>0.0235783</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.167705</v>
+                  <v>0.0244305</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178539</v>
+                  <v>0.0254418</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.186083</v>
+                  <v>0.0267137</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.189656</v>
+                  <v>0.0283454</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.197145</v>
+                  <v>0.0308527</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.214136</v>
+                  <v>0.0342322</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.155917</v>
+                  <v>0.03938</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.163239</v>
+                  <v>0.048197</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.170659</v>
+                  <v>0.0229879</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.176032</v>
+                  <v>0.0234516</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.180564</v>
+                  <v>0.0240067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.187866</v>
+                  <v>0.0245912</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.197686</v>
+                  <v>0.0253619</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.205106</v>
+                  <v>0.0267537</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.213378</v>
+                  <v>0.0289872</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.22001</v>
+                  <v>0.0317781</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227646</v>
+                  <v>0.0350402</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.235713</v>
+                  <v>0.0383243</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243297</v>
+                  <v>0.0415289</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252123</v>
+                  <v>0.0449303</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261676</v>
+                  <v>0.0491857</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190199</v>
+                  <v>0.0555259</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197145</v>
+                  <v>0.0351129</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.204605</v>
+                  <v>0.0361988</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.21028</v>
+                  <v>0.0370074</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.217256</v>
+                  <v>0.0378667</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224583</v>
+                  <v>0.0385583</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.233435</v>
+                  <v>0.0395869</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.241083</v>
+                  <v>0.0406235</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.248226</v>
+                  <v>0.0416052</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.256309</v>
+                  <v>0.0428433</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263815</v>
+                  <v>0.0445415</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.272729</v>
+                  <v>0.0464755</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.281114</v>
+                  <v>0.0489272</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.29099</v>
+                  <v>0.0526395</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206413</v>
+                  <v>0.0583473</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211988</v>
+                  <v>0.06810819999999999</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.218375</v>
+                  <v>0.0412799</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.225371</v>
+                  <v>0.0422281</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.233023</v>
+                  <v>0.0429276</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.239145</v>
+                  <v>0.0439297</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246948</v>
+                  <v>0.0447307</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.254198</v>
+                  <v>0.0457736</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261944</v>
+                  <v>0.0468762</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.270874</v>
+                  <v>0.0480061</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.277744</v>
+                  <v>0.0495994</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285401</v>
+                  <v>0.0516555</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294939</v>
+                  <v>0.0541823</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.304154</v>
+                  <v>0.0578916</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212796</v>
+                  <v>0.0634131</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.219404</v>
+                  <v>0.07260369999999999</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.226867</v>
+                  <v>0.0591479</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.233183</v>
+                  <v>0.0608915</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.258776</v>
+                  <v>0.0603453</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.2671</v>
+                  <v>0.0608767</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.259936</v>
+                  <v>0.0620272</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.270609</v>
+                  <v>0.0625593</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.281995</v>
+                  <v>0.0640025</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="3"/>
+          <order val="3"/>
+          <tx>
+            <strRef>
+              <f>plot!$E$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$E$2:$E$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0214076</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0220449</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0228814</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0238445</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.0259967</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.0308818</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0397899</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0190868</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193166</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0195902</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0199197</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202396</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206034</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211027</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.02181</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225325</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.0234089</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0246829</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0272518</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0319929</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0414377</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188357</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191047</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.019293</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195628</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.020006</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203576</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0209983</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216036</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0224206</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0234567</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0248701</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0276153</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0319171</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0394712</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194612</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.019774</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0200997</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204224</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207986</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.0212501</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218422</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0225976</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.023464</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0247861</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0263224</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0291543</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0329324</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0390016</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204605</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.020763</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0211036</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0214464</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0218044</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.02235</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228519</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235195</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0244936</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0258272</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0276262</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0303212</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0343892</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0407201</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0517515</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210642</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0214078</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217171</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0221679</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0225732</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0231145</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.023886</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248041</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.0260928</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279417</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0307152</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0341993</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399898</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0497379</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218936</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0223402</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0229967</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0238374</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0244912</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0255432</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0269618</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0283241</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0302692</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0321612</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0348082</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0382122</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0434233</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0534129</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0282249</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.029139</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.03133</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0341335</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0381704</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0428413</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0471767</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0508107</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0541568</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0573175</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0605919</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.06430470000000001</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.06932820000000001</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.07656540000000001</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0513709</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.0528133</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0541587</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0555634</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0569233</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0585293</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0602617</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0619037</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0640491</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0662812</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.06915499999999999</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.07276100000000001</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.07756780000000001</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.0847301</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0960261</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0604808</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0618613</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0635545</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.0648304</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06670520000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0683797</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0702016</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0724499</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07498920000000001</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0779345</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.081499</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0866347</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.09380090000000001</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.105376</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0789271</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0802612</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.08157540000000001</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0829015</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0845514</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.08594209999999999</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0877042</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2865,8 +3791,8 @@
           <hMode val="factor"/>
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
-          <w val="0.3953147440728324"/>
-          <h val="0.2347463490140655"/>
+          <w val="0.3308817338426756"/>
+          <h val="0.2472877044215627"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -3215,8 +4141,8 @@
   </sheetPr>
   <dimension ref="A1:E143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3232,12 +4158,17 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc16_map</t>
+          <t>boost::unordered_map</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>foa_unordered_rc15_map</t>
+          <t>boost::unordered_flat_map</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>boost::unordered_node_map</t>
         </is>
       </c>
     </row>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104029</v>
+        <v>0.10518</v>
       </c>
       <c r="C2" t="n">
-        <v>0.178813</v>
+        <v>0.106662</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0825723</v>
+        <v>0.0829124</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0825055</v>
+        <v>0.0821245</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111142</v>
+        <v>0.113998</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185673</v>
+        <v>0.11268</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0808807</v>
+        <v>0.0826889</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08079119999999999</v>
+        <v>0.0825153</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.126321</v>
+        <v>0.125186</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193136</v>
+        <v>0.125033</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0818097</v>
+        <v>0.08220710000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0813899</v>
+        <v>0.0826731</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148372</v>
+        <v>0.146151</v>
       </c>
       <c r="C5" t="n">
-        <v>0.199849</v>
+        <v>0.143351</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08167580000000001</v>
+        <v>0.0830066</v>
       </c>
       <c r="E5" t="n">
-        <v>0.081871</v>
+        <v>0.081965</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.163169</v>
+        <v>0.163799</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206692</v>
+        <v>0.16567</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08306520000000001</v>
+        <v>0.0838845</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0833532</v>
+        <v>0.0834357</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.201826</v>
+        <v>0.199435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.154474</v>
+        <v>0.202114</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0878973</v>
+        <v>0.08776059999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0885941</v>
+        <v>0.08883099999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24276</v>
+        <v>0.242767</v>
       </c>
       <c r="C8" t="n">
-        <v>0.162484</v>
+        <v>0.240663</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104318</v>
+        <v>0.103225</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103249</v>
+        <v>0.10365</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.296557</v>
+        <v>0.290477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169408</v>
+        <v>0.288875</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0819587</v>
+        <v>0.0824231</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0821007</v>
+        <v>0.08192489999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0956342</v>
+        <v>0.0955437</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175321</v>
+        <v>0.0966158</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0821429</v>
+        <v>0.0825997</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08223800000000001</v>
+        <v>0.0825051</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0969535</v>
+        <v>0.09618699999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182876</v>
+        <v>0.0980207</v>
       </c>
       <c r="D11" t="n">
-        <v>0.082328</v>
+        <v>0.082792</v>
       </c>
       <c r="E11" t="n">
-        <v>0.082306</v>
+        <v>0.0823931</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09817819999999999</v>
+        <v>0.0977905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190259</v>
+        <v>0.0997807</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08256670000000001</v>
+        <v>0.08302080000000001</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08257970000000001</v>
+        <v>0.08258</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09980169999999999</v>
+        <v>0.0995611</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19813</v>
+        <v>0.101935</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0827552</v>
+        <v>0.08307970000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0827179</v>
+        <v>0.083077</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102286</v>
+        <v>0.102123</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206187</v>
+        <v>0.103856</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0828521</v>
+        <v>0.0833071</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0828723</v>
+        <v>0.08291949999999999</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106184</v>
+        <v>0.10598</v>
       </c>
       <c r="C15" t="n">
-        <v>0.213359</v>
+        <v>0.107641</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0831252</v>
+        <v>0.0836022</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08334610000000001</v>
+        <v>0.0833812</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112556</v>
+        <v>0.111692</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218344</v>
+        <v>0.113224</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0833473</v>
+        <v>0.083879</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0835909</v>
+        <v>0.0835222</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121654</v>
+        <v>0.120942</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224502</v>
+        <v>0.122537</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08359320000000001</v>
+        <v>0.0842854</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0840648</v>
+        <v>0.0837611</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134587</v>
+        <v>0.13298</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230662</v>
+        <v>0.134275</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0835398</v>
+        <v>0.08442139999999999</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08442570000000001</v>
+        <v>0.0844275</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1518</v>
+        <v>0.14957</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237447</v>
+        <v>0.150491</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0842667</v>
+        <v>0.08518679999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08518770000000001</v>
+        <v>0.085785</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.172212</v>
+        <v>0.168464</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243703</v>
+        <v>0.171548</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0881884</v>
+        <v>0.0889687</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0890353</v>
+        <v>0.08918</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.199932</v>
+        <v>0.198397</v>
       </c>
       <c r="C21" t="n">
-        <v>0.179875</v>
+        <v>0.198296</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0961076</v>
+        <v>0.09677810000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09685000000000001</v>
+        <v>0.09715219999999999</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239842</v>
+        <v>0.235663</v>
       </c>
       <c r="C22" t="n">
-        <v>0.186537</v>
+        <v>0.239284</v>
       </c>
       <c r="D22" t="n">
-        <v>0.110394</v>
+        <v>0.110983</v>
       </c>
       <c r="E22" t="n">
-        <v>0.111645</v>
+        <v>0.11163</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286951</v>
+        <v>0.289585</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194244</v>
+        <v>0.285013</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0829691</v>
+        <v>0.083562</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08380170000000001</v>
+        <v>0.0836176</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100666</v>
+        <v>0.100444</v>
       </c>
       <c r="C24" t="n">
-        <v>0.200709</v>
+        <v>0.102194</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0831345</v>
+        <v>0.08373940000000001</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0841422</v>
+        <v>0.0840277</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10204</v>
+        <v>0.101643</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208064</v>
+        <v>0.103772</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0833103</v>
+        <v>0.08982999999999999</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0843907</v>
+        <v>0.0842094</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103666</v>
+        <v>0.102982</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215073</v>
+        <v>0.114402</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08368929999999999</v>
+        <v>0.0841981</v>
       </c>
       <c r="E26" t="n">
-        <v>0.084883</v>
+        <v>0.08469690000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105801</v>
+        <v>0.105004</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222396</v>
+        <v>0.108699</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08398029999999999</v>
+        <v>0.0845641</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0854263</v>
+        <v>0.0856029</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108709</v>
+        <v>0.107795</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227582</v>
+        <v>0.114432</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0841736</v>
+        <v>0.0848743</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08616939999999999</v>
+        <v>0.0860784</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112831</v>
+        <v>0.112207</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233805</v>
+        <v>0.115056</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0847185</v>
+        <v>0.0852376</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08682769999999999</v>
+        <v>0.0867034</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119497</v>
+        <v>0.122472</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23921</v>
+        <v>0.122972</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08506660000000001</v>
+        <v>0.0859246</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0877501</v>
+        <v>0.0877325</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127065</v>
+        <v>0.126425</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244858</v>
+        <v>0.130772</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0857598</v>
+        <v>0.0865533</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0938773</v>
+        <v>0.0928147</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138564</v>
+        <v>0.141437</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250369</v>
+        <v>0.141891</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08692900000000001</v>
+        <v>0.0877667</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0901438</v>
+        <v>0.0923089</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150678</v>
+        <v>0.150362</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255856</v>
+        <v>0.161577</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0902574</v>
+        <v>0.102477</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0932293</v>
+        <v>0.100702</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169147</v>
+        <v>0.1737</v>
       </c>
       <c r="C34" t="n">
-        <v>0.261154</v>
+        <v>0.175479</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0954219</v>
+        <v>0.0960058</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0981358</v>
+        <v>0.0993455</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.199041</v>
+        <v>0.193874</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191306</v>
+        <v>0.195013</v>
       </c>
       <c r="D35" t="n">
-        <v>0.103189</v>
+        <v>0.103816</v>
       </c>
       <c r="E35" t="n">
-        <v>0.106004</v>
+        <v>0.10616</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232101</v>
+        <v>0.229952</v>
       </c>
       <c r="C36" t="n">
-        <v>0.198107</v>
+        <v>0.258533</v>
       </c>
       <c r="D36" t="n">
-        <v>0.115034</v>
+        <v>0.115577</v>
       </c>
       <c r="E36" t="n">
-        <v>0.117839</v>
+        <v>0.118825</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.289401</v>
+        <v>0.285644</v>
       </c>
       <c r="C37" t="n">
-        <v>0.204601</v>
+        <v>0.287755</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0840655</v>
+        <v>0.0853838</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08699229999999999</v>
+        <v>0.08698350000000001</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103777</v>
+        <v>0.106296</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211559</v>
+        <v>0.108206</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0843686</v>
+        <v>0.0848955</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0868507</v>
+        <v>0.08694259999999999</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10502</v>
+        <v>0.109421</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218566</v>
+        <v>0.108283</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08910360000000001</v>
+        <v>0.09366289999999999</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0903384</v>
+        <v>0.0957107</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106676</v>
+        <v>0.114842</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22472</v>
+        <v>0.112075</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0848078</v>
+        <v>0.0853628</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08819879999999999</v>
+        <v>0.09099649999999999</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109194</v>
+        <v>0.11036</v>
       </c>
       <c r="C41" t="n">
-        <v>0.231704</v>
+        <v>0.112663</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0861312</v>
+        <v>0.08575670000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0886385</v>
+        <v>0.0885966</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112801</v>
+        <v>0.115983</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238368</v>
+        <v>0.117793</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0863604</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0895393</v>
+        <v>0.0890519</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116862</v>
+        <v>0.122116</v>
       </c>
       <c r="C43" t="n">
-        <v>0.244142</v>
+        <v>0.12822</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0860977</v>
+        <v>0.0865431</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0898399</v>
+        <v>0.0937877</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.124823</v>
+        <v>0.124062</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250204</v>
+        <v>0.134431</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08676680000000001</v>
+        <v>0.0951988</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0905504</v>
+        <v>0.09068950000000001</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128475</v>
+        <v>0.136777</v>
       </c>
       <c r="C45" t="n">
-        <v>0.256067</v>
+        <v>0.135286</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0881763</v>
+        <v>0.096099</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09190719999999999</v>
+        <v>0.0929014</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.136638</v>
+        <v>0.137488</v>
       </c>
       <c r="C46" t="n">
-        <v>0.260587</v>
+        <v>0.141917</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08935940000000001</v>
+        <v>0.09465899999999999</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09368310000000001</v>
+        <v>0.0935218</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.148706</v>
+        <v>0.148925</v>
       </c>
       <c r="C47" t="n">
-        <v>0.266748</v>
+        <v>0.165757</v>
       </c>
       <c r="D47" t="n">
-        <v>0.092182</v>
+        <v>0.0925106</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0963074</v>
+        <v>0.1001</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165564</v>
+        <v>0.168839</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272699</v>
+        <v>0.169469</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09611020000000001</v>
+        <v>0.102563</v>
       </c>
       <c r="E48" t="n">
-        <v>0.100299</v>
+        <v>0.101134</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189775</v>
+        <v>0.188947</v>
       </c>
       <c r="C49" t="n">
-        <v>0.278656</v>
+        <v>0.197658</v>
       </c>
       <c r="D49" t="n">
-        <v>0.101786</v>
+        <v>0.10239</v>
       </c>
       <c r="E49" t="n">
-        <v>0.105912</v>
+        <v>0.106129</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.222489</v>
+        <v>0.222767</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198228</v>
+        <v>0.232774</v>
       </c>
       <c r="D50" t="n">
-        <v>0.111709</v>
+        <v>0.120859</v>
       </c>
       <c r="E50" t="n">
-        <v>0.116509</v>
+        <v>0.116038</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268313</v>
+        <v>0.265979</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204899</v>
+        <v>0.28526</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0866664</v>
+        <v>0.0897809</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0892281</v>
+        <v>0.089689</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.319327</v>
+        <v>0.339231</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210853</v>
+        <v>0.356827</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0864238</v>
+        <v>0.0984117</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0904891</v>
+        <v>0.089964</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.110611</v>
+        <v>0.112369</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21753</v>
+        <v>0.119439</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0875471</v>
+        <v>0.0920284</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0913402</v>
+        <v>0.0911907</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110347</v>
+        <v>0.110327</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223651</v>
+        <v>0.125234</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0869272</v>
+        <v>0.09218079999999999</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0921106</v>
+        <v>0.09290760000000001</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.115749</v>
+        <v>0.116591</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230099</v>
+        <v>0.119516</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0876547</v>
+        <v>0.08894970000000001</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0914441</v>
+        <v>0.0923673</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.119095</v>
+        <v>0.117507</v>
       </c>
       <c r="C56" t="n">
-        <v>0.236441</v>
+        <v>0.129488</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0877067</v>
+        <v>0.08980970000000001</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0921235</v>
+        <v>0.0931633</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.130715</v>
+        <v>0.129826</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241749</v>
+        <v>0.128238</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08926249999999999</v>
+        <v>0.0897177</v>
       </c>
       <c r="E57" t="n">
-        <v>0.100688</v>
+        <v>0.0946874</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126423</v>
+        <v>0.134784</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246865</v>
+        <v>0.138936</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08974070000000001</v>
+        <v>0.0978398</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0946734</v>
+        <v>0.09499109999999999</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131649</v>
+        <v>0.143291</v>
       </c>
       <c r="C59" t="n">
-        <v>0.252607</v>
+        <v>0.138423</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09105539999999999</v>
+        <v>0.09521019999999999</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0950984</v>
+        <v>0.102916</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.141162</v>
+        <v>0.142852</v>
       </c>
       <c r="C60" t="n">
-        <v>0.257153</v>
+        <v>0.148639</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09504650000000001</v>
+        <v>0.10158</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0980395</v>
+        <v>0.09783360000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.162506</v>
+        <v>0.155112</v>
       </c>
       <c r="C61" t="n">
-        <v>0.262332</v>
+        <v>0.166636</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09551949999999999</v>
+        <v>0.103584</v>
       </c>
       <c r="E61" t="n">
-        <v>0.100874</v>
+        <v>0.0998323</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.170579</v>
+        <v>0.16886</v>
       </c>
       <c r="C62" t="n">
-        <v>0.268512</v>
+        <v>0.174133</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0992792</v>
+        <v>0.0987765</v>
       </c>
       <c r="E62" t="n">
-        <v>0.103475</v>
+        <v>0.116649</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187663</v>
+        <v>0.189214</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273995</v>
+        <v>0.200463</v>
       </c>
       <c r="D63" t="n">
-        <v>0.103371</v>
+        <v>0.103385</v>
       </c>
       <c r="E63" t="n">
-        <v>0.108487</v>
+        <v>0.108563</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.220939</v>
+        <v>0.231765</v>
       </c>
       <c r="C64" t="n">
-        <v>0.201746</v>
+        <v>0.227794</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112488</v>
+        <v>0.127858</v>
       </c>
       <c r="E64" t="n">
-        <v>0.117792</v>
+        <v>0.118442</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267607</v>
+        <v>0.280703</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209901</v>
+        <v>0.275247</v>
       </c>
       <c r="D65" t="n">
-        <v>0.128489</v>
+        <v>0.128577</v>
       </c>
       <c r="E65" t="n">
-        <v>0.132506</v>
+        <v>0.13309</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.316686</v>
+        <v>0.338132</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218499</v>
+        <v>0.326534</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0933807</v>
+        <v>0.09368079999999999</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0978069</v>
+        <v>0.104314</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.122403</v>
+        <v>0.126447</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226097</v>
+        <v>0.135905</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09386410000000001</v>
+        <v>0.0944916</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0982098</v>
+        <v>0.0982489</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124141</v>
+        <v>0.124774</v>
       </c>
       <c r="C68" t="n">
-        <v>0.235193</v>
+        <v>0.130628</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0942476</v>
+        <v>0.09511559999999999</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09892289999999999</v>
+        <v>0.0995201</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.126997</v>
+        <v>0.127132</v>
       </c>
       <c r="C69" t="n">
-        <v>0.24376</v>
+        <v>0.140351</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09941990000000001</v>
+        <v>0.0960018</v>
       </c>
       <c r="E69" t="n">
-        <v>0.100103</v>
+        <v>0.09983069999999999</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.138413</v>
+        <v>0.139042</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256239</v>
+        <v>0.143091</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09975349999999999</v>
+        <v>0.103313</v>
       </c>
       <c r="E70" t="n">
-        <v>0.101108</v>
+        <v>0.100758</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143556</v>
+        <v>0.139822</v>
       </c>
       <c r="C71" t="n">
-        <v>0.265522</v>
+        <v>0.148738</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0962047</v>
+        <v>0.09759379999999999</v>
       </c>
       <c r="E71" t="n">
-        <v>0.102072</v>
+        <v>0.104723</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138798</v>
+        <v>0.147291</v>
       </c>
       <c r="C72" t="n">
-        <v>0.276123</v>
+        <v>0.144814</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09631439999999999</v>
+        <v>0.0977735</v>
       </c>
       <c r="E72" t="n">
-        <v>0.103631</v>
+        <v>0.103056</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.146165</v>
+        <v>0.144859</v>
       </c>
       <c r="C73" t="n">
-        <v>0.287509</v>
+        <v>0.15261</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0982343</v>
+        <v>0.103726</v>
       </c>
       <c r="E73" t="n">
-        <v>0.105006</v>
+        <v>0.10467</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.155047</v>
+        <v>0.155918</v>
       </c>
       <c r="C74" t="n">
-        <v>0.304289</v>
+        <v>0.159997</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0994821</v>
+        <v>0.106985</v>
       </c>
       <c r="E74" t="n">
-        <v>0.109389</v>
+        <v>0.106514</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.172311</v>
+        <v>0.163013</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314207</v>
+        <v>0.171961</v>
       </c>
       <c r="D75" t="n">
-        <v>0.10735</v>
+        <v>0.110136</v>
       </c>
       <c r="E75" t="n">
-        <v>0.116336</v>
+        <v>0.116642</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.180267</v>
+        <v>0.17626</v>
       </c>
       <c r="C76" t="n">
-        <v>0.333846</v>
+        <v>0.186687</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104664</v>
+        <v>0.110996</v>
       </c>
       <c r="E76" t="n">
-        <v>0.113204</v>
+        <v>0.113343</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.207186</v>
+        <v>0.195784</v>
       </c>
       <c r="C77" t="n">
-        <v>0.35021</v>
+        <v>0.208973</v>
       </c>
       <c r="D77" t="n">
-        <v>0.109943</v>
+        <v>0.110024</v>
       </c>
       <c r="E77" t="n">
-        <v>0.118443</v>
+        <v>0.122967</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.226991</v>
+        <v>0.229814</v>
       </c>
       <c r="C78" t="n">
-        <v>0.275829</v>
+        <v>0.249772</v>
       </c>
       <c r="D78" t="n">
-        <v>0.117842</v>
+        <v>0.117769</v>
       </c>
       <c r="E78" t="n">
-        <v>0.127209</v>
+        <v>0.127385</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266746</v>
+        <v>0.283381</v>
       </c>
       <c r="C79" t="n">
-        <v>0.292147</v>
+        <v>0.284304</v>
       </c>
       <c r="D79" t="n">
-        <v>0.131705</v>
+        <v>0.132991</v>
       </c>
       <c r="E79" t="n">
-        <v>0.144032</v>
+        <v>0.142219</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324883</v>
+        <v>0.343782</v>
       </c>
       <c r="C80" t="n">
-        <v>0.316551</v>
+        <v>0.346887</v>
       </c>
       <c r="D80" t="n">
-        <v>0.100686</v>
+        <v>0.108003</v>
       </c>
       <c r="E80" t="n">
-        <v>0.106022</v>
+        <v>0.106333</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145169</v>
+        <v>0.145689</v>
       </c>
       <c r="C81" t="n">
-        <v>0.337268</v>
+        <v>0.141643</v>
       </c>
       <c r="D81" t="n">
-        <v>0.101029</v>
+        <v>0.101939</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106955</v>
+        <v>0.111378</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.147107</v>
+        <v>0.139626</v>
       </c>
       <c r="C82" t="n">
-        <v>0.35831</v>
+        <v>0.149582</v>
       </c>
       <c r="D82" t="n">
-        <v>0.101447</v>
+        <v>0.102502</v>
       </c>
       <c r="E82" t="n">
-        <v>0.107736</v>
+        <v>0.10761</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148619</v>
+        <v>0.149646</v>
       </c>
       <c r="C83" t="n">
-        <v>0.381161</v>
+        <v>0.149535</v>
       </c>
       <c r="D83" t="n">
-        <v>0.101718</v>
+        <v>0.102791</v>
       </c>
       <c r="E83" t="n">
-        <v>0.108859</v>
+        <v>0.109165</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142793</v>
+        <v>0.152309</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405507</v>
+        <v>0.156805</v>
       </c>
       <c r="D84" t="n">
-        <v>0.102547</v>
+        <v>0.10764</v>
       </c>
       <c r="E84" t="n">
-        <v>0.109925</v>
+        <v>0.109913</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145643</v>
+        <v>0.151753</v>
       </c>
       <c r="C85" t="n">
-        <v>0.428238</v>
+        <v>0.153581</v>
       </c>
       <c r="D85" t="n">
-        <v>0.103726</v>
+        <v>0.104067</v>
       </c>
       <c r="E85" t="n">
-        <v>0.111583</v>
+        <v>0.110905</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150199</v>
+        <v>0.149742</v>
       </c>
       <c r="C86" t="n">
-        <v>0.454439</v>
+        <v>0.159795</v>
       </c>
       <c r="D86" t="n">
-        <v>0.104233</v>
+        <v>0.104899</v>
       </c>
       <c r="E86" t="n">
-        <v>0.113821</v>
+        <v>0.113328</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.155719</v>
+        <v>0.15574</v>
       </c>
       <c r="C87" t="n">
-        <v>0.480872</v>
+        <v>0.176655</v>
       </c>
       <c r="D87" t="n">
-        <v>0.105666</v>
+        <v>0.111988</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116097</v>
+        <v>0.115611</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.163817</v>
+        <v>0.169755</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5065190000000001</v>
+        <v>0.188201</v>
       </c>
       <c r="D88" t="n">
-        <v>0.107259</v>
+        <v>0.10794</v>
       </c>
       <c r="E88" t="n">
-        <v>0.119153</v>
+        <v>0.1185</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181382</v>
+        <v>0.177114</v>
       </c>
       <c r="C89" t="n">
-        <v>0.53388</v>
+        <v>0.192171</v>
       </c>
       <c r="D89" t="n">
-        <v>0.109384</v>
+        <v>0.114913</v>
       </c>
       <c r="E89" t="n">
-        <v>0.123758</v>
+        <v>0.123358</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.199843</v>
+        <v>0.193383</v>
       </c>
       <c r="C90" t="n">
-        <v>0.563423</v>
+        <v>0.213144</v>
       </c>
       <c r="D90" t="n">
-        <v>0.112829</v>
+        <v>0.1131</v>
       </c>
       <c r="E90" t="n">
-        <v>0.130547</v>
+        <v>0.129473</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.218824</v>
+        <v>0.211927</v>
       </c>
       <c r="C91" t="n">
-        <v>0.593981</v>
+        <v>0.239781</v>
       </c>
       <c r="D91" t="n">
-        <v>0.118828</v>
+        <v>0.124197</v>
       </c>
       <c r="E91" t="n">
-        <v>0.138543</v>
+        <v>0.138115</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240824</v>
+        <v>0.246008</v>
       </c>
       <c r="C92" t="n">
-        <v>0.445407</v>
+        <v>0.280731</v>
       </c>
       <c r="D92" t="n">
-        <v>0.126423</v>
+        <v>0.133948</v>
       </c>
       <c r="E92" t="n">
-        <v>0.151443</v>
+        <v>0.151485</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.29863</v>
+        <v>0.301974</v>
       </c>
       <c r="C93" t="n">
-        <v>0.465141</v>
+        <v>0.343193</v>
       </c>
       <c r="D93" t="n">
-        <v>0.140452</v>
+        <v>0.141138</v>
       </c>
       <c r="E93" t="n">
-        <v>0.174071</v>
+        <v>0.173882</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361856</v>
+        <v>0.348072</v>
       </c>
       <c r="C94" t="n">
-        <v>0.489583</v>
+        <v>0.431887</v>
       </c>
       <c r="D94" t="n">
-        <v>0.10663</v>
+        <v>0.10739</v>
       </c>
       <c r="E94" t="n">
-        <v>0.120931</v>
+        <v>0.121246</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.151114</v>
+        <v>0.152285</v>
       </c>
       <c r="C95" t="n">
-        <v>0.506286</v>
+        <v>0.16223</v>
       </c>
       <c r="D95" t="n">
-        <v>0.107393</v>
+        <v>0.108545</v>
       </c>
       <c r="E95" t="n">
-        <v>0.124551</v>
+        <v>0.124764</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.147861</v>
+        <v>0.148078</v>
       </c>
       <c r="C96" t="n">
-        <v>0.528896</v>
+        <v>0.168955</v>
       </c>
       <c r="D96" t="n">
-        <v>0.109178</v>
+        <v>0.110367</v>
       </c>
       <c r="E96" t="n">
-        <v>0.13072</v>
+        <v>0.129799</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.151612</v>
+        <v>0.151475</v>
       </c>
       <c r="C97" t="n">
-        <v>0.551775</v>
+        <v>0.176961</v>
       </c>
       <c r="D97" t="n">
-        <v>0.110957</v>
+        <v>0.112179</v>
       </c>
       <c r="E97" t="n">
-        <v>0.135578</v>
+        <v>0.136041</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.157262</v>
+        <v>0.155538</v>
       </c>
       <c r="C98" t="n">
-        <v>0.576801</v>
+        <v>0.195834</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113426</v>
+        <v>0.114449</v>
       </c>
       <c r="E98" t="n">
-        <v>0.141601</v>
+        <v>0.141761</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.168719</v>
+        <v>0.160972</v>
       </c>
       <c r="C99" t="n">
-        <v>0.600569</v>
+        <v>0.195763</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1164</v>
+        <v>0.120889</v>
       </c>
       <c r="E99" t="n">
-        <v>0.148569</v>
+        <v>0.148331</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.168319</v>
+        <v>0.178132</v>
       </c>
       <c r="C100" t="n">
-        <v>0.625664</v>
+        <v>0.208548</v>
       </c>
       <c r="D100" t="n">
-        <v>0.11991</v>
+        <v>0.120743</v>
       </c>
       <c r="E100" t="n">
-        <v>0.15552</v>
+        <v>0.155575</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187773</v>
+        <v>0.178175</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6543060000000001</v>
+        <v>0.233413</v>
       </c>
       <c r="D101" t="n">
-        <v>0.123549</v>
+        <v>0.124842</v>
       </c>
       <c r="E101" t="n">
-        <v>0.16351</v>
+        <v>0.163143</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.199823</v>
+        <v>0.192157</v>
       </c>
       <c r="C102" t="n">
-        <v>0.682352</v>
+        <v>0.23735</v>
       </c>
       <c r="D102" t="n">
-        <v>0.128611</v>
+        <v>0.12938</v>
       </c>
       <c r="E102" t="n">
-        <v>0.170875</v>
+        <v>0.171347</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.215455</v>
+        <v>0.204528</v>
       </c>
       <c r="C103" t="n">
-        <v>0.711495</v>
+        <v>0.257014</v>
       </c>
       <c r="D103" t="n">
-        <v>0.134418</v>
+        <v>0.139394</v>
       </c>
       <c r="E103" t="n">
-        <v>0.179389</v>
+        <v>0.179236</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.236352</v>
+        <v>0.236643</v>
       </c>
       <c r="C104" t="n">
-        <v>0.744345</v>
+        <v>0.283029</v>
       </c>
       <c r="D104" t="n">
-        <v>0.141347</v>
+        <v>0.147101</v>
       </c>
       <c r="E104" t="n">
-        <v>0.192744</v>
+        <v>0.18899</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.259011</v>
+        <v>0.251973</v>
       </c>
       <c r="C105" t="n">
-        <v>0.777431</v>
+        <v>0.31885</v>
       </c>
       <c r="D105" t="n">
-        <v>0.150549</v>
+        <v>0.150858</v>
       </c>
       <c r="E105" t="n">
-        <v>0.200269</v>
+        <v>0.200572</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.292122</v>
+        <v>0.288556</v>
       </c>
       <c r="C106" t="n">
-        <v>0.813474</v>
+        <v>0.353091</v>
       </c>
       <c r="D106" t="n">
-        <v>0.16195</v>
+        <v>0.162207</v>
       </c>
       <c r="E106" t="n">
-        <v>0.215043</v>
+        <v>0.215308</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.34742</v>
+        <v>0.328246</v>
       </c>
       <c r="C107" t="n">
-        <v>0.636356</v>
+        <v>0.410322</v>
       </c>
       <c r="D107" t="n">
-        <v>0.178365</v>
+        <v>0.179334</v>
       </c>
       <c r="E107" t="n">
-        <v>0.235875</v>
+        <v>0.235929</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.394911</v>
+        <v>0.394311</v>
       </c>
       <c r="C108" t="n">
-        <v>0.658552</v>
+        <v>0.49084</v>
       </c>
       <c r="D108" t="n">
-        <v>0.130421</v>
+        <v>0.131228</v>
       </c>
       <c r="E108" t="n">
-        <v>0.165483</v>
+        <v>0.165653</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.49468</v>
+        <v>0.494163</v>
       </c>
       <c r="C109" t="n">
-        <v>0.681494</v>
+        <v>0.62163</v>
       </c>
       <c r="D109" t="n">
-        <v>0.133058</v>
+        <v>0.134935</v>
       </c>
       <c r="E109" t="n">
-        <v>0.169589</v>
+        <v>0.169684</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.185204</v>
+        <v>0.17472</v>
       </c>
       <c r="C110" t="n">
-        <v>0.70635</v>
+        <v>0.214763</v>
       </c>
       <c r="D110" t="n">
-        <v>0.135796</v>
+        <v>0.136589</v>
       </c>
       <c r="E110" t="n">
-        <v>0.173772</v>
+        <v>0.17389</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.18692</v>
+        <v>0.181148</v>
       </c>
       <c r="C111" t="n">
-        <v>0.733001</v>
+        <v>0.222218</v>
       </c>
       <c r="D111" t="n">
-        <v>0.138487</v>
+        <v>0.139416</v>
       </c>
       <c r="E111" t="n">
-        <v>0.178135</v>
+        <v>0.178236</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.185462</v>
+        <v>0.187698</v>
       </c>
       <c r="C112" t="n">
-        <v>0.758934</v>
+        <v>0.227768</v>
       </c>
       <c r="D112" t="n">
-        <v>0.141096</v>
+        <v>0.144316</v>
       </c>
       <c r="E112" t="n">
-        <v>0.182189</v>
+        <v>0.183831</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.200977</v>
+        <v>0.190384</v>
       </c>
       <c r="C113" t="n">
-        <v>0.786868</v>
+        <v>0.238835</v>
       </c>
       <c r="D113" t="n">
-        <v>0.144083</v>
+        <v>0.145417</v>
       </c>
       <c r="E113" t="n">
-        <v>0.186808</v>
+        <v>0.186844</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.197272</v>
+        <v>0.19635</v>
       </c>
       <c r="C114" t="n">
-        <v>0.815024</v>
+        <v>0.24552</v>
       </c>
       <c r="D114" t="n">
-        <v>0.147058</v>
+        <v>0.147959</v>
       </c>
       <c r="E114" t="n">
-        <v>0.191552</v>
+        <v>0.192039</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.205482</v>
+        <v>0.204743</v>
       </c>
       <c r="C115" t="n">
-        <v>0.844692</v>
+        <v>0.267277</v>
       </c>
       <c r="D115" t="n">
-        <v>0.150108</v>
+        <v>0.151632</v>
       </c>
       <c r="E115" t="n">
-        <v>0.196985</v>
+        <v>0.197479</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.225491</v>
+        <v>0.214763</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8754150000000001</v>
+        <v>0.270997</v>
       </c>
       <c r="D116" t="n">
-        <v>0.153736</v>
+        <v>0.155153</v>
       </c>
       <c r="E116" t="n">
-        <v>0.202877</v>
+        <v>0.203157</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.238578</v>
+        <v>0.227617</v>
       </c>
       <c r="C117" t="n">
-        <v>0.907951</v>
+        <v>0.289411</v>
       </c>
       <c r="D117" t="n">
-        <v>0.158025</v>
+        <v>0.159081</v>
       </c>
       <c r="E117" t="n">
-        <v>0.209475</v>
+        <v>0.210051</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.251161</v>
+        <v>0.247862</v>
       </c>
       <c r="C118" t="n">
-        <v>0.942181</v>
+        <v>0.313578</v>
       </c>
       <c r="D118" t="n">
-        <v>0.163611</v>
+        <v>0.166316</v>
       </c>
       <c r="E118" t="n">
-        <v>0.217897</v>
+        <v>0.218174</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.269455</v>
+        <v>0.27576</v>
       </c>
       <c r="C119" t="n">
-        <v>0.976833</v>
+        <v>0.349956</v>
       </c>
       <c r="D119" t="n">
-        <v>0.170383</v>
+        <v>0.171184</v>
       </c>
       <c r="E119" t="n">
-        <v>0.228165</v>
+        <v>0.228683</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.311833</v>
+        <v>0.299885</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01358</v>
+        <v>0.383507</v>
       </c>
       <c r="D120" t="n">
-        <v>0.179792</v>
+        <v>0.180984</v>
       </c>
       <c r="E120" t="n">
-        <v>0.242389</v>
+        <v>0.242851</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.350684</v>
+        <v>0.343316</v>
       </c>
       <c r="C121" t="n">
-        <v>0.739131</v>
+        <v>0.441875</v>
       </c>
       <c r="D121" t="n">
-        <v>0.194567</v>
+        <v>0.195941</v>
       </c>
       <c r="E121" t="n">
-        <v>0.262981</v>
+        <v>0.263765</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.424381</v>
+        <v>0.412239</v>
       </c>
       <c r="C122" t="n">
-        <v>0.761408</v>
+        <v>0.530042</v>
       </c>
       <c r="D122" t="n">
-        <v>0.218872</v>
+        <v>0.219811</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297184</v>
+        <v>0.297965</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.509914</v>
+        <v>0.514356</v>
       </c>
       <c r="C123" t="n">
-        <v>0.78487</v>
+        <v>0.660453</v>
       </c>
       <c r="D123" t="n">
-        <v>0.149589</v>
+        <v>0.150383</v>
       </c>
       <c r="E123" t="n">
-        <v>0.193085</v>
+        <v>0.190688</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20619</v>
+        <v>0.199503</v>
       </c>
       <c r="C124" t="n">
-        <v>0.809522</v>
+        <v>0.242635</v>
       </c>
       <c r="D124" t="n">
-        <v>0.154891</v>
+        <v>0.159908</v>
       </c>
       <c r="E124" t="n">
-        <v>0.19641</v>
+        <v>0.203049</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.197286</v>
+        <v>0.19673</v>
       </c>
       <c r="C125" t="n">
-        <v>0.834418</v>
+        <v>0.25926</v>
       </c>
       <c r="D125" t="n">
-        <v>0.152086</v>
+        <v>0.15365</v>
       </c>
       <c r="E125" t="n">
-        <v>0.20094</v>
+        <v>0.199113</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.212066</v>
+        <v>0.204906</v>
       </c>
       <c r="C126" t="n">
-        <v>0.860685</v>
+        <v>0.259321</v>
       </c>
       <c r="D126" t="n">
-        <v>0.15633</v>
+        <v>0.154419</v>
       </c>
       <c r="E126" t="n">
-        <v>0.205845</v>
+        <v>0.204983</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.218945</v>
+        <v>0.217708</v>
       </c>
       <c r="C127" t="n">
-        <v>0.888089</v>
+        <v>0.270915</v>
       </c>
       <c r="D127" t="n">
-        <v>0.162636</v>
+        <v>0.162825</v>
       </c>
       <c r="E127" t="n">
-        <v>0.209362</v>
+        <v>0.211235</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.226474</v>
+        <v>0.225231</v>
       </c>
       <c r="C128" t="n">
-        <v>0.917578</v>
+        <v>0.272251</v>
       </c>
       <c r="D128" t="n">
-        <v>0.163329</v>
+        <v>0.160493</v>
       </c>
       <c r="E128" t="n">
-        <v>0.213403</v>
+        <v>0.212242</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.231839</v>
+        <v>0.224675</v>
       </c>
       <c r="C129" t="n">
-        <v>0.94811</v>
+        <v>0.288644</v>
       </c>
       <c r="D129" t="n">
-        <v>0.164496</v>
+        <v>0.172047</v>
       </c>
       <c r="E129" t="n">
-        <v>0.21992</v>
+        <v>0.226512</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.242041</v>
+        <v>0.23524</v>
       </c>
       <c r="C130" t="n">
-        <v>0.979407</v>
+        <v>0.304887</v>
       </c>
       <c r="D130" t="n">
-        <v>0.169646</v>
+        <v>0.168586</v>
       </c>
       <c r="E130" t="n">
-        <v>0.22772</v>
+        <v>0.230137</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.255737</v>
+        <v>0.244396</v>
       </c>
       <c r="C131" t="n">
-        <v>1.01257</v>
+        <v>0.3257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.171023</v>
+        <v>0.172318</v>
       </c>
       <c r="E131" t="n">
-        <v>0.233982</v>
+        <v>0.234256</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.26427</v>
+        <v>0.267953</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04663</v>
+        <v>0.350221</v>
       </c>
       <c r="D132" t="n">
-        <v>0.181413</v>
+        <v>0.178656</v>
       </c>
       <c r="E132" t="n">
-        <v>0.245899</v>
+        <v>0.24387</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.287215</v>
+        <v>0.28619</v>
       </c>
       <c r="C133" t="n">
-        <v>1.08271</v>
+        <v>0.375133</v>
       </c>
       <c r="D133" t="n">
-        <v>0.183998</v>
+        <v>0.187551</v>
       </c>
       <c r="E133" t="n">
-        <v>0.258945</v>
+        <v>0.256518</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.324731</v>
+        <v>0.314633</v>
       </c>
       <c r="C134" t="n">
-        <v>1.12032</v>
+        <v>0.422927</v>
       </c>
       <c r="D134" t="n">
-        <v>0.195399</v>
+        <v>0.196527</v>
       </c>
       <c r="E134" t="n">
-        <v>0.271749</v>
+        <v>0.271907</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.379387</v>
+        <v>0.358837</v>
       </c>
       <c r="C135" t="n">
-        <v>0.764802</v>
+        <v>0.474423</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209558</v>
+        <v>0.214825</v>
       </c>
       <c r="E135" t="n">
-        <v>0.293754</v>
+        <v>0.294605</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.438478</v>
+        <v>0.432088</v>
       </c>
       <c r="C136" t="n">
-        <v>0.784043</v>
+        <v>0.5710730000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.232453</v>
+        <v>0.228835</v>
       </c>
       <c r="E136" t="n">
-        <v>0.324559</v>
+        <v>0.324147</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.515323</v>
+        <v>0.5248390000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.805182</v>
+        <v>0.711534</v>
       </c>
       <c r="D137" t="n">
-        <v>0.288558</v>
+        <v>0.288636</v>
       </c>
       <c r="E137" t="n">
-        <v>0.336931</v>
+        <v>0.338858</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.356207</v>
+        <v>0.365155</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8269069999999999</v>
+        <v>0.414562</v>
       </c>
       <c r="D138" t="n">
-        <v>0.289727</v>
+        <v>0.287781</v>
       </c>
       <c r="E138" t="n">
-        <v>0.342718</v>
+        <v>0.34324</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.360382</v>
+        <v>0.365479</v>
       </c>
       <c r="C139" t="n">
-        <v>0.849218</v>
+        <v>0.422671</v>
       </c>
       <c r="D139" t="n">
-        <v>0.290594</v>
+        <v>0.293016</v>
       </c>
       <c r="E139" t="n">
-        <v>0.347188</v>
+        <v>0.345383</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.365373</v>
+        <v>0.371014</v>
       </c>
       <c r="C140" t="n">
-        <v>0.872877</v>
+        <v>0.430945</v>
       </c>
       <c r="D140" t="n">
-        <v>0.293927</v>
+        <v>0.293813</v>
       </c>
       <c r="E140" t="n">
-        <v>0.351519</v>
+        <v>0.352681</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.373073</v>
+        <v>0.372465</v>
       </c>
       <c r="C141" t="n">
-        <v>0.897428</v>
+        <v>0.439892</v>
       </c>
       <c r="D141" t="n">
-        <v>0.29539</v>
+        <v>0.298714</v>
       </c>
       <c r="E141" t="n">
-        <v>0.355588</v>
+        <v>0.360552</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.377207</v>
+        <v>0.380422</v>
       </c>
       <c r="C142" t="n">
-        <v>0.923956</v>
+        <v>0.449924</v>
       </c>
       <c r="D142" t="n">
-        <v>0.30226</v>
+        <v>0.3008</v>
       </c>
       <c r="E142" t="n">
-        <v>0.364512</v>
+        <v>0.365861</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.392993</v>
+        <v>0.382161</v>
       </c>
       <c r="C143" t="n">
-        <v>0.95169</v>
+        <v>0.465973</v>
       </c>
       <c r="D143" t="n">
-        <v>0.301414</v>
+        <v>0.301792</v>
       </c>
       <c r="E143" t="n">
-        <v>0.370487</v>
+        <v>0.371577</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -4177,16 +4177,16 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104029</v>
+        <v>0.104413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.178813</v>
+        <v>0.178784</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0825723</v>
+        <v>0.0826325</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0825055</v>
+        <v>0.08254649999999999</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4194,16 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.111142</v>
+        <v>0.11157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185673</v>
+        <v>0.185459</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0808807</v>
+        <v>0.0809769</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08079119999999999</v>
+        <v>0.08294169999999999</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4211,16 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.126321</v>
+        <v>0.126771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.193136</v>
+        <v>0.192372</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0818097</v>
+        <v>0.0811781</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0813899</v>
+        <v>0.0823969</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4228,16 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.148372</v>
+        <v>0.149024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.199849</v>
+        <v>0.199321</v>
       </c>
       <c r="D5" t="n">
-        <v>0.08167580000000001</v>
+        <v>0.0819647</v>
       </c>
       <c r="E5" t="n">
-        <v>0.081871</v>
+        <v>0.0820188</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4245,16 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.163169</v>
+        <v>0.163079</v>
       </c>
       <c r="C6" t="n">
-        <v>0.206692</v>
+        <v>0.205292</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08306520000000001</v>
+        <v>0.08321630000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0833532</v>
+        <v>0.0837167</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4262,16 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.201826</v>
+        <v>0.202196</v>
       </c>
       <c r="C7" t="n">
-        <v>0.154474</v>
+        <v>0.154603</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0878973</v>
+        <v>0.0880944</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0885941</v>
+        <v>0.08845409999999999</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4279,16 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.24276</v>
+        <v>0.243669</v>
       </c>
       <c r="C8" t="n">
-        <v>0.162484</v>
+        <v>0.162412</v>
       </c>
       <c r="D8" t="n">
-        <v>0.104318</v>
+        <v>0.103069</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103249</v>
+        <v>0.104383</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4296,16 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.296557</v>
+        <v>0.297284</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169408</v>
+        <v>0.169588</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0819587</v>
+        <v>0.0820239</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0821007</v>
+        <v>0.082181</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4313,16 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0956342</v>
+        <v>0.09542249999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.175321</v>
+        <v>0.176604</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0821429</v>
+        <v>0.0821118</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08223800000000001</v>
+        <v>0.0821665</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4330,16 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0969535</v>
+        <v>0.09709</v>
       </c>
       <c r="C11" t="n">
-        <v>0.182876</v>
+        <v>0.18376</v>
       </c>
       <c r="D11" t="n">
-        <v>0.082328</v>
+        <v>0.08237650000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>0.082306</v>
+        <v>0.08250739999999999</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4347,16 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09817819999999999</v>
+        <v>0.0983493</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190259</v>
+        <v>0.191295</v>
       </c>
       <c r="D12" t="n">
-        <v>0.08256670000000001</v>
+        <v>0.082553</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08257970000000001</v>
+        <v>0.0829144</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4364,16 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.09980169999999999</v>
+        <v>0.0999568</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19813</v>
+        <v>0.198411</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0827552</v>
+        <v>0.08269269999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0827179</v>
+        <v>0.0832589</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4381,16 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102286</v>
+        <v>0.102434</v>
       </c>
       <c r="C14" t="n">
-        <v>0.206187</v>
+        <v>0.204767</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0828521</v>
+        <v>0.0828889</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0828723</v>
+        <v>0.0832398</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4398,16 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.106184</v>
+        <v>0.105761</v>
       </c>
       <c r="C15" t="n">
-        <v>0.213359</v>
+        <v>0.212226</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0831252</v>
+        <v>0.083219</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08334610000000001</v>
+        <v>0.0835467</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4415,16 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112556</v>
+        <v>0.112294</v>
       </c>
       <c r="C16" t="n">
-        <v>0.218344</v>
+        <v>0.21726</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0833473</v>
+        <v>0.0835111</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0835909</v>
+        <v>0.08368250000000001</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4432,16 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121654</v>
+        <v>0.121748</v>
       </c>
       <c r="C17" t="n">
-        <v>0.224502</v>
+        <v>0.223614</v>
       </c>
       <c r="D17" t="n">
-        <v>0.08359320000000001</v>
+        <v>0.0837717</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0840648</v>
+        <v>0.08439629999999999</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4449,16 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134587</v>
+        <v>0.13335</v>
       </c>
       <c r="C18" t="n">
-        <v>0.230662</v>
+        <v>0.228858</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0835398</v>
+        <v>0.08370560000000001</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08442570000000001</v>
+        <v>0.08469839999999999</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4466,16 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.1518</v>
+        <v>0.151272</v>
       </c>
       <c r="C19" t="n">
-        <v>0.237447</v>
+        <v>0.235418</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0842667</v>
+        <v>0.0846049</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08518770000000001</v>
+        <v>0.0856803</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4483,16 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.172212</v>
+        <v>0.172097</v>
       </c>
       <c r="C20" t="n">
-        <v>0.243703</v>
+        <v>0.241736</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0881884</v>
+        <v>0.08837589999999999</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0890353</v>
+        <v>0.08973299999999999</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4500,16 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.199932</v>
+        <v>0.199162</v>
       </c>
       <c r="C21" t="n">
-        <v>0.179875</v>
+        <v>0.177719</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0961076</v>
+        <v>0.0959764</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09685000000000001</v>
+        <v>0.09740360000000001</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4517,16 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239842</v>
+        <v>0.239227</v>
       </c>
       <c r="C22" t="n">
-        <v>0.186537</v>
+        <v>0.185339</v>
       </c>
       <c r="D22" t="n">
-        <v>0.110394</v>
+        <v>0.110623</v>
       </c>
       <c r="E22" t="n">
-        <v>0.111645</v>
+        <v>0.110841</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4534,16 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286951</v>
+        <v>0.286566</v>
       </c>
       <c r="C23" t="n">
-        <v>0.194244</v>
+        <v>0.191402</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0829691</v>
+        <v>0.08311979999999999</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08380170000000001</v>
+        <v>0.0842806</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4551,16 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100666</v>
+        <v>0.100888</v>
       </c>
       <c r="C24" t="n">
-        <v>0.200709</v>
+        <v>0.199605</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0831345</v>
+        <v>0.0833281</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0841422</v>
+        <v>0.08416419999999999</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4568,16 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.10204</v>
+        <v>0.102229</v>
       </c>
       <c r="C25" t="n">
-        <v>0.208064</v>
+        <v>0.205815</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0833103</v>
+        <v>0.0835292</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0843907</v>
+        <v>0.0846249</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4585,16 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103666</v>
+        <v>0.103851</v>
       </c>
       <c r="C26" t="n">
-        <v>0.215073</v>
+        <v>0.212757</v>
       </c>
       <c r="D26" t="n">
-        <v>0.08368929999999999</v>
+        <v>0.0837851</v>
       </c>
       <c r="E26" t="n">
-        <v>0.084883</v>
+        <v>0.08481900000000001</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4602,16 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105801</v>
+        <v>0.105902</v>
       </c>
       <c r="C27" t="n">
-        <v>0.222396</v>
+        <v>0.219802</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08398029999999999</v>
+        <v>0.08403629999999999</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0854263</v>
+        <v>0.08546719999999999</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4619,16 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108709</v>
+        <v>0.108925</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227582</v>
+        <v>0.227263</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0841736</v>
+        <v>0.0843396</v>
       </c>
       <c r="E28" t="n">
-        <v>0.08616939999999999</v>
+        <v>0.0857639</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4636,16 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112831</v>
+        <v>0.112897</v>
       </c>
       <c r="C29" t="n">
-        <v>0.233805</v>
+        <v>0.232552</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0847185</v>
+        <v>0.08469640000000001</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08682769999999999</v>
+        <v>0.08607099999999999</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4653,16 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119497</v>
+        <v>0.119643</v>
       </c>
       <c r="C30" t="n">
-        <v>0.23921</v>
+        <v>0.238163</v>
       </c>
       <c r="D30" t="n">
-        <v>0.08506660000000001</v>
+        <v>0.0853184</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0877501</v>
+        <v>0.08698699999999999</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4670,16 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127065</v>
+        <v>0.127322</v>
       </c>
       <c r="C31" t="n">
-        <v>0.244858</v>
+        <v>0.24331</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0857598</v>
+        <v>0.08589289999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0938773</v>
+        <v>0.08778759999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4687,16 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138564</v>
+        <v>0.138572</v>
       </c>
       <c r="C32" t="n">
-        <v>0.250369</v>
+        <v>0.248563</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08692900000000001</v>
+        <v>0.08709989999999999</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0901438</v>
+        <v>0.0893038</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4704,16 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150678</v>
+        <v>0.150707</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255856</v>
+        <v>0.255024</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0902574</v>
+        <v>0.0900016</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0932293</v>
+        <v>0.091915</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4721,16 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169147</v>
+        <v>0.169057</v>
       </c>
       <c r="C34" t="n">
-        <v>0.261154</v>
+        <v>0.259401</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0954219</v>
+        <v>0.0951983</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0981358</v>
+        <v>0.0976807</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4738,16 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.199041</v>
+        <v>0.194487</v>
       </c>
       <c r="C35" t="n">
-        <v>0.191306</v>
+        <v>0.190455</v>
       </c>
       <c r="D35" t="n">
-        <v>0.103189</v>
+        <v>0.103048</v>
       </c>
       <c r="E35" t="n">
-        <v>0.106004</v>
+        <v>0.105266</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4755,16 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232101</v>
+        <v>0.231826</v>
       </c>
       <c r="C36" t="n">
-        <v>0.198107</v>
+        <v>0.197298</v>
       </c>
       <c r="D36" t="n">
-        <v>0.115034</v>
+        <v>0.11481</v>
       </c>
       <c r="E36" t="n">
-        <v>0.117839</v>
+        <v>0.117025</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4772,16 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.289401</v>
+        <v>0.276085</v>
       </c>
       <c r="C37" t="n">
-        <v>0.204601</v>
+        <v>0.20506</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0840655</v>
+        <v>0.0840991</v>
       </c>
       <c r="E37" t="n">
-        <v>0.08699229999999999</v>
+        <v>0.0857445</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4789,16 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103777</v>
+        <v>0.103797</v>
       </c>
       <c r="C38" t="n">
-        <v>0.211559</v>
+        <v>0.21131</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0843686</v>
+        <v>0.0844311</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0868507</v>
+        <v>0.0862363</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4806,16 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.10502</v>
+        <v>0.105046</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218566</v>
+        <v>0.218118</v>
       </c>
       <c r="D39" t="n">
-        <v>0.08910360000000001</v>
+        <v>0.0848424</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0903384</v>
+        <v>0.086602</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4823,16 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106676</v>
+        <v>0.106674</v>
       </c>
       <c r="C40" t="n">
-        <v>0.22472</v>
+        <v>0.225084</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0848078</v>
+        <v>0.0847345</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08819879999999999</v>
+        <v>0.0869789</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4840,16 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109194</v>
+        <v>0.109147</v>
       </c>
       <c r="C41" t="n">
-        <v>0.231704</v>
+        <v>0.231717</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0861312</v>
+        <v>0.0851484</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0886385</v>
+        <v>0.0879355</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4857,16 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112801</v>
+        <v>0.112297</v>
       </c>
       <c r="C42" t="n">
-        <v>0.238368</v>
+        <v>0.23792</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0863604</v>
+        <v>0.0854661</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0895393</v>
+        <v>0.0880211</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4874,16 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116862</v>
+        <v>0.116277</v>
       </c>
       <c r="C43" t="n">
-        <v>0.244142</v>
+        <v>0.243531</v>
       </c>
       <c r="D43" t="n">
-        <v>0.0860977</v>
+        <v>0.085859</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0898399</v>
+        <v>0.08894870000000001</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +4891,16 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.124823</v>
+        <v>0.122058</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250204</v>
+        <v>0.250043</v>
       </c>
       <c r="D44" t="n">
-        <v>0.08676680000000001</v>
+        <v>0.0868017</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0905504</v>
+        <v>0.0897318</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +4908,16 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128475</v>
+        <v>0.128265</v>
       </c>
       <c r="C45" t="n">
-        <v>0.256067</v>
+        <v>0.255545</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0881763</v>
+        <v>0.0875476</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09190719999999999</v>
+        <v>0.09117550000000001</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +4925,16 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.136638</v>
+        <v>0.13656</v>
       </c>
       <c r="C46" t="n">
-        <v>0.260587</v>
+        <v>0.261266</v>
       </c>
       <c r="D46" t="n">
-        <v>0.08935940000000001</v>
+        <v>0.0892901</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09368310000000001</v>
+        <v>0.09286170000000001</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +4942,16 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.148706</v>
+        <v>0.149184</v>
       </c>
       <c r="C47" t="n">
-        <v>0.266748</v>
+        <v>0.266253</v>
       </c>
       <c r="D47" t="n">
-        <v>0.092182</v>
+        <v>0.0923393</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0963074</v>
+        <v>0.0957252</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +4959,16 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165564</v>
+        <v>0.165573</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272699</v>
+        <v>0.272272</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09611020000000001</v>
+        <v>0.09585</v>
       </c>
       <c r="E48" t="n">
-        <v>0.100299</v>
+        <v>0.0998549</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +4976,16 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189775</v>
+        <v>0.189869</v>
       </c>
       <c r="C49" t="n">
-        <v>0.278656</v>
+        <v>0.277757</v>
       </c>
       <c r="D49" t="n">
-        <v>0.101786</v>
+        <v>0.101798</v>
       </c>
       <c r="E49" t="n">
-        <v>0.105912</v>
+        <v>0.106627</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +4993,16 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.222489</v>
+        <v>0.222452</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198228</v>
+        <v>0.198105</v>
       </c>
       <c r="D50" t="n">
-        <v>0.111709</v>
+        <v>0.111746</v>
       </c>
       <c r="E50" t="n">
-        <v>0.116509</v>
+        <v>0.115511</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5010,16 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268313</v>
+        <v>0.268251</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204899</v>
+        <v>0.204614</v>
       </c>
       <c r="D51" t="n">
-        <v>0.0866664</v>
+        <v>0.08600820000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0892281</v>
+        <v>0.0895257</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5027,16 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.319327</v>
+        <v>0.318081</v>
       </c>
       <c r="C52" t="n">
-        <v>0.210853</v>
+        <v>0.211115</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0864238</v>
+        <v>0.0868536</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0904891</v>
+        <v>0.08986139999999999</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5044,16 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.110611</v>
+        <v>0.116419</v>
       </c>
       <c r="C53" t="n">
-        <v>0.21753</v>
+        <v>0.217863</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0875471</v>
+        <v>0.0862656</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0913402</v>
+        <v>0.0904037</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5061,16 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110347</v>
+        <v>0.110537</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223651</v>
+        <v>0.223928</v>
       </c>
       <c r="D54" t="n">
-        <v>0.0869272</v>
+        <v>0.08693620000000001</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0921106</v>
+        <v>0.0906344</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5078,16 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.115749</v>
+        <v>0.113921</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230099</v>
+        <v>0.230075</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0876547</v>
+        <v>0.0867734</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0914441</v>
+        <v>0.0921392</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5095,16 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.119095</v>
+        <v>0.115479</v>
       </c>
       <c r="C56" t="n">
-        <v>0.236441</v>
+        <v>0.23622</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0877067</v>
+        <v>0.087343</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0921235</v>
+        <v>0.09206739999999999</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5112,16 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.130715</v>
+        <v>0.118964</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241749</v>
+        <v>0.241497</v>
       </c>
       <c r="D57" t="n">
-        <v>0.08926249999999999</v>
+        <v>0.0887286</v>
       </c>
       <c r="E57" t="n">
-        <v>0.100688</v>
+        <v>0.09256399999999999</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5129,16 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126423</v>
+        <v>0.124238</v>
       </c>
       <c r="C58" t="n">
-        <v>0.246865</v>
+        <v>0.247243</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08974070000000001</v>
+        <v>0.08873789999999999</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0946734</v>
+        <v>0.0934521</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5146,16 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131649</v>
+        <v>0.139285</v>
       </c>
       <c r="C59" t="n">
-        <v>0.252607</v>
+        <v>0.252372</v>
       </c>
       <c r="D59" t="n">
-        <v>0.09105539999999999</v>
+        <v>0.0912818</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0950984</v>
+        <v>0.0951376</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5163,16 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.141162</v>
+        <v>0.138624</v>
       </c>
       <c r="C60" t="n">
-        <v>0.257153</v>
+        <v>0.257038</v>
       </c>
       <c r="D60" t="n">
-        <v>0.09504650000000001</v>
+        <v>0.0920082</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0980395</v>
+        <v>0.0973203</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5180,16 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.162506</v>
+        <v>0.149866</v>
       </c>
       <c r="C61" t="n">
-        <v>0.262332</v>
+        <v>0.262042</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09551949999999999</v>
+        <v>0.09459960000000001</v>
       </c>
       <c r="E61" t="n">
-        <v>0.100874</v>
+        <v>0.09970279999999999</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5197,16 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.170579</v>
+        <v>0.167995</v>
       </c>
       <c r="C62" t="n">
-        <v>0.268512</v>
+        <v>0.267705</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0992792</v>
+        <v>0.0973715</v>
       </c>
       <c r="E62" t="n">
-        <v>0.103475</v>
+        <v>0.103629</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5214,16 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187663</v>
+        <v>0.187019</v>
       </c>
       <c r="C63" t="n">
-        <v>0.273995</v>
+        <v>0.274556</v>
       </c>
       <c r="D63" t="n">
-        <v>0.103371</v>
+        <v>0.103216</v>
       </c>
       <c r="E63" t="n">
-        <v>0.108487</v>
+        <v>0.108531</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5231,16 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.220939</v>
+        <v>0.21621</v>
       </c>
       <c r="C64" t="n">
-        <v>0.201746</v>
+        <v>0.201208</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112488</v>
+        <v>0.112595</v>
       </c>
       <c r="E64" t="n">
-        <v>0.117792</v>
+        <v>0.126124</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5248,16 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.267607</v>
+        <v>0.263273</v>
       </c>
       <c r="C65" t="n">
-        <v>0.209901</v>
+        <v>0.208899</v>
       </c>
       <c r="D65" t="n">
-        <v>0.128489</v>
+        <v>0.126894</v>
       </c>
       <c r="E65" t="n">
-        <v>0.132506</v>
+        <v>0.131922</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5265,16 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.316686</v>
+        <v>0.312046</v>
       </c>
       <c r="C66" t="n">
-        <v>0.218499</v>
+        <v>0.216623</v>
       </c>
       <c r="D66" t="n">
-        <v>0.0933807</v>
+        <v>0.09640600000000001</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0978069</v>
+        <v>0.09732929999999999</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5282,16 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.122403</v>
+        <v>0.120589</v>
       </c>
       <c r="C67" t="n">
-        <v>0.226097</v>
+        <v>0.225626</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09386410000000001</v>
+        <v>0.0929985</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0982098</v>
+        <v>0.09811259999999999</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5299,16 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.124141</v>
+        <v>0.132953</v>
       </c>
       <c r="C68" t="n">
-        <v>0.235193</v>
+        <v>0.233373</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0942476</v>
+        <v>0.0930409</v>
       </c>
       <c r="E68" t="n">
-        <v>0.09892289999999999</v>
+        <v>0.0988935</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5316,16 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.126997</v>
+        <v>0.134299</v>
       </c>
       <c r="C69" t="n">
-        <v>0.24376</v>
+        <v>0.242356</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09941990000000001</v>
+        <v>0.09879640000000001</v>
       </c>
       <c r="E69" t="n">
-        <v>0.100103</v>
+        <v>0.100066</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5333,16 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.138413</v>
+        <v>0.138521</v>
       </c>
       <c r="C70" t="n">
-        <v>0.256239</v>
+        <v>0.254747</v>
       </c>
       <c r="D70" t="n">
-        <v>0.09975349999999999</v>
+        <v>0.0940542</v>
       </c>
       <c r="E70" t="n">
-        <v>0.101108</v>
+        <v>0.100005</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5350,16 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.143556</v>
+        <v>0.13343</v>
       </c>
       <c r="C71" t="n">
-        <v>0.265522</v>
+        <v>0.265128</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0962047</v>
+        <v>0.0950718</v>
       </c>
       <c r="E71" t="n">
-        <v>0.102072</v>
+        <v>0.101473</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5367,16 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.138798</v>
+        <v>0.1369</v>
       </c>
       <c r="C72" t="n">
-        <v>0.276123</v>
+        <v>0.274003</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09631439999999999</v>
+        <v>0.09701460000000001</v>
       </c>
       <c r="E72" t="n">
-        <v>0.103631</v>
+        <v>0.102978</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5384,16 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.146165</v>
+        <v>0.142761</v>
       </c>
       <c r="C73" t="n">
-        <v>0.287509</v>
+        <v>0.285617</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0982343</v>
+        <v>0.0982734</v>
       </c>
       <c r="E73" t="n">
-        <v>0.105006</v>
+        <v>0.104248</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5401,16 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.155047</v>
+        <v>0.152</v>
       </c>
       <c r="C74" t="n">
-        <v>0.304289</v>
+        <v>0.296012</v>
       </c>
       <c r="D74" t="n">
-        <v>0.0994821</v>
+        <v>0.099299</v>
       </c>
       <c r="E74" t="n">
-        <v>0.109389</v>
+        <v>0.10627</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5418,16 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.172311</v>
+        <v>0.165339</v>
       </c>
       <c r="C75" t="n">
-        <v>0.314207</v>
+        <v>0.311408</v>
       </c>
       <c r="D75" t="n">
-        <v>0.10735</v>
+        <v>0.101298</v>
       </c>
       <c r="E75" t="n">
-        <v>0.116336</v>
+        <v>0.108985</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5435,16 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.180267</v>
+        <v>0.176308</v>
       </c>
       <c r="C76" t="n">
-        <v>0.333846</v>
+        <v>0.328498</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104664</v>
+        <v>0.104237</v>
       </c>
       <c r="E76" t="n">
-        <v>0.113204</v>
+        <v>0.112696</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5452,16 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.207186</v>
+        <v>0.196496</v>
       </c>
       <c r="C77" t="n">
-        <v>0.35021</v>
+        <v>0.340419</v>
       </c>
       <c r="D77" t="n">
-        <v>0.109943</v>
+        <v>0.109565</v>
       </c>
       <c r="E77" t="n">
-        <v>0.118443</v>
+        <v>0.118567</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5469,16 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.226991</v>
+        <v>0.233013</v>
       </c>
       <c r="C78" t="n">
-        <v>0.275829</v>
+        <v>0.264869</v>
       </c>
       <c r="D78" t="n">
-        <v>0.117842</v>
+        <v>0.117116</v>
       </c>
       <c r="E78" t="n">
-        <v>0.127209</v>
+        <v>0.127719</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5486,16 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266746</v>
+        <v>0.264949</v>
       </c>
       <c r="C79" t="n">
-        <v>0.292147</v>
+        <v>0.282587</v>
       </c>
       <c r="D79" t="n">
-        <v>0.131705</v>
+        <v>0.131291</v>
       </c>
       <c r="E79" t="n">
-        <v>0.144032</v>
+        <v>0.141937</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5503,16 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.324883</v>
+        <v>0.320129</v>
       </c>
       <c r="C80" t="n">
-        <v>0.316551</v>
+        <v>0.300477</v>
       </c>
       <c r="D80" t="n">
-        <v>0.100686</v>
+        <v>0.100339</v>
       </c>
       <c r="E80" t="n">
-        <v>0.106022</v>
+        <v>0.10646</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5520,16 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145169</v>
+        <v>0.135705</v>
       </c>
       <c r="C81" t="n">
-        <v>0.337268</v>
+        <v>0.316587</v>
       </c>
       <c r="D81" t="n">
-        <v>0.101029</v>
+        <v>0.101064</v>
       </c>
       <c r="E81" t="n">
-        <v>0.106955</v>
+        <v>0.107539</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5537,16 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.147107</v>
+        <v>0.137349</v>
       </c>
       <c r="C82" t="n">
-        <v>0.35831</v>
+        <v>0.336133</v>
       </c>
       <c r="D82" t="n">
-        <v>0.101447</v>
+        <v>0.101673</v>
       </c>
       <c r="E82" t="n">
-        <v>0.107736</v>
+        <v>0.108731</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5554,16 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148619</v>
+        <v>0.148161</v>
       </c>
       <c r="C83" t="n">
-        <v>0.381161</v>
+        <v>0.357181</v>
       </c>
       <c r="D83" t="n">
-        <v>0.101718</v>
+        <v>0.102107</v>
       </c>
       <c r="E83" t="n">
-        <v>0.108859</v>
+        <v>0.109947</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5571,16 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142793</v>
+        <v>0.142015</v>
       </c>
       <c r="C84" t="n">
-        <v>0.405507</v>
+        <v>0.380124</v>
       </c>
       <c r="D84" t="n">
-        <v>0.102547</v>
+        <v>0.103166</v>
       </c>
       <c r="E84" t="n">
-        <v>0.109925</v>
+        <v>0.112203</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5588,16 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145643</v>
+        <v>0.146108</v>
       </c>
       <c r="C85" t="n">
-        <v>0.428238</v>
+        <v>0.400693</v>
       </c>
       <c r="D85" t="n">
-        <v>0.103726</v>
+        <v>0.103976</v>
       </c>
       <c r="E85" t="n">
-        <v>0.111583</v>
+        <v>0.11411</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5605,16 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150199</v>
+        <v>0.157363</v>
       </c>
       <c r="C86" t="n">
-        <v>0.454439</v>
+        <v>0.425763</v>
       </c>
       <c r="D86" t="n">
-        <v>0.104233</v>
+        <v>0.1056</v>
       </c>
       <c r="E86" t="n">
-        <v>0.113821</v>
+        <v>0.1172</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5622,16 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.155719</v>
+        <v>0.168429</v>
       </c>
       <c r="C87" t="n">
-        <v>0.480872</v>
+        <v>0.447234</v>
       </c>
       <c r="D87" t="n">
-        <v>0.105666</v>
+        <v>0.107358</v>
       </c>
       <c r="E87" t="n">
-        <v>0.116097</v>
+        <v>0.120538</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5639,16 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.163817</v>
+        <v>0.166214</v>
       </c>
       <c r="C88" t="n">
-        <v>0.5065190000000001</v>
+        <v>0.470978</v>
       </c>
       <c r="D88" t="n">
-        <v>0.107259</v>
+        <v>0.109525</v>
       </c>
       <c r="E88" t="n">
-        <v>0.119153</v>
+        <v>0.124766</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5656,16 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.181382</v>
+        <v>0.177369</v>
       </c>
       <c r="C89" t="n">
-        <v>0.53388</v>
+        <v>0.495703</v>
       </c>
       <c r="D89" t="n">
-        <v>0.109384</v>
+        <v>0.112455</v>
       </c>
       <c r="E89" t="n">
-        <v>0.123758</v>
+        <v>0.12927</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5673,16 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.199843</v>
+        <v>0.200268</v>
       </c>
       <c r="C90" t="n">
-        <v>0.563423</v>
+        <v>0.522778</v>
       </c>
       <c r="D90" t="n">
-        <v>0.112829</v>
+        <v>0.117143</v>
       </c>
       <c r="E90" t="n">
-        <v>0.130547</v>
+        <v>0.136064</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5690,16 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.218824</v>
+        <v>0.226825</v>
       </c>
       <c r="C91" t="n">
-        <v>0.593981</v>
+        <v>0.550592</v>
       </c>
       <c r="D91" t="n">
-        <v>0.118828</v>
+        <v>0.123258</v>
       </c>
       <c r="E91" t="n">
-        <v>0.138543</v>
+        <v>0.144687</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5707,16 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.240824</v>
+        <v>0.251622</v>
       </c>
       <c r="C92" t="n">
-        <v>0.445407</v>
+        <v>0.412639</v>
       </c>
       <c r="D92" t="n">
-        <v>0.126423</v>
+        <v>0.132491</v>
       </c>
       <c r="E92" t="n">
-        <v>0.151443</v>
+        <v>0.156607</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5724,16 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.29863</v>
+        <v>0.288313</v>
       </c>
       <c r="C93" t="n">
-        <v>0.465141</v>
+        <v>0.4315</v>
       </c>
       <c r="D93" t="n">
-        <v>0.140452</v>
+        <v>0.146454</v>
       </c>
       <c r="E93" t="n">
-        <v>0.174071</v>
+        <v>0.17335</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +5741,16 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361856</v>
+        <v>0.362672</v>
       </c>
       <c r="C94" t="n">
-        <v>0.489583</v>
+        <v>0.45004</v>
       </c>
       <c r="D94" t="n">
-        <v>0.10663</v>
+        <v>0.110295</v>
       </c>
       <c r="E94" t="n">
-        <v>0.120931</v>
+        <v>0.125871</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +5758,16 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.151114</v>
+        <v>0.148312</v>
       </c>
       <c r="C95" t="n">
-        <v>0.506286</v>
+        <v>0.469807</v>
       </c>
       <c r="D95" t="n">
-        <v>0.107393</v>
+        <v>0.111544</v>
       </c>
       <c r="E95" t="n">
-        <v>0.124551</v>
+        <v>0.127951</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +5775,16 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.147861</v>
+        <v>0.150993</v>
       </c>
       <c r="C96" t="n">
-        <v>0.528896</v>
+        <v>0.490407</v>
       </c>
       <c r="D96" t="n">
-        <v>0.109178</v>
+        <v>0.11294</v>
       </c>
       <c r="E96" t="n">
-        <v>0.13072</v>
+        <v>0.131601</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +5792,16 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.151612</v>
+        <v>0.155848</v>
       </c>
       <c r="C97" t="n">
-        <v>0.551775</v>
+        <v>0.5111</v>
       </c>
       <c r="D97" t="n">
-        <v>0.110957</v>
+        <v>0.114929</v>
       </c>
       <c r="E97" t="n">
-        <v>0.135578</v>
+        <v>0.135271</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +5809,16 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.157262</v>
+        <v>0.169141</v>
       </c>
       <c r="C98" t="n">
-        <v>0.576801</v>
+        <v>0.532711</v>
       </c>
       <c r="D98" t="n">
-        <v>0.113426</v>
+        <v>0.116964</v>
       </c>
       <c r="E98" t="n">
-        <v>0.141601</v>
+        <v>0.138744</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +5826,16 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.168719</v>
+        <v>0.163603</v>
       </c>
       <c r="C99" t="n">
-        <v>0.600569</v>
+        <v>0.554855</v>
       </c>
       <c r="D99" t="n">
-        <v>0.1164</v>
+        <v>0.118983</v>
       </c>
       <c r="E99" t="n">
-        <v>0.148569</v>
+        <v>0.142635</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +5843,16 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.168319</v>
+        <v>0.169137</v>
       </c>
       <c r="C100" t="n">
-        <v>0.625664</v>
+        <v>0.57778</v>
       </c>
       <c r="D100" t="n">
-        <v>0.11991</v>
+        <v>0.120449</v>
       </c>
       <c r="E100" t="n">
-        <v>0.15552</v>
+        <v>0.147302</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +5860,16 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.187773</v>
+        <v>0.176523</v>
       </c>
       <c r="C101" t="n">
-        <v>0.6543060000000001</v>
+        <v>0.603419</v>
       </c>
       <c r="D101" t="n">
-        <v>0.123549</v>
+        <v>0.120988</v>
       </c>
       <c r="E101" t="n">
-        <v>0.16351</v>
+        <v>0.15392</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +5877,16 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.199823</v>
+        <v>0.192747</v>
       </c>
       <c r="C102" t="n">
-        <v>0.682352</v>
+        <v>0.626999</v>
       </c>
       <c r="D102" t="n">
-        <v>0.128611</v>
+        <v>0.126774</v>
       </c>
       <c r="E102" t="n">
-        <v>0.170875</v>
+        <v>0.161269</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +5894,16 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.215455</v>
+        <v>0.201158</v>
       </c>
       <c r="C103" t="n">
-        <v>0.711495</v>
+        <v>0.6548890000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>0.134418</v>
+        <v>0.131045</v>
       </c>
       <c r="E103" t="n">
-        <v>0.179389</v>
+        <v>0.169917</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +5911,16 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.236352</v>
+        <v>0.231644</v>
       </c>
       <c r="C104" t="n">
-        <v>0.744345</v>
+        <v>0.682966</v>
       </c>
       <c r="D104" t="n">
-        <v>0.141347</v>
+        <v>0.137361</v>
       </c>
       <c r="E104" t="n">
-        <v>0.192744</v>
+        <v>0.179844</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +5928,16 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.259011</v>
+        <v>0.255149</v>
       </c>
       <c r="C105" t="n">
-        <v>0.777431</v>
+        <v>0.71399</v>
       </c>
       <c r="D105" t="n">
-        <v>0.150549</v>
+        <v>0.145741</v>
       </c>
       <c r="E105" t="n">
-        <v>0.200269</v>
+        <v>0.19108</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +5945,16 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.292122</v>
+        <v>0.283155</v>
       </c>
       <c r="C106" t="n">
-        <v>0.813474</v>
+        <v>0.745564</v>
       </c>
       <c r="D106" t="n">
-        <v>0.16195</v>
+        <v>0.157092</v>
       </c>
       <c r="E106" t="n">
-        <v>0.215043</v>
+        <v>0.205519</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +5962,16 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.34742</v>
+        <v>0.319904</v>
       </c>
       <c r="C107" t="n">
-        <v>0.636356</v>
+        <v>0.582734</v>
       </c>
       <c r="D107" t="n">
-        <v>0.178365</v>
+        <v>0.173098</v>
       </c>
       <c r="E107" t="n">
-        <v>0.235875</v>
+        <v>0.22542</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +5979,16 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.394911</v>
+        <v>0.389058</v>
       </c>
       <c r="C108" t="n">
-        <v>0.658552</v>
+        <v>0.603293</v>
       </c>
       <c r="D108" t="n">
-        <v>0.130421</v>
+        <v>0.127305</v>
       </c>
       <c r="E108" t="n">
-        <v>0.165483</v>
+        <v>0.15936</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +5996,16 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.49468</v>
+        <v>0.478196</v>
       </c>
       <c r="C109" t="n">
-        <v>0.681494</v>
+        <v>0.625478</v>
       </c>
       <c r="D109" t="n">
-        <v>0.133058</v>
+        <v>0.130117</v>
       </c>
       <c r="E109" t="n">
-        <v>0.169589</v>
+        <v>0.163194</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6013,16 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.185204</v>
+        <v>0.18</v>
       </c>
       <c r="C110" t="n">
-        <v>0.70635</v>
+        <v>0.6461789999999999</v>
       </c>
       <c r="D110" t="n">
-        <v>0.135796</v>
+        <v>0.133073</v>
       </c>
       <c r="E110" t="n">
-        <v>0.173772</v>
+        <v>0.166838</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6030,16 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.18692</v>
+        <v>0.186508</v>
       </c>
       <c r="C111" t="n">
-        <v>0.733001</v>
+        <v>0.670665</v>
       </c>
       <c r="D111" t="n">
-        <v>0.138487</v>
+        <v>0.132123</v>
       </c>
       <c r="E111" t="n">
-        <v>0.178135</v>
+        <v>0.17069</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6047,16 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.185462</v>
+        <v>0.180645</v>
       </c>
       <c r="C112" t="n">
-        <v>0.758934</v>
+        <v>0.69385</v>
       </c>
       <c r="D112" t="n">
-        <v>0.141096</v>
+        <v>0.137754</v>
       </c>
       <c r="E112" t="n">
-        <v>0.182189</v>
+        <v>0.174652</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6064,16 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.200977</v>
+        <v>0.185736</v>
       </c>
       <c r="C113" t="n">
-        <v>0.786868</v>
+        <v>0.718504</v>
       </c>
       <c r="D113" t="n">
-        <v>0.144083</v>
+        <v>0.140376</v>
       </c>
       <c r="E113" t="n">
-        <v>0.186808</v>
+        <v>0.178679</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6081,16 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.197272</v>
+        <v>0.200154</v>
       </c>
       <c r="C114" t="n">
-        <v>0.815024</v>
+        <v>0.744278</v>
       </c>
       <c r="D114" t="n">
-        <v>0.147058</v>
+        <v>0.139514</v>
       </c>
       <c r="E114" t="n">
-        <v>0.191552</v>
+        <v>0.182551</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6098,16 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.205482</v>
+        <v>0.200166</v>
       </c>
       <c r="C115" t="n">
-        <v>0.844692</v>
+        <v>0.76958</v>
       </c>
       <c r="D115" t="n">
-        <v>0.150108</v>
+        <v>0.145966</v>
       </c>
       <c r="E115" t="n">
-        <v>0.196985</v>
+        <v>0.187413</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6115,16 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.225491</v>
+        <v>0.216542</v>
       </c>
       <c r="C116" t="n">
-        <v>0.8754150000000001</v>
+        <v>0.79695</v>
       </c>
       <c r="D116" t="n">
-        <v>0.153736</v>
+        <v>0.145664</v>
       </c>
       <c r="E116" t="n">
-        <v>0.202877</v>
+        <v>0.193261</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6132,16 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.238578</v>
+        <v>0.223653</v>
       </c>
       <c r="C117" t="n">
-        <v>0.907951</v>
+        <v>0.825024</v>
       </c>
       <c r="D117" t="n">
-        <v>0.158025</v>
+        <v>0.153167</v>
       </c>
       <c r="E117" t="n">
-        <v>0.209475</v>
+        <v>0.198025</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6149,16 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.251161</v>
+        <v>0.248882</v>
       </c>
       <c r="C118" t="n">
-        <v>0.942181</v>
+        <v>0.855275</v>
       </c>
       <c r="D118" t="n">
-        <v>0.163611</v>
+        <v>0.15812</v>
       </c>
       <c r="E118" t="n">
-        <v>0.217897</v>
+        <v>0.206831</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6166,16 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.269455</v>
+        <v>0.260886</v>
       </c>
       <c r="C119" t="n">
-        <v>0.976833</v>
+        <v>0.8857390000000001</v>
       </c>
       <c r="D119" t="n">
-        <v>0.170383</v>
+        <v>0.164639</v>
       </c>
       <c r="E119" t="n">
-        <v>0.228165</v>
+        <v>0.216546</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6183,16 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.311833</v>
+        <v>0.286835</v>
       </c>
       <c r="C120" t="n">
-        <v>1.01358</v>
+        <v>0.918746</v>
       </c>
       <c r="D120" t="n">
-        <v>0.179792</v>
+        <v>0.173853</v>
       </c>
       <c r="E120" t="n">
-        <v>0.242389</v>
+        <v>0.229694</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6200,16 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.350684</v>
+        <v>0.343837</v>
       </c>
       <c r="C121" t="n">
-        <v>0.739131</v>
+        <v>0.669534</v>
       </c>
       <c r="D121" t="n">
-        <v>0.194567</v>
+        <v>0.183289</v>
       </c>
       <c r="E121" t="n">
-        <v>0.262981</v>
+        <v>0.249615</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6217,16 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.424381</v>
+        <v>0.399874</v>
       </c>
       <c r="C122" t="n">
-        <v>0.761408</v>
+        <v>0.68973</v>
       </c>
       <c r="D122" t="n">
-        <v>0.218872</v>
+        <v>0.210435</v>
       </c>
       <c r="E122" t="n">
-        <v>0.297184</v>
+        <v>0.281556</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6234,16 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.509914</v>
+        <v>0.490416</v>
       </c>
       <c r="C123" t="n">
-        <v>0.78487</v>
+        <v>0.711218</v>
       </c>
       <c r="D123" t="n">
-        <v>0.149589</v>
+        <v>0.144802</v>
       </c>
       <c r="E123" t="n">
-        <v>0.193085</v>
+        <v>0.173352</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6251,16 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20619</v>
+        <v>0.186947</v>
       </c>
       <c r="C124" t="n">
-        <v>0.809522</v>
+        <v>0.7333150000000001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.154891</v>
+        <v>0.147399</v>
       </c>
       <c r="E124" t="n">
-        <v>0.19641</v>
+        <v>0.191067</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6268,16 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.197286</v>
+        <v>0.181879</v>
       </c>
       <c r="C125" t="n">
-        <v>0.834418</v>
+        <v>0.756543</v>
       </c>
       <c r="D125" t="n">
-        <v>0.152086</v>
+        <v>0.147725</v>
       </c>
       <c r="E125" t="n">
-        <v>0.20094</v>
+        <v>0.191493</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6285,16 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.212066</v>
+        <v>0.195355</v>
       </c>
       <c r="C126" t="n">
-        <v>0.860685</v>
+        <v>0.769827</v>
       </c>
       <c r="D126" t="n">
-        <v>0.15633</v>
+        <v>0.15273</v>
       </c>
       <c r="E126" t="n">
-        <v>0.205845</v>
+        <v>0.195167</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6302,16 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.218945</v>
+        <v>0.210108</v>
       </c>
       <c r="C127" t="n">
-        <v>0.888089</v>
+        <v>0.804416</v>
       </c>
       <c r="D127" t="n">
-        <v>0.162636</v>
+        <v>0.153514</v>
       </c>
       <c r="E127" t="n">
-        <v>0.209362</v>
+        <v>0.193764</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6319,16 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.226474</v>
+        <v>0.214703</v>
       </c>
       <c r="C128" t="n">
-        <v>0.917578</v>
+        <v>0.831456</v>
       </c>
       <c r="D128" t="n">
-        <v>0.163329</v>
+        <v>0.162748</v>
       </c>
       <c r="E128" t="n">
-        <v>0.213403</v>
+        <v>0.202717</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6336,16 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.231839</v>
+        <v>0.217515</v>
       </c>
       <c r="C129" t="n">
-        <v>0.94811</v>
+        <v>0.857901</v>
       </c>
       <c r="D129" t="n">
-        <v>0.164496</v>
+        <v>0.162762</v>
       </c>
       <c r="E129" t="n">
-        <v>0.21992</v>
+        <v>0.212595</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6353,16 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.242041</v>
+        <v>0.239186</v>
       </c>
       <c r="C130" t="n">
-        <v>0.979407</v>
+        <v>0.886103</v>
       </c>
       <c r="D130" t="n">
-        <v>0.169646</v>
+        <v>0.167319</v>
       </c>
       <c r="E130" t="n">
-        <v>0.22772</v>
+        <v>0.215963</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6370,16 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.255737</v>
+        <v>0.248148</v>
       </c>
       <c r="C131" t="n">
-        <v>1.01257</v>
+        <v>0.916188</v>
       </c>
       <c r="D131" t="n">
-        <v>0.171023</v>
+        <v>0.164836</v>
       </c>
       <c r="E131" t="n">
-        <v>0.233982</v>
+        <v>0.225696</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6387,16 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.26427</v>
+        <v>0.25251</v>
       </c>
       <c r="C132" t="n">
-        <v>1.04663</v>
+        <v>0.946159</v>
       </c>
       <c r="D132" t="n">
-        <v>0.181413</v>
+        <v>0.170021</v>
       </c>
       <c r="E132" t="n">
-        <v>0.245899</v>
+        <v>0.230972</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6404,16 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.287215</v>
+        <v>0.279103</v>
       </c>
       <c r="C133" t="n">
-        <v>1.08271</v>
+        <v>0.978905</v>
       </c>
       <c r="D133" t="n">
-        <v>0.183998</v>
+        <v>0.1822</v>
       </c>
       <c r="E133" t="n">
-        <v>0.258945</v>
+        <v>0.239908</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6421,16 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.324731</v>
+        <v>0.297512</v>
       </c>
       <c r="C134" t="n">
-        <v>1.12032</v>
+        <v>1.01231</v>
       </c>
       <c r="D134" t="n">
-        <v>0.195399</v>
+        <v>0.182218</v>
       </c>
       <c r="E134" t="n">
-        <v>0.271749</v>
+        <v>0.249024</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6438,16 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.379387</v>
+        <v>0.345727</v>
       </c>
       <c r="C135" t="n">
-        <v>0.764802</v>
+        <v>0.6852240000000001</v>
       </c>
       <c r="D135" t="n">
-        <v>0.209558</v>
+        <v>0.208962</v>
       </c>
       <c r="E135" t="n">
-        <v>0.293754</v>
+        <v>0.270769</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6455,16 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.438478</v>
+        <v>0.422687</v>
       </c>
       <c r="C136" t="n">
-        <v>0.784043</v>
+        <v>0.710552</v>
       </c>
       <c r="D136" t="n">
-        <v>0.232453</v>
+        <v>0.221029</v>
       </c>
       <c r="E136" t="n">
-        <v>0.324559</v>
+        <v>0.306134</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6472,16 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.515323</v>
+        <v>0.48884</v>
       </c>
       <c r="C137" t="n">
-        <v>0.805182</v>
+        <v>0.729116</v>
       </c>
       <c r="D137" t="n">
-        <v>0.288558</v>
+        <v>0.258113</v>
       </c>
       <c r="E137" t="n">
-        <v>0.336931</v>
+        <v>0.298024</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6489,16 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.356207</v>
+        <v>0.33663</v>
       </c>
       <c r="C138" t="n">
-        <v>0.8269069999999999</v>
+        <v>0.74899</v>
       </c>
       <c r="D138" t="n">
-        <v>0.289727</v>
+        <v>0.265616</v>
       </c>
       <c r="E138" t="n">
-        <v>0.342718</v>
+        <v>0.307574</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6506,16 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.360382</v>
+        <v>0.334523</v>
       </c>
       <c r="C139" t="n">
-        <v>0.849218</v>
+        <v>0.769554</v>
       </c>
       <c r="D139" t="n">
-        <v>0.290594</v>
+        <v>0.264112</v>
       </c>
       <c r="E139" t="n">
-        <v>0.347188</v>
+        <v>0.304502</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6523,16 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.365373</v>
+        <v>0.339861</v>
       </c>
       <c r="C140" t="n">
-        <v>0.872877</v>
+        <v>0.7911319999999999</v>
       </c>
       <c r="D140" t="n">
-        <v>0.293927</v>
+        <v>0.274608</v>
       </c>
       <c r="E140" t="n">
-        <v>0.351519</v>
+        <v>0.326121</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6540,16 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.373073</v>
+        <v>0.342355</v>
       </c>
       <c r="C141" t="n">
-        <v>0.897428</v>
+        <v>0.812962</v>
       </c>
       <c r="D141" t="n">
-        <v>0.29539</v>
+        <v>0.26144</v>
       </c>
       <c r="E141" t="n">
-        <v>0.355588</v>
+        <v>0.314022</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6557,16 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.377207</v>
+        <v>0.351788</v>
       </c>
       <c r="C142" t="n">
-        <v>0.923956</v>
+        <v>0.836384</v>
       </c>
       <c r="D142" t="n">
-        <v>0.30226</v>
+        <v>0.278394</v>
       </c>
       <c r="E142" t="n">
-        <v>0.364512</v>
+        <v>0.323916</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6574,16 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.392993</v>
+        <v>0.339014</v>
       </c>
       <c r="C143" t="n">
-        <v>0.95169</v>
+        <v>0.86127</v>
       </c>
       <c r="D143" t="n">
-        <v>0.301414</v>
+        <v>0.276135</v>
       </c>
       <c r="E143" t="n">
-        <v>0.370487</v>
+        <v>0.339162</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -4139,7 +4139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E143"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
       <selection activeCell="I27" sqref="I27"/>
@@ -4177,16 +4177,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.104413</v>
+        <v>0.102589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.178784</v>
+        <v>0.105345</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0826325</v>
+        <v>0.180662</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08254649999999999</v>
+        <v>0.08256139999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.08265110000000001</v>
       </c>
     </row>
     <row r="3">
@@ -4194,16 +4197,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11157</v>
+        <v>0.110483</v>
       </c>
       <c r="C3" t="n">
-        <v>0.185459</v>
+        <v>0.113778</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0809769</v>
+        <v>0.187317</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08294169999999999</v>
+        <v>0.0823241</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.0810071</v>
       </c>
     </row>
     <row r="4">
@@ -4211,16 +4217,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.126771</v>
+        <v>0.12393</v>
       </c>
       <c r="C4" t="n">
-        <v>0.192372</v>
+        <v>0.124058</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0811781</v>
+        <v>0.193235</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0823969</v>
+        <v>0.0808253</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.0821973</v>
       </c>
     </row>
     <row r="5">
@@ -4228,16 +4237,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.149024</v>
+        <v>0.140018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.199321</v>
+        <v>0.144437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0819647</v>
+        <v>0.199812</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0820188</v>
+        <v>0.0820245</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.08233989999999999</v>
       </c>
     </row>
     <row r="6">
@@ -4245,16 +4257,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.163079</v>
+        <v>0.166964</v>
       </c>
       <c r="C6" t="n">
-        <v>0.205292</v>
+        <v>0.167169</v>
       </c>
       <c r="D6" t="n">
-        <v>0.08321630000000001</v>
+        <v>0.207002</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0837167</v>
+        <v>0.08316469999999999</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.08381859999999999</v>
       </c>
     </row>
     <row r="7">
@@ -4262,16 +4277,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.202196</v>
+        <v>0.20041</v>
       </c>
       <c r="C7" t="n">
-        <v>0.154603</v>
+        <v>0.201372</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0880944</v>
+        <v>0.156212</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08845409999999999</v>
+        <v>0.0883422</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.088625</v>
       </c>
     </row>
     <row r="8">
@@ -4279,16 +4297,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.243669</v>
+        <v>0.248008</v>
       </c>
       <c r="C8" t="n">
-        <v>0.162412</v>
+        <v>0.245043</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103069</v>
+        <v>0.162247</v>
       </c>
       <c r="E8" t="n">
-        <v>0.104383</v>
+        <v>0.103368</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.104398</v>
       </c>
     </row>
     <row r="9">
@@ -4296,16 +4317,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.297284</v>
+        <v>0.292162</v>
       </c>
       <c r="C9" t="n">
-        <v>0.169588</v>
+        <v>0.294619</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0820239</v>
+        <v>0.169589</v>
       </c>
       <c r="E9" t="n">
-        <v>0.082181</v>
+        <v>0.082084</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.08293979999999999</v>
       </c>
     </row>
     <row r="10">
@@ -4313,16 +4337,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09542249999999999</v>
+        <v>0.0946931</v>
       </c>
       <c r="C10" t="n">
-        <v>0.176604</v>
+        <v>0.09603540000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0821118</v>
+        <v>0.175445</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0821665</v>
+        <v>0.08211889999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.0830655</v>
       </c>
     </row>
     <row r="11">
@@ -4330,16 +4357,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09709</v>
+        <v>0.09557690000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.18376</v>
+        <v>0.0973132</v>
       </c>
       <c r="D11" t="n">
-        <v>0.08237650000000001</v>
+        <v>0.182781</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08250739999999999</v>
+        <v>0.0823262</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.0837116</v>
       </c>
     </row>
     <row r="12">
@@ -4347,16 +4377,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0983493</v>
+        <v>0.0968823</v>
       </c>
       <c r="C12" t="n">
-        <v>0.191295</v>
+        <v>0.09862659999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.082553</v>
+        <v>0.190246</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0829144</v>
+        <v>0.0825454</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.0840076</v>
       </c>
     </row>
     <row r="13">
@@ -4364,16 +4397,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0999568</v>
+        <v>0.098786</v>
       </c>
       <c r="C13" t="n">
-        <v>0.198411</v>
+        <v>0.101349</v>
       </c>
       <c r="D13" t="n">
-        <v>0.08269269999999999</v>
+        <v>0.197036</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0832589</v>
+        <v>0.08273270000000001</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.08438660000000001</v>
       </c>
     </row>
     <row r="14">
@@ -4381,16 +4417,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.102434</v>
+        <v>0.100968</v>
       </c>
       <c r="C14" t="n">
-        <v>0.204767</v>
+        <v>0.103971</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0828889</v>
+        <v>0.204077</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0832398</v>
+        <v>0.0830518</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.0840245</v>
       </c>
     </row>
     <row r="15">
@@ -4398,16 +4437,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105761</v>
+        <v>0.105607</v>
       </c>
       <c r="C15" t="n">
-        <v>0.212226</v>
+        <v>0.108685</v>
       </c>
       <c r="D15" t="n">
-        <v>0.083219</v>
+        <v>0.211858</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0835467</v>
+        <v>0.08333649999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.0836407</v>
       </c>
     </row>
     <row r="16">
@@ -4415,16 +4457,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.112294</v>
+        <v>0.11252</v>
       </c>
       <c r="C16" t="n">
-        <v>0.21726</v>
+        <v>0.114766</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0835111</v>
+        <v>0.217394</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08368250000000001</v>
+        <v>0.08336010000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.08396579999999999</v>
       </c>
     </row>
     <row r="17">
@@ -4432,16 +4477,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121748</v>
+        <v>0.121368</v>
       </c>
       <c r="C17" t="n">
-        <v>0.223614</v>
+        <v>0.124146</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0837717</v>
+        <v>0.223481</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08439629999999999</v>
+        <v>0.0838917</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.0843121</v>
       </c>
     </row>
     <row r="18">
@@ -4449,16 +4497,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13335</v>
+        <v>0.133061</v>
       </c>
       <c r="C18" t="n">
-        <v>0.228858</v>
+        <v>0.135303</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08370560000000001</v>
+        <v>0.228883</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08469839999999999</v>
+        <v>0.0838238</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.08470320000000001</v>
       </c>
     </row>
     <row r="19">
@@ -4466,16 +4517,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.151272</v>
+        <v>0.150773</v>
       </c>
       <c r="C19" t="n">
-        <v>0.235418</v>
+        <v>0.150677</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0846049</v>
+        <v>0.235702</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0856803</v>
+        <v>0.08450439999999999</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.08580649999999999</v>
       </c>
     </row>
     <row r="20">
@@ -4483,16 +4537,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.172097</v>
+        <v>0.170895</v>
       </c>
       <c r="C20" t="n">
-        <v>0.241736</v>
+        <v>0.171602</v>
       </c>
       <c r="D20" t="n">
-        <v>0.08837589999999999</v>
+        <v>0.2416</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08973299999999999</v>
+        <v>0.08819979999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.0894972</v>
       </c>
     </row>
     <row r="21">
@@ -4500,16 +4557,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.199162</v>
+        <v>0.200466</v>
       </c>
       <c r="C21" t="n">
-        <v>0.177719</v>
+        <v>0.205847</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0959764</v>
+        <v>0.178593</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09740360000000001</v>
+        <v>0.096203</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.0981257</v>
       </c>
     </row>
     <row r="22">
@@ -4517,16 +4577,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239227</v>
+        <v>0.239786</v>
       </c>
       <c r="C22" t="n">
-        <v>0.185339</v>
+        <v>0.240925</v>
       </c>
       <c r="D22" t="n">
-        <v>0.110623</v>
+        <v>0.185111</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110841</v>
+        <v>0.110508</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.111138</v>
       </c>
     </row>
     <row r="23">
@@ -4534,16 +4597,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286566</v>
+        <v>0.286969</v>
       </c>
       <c r="C23" t="n">
-        <v>0.191402</v>
+        <v>0.290436</v>
       </c>
       <c r="D23" t="n">
-        <v>0.08311979999999999</v>
+        <v>0.192284</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0842806</v>
+        <v>0.0831177</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0840204</v>
       </c>
     </row>
     <row r="24">
@@ -4551,16 +4617,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100888</v>
+        <v>0.100404</v>
       </c>
       <c r="C24" t="n">
-        <v>0.199605</v>
+        <v>0.10185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0833281</v>
+        <v>0.199093</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08416419999999999</v>
+        <v>0.08323999999999999</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.0842184</v>
       </c>
     </row>
     <row r="25">
@@ -4568,16 +4637,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102229</v>
+        <v>0.101696</v>
       </c>
       <c r="C25" t="n">
-        <v>0.205815</v>
+        <v>0.103949</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0835292</v>
+        <v>0.206756</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0846249</v>
+        <v>0.0834517</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0844925</v>
       </c>
     </row>
     <row r="26">
@@ -4585,16 +4657,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103851</v>
+        <v>0.103185</v>
       </c>
       <c r="C26" t="n">
-        <v>0.212757</v>
+        <v>0.105537</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0837851</v>
+        <v>0.213219</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08481900000000001</v>
+        <v>0.08364099999999999</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.08478049999999999</v>
       </c>
     </row>
     <row r="27">
@@ -4602,16 +4677,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105902</v>
+        <v>0.105534</v>
       </c>
       <c r="C27" t="n">
-        <v>0.219802</v>
+        <v>0.108103</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08403629999999999</v>
+        <v>0.220717</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08546719999999999</v>
+        <v>0.0839438</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0851619</v>
       </c>
     </row>
     <row r="28">
@@ -4619,16 +4697,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.108925</v>
+        <v>0.109215</v>
       </c>
       <c r="C28" t="n">
-        <v>0.227263</v>
+        <v>0.11125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0843396</v>
+        <v>0.226027</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0857639</v>
+        <v>0.0844061</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0858737</v>
       </c>
     </row>
     <row r="29">
@@ -4636,16 +4717,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.112897</v>
+        <v>0.113307</v>
       </c>
       <c r="C29" t="n">
-        <v>0.232552</v>
+        <v>0.116159</v>
       </c>
       <c r="D29" t="n">
-        <v>0.08469640000000001</v>
+        <v>0.232144</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08607099999999999</v>
+        <v>0.0847994</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08614570000000001</v>
       </c>
     </row>
     <row r="30">
@@ -4653,16 +4737,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119643</v>
+        <v>0.119315</v>
       </c>
       <c r="C30" t="n">
-        <v>0.238163</v>
+        <v>0.121162</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0853184</v>
+        <v>0.238093</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08698699999999999</v>
+        <v>0.08512840000000001</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.0869774</v>
       </c>
     </row>
     <row r="31">
@@ -4670,16 +4757,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127322</v>
+        <v>0.126695</v>
       </c>
       <c r="C31" t="n">
-        <v>0.24331</v>
+        <v>0.128838</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08589289999999999</v>
+        <v>0.243555</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08778759999999999</v>
+        <v>0.08567569999999999</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.08778569999999999</v>
       </c>
     </row>
     <row r="32">
@@ -4687,16 +4777,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.138572</v>
+        <v>0.136682</v>
       </c>
       <c r="C32" t="n">
-        <v>0.248563</v>
+        <v>0.139574</v>
       </c>
       <c r="D32" t="n">
-        <v>0.08709989999999999</v>
+        <v>0.248113</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0893038</v>
+        <v>0.0865291</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.08902839999999999</v>
       </c>
     </row>
     <row r="33">
@@ -4704,16 +4797,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150707</v>
+        <v>0.150713</v>
       </c>
       <c r="C33" t="n">
-        <v>0.255024</v>
+        <v>0.152557</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0900016</v>
+        <v>0.254439</v>
       </c>
       <c r="E33" t="n">
-        <v>0.091915</v>
+        <v>0.0901067</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.091886</v>
       </c>
     </row>
     <row r="34">
@@ -4721,16 +4817,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169057</v>
+        <v>0.169764</v>
       </c>
       <c r="C34" t="n">
-        <v>0.259401</v>
+        <v>0.170822</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0951983</v>
+        <v>0.25919</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0976807</v>
+        <v>0.0953113</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.0976976</v>
       </c>
     </row>
     <row r="35">
@@ -4738,16 +4837,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194487</v>
+        <v>0.192677</v>
       </c>
       <c r="C35" t="n">
-        <v>0.190455</v>
+        <v>0.204075</v>
       </c>
       <c r="D35" t="n">
-        <v>0.103048</v>
+        <v>0.19081</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105266</v>
+        <v>0.102801</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.105578</v>
       </c>
     </row>
     <row r="36">
@@ -4755,16 +4857,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.231826</v>
+        <v>0.232934</v>
       </c>
       <c r="C36" t="n">
-        <v>0.197298</v>
+        <v>0.232592</v>
       </c>
       <c r="D36" t="n">
-        <v>0.11481</v>
+        <v>0.197153</v>
       </c>
       <c r="E36" t="n">
-        <v>0.117025</v>
+        <v>0.115429</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.116702</v>
       </c>
     </row>
     <row r="37">
@@ -4772,16 +4877,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.276085</v>
+        <v>0.275022</v>
       </c>
       <c r="C37" t="n">
-        <v>0.20506</v>
+        <v>0.280617</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0840991</v>
+        <v>0.205014</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0857445</v>
+        <v>0.0884489</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.0856956</v>
       </c>
     </row>
     <row r="38">
@@ -4789,16 +4897,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103797</v>
+        <v>0.103072</v>
       </c>
       <c r="C38" t="n">
-        <v>0.21131</v>
+        <v>0.104996</v>
       </c>
       <c r="D38" t="n">
-        <v>0.0844311</v>
+        <v>0.210758</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0862363</v>
+        <v>0.0841238</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.0860359</v>
       </c>
     </row>
     <row r="39">
@@ -4806,16 +4917,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105046</v>
+        <v>0.106489</v>
       </c>
       <c r="C39" t="n">
-        <v>0.218118</v>
+        <v>0.106952</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0848424</v>
+        <v>0.217895</v>
       </c>
       <c r="E39" t="n">
-        <v>0.086602</v>
+        <v>0.0844784</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0890558</v>
       </c>
     </row>
     <row r="40">
@@ -4823,16 +4937,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106674</v>
+        <v>0.106437</v>
       </c>
       <c r="C40" t="n">
-        <v>0.225084</v>
+        <v>0.108611</v>
       </c>
       <c r="D40" t="n">
-        <v>0.0847345</v>
+        <v>0.224605</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0869789</v>
+        <v>0.0846432</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.08717179999999999</v>
       </c>
     </row>
     <row r="41">
@@ -4840,16 +4957,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109147</v>
+        <v>0.108279</v>
       </c>
       <c r="C41" t="n">
-        <v>0.231717</v>
+        <v>0.110982</v>
       </c>
       <c r="D41" t="n">
-        <v>0.0851484</v>
+        <v>0.230758</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0879355</v>
+        <v>0.0850149</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.0876062</v>
       </c>
     </row>
     <row r="42">
@@ -4857,16 +4977,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.112297</v>
+        <v>0.111823</v>
       </c>
       <c r="C42" t="n">
-        <v>0.23792</v>
+        <v>0.114008</v>
       </c>
       <c r="D42" t="n">
-        <v>0.0854661</v>
+        <v>0.237836</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0880211</v>
+        <v>0.0854153</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.0882312</v>
       </c>
     </row>
     <row r="43">
@@ -4874,16 +4997,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116277</v>
+        <v>0.115925</v>
       </c>
       <c r="C43" t="n">
-        <v>0.243531</v>
+        <v>0.118023</v>
       </c>
       <c r="D43" t="n">
-        <v>0.085859</v>
+        <v>0.243525</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08894870000000001</v>
+        <v>0.08585719999999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.0891643</v>
       </c>
     </row>
     <row r="44">
@@ -4891,16 +5017,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122058</v>
+        <v>0.121659</v>
       </c>
       <c r="C44" t="n">
-        <v>0.250043</v>
+        <v>0.123811</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0868017</v>
+        <v>0.249448</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0897318</v>
+        <v>0.086682</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.0940579</v>
       </c>
     </row>
     <row r="45">
@@ -4908,16 +5037,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128265</v>
+        <v>0.128451</v>
       </c>
       <c r="C45" t="n">
-        <v>0.255545</v>
+        <v>0.131518</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0875476</v>
+        <v>0.255667</v>
       </c>
       <c r="E45" t="n">
-        <v>0.09117550000000001</v>
+        <v>0.087487</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.09128550000000001</v>
       </c>
     </row>
     <row r="46">
@@ -4925,16 +5057,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.13656</v>
+        <v>0.137777</v>
       </c>
       <c r="C46" t="n">
-        <v>0.261266</v>
+        <v>0.140717</v>
       </c>
       <c r="D46" t="n">
-        <v>0.0892901</v>
+        <v>0.260828</v>
       </c>
       <c r="E46" t="n">
-        <v>0.09286170000000001</v>
+        <v>0.0889691</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.0931472</v>
       </c>
     </row>
     <row r="47">
@@ -4942,16 +5077,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149184</v>
+        <v>0.149838</v>
       </c>
       <c r="C47" t="n">
-        <v>0.266253</v>
+        <v>0.152793</v>
       </c>
       <c r="D47" t="n">
-        <v>0.0923393</v>
+        <v>0.26587</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0957252</v>
+        <v>0.0925781</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.0960216</v>
       </c>
     </row>
     <row r="48">
@@ -4959,16 +5097,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.165573</v>
+        <v>0.167397</v>
       </c>
       <c r="C48" t="n">
-        <v>0.272272</v>
+        <v>0.171931</v>
       </c>
       <c r="D48" t="n">
-        <v>0.09585</v>
+        <v>0.272156</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0998549</v>
+        <v>0.09660829999999999</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.100119</v>
       </c>
     </row>
     <row r="49">
@@ -4976,16 +5117,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189869</v>
+        <v>0.192158</v>
       </c>
       <c r="C49" t="n">
-        <v>0.277757</v>
+        <v>0.193622</v>
       </c>
       <c r="D49" t="n">
-        <v>0.101798</v>
+        <v>0.278066</v>
       </c>
       <c r="E49" t="n">
-        <v>0.106627</v>
+        <v>0.101704</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.105674</v>
       </c>
     </row>
     <row r="50">
@@ -4993,16 +5137,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.222452</v>
+        <v>0.224448</v>
       </c>
       <c r="C50" t="n">
-        <v>0.198105</v>
+        <v>0.226165</v>
       </c>
       <c r="D50" t="n">
-        <v>0.111746</v>
+        <v>0.198186</v>
       </c>
       <c r="E50" t="n">
-        <v>0.115511</v>
+        <v>0.112144</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.115785</v>
       </c>
     </row>
     <row r="51">
@@ -5010,16 +5157,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268251</v>
+        <v>0.268243</v>
       </c>
       <c r="C51" t="n">
-        <v>0.204614</v>
+        <v>0.271849</v>
       </c>
       <c r="D51" t="n">
-        <v>0.08600820000000001</v>
+        <v>0.204612</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0895257</v>
+        <v>0.08589869999999999</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.0898283</v>
       </c>
     </row>
     <row r="52">
@@ -5027,16 +5177,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318081</v>
+        <v>0.318025</v>
       </c>
       <c r="C52" t="n">
-        <v>0.211115</v>
+        <v>0.325524</v>
       </c>
       <c r="D52" t="n">
-        <v>0.0868536</v>
+        <v>0.211074</v>
       </c>
       <c r="E52" t="n">
-        <v>0.08986139999999999</v>
+        <v>0.0866852</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.089545</v>
       </c>
     </row>
     <row r="53">
@@ -5044,16 +5197,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.116419</v>
+        <v>0.117445</v>
       </c>
       <c r="C53" t="n">
-        <v>0.217863</v>
+        <v>0.113208</v>
       </c>
       <c r="D53" t="n">
-        <v>0.0862656</v>
+        <v>0.217966</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0904037</v>
+        <v>0.08653379999999999</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.0900741</v>
       </c>
     </row>
     <row r="54">
@@ -5061,16 +5217,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110537</v>
+        <v>0.108867</v>
       </c>
       <c r="C54" t="n">
-        <v>0.223928</v>
+        <v>0.122961</v>
       </c>
       <c r="D54" t="n">
-        <v>0.08693620000000001</v>
+        <v>0.224163</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0906344</v>
+        <v>0.0863699</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.0910232</v>
       </c>
     </row>
     <row r="55">
@@ -5078,16 +5237,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113921</v>
+        <v>0.114816</v>
       </c>
       <c r="C55" t="n">
-        <v>0.230075</v>
+        <v>0.116422</v>
       </c>
       <c r="D55" t="n">
-        <v>0.0867734</v>
+        <v>0.230325</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0921392</v>
+        <v>0.0866812</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.09526900000000001</v>
       </c>
     </row>
     <row r="56">
@@ -5095,16 +5257,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115479</v>
+        <v>0.116385</v>
       </c>
       <c r="C56" t="n">
-        <v>0.23622</v>
+        <v>0.119257</v>
       </c>
       <c r="D56" t="n">
-        <v>0.087343</v>
+        <v>0.236528</v>
       </c>
       <c r="E56" t="n">
-        <v>0.09206739999999999</v>
+        <v>0.08787449999999999</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.09208520000000001</v>
       </c>
     </row>
     <row r="57">
@@ -5112,16 +5277,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118964</v>
+        <v>0.118808</v>
       </c>
       <c r="C57" t="n">
-        <v>0.241497</v>
+        <v>0.12373</v>
       </c>
       <c r="D57" t="n">
-        <v>0.0887286</v>
+        <v>0.241877</v>
       </c>
       <c r="E57" t="n">
-        <v>0.09256399999999999</v>
+        <v>0.0882791</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.09257460000000001</v>
       </c>
     </row>
     <row r="58">
@@ -5129,16 +5297,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.124238</v>
+        <v>0.124672</v>
       </c>
       <c r="C58" t="n">
-        <v>0.247243</v>
+        <v>0.128404</v>
       </c>
       <c r="D58" t="n">
-        <v>0.08873789999999999</v>
+        <v>0.247196</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0934521</v>
+        <v>0.08973739999999999</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.0939154</v>
       </c>
     </row>
     <row r="59">
@@ -5146,16 +5317,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.139285</v>
+        <v>0.130579</v>
       </c>
       <c r="C59" t="n">
-        <v>0.252372</v>
+        <v>0.134991</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0912818</v>
+        <v>0.252752</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0951376</v>
+        <v>0.0902796</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.0953447</v>
       </c>
     </row>
     <row r="60">
@@ -5163,16 +5337,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138624</v>
+        <v>0.138116</v>
       </c>
       <c r="C60" t="n">
-        <v>0.257038</v>
+        <v>0.143859</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0920082</v>
+        <v>0.257565</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0973203</v>
+        <v>0.0924002</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.09663720000000001</v>
       </c>
     </row>
     <row r="61">
@@ -5180,16 +5357,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149866</v>
+        <v>0.14825</v>
       </c>
       <c r="C61" t="n">
-        <v>0.262042</v>
+        <v>0.155199</v>
       </c>
       <c r="D61" t="n">
-        <v>0.09459960000000001</v>
+        <v>0.262844</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09970279999999999</v>
+        <v>0.102371</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.0999072</v>
       </c>
     </row>
     <row r="62">
@@ -5197,16 +5377,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.167995</v>
+        <v>0.164834</v>
       </c>
       <c r="C62" t="n">
-        <v>0.267705</v>
+        <v>0.16872</v>
       </c>
       <c r="D62" t="n">
-        <v>0.0973715</v>
+        <v>0.269134</v>
       </c>
       <c r="E62" t="n">
-        <v>0.103629</v>
+        <v>0.0973909</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.103592</v>
       </c>
     </row>
     <row r="63">
@@ -5214,16 +5397,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187019</v>
+        <v>0.185208</v>
       </c>
       <c r="C63" t="n">
-        <v>0.274556</v>
+        <v>0.191875</v>
       </c>
       <c r="D63" t="n">
-        <v>0.103216</v>
+        <v>0.274744</v>
       </c>
       <c r="E63" t="n">
-        <v>0.108531</v>
+        <v>0.103558</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.107814</v>
       </c>
     </row>
     <row r="64">
@@ -5231,16 +5417,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.21621</v>
+        <v>0.228146</v>
       </c>
       <c r="C64" t="n">
-        <v>0.201208</v>
+        <v>0.224443</v>
       </c>
       <c r="D64" t="n">
-        <v>0.112595</v>
+        <v>0.201156</v>
       </c>
       <c r="E64" t="n">
-        <v>0.126124</v>
+        <v>0.111467</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.116836</v>
       </c>
     </row>
     <row r="65">
@@ -5248,16 +5437,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263273</v>
+        <v>0.270469</v>
       </c>
       <c r="C65" t="n">
-        <v>0.208899</v>
+        <v>0.267002</v>
       </c>
       <c r="D65" t="n">
-        <v>0.126894</v>
+        <v>0.207706</v>
       </c>
       <c r="E65" t="n">
-        <v>0.131922</v>
+        <v>0.125743</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.131716</v>
       </c>
     </row>
     <row r="66">
@@ -5265,16 +5457,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.312046</v>
+        <v>0.309671</v>
       </c>
       <c r="C66" t="n">
-        <v>0.216623</v>
+        <v>0.33916</v>
       </c>
       <c r="D66" t="n">
-        <v>0.09640600000000001</v>
+        <v>0.216405</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09732929999999999</v>
+        <v>0.09968390000000001</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.0968229</v>
       </c>
     </row>
     <row r="67">
@@ -5282,16 +5477,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.120589</v>
+        <v>0.130247</v>
       </c>
       <c r="C67" t="n">
-        <v>0.225626</v>
+        <v>0.126415</v>
       </c>
       <c r="D67" t="n">
-        <v>0.0929985</v>
+        <v>0.225835</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09811259999999999</v>
+        <v>0.0979085</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.103146</v>
       </c>
     </row>
     <row r="68">
@@ -5299,16 +5497,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.132953</v>
+        <v>0.123312</v>
       </c>
       <c r="C68" t="n">
-        <v>0.233373</v>
+        <v>0.136587</v>
       </c>
       <c r="D68" t="n">
-        <v>0.0930409</v>
+        <v>0.236191</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0988935</v>
+        <v>0.0929816</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.107374</v>
       </c>
     </row>
     <row r="69">
@@ -5316,16 +5517,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.134299</v>
+        <v>0.125488</v>
       </c>
       <c r="C69" t="n">
-        <v>0.242356</v>
+        <v>0.130328</v>
       </c>
       <c r="D69" t="n">
-        <v>0.09879640000000001</v>
+        <v>0.243186</v>
       </c>
       <c r="E69" t="n">
-        <v>0.100066</v>
+        <v>0.0936988</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.100537</v>
       </c>
     </row>
     <row r="70">
@@ -5333,16 +5537,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.138521</v>
+        <v>0.136268</v>
       </c>
       <c r="C70" t="n">
-        <v>0.254747</v>
+        <v>0.143282</v>
       </c>
       <c r="D70" t="n">
-        <v>0.0940542</v>
+        <v>0.252372</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100005</v>
+        <v>0.0944329</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.104934</v>
       </c>
     </row>
     <row r="71">
@@ -5350,16 +5557,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.13343</v>
+        <v>0.141188</v>
       </c>
       <c r="C71" t="n">
-        <v>0.265128</v>
+        <v>0.13912</v>
       </c>
       <c r="D71" t="n">
-        <v>0.0950718</v>
+        <v>0.265775</v>
       </c>
       <c r="E71" t="n">
-        <v>0.101473</v>
+        <v>0.102781</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.104905</v>
       </c>
     </row>
     <row r="72">
@@ -5367,16 +5577,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.1369</v>
+        <v>0.136333</v>
       </c>
       <c r="C72" t="n">
-        <v>0.274003</v>
+        <v>0.143079</v>
       </c>
       <c r="D72" t="n">
-        <v>0.09701460000000001</v>
+        <v>0.273917</v>
       </c>
       <c r="E72" t="n">
-        <v>0.102978</v>
+        <v>0.0960751</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.103004</v>
       </c>
     </row>
     <row r="73">
@@ -5384,16 +5597,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142761</v>
+        <v>0.140176</v>
       </c>
       <c r="C73" t="n">
-        <v>0.285617</v>
+        <v>0.149614</v>
       </c>
       <c r="D73" t="n">
-        <v>0.0982734</v>
+        <v>0.286503</v>
       </c>
       <c r="E73" t="n">
-        <v>0.104248</v>
+        <v>0.0977875</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.104289</v>
       </c>
     </row>
     <row r="74">
@@ -5401,16 +5617,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.152</v>
+        <v>0.148971</v>
       </c>
       <c r="C74" t="n">
-        <v>0.296012</v>
+        <v>0.158959</v>
       </c>
       <c r="D74" t="n">
-        <v>0.099299</v>
+        <v>0.29755</v>
       </c>
       <c r="E74" t="n">
-        <v>0.10627</v>
+        <v>0.09837940000000001</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.106487</v>
       </c>
     </row>
     <row r="75">
@@ -5418,16 +5637,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.165339</v>
+        <v>0.164676</v>
       </c>
       <c r="C75" t="n">
-        <v>0.311408</v>
+        <v>0.182034</v>
       </c>
       <c r="D75" t="n">
-        <v>0.101298</v>
+        <v>0.310733</v>
       </c>
       <c r="E75" t="n">
-        <v>0.108985</v>
+        <v>0.109675</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.114714</v>
       </c>
     </row>
     <row r="76">
@@ -5435,16 +5657,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176308</v>
+        <v>0.176103</v>
       </c>
       <c r="C76" t="n">
-        <v>0.328498</v>
+        <v>0.185282</v>
       </c>
       <c r="D76" t="n">
-        <v>0.104237</v>
+        <v>0.327629</v>
       </c>
       <c r="E76" t="n">
-        <v>0.112696</v>
+        <v>0.104521</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.11291</v>
       </c>
     </row>
     <row r="77">
@@ -5452,16 +5677,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196496</v>
+        <v>0.196945</v>
       </c>
       <c r="C77" t="n">
-        <v>0.340419</v>
+        <v>0.206782</v>
       </c>
       <c r="D77" t="n">
-        <v>0.109565</v>
+        <v>0.342713</v>
       </c>
       <c r="E77" t="n">
-        <v>0.118567</v>
+        <v>0.116469</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.117474</v>
       </c>
     </row>
     <row r="78">
@@ -5469,16 +5697,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.233013</v>
+        <v>0.225859</v>
       </c>
       <c r="C78" t="n">
-        <v>0.264869</v>
+        <v>0.244362</v>
       </c>
       <c r="D78" t="n">
-        <v>0.117116</v>
+        <v>0.26434</v>
       </c>
       <c r="E78" t="n">
-        <v>0.127719</v>
+        <v>0.117374</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.127577</v>
       </c>
     </row>
     <row r="79">
@@ -5486,16 +5717,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.264949</v>
+        <v>0.266145</v>
       </c>
       <c r="C79" t="n">
-        <v>0.282587</v>
+        <v>0.294825</v>
       </c>
       <c r="D79" t="n">
-        <v>0.131291</v>
+        <v>0.283519</v>
       </c>
       <c r="E79" t="n">
-        <v>0.141937</v>
+        <v>0.130997</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.15255</v>
       </c>
     </row>
     <row r="80">
@@ -5503,16 +5737,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.320129</v>
+        <v>0.318551</v>
       </c>
       <c r="C80" t="n">
-        <v>0.300477</v>
+        <v>0.344427</v>
       </c>
       <c r="D80" t="n">
-        <v>0.100339</v>
+        <v>0.299458</v>
       </c>
       <c r="E80" t="n">
-        <v>0.10646</v>
+        <v>0.100213</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.106304</v>
       </c>
     </row>
     <row r="81">
@@ -5520,16 +5757,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135705</v>
+        <v>0.134891</v>
       </c>
       <c r="C81" t="n">
-        <v>0.316587</v>
+        <v>0.150956</v>
       </c>
       <c r="D81" t="n">
-        <v>0.101064</v>
+        <v>0.318295</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107539</v>
+        <v>0.101438</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.10779</v>
       </c>
     </row>
     <row r="82">
@@ -5537,16 +5777,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137349</v>
+        <v>0.136694</v>
       </c>
       <c r="C82" t="n">
-        <v>0.336133</v>
+        <v>0.144223</v>
       </c>
       <c r="D82" t="n">
-        <v>0.101673</v>
+        <v>0.338833</v>
       </c>
       <c r="E82" t="n">
-        <v>0.108731</v>
+        <v>0.101241</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.108975</v>
       </c>
     </row>
     <row r="83">
@@ -5554,16 +5797,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148161</v>
+        <v>0.13862</v>
       </c>
       <c r="C83" t="n">
-        <v>0.357181</v>
+        <v>0.147045</v>
       </c>
       <c r="D83" t="n">
-        <v>0.102107</v>
+        <v>0.359143</v>
       </c>
       <c r="E83" t="n">
-        <v>0.109947</v>
+        <v>0.102128</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.110696</v>
       </c>
     </row>
     <row r="84">
@@ -5571,16 +5817,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142015</v>
+        <v>0.142544</v>
       </c>
       <c r="C84" t="n">
-        <v>0.380124</v>
+        <v>0.151156</v>
       </c>
       <c r="D84" t="n">
-        <v>0.103166</v>
+        <v>0.379206</v>
       </c>
       <c r="E84" t="n">
-        <v>0.112203</v>
+        <v>0.102706</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.11165</v>
       </c>
     </row>
     <row r="85">
@@ -5588,16 +5837,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.146108</v>
+        <v>0.147008</v>
       </c>
       <c r="C85" t="n">
-        <v>0.400693</v>
+        <v>0.156321</v>
       </c>
       <c r="D85" t="n">
-        <v>0.103976</v>
+        <v>0.400588</v>
       </c>
       <c r="E85" t="n">
-        <v>0.11411</v>
+        <v>0.103857</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.114536</v>
       </c>
     </row>
     <row r="86">
@@ -5605,16 +5857,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.157363</v>
+        <v>0.150535</v>
       </c>
       <c r="C86" t="n">
-        <v>0.425763</v>
+        <v>0.163352</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1056</v>
+        <v>0.423414</v>
       </c>
       <c r="E86" t="n">
-        <v>0.1172</v>
+        <v>0.105415</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.123522</v>
       </c>
     </row>
     <row r="87">
@@ -5622,16 +5877,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.168429</v>
+        <v>0.167519</v>
       </c>
       <c r="C87" t="n">
-        <v>0.447234</v>
+        <v>0.172165</v>
       </c>
       <c r="D87" t="n">
-        <v>0.107358</v>
+        <v>0.447267</v>
       </c>
       <c r="E87" t="n">
-        <v>0.120538</v>
+        <v>0.107278</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.121923</v>
       </c>
     </row>
     <row r="88">
@@ -5639,16 +5897,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.166214</v>
+        <v>0.167201</v>
       </c>
       <c r="C88" t="n">
-        <v>0.470978</v>
+        <v>0.186699</v>
       </c>
       <c r="D88" t="n">
-        <v>0.109525</v>
+        <v>0.470879</v>
       </c>
       <c r="E88" t="n">
-        <v>0.124766</v>
+        <v>0.120388</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.130914</v>
       </c>
     </row>
     <row r="89">
@@ -5656,16 +5917,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.177369</v>
+        <v>0.179793</v>
       </c>
       <c r="C89" t="n">
-        <v>0.495703</v>
+        <v>0.199806</v>
       </c>
       <c r="D89" t="n">
-        <v>0.112455</v>
+        <v>0.496201</v>
       </c>
       <c r="E89" t="n">
-        <v>0.12927</v>
+        <v>0.112278</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.129797</v>
       </c>
     </row>
     <row r="90">
@@ -5673,16 +5937,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.200268</v>
+        <v>0.194695</v>
       </c>
       <c r="C90" t="n">
-        <v>0.522778</v>
+        <v>0.220844</v>
       </c>
       <c r="D90" t="n">
-        <v>0.117143</v>
+        <v>0.523266</v>
       </c>
       <c r="E90" t="n">
-        <v>0.136064</v>
+        <v>0.116768</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.136588</v>
       </c>
     </row>
     <row r="91">
@@ -5690,16 +5957,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.226825</v>
+        <v>0.21363</v>
       </c>
       <c r="C91" t="n">
-        <v>0.550592</v>
+        <v>0.242613</v>
       </c>
       <c r="D91" t="n">
-        <v>0.123258</v>
+        <v>0.550087</v>
       </c>
       <c r="E91" t="n">
-        <v>0.144687</v>
+        <v>0.128179</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.14555</v>
       </c>
     </row>
     <row r="92">
@@ -5707,16 +5977,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.251622</v>
+        <v>0.246906</v>
       </c>
       <c r="C92" t="n">
-        <v>0.412639</v>
+        <v>0.279673</v>
       </c>
       <c r="D92" t="n">
-        <v>0.132491</v>
+        <v>0.411653</v>
       </c>
       <c r="E92" t="n">
-        <v>0.156607</v>
+        <v>0.140527</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.162809</v>
       </c>
     </row>
     <row r="93">
@@ -5724,16 +5997,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.288313</v>
+        <v>0.296866</v>
       </c>
       <c r="C93" t="n">
-        <v>0.4315</v>
+        <v>0.340506</v>
       </c>
       <c r="D93" t="n">
-        <v>0.146454</v>
+        <v>0.431595</v>
       </c>
       <c r="E93" t="n">
-        <v>0.17335</v>
+        <v>0.155671</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.173969</v>
       </c>
     </row>
     <row r="94">
@@ -5741,16 +6017,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.362672</v>
+        <v>0.349469</v>
       </c>
       <c r="C94" t="n">
-        <v>0.45004</v>
+        <v>0.40529</v>
       </c>
       <c r="D94" t="n">
-        <v>0.110295</v>
+        <v>0.450202</v>
       </c>
       <c r="E94" t="n">
-        <v>0.125871</v>
+        <v>0.110959</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.127406</v>
       </c>
     </row>
     <row r="95">
@@ -5758,16 +6037,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.148312</v>
+        <v>0.159734</v>
       </c>
       <c r="C95" t="n">
-        <v>0.469807</v>
+        <v>0.166965</v>
       </c>
       <c r="D95" t="n">
-        <v>0.111544</v>
+        <v>0.470751</v>
       </c>
       <c r="E95" t="n">
-        <v>0.127951</v>
+        <v>0.114851</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.130576</v>
       </c>
     </row>
     <row r="96">
@@ -5775,16 +6057,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.150993</v>
+        <v>0.157549</v>
       </c>
       <c r="C96" t="n">
-        <v>0.490407</v>
+        <v>0.171095</v>
       </c>
       <c r="D96" t="n">
-        <v>0.11294</v>
+        <v>0.489607</v>
       </c>
       <c r="E96" t="n">
-        <v>0.131601</v>
+        <v>0.114584</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.133322</v>
       </c>
     </row>
     <row r="97">
@@ -5792,16 +6077,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.155848</v>
+        <v>0.155493</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5111</v>
+        <v>0.186257</v>
       </c>
       <c r="D97" t="n">
-        <v>0.114929</v>
+        <v>0.5103529999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.135271</v>
+        <v>0.122294</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.136261</v>
       </c>
     </row>
     <row r="98">
@@ -5809,16 +6097,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.169141</v>
+        <v>0.159469</v>
       </c>
       <c r="C98" t="n">
-        <v>0.532711</v>
+        <v>0.185855</v>
       </c>
       <c r="D98" t="n">
-        <v>0.116964</v>
+        <v>0.5317460000000001</v>
       </c>
       <c r="E98" t="n">
-        <v>0.138744</v>
+        <v>0.11849</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.13894</v>
       </c>
     </row>
     <row r="99">
@@ -5826,16 +6117,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.163603</v>
+        <v>0.164352</v>
       </c>
       <c r="C99" t="n">
-        <v>0.554855</v>
+        <v>0.195748</v>
       </c>
       <c r="D99" t="n">
-        <v>0.118983</v>
+        <v>0.554392</v>
       </c>
       <c r="E99" t="n">
-        <v>0.142635</v>
+        <v>0.127305</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.142458</v>
       </c>
     </row>
     <row r="100">
@@ -5843,16 +6137,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.169137</v>
+        <v>0.170628</v>
       </c>
       <c r="C100" t="n">
-        <v>0.57778</v>
+        <v>0.196448</v>
       </c>
       <c r="D100" t="n">
-        <v>0.120449</v>
+        <v>0.578357</v>
       </c>
       <c r="E100" t="n">
-        <v>0.147302</v>
+        <v>0.128527</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.145879</v>
       </c>
     </row>
     <row r="101">
@@ -5860,16 +6157,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.176523</v>
+        <v>0.178532</v>
       </c>
       <c r="C101" t="n">
-        <v>0.603419</v>
+        <v>0.20763</v>
       </c>
       <c r="D101" t="n">
-        <v>0.120988</v>
+        <v>0.601977</v>
       </c>
       <c r="E101" t="n">
-        <v>0.15392</v>
+        <v>0.124998</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.149407</v>
       </c>
     </row>
     <row r="102">
@@ -5877,16 +6177,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.192747</v>
+        <v>0.18707</v>
       </c>
       <c r="C102" t="n">
-        <v>0.626999</v>
+        <v>0.227991</v>
       </c>
       <c r="D102" t="n">
-        <v>0.126774</v>
+        <v>0.6273609999999999</v>
       </c>
       <c r="E102" t="n">
-        <v>0.161269</v>
+        <v>0.127298</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.154357</v>
       </c>
     </row>
     <row r="103">
@@ -5894,16 +6197,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.201158</v>
+        <v>0.198438</v>
       </c>
       <c r="C103" t="n">
-        <v>0.6548890000000001</v>
+        <v>0.234255</v>
       </c>
       <c r="D103" t="n">
-        <v>0.131045</v>
+        <v>0.654876</v>
       </c>
       <c r="E103" t="n">
-        <v>0.169917</v>
+        <v>0.130367</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.160436</v>
       </c>
     </row>
     <row r="104">
@@ -5911,16 +6217,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.231644</v>
+        <v>0.213883</v>
       </c>
       <c r="C104" t="n">
-        <v>0.682966</v>
+        <v>0.26733</v>
       </c>
       <c r="D104" t="n">
-        <v>0.137361</v>
+        <v>0.683316</v>
       </c>
       <c r="E104" t="n">
-        <v>0.179844</v>
+        <v>0.135898</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.167843</v>
       </c>
     </row>
     <row r="105">
@@ -5928,16 +6237,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.255149</v>
+        <v>0.243968</v>
       </c>
       <c r="C105" t="n">
-        <v>0.71399</v>
+        <v>0.286756</v>
       </c>
       <c r="D105" t="n">
-        <v>0.145741</v>
+        <v>0.713987</v>
       </c>
       <c r="E105" t="n">
-        <v>0.19108</v>
+        <v>0.145903</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.178022</v>
       </c>
     </row>
     <row r="106">
@@ -5945,16 +6257,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.283155</v>
+        <v>0.262004</v>
       </c>
       <c r="C106" t="n">
-        <v>0.745564</v>
+        <v>0.326838</v>
       </c>
       <c r="D106" t="n">
-        <v>0.157092</v>
+        <v>0.745555</v>
       </c>
       <c r="E106" t="n">
-        <v>0.205519</v>
+        <v>0.149192</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.192774</v>
       </c>
     </row>
     <row r="107">
@@ -5962,16 +6277,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.319904</v>
+        <v>0.310091</v>
       </c>
       <c r="C107" t="n">
-        <v>0.582734</v>
+        <v>0.396314</v>
       </c>
       <c r="D107" t="n">
-        <v>0.173098</v>
+        <v>0.5827909999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.22542</v>
+        <v>0.162582</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.214426</v>
       </c>
     </row>
     <row r="108">
@@ -5979,16 +6297,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.389058</v>
+        <v>0.377359</v>
       </c>
       <c r="C108" t="n">
-        <v>0.603293</v>
+        <v>0.467373</v>
       </c>
       <c r="D108" t="n">
-        <v>0.127305</v>
+        <v>0.603529</v>
       </c>
       <c r="E108" t="n">
-        <v>0.15936</v>
+        <v>0.120725</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.145555</v>
       </c>
     </row>
     <row r="109">
@@ -5996,16 +6317,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.478196</v>
+        <v>0.482714</v>
       </c>
       <c r="C109" t="n">
-        <v>0.625478</v>
+        <v>0.605397</v>
       </c>
       <c r="D109" t="n">
-        <v>0.130117</v>
+        <v>0.625101</v>
       </c>
       <c r="E109" t="n">
-        <v>0.163194</v>
+        <v>0.121888</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.154939</v>
       </c>
     </row>
     <row r="110">
@@ -6013,16 +6337,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.18</v>
+        <v>0.161812</v>
       </c>
       <c r="C110" t="n">
-        <v>0.6461789999999999</v>
+        <v>0.202887</v>
       </c>
       <c r="D110" t="n">
-        <v>0.133073</v>
+        <v>0.6471170000000001</v>
       </c>
       <c r="E110" t="n">
-        <v>0.166838</v>
+        <v>0.123094</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.159197</v>
       </c>
     </row>
     <row r="111">
@@ -6030,16 +6357,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.186508</v>
+        <v>0.165016</v>
       </c>
       <c r="C111" t="n">
-        <v>0.670665</v>
+        <v>0.199945</v>
       </c>
       <c r="D111" t="n">
-        <v>0.132123</v>
+        <v>0.671888</v>
       </c>
       <c r="E111" t="n">
-        <v>0.17069</v>
+        <v>0.124704</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.158668</v>
       </c>
     </row>
     <row r="112">
@@ -6047,16 +6377,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.180645</v>
+        <v>0.175772</v>
       </c>
       <c r="C112" t="n">
-        <v>0.69385</v>
+        <v>0.208137</v>
       </c>
       <c r="D112" t="n">
-        <v>0.137754</v>
+        <v>0.693978</v>
       </c>
       <c r="E112" t="n">
-        <v>0.174652</v>
+        <v>0.132949</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.163826</v>
       </c>
     </row>
     <row r="113">
@@ -6064,16 +6397,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185736</v>
+        <v>0.174355</v>
       </c>
       <c r="C113" t="n">
-        <v>0.718504</v>
+        <v>0.228462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.140376</v>
+        <v>0.719023</v>
       </c>
       <c r="E113" t="n">
-        <v>0.178679</v>
+        <v>0.134468</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.174913</v>
       </c>
     </row>
     <row r="114">
@@ -6081,16 +6417,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.200154</v>
+        <v>0.192086</v>
       </c>
       <c r="C114" t="n">
-        <v>0.744278</v>
+        <v>0.237821</v>
       </c>
       <c r="D114" t="n">
-        <v>0.139514</v>
+        <v>0.744344</v>
       </c>
       <c r="E114" t="n">
-        <v>0.182551</v>
+        <v>0.132949</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.177582</v>
       </c>
     </row>
     <row r="115">
@@ -6098,16 +6437,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.200166</v>
+        <v>0.195598</v>
       </c>
       <c r="C115" t="n">
-        <v>0.76958</v>
+        <v>0.250861</v>
       </c>
       <c r="D115" t="n">
-        <v>0.145966</v>
+        <v>0.770441</v>
       </c>
       <c r="E115" t="n">
-        <v>0.187413</v>
+        <v>0.13733</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.183838</v>
       </c>
     </row>
     <row r="116">
@@ -6115,16 +6457,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.216542</v>
+        <v>0.20445</v>
       </c>
       <c r="C116" t="n">
-        <v>0.79695</v>
+        <v>0.258909</v>
       </c>
       <c r="D116" t="n">
-        <v>0.145664</v>
+        <v>0.79728</v>
       </c>
       <c r="E116" t="n">
-        <v>0.193261</v>
+        <v>0.142341</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.190525</v>
       </c>
     </row>
     <row r="117">
@@ -6132,16 +6477,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.223653</v>
+        <v>0.228065</v>
       </c>
       <c r="C117" t="n">
-        <v>0.825024</v>
+        <v>0.277911</v>
       </c>
       <c r="D117" t="n">
-        <v>0.153167</v>
+        <v>0.825078</v>
       </c>
       <c r="E117" t="n">
-        <v>0.198025</v>
+        <v>0.14834</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.197518</v>
       </c>
     </row>
     <row r="118">
@@ -6149,16 +6497,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.248882</v>
+        <v>0.239027</v>
       </c>
       <c r="C118" t="n">
-        <v>0.855275</v>
+        <v>0.306116</v>
       </c>
       <c r="D118" t="n">
-        <v>0.15812</v>
+        <v>0.855724</v>
       </c>
       <c r="E118" t="n">
-        <v>0.206831</v>
+        <v>0.157605</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.205452</v>
       </c>
     </row>
     <row r="119">
@@ -6166,16 +6517,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260886</v>
+        <v>0.257662</v>
       </c>
       <c r="C119" t="n">
-        <v>0.8857390000000001</v>
+        <v>0.325181</v>
       </c>
       <c r="D119" t="n">
-        <v>0.164639</v>
+        <v>0.8868239999999999</v>
       </c>
       <c r="E119" t="n">
-        <v>0.216546</v>
+        <v>0.162267</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.215506</v>
       </c>
     </row>
     <row r="120">
@@ -6183,16 +6537,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.286835</v>
+        <v>0.287595</v>
       </c>
       <c r="C120" t="n">
-        <v>0.918746</v>
+        <v>0.37252</v>
       </c>
       <c r="D120" t="n">
-        <v>0.173853</v>
+        <v>0.9218460000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.229694</v>
+        <v>0.17187</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.228891</v>
       </c>
     </row>
     <row r="121">
@@ -6200,16 +6557,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.343837</v>
+        <v>0.332</v>
       </c>
       <c r="C121" t="n">
-        <v>0.669534</v>
+        <v>0.433691</v>
       </c>
       <c r="D121" t="n">
-        <v>0.183289</v>
+        <v>0.669173</v>
       </c>
       <c r="E121" t="n">
-        <v>0.249615</v>
+        <v>0.195691</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.249055</v>
       </c>
     </row>
     <row r="122">
@@ -6217,16 +6577,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.399874</v>
+        <v>0.397229</v>
       </c>
       <c r="C122" t="n">
-        <v>0.68973</v>
+        <v>0.504606</v>
       </c>
       <c r="D122" t="n">
-        <v>0.210435</v>
+        <v>0.690293</v>
       </c>
       <c r="E122" t="n">
-        <v>0.281556</v>
+        <v>0.209925</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.285446</v>
       </c>
     </row>
     <row r="123">
@@ -6234,16 +6597,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.490416</v>
+        <v>0.504065</v>
       </c>
       <c r="C123" t="n">
-        <v>0.711218</v>
+        <v>0.630343</v>
       </c>
       <c r="D123" t="n">
-        <v>0.144802</v>
+        <v>0.711027</v>
       </c>
       <c r="E123" t="n">
-        <v>0.173352</v>
+        <v>0.150744</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.187993</v>
       </c>
     </row>
     <row r="124">
@@ -6251,16 +6617,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.186947</v>
+        <v>0.186284</v>
       </c>
       <c r="C124" t="n">
-        <v>0.7333150000000001</v>
+        <v>0.22939</v>
       </c>
       <c r="D124" t="n">
-        <v>0.147399</v>
+        <v>0.7335930000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.191067</v>
+        <v>0.156675</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.186476</v>
       </c>
     </row>
     <row r="125">
@@ -6268,16 +6637,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.181879</v>
+        <v>0.201021</v>
       </c>
       <c r="C125" t="n">
-        <v>0.756543</v>
+        <v>0.236731</v>
       </c>
       <c r="D125" t="n">
-        <v>0.147725</v>
+        <v>0.756562</v>
       </c>
       <c r="E125" t="n">
-        <v>0.191493</v>
+        <v>0.153422</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.200395</v>
       </c>
     </row>
     <row r="126">
@@ -6285,16 +6657,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.195355</v>
+        <v>0.195371</v>
       </c>
       <c r="C126" t="n">
-        <v>0.769827</v>
+        <v>0.244335</v>
       </c>
       <c r="D126" t="n">
-        <v>0.15273</v>
+        <v>0.779497</v>
       </c>
       <c r="E126" t="n">
-        <v>0.195167</v>
+        <v>0.146261</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.197381</v>
       </c>
     </row>
     <row r="127">
@@ -6302,16 +6677,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.210108</v>
+        <v>0.209512</v>
       </c>
       <c r="C127" t="n">
-        <v>0.804416</v>
+        <v>0.249615</v>
       </c>
       <c r="D127" t="n">
-        <v>0.153514</v>
+        <v>0.804553</v>
       </c>
       <c r="E127" t="n">
-        <v>0.193764</v>
+        <v>0.151972</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.204832</v>
       </c>
     </row>
     <row r="128">
@@ -6319,16 +6697,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.214703</v>
+        <v>0.197604</v>
       </c>
       <c r="C128" t="n">
-        <v>0.831456</v>
+        <v>0.262541</v>
       </c>
       <c r="D128" t="n">
-        <v>0.162748</v>
+        <v>0.830699</v>
       </c>
       <c r="E128" t="n">
-        <v>0.202717</v>
+        <v>0.157649</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.207198</v>
       </c>
     </row>
     <row r="129">
@@ -6336,16 +6717,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217515</v>
+        <v>0.21403</v>
       </c>
       <c r="C129" t="n">
-        <v>0.857901</v>
+        <v>0.284193</v>
       </c>
       <c r="D129" t="n">
-        <v>0.162762</v>
+        <v>0.858398</v>
       </c>
       <c r="E129" t="n">
-        <v>0.212595</v>
+        <v>0.162415</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.215624</v>
       </c>
     </row>
     <row r="130">
@@ -6353,16 +6737,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.239186</v>
+        <v>0.229155</v>
       </c>
       <c r="C130" t="n">
-        <v>0.886103</v>
+        <v>0.293141</v>
       </c>
       <c r="D130" t="n">
-        <v>0.167319</v>
+        <v>0.885741</v>
       </c>
       <c r="E130" t="n">
-        <v>0.215963</v>
+        <v>0.162709</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.21674</v>
       </c>
     </row>
     <row r="131">
@@ -6370,16 +6757,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.248148</v>
+        <v>0.239235</v>
       </c>
       <c r="C131" t="n">
-        <v>0.916188</v>
+        <v>0.313986</v>
       </c>
       <c r="D131" t="n">
-        <v>0.164836</v>
+        <v>0.915689</v>
       </c>
       <c r="E131" t="n">
-        <v>0.225696</v>
+        <v>0.174237</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.222026</v>
       </c>
     </row>
     <row r="132">
@@ -6387,16 +6777,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.25251</v>
+        <v>0.253955</v>
       </c>
       <c r="C132" t="n">
-        <v>0.946159</v>
+        <v>0.335134</v>
       </c>
       <c r="D132" t="n">
-        <v>0.170021</v>
+        <v>0.94745</v>
       </c>
       <c r="E132" t="n">
-        <v>0.230972</v>
+        <v>0.172554</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.23198</v>
       </c>
     </row>
     <row r="133">
@@ -6404,16 +6797,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.279103</v>
+        <v>0.265731</v>
       </c>
       <c r="C133" t="n">
-        <v>0.978905</v>
+        <v>0.363278</v>
       </c>
       <c r="D133" t="n">
-        <v>0.1822</v>
+        <v>0.978903</v>
       </c>
       <c r="E133" t="n">
-        <v>0.239908</v>
+        <v>0.179279</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.245682</v>
       </c>
     </row>
     <row r="134">
@@ -6421,16 +6817,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.297512</v>
+        <v>0.293626</v>
       </c>
       <c r="C134" t="n">
-        <v>1.01231</v>
+        <v>0.400412</v>
       </c>
       <c r="D134" t="n">
-        <v>0.182218</v>
+        <v>1.01262</v>
       </c>
       <c r="E134" t="n">
-        <v>0.249024</v>
+        <v>0.181496</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.246938</v>
       </c>
     </row>
     <row r="135">
@@ -6438,16 +6837,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.345727</v>
+        <v>0.348412</v>
       </c>
       <c r="C135" t="n">
-        <v>0.6852240000000001</v>
+        <v>0.454707</v>
       </c>
       <c r="D135" t="n">
-        <v>0.208962</v>
+        <v>0.69287</v>
       </c>
       <c r="E135" t="n">
-        <v>0.270769</v>
+        <v>0.199895</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.277936</v>
       </c>
     </row>
     <row r="136">
@@ -6455,16 +6857,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.422687</v>
+        <v>0.413264</v>
       </c>
       <c r="C136" t="n">
-        <v>0.710552</v>
+        <v>0.5369660000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.221029</v>
+        <v>0.711112</v>
       </c>
       <c r="E136" t="n">
-        <v>0.306134</v>
+        <v>0.21946</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.307849</v>
       </c>
     </row>
     <row r="137">
@@ -6472,16 +6877,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.48884</v>
+        <v>0.502117</v>
       </c>
       <c r="C137" t="n">
-        <v>0.729116</v>
+        <v>0.658493</v>
       </c>
       <c r="D137" t="n">
-        <v>0.258113</v>
+        <v>0.723507</v>
       </c>
       <c r="E137" t="n">
-        <v>0.298024</v>
+        <v>0.263821</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.308409</v>
       </c>
     </row>
     <row r="138">
@@ -6489,16 +6897,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.33663</v>
+        <v>0.330438</v>
       </c>
       <c r="C138" t="n">
-        <v>0.74899</v>
+        <v>0.383663</v>
       </c>
       <c r="D138" t="n">
-        <v>0.265616</v>
+        <v>0.750194</v>
       </c>
       <c r="E138" t="n">
-        <v>0.307574</v>
+        <v>0.261579</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.303411</v>
       </c>
     </row>
     <row r="139">
@@ -6506,16 +6917,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334523</v>
+        <v>0.31074</v>
       </c>
       <c r="C139" t="n">
-        <v>0.769554</v>
+        <v>0.393612</v>
       </c>
       <c r="D139" t="n">
-        <v>0.264112</v>
+        <v>0.771096</v>
       </c>
       <c r="E139" t="n">
-        <v>0.304502</v>
+        <v>0.268909</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.319511</v>
       </c>
     </row>
     <row r="140">
@@ -6523,16 +6937,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339861</v>
+        <v>0.339045</v>
       </c>
       <c r="C140" t="n">
-        <v>0.7911319999999999</v>
+        <v>0.37651</v>
       </c>
       <c r="D140" t="n">
-        <v>0.274608</v>
+        <v>0.792453</v>
       </c>
       <c r="E140" t="n">
-        <v>0.326121</v>
+        <v>0.271569</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.313133</v>
       </c>
     </row>
     <row r="141">
@@ -6540,16 +6957,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.342355</v>
+        <v>0.320937</v>
       </c>
       <c r="C141" t="n">
-        <v>0.812962</v>
+        <v>0.408267</v>
       </c>
       <c r="D141" t="n">
-        <v>0.26144</v>
+        <v>0.808295</v>
       </c>
       <c r="E141" t="n">
-        <v>0.314022</v>
+        <v>0.276002</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.330523</v>
       </c>
     </row>
     <row r="142">
@@ -6557,16 +6977,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.351788</v>
+        <v>0.355115</v>
       </c>
       <c r="C142" t="n">
-        <v>0.836384</v>
+        <v>0.415626</v>
       </c>
       <c r="D142" t="n">
-        <v>0.278394</v>
+        <v>0.831785</v>
       </c>
       <c r="E142" t="n">
-        <v>0.323916</v>
+        <v>0.272832</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.321383</v>
       </c>
     </row>
     <row r="143">
@@ -6574,16 +6997,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339014</v>
+        <v>0.370156</v>
       </c>
       <c r="C143" t="n">
-        <v>0.86127</v>
+        <v>0.416766</v>
       </c>
       <c r="D143" t="n">
-        <v>0.276135</v>
+        <v>0.862965</v>
       </c>
       <c r="E143" t="n">
-        <v>0.339162</v>
+        <v>0.274243</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.342069</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -560,430 +560,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0188563</v>
+                  <v>0.0201731</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.020482</v>
+                  <v>0.0223373</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0250918</v>
+                  <v>0.0283973</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0324396</v>
+                  <v>0.0359745</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0486736</v>
+                  <v>0.0468578</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0676407</v>
+                  <v>0.0662001</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0914015</v>
+                  <v>0.0874499</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.120117</v>
+                  <v>0.118178</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0161742</v>
+                  <v>0.0163823</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0167609</v>
+                  <v>0.0169442</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.017033</v>
+                  <v>0.0173203</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0178156</v>
+                  <v>0.0179112</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0186429</v>
+                  <v>0.0186739</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0201514</v>
+                  <v>0.0206062</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0223364</v>
+                  <v>0.0231143</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0265812</v>
+                  <v>0.0271457</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0315209</v>
+                  <v>0.0334194</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0404218</v>
+                  <v>0.0418801</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0523243</v>
+                  <v>0.0544232</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.068802</v>
+                  <v>0.06979779999999999</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0916015</v>
+                  <v>0.0938215</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.115789</v>
+                  <v>0.121481</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0165559</v>
+                  <v>0.0166604</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.01713</v>
+                  <v>0.0171542</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.017832</v>
+                  <v>0.0177934</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0186431</v>
+                  <v>0.0184952</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0204344</v>
+                  <v>0.0201196</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0223797</v>
+                  <v>0.0218972</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0260575</v>
+                  <v>0.0251077</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0296827</v>
+                  <v>0.0292352</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0351294</v>
+                  <v>0.0347619</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0439567</v>
+                  <v>0.0435356</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0560566</v>
+                  <v>0.0537204</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0724226</v>
+                  <v>0.0688154</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0942229</v>
+                  <v>0.09015720000000001</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.120526</v>
+                  <v>0.116026</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0171733</v>
+                  <v>0.0170183</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0178413</v>
+                  <v>0.0178123</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0187789</v>
+                  <v>0.01864</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0201514</v>
+                  <v>0.0197201</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0218874</v>
+                  <v>0.0215528</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0244952</v>
+                  <v>0.0238953</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0277145</v>
+                  <v>0.0270839</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0318614</v>
+                  <v>0.0315753</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.038157</v>
+                  <v>0.0372642</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0458946</v>
+                  <v>0.0449549</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0561284</v>
+                  <v>0.0551349</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.07138170000000001</v>
+                  <v>0.06987989999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.09212090000000001</v>
+                  <v>0.09050619999999999</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.117399</v>
+                  <v>0.116517</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.142611</v>
+                  <v>0.142867</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0191063</v>
+                  <v>0.0189245</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0202054</v>
+                  <v>0.0202459</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216884</v>
+                  <v>0.0217405</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.023762</v>
+                  <v>0.0238386</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0265754</v>
+                  <v>0.0263284</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0299431</v>
+                  <v>0.0295381</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0344095</v>
+                  <v>0.0336662</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0405591</v>
+                  <v>0.0393238</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0475581</v>
+                  <v>0.0464554</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0572633</v>
+                  <v>0.0563056</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0711276</v>
+                  <v>0.0704912</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0912027</v>
+                  <v>0.090473</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.117531</v>
+                  <v>0.116153</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.147591</v>
+                  <v>0.148156</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0198684</v>
+                  <v>0.0199809</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0210982</v>
+                  <v>0.0212024</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0228671</v>
+                  <v>0.0226467</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0250892</v>
+                  <v>0.0247555</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0274858</v>
+                  <v>0.0272389</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.0307585</v>
+                  <v>0.0304965</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0350439</v>
+                  <v>0.034774</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0401473</v>
+                  <v>0.0399272</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0470655</v>
+                  <v>0.0466726</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0565303</v>
+                  <v>0.0562112</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0694931</v>
+                  <v>0.0692453</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0876659</v>
+                  <v>0.08731709999999999</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.112976</v>
+                  <v>0.112012</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.14429</v>
+                  <v>0.143596</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0201115</v>
+                  <v>0.0198969</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0216766</v>
+                  <v>0.0211685</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0228365</v>
+                  <v>0.0228963</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0248985</v>
+                  <v>0.0246315</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0272584</v>
+                  <v>0.0270319</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0302977</v>
+                  <v>0.0301633</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0342083</v>
+                  <v>0.0343003</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.039444</v>
+                  <v>0.0392099</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0458422</v>
+                  <v>0.0461135</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0546333</v>
+                  <v>0.0547299</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0669435</v>
+                  <v>0.0668189</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0841283</v>
+                  <v>0.0836469</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.108178</v>
+                  <v>0.107787</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.139209</v>
+                  <v>0.138233</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0208397</v>
+                  <v>0.021069</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0217789</v>
+                  <v>0.0216843</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0236136</v>
+                  <v>0.0235278</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0250037</v>
+                  <v>0.0252833</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0272123</v>
+                  <v>0.0276404</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0306604</v>
+                  <v>0.0303935</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0359699</v>
+                  <v>0.0347047</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0400556</v>
+                  <v>0.03961</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0464214</v>
+                  <v>0.0462842</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0543718</v>
+                  <v>0.0542663</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0654956</v>
+                  <v>0.06533070000000001</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0810722</v>
+                  <v>0.0810447</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.102897</v>
+                  <v>0.102744</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.133253</v>
+                  <v>0.132435</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.1679</v>
+                  <v>0.168123</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0312378</v>
+                  <v>0.0311566</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.032867</v>
+                  <v>0.0327274</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0343439</v>
+                  <v>0.0342032</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0361309</v>
+                  <v>0.0360288</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0383012</v>
+                  <v>0.038221</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0408352</v>
+                  <v>0.0407202</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0439366</v>
+                  <v>0.0443612</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0486743</v>
+                  <v>0.0487038</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0550738</v>
+                  <v>0.0551061</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0645583</v>
+                  <v>0.0650413</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0791676</v>
+                  <v>0.0796751</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0998057</v>
+                  <v>0.100197</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.128197</v>
+                  <v>0.128476</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.163841</v>
+                  <v>0.164648</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0345014</v>
+                  <v>0.0347131</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.035219</v>
+                  <v>0.0356762</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0366214</v>
+                  <v>0.0366723</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0384021</v>
+                  <v>0.0385512</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0405117</v>
+                  <v>0.0406167</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0431668</v>
+                  <v>0.0432628</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0465002</v>
+                  <v>0.0469616</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0510499</v>
+                  <v>0.0522871</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0587435</v>
+                  <v>0.0587787</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0679357</v>
+                  <v>0.06793159999999999</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0816269</v>
+                  <v>0.0818242</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.101812</v>
+                  <v>0.10117</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.129487</v>
+                  <v>0.129216</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.164993</v>
+                  <v>0.164833</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0468838</v>
+                  <v>0.04719</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0484521</v>
+                  <v>0.0477155</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0493311</v>
+                  <v>0.0498207</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0507617</v>
+                  <v>0.0506207</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0532957</v>
+                  <v>0.0533573</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0554191</v>
+                  <v>0.0561423</v>
                 </pt>
               </numCache>
             </numRef>
@@ -999,7 +999,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_map</v>
+                  <v>absl::node_hash_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -1462,430 +1462,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0745743</v>
+                  <v>0.0194065</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0818991</v>
+                  <v>0.0224007</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0759394</v>
+                  <v>0.0288135</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0880992</v>
+                  <v>0.0338387</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.08153489999999999</v>
+                  <v>0.0464436</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0624356</v>
+                  <v>0.0656384</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.061869</v>
+                  <v>0.0870889</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0683074</v>
+                  <v>0.116853</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0686766</v>
+                  <v>0.016173</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.07166640000000001</v>
+                  <v>0.0167609</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0739997</v>
+                  <v>0.0172318</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.077265</v>
+                  <v>0.0179025</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0817507</v>
+                  <v>0.0189746</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0856117</v>
+                  <v>0.019983</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.0866362</v>
+                  <v>0.0223099</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.09086229999999999</v>
+                  <v>0.0264348</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.09648760000000001</v>
+                  <v>0.0312478</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.096305</v>
+                  <v>0.0404906</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.09784320000000001</v>
+                  <v>0.0537627</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0664341</v>
+                  <v>0.0690885</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0712783</v>
+                  <v>0.0933016</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0762056</v>
+                  <v>0.118794</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0754963</v>
+                  <v>0.0162717</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.0791755</v>
+                  <v>0.0168356</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0828492</v>
+                  <v>0.017468</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.08543870000000001</v>
+                  <v>0.0182377</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0887561</v>
+                  <v>0.0194683</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.092414</v>
+                  <v>0.0212317</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0948533</v>
+                  <v>0.0242552</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0957143</v>
+                  <v>0.0284577</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.09790550000000001</v>
+                  <v>0.0343277</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.09936730000000001</v>
+                  <v>0.0428176</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.101587</v>
+                  <v>0.0534805</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.06934940000000001</v>
+                  <v>0.0688173</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0726347</v>
+                  <v>0.0907517</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.07564949999999999</v>
+                  <v>0.117543</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0790356</v>
+                  <v>0.0168393</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0818281</v>
+                  <v>0.0175714</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0856015</v>
+                  <v>0.0184474</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.08902640000000001</v>
+                  <v>0.0198324</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0915702</v>
+                  <v>0.021464</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0953242</v>
+                  <v>0.0237258</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0973436</v>
+                  <v>0.0270856</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.100137</v>
+                  <v>0.0315007</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.102066</v>
+                  <v>0.0372003</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.104689</v>
+                  <v>0.0443335</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.106565</v>
+                  <v>0.0545841</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.109417</v>
+                  <v>0.06922639999999999</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0759278</v>
+                  <v>0.0899831</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.07929940000000001</v>
+                  <v>0.117779</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0833945</v>
+                  <v>0.142876</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.08607579999999999</v>
+                  <v>0.0191296</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0893982</v>
+                  <v>0.0201955</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0926165</v>
+                  <v>0.0216483</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.09584810000000001</v>
+                  <v>0.023403</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.100165</v>
+                  <v>0.026064</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.101736</v>
+                  <v>0.0294373</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.105135</v>
+                  <v>0.0339117</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.107339</v>
+                  <v>0.0393543</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.109803</v>
+                  <v>0.0465728</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.111709</v>
+                  <v>0.056655</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.115496</v>
+                  <v>0.0699357</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0812769</v>
+                  <v>0.0901044</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.08581900000000001</v>
+                  <v>0.117115</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.09048920000000001</v>
+                  <v>0.147525</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.09512900000000001</v>
+                  <v>0.0200422</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.09904019999999999</v>
+                  <v>0.0210888</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.103762</v>
+                  <v>0.0229847</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.109767</v>
+                  <v>0.0248889</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.115064</v>
+                  <v>0.0271453</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.119625</v>
+                  <v>0.0304582</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.123912</v>
+                  <v>0.0344984</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.128639</v>
+                  <v>0.0397809</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.136023</v>
+                  <v>0.0470601</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.141569</v>
+                  <v>0.0565718</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.147324</v>
+                  <v>0.06901500000000001</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.114448</v>
+                  <v>0.087157</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.120419</v>
+                  <v>0.112264</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.125131</v>
+                  <v>0.144133</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.131477</v>
+                  <v>0.0200835</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.139604</v>
+                  <v>0.0214419</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.146445</v>
+                  <v>0.0229504</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.154887</v>
+                  <v>0.0250695</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.163154</v>
+                  <v>0.0273812</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.170385</v>
+                  <v>0.0308585</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.178312</v>
+                  <v>0.0344507</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.182546</v>
+                  <v>0.0394985</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.19023</v>
+                  <v>0.0460324</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.200533</v>
+                  <v>0.0550461</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.208859</v>
+                  <v>0.0671224</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.157758</v>
+                  <v>0.0844076</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.162746</v>
+                  <v>0.109009</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.168477</v>
+                  <v>0.139885</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.17633</v>
+                  <v>0.0246877</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.183525</v>
+                  <v>0.0262639</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.190701</v>
+                  <v>0.0285106</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.19753</v>
+                  <v>0.0326365</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.204795</v>
+                  <v>0.0376421</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.226592</v>
+                  <v>0.0431873</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.219043</v>
+                  <v>0.0495911</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.227757</v>
+                  <v>0.0557668</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.233267</v>
+                  <v>0.0618652</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.243865</v>
+                  <v>0.0688729</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.252361</v>
+                  <v>0.0776963</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.261173</v>
+                  <v>0.0907839</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.190647</v>
+                  <v>0.109448</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.197526</v>
+                  <v>0.136707</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.203566</v>
+                  <v>0.172459</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.210146</v>
+                  <v>0.0467682</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.218257</v>
+                  <v>0.0483897</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.224714</v>
+                  <v>0.0507314</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.23258</v>
+                  <v>0.0528627</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.239218</v>
+                  <v>0.0555484</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.24724</v>
+                  <v>0.0590007</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.255715</v>
+                  <v>0.0628261</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.263655</v>
+                  <v>0.0678373</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.271989</v>
+                  <v>0.0743669</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.282797</v>
+                  <v>0.08271000000000001</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.289767</v>
+                  <v>0.0944628</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.206007</v>
+                  <v>0.11085</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.211597</v>
+                  <v>0.135461</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.217961</v>
+                  <v>0.170368</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.22481</v>
+                  <v>0.0512479</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.231511</v>
+                  <v>0.052865</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.23876</v>
+                  <v>0.0549309</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.246015</v>
+                  <v>0.058871</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.253902</v>
+                  <v>0.0612004</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.261754</v>
+                  <v>0.0650288</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.269215</v>
+                  <v>0.069248</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.276809</v>
+                  <v>0.0746687</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.285243</v>
+                  <v>0.08118839999999999</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.294416</v>
+                  <v>0.0896735</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.303237</v>
+                  <v>0.101136</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.212509</v>
+                  <v>0.117614</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.21893</v>
+                  <v>0.141623</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.225118</v>
+                  <v>0.176838</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.232231</v>
+                  <v>0.0654614</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.239705</v>
+                  <v>0.0667495</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.247032</v>
+                  <v>0.06891559999999999</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.255056</v>
+                  <v>0.07127269999999999</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.262733</v>
+                  <v>0.0736226</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.271863</v>
+                  <v>0.077071</v>
                 </pt>
               </numCache>
             </numRef>
@@ -1901,7 +1901,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_flat_map</v>
+                  <v>boost::unordered_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -2364,430 +2364,430 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0212525</v>
+                  <v>0.0719905</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0216004</v>
+                  <v>0.0729974</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0227228</v>
+                  <v>0.082431</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0236692</v>
+                  <v>0.0738939</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.025734</v>
+                  <v>0.0825699</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0307283</v>
+                  <v>0.0649699</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0400074</v>
+                  <v>0.0601928</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0191859</v>
+                  <v>0.0616023</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0194145</v>
+                  <v>0.0644928</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0197171</v>
+                  <v>0.07119880000000001</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0200098</v>
+                  <v>0.07261140000000001</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202944</v>
+                  <v>0.07676910000000001</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0205605</v>
+                  <v>0.0821347</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0210623</v>
+                  <v>0.0866618</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.021745</v>
+                  <v>0.08824650000000001</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0224624</v>
+                  <v>0.0907429</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0233932</v>
+                  <v>0.09464789999999999</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246564</v>
+                  <v>0.0952583</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0274191</v>
+                  <v>0.0964115</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0316025</v>
+                  <v>0.0694861</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0413247</v>
+                  <v>0.07024809999999999</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0187664</v>
+                  <v>0.0724142</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0190384</v>
+                  <v>0.07515040000000001</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019321</v>
+                  <v>0.07962320000000001</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195661</v>
+                  <v>0.0832406</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.0198599</v>
+                  <v>0.0852619</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203393</v>
+                  <v>0.0896028</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209382</v>
+                  <v>0.09148480000000001</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0214818</v>
+                  <v>0.0939405</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0223346</v>
+                  <v>0.0965188</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0233779</v>
+                  <v>0.09831380000000001</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0247673</v>
+                  <v>0.100199</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0273931</v>
+                  <v>0.102902</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0317286</v>
+                  <v>0.0698054</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.039339</v>
+                  <v>0.0726036</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0193829</v>
+                  <v>0.0757068</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.0197036</v>
+                  <v>0.0793538</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0199834</v>
+                  <v>0.083243</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0203028</v>
+                  <v>0.08550199999999999</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0206416</v>
+                  <v>0.08859019999999999</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.021054</v>
+                  <v>0.09167649999999999</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0216854</v>
+                  <v>0.0949025</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0224175</v>
+                  <v>0.0970295</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.0232548</v>
+                  <v>0.100157</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0245789</v>
+                  <v>0.102332</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0261833</v>
+                  <v>0.104522</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0289704</v>
+                  <v>0.105831</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0328291</v>
+                  <v>0.108825</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0389724</v>
+                  <v>0.0755461</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204109</v>
+                  <v>0.078995</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.0206887</v>
+                  <v>0.0825134</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0209817</v>
+                  <v>0.0867947</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0212755</v>
+                  <v>0.0901161</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0216547</v>
+                  <v>0.09300659999999999</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.0221738</v>
+                  <v>0.0971045</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0227227</v>
+                  <v>0.10016</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0233788</v>
+                  <v>0.102369</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0243162</v>
+                  <v>0.105472</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0256636</v>
+                  <v>0.108186</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0275441</v>
+                  <v>0.110002</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0301356</v>
+                  <v>0.112754</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0341597</v>
+                  <v>0.115747</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0404667</v>
+                  <v>0.0811159</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0516123</v>
+                  <v>0.08591849999999999</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0209483</v>
+                  <v>0.0904712</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0212904</v>
+                  <v>0.094886</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0216414</v>
+                  <v>0.0995163</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0220066</v>
+                  <v>0.10423</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.022503</v>
+                  <v>0.108446</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0230597</v>
+                  <v>0.115564</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023794</v>
+                  <v>0.120256</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.024724</v>
+                  <v>0.124687</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0259069</v>
+                  <v>0.130917</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0276355</v>
+                  <v>0.135851</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0302519</v>
+                  <v>0.141198</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0340355</v>
+                  <v>0.147703</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0396979</v>
+                  <v>0.111012</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.049477</v>
+                  <v>0.120113</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0212779</v>
+                  <v>0.124171</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0216341</v>
+                  <v>0.131036</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0219984</v>
+                  <v>0.138476</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0224363</v>
+                  <v>0.145921</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0229328</v>
+                  <v>0.154954</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0235783</v>
+                  <v>0.163989</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0244305</v>
+                  <v>0.168326</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0254418</v>
+                  <v>0.177149</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0267137</v>
+                  <v>0.182049</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0283454</v>
+                  <v>0.18983</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0308527</v>
+                  <v>0.198267</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0342322</v>
+                  <v>0.205699</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.03938</v>
+                  <v>0.155131</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.048197</v>
+                  <v>0.161371</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0229879</v>
+                  <v>0.167644</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.0234516</v>
+                  <v>0.174382</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.0240067</v>
+                  <v>0.180841</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0245912</v>
+                  <v>0.18713</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0253619</v>
+                  <v>0.194952</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0267537</v>
+                  <v>0.202006</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0289872</v>
+                  <v>0.210399</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0317781</v>
+                  <v>0.216909</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0350402</v>
+                  <v>0.225263</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0383243</v>
+                  <v>0.232957</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0415289</v>
+                  <v>0.240595</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.0449303</v>
+                  <v>0.24943</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.0491857</v>
+                  <v>0.259096</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.0555259</v>
+                  <v>0.189204</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0351129</v>
+                  <v>0.195409</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0361988</v>
+                  <v>0.202101</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0370074</v>
+                  <v>0.208914</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0378667</v>
+                  <v>0.216123</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0385583</v>
+                  <v>0.223325</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0395869</v>
+                  <v>0.230562</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0406235</v>
+                  <v>0.23813</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0416052</v>
+                  <v>0.245517</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0428433</v>
+                  <v>0.253672</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0445415</v>
+                  <v>0.262325</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.0464755</v>
+                  <v>0.270451</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.0489272</v>
+                  <v>0.279981</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.0526395</v>
+                  <v>0.288965</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0583473</v>
+                  <v>0.20558</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.06810819999999999</v>
+                  <v>0.211153</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0412799</v>
+                  <v>0.21773</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0422281</v>
+                  <v>0.224538</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0429276</v>
+                  <v>0.231602</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0439297</v>
+                  <v>0.239227</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.0447307</v>
+                  <v>0.246785</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0457736</v>
+                  <v>0.254214</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0468762</v>
+                  <v>0.26216</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0480061</v>
+                  <v>0.269644</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.0495994</v>
+                  <v>0.278269</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0516555</v>
+                  <v>0.28676</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.0541823</v>
+                  <v>0.294905</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0578916</v>
+                  <v>0.304292</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.0634131</v>
+                  <v>0.213434</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.07260369999999999</v>
+                  <v>0.219307</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0591479</v>
+                  <v>0.226031</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0608915</v>
+                  <v>0.233449</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.0603453</v>
+                  <v>0.239676</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0608767</v>
+                  <v>0.247679</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0620272</v>
+                  <v>0.255283</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.0625593</v>
+                  <v>0.262438</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0640025</v>
+                  <v>0.270371</v>
                 </pt>
               </numCache>
             </numRef>
@@ -2803,7 +2803,7 @@
               <strCache>
                 <ptCount val="1"/>
                 <pt idx="0">
-                  <v>boost::unordered_node_map</v>
+                  <v>boost::unordered_flat_map</v>
                 </pt>
               </strCache>
             </strRef>
@@ -3266,430 +3266,1332 @@
                 <formatCode>General</formatCode>
                 <ptCount val="142"/>
                 <pt idx="0">
-                  <v>0.0214076</v>
+                  <v>0.0216009</v>
                 </pt>
                 <pt idx="1">
-                  <v>0.0220449</v>
+                  <v>0.0221084</v>
                 </pt>
                 <pt idx="2">
-                  <v>0.0228814</v>
+                  <v>0.0230466</v>
                 </pt>
                 <pt idx="3">
-                  <v>0.0238445</v>
+                  <v>0.0244666</v>
                 </pt>
                 <pt idx="4">
-                  <v>0.0259967</v>
+                  <v>0.0265716</v>
                 </pt>
                 <pt idx="5">
-                  <v>0.0308818</v>
+                  <v>0.0306845</v>
                 </pt>
                 <pt idx="6">
-                  <v>0.0397899</v>
+                  <v>0.0377971</v>
                 </pt>
                 <pt idx="7">
-                  <v>0.0190868</v>
+                  <v>0.0191766</v>
                 </pt>
                 <pt idx="8">
-                  <v>0.0193166</v>
+                  <v>0.0193893</v>
                 </pt>
                 <pt idx="9">
-                  <v>0.0195902</v>
+                  <v>0.0197043</v>
                 </pt>
                 <pt idx="10">
-                  <v>0.0199197</v>
+                  <v>0.0200607</v>
                 </pt>
                 <pt idx="11">
-                  <v>0.0202396</v>
+                  <v>0.0204068</v>
                 </pt>
                 <pt idx="12">
-                  <v>0.0206034</v>
+                  <v>0.0206994</v>
                 </pt>
                 <pt idx="13">
-                  <v>0.0211027</v>
+                  <v>0.0212233</v>
                 </pt>
                 <pt idx="14">
-                  <v>0.02181</v>
+                  <v>0.0219078</v>
                 </pt>
                 <pt idx="15">
-                  <v>0.0225325</v>
+                  <v>0.0227165</v>
                 </pt>
                 <pt idx="16">
-                  <v>0.0234089</v>
+                  <v>0.0235386</v>
                 </pt>
                 <pt idx="17">
-                  <v>0.0246829</v>
+                  <v>0.0248559</v>
                 </pt>
                 <pt idx="18">
-                  <v>0.0272518</v>
+                  <v>0.0272925</v>
                 </pt>
                 <pt idx="19">
-                  <v>0.0319929</v>
+                  <v>0.0311581</v>
                 </pt>
                 <pt idx="20">
-                  <v>0.0414377</v>
+                  <v>0.039445</v>
                 </pt>
                 <pt idx="21">
-                  <v>0.0188357</v>
+                  <v>0.0189417</v>
                 </pt>
                 <pt idx="22">
-                  <v>0.0191047</v>
+                  <v>0.0192166</v>
                 </pt>
                 <pt idx="23">
-                  <v>0.019293</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="24">
-                  <v>0.0195628</v>
+                  <v>0.01967</v>
                 </pt>
                 <pt idx="25">
-                  <v>0.020006</v>
+                  <v>0.0200648</v>
                 </pt>
                 <pt idx="26">
-                  <v>0.0203576</v>
+                  <v>0.0205084</v>
                 </pt>
                 <pt idx="27">
-                  <v>0.0209983</v>
+                  <v>0.0211482</v>
                 </pt>
                 <pt idx="28">
-                  <v>0.0216036</v>
+                  <v>0.0217413</v>
                 </pt>
                 <pt idx="29">
-                  <v>0.0224206</v>
+                  <v>0.0226275</v>
                 </pt>
                 <pt idx="30">
-                  <v>0.0234567</v>
+                  <v>0.023562</v>
                 </pt>
                 <pt idx="31">
-                  <v>0.0248701</v>
+                  <v>0.0249451</v>
                 </pt>
                 <pt idx="32">
-                  <v>0.0276153</v>
+                  <v>0.0273574</v>
                 </pt>
                 <pt idx="33">
-                  <v>0.0319171</v>
+                  <v>0.0311211</v>
                 </pt>
                 <pt idx="34">
-                  <v>0.0394712</v>
+                  <v>0.0379297</v>
                 </pt>
                 <pt idx="35">
-                  <v>0.0194612</v>
+                  <v>0.0194402</v>
                 </pt>
                 <pt idx="36">
-                  <v>0.019774</v>
+                  <v>0.0197588</v>
                 </pt>
                 <pt idx="37">
-                  <v>0.0200997</v>
+                  <v>0.020083</v>
                 </pt>
                 <pt idx="38">
-                  <v>0.0204224</v>
+                  <v>0.0204271</v>
                 </pt>
                 <pt idx="39">
-                  <v>0.0207986</v>
+                  <v>0.020797</v>
                 </pt>
                 <pt idx="40">
-                  <v>0.0212501</v>
+                  <v>0.0212094</v>
                 </pt>
                 <pt idx="41">
-                  <v>0.0218422</v>
+                  <v>0.0218012</v>
                 </pt>
                 <pt idx="42">
-                  <v>0.0225976</v>
+                  <v>0.0225426</v>
                 </pt>
                 <pt idx="43">
-                  <v>0.023464</v>
+                  <v>0.0233782</v>
                 </pt>
                 <pt idx="44">
-                  <v>0.0247861</v>
+                  <v>0.0246526</v>
                 </pt>
                 <pt idx="45">
-                  <v>0.0263224</v>
+                  <v>0.0261541</v>
                 </pt>
                 <pt idx="46">
-                  <v>0.0291543</v>
+                  <v>0.0288267</v>
                 </pt>
                 <pt idx="47">
-                  <v>0.0329324</v>
+                  <v>0.0324146</v>
                 </pt>
                 <pt idx="48">
-                  <v>0.0390016</v>
+                  <v>0.0383102</v>
                 </pt>
                 <pt idx="49">
-                  <v>0.0204605</v>
+                  <v>0.0205245</v>
                 </pt>
                 <pt idx="50">
-                  <v>0.020763</v>
+                  <v>0.0207576</v>
                 </pt>
                 <pt idx="51">
-                  <v>0.0211036</v>
+                  <v>0.0210818</v>
                 </pt>
                 <pt idx="52">
-                  <v>0.0214464</v>
+                  <v>0.0214063</v>
                 </pt>
                 <pt idx="53">
-                  <v>0.0218044</v>
+                  <v>0.0217707</v>
                 </pt>
                 <pt idx="54">
-                  <v>0.02235</v>
+                  <v>0.0222808</v>
                 </pt>
                 <pt idx="55">
-                  <v>0.0228519</v>
+                  <v>0.0227865</v>
                 </pt>
                 <pt idx="56">
-                  <v>0.0235195</v>
+                  <v>0.0234609</v>
                 </pt>
                 <pt idx="57">
-                  <v>0.0244936</v>
+                  <v>0.0243803</v>
                 </pt>
                 <pt idx="58">
-                  <v>0.0258272</v>
+                  <v>0.0256999</v>
                 </pt>
                 <pt idx="59">
-                  <v>0.0276262</v>
+                  <v>0.0274345</v>
                 </pt>
                 <pt idx="60">
-                  <v>0.0303212</v>
+                  <v>0.0299708</v>
                 </pt>
                 <pt idx="61">
-                  <v>0.0343892</v>
+                  <v>0.0339134</v>
                 </pt>
                 <pt idx="62">
-                  <v>0.0407201</v>
+                  <v>0.0399682</v>
                 </pt>
                 <pt idx="63">
-                  <v>0.0517515</v>
+                  <v>0.0509853</v>
                 </pt>
                 <pt idx="64">
-                  <v>0.0210642</v>
+                  <v>0.0210663</v>
                 </pt>
                 <pt idx="65">
-                  <v>0.0214078</v>
+                  <v>0.0214128</v>
                 </pt>
                 <pt idx="66">
-                  <v>0.0217171</v>
+                  <v>0.0217044</v>
                 </pt>
                 <pt idx="67">
-                  <v>0.0221679</v>
+                  <v>0.0220793</v>
                 </pt>
                 <pt idx="68">
-                  <v>0.0225732</v>
+                  <v>0.0225101</v>
                 </pt>
                 <pt idx="69">
-                  <v>0.0231145</v>
+                  <v>0.0230847</v>
                 </pt>
                 <pt idx="70">
-                  <v>0.023886</v>
+                  <v>0.0238389</v>
                 </pt>
                 <pt idx="71">
-                  <v>0.0248041</v>
+                  <v>0.0247061</v>
                 </pt>
                 <pt idx="72">
-                  <v>0.0260928</v>
+                  <v>0.0259229</v>
                 </pt>
                 <pt idx="73">
-                  <v>0.0279417</v>
+                  <v>0.027636</v>
                 </pt>
                 <pt idx="74">
-                  <v>0.0307152</v>
+                  <v>0.0300556</v>
                 </pt>
                 <pt idx="75">
-                  <v>0.0341993</v>
+                  <v>0.033803</v>
                 </pt>
                 <pt idx="76">
-                  <v>0.0399898</v>
+                  <v>0.0394898</v>
                 </pt>
                 <pt idx="77">
-                  <v>0.0497379</v>
+                  <v>0.0492793</v>
                 </pt>
                 <pt idx="78">
-                  <v>0.0218936</v>
+                  <v>0.0212983</v>
                 </pt>
                 <pt idx="79">
-                  <v>0.0223402</v>
+                  <v>0.0216173</v>
                 </pt>
                 <pt idx="80">
-                  <v>0.0229967</v>
+                  <v>0.0220136</v>
                 </pt>
                 <pt idx="81">
-                  <v>0.0238374</v>
+                  <v>0.0224719</v>
                 </pt>
                 <pt idx="82">
-                  <v>0.0244912</v>
+                  <v>0.0229306</v>
                 </pt>
                 <pt idx="83">
-                  <v>0.0255432</v>
+                  <v>0.0235925</v>
                 </pt>
                 <pt idx="84">
-                  <v>0.0269618</v>
+                  <v>0.0244368</v>
                 </pt>
                 <pt idx="85">
-                  <v>0.0283241</v>
+                  <v>0.0254208</v>
                 </pt>
                 <pt idx="86">
-                  <v>0.0302692</v>
+                  <v>0.0267328</v>
                 </pt>
                 <pt idx="87">
-                  <v>0.0321612</v>
+                  <v>0.0283669</v>
                 </pt>
                 <pt idx="88">
-                  <v>0.0348082</v>
+                  <v>0.0308234</v>
                 </pt>
                 <pt idx="89">
-                  <v>0.0382122</v>
+                  <v>0.0342177</v>
                 </pt>
                 <pt idx="90">
-                  <v>0.0434233</v>
+                  <v>0.0393046</v>
                 </pt>
                 <pt idx="91">
-                  <v>0.0534129</v>
+                  <v>0.0481634</v>
                 </pt>
                 <pt idx="92">
-                  <v>0.0282249</v>
+                  <v>0.0230218</v>
                 </pt>
                 <pt idx="93">
-                  <v>0.029139</v>
+                  <v>0.0235096</v>
                 </pt>
                 <pt idx="94">
-                  <v>0.03133</v>
+                  <v>0.024067</v>
                 </pt>
                 <pt idx="95">
-                  <v>0.0341335</v>
+                  <v>0.0247073</v>
                 </pt>
                 <pt idx="96">
-                  <v>0.0381704</v>
+                  <v>0.0254037</v>
                 </pt>
                 <pt idx="97">
-                  <v>0.0428413</v>
+                  <v>0.0268593</v>
                 </pt>
                 <pt idx="98">
-                  <v>0.0471767</v>
+                  <v>0.0290853</v>
                 </pt>
                 <pt idx="99">
-                  <v>0.0508107</v>
+                  <v>0.0319312</v>
                 </pt>
                 <pt idx="100">
-                  <v>0.0541568</v>
+                  <v>0.0351347</v>
                 </pt>
                 <pt idx="101">
-                  <v>0.0573175</v>
+                  <v>0.0384163</v>
                 </pt>
                 <pt idx="102">
-                  <v>0.0605919</v>
+                  <v>0.0415243</v>
                 </pt>
                 <pt idx="103">
-                  <v>0.06430470000000001</v>
+                  <v>0.0448445</v>
                 </pt>
                 <pt idx="104">
-                  <v>0.06932820000000001</v>
+                  <v>0.049027</v>
                 </pt>
                 <pt idx="105">
-                  <v>0.07656540000000001</v>
+                  <v>0.0554999</v>
                 </pt>
                 <pt idx="106">
-                  <v>0.0513709</v>
+                  <v>0.0351618</v>
                 </pt>
                 <pt idx="107">
-                  <v>0.0528133</v>
+                  <v>0.0362013</v>
                 </pt>
                 <pt idx="108">
-                  <v>0.0541587</v>
+                  <v>0.0370039</v>
                 </pt>
                 <pt idx="109">
-                  <v>0.0555634</v>
+                  <v>0.0378586</v>
                 </pt>
                 <pt idx="110">
-                  <v>0.0569233</v>
+                  <v>0.0386194</v>
                 </pt>
                 <pt idx="111">
-                  <v>0.0585293</v>
+                  <v>0.0394682</v>
                 </pt>
                 <pt idx="112">
-                  <v>0.0602617</v>
+                  <v>0.040537</v>
                 </pt>
                 <pt idx="113">
-                  <v>0.0619037</v>
+                  <v>0.0416614</v>
                 </pt>
                 <pt idx="114">
-                  <v>0.0640491</v>
+                  <v>0.0430189</v>
                 </pt>
                 <pt idx="115">
-                  <v>0.0662812</v>
+                  <v>0.0444291</v>
                 </pt>
                 <pt idx="116">
-                  <v>0.06915499999999999</v>
+                  <v>0.0463979</v>
                 </pt>
                 <pt idx="117">
-                  <v>0.07276100000000001</v>
+                  <v>0.0489896</v>
                 </pt>
                 <pt idx="118">
-                  <v>0.07756780000000001</v>
+                  <v>0.0528205</v>
                 </pt>
                 <pt idx="119">
-                  <v>0.0847301</v>
+                  <v>0.058274</v>
                 </pt>
                 <pt idx="120">
-                  <v>0.0960261</v>
+                  <v>0.06796190000000001</v>
                 </pt>
                 <pt idx="121">
-                  <v>0.0604808</v>
+                  <v>0.0403819</v>
                 </pt>
                 <pt idx="122">
-                  <v>0.0618613</v>
+                  <v>0.0411282</v>
                 </pt>
                 <pt idx="123">
-                  <v>0.0635545</v>
+                  <v>0.0420223</v>
                 </pt>
                 <pt idx="124">
-                  <v>0.0648304</v>
+                  <v>0.043459</v>
                 </pt>
                 <pt idx="125">
-                  <v>0.06670520000000001</v>
+                  <v>0.0444712</v>
                 </pt>
                 <pt idx="126">
-                  <v>0.0683797</v>
+                  <v>0.0454145</v>
                 </pt>
                 <pt idx="127">
-                  <v>0.0702016</v>
+                  <v>0.0465307</v>
                 </pt>
                 <pt idx="128">
-                  <v>0.0724499</v>
+                  <v>0.0478298</v>
                 </pt>
                 <pt idx="129">
-                  <v>0.07498920000000001</v>
+                  <v>0.0494071</v>
                 </pt>
                 <pt idx="130">
-                  <v>0.0779345</v>
+                  <v>0.0513635</v>
                 </pt>
                 <pt idx="131">
-                  <v>0.081499</v>
+                  <v>0.0537652</v>
                 </pt>
                 <pt idx="132">
-                  <v>0.0866347</v>
+                  <v>0.0575184</v>
                 </pt>
                 <pt idx="133">
-                  <v>0.09380090000000001</v>
+                  <v>0.06303880000000001</v>
                 </pt>
                 <pt idx="134">
-                  <v>0.105376</v>
+                  <v>0.0724042</v>
                 </pt>
                 <pt idx="135">
-                  <v>0.0789271</v>
+                  <v>0.0589715</v>
                 </pt>
                 <pt idx="136">
-                  <v>0.0802612</v>
+                  <v>0.0597273</v>
                 </pt>
                 <pt idx="137">
-                  <v>0.08157540000000001</v>
+                  <v>0.0603338</v>
                 </pt>
                 <pt idx="138">
-                  <v>0.0829015</v>
+                  <v>0.0607136</v>
                 </pt>
                 <pt idx="139">
-                  <v>0.0845514</v>
+                  <v>0.0616614</v>
                 </pt>
                 <pt idx="140">
-                  <v>0.08594209999999999</v>
+                  <v>0.0623911</v>
                 </pt>
                 <pt idx="141">
-                  <v>0.0877042</v>
+                  <v>0.0637191</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </yVal>
+          <smooth val="0"/>
+        </ser>
+        <ser>
+          <idx val="4"/>
+          <order val="4"/>
+          <tx>
+            <strRef>
+              <f>plot!$F$1</f>
+              <strCache>
+                <ptCount val="1"/>
+                <pt idx="0">
+                  <v>boost::unordered_node_map</v>
+                </pt>
+              </strCache>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="FF66FF"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <xVal>
+            <numRef>
+              <f>plot!$A$2:$A$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>10000</v>
+                </pt>
+                <pt idx="1">
+                  <v>10500</v>
+                </pt>
+                <pt idx="2">
+                  <v>11025</v>
+                </pt>
+                <pt idx="3">
+                  <v>11576</v>
+                </pt>
+                <pt idx="4">
+                  <v>12154</v>
+                </pt>
+                <pt idx="5">
+                  <v>12760</v>
+                </pt>
+                <pt idx="6">
+                  <v>13396</v>
+                </pt>
+                <pt idx="7">
+                  <v>14063</v>
+                </pt>
+                <pt idx="8">
+                  <v>14763</v>
+                </pt>
+                <pt idx="9">
+                  <v>15498</v>
+                </pt>
+                <pt idx="10">
+                  <v>16269</v>
+                </pt>
+                <pt idx="11">
+                  <v>17078</v>
+                </pt>
+                <pt idx="12">
+                  <v>17927</v>
+                </pt>
+                <pt idx="13">
+                  <v>18818</v>
+                </pt>
+                <pt idx="14">
+                  <v>19753</v>
+                </pt>
+                <pt idx="15">
+                  <v>20734</v>
+                </pt>
+                <pt idx="16">
+                  <v>21764</v>
+                </pt>
+                <pt idx="17">
+                  <v>22845</v>
+                </pt>
+                <pt idx="18">
+                  <v>23980</v>
+                </pt>
+                <pt idx="19">
+                  <v>25171</v>
+                </pt>
+                <pt idx="20">
+                  <v>26421</v>
+                </pt>
+                <pt idx="21">
+                  <v>27733</v>
+                </pt>
+                <pt idx="22">
+                  <v>29110</v>
+                </pt>
+                <pt idx="23">
+                  <v>30555</v>
+                </pt>
+                <pt idx="24">
+                  <v>32072</v>
+                </pt>
+                <pt idx="25">
+                  <v>33664</v>
+                </pt>
+                <pt idx="26">
+                  <v>35335</v>
+                </pt>
+                <pt idx="27">
+                  <v>37089</v>
+                </pt>
+                <pt idx="28">
+                  <v>38930</v>
+                </pt>
+                <pt idx="29">
+                  <v>40863</v>
+                </pt>
+                <pt idx="30">
+                  <v>42892</v>
+                </pt>
+                <pt idx="31">
+                  <v>45022</v>
+                </pt>
+                <pt idx="32">
+                  <v>47258</v>
+                </pt>
+                <pt idx="33">
+                  <v>49605</v>
+                </pt>
+                <pt idx="34">
+                  <v>52069</v>
+                </pt>
+                <pt idx="35">
+                  <v>54656</v>
+                </pt>
+                <pt idx="36">
+                  <v>57372</v>
+                </pt>
+                <pt idx="37">
+                  <v>60223</v>
+                </pt>
+                <pt idx="38">
+                  <v>63216</v>
+                </pt>
+                <pt idx="39">
+                  <v>66358</v>
+                </pt>
+                <pt idx="40">
+                  <v>69657</v>
+                </pt>
+                <pt idx="41">
+                  <v>73120</v>
+                </pt>
+                <pt idx="42">
+                  <v>76756</v>
+                </pt>
+                <pt idx="43">
+                  <v>80573</v>
+                </pt>
+                <pt idx="44">
+                  <v>84580</v>
+                </pt>
+                <pt idx="45">
+                  <v>88787</v>
+                </pt>
+                <pt idx="46">
+                  <v>93204</v>
+                </pt>
+                <pt idx="47">
+                  <v>97841</v>
+                </pt>
+                <pt idx="48">
+                  <v>102709</v>
+                </pt>
+                <pt idx="49">
+                  <v>107820</v>
+                </pt>
+                <pt idx="50">
+                  <v>113186</v>
+                </pt>
+                <pt idx="51">
+                  <v>118820</v>
+                </pt>
+                <pt idx="52">
+                  <v>124735</v>
+                </pt>
+                <pt idx="53">
+                  <v>130945</v>
+                </pt>
+                <pt idx="54">
+                  <v>137465</v>
+                </pt>
+                <pt idx="55">
+                  <v>144311</v>
+                </pt>
+                <pt idx="56">
+                  <v>151499</v>
+                </pt>
+                <pt idx="57">
+                  <v>159046</v>
+                </pt>
+                <pt idx="58">
+                  <v>166970</v>
+                </pt>
+                <pt idx="59">
+                  <v>175290</v>
+                </pt>
+                <pt idx="60">
+                  <v>184026</v>
+                </pt>
+                <pt idx="61">
+                  <v>193198</v>
+                </pt>
+                <pt idx="62">
+                  <v>202828</v>
+                </pt>
+                <pt idx="63">
+                  <v>212939</v>
+                </pt>
+                <pt idx="64">
+                  <v>223555</v>
+                </pt>
+                <pt idx="65">
+                  <v>234701</v>
+                </pt>
+                <pt idx="66">
+                  <v>246404</v>
+                </pt>
+                <pt idx="67">
+                  <v>258692</v>
+                </pt>
+                <pt idx="68">
+                  <v>271594</v>
+                </pt>
+                <pt idx="69">
+                  <v>285141</v>
+                </pt>
+                <pt idx="70">
+                  <v>299365</v>
+                </pt>
+                <pt idx="71">
+                  <v>314300</v>
+                </pt>
+                <pt idx="72">
+                  <v>329981</v>
+                </pt>
+                <pt idx="73">
+                  <v>346446</v>
+                </pt>
+                <pt idx="74">
+                  <v>363734</v>
+                </pt>
+                <pt idx="75">
+                  <v>381886</v>
+                </pt>
+                <pt idx="76">
+                  <v>400945</v>
+                </pt>
+                <pt idx="77">
+                  <v>420956</v>
+                </pt>
+                <pt idx="78">
+                  <v>441967</v>
+                </pt>
+                <pt idx="79">
+                  <v>464028</v>
+                </pt>
+                <pt idx="80">
+                  <v>487192</v>
+                </pt>
+                <pt idx="81">
+                  <v>511514</v>
+                </pt>
+                <pt idx="82">
+                  <v>537052</v>
+                </pt>
+                <pt idx="83">
+                  <v>563866</v>
+                </pt>
+                <pt idx="84">
+                  <v>592020</v>
+                </pt>
+                <pt idx="85">
+                  <v>621581</v>
+                </pt>
+                <pt idx="86">
+                  <v>652620</v>
+                </pt>
+                <pt idx="87">
+                  <v>685210</v>
+                </pt>
+                <pt idx="88">
+                  <v>719429</v>
+                </pt>
+                <pt idx="89">
+                  <v>755358</v>
+                </pt>
+                <pt idx="90">
+                  <v>793083</v>
+                </pt>
+                <pt idx="91">
+                  <v>832694</v>
+                </pt>
+                <pt idx="92">
+                  <v>874285</v>
+                </pt>
+                <pt idx="93">
+                  <v>917955</v>
+                </pt>
+                <pt idx="94">
+                  <v>963808</v>
+                </pt>
+                <pt idx="95">
+                  <v>1011953</v>
+                </pt>
+                <pt idx="96">
+                  <v>1062505</v>
+                </pt>
+                <pt idx="97">
+                  <v>1115584</v>
+                </pt>
+                <pt idx="98">
+                  <v>1171316</v>
+                </pt>
+                <pt idx="99">
+                  <v>1229834</v>
+                </pt>
+                <pt idx="100">
+                  <v>1291277</v>
+                </pt>
+                <pt idx="101">
+                  <v>1355792</v>
+                </pt>
+                <pt idx="102">
+                  <v>1423532</v>
+                </pt>
+                <pt idx="103">
+                  <v>1494659</v>
+                </pt>
+                <pt idx="104">
+                  <v>1569342</v>
+                </pt>
+                <pt idx="105">
+                  <v>1647759</v>
+                </pt>
+                <pt idx="106">
+                  <v>1730096</v>
+                </pt>
+                <pt idx="107">
+                  <v>1816549</v>
+                </pt>
+                <pt idx="108">
+                  <v>1907324</v>
+                </pt>
+                <pt idx="109">
+                  <v>2002637</v>
+                </pt>
+                <pt idx="110">
+                  <v>2102715</v>
+                </pt>
+                <pt idx="111">
+                  <v>2207796</v>
+                </pt>
+                <pt idx="112">
+                  <v>2318131</v>
+                </pt>
+                <pt idx="113">
+                  <v>2433982</v>
+                </pt>
+                <pt idx="114">
+                  <v>2555625</v>
+                </pt>
+                <pt idx="115">
+                  <v>2683350</v>
+                </pt>
+                <pt idx="116">
+                  <v>2817461</v>
+                </pt>
+                <pt idx="117">
+                  <v>2958277</v>
+                </pt>
+                <pt idx="118">
+                  <v>3106133</v>
+                </pt>
+                <pt idx="119">
+                  <v>3261381</v>
+                </pt>
+                <pt idx="120">
+                  <v>3424391</v>
+                </pt>
+                <pt idx="121">
+                  <v>3595551</v>
+                </pt>
+                <pt idx="122">
+                  <v>3775269</v>
+                </pt>
+                <pt idx="123">
+                  <v>3963972</v>
+                </pt>
+                <pt idx="124">
+                  <v>4162110</v>
+                </pt>
+                <pt idx="125">
+                  <v>4370154</v>
+                </pt>
+                <pt idx="126">
+                  <v>4588600</v>
+                </pt>
+                <pt idx="127">
+                  <v>4817968</v>
+                </pt>
+                <pt idx="128">
+                  <v>5058804</v>
+                </pt>
+                <pt idx="129">
+                  <v>5311681</v>
+                </pt>
+                <pt idx="130">
+                  <v>5577201</v>
+                </pt>
+                <pt idx="131">
+                  <v>5855997</v>
+                </pt>
+                <pt idx="132">
+                  <v>6148732</v>
+                </pt>
+                <pt idx="133">
+                  <v>6456103</v>
+                </pt>
+                <pt idx="134">
+                  <v>6778842</v>
+                </pt>
+                <pt idx="135">
+                  <v>7117717</v>
+                </pt>
+                <pt idx="136">
+                  <v>7473535</v>
+                </pt>
+                <pt idx="137">
+                  <v>7847143</v>
+                </pt>
+                <pt idx="138">
+                  <v>8239431</v>
+                </pt>
+                <pt idx="139">
+                  <v>8651333</v>
+                </pt>
+                <pt idx="140">
+                  <v>9083830</v>
+                </pt>
+                <pt idx="141">
+                  <v>9537951</v>
+                </pt>
+              </numCache>
+            </numRef>
+          </xVal>
+          <yVal>
+            <numRef>
+              <f>plot!$F$2:$F$143</f>
+              <numCache>
+                <formatCode>General</formatCode>
+                <ptCount val="142"/>
+                <pt idx="0">
+                  <v>0.0213731</v>
+                </pt>
+                <pt idx="1">
+                  <v>0.0219128</v>
+                </pt>
+                <pt idx="2">
+                  <v>0.0229614</v>
+                </pt>
+                <pt idx="3">
+                  <v>0.0237155</v>
+                </pt>
+                <pt idx="4">
+                  <v>0.025576</v>
+                </pt>
+                <pt idx="5">
+                  <v>0.029993</v>
+                </pt>
+                <pt idx="6">
+                  <v>0.0372132</v>
+                </pt>
+                <pt idx="7">
+                  <v>0.0191559</v>
+                </pt>
+                <pt idx="8">
+                  <v>0.0193448</v>
+                </pt>
+                <pt idx="9">
+                  <v>0.0196525</v>
+                </pt>
+                <pt idx="10">
+                  <v>0.0200966</v>
+                </pt>
+                <pt idx="11">
+                  <v>0.0202894</v>
+                </pt>
+                <pt idx="12">
+                  <v>0.0206235</v>
+                </pt>
+                <pt idx="13">
+                  <v>0.0211043</v>
+                </pt>
+                <pt idx="14">
+                  <v>0.0218162</v>
+                </pt>
+                <pt idx="15">
+                  <v>0.0225323</v>
+                </pt>
+                <pt idx="16">
+                  <v>0.023233</v>
+                </pt>
+                <pt idx="17">
+                  <v>0.0243677</v>
+                </pt>
+                <pt idx="18">
+                  <v>0.0267946</v>
+                </pt>
+                <pt idx="19">
+                  <v>0.0309274</v>
+                </pt>
+                <pt idx="20">
+                  <v>0.0396682</v>
+                </pt>
+                <pt idx="21">
+                  <v>0.0188515</v>
+                </pt>
+                <pt idx="22">
+                  <v>0.0191092</v>
+                </pt>
+                <pt idx="23">
+                  <v>0.0193229</v>
+                </pt>
+                <pt idx="24">
+                  <v>0.0195956</v>
+                </pt>
+                <pt idx="25">
+                  <v>0.0199672</v>
+                </pt>
+                <pt idx="26">
+                  <v>0.0203555</v>
+                </pt>
+                <pt idx="27">
+                  <v>0.0210076</v>
+                </pt>
+                <pt idx="28">
+                  <v>0.0216355</v>
+                </pt>
+                <pt idx="29">
+                  <v>0.0223774</v>
+                </pt>
+                <pt idx="30">
+                  <v>0.0233702</v>
+                </pt>
+                <pt idx="31">
+                  <v>0.0247201</v>
+                </pt>
+                <pt idx="32">
+                  <v>0.0272634</v>
+                </pt>
+                <pt idx="33">
+                  <v>0.0312534</v>
+                </pt>
+                <pt idx="34">
+                  <v>0.0380069</v>
+                </pt>
+                <pt idx="35">
+                  <v>0.0194619</v>
+                </pt>
+                <pt idx="36">
+                  <v>0.0197841</v>
+                </pt>
+                <pt idx="37">
+                  <v>0.0201213</v>
+                </pt>
+                <pt idx="38">
+                  <v>0.0204515</v>
+                </pt>
+                <pt idx="39">
+                  <v>0.0207924</v>
+                </pt>
+                <pt idx="40">
+                  <v>0.021191</v>
+                </pt>
+                <pt idx="41">
+                  <v>0.0218251</v>
+                </pt>
+                <pt idx="42">
+                  <v>0.0226156</v>
+                </pt>
+                <pt idx="43">
+                  <v>0.0234105</v>
+                </pt>
+                <pt idx="44">
+                  <v>0.0246226</v>
+                </pt>
+                <pt idx="45">
+                  <v>0.0262507</v>
+                </pt>
+                <pt idx="46">
+                  <v>0.0288559</v>
+                </pt>
+                <pt idx="47">
+                  <v>0.0324919</v>
+                </pt>
+                <pt idx="48">
+                  <v>0.0384891</v>
+                </pt>
+                <pt idx="49">
+                  <v>0.0204688</v>
+                </pt>
+                <pt idx="50">
+                  <v>0.0207663</v>
+                </pt>
+                <pt idx="51">
+                  <v>0.0210612</v>
+                </pt>
+                <pt idx="52">
+                  <v>0.0213982</v>
+                </pt>
+                <pt idx="53">
+                  <v>0.0217859</v>
+                </pt>
+                <pt idx="54">
+                  <v>0.0222653</v>
+                </pt>
+                <pt idx="55">
+                  <v>0.0228454</v>
+                </pt>
+                <pt idx="56">
+                  <v>0.0235124</v>
+                </pt>
+                <pt idx="57">
+                  <v>0.0243594</v>
+                </pt>
+                <pt idx="58">
+                  <v>0.0256987</v>
+                </pt>
+                <pt idx="59">
+                  <v>0.0274883</v>
+                </pt>
+                <pt idx="60">
+                  <v>0.0300593</v>
+                </pt>
+                <pt idx="61">
+                  <v>0.0340648</v>
+                </pt>
+                <pt idx="62">
+                  <v>0.0401741</v>
+                </pt>
+                <pt idx="63">
+                  <v>0.0512194</v>
+                </pt>
+                <pt idx="64">
+                  <v>0.0210961</v>
+                </pt>
+                <pt idx="65">
+                  <v>0.0213836</v>
+                </pt>
+                <pt idx="66">
+                  <v>0.0217762</v>
+                </pt>
+                <pt idx="67">
+                  <v>0.0220643</v>
+                </pt>
+                <pt idx="68">
+                  <v>0.0226375</v>
+                </pt>
+                <pt idx="69">
+                  <v>0.0232502</v>
+                </pt>
+                <pt idx="70">
+                  <v>0.0239062</v>
+                </pt>
+                <pt idx="71">
+                  <v>0.0248356</v>
+                </pt>
+                <pt idx="72">
+                  <v>0.026065</v>
+                </pt>
+                <pt idx="73">
+                  <v>0.0279232</v>
+                </pt>
+                <pt idx="74">
+                  <v>0.0305011</v>
+                </pt>
+                <pt idx="75">
+                  <v>0.0343393</v>
+                </pt>
+                <pt idx="76">
+                  <v>0.0399486</v>
+                </pt>
+                <pt idx="77">
+                  <v>0.0496558</v>
+                </pt>
+                <pt idx="78">
+                  <v>0.0218532</v>
+                </pt>
+                <pt idx="79">
+                  <v>0.0222095</v>
+                </pt>
+                <pt idx="80">
+                  <v>0.0228944</v>
+                </pt>
+                <pt idx="81">
+                  <v>0.0236355</v>
+                </pt>
+                <pt idx="82">
+                  <v>0.0243062</v>
+                </pt>
+                <pt idx="83">
+                  <v>0.0253495</v>
+                </pt>
+                <pt idx="84">
+                  <v>0.0267319</v>
+                </pt>
+                <pt idx="85">
+                  <v>0.0282859</v>
+                </pt>
+                <pt idx="86">
+                  <v>0.0299437</v>
+                </pt>
+                <pt idx="87">
+                  <v>0.0317743</v>
+                </pt>
+                <pt idx="88">
+                  <v>0.0345472</v>
+                </pt>
+                <pt idx="89">
+                  <v>0.0380622</v>
+                </pt>
+                <pt idx="90">
+                  <v>0.0432275</v>
+                </pt>
+                <pt idx="91">
+                  <v>0.0531484</v>
+                </pt>
+                <pt idx="92">
+                  <v>0.0281559</v>
+                </pt>
+                <pt idx="93">
+                  <v>0.0293133</v>
+                </pt>
+                <pt idx="94">
+                  <v>0.031368</v>
+                </pt>
+                <pt idx="95">
+                  <v>0.0340943</v>
+                </pt>
+                <pt idx="96">
+                  <v>0.0378803</v>
+                </pt>
+                <pt idx="97">
+                  <v>0.0424448</v>
+                </pt>
+                <pt idx="98">
+                  <v>0.0466268</v>
+                </pt>
+                <pt idx="99">
+                  <v>0.0506328</v>
+                </pt>
+                <pt idx="100">
+                  <v>0.0540476</v>
+                </pt>
+                <pt idx="101">
+                  <v>0.0572826</v>
+                </pt>
+                <pt idx="102">
+                  <v>0.0607623</v>
+                </pt>
+                <pt idx="103">
+                  <v>0.0644699</v>
+                </pt>
+                <pt idx="104">
+                  <v>0.0693695</v>
+                </pt>
+                <pt idx="105">
+                  <v>0.0764777</v>
+                </pt>
+                <pt idx="106">
+                  <v>0.0511115</v>
+                </pt>
+                <pt idx="107">
+                  <v>0.05263</v>
+                </pt>
+                <pt idx="108">
+                  <v>0.0540065</v>
+                </pt>
+                <pt idx="109">
+                  <v>0.0553181</v>
+                </pt>
+                <pt idx="110">
+                  <v>0.0566814</v>
+                </pt>
+                <pt idx="111">
+                  <v>0.0582196</v>
+                </pt>
+                <pt idx="112">
+                  <v>0.0599567</v>
+                </pt>
+                <pt idx="113">
+                  <v>0.0618321</v>
+                </pt>
+                <pt idx="114">
+                  <v>0.0637921</v>
+                </pt>
+                <pt idx="115">
+                  <v>0.0661122</v>
+                </pt>
+                <pt idx="116">
+                  <v>0.0689598</v>
+                </pt>
+                <pt idx="117">
+                  <v>0.0725898</v>
+                </pt>
+                <pt idx="118">
+                  <v>0.077532</v>
+                </pt>
+                <pt idx="119">
+                  <v>0.08458259999999999</v>
+                </pt>
+                <pt idx="120">
+                  <v>0.0955395</v>
+                </pt>
+                <pt idx="121">
+                  <v>0.0601745</v>
+                </pt>
+                <pt idx="122">
+                  <v>0.0615969</v>
+                </pt>
+                <pt idx="123">
+                  <v>0.0631738</v>
+                </pt>
+                <pt idx="124">
+                  <v>0.06469229999999999</v>
+                </pt>
+                <pt idx="125">
+                  <v>0.06635340000000001</v>
+                </pt>
+                <pt idx="126">
+                  <v>0.0679819</v>
+                </pt>
+                <pt idx="127">
+                  <v>0.0698984</v>
+                </pt>
+                <pt idx="128">
+                  <v>0.0721822</v>
+                </pt>
+                <pt idx="129">
+                  <v>0.07472959999999999</v>
+                </pt>
+                <pt idx="130">
+                  <v>0.0777127</v>
+                </pt>
+                <pt idx="131">
+                  <v>0.08139440000000001</v>
+                </pt>
+                <pt idx="132">
+                  <v>0.0863636</v>
+                </pt>
+                <pt idx="133">
+                  <v>0.0936022</v>
+                </pt>
+                <pt idx="134">
+                  <v>0.104572</v>
+                </pt>
+                <pt idx="135">
+                  <v>0.0791782</v>
+                </pt>
+                <pt idx="136">
+                  <v>0.0801432</v>
+                </pt>
+                <pt idx="137">
+                  <v>0.0817592</v>
+                </pt>
+                <pt idx="138">
+                  <v>0.0831262</v>
+                </pt>
+                <pt idx="139">
+                  <v>0.0843787</v>
+                </pt>
+                <pt idx="140">
+                  <v>0.0859061</v>
+                </pt>
+                <pt idx="141">
+                  <v>0.0897927</v>
                 </pt>
               </numCache>
             </numRef>
@@ -3792,7 +4694,7 @@
           <x val="0.09943851078021188"/>
           <y val="0.05455922082745843"/>
           <w val="0.3308817338426756"/>
-          <h val="0.2472877044215627"/>
+          <h val="0.3091096305269533"/>
         </manualLayout>
       </layout>
       <overlay val="0"/>
@@ -4142,7 +5044,7 @@
   <dimension ref="A1:F143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" zoomScale="115" zoomScaleNormal="115">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -4158,15 +5060,20 @@
       </c>
       <c r="C1" t="inlineStr">
         <is>
+          <t>absl::node_hash_map</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
           <t>boost::unordered_map</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>boost::unordered_flat_map</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>boost::unordered_node_map</t>
         </is>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102589</v>
+        <v>0.102299</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105345</v>
+        <v>0.105503</v>
       </c>
       <c r="D2" t="n">
-        <v>0.180662</v>
+        <v>0.179894</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08256139999999999</v>
+        <v>0.0826611</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08265110000000001</v>
+        <v>0.0824903</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110483</v>
+        <v>0.110564</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113778</v>
+        <v>0.113788</v>
       </c>
       <c r="D3" t="n">
-        <v>0.187317</v>
+        <v>0.186455</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0823241</v>
+        <v>0.0823923</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0810071</v>
+        <v>0.0809429</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.12393</v>
+        <v>0.123853</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124058</v>
+        <v>0.126168</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193235</v>
+        <v>0.193396</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0808253</v>
+        <v>0.0809333</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0821973</v>
+        <v>0.08200200000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140018</v>
+        <v>0.140407</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144437</v>
+        <v>0.149825</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199812</v>
+        <v>0.200884</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0820245</v>
+        <v>0.0817259</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08233989999999999</v>
+        <v>0.0821105</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166964</v>
+        <v>0.166812</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167169</v>
+        <v>0.167414</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207002</v>
+        <v>0.207562</v>
       </c>
       <c r="E6" t="n">
-        <v>0.08316469999999999</v>
+        <v>0.0831443</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08381859999999999</v>
+        <v>0.0837803</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20041</v>
+        <v>0.200352</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201372</v>
+        <v>0.209801</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156212</v>
+        <v>0.155981</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0883422</v>
+        <v>0.0876319</v>
       </c>
       <c r="F7" t="n">
-        <v>0.088625</v>
+        <v>0.08880730000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248008</v>
+        <v>0.248206</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245043</v>
+        <v>0.245478</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162247</v>
+        <v>0.163009</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103368</v>
+        <v>0.103445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104398</v>
+        <v>0.104281</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292162</v>
+        <v>0.292617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294619</v>
+        <v>0.294541</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169589</v>
+        <v>0.169428</v>
       </c>
       <c r="E9" t="n">
-        <v>0.082084</v>
+        <v>0.0819928</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08293979999999999</v>
+        <v>0.0827281</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0946931</v>
+        <v>0.0946512</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09603540000000001</v>
+        <v>0.09645910000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>0.175445</v>
+        <v>0.17652</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08211889999999999</v>
+        <v>0.08217960000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0830655</v>
+        <v>0.0828236</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09557690000000001</v>
+        <v>0.09600939999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0973132</v>
+        <v>0.0987435</v>
       </c>
       <c r="D11" t="n">
-        <v>0.182781</v>
+        <v>0.184062</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0823262</v>
+        <v>0.0823435</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0837116</v>
+        <v>0.0834527</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0968823</v>
+        <v>0.100974</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09862659999999999</v>
+        <v>0.101583</v>
       </c>
       <c r="D12" t="n">
-        <v>0.190246</v>
+        <v>0.191889</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0825454</v>
+        <v>0.0824457</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0840076</v>
+        <v>0.08362550000000001</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.098786</v>
+        <v>0.0987553</v>
       </c>
       <c r="C13" t="n">
-        <v>0.101349</v>
+        <v>0.105479</v>
       </c>
       <c r="D13" t="n">
-        <v>0.197036</v>
+        <v>0.198011</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08273270000000001</v>
+        <v>0.08269020000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08438660000000001</v>
+        <v>0.0844641</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100968</v>
+        <v>0.100799</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103971</v>
+        <v>0.10286</v>
       </c>
       <c r="D14" t="n">
-        <v>0.204077</v>
+        <v>0.205703</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0830518</v>
+        <v>0.0856809</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0840245</v>
+        <v>0.0837083</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105607</v>
+        <v>0.105058</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108685</v>
+        <v>0.108087</v>
       </c>
       <c r="D15" t="n">
-        <v>0.211858</v>
+        <v>0.213361</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08333649999999999</v>
+        <v>0.0834334</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0836407</v>
+        <v>0.0833627</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11252</v>
+        <v>0.11245</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114766</v>
+        <v>0.115553</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217394</v>
+        <v>0.219066</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08336010000000001</v>
+        <v>0.0834037</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08396579999999999</v>
+        <v>0.0837175</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121368</v>
+        <v>0.121977</v>
       </c>
       <c r="C17" t="n">
-        <v>0.124146</v>
+        <v>0.127975</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223481</v>
+        <v>0.224743</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0838917</v>
+        <v>0.0836688</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0843121</v>
+        <v>0.0861811</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133061</v>
+        <v>0.133039</v>
       </c>
       <c r="C18" t="n">
-        <v>0.135303</v>
+        <v>0.134119</v>
       </c>
       <c r="D18" t="n">
-        <v>0.228883</v>
+        <v>0.230211</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0838238</v>
+        <v>0.08415499999999999</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08470320000000001</v>
+        <v>0.0869181</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150773</v>
+        <v>0.15018</v>
       </c>
       <c r="C19" t="n">
-        <v>0.150677</v>
+        <v>0.161605</v>
       </c>
       <c r="D19" t="n">
-        <v>0.235702</v>
+        <v>0.236751</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08450439999999999</v>
+        <v>0.0841356</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08580649999999999</v>
+        <v>0.0883804</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170895</v>
+        <v>0.170977</v>
       </c>
       <c r="C20" t="n">
-        <v>0.171602</v>
+        <v>0.172727</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2416</v>
+        <v>0.242117</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08819979999999999</v>
+        <v>0.0879009</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0894972</v>
+        <v>0.0914576</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.200466</v>
+        <v>0.203473</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205847</v>
+        <v>0.207519</v>
       </c>
       <c r="D21" t="n">
-        <v>0.178593</v>
+        <v>0.177784</v>
       </c>
       <c r="E21" t="n">
-        <v>0.096203</v>
+        <v>0.0961675</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0981257</v>
+        <v>0.0975488</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.239786</v>
+        <v>0.245347</v>
       </c>
       <c r="C22" t="n">
-        <v>0.240925</v>
+        <v>0.244954</v>
       </c>
       <c r="D22" t="n">
-        <v>0.185111</v>
+        <v>0.184843</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110508</v>
+        <v>0.110817</v>
       </c>
       <c r="F22" t="n">
-        <v>0.111138</v>
+        <v>0.112655</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.286969</v>
+        <v>0.289655</v>
       </c>
       <c r="C23" t="n">
-        <v>0.290436</v>
+        <v>0.294623</v>
       </c>
       <c r="D23" t="n">
-        <v>0.192284</v>
+        <v>0.191819</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0831177</v>
+        <v>0.08349090000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0840204</v>
+        <v>0.0843685</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100404</v>
+        <v>0.100503</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10185</v>
+        <v>0.11171</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199093</v>
+        <v>0.198737</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08323999999999999</v>
+        <v>0.0833801</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0842184</v>
+        <v>0.08574270000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101696</v>
+        <v>0.103056</v>
       </c>
       <c r="C25" t="n">
-        <v>0.103949</v>
+        <v>0.105452</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206756</v>
+        <v>0.206758</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0834517</v>
+        <v>0.08363619999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0844925</v>
+        <v>0.08596769999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103185</v>
+        <v>0.103547</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105537</v>
+        <v>0.108772</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213219</v>
+        <v>0.213384</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08364099999999999</v>
+        <v>0.08370660000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08478049999999999</v>
+        <v>0.0874954</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105534</v>
+        <v>0.107542</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108103</v>
+        <v>0.109204</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220717</v>
+        <v>0.220596</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0839438</v>
+        <v>0.0880775</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0851619</v>
+        <v>0.0891449</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109215</v>
+        <v>0.109375</v>
       </c>
       <c r="C28" t="n">
-        <v>0.11125</v>
+        <v>0.115666</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226027</v>
+        <v>0.226237</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0844061</v>
+        <v>0.084483</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0858737</v>
+        <v>0.0901576</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113307</v>
+        <v>0.115661</v>
       </c>
       <c r="C29" t="n">
-        <v>0.116159</v>
+        <v>0.120844</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232144</v>
+        <v>0.232637</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0847994</v>
+        <v>0.0861107</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08614570000000001</v>
+        <v>0.0878221</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119315</v>
+        <v>0.119367</v>
       </c>
       <c r="C30" t="n">
-        <v>0.121162</v>
+        <v>0.12495</v>
       </c>
       <c r="D30" t="n">
-        <v>0.238093</v>
+        <v>0.237178</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08512840000000001</v>
+        <v>0.0894717</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0869774</v>
+        <v>0.09448719999999999</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126695</v>
+        <v>0.127108</v>
       </c>
       <c r="C31" t="n">
-        <v>0.128838</v>
+        <v>0.129646</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243555</v>
+        <v>0.242379</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08567569999999999</v>
+        <v>0.0875963</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08778569999999999</v>
+        <v>0.0890529</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136682</v>
+        <v>0.136842</v>
       </c>
       <c r="C32" t="n">
-        <v>0.139574</v>
+        <v>0.145006</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248113</v>
+        <v>0.248823</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0865291</v>
+        <v>0.0884515</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08902839999999999</v>
+        <v>0.09402770000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150713</v>
+        <v>0.150786</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152557</v>
+        <v>0.152953</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254439</v>
+        <v>0.254324</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0901067</v>
+        <v>0.09147130000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.091886</v>
+        <v>0.0928219</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169764</v>
+        <v>0.169858</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170822</v>
+        <v>0.172403</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25919</v>
+        <v>0.259805</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0953113</v>
+        <v>0.0952982</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0976976</v>
+        <v>0.10071</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.192677</v>
+        <v>0.193761</v>
       </c>
       <c r="C35" t="n">
-        <v>0.204075</v>
+        <v>0.195356</v>
       </c>
       <c r="D35" t="n">
-        <v>0.19081</v>
+        <v>0.190527</v>
       </c>
       <c r="E35" t="n">
-        <v>0.102801</v>
+        <v>0.104368</v>
       </c>
       <c r="F35" t="n">
-        <v>0.105578</v>
+        <v>0.107524</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232934</v>
+        <v>0.23307</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232592</v>
+        <v>0.232938</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197153</v>
+        <v>0.197287</v>
       </c>
       <c r="E36" t="n">
-        <v>0.115429</v>
+        <v>0.121358</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116702</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.275022</v>
+        <v>0.277672</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280617</v>
+        <v>0.280784</v>
       </c>
       <c r="D37" t="n">
-        <v>0.205014</v>
+        <v>0.204488</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0884489</v>
+        <v>0.0842186</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0856956</v>
+        <v>0.0866625</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103072</v>
+        <v>0.104881</v>
       </c>
       <c r="C38" t="n">
-        <v>0.104996</v>
+        <v>0.107105</v>
       </c>
       <c r="D38" t="n">
-        <v>0.210758</v>
+        <v>0.211345</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0841238</v>
+        <v>0.0887449</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0860359</v>
+        <v>0.08835369999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106489</v>
+        <v>0.107695</v>
       </c>
       <c r="C39" t="n">
-        <v>0.106952</v>
+        <v>0.10764</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217895</v>
+        <v>0.217851</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0844784</v>
+        <v>0.08600190000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0890558</v>
+        <v>0.0883853</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106437</v>
+        <v>0.107706</v>
       </c>
       <c r="C40" t="n">
-        <v>0.108611</v>
+        <v>0.111766</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224605</v>
+        <v>0.224917</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0846432</v>
+        <v>0.0893958</v>
       </c>
       <c r="F40" t="n">
-        <v>0.08717179999999999</v>
+        <v>0.0886623</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108279</v>
+        <v>0.109209</v>
       </c>
       <c r="C41" t="n">
-        <v>0.110982</v>
+        <v>0.121704</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230758</v>
+        <v>0.231036</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0850149</v>
+        <v>0.0898008</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0876062</v>
+        <v>0.0890923</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.111823</v>
+        <v>0.113117</v>
       </c>
       <c r="C42" t="n">
-        <v>0.114008</v>
+        <v>0.117542</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237836</v>
+        <v>0.238093</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0854153</v>
+        <v>0.0869515</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0882312</v>
+        <v>0.0905918</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.115925</v>
+        <v>0.116659</v>
       </c>
       <c r="C43" t="n">
-        <v>0.118023</v>
+        <v>0.119593</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243525</v>
+        <v>0.243824</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08585719999999999</v>
+        <v>0.08632910000000001</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0891643</v>
+        <v>0.0904025</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.121659</v>
+        <v>0.12578</v>
       </c>
       <c r="C44" t="n">
-        <v>0.123811</v>
+        <v>0.127679</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249448</v>
+        <v>0.250125</v>
       </c>
       <c r="E44" t="n">
-        <v>0.086682</v>
+        <v>0.0881547</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0940579</v>
+        <v>0.09075999999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128451</v>
+        <v>0.136132</v>
       </c>
       <c r="C45" t="n">
-        <v>0.131518</v>
+        <v>0.133033</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255667</v>
+        <v>0.255562</v>
       </c>
       <c r="E45" t="n">
-        <v>0.087487</v>
+        <v>0.0883128</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09128550000000001</v>
+        <v>0.0919432</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137777</v>
+        <v>0.138138</v>
       </c>
       <c r="C46" t="n">
-        <v>0.140717</v>
+        <v>0.143014</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260828</v>
+        <v>0.260846</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0889691</v>
+        <v>0.0894259</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0931472</v>
+        <v>0.09363970000000001</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149838</v>
+        <v>0.150149</v>
       </c>
       <c r="C47" t="n">
-        <v>0.152793</v>
+        <v>0.154379</v>
       </c>
       <c r="D47" t="n">
-        <v>0.26587</v>
+        <v>0.266185</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0925781</v>
+        <v>0.0922502</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0960216</v>
+        <v>0.09747160000000001</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167397</v>
+        <v>0.167762</v>
       </c>
       <c r="C48" t="n">
-        <v>0.171931</v>
+        <v>0.175553</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272156</v>
+        <v>0.272097</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09660829999999999</v>
+        <v>0.0964685</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100119</v>
+        <v>0.100177</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.192158</v>
+        <v>0.190233</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193622</v>
+        <v>0.193977</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278066</v>
+        <v>0.278027</v>
       </c>
       <c r="E49" t="n">
-        <v>0.101704</v>
+        <v>0.102152</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105674</v>
+        <v>0.113274</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224448</v>
+        <v>0.224564</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226165</v>
+        <v>0.226567</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198186</v>
+        <v>0.198275</v>
       </c>
       <c r="E50" t="n">
-        <v>0.112144</v>
+        <v>0.11196</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115785</v>
+        <v>0.116285</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268243</v>
+        <v>0.268868</v>
       </c>
       <c r="C51" t="n">
-        <v>0.271849</v>
+        <v>0.273698</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204612</v>
+        <v>0.204881</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08589869999999999</v>
+        <v>0.0874028</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0898283</v>
+        <v>0.0904712</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318025</v>
+        <v>0.334694</v>
       </c>
       <c r="C52" t="n">
-        <v>0.325524</v>
+        <v>0.331476</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211074</v>
+        <v>0.211226</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0866852</v>
+        <v>0.0879407</v>
       </c>
       <c r="F52" t="n">
-        <v>0.089545</v>
+        <v>0.08994729999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.117445</v>
+        <v>0.120928</v>
       </c>
       <c r="C53" t="n">
-        <v>0.113208</v>
+        <v>0.112075</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217966</v>
+        <v>0.217859</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08653379999999999</v>
+        <v>0.0875317</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0900741</v>
+        <v>0.0906457</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.108867</v>
+        <v>0.110545</v>
       </c>
       <c r="C54" t="n">
-        <v>0.122961</v>
+        <v>0.115073</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224163</v>
+        <v>0.224524</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0863699</v>
+        <v>0.0869968</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0910232</v>
+        <v>0.09080149999999999</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.114816</v>
+        <v>0.120775</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116422</v>
+        <v>0.12344</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230325</v>
+        <v>0.230548</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0866812</v>
+        <v>0.087614</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09526900000000001</v>
+        <v>0.0957399</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.116385</v>
+        <v>0.115978</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119257</v>
+        <v>0.119878</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236528</v>
+        <v>0.236592</v>
       </c>
       <c r="E56" t="n">
-        <v>0.08787449999999999</v>
+        <v>0.0884578</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09208520000000001</v>
+        <v>0.0954356</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118808</v>
+        <v>0.1208</v>
       </c>
       <c r="C57" t="n">
-        <v>0.12373</v>
+        <v>0.133534</v>
       </c>
       <c r="D57" t="n">
-        <v>0.241877</v>
+        <v>0.24206</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0882791</v>
+        <v>0.0898557</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09257460000000001</v>
+        <v>0.09431929999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.124672</v>
+        <v>0.132959</v>
       </c>
       <c r="C58" t="n">
-        <v>0.128404</v>
+        <v>0.136849</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247196</v>
+        <v>0.247361</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08973739999999999</v>
+        <v>0.0937727</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0939154</v>
+        <v>0.09514830000000001</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130579</v>
+        <v>0.131247</v>
       </c>
       <c r="C59" t="n">
-        <v>0.134991</v>
+        <v>0.139123</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252752</v>
+        <v>0.252799</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0902796</v>
+        <v>0.09057320000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0953447</v>
+        <v>0.0964696</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138116</v>
+        <v>0.139317</v>
       </c>
       <c r="C60" t="n">
-        <v>0.143859</v>
+        <v>0.146517</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257565</v>
+        <v>0.257889</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0924002</v>
+        <v>0.0922795</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09663720000000001</v>
+        <v>0.09765310000000001</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.14825</v>
+        <v>0.149794</v>
       </c>
       <c r="C61" t="n">
-        <v>0.155199</v>
+        <v>0.156423</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262844</v>
+        <v>0.262687</v>
       </c>
       <c r="E61" t="n">
-        <v>0.102371</v>
+        <v>0.09612179999999999</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0999072</v>
+        <v>0.104949</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.164834</v>
+        <v>0.163889</v>
       </c>
       <c r="C62" t="n">
-        <v>0.16872</v>
+        <v>0.173058</v>
       </c>
       <c r="D62" t="n">
-        <v>0.269134</v>
+        <v>0.268869</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0973909</v>
+        <v>0.106123</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103592</v>
+        <v>0.108027</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185208</v>
+        <v>0.185329</v>
       </c>
       <c r="C63" t="n">
-        <v>0.191875</v>
+        <v>0.194791</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274744</v>
+        <v>0.274643</v>
       </c>
       <c r="E63" t="n">
-        <v>0.103558</v>
+        <v>0.10267</v>
       </c>
       <c r="F63" t="n">
-        <v>0.107814</v>
+        <v>0.11378</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.228146</v>
+        <v>0.217355</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224443</v>
+        <v>0.22562</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201156</v>
+        <v>0.200925</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111467</v>
+        <v>0.119438</v>
       </c>
       <c r="F64" t="n">
-        <v>0.116836</v>
+        <v>0.118221</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.270469</v>
+        <v>0.271217</v>
       </c>
       <c r="C65" t="n">
-        <v>0.267002</v>
+        <v>0.273725</v>
       </c>
       <c r="D65" t="n">
-        <v>0.207706</v>
+        <v>0.2077</v>
       </c>
       <c r="E65" t="n">
-        <v>0.125743</v>
+        <v>0.127073</v>
       </c>
       <c r="F65" t="n">
-        <v>0.131716</v>
+        <v>0.132606</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.309671</v>
+        <v>0.310465</v>
       </c>
       <c r="C66" t="n">
-        <v>0.33916</v>
+        <v>0.321295</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216405</v>
+        <v>0.216183</v>
       </c>
       <c r="E66" t="n">
-        <v>0.09968390000000001</v>
+        <v>0.0931049</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0968229</v>
+        <v>0.10937</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130247</v>
+        <v>0.130765</v>
       </c>
       <c r="C67" t="n">
-        <v>0.126415</v>
+        <v>0.12838</v>
       </c>
       <c r="D67" t="n">
-        <v>0.225835</v>
+        <v>0.226134</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0979085</v>
+        <v>0.104325</v>
       </c>
       <c r="F67" t="n">
-        <v>0.103146</v>
+        <v>0.0975816</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123312</v>
+        <v>0.13186</v>
       </c>
       <c r="C68" t="n">
-        <v>0.136587</v>
+        <v>0.136397</v>
       </c>
       <c r="D68" t="n">
-        <v>0.236191</v>
+        <v>0.233653</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0929816</v>
+        <v>0.0940457</v>
       </c>
       <c r="F68" t="n">
-        <v>0.107374</v>
+        <v>0.103667</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125488</v>
+        <v>0.125406</v>
       </c>
       <c r="C69" t="n">
-        <v>0.130328</v>
+        <v>0.137648</v>
       </c>
       <c r="D69" t="n">
-        <v>0.243186</v>
+        <v>0.241037</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0936988</v>
+        <v>0.0995211</v>
       </c>
       <c r="F69" t="n">
-        <v>0.100537</v>
+        <v>0.111257</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.136268</v>
+        <v>0.128547</v>
       </c>
       <c r="C70" t="n">
-        <v>0.143282</v>
+        <v>0.136115</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252372</v>
+        <v>0.250725</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0944329</v>
+        <v>0.100059</v>
       </c>
       <c r="F70" t="n">
-        <v>0.104934</v>
+        <v>0.101945</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.141188</v>
+        <v>0.131445</v>
       </c>
       <c r="C71" t="n">
-        <v>0.13912</v>
+        <v>0.13862</v>
       </c>
       <c r="D71" t="n">
-        <v>0.265775</v>
+        <v>0.260889</v>
       </c>
       <c r="E71" t="n">
-        <v>0.102781</v>
+        <v>0.097218</v>
       </c>
       <c r="F71" t="n">
-        <v>0.104905</v>
+        <v>0.106592</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.136333</v>
+        <v>0.146887</v>
       </c>
       <c r="C72" t="n">
-        <v>0.143079</v>
+        <v>0.153486</v>
       </c>
       <c r="D72" t="n">
-        <v>0.273917</v>
+        <v>0.272348</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0960751</v>
+        <v>0.0967867</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103004</v>
+        <v>0.108177</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.140176</v>
+        <v>0.145106</v>
       </c>
       <c r="C73" t="n">
-        <v>0.149614</v>
+        <v>0.159009</v>
       </c>
       <c r="D73" t="n">
-        <v>0.286503</v>
+        <v>0.28187</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0977875</v>
+        <v>0.107779</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104289</v>
+        <v>0.104765</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.148971</v>
+        <v>0.161142</v>
       </c>
       <c r="C74" t="n">
-        <v>0.158959</v>
+        <v>0.160189</v>
       </c>
       <c r="D74" t="n">
-        <v>0.29755</v>
+        <v>0.296082</v>
       </c>
       <c r="E74" t="n">
-        <v>0.09837940000000001</v>
+        <v>0.107308</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106487</v>
+        <v>0.10639</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.164676</v>
+        <v>0.162091</v>
       </c>
       <c r="C75" t="n">
-        <v>0.182034</v>
+        <v>0.178737</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310733</v>
+        <v>0.310382</v>
       </c>
       <c r="E75" t="n">
-        <v>0.109675</v>
+        <v>0.105411</v>
       </c>
       <c r="F75" t="n">
-        <v>0.114714</v>
+        <v>0.116559</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176103</v>
+        <v>0.175258</v>
       </c>
       <c r="C76" t="n">
-        <v>0.185282</v>
+        <v>0.189146</v>
       </c>
       <c r="D76" t="n">
-        <v>0.327629</v>
+        <v>0.326351</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104521</v>
+        <v>0.118718</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11291</v>
+        <v>0.11908</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.196945</v>
+        <v>0.19492</v>
       </c>
       <c r="C77" t="n">
-        <v>0.206782</v>
+        <v>0.204968</v>
       </c>
       <c r="D77" t="n">
-        <v>0.342713</v>
+        <v>0.341803</v>
       </c>
       <c r="E77" t="n">
-        <v>0.116469</v>
+        <v>0.109662</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117474</v>
+        <v>0.12534</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.225859</v>
+        <v>0.22914</v>
       </c>
       <c r="C78" t="n">
-        <v>0.244362</v>
+        <v>0.237238</v>
       </c>
       <c r="D78" t="n">
-        <v>0.26434</v>
+        <v>0.266567</v>
       </c>
       <c r="E78" t="n">
-        <v>0.117374</v>
+        <v>0.125632</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127577</v>
+        <v>0.127963</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.266145</v>
+        <v>0.27374</v>
       </c>
       <c r="C79" t="n">
-        <v>0.294825</v>
+        <v>0.27872</v>
       </c>
       <c r="D79" t="n">
-        <v>0.283519</v>
+        <v>0.282873</v>
       </c>
       <c r="E79" t="n">
-        <v>0.130997</v>
+        <v>0.138257</v>
       </c>
       <c r="F79" t="n">
-        <v>0.15255</v>
+        <v>0.148005</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.318551</v>
+        <v>0.32653</v>
       </c>
       <c r="C80" t="n">
-        <v>0.344427</v>
+        <v>0.356212</v>
       </c>
       <c r="D80" t="n">
-        <v>0.299458</v>
+        <v>0.298937</v>
       </c>
       <c r="E80" t="n">
-        <v>0.100213</v>
+        <v>0.105869</v>
       </c>
       <c r="F80" t="n">
-        <v>0.106304</v>
+        <v>0.1067</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.134891</v>
+        <v>0.143648</v>
       </c>
       <c r="C81" t="n">
-        <v>0.150956</v>
+        <v>0.141756</v>
       </c>
       <c r="D81" t="n">
-        <v>0.318295</v>
+        <v>0.319403</v>
       </c>
       <c r="E81" t="n">
-        <v>0.101438</v>
+        <v>0.107762</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10779</v>
+        <v>0.106891</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.136694</v>
+        <v>0.146224</v>
       </c>
       <c r="C82" t="n">
-        <v>0.144223</v>
+        <v>0.14374</v>
       </c>
       <c r="D82" t="n">
-        <v>0.338833</v>
+        <v>0.339857</v>
       </c>
       <c r="E82" t="n">
-        <v>0.101241</v>
+        <v>0.104754</v>
       </c>
       <c r="F82" t="n">
-        <v>0.108975</v>
+        <v>0.107997</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.13862</v>
+        <v>0.148878</v>
       </c>
       <c r="C83" t="n">
-        <v>0.147045</v>
+        <v>0.149369</v>
       </c>
       <c r="D83" t="n">
-        <v>0.359143</v>
+        <v>0.361283</v>
       </c>
       <c r="E83" t="n">
-        <v>0.102128</v>
+        <v>0.101981</v>
       </c>
       <c r="F83" t="n">
-        <v>0.110696</v>
+        <v>0.115475</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.142544</v>
+        <v>0.14117</v>
       </c>
       <c r="C84" t="n">
-        <v>0.151156</v>
+        <v>0.149797</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379206</v>
+        <v>0.381626</v>
       </c>
       <c r="E84" t="n">
-        <v>0.102706</v>
+        <v>0.107481</v>
       </c>
       <c r="F84" t="n">
-        <v>0.11165</v>
+        <v>0.109967</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.147008</v>
+        <v>0.145113</v>
       </c>
       <c r="C85" t="n">
-        <v>0.156321</v>
+        <v>0.162555</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400588</v>
+        <v>0.404512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.103857</v>
+        <v>0.110373</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114536</v>
+        <v>0.114278</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.150535</v>
+        <v>0.149525</v>
       </c>
       <c r="C86" t="n">
-        <v>0.163352</v>
+        <v>0.168694</v>
       </c>
       <c r="D86" t="n">
-        <v>0.423414</v>
+        <v>0.427241</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105415</v>
+        <v>0.111475</v>
       </c>
       <c r="F86" t="n">
-        <v>0.123522</v>
+        <v>0.113188</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.167519</v>
+        <v>0.162563</v>
       </c>
       <c r="C87" t="n">
-        <v>0.172165</v>
+        <v>0.177016</v>
       </c>
       <c r="D87" t="n">
-        <v>0.447267</v>
+        <v>0.450663</v>
       </c>
       <c r="E87" t="n">
-        <v>0.107278</v>
+        <v>0.105384</v>
       </c>
       <c r="F87" t="n">
-        <v>0.121923</v>
+        <v>0.115667</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.167201</v>
+        <v>0.17445</v>
       </c>
       <c r="C88" t="n">
-        <v>0.186699</v>
+        <v>0.177916</v>
       </c>
       <c r="D88" t="n">
-        <v>0.470879</v>
+        <v>0.473721</v>
       </c>
       <c r="E88" t="n">
-        <v>0.120388</v>
+        <v>0.10741</v>
       </c>
       <c r="F88" t="n">
-        <v>0.130914</v>
+        <v>0.125676</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.179793</v>
+        <v>0.174759</v>
       </c>
       <c r="C89" t="n">
-        <v>0.199806</v>
+        <v>0.201739</v>
       </c>
       <c r="D89" t="n">
-        <v>0.496201</v>
+        <v>0.499156</v>
       </c>
       <c r="E89" t="n">
-        <v>0.112278</v>
+        <v>0.116946</v>
       </c>
       <c r="F89" t="n">
-        <v>0.129797</v>
+        <v>0.122577</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.194695</v>
+        <v>0.197575</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220844</v>
+        <v>0.220158</v>
       </c>
       <c r="D90" t="n">
-        <v>0.523266</v>
+        <v>0.525479</v>
       </c>
       <c r="E90" t="n">
-        <v>0.116768</v>
+        <v>0.113347</v>
       </c>
       <c r="F90" t="n">
-        <v>0.136588</v>
+        <v>0.128962</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.21363</v>
+        <v>0.218572</v>
       </c>
       <c r="C91" t="n">
-        <v>0.242613</v>
+        <v>0.233891</v>
       </c>
       <c r="D91" t="n">
-        <v>0.550087</v>
+        <v>0.552256</v>
       </c>
       <c r="E91" t="n">
-        <v>0.128179</v>
+        <v>0.11848</v>
       </c>
       <c r="F91" t="n">
-        <v>0.14555</v>
+        <v>0.143834</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.246906</v>
+        <v>0.242226</v>
       </c>
       <c r="C92" t="n">
-        <v>0.279673</v>
+        <v>0.277437</v>
       </c>
       <c r="D92" t="n">
-        <v>0.411653</v>
+        <v>0.412733</v>
       </c>
       <c r="E92" t="n">
-        <v>0.140527</v>
+        <v>0.12702</v>
       </c>
       <c r="F92" t="n">
-        <v>0.162809</v>
+        <v>0.156345</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.296866</v>
+        <v>0.280186</v>
       </c>
       <c r="C93" t="n">
-        <v>0.340506</v>
+        <v>0.357217</v>
       </c>
       <c r="D93" t="n">
-        <v>0.431595</v>
+        <v>0.431583</v>
       </c>
       <c r="E93" t="n">
-        <v>0.155671</v>
+        <v>0.14693</v>
       </c>
       <c r="F93" t="n">
-        <v>0.173969</v>
+        <v>0.16995</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.349469</v>
+        <v>0.344429</v>
       </c>
       <c r="C94" t="n">
-        <v>0.40529</v>
+        <v>0.41231</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450202</v>
+        <v>0.450849</v>
       </c>
       <c r="E94" t="n">
-        <v>0.110959</v>
+        <v>0.106868</v>
       </c>
       <c r="F94" t="n">
-        <v>0.127406</v>
+        <v>0.12011</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.159734</v>
+        <v>0.145182</v>
       </c>
       <c r="C95" t="n">
-        <v>0.166965</v>
+        <v>0.161074</v>
       </c>
       <c r="D95" t="n">
-        <v>0.470751</v>
+        <v>0.469897</v>
       </c>
       <c r="E95" t="n">
-        <v>0.114851</v>
+        <v>0.108381</v>
       </c>
       <c r="F95" t="n">
-        <v>0.130576</v>
+        <v>0.123513</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.157549</v>
+        <v>0.153077</v>
       </c>
       <c r="C96" t="n">
-        <v>0.171095</v>
+        <v>0.170288</v>
       </c>
       <c r="D96" t="n">
-        <v>0.489607</v>
+        <v>0.492284</v>
       </c>
       <c r="E96" t="n">
-        <v>0.114584</v>
+        <v>0.115109</v>
       </c>
       <c r="F96" t="n">
-        <v>0.133322</v>
+        <v>0.129938</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.155493</v>
+        <v>0.153236</v>
       </c>
       <c r="C97" t="n">
-        <v>0.186257</v>
+        <v>0.173335</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5103529999999999</v>
+        <v>0.512189</v>
       </c>
       <c r="E97" t="n">
-        <v>0.122294</v>
+        <v>0.114664</v>
       </c>
       <c r="F97" t="n">
-        <v>0.136261</v>
+        <v>0.135649</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.159469</v>
+        <v>0.155348</v>
       </c>
       <c r="C98" t="n">
-        <v>0.185855</v>
+        <v>0.192632</v>
       </c>
       <c r="D98" t="n">
-        <v>0.5317460000000001</v>
+        <v>0.531796</v>
       </c>
       <c r="E98" t="n">
-        <v>0.11849</v>
+        <v>0.118953</v>
       </c>
       <c r="F98" t="n">
-        <v>0.13894</v>
+        <v>0.138072</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.164352</v>
+        <v>0.16961</v>
       </c>
       <c r="C99" t="n">
-        <v>0.195748</v>
+        <v>0.191052</v>
       </c>
       <c r="D99" t="n">
-        <v>0.554392</v>
+        <v>0.553366</v>
       </c>
       <c r="E99" t="n">
-        <v>0.127305</v>
+        <v>0.115594</v>
       </c>
       <c r="F99" t="n">
-        <v>0.142458</v>
+        <v>0.147575</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.170628</v>
+        <v>0.167593</v>
       </c>
       <c r="C100" t="n">
-        <v>0.196448</v>
+        <v>0.208322</v>
       </c>
       <c r="D100" t="n">
-        <v>0.578357</v>
+        <v>0.576799</v>
       </c>
       <c r="E100" t="n">
-        <v>0.128527</v>
+        <v>0.118399</v>
       </c>
       <c r="F100" t="n">
-        <v>0.145879</v>
+        <v>0.15056</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.178532</v>
+        <v>0.185524</v>
       </c>
       <c r="C101" t="n">
-        <v>0.20763</v>
+        <v>0.223648</v>
       </c>
       <c r="D101" t="n">
-        <v>0.601977</v>
+        <v>0.600619</v>
       </c>
       <c r="E101" t="n">
-        <v>0.124998</v>
+        <v>0.122541</v>
       </c>
       <c r="F101" t="n">
-        <v>0.149407</v>
+        <v>0.157396</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.18707</v>
+        <v>0.196072</v>
       </c>
       <c r="C102" t="n">
-        <v>0.227991</v>
+        <v>0.232886</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6273609999999999</v>
+        <v>0.6277700000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127298</v>
+        <v>0.131045</v>
       </c>
       <c r="F102" t="n">
-        <v>0.154357</v>
+        <v>0.164278</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.198438</v>
+        <v>0.202971</v>
       </c>
       <c r="C103" t="n">
-        <v>0.234255</v>
+        <v>0.258763</v>
       </c>
       <c r="D103" t="n">
-        <v>0.654876</v>
+        <v>0.653913</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130367</v>
+        <v>0.131856</v>
       </c>
       <c r="F103" t="n">
-        <v>0.160436</v>
+        <v>0.172877</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.213883</v>
+        <v>0.218853</v>
       </c>
       <c r="C104" t="n">
-        <v>0.26733</v>
+        <v>0.28017</v>
       </c>
       <c r="D104" t="n">
-        <v>0.683316</v>
+        <v>0.680511</v>
       </c>
       <c r="E104" t="n">
-        <v>0.135898</v>
+        <v>0.138038</v>
       </c>
       <c r="F104" t="n">
-        <v>0.167843</v>
+        <v>0.181794</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243968</v>
+        <v>0.243152</v>
       </c>
       <c r="C105" t="n">
-        <v>0.286756</v>
+        <v>0.307575</v>
       </c>
       <c r="D105" t="n">
-        <v>0.713987</v>
+        <v>0.71376</v>
       </c>
       <c r="E105" t="n">
-        <v>0.145903</v>
+        <v>0.149419</v>
       </c>
       <c r="F105" t="n">
-        <v>0.178022</v>
+        <v>0.192323</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.262004</v>
+        <v>0.277518</v>
       </c>
       <c r="C106" t="n">
-        <v>0.326838</v>
+        <v>0.336866</v>
       </c>
       <c r="D106" t="n">
-        <v>0.745555</v>
+        <v>0.744909</v>
       </c>
       <c r="E106" t="n">
-        <v>0.149192</v>
+        <v>0.16156</v>
       </c>
       <c r="F106" t="n">
-        <v>0.192774</v>
+        <v>0.20557</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.310091</v>
+        <v>0.317812</v>
       </c>
       <c r="C107" t="n">
-        <v>0.396314</v>
+        <v>0.403143</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5827909999999999</v>
+        <v>0.581893</v>
       </c>
       <c r="E107" t="n">
-        <v>0.162582</v>
+        <v>0.179837</v>
       </c>
       <c r="F107" t="n">
-        <v>0.214426</v>
+        <v>0.225221</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.377359</v>
+        <v>0.385367</v>
       </c>
       <c r="C108" t="n">
-        <v>0.467373</v>
+        <v>0.474288</v>
       </c>
       <c r="D108" t="n">
-        <v>0.603529</v>
+        <v>0.602503</v>
       </c>
       <c r="E108" t="n">
-        <v>0.120725</v>
+        <v>0.127101</v>
       </c>
       <c r="F108" t="n">
-        <v>0.145555</v>
+        <v>0.159177</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482714</v>
+        <v>0.480512</v>
       </c>
       <c r="C109" t="n">
-        <v>0.605397</v>
+        <v>0.591257</v>
       </c>
       <c r="D109" t="n">
-        <v>0.625101</v>
+        <v>0.623573</v>
       </c>
       <c r="E109" t="n">
-        <v>0.121888</v>
+        <v>0.129482</v>
       </c>
       <c r="F109" t="n">
-        <v>0.154939</v>
+        <v>0.166012</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.161812</v>
+        <v>0.170775</v>
       </c>
       <c r="C110" t="n">
-        <v>0.202887</v>
+        <v>0.217372</v>
       </c>
       <c r="D110" t="n">
-        <v>0.6471170000000001</v>
+        <v>0.645783</v>
       </c>
       <c r="E110" t="n">
-        <v>0.123094</v>
+        <v>0.135248</v>
       </c>
       <c r="F110" t="n">
-        <v>0.159197</v>
+        <v>0.1667</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.165016</v>
+        <v>0.175052</v>
       </c>
       <c r="C111" t="n">
-        <v>0.199945</v>
+        <v>0.212532</v>
       </c>
       <c r="D111" t="n">
-        <v>0.671888</v>
+        <v>0.668441</v>
       </c>
       <c r="E111" t="n">
-        <v>0.124704</v>
+        <v>0.141053</v>
       </c>
       <c r="F111" t="n">
-        <v>0.158668</v>
+        <v>0.170497</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.175772</v>
+        <v>0.179714</v>
       </c>
       <c r="C112" t="n">
-        <v>0.208137</v>
+        <v>0.221723</v>
       </c>
       <c r="D112" t="n">
-        <v>0.693978</v>
+        <v>0.691638</v>
       </c>
       <c r="E112" t="n">
-        <v>0.132949</v>
+        <v>0.137009</v>
       </c>
       <c r="F112" t="n">
-        <v>0.163826</v>
+        <v>0.174245</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.174355</v>
+        <v>0.186246</v>
       </c>
       <c r="C113" t="n">
-        <v>0.228462</v>
+        <v>0.226366</v>
       </c>
       <c r="D113" t="n">
-        <v>0.719023</v>
+        <v>0.716625</v>
       </c>
       <c r="E113" t="n">
-        <v>0.134468</v>
+        <v>0.139959</v>
       </c>
       <c r="F113" t="n">
-        <v>0.174913</v>
+        <v>0.178304</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.192086</v>
+        <v>0.20272</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237821</v>
+        <v>0.246478</v>
       </c>
       <c r="D114" t="n">
-        <v>0.744344</v>
+        <v>0.742117</v>
       </c>
       <c r="E114" t="n">
-        <v>0.132949</v>
+        <v>0.142504</v>
       </c>
       <c r="F114" t="n">
-        <v>0.177582</v>
+        <v>0.182744</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.195598</v>
+        <v>0.199909</v>
       </c>
       <c r="C115" t="n">
-        <v>0.250861</v>
+        <v>0.246073</v>
       </c>
       <c r="D115" t="n">
-        <v>0.770441</v>
+        <v>0.768271</v>
       </c>
       <c r="E115" t="n">
-        <v>0.13733</v>
+        <v>0.145633</v>
       </c>
       <c r="F115" t="n">
-        <v>0.183838</v>
+        <v>0.187567</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.20445</v>
+        <v>0.22054</v>
       </c>
       <c r="C116" t="n">
-        <v>0.258909</v>
+        <v>0.259559</v>
       </c>
       <c r="D116" t="n">
-        <v>0.79728</v>
+        <v>0.795025</v>
       </c>
       <c r="E116" t="n">
-        <v>0.142341</v>
+        <v>0.148844</v>
       </c>
       <c r="F116" t="n">
-        <v>0.190525</v>
+        <v>0.197611</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.228065</v>
+        <v>0.232134</v>
       </c>
       <c r="C117" t="n">
-        <v>0.277911</v>
+        <v>0.286268</v>
       </c>
       <c r="D117" t="n">
-        <v>0.825078</v>
+        <v>0.824638</v>
       </c>
       <c r="E117" t="n">
-        <v>0.14834</v>
+        <v>0.152845</v>
       </c>
       <c r="F117" t="n">
-        <v>0.197518</v>
+        <v>0.199315</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.239027</v>
+        <v>0.2378</v>
       </c>
       <c r="C118" t="n">
-        <v>0.306116</v>
+        <v>0.297698</v>
       </c>
       <c r="D118" t="n">
-        <v>0.855724</v>
+        <v>0.852299</v>
       </c>
       <c r="E118" t="n">
-        <v>0.157605</v>
+        <v>0.15773</v>
       </c>
       <c r="F118" t="n">
-        <v>0.205452</v>
+        <v>0.207083</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.257662</v>
+        <v>0.259649</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325181</v>
+        <v>0.325009</v>
       </c>
       <c r="D119" t="n">
-        <v>0.8868239999999999</v>
+        <v>0.883943</v>
       </c>
       <c r="E119" t="n">
-        <v>0.162267</v>
+        <v>0.171009</v>
       </c>
       <c r="F119" t="n">
-        <v>0.215506</v>
+        <v>0.216294</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.287595</v>
+        <v>0.288596</v>
       </c>
       <c r="C120" t="n">
-        <v>0.37252</v>
+        <v>0.376008</v>
       </c>
       <c r="D120" t="n">
-        <v>0.9218460000000001</v>
+        <v>0.915811</v>
       </c>
       <c r="E120" t="n">
-        <v>0.17187</v>
+        <v>0.173419</v>
       </c>
       <c r="F120" t="n">
-        <v>0.228891</v>
+        <v>0.229626</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.332</v>
+        <v>0.333168</v>
       </c>
       <c r="C121" t="n">
-        <v>0.433691</v>
+        <v>0.418735</v>
       </c>
       <c r="D121" t="n">
-        <v>0.669173</v>
+        <v>0.666343</v>
       </c>
       <c r="E121" t="n">
-        <v>0.195691</v>
+        <v>0.191729</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249055</v>
+        <v>0.249269</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.397229</v>
+        <v>0.405557</v>
       </c>
       <c r="C122" t="n">
-        <v>0.504606</v>
+        <v>0.502499</v>
       </c>
       <c r="D122" t="n">
-        <v>0.690293</v>
+        <v>0.68623</v>
       </c>
       <c r="E122" t="n">
-        <v>0.209925</v>
+        <v>0.210653</v>
       </c>
       <c r="F122" t="n">
-        <v>0.285446</v>
+        <v>0.281049</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.504065</v>
+        <v>0.492533</v>
       </c>
       <c r="C123" t="n">
-        <v>0.630343</v>
+        <v>0.6286040000000001</v>
       </c>
       <c r="D123" t="n">
-        <v>0.711027</v>
+        <v>0.7073469999999999</v>
       </c>
       <c r="E123" t="n">
-        <v>0.150744</v>
+        <v>0.143939</v>
       </c>
       <c r="F123" t="n">
-        <v>0.187993</v>
+        <v>0.186195</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.186284</v>
+        <v>0.20082</v>
       </c>
       <c r="C124" t="n">
-        <v>0.22939</v>
+        <v>0.238964</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7335930000000001</v>
+        <v>0.7293770000000001</v>
       </c>
       <c r="E124" t="n">
-        <v>0.156675</v>
+        <v>0.15359</v>
       </c>
       <c r="F124" t="n">
-        <v>0.186476</v>
+        <v>0.185526</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.201021</v>
+        <v>0.192192</v>
       </c>
       <c r="C125" t="n">
-        <v>0.236731</v>
+        <v>0.246171</v>
       </c>
       <c r="D125" t="n">
-        <v>0.756562</v>
+        <v>0.7528359999999999</v>
       </c>
       <c r="E125" t="n">
-        <v>0.153422</v>
+        <v>0.147808</v>
       </c>
       <c r="F125" t="n">
-        <v>0.200395</v>
+        <v>0.190763</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.195371</v>
+        <v>0.206337</v>
       </c>
       <c r="C126" t="n">
-        <v>0.244335</v>
+        <v>0.243478</v>
       </c>
       <c r="D126" t="n">
-        <v>0.779497</v>
+        <v>0.775919</v>
       </c>
       <c r="E126" t="n">
-        <v>0.146261</v>
+        <v>0.157702</v>
       </c>
       <c r="F126" t="n">
-        <v>0.197381</v>
+        <v>0.194295</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.209512</v>
+        <v>0.201521</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249615</v>
+        <v>0.249792</v>
       </c>
       <c r="D127" t="n">
-        <v>0.804553</v>
+        <v>0.800156</v>
       </c>
       <c r="E127" t="n">
-        <v>0.151972</v>
+        <v>0.154783</v>
       </c>
       <c r="F127" t="n">
-        <v>0.204832</v>
+        <v>0.199039</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.197604</v>
+        <v>0.21373</v>
       </c>
       <c r="C128" t="n">
-        <v>0.262541</v>
+        <v>0.271526</v>
       </c>
       <c r="D128" t="n">
-        <v>0.830699</v>
+        <v>0.826344</v>
       </c>
       <c r="E128" t="n">
-        <v>0.157649</v>
+        <v>0.159524</v>
       </c>
       <c r="F128" t="n">
-        <v>0.207198</v>
+        <v>0.212529</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.21403</v>
+        <v>0.217014</v>
       </c>
       <c r="C129" t="n">
-        <v>0.284193</v>
+        <v>0.280501</v>
       </c>
       <c r="D129" t="n">
-        <v>0.858398</v>
+        <v>0.853481</v>
       </c>
       <c r="E129" t="n">
-        <v>0.162415</v>
+        <v>0.163251</v>
       </c>
       <c r="F129" t="n">
-        <v>0.215624</v>
+        <v>0.209722</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.229155</v>
+        <v>0.236461</v>
       </c>
       <c r="C130" t="n">
-        <v>0.293141</v>
+        <v>0.300318</v>
       </c>
       <c r="D130" t="n">
-        <v>0.885741</v>
+        <v>0.8821020000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.162709</v>
+        <v>0.16384</v>
       </c>
       <c r="F130" t="n">
-        <v>0.21674</v>
+        <v>0.215224</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.239235</v>
+        <v>0.240487</v>
       </c>
       <c r="C131" t="n">
-        <v>0.313986</v>
+        <v>0.313006</v>
       </c>
       <c r="D131" t="n">
-        <v>0.915689</v>
+        <v>0.911572</v>
       </c>
       <c r="E131" t="n">
-        <v>0.174237</v>
+        <v>0.16536</v>
       </c>
       <c r="F131" t="n">
-        <v>0.222026</v>
+        <v>0.221508</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.253955</v>
+        <v>0.253786</v>
       </c>
       <c r="C132" t="n">
-        <v>0.335134</v>
+        <v>0.333909</v>
       </c>
       <c r="D132" t="n">
-        <v>0.94745</v>
+        <v>0.941553</v>
       </c>
       <c r="E132" t="n">
-        <v>0.172554</v>
+        <v>0.172207</v>
       </c>
       <c r="F132" t="n">
-        <v>0.23198</v>
+        <v>0.230421</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.265731</v>
+        <v>0.276986</v>
       </c>
       <c r="C133" t="n">
-        <v>0.363278</v>
+        <v>0.355722</v>
       </c>
       <c r="D133" t="n">
-        <v>0.978903</v>
+        <v>0.974621</v>
       </c>
       <c r="E133" t="n">
-        <v>0.179279</v>
+        <v>0.17961</v>
       </c>
       <c r="F133" t="n">
-        <v>0.245682</v>
+        <v>0.242344</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.293626</v>
+        <v>0.303162</v>
       </c>
       <c r="C134" t="n">
-        <v>0.400412</v>
+        <v>0.400576</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01262</v>
+        <v>1.00818</v>
       </c>
       <c r="E134" t="n">
-        <v>0.181496</v>
+        <v>0.196963</v>
       </c>
       <c r="F134" t="n">
-        <v>0.246938</v>
+        <v>0.253315</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.348412</v>
+        <v>0.352737</v>
       </c>
       <c r="C135" t="n">
-        <v>0.454707</v>
+        <v>0.453079</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69287</v>
+        <v>0.689411</v>
       </c>
       <c r="E135" t="n">
-        <v>0.199895</v>
+        <v>0.200569</v>
       </c>
       <c r="F135" t="n">
-        <v>0.277936</v>
+        <v>0.276764</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.413264</v>
+        <v>0.407639</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5369660000000001</v>
+        <v>0.53596</v>
       </c>
       <c r="D136" t="n">
-        <v>0.711112</v>
+        <v>0.707985</v>
       </c>
       <c r="E136" t="n">
-        <v>0.21946</v>
+        <v>0.220418</v>
       </c>
       <c r="F136" t="n">
-        <v>0.307849</v>
+        <v>0.307876</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.502117</v>
+        <v>0.509264</v>
       </c>
       <c r="C137" t="n">
-        <v>0.658493</v>
+        <v>0.662875</v>
       </c>
       <c r="D137" t="n">
-        <v>0.723507</v>
+        <v>0.727162</v>
       </c>
       <c r="E137" t="n">
-        <v>0.263821</v>
+        <v>0.26336</v>
       </c>
       <c r="F137" t="n">
-        <v>0.308409</v>
+        <v>0.305964</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.330438</v>
+        <v>0.338529</v>
       </c>
       <c r="C138" t="n">
-        <v>0.383663</v>
+        <v>0.378836</v>
       </c>
       <c r="D138" t="n">
-        <v>0.750194</v>
+        <v>0.7464769999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261579</v>
+        <v>0.261065</v>
       </c>
       <c r="F138" t="n">
-        <v>0.303411</v>
+        <v>0.313658</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.31074</v>
+        <v>0.334485</v>
       </c>
       <c r="C139" t="n">
-        <v>0.393612</v>
+        <v>0.389453</v>
       </c>
       <c r="D139" t="n">
-        <v>0.771096</v>
+        <v>0.767076</v>
       </c>
       <c r="E139" t="n">
-        <v>0.268909</v>
+        <v>0.269825</v>
       </c>
       <c r="F139" t="n">
-        <v>0.319511</v>
+        <v>0.318651</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339045</v>
+        <v>0.33927</v>
       </c>
       <c r="C140" t="n">
-        <v>0.37651</v>
+        <v>0.397263</v>
       </c>
       <c r="D140" t="n">
-        <v>0.792453</v>
+        <v>0.788419</v>
       </c>
       <c r="E140" t="n">
-        <v>0.271569</v>
+        <v>0.270241</v>
       </c>
       <c r="F140" t="n">
-        <v>0.313133</v>
+        <v>0.323727</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.320937</v>
+        <v>0.347716</v>
       </c>
       <c r="C141" t="n">
-        <v>0.408267</v>
+        <v>0.406633</v>
       </c>
       <c r="D141" t="n">
-        <v>0.808295</v>
+        <v>0.8106680000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.276002</v>
+        <v>0.268334</v>
       </c>
       <c r="F141" t="n">
-        <v>0.330523</v>
+        <v>0.329523</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.355115</v>
+        <v>0.35535</v>
       </c>
       <c r="C142" t="n">
-        <v>0.415626</v>
+        <v>0.427503</v>
       </c>
       <c r="D142" t="n">
-        <v>0.831785</v>
+        <v>0.834187</v>
       </c>
       <c r="E142" t="n">
-        <v>0.272832</v>
+        <v>0.274118</v>
       </c>
       <c r="F142" t="n">
-        <v>0.321383</v>
+        <v>0.333461</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.370156</v>
+        <v>0.358712</v>
       </c>
       <c r="C143" t="n">
-        <v>0.416766</v>
+        <v>0.434735</v>
       </c>
       <c r="D143" t="n">
-        <v>0.862965</v>
+        <v>0.859027</v>
       </c>
       <c r="E143" t="n">
-        <v>0.274243</v>
+        <v>0.279229</v>
       </c>
       <c r="F143" t="n">
-        <v>0.342069</v>
+        <v>0.34016</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102299</v>
+        <v>0.102534</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105503</v>
+        <v>0.105385</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179894</v>
+        <v>0.17937</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0826611</v>
+        <v>0.08265690000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0824903</v>
+        <v>0.0825071</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110564</v>
+        <v>0.11069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113788</v>
+        <v>0.114041</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186455</v>
+        <v>0.186237</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0823923</v>
+        <v>0.08231769999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0809429</v>
+        <v>0.080882</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123853</v>
+        <v>0.124142</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126168</v>
+        <v>0.124157</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193396</v>
+        <v>0.194335</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0809333</v>
+        <v>0.0810125</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08200200000000001</v>
+        <v>0.0821543</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140407</v>
+        <v>0.140062</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149825</v>
+        <v>0.143854</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200884</v>
+        <v>0.201149</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0817259</v>
+        <v>0.0820457</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0821105</v>
+        <v>0.0822307</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166812</v>
+        <v>0.166962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167414</v>
+        <v>0.167249</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207562</v>
+        <v>0.208804</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0831443</v>
+        <v>0.083194</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0837803</v>
+        <v>0.0834597</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200352</v>
+        <v>0.20038</v>
       </c>
       <c r="C7" t="n">
-        <v>0.209801</v>
+        <v>0.201169</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155981</v>
+        <v>0.155471</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0876319</v>
+        <v>0.08809160000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08880730000000001</v>
+        <v>0.0883022</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248206</v>
+        <v>0.248083</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245478</v>
+        <v>0.245131</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163009</v>
+        <v>0.162054</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103445</v>
+        <v>0.103801</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104281</v>
+        <v>0.103941</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292617</v>
+        <v>0.292166</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294541</v>
+        <v>0.294529</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169428</v>
+        <v>0.169615</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0819928</v>
+        <v>0.08191329999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827281</v>
+        <v>0.0827695</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0946512</v>
+        <v>0.0941483</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09645910000000001</v>
+        <v>0.09527529999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17652</v>
+        <v>0.176268</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08217960000000001</v>
+        <v>0.08202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0828236</v>
+        <v>0.0824498</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09600939999999999</v>
+        <v>0.0954253</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987435</v>
+        <v>0.0963687</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184062</v>
+        <v>0.184274</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0823435</v>
+        <v>0.0824013</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0834527</v>
+        <v>0.08334809999999999</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.100974</v>
+        <v>0.09684909999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101583</v>
+        <v>0.09774910000000001</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191889</v>
+        <v>0.191725</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0824457</v>
+        <v>0.0823941</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08362550000000001</v>
+        <v>0.0836858</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0987553</v>
+        <v>0.0987855</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105479</v>
+        <v>0.101183</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198011</v>
+        <v>0.198944</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.08267389999999999</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0844641</v>
+        <v>0.0841783</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100799</v>
+        <v>0.101023</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10286</v>
+        <v>0.103665</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205703</v>
+        <v>0.205749</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0856809</v>
+        <v>0.0828786</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0837083</v>
+        <v>0.0839028</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105058</v>
+        <v>0.104907</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108087</v>
+        <v>0.107475</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213361</v>
+        <v>0.213075</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0834334</v>
+        <v>0.0834215</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0833627</v>
+        <v>0.0840487</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11245</v>
+        <v>0.111873</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115553</v>
+        <v>0.114499</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219066</v>
+        <v>0.218675</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0834037</v>
+        <v>0.08356479999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0837175</v>
+        <v>0.08339729999999999</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121977</v>
+        <v>0.121152</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127975</v>
+        <v>0.123849</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224743</v>
+        <v>0.225848</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0836688</v>
+        <v>0.08383400000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0861811</v>
+        <v>0.08409750000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133039</v>
+        <v>0.132998</v>
       </c>
       <c r="C18" t="n">
-        <v>0.134119</v>
+        <v>0.134829</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230211</v>
+        <v>0.229881</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08415499999999999</v>
+        <v>0.0839833</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0869181</v>
+        <v>0.084172</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.15018</v>
+        <v>0.150103</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161605</v>
+        <v>0.151413</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236751</v>
+        <v>0.237337</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0841356</v>
+        <v>0.08408740000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0883804</v>
+        <v>0.0853076</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170977</v>
+        <v>0.171375</v>
       </c>
       <c r="C20" t="n">
-        <v>0.172727</v>
+        <v>0.171421</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242117</v>
+        <v>0.243418</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0879009</v>
+        <v>0.0882926</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0914576</v>
+        <v>0.089504</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.203473</v>
+        <v>0.201002</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207519</v>
+        <v>0.205825</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177784</v>
+        <v>0.177837</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0961675</v>
+        <v>0.09630710000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0975488</v>
+        <v>0.09753000000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245347</v>
+        <v>0.240146</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244954</v>
+        <v>0.241241</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184843</v>
+        <v>0.185767</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110817</v>
+        <v>0.111529</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112655</v>
+        <v>0.112024</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289655</v>
+        <v>0.287282</v>
       </c>
       <c r="C23" t="n">
-        <v>0.294623</v>
+        <v>0.290775</v>
       </c>
       <c r="D23" t="n">
-        <v>0.191819</v>
+        <v>0.192377</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08349090000000001</v>
+        <v>0.08310049999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0843685</v>
+        <v>0.0838658</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100503</v>
+        <v>0.100418</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11171</v>
+        <v>0.102139</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198737</v>
+        <v>0.199187</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0833801</v>
+        <v>0.0832145</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08574270000000001</v>
+        <v>0.0842372</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103056</v>
+        <v>0.101793</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105452</v>
+        <v>0.103977</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206758</v>
+        <v>0.206989</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08363619999999999</v>
+        <v>0.08345470000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08596769999999999</v>
+        <v>0.08438809999999999</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103547</v>
+        <v>0.103419</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108772</v>
+        <v>0.105435</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213384</v>
+        <v>0.213263</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08370660000000001</v>
+        <v>0.0837096</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0874954</v>
+        <v>0.0850699</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.107542</v>
+        <v>0.105527</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109204</v>
+        <v>0.10782</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220596</v>
+        <v>0.220572</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0880775</v>
+        <v>0.08398129999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0891449</v>
+        <v>0.0855191</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109375</v>
+        <v>0.109183</v>
       </c>
       <c r="C28" t="n">
-        <v>0.115666</v>
+        <v>0.111713</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226237</v>
+        <v>0.226284</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084483</v>
+        <v>0.0844102</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0901576</v>
+        <v>0.08615100000000001</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115661</v>
+        <v>0.113309</v>
       </c>
       <c r="C29" t="n">
-        <v>0.120844</v>
+        <v>0.1231</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232637</v>
+        <v>0.232385</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0861107</v>
+        <v>0.0846146</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0878221</v>
+        <v>0.08657239999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119367</v>
+        <v>0.119364</v>
       </c>
       <c r="C30" t="n">
-        <v>0.12495</v>
+        <v>0.122443</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237178</v>
+        <v>0.23737</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0894717</v>
+        <v>0.0851864</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09448719999999999</v>
+        <v>0.0874822</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127108</v>
+        <v>0.126629</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129646</v>
+        <v>0.129175</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242379</v>
+        <v>0.24279</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0875963</v>
+        <v>0.08580989999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0890529</v>
+        <v>0.09073009999999999</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136842</v>
+        <v>0.136784</v>
       </c>
       <c r="C32" t="n">
-        <v>0.145006</v>
+        <v>0.142797</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248823</v>
+        <v>0.249258</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0884515</v>
+        <v>0.0868273</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09402770000000001</v>
+        <v>0.0943763</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150786</v>
+        <v>0.151927</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152953</v>
+        <v>0.153431</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254324</v>
+        <v>0.254761</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09147130000000001</v>
+        <v>0.0903973</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0928219</v>
+        <v>0.0929025</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169858</v>
+        <v>0.170158</v>
       </c>
       <c r="C34" t="n">
-        <v>0.172403</v>
+        <v>0.178205</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259805</v>
+        <v>0.260287</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0952982</v>
+        <v>0.0951063</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10071</v>
+        <v>0.0981551</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193761</v>
+        <v>0.193767</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195356</v>
+        <v>0.199699</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190527</v>
+        <v>0.190697</v>
       </c>
       <c r="E35" t="n">
-        <v>0.104368</v>
+        <v>0.10366</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107524</v>
+        <v>0.106626</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23307</v>
+        <v>0.23255</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232938</v>
+        <v>0.240464</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197287</v>
+        <v>0.198187</v>
       </c>
       <c r="E36" t="n">
-        <v>0.121358</v>
+        <v>0.114683</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1174</v>
+        <v>0.124415</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.277672</v>
+        <v>0.279102</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280784</v>
+        <v>0.282755</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204488</v>
+        <v>0.204461</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0842186</v>
+        <v>0.0840559</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0866625</v>
+        <v>0.0868268</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104881</v>
+        <v>0.103071</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107105</v>
+        <v>0.109864</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211345</v>
+        <v>0.211694</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0887449</v>
+        <v>0.08522100000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08835369999999999</v>
+        <v>0.0876533</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107695</v>
+        <v>0.106467</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10764</v>
+        <v>0.108483</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217851</v>
+        <v>0.217934</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08600190000000001</v>
+        <v>0.08456809999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0883853</v>
+        <v>0.08768670000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107706</v>
+        <v>0.107301</v>
       </c>
       <c r="C40" t="n">
-        <v>0.111766</v>
+        <v>0.110473</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224917</v>
+        <v>0.225522</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0893958</v>
+        <v>0.08490739999999999</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0886623</v>
+        <v>0.0881015</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109209</v>
+        <v>0.108321</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121704</v>
+        <v>0.111534</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231036</v>
+        <v>0.231752</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0898008</v>
+        <v>0.08608490000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0890923</v>
+        <v>0.0887019</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113117</v>
+        <v>0.111862</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117542</v>
+        <v>0.115176</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238093</v>
+        <v>0.237926</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0869515</v>
+        <v>0.0857203</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0905918</v>
+        <v>0.0892698</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116659</v>
+        <v>0.123951</v>
       </c>
       <c r="C43" t="n">
-        <v>0.119593</v>
+        <v>0.120901</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243824</v>
+        <v>0.243775</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08632910000000001</v>
+        <v>0.0871758</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0904025</v>
+        <v>0.0897932</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12578</v>
+        <v>0.122348</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127679</v>
+        <v>0.12637</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250125</v>
+        <v>0.249884</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0881547</v>
+        <v>0.08672729999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09075999999999999</v>
+        <v>0.0907482</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.136132</v>
+        <v>0.1289</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133033</v>
+        <v>0.131792</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255562</v>
+        <v>0.25586</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0883128</v>
+        <v>0.0877004</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0919432</v>
+        <v>0.09193270000000001</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138138</v>
+        <v>0.141825</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143014</v>
+        <v>0.14119</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260846</v>
+        <v>0.26114</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0894259</v>
+        <v>0.0894717</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09363970000000001</v>
+        <v>0.0936066</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150149</v>
+        <v>0.149932</v>
       </c>
       <c r="C47" t="n">
-        <v>0.154379</v>
+        <v>0.153147</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266185</v>
+        <v>0.266374</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0922502</v>
+        <v>0.09263879999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09747160000000001</v>
+        <v>0.09764009999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167762</v>
+        <v>0.167357</v>
       </c>
       <c r="C48" t="n">
-        <v>0.175553</v>
+        <v>0.17335</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272097</v>
+        <v>0.272239</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0964685</v>
+        <v>0.0961839</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100177</v>
+        <v>0.100239</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190233</v>
+        <v>0.189971</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193977</v>
+        <v>0.193853</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278027</v>
+        <v>0.278074</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102152</v>
+        <v>0.101978</v>
       </c>
       <c r="F49" t="n">
-        <v>0.113274</v>
+        <v>0.105879</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224564</v>
+        <v>0.224501</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226567</v>
+        <v>0.237887</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198275</v>
+        <v>0.198455</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11196</v>
+        <v>0.112591</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116285</v>
+        <v>0.11576</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268868</v>
+        <v>0.269872</v>
       </c>
       <c r="C51" t="n">
-        <v>0.273698</v>
+        <v>0.272098</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204881</v>
+        <v>0.20511</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0874028</v>
+        <v>0.0925387</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0904712</v>
+        <v>0.0950829</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.334694</v>
+        <v>0.334313</v>
       </c>
       <c r="C52" t="n">
-        <v>0.331476</v>
+        <v>0.342689</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211226</v>
+        <v>0.211132</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0879407</v>
+        <v>0.0878361</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08994729999999999</v>
+        <v>0.0981047</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.120928</v>
+        <v>0.111008</v>
       </c>
       <c r="C53" t="n">
-        <v>0.112075</v>
+        <v>0.111727</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217859</v>
+        <v>0.217963</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0875317</v>
+        <v>0.08821130000000001</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0906457</v>
+        <v>0.0938876</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110545</v>
+        <v>0.11075</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115073</v>
+        <v>0.114398</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224524</v>
+        <v>0.224515</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0869968</v>
+        <v>0.0867404</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09080149999999999</v>
+        <v>0.0975661</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.120775</v>
+        <v>0.123299</v>
       </c>
       <c r="C55" t="n">
-        <v>0.12344</v>
+        <v>0.116238</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230548</v>
+        <v>0.230849</v>
       </c>
       <c r="E55" t="n">
-        <v>0.087614</v>
+        <v>0.0882624</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0957399</v>
+        <v>0.0919978</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115978</v>
+        <v>0.11553</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119878</v>
+        <v>0.130066</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236592</v>
+        <v>0.23689</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0884578</v>
+        <v>0.100359</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0954356</v>
+        <v>0.0963367</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1208</v>
+        <v>0.118653</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133534</v>
+        <v>0.1295</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24206</v>
+        <v>0.242064</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0898557</v>
+        <v>0.0934547</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09431929999999999</v>
+        <v>0.0969893</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.132959</v>
+        <v>0.127876</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136849</v>
+        <v>0.138531</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247361</v>
+        <v>0.247511</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0937727</v>
+        <v>0.08910270000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09514830000000001</v>
+        <v>0.0946833</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131247</v>
+        <v>0.130706</v>
       </c>
       <c r="C59" t="n">
-        <v>0.139123</v>
+        <v>0.137967</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252799</v>
+        <v>0.253029</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09057320000000001</v>
+        <v>0.09041390000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0964696</v>
+        <v>0.09581199999999999</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139317</v>
+        <v>0.138689</v>
       </c>
       <c r="C60" t="n">
-        <v>0.146517</v>
+        <v>0.144673</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257889</v>
+        <v>0.257834</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0922795</v>
+        <v>0.0953247</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09765310000000001</v>
+        <v>0.107011</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149794</v>
+        <v>0.149158</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156423</v>
+        <v>0.169465</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262687</v>
+        <v>0.26288</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09612179999999999</v>
+        <v>0.0957382</v>
       </c>
       <c r="F61" t="n">
-        <v>0.104949</v>
+        <v>0.103907</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.163889</v>
+        <v>0.176716</v>
       </c>
       <c r="C62" t="n">
-        <v>0.173058</v>
+        <v>0.168978</v>
       </c>
       <c r="D62" t="n">
-        <v>0.268869</v>
+        <v>0.269361</v>
       </c>
       <c r="E62" t="n">
-        <v>0.106123</v>
+        <v>0.09932149999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.108027</v>
+        <v>0.103339</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185329</v>
+        <v>0.199916</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194791</v>
+        <v>0.198672</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274643</v>
+        <v>0.275324</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10267</v>
+        <v>0.110107</v>
       </c>
       <c r="F63" t="n">
-        <v>0.11378</v>
+        <v>0.109414</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217355</v>
+        <v>0.216557</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22562</v>
+        <v>0.227078</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200925</v>
+        <v>0.200793</v>
       </c>
       <c r="E64" t="n">
-        <v>0.119438</v>
+        <v>0.111044</v>
       </c>
       <c r="F64" t="n">
-        <v>0.118221</v>
+        <v>0.11764</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271217</v>
+        <v>0.258599</v>
       </c>
       <c r="C65" t="n">
-        <v>0.273725</v>
+        <v>0.26947</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2077</v>
+        <v>0.207634</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127073</v>
+        <v>0.136969</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132606</v>
+        <v>0.132552</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.310465</v>
+        <v>0.328054</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321295</v>
+        <v>0.322848</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216183</v>
+        <v>0.21502</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0931049</v>
+        <v>0.0930367</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10937</v>
+        <v>0.09779649999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130765</v>
+        <v>0.121842</v>
       </c>
       <c r="C67" t="n">
-        <v>0.12838</v>
+        <v>0.134245</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226134</v>
+        <v>0.224788</v>
       </c>
       <c r="E67" t="n">
-        <v>0.104325</v>
+        <v>0.0935275</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0975816</v>
+        <v>0.103164</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.13186</v>
+        <v>0.132663</v>
       </c>
       <c r="C68" t="n">
-        <v>0.136397</v>
+        <v>0.131234</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233653</v>
+        <v>0.233525</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0940457</v>
+        <v>0.098675</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103667</v>
+        <v>0.103706</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125406</v>
+        <v>0.134932</v>
       </c>
       <c r="C69" t="n">
-        <v>0.137648</v>
+        <v>0.130024</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241037</v>
+        <v>0.239971</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0995211</v>
+        <v>0.106959</v>
       </c>
       <c r="F69" t="n">
-        <v>0.111257</v>
+        <v>0.104233</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128547</v>
+        <v>0.126921</v>
       </c>
       <c r="C70" t="n">
-        <v>0.136115</v>
+        <v>0.13468</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250725</v>
+        <v>0.249817</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100059</v>
+        <v>0.09664830000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101945</v>
+        <v>0.104461</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131445</v>
+        <v>0.141826</v>
       </c>
       <c r="C71" t="n">
-        <v>0.13862</v>
+        <v>0.139277</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260889</v>
+        <v>0.259595</v>
       </c>
       <c r="E71" t="n">
-        <v>0.097218</v>
+        <v>0.100661</v>
       </c>
       <c r="F71" t="n">
-        <v>0.106592</v>
+        <v>0.102364</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146887</v>
+        <v>0.137438</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153486</v>
+        <v>0.151769</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272348</v>
+        <v>0.270696</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0967867</v>
+        <v>0.10459</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108177</v>
+        <v>0.103809</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.145106</v>
+        <v>0.151836</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159009</v>
+        <v>0.150829</v>
       </c>
       <c r="D73" t="n">
-        <v>0.28187</v>
+        <v>0.28201</v>
       </c>
       <c r="E73" t="n">
-        <v>0.107779</v>
+        <v>0.102647</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104765</v>
+        <v>0.10523</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161142</v>
+        <v>0.150231</v>
       </c>
       <c r="C74" t="n">
-        <v>0.160189</v>
+        <v>0.16905</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296082</v>
+        <v>0.292776</v>
       </c>
       <c r="E74" t="n">
-        <v>0.107308</v>
+        <v>0.104596</v>
       </c>
       <c r="F74" t="n">
-        <v>0.10639</v>
+        <v>0.111732</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162091</v>
+        <v>0.16461</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178737</v>
+        <v>0.171728</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310382</v>
+        <v>0.307472</v>
       </c>
       <c r="E75" t="n">
-        <v>0.105411</v>
+        <v>0.108978</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116559</v>
+        <v>0.116356</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175258</v>
+        <v>0.187282</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189146</v>
+        <v>0.188987</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326351</v>
+        <v>0.323227</v>
       </c>
       <c r="E76" t="n">
-        <v>0.118718</v>
+        <v>0.110261</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11908</v>
+        <v>0.115955</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19492</v>
+        <v>0.19495</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204968</v>
+        <v>0.206446</v>
       </c>
       <c r="D77" t="n">
-        <v>0.341803</v>
+        <v>0.338826</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109662</v>
+        <v>0.119759</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12534</v>
+        <v>0.118912</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22914</v>
+        <v>0.231013</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237238</v>
+        <v>0.249771</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266567</v>
+        <v>0.265138</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125632</v>
+        <v>0.125004</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127963</v>
+        <v>0.141452</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27374</v>
+        <v>0.268042</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27872</v>
+        <v>0.293503</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282873</v>
+        <v>0.281133</v>
       </c>
       <c r="E79" t="n">
-        <v>0.138257</v>
+        <v>0.13168</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148005</v>
+        <v>0.141823</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.32653</v>
+        <v>0.320892</v>
       </c>
       <c r="C80" t="n">
-        <v>0.356212</v>
+        <v>0.33961</v>
       </c>
       <c r="D80" t="n">
-        <v>0.298937</v>
+        <v>0.299022</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105869</v>
+        <v>0.104727</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067</v>
+        <v>0.107565</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.143648</v>
+        <v>0.135129</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141756</v>
+        <v>0.141402</v>
       </c>
       <c r="D81" t="n">
-        <v>0.319403</v>
+        <v>0.318383</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107762</v>
+        <v>0.10621</v>
       </c>
       <c r="F81" t="n">
-        <v>0.106891</v>
+        <v>0.113639</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146224</v>
+        <v>0.137267</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14374</v>
+        <v>0.14598</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339857</v>
+        <v>0.339027</v>
       </c>
       <c r="E82" t="n">
-        <v>0.104754</v>
+        <v>0.10517</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107997</v>
+        <v>0.114345</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148878</v>
+        <v>0.147912</v>
       </c>
       <c r="C83" t="n">
-        <v>0.149369</v>
+        <v>0.145986</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361283</v>
+        <v>0.360202</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101981</v>
+        <v>0.108973</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115475</v>
+        <v>0.115483</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14117</v>
+        <v>0.148856</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149797</v>
+        <v>0.149793</v>
       </c>
       <c r="D84" t="n">
-        <v>0.381626</v>
+        <v>0.381606</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107481</v>
+        <v>0.102799</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109967</v>
+        <v>0.110265</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145113</v>
+        <v>0.155033</v>
       </c>
       <c r="C85" t="n">
-        <v>0.162555</v>
+        <v>0.155124</v>
       </c>
       <c r="D85" t="n">
-        <v>0.404512</v>
+        <v>0.403468</v>
       </c>
       <c r="E85" t="n">
-        <v>0.110373</v>
+        <v>0.103538</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114278</v>
+        <v>0.111605</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.149525</v>
+        <v>0.158011</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168694</v>
+        <v>0.168572</v>
       </c>
       <c r="D86" t="n">
-        <v>0.427241</v>
+        <v>0.42523</v>
       </c>
       <c r="E86" t="n">
-        <v>0.111475</v>
+        <v>0.10777</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113188</v>
+        <v>0.113085</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.162563</v>
+        <v>0.160819</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177016</v>
+        <v>0.172198</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450663</v>
+        <v>0.448552</v>
       </c>
       <c r="E87" t="n">
-        <v>0.105384</v>
+        <v>0.105223</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115667</v>
+        <v>0.12138</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17445</v>
+        <v>0.16671</v>
       </c>
       <c r="C88" t="n">
-        <v>0.177916</v>
+        <v>0.178431</v>
       </c>
       <c r="D88" t="n">
-        <v>0.473721</v>
+        <v>0.472365</v>
       </c>
       <c r="E88" t="n">
-        <v>0.10741</v>
+        <v>0.113252</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125676</v>
+        <v>0.117876</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.174759</v>
+        <v>0.184183</v>
       </c>
       <c r="C89" t="n">
-        <v>0.201739</v>
+        <v>0.203338</v>
       </c>
       <c r="D89" t="n">
-        <v>0.499156</v>
+        <v>0.497621</v>
       </c>
       <c r="E89" t="n">
-        <v>0.116946</v>
+        <v>0.109038</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122577</v>
+        <v>0.121767</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197575</v>
+        <v>0.197465</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220158</v>
+        <v>0.212213</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525479</v>
+        <v>0.523686</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113347</v>
+        <v>0.115437</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128962</v>
+        <v>0.131496</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.218572</v>
+        <v>0.208619</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233891</v>
+        <v>0.235035</v>
       </c>
       <c r="D91" t="n">
-        <v>0.552256</v>
+        <v>0.551199</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11848</v>
+        <v>0.11796</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143834</v>
+        <v>0.13744</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242226</v>
+        <v>0.23595</v>
       </c>
       <c r="C92" t="n">
-        <v>0.277437</v>
+        <v>0.28332</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412733</v>
+        <v>0.412347</v>
       </c>
       <c r="E92" t="n">
-        <v>0.12702</v>
+        <v>0.125611</v>
       </c>
       <c r="F92" t="n">
-        <v>0.156345</v>
+        <v>0.155368</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.280186</v>
+        <v>0.290035</v>
       </c>
       <c r="C93" t="n">
-        <v>0.357217</v>
+        <v>0.332775</v>
       </c>
       <c r="D93" t="n">
-        <v>0.431583</v>
+        <v>0.430528</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14693</v>
+        <v>0.139263</v>
       </c>
       <c r="F93" t="n">
-        <v>0.16995</v>
+        <v>0.169942</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.344429</v>
+        <v>0.34432</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41231</v>
+        <v>0.421299</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450849</v>
+        <v>0.449334</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106868</v>
+        <v>0.106129</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12011</v>
+        <v>0.119895</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.145182</v>
+        <v>0.154728</v>
       </c>
       <c r="C95" t="n">
-        <v>0.161074</v>
+        <v>0.170666</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469897</v>
+        <v>0.468673</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108381</v>
+        <v>0.113104</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123513</v>
+        <v>0.123357</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153077</v>
+        <v>0.157032</v>
       </c>
       <c r="C96" t="n">
-        <v>0.170288</v>
+        <v>0.16599</v>
       </c>
       <c r="D96" t="n">
-        <v>0.492284</v>
+        <v>0.488735</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115109</v>
+        <v>0.108639</v>
       </c>
       <c r="F96" t="n">
-        <v>0.129938</v>
+        <v>0.127827</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153236</v>
+        <v>0.160424</v>
       </c>
       <c r="C97" t="n">
-        <v>0.173335</v>
+        <v>0.182572</v>
       </c>
       <c r="D97" t="n">
-        <v>0.512189</v>
+        <v>0.509559</v>
       </c>
       <c r="E97" t="n">
-        <v>0.114664</v>
+        <v>0.112325</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135649</v>
+        <v>0.132526</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.155348</v>
+        <v>0.164833</v>
       </c>
       <c r="C98" t="n">
-        <v>0.192632</v>
+        <v>0.18093</v>
       </c>
       <c r="D98" t="n">
-        <v>0.531796</v>
+        <v>0.532213</v>
       </c>
       <c r="E98" t="n">
-        <v>0.118953</v>
+        <v>0.112516</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138072</v>
+        <v>0.138131</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.16961</v>
+        <v>0.159816</v>
       </c>
       <c r="C99" t="n">
-        <v>0.191052</v>
+        <v>0.201372</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553366</v>
+        <v>0.55374</v>
       </c>
       <c r="E99" t="n">
-        <v>0.115594</v>
+        <v>0.120467</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147575</v>
+        <v>0.146829</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167593</v>
+        <v>0.174688</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208322</v>
+        <v>0.20305</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576799</v>
+        <v>0.575329</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118399</v>
+        <v>0.124551</v>
       </c>
       <c r="F100" t="n">
-        <v>0.15056</v>
+        <v>0.154434</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.185524</v>
+        <v>0.1863</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223648</v>
+        <v>0.215271</v>
       </c>
       <c r="D101" t="n">
-        <v>0.600619</v>
+        <v>0.600938</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122541</v>
+        <v>0.122356</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157396</v>
+        <v>0.157641</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196072</v>
+        <v>0.186929</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232886</v>
+        <v>0.229795</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6277700000000001</v>
+        <v>0.625224</v>
       </c>
       <c r="E102" t="n">
-        <v>0.131045</v>
+        <v>0.126633</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164278</v>
+        <v>0.164786</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202971</v>
+        <v>0.212785</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258763</v>
+        <v>0.248822</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653913</v>
+        <v>0.652488</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131856</v>
+        <v>0.132224</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172877</v>
+        <v>0.173125</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218853</v>
+        <v>0.219144</v>
       </c>
       <c r="C104" t="n">
-        <v>0.28017</v>
+        <v>0.283428</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680511</v>
+        <v>0.680777</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138038</v>
+        <v>0.138242</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181794</v>
+        <v>0.181813</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243152</v>
+        <v>0.244331</v>
       </c>
       <c r="C105" t="n">
-        <v>0.307575</v>
+        <v>0.307275</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71376</v>
+        <v>0.712924</v>
       </c>
       <c r="E105" t="n">
-        <v>0.149419</v>
+        <v>0.146643</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192323</v>
+        <v>0.192144</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277518</v>
+        <v>0.285126</v>
       </c>
       <c r="C106" t="n">
-        <v>0.336866</v>
+        <v>0.337336</v>
       </c>
       <c r="D106" t="n">
-        <v>0.744909</v>
+        <v>0.742753</v>
       </c>
       <c r="E106" t="n">
-        <v>0.16156</v>
+        <v>0.157701</v>
       </c>
       <c r="F106" t="n">
-        <v>0.20557</v>
+        <v>0.205561</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317812</v>
+        <v>0.327763</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403143</v>
+        <v>0.392209</v>
       </c>
       <c r="D107" t="n">
-        <v>0.581893</v>
+        <v>0.5828449999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.179837</v>
+        <v>0.173372</v>
       </c>
       <c r="F107" t="n">
-        <v>0.225221</v>
+        <v>0.231659</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.385367</v>
+        <v>0.382293</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474288</v>
+        <v>0.470116</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602503</v>
+        <v>0.6023230000000001</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127101</v>
+        <v>0.127656</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159177</v>
+        <v>0.159504</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480512</v>
+        <v>0.482858</v>
       </c>
       <c r="C109" t="n">
-        <v>0.591257</v>
+        <v>0.591199</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623573</v>
+        <v>0.622692</v>
       </c>
       <c r="E109" t="n">
-        <v>0.129482</v>
+        <v>0.131644</v>
       </c>
       <c r="F109" t="n">
-        <v>0.166012</v>
+        <v>0.163123</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.170775</v>
+        <v>0.177841</v>
       </c>
       <c r="C110" t="n">
-        <v>0.217372</v>
+        <v>0.216268</v>
       </c>
       <c r="D110" t="n">
-        <v>0.645783</v>
+        <v>0.644817</v>
       </c>
       <c r="E110" t="n">
-        <v>0.135248</v>
+        <v>0.132529</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1667</v>
+        <v>0.170584</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175052</v>
+        <v>0.175107</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212532</v>
+        <v>0.212312</v>
       </c>
       <c r="D111" t="n">
-        <v>0.668441</v>
+        <v>0.667807</v>
       </c>
       <c r="E111" t="n">
-        <v>0.141053</v>
+        <v>0.135089</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170497</v>
+        <v>0.172495</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179714</v>
+        <v>0.181072</v>
       </c>
       <c r="C112" t="n">
-        <v>0.221723</v>
+        <v>0.229666</v>
       </c>
       <c r="D112" t="n">
-        <v>0.691638</v>
+        <v>0.691428</v>
       </c>
       <c r="E112" t="n">
-        <v>0.137009</v>
+        <v>0.143718</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174245</v>
+        <v>0.174281</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.186246</v>
+        <v>0.185902</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226366</v>
+        <v>0.235566</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716625</v>
+        <v>0.716299</v>
       </c>
       <c r="E113" t="n">
-        <v>0.139959</v>
+        <v>0.140055</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178304</v>
+        <v>0.182557</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.20272</v>
+        <v>0.202286</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246478</v>
+        <v>0.235285</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742117</v>
+        <v>0.742743</v>
       </c>
       <c r="E114" t="n">
-        <v>0.142504</v>
+        <v>0.142776</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182744</v>
+        <v>0.182919</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199909</v>
+        <v>0.200415</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246073</v>
+        <v>0.252523</v>
       </c>
       <c r="D115" t="n">
-        <v>0.768271</v>
+        <v>0.769113</v>
       </c>
       <c r="E115" t="n">
-        <v>0.145633</v>
+        <v>0.145765</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187567</v>
+        <v>0.187677</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22054</v>
+        <v>0.209631</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259559</v>
+        <v>0.267317</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795025</v>
+        <v>0.795197</v>
       </c>
       <c r="E116" t="n">
-        <v>0.148844</v>
+        <v>0.148767</v>
       </c>
       <c r="F116" t="n">
-        <v>0.197611</v>
+        <v>0.192901</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232134</v>
+        <v>0.224778</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286268</v>
+        <v>0.275832</v>
       </c>
       <c r="D117" t="n">
-        <v>0.824638</v>
+        <v>0.823495</v>
       </c>
       <c r="E117" t="n">
-        <v>0.152845</v>
+        <v>0.153792</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199315</v>
+        <v>0.199435</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2378</v>
+        <v>0.247248</v>
       </c>
       <c r="C118" t="n">
-        <v>0.297698</v>
+        <v>0.300771</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852299</v>
+        <v>0.851963</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15773</v>
+        <v>0.157937</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207083</v>
+        <v>0.206912</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259649</v>
+        <v>0.262828</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325009</v>
+        <v>0.328178</v>
       </c>
       <c r="D119" t="n">
-        <v>0.883943</v>
+        <v>0.883259</v>
       </c>
       <c r="E119" t="n">
-        <v>0.171009</v>
+        <v>0.16471</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216294</v>
+        <v>0.216512</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288596</v>
+        <v>0.299882</v>
       </c>
       <c r="C120" t="n">
-        <v>0.376008</v>
+        <v>0.378737</v>
       </c>
       <c r="D120" t="n">
-        <v>0.915811</v>
+        <v>0.915956</v>
       </c>
       <c r="E120" t="n">
-        <v>0.173419</v>
+        <v>0.174018</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229626</v>
+        <v>0.235286</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333168</v>
+        <v>0.334295</v>
       </c>
       <c r="C121" t="n">
-        <v>0.418735</v>
+        <v>0.420262</v>
       </c>
       <c r="D121" t="n">
-        <v>0.666343</v>
+        <v>0.667786</v>
       </c>
       <c r="E121" t="n">
-        <v>0.191729</v>
+        <v>0.187674</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249269</v>
+        <v>0.249621</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.405557</v>
+        <v>0.396001</v>
       </c>
       <c r="C122" t="n">
-        <v>0.502499</v>
+        <v>0.502207</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68623</v>
+        <v>0.6875289999999999</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210653</v>
+        <v>0.216628</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281049</v>
+        <v>0.281344</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492533</v>
+        <v>0.505314</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6286040000000001</v>
+        <v>0.632207</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7073469999999999</v>
+        <v>0.708773</v>
       </c>
       <c r="E123" t="n">
-        <v>0.143939</v>
+        <v>0.148984</v>
       </c>
       <c r="F123" t="n">
-        <v>0.186195</v>
+        <v>0.184524</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20082</v>
+        <v>0.191183</v>
       </c>
       <c r="C124" t="n">
-        <v>0.238964</v>
+        <v>0.238936</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.730639</v>
       </c>
       <c r="E124" t="n">
-        <v>0.15359</v>
+        <v>0.153482</v>
       </c>
       <c r="F124" t="n">
-        <v>0.185526</v>
+        <v>0.1883</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.192192</v>
+        <v>0.197997</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246171</v>
+        <v>0.242095</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7528359999999999</v>
+        <v>0.753368</v>
       </c>
       <c r="E125" t="n">
-        <v>0.147808</v>
+        <v>0.149349</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190763</v>
+        <v>0.192781</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.206337</v>
+        <v>0.207519</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243478</v>
+        <v>0.244673</v>
       </c>
       <c r="D126" t="n">
-        <v>0.775919</v>
+        <v>0.777512</v>
       </c>
       <c r="E126" t="n">
-        <v>0.157702</v>
+        <v>0.150539</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194295</v>
+        <v>0.194224</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201521</v>
+        <v>0.210447</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249792</v>
+        <v>0.251161</v>
       </c>
       <c r="D127" t="n">
-        <v>0.800156</v>
+        <v>0.802168</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154783</v>
+        <v>0.153426</v>
       </c>
       <c r="F127" t="n">
-        <v>0.199039</v>
+        <v>0.20079</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21373</v>
+        <v>0.213142</v>
       </c>
       <c r="C128" t="n">
-        <v>0.271526</v>
+        <v>0.271804</v>
       </c>
       <c r="D128" t="n">
-        <v>0.826344</v>
+        <v>0.828219</v>
       </c>
       <c r="E128" t="n">
-        <v>0.159524</v>
+        <v>0.157073</v>
       </c>
       <c r="F128" t="n">
-        <v>0.212529</v>
+        <v>0.204623</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217014</v>
+        <v>0.213601</v>
       </c>
       <c r="C129" t="n">
-        <v>0.280501</v>
+        <v>0.281736</v>
       </c>
       <c r="D129" t="n">
-        <v>0.853481</v>
+        <v>0.85548</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163251</v>
+        <v>0.159114</v>
       </c>
       <c r="F129" t="n">
-        <v>0.209722</v>
+        <v>0.208744</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.236461</v>
+        <v>0.230356</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300318</v>
+        <v>0.297067</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8821020000000001</v>
+        <v>0.883477</v>
       </c>
       <c r="E130" t="n">
-        <v>0.16384</v>
+        <v>0.164354</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215224</v>
+        <v>0.22105</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240487</v>
+        <v>0.24814</v>
       </c>
       <c r="C131" t="n">
-        <v>0.313006</v>
+        <v>0.302183</v>
       </c>
       <c r="D131" t="n">
-        <v>0.911572</v>
+        <v>0.913046</v>
       </c>
       <c r="E131" t="n">
-        <v>0.16536</v>
+        <v>0.165562</v>
       </c>
       <c r="F131" t="n">
-        <v>0.221508</v>
+        <v>0.222815</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.253786</v>
+        <v>0.252344</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333909</v>
+        <v>0.33494</v>
       </c>
       <c r="D132" t="n">
-        <v>0.941553</v>
+        <v>0.944245</v>
       </c>
       <c r="E132" t="n">
-        <v>0.172207</v>
+        <v>0.178059</v>
       </c>
       <c r="F132" t="n">
-        <v>0.230421</v>
+        <v>0.23275</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276986</v>
+        <v>0.281989</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355722</v>
+        <v>0.358574</v>
       </c>
       <c r="D133" t="n">
-        <v>0.974621</v>
+        <v>0.9760450000000001</v>
       </c>
       <c r="E133" t="n">
-        <v>0.17961</v>
+        <v>0.17587</v>
       </c>
       <c r="F133" t="n">
-        <v>0.242344</v>
+        <v>0.239536</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.303162</v>
+        <v>0.308714</v>
       </c>
       <c r="C134" t="n">
-        <v>0.400576</v>
+        <v>0.399554</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00818</v>
+        <v>1.00987</v>
       </c>
       <c r="E134" t="n">
-        <v>0.196963</v>
+        <v>0.192027</v>
       </c>
       <c r="F134" t="n">
-        <v>0.253315</v>
+        <v>0.256121</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.352737</v>
+        <v>0.346728</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453079</v>
+        <v>0.458609</v>
       </c>
       <c r="D135" t="n">
-        <v>0.689411</v>
+        <v>0.690357</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200569</v>
+        <v>0.203214</v>
       </c>
       <c r="F135" t="n">
-        <v>0.276764</v>
+        <v>0.27341</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.407639</v>
+        <v>0.408823</v>
       </c>
       <c r="C136" t="n">
-        <v>0.53596</v>
+        <v>0.550509</v>
       </c>
       <c r="D136" t="n">
-        <v>0.707985</v>
+        <v>0.708871</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220418</v>
+        <v>0.220992</v>
       </c>
       <c r="F136" t="n">
-        <v>0.307876</v>
+        <v>0.307916</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509264</v>
+        <v>0.501207</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662875</v>
+        <v>0.666005</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727162</v>
+        <v>0.727781</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26336</v>
+        <v>0.261983</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305964</v>
+        <v>0.306101</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.338529</v>
+        <v>0.334224</v>
       </c>
       <c r="C138" t="n">
-        <v>0.378836</v>
+        <v>0.38471</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7464769999999999</v>
+        <v>0.7478669999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261065</v>
+        <v>0.268733</v>
       </c>
       <c r="F138" t="n">
-        <v>0.313658</v>
+        <v>0.315583</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334485</v>
+        <v>0.332487</v>
       </c>
       <c r="C139" t="n">
-        <v>0.389453</v>
+        <v>0.3978</v>
       </c>
       <c r="D139" t="n">
-        <v>0.767076</v>
+        <v>0.768509</v>
       </c>
       <c r="E139" t="n">
-        <v>0.269825</v>
+        <v>0.270998</v>
       </c>
       <c r="F139" t="n">
-        <v>0.318651</v>
+        <v>0.321437</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33927</v>
+        <v>0.341871</v>
       </c>
       <c r="C140" t="n">
-        <v>0.397263</v>
+        <v>0.394678</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788419</v>
+        <v>0.78955</v>
       </c>
       <c r="E140" t="n">
-        <v>0.270241</v>
+        <v>0.271738</v>
       </c>
       <c r="F140" t="n">
-        <v>0.323727</v>
+        <v>0.325976</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347716</v>
+        <v>0.348062</v>
       </c>
       <c r="C141" t="n">
-        <v>0.406633</v>
+        <v>0.415038</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8106680000000001</v>
+        <v>0.8119420000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.268334</v>
+        <v>0.270259</v>
       </c>
       <c r="F141" t="n">
-        <v>0.329523</v>
+        <v>0.327583</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35535</v>
+        <v>0.349957</v>
       </c>
       <c r="C142" t="n">
-        <v>0.427503</v>
+        <v>0.418335</v>
       </c>
       <c r="D142" t="n">
-        <v>0.834187</v>
+        <v>0.835354</v>
       </c>
       <c r="E142" t="n">
-        <v>0.274118</v>
+        <v>0.274514</v>
       </c>
       <c r="F142" t="n">
-        <v>0.333461</v>
+        <v>0.333108</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.358712</v>
+        <v>0.36322</v>
       </c>
       <c r="C143" t="n">
-        <v>0.434735</v>
+        <v>0.427554</v>
       </c>
       <c r="D143" t="n">
-        <v>0.859027</v>
+        <v>0.860083</v>
       </c>
       <c r="E143" t="n">
-        <v>0.279229</v>
+        <v>0.28181</v>
       </c>
       <c r="F143" t="n">
-        <v>0.34016</v>
+        <v>0.342759</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102534</v>
+        <v>0.102461</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105385</v>
+        <v>0.105369</v>
       </c>
       <c r="D2" t="n">
-        <v>0.17937</v>
+        <v>0.18075</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08265690000000001</v>
+        <v>0.0827156</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0825071</v>
+        <v>0.0825853</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.11069</v>
+        <v>0.110115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.114041</v>
+        <v>0.113919</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186237</v>
+        <v>0.186671</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08231769999999999</v>
+        <v>0.0826243</v>
       </c>
       <c r="F3" t="n">
-        <v>0.080882</v>
+        <v>0.08090070000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124142</v>
+        <v>0.123973</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124157</v>
+        <v>0.124325</v>
       </c>
       <c r="D4" t="n">
-        <v>0.194335</v>
+        <v>0.19389</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0810125</v>
+        <v>0.0808932</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0821543</v>
+        <v>0.0825321</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140062</v>
+        <v>0.140236</v>
       </c>
       <c r="C5" t="n">
-        <v>0.143854</v>
+        <v>0.144622</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201149</v>
+        <v>0.200545</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0820457</v>
+        <v>0.0819295</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0822307</v>
+        <v>0.0821867</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166962</v>
+        <v>0.166941</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167249</v>
+        <v>0.167465</v>
       </c>
       <c r="D6" t="n">
-        <v>0.208804</v>
+        <v>0.207634</v>
       </c>
       <c r="E6" t="n">
-        <v>0.083194</v>
+        <v>0.08310670000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0834597</v>
+        <v>0.0838322</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20038</v>
+        <v>0.200168</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201169</v>
+        <v>0.201534</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155471</v>
+        <v>0.155356</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08809160000000001</v>
+        <v>0.08812440000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0883022</v>
+        <v>0.0884658</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248083</v>
+        <v>0.24794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245131</v>
+        <v>0.245072</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162054</v>
+        <v>0.162425</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103801</v>
+        <v>0.102965</v>
       </c>
       <c r="F8" t="n">
-        <v>0.103941</v>
+        <v>0.104052</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292166</v>
+        <v>0.292478</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294529</v>
+        <v>0.294669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169615</v>
+        <v>0.169469</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08191329999999999</v>
+        <v>0.081954</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827695</v>
+        <v>0.0820906</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0941483</v>
+        <v>0.09408</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09527529999999999</v>
+        <v>0.0959769</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176268</v>
+        <v>0.176421</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08202</v>
+        <v>0.0821281</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0824498</v>
+        <v>0.0821678</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0954253</v>
+        <v>0.0954636</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0963687</v>
+        <v>0.0964776</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184274</v>
+        <v>0.183221</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0824013</v>
+        <v>0.082382</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08334809999999999</v>
+        <v>0.0824227</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09684909999999999</v>
+        <v>0.09688919999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09774910000000001</v>
+        <v>0.098315</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191725</v>
+        <v>0.191065</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0823941</v>
+        <v>0.0824284</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0836858</v>
+        <v>0.082789</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0987855</v>
+        <v>0.0990442</v>
       </c>
       <c r="C13" t="n">
-        <v>0.101183</v>
+        <v>0.100444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198944</v>
+        <v>0.198105</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08267389999999999</v>
+        <v>0.082693</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0841783</v>
+        <v>0.08313</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101023</v>
+        <v>0.100785</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103665</v>
+        <v>0.103078</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205749</v>
+        <v>0.204972</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0828786</v>
+        <v>0.0828966</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0839028</v>
+        <v>0.08332580000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.104907</v>
+        <v>0.105045</v>
       </c>
       <c r="C15" t="n">
-        <v>0.107475</v>
+        <v>0.107636</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213075</v>
+        <v>0.212935</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0834215</v>
+        <v>0.0832205</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0840487</v>
+        <v>0.0832425</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.111873</v>
+        <v>0.111795</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114499</v>
+        <v>0.113923</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218675</v>
+        <v>0.218731</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08356479999999999</v>
+        <v>0.0835447</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08339729999999999</v>
+        <v>0.0837285</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121152</v>
+        <v>0.121239</v>
       </c>
       <c r="C17" t="n">
-        <v>0.123849</v>
+        <v>0.123331</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225848</v>
+        <v>0.224498</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08383400000000001</v>
+        <v>0.0835718</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08409750000000001</v>
+        <v>0.0843377</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.132998</v>
+        <v>0.133137</v>
       </c>
       <c r="C18" t="n">
-        <v>0.134829</v>
+        <v>0.133945</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229881</v>
+        <v>0.230089</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0839833</v>
+        <v>0.0836783</v>
       </c>
       <c r="F18" t="n">
-        <v>0.084172</v>
+        <v>0.0844736</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150103</v>
+        <v>0.150616</v>
       </c>
       <c r="C19" t="n">
-        <v>0.151413</v>
+        <v>0.15082</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237337</v>
+        <v>0.236111</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08408740000000001</v>
+        <v>0.0842508</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0853076</v>
+        <v>0.08565830000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171375</v>
+        <v>0.170821</v>
       </c>
       <c r="C20" t="n">
-        <v>0.171421</v>
+        <v>0.171201</v>
       </c>
       <c r="D20" t="n">
-        <v>0.243418</v>
+        <v>0.242152</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0882926</v>
+        <v>0.08821909999999999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.089504</v>
+        <v>0.08956409999999999</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.201002</v>
+        <v>0.200477</v>
       </c>
       <c r="C21" t="n">
-        <v>0.205825</v>
+        <v>0.206086</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177837</v>
+        <v>0.177809</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09630710000000001</v>
+        <v>0.09635299999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09753000000000001</v>
+        <v>0.0976289</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240146</v>
+        <v>0.23989</v>
       </c>
       <c r="C22" t="n">
-        <v>0.241241</v>
+        <v>0.241202</v>
       </c>
       <c r="D22" t="n">
-        <v>0.185767</v>
+        <v>0.18517</v>
       </c>
       <c r="E22" t="n">
-        <v>0.111529</v>
+        <v>0.110687</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112024</v>
+        <v>0.111231</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287282</v>
+        <v>0.287079</v>
       </c>
       <c r="C23" t="n">
-        <v>0.290775</v>
+        <v>0.311016</v>
       </c>
       <c r="D23" t="n">
-        <v>0.192377</v>
+        <v>0.191864</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08310049999999999</v>
+        <v>0.0831205</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0838658</v>
+        <v>0.0839231</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100418</v>
+        <v>0.100439</v>
       </c>
       <c r="C24" t="n">
-        <v>0.102139</v>
+        <v>0.102124</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199187</v>
+        <v>0.19886</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0832145</v>
+        <v>0.08323469999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0842372</v>
+        <v>0.08428430000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101793</v>
+        <v>0.101779</v>
       </c>
       <c r="C25" t="n">
-        <v>0.103977</v>
+        <v>0.103667</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206989</v>
+        <v>0.206475</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08345470000000001</v>
+        <v>0.083527</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08438809999999999</v>
+        <v>0.0845143</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103419</v>
+        <v>0.103558</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105435</v>
+        <v>0.10533</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213263</v>
+        <v>0.212946</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0837096</v>
+        <v>0.0837881</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0850699</v>
+        <v>0.0848362</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105527</v>
+        <v>0.105605</v>
       </c>
       <c r="C27" t="n">
-        <v>0.10782</v>
+        <v>0.10817</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220572</v>
+        <v>0.220146</v>
       </c>
       <c r="E27" t="n">
-        <v>0.08398129999999999</v>
+        <v>0.0856387</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0855191</v>
+        <v>0.0854283</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109183</v>
+        <v>0.109256</v>
       </c>
       <c r="C28" t="n">
-        <v>0.111713</v>
+        <v>0.111254</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226284</v>
+        <v>0.225979</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0844102</v>
+        <v>0.08449719999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08615100000000001</v>
+        <v>0.0857571</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113309</v>
+        <v>0.113307</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1231</v>
+        <v>0.114874</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232385</v>
+        <v>0.232284</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0846146</v>
+        <v>0.0846233</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08657239999999999</v>
+        <v>0.0860501</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119364</v>
+        <v>0.119313</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122443</v>
+        <v>0.126037</v>
       </c>
       <c r="D30" t="n">
-        <v>0.23737</v>
+        <v>0.237371</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0851864</v>
+        <v>0.08927450000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0874822</v>
+        <v>0.0870438</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126629</v>
+        <v>0.126705</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129175</v>
+        <v>0.128641</v>
       </c>
       <c r="D31" t="n">
-        <v>0.24279</v>
+        <v>0.242676</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08580989999999999</v>
+        <v>0.08584</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09073009999999999</v>
+        <v>0.0877071</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136784</v>
+        <v>0.136708</v>
       </c>
       <c r="C32" t="n">
-        <v>0.142797</v>
+        <v>0.140198</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249258</v>
+        <v>0.248739</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0868273</v>
+        <v>0.0863667</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0943763</v>
+        <v>0.0891508</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.151927</v>
+        <v>0.150593</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153431</v>
+        <v>0.15228</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254761</v>
+        <v>0.254657</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0903973</v>
+        <v>0.09001240000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0929025</v>
+        <v>0.09171840000000001</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.170158</v>
+        <v>0.1698</v>
       </c>
       <c r="C34" t="n">
-        <v>0.178205</v>
+        <v>0.170454</v>
       </c>
       <c r="D34" t="n">
-        <v>0.260287</v>
+        <v>0.259743</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0951063</v>
+        <v>0.0950082</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0981551</v>
+        <v>0.09692779999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193767</v>
+        <v>0.203664</v>
       </c>
       <c r="C35" t="n">
-        <v>0.199699</v>
+        <v>0.195021</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190697</v>
+        <v>0.190361</v>
       </c>
       <c r="E35" t="n">
-        <v>0.10366</v>
+        <v>0.103127</v>
       </c>
       <c r="F35" t="n">
-        <v>0.106626</v>
+        <v>0.106055</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23255</v>
+        <v>0.232637</v>
       </c>
       <c r="C36" t="n">
-        <v>0.240464</v>
+        <v>0.232156</v>
       </c>
       <c r="D36" t="n">
-        <v>0.198187</v>
+        <v>0.197188</v>
       </c>
       <c r="E36" t="n">
-        <v>0.114683</v>
+        <v>0.115</v>
       </c>
       <c r="F36" t="n">
-        <v>0.124415</v>
+        <v>0.116733</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.279102</v>
+        <v>0.274644</v>
       </c>
       <c r="C37" t="n">
-        <v>0.282755</v>
+        <v>0.280802</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204461</v>
+        <v>0.204559</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0840559</v>
+        <v>0.08405600000000001</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0868268</v>
+        <v>0.0973627</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103071</v>
+        <v>0.103052</v>
       </c>
       <c r="C38" t="n">
-        <v>0.109864</v>
+        <v>0.105169</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211694</v>
+        <v>0.211157</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08522100000000001</v>
+        <v>0.084132</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0876533</v>
+        <v>0.08623550000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.106467</v>
+        <v>0.104188</v>
       </c>
       <c r="C39" t="n">
-        <v>0.108483</v>
+        <v>0.106456</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217934</v>
+        <v>0.217821</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08456809999999999</v>
+        <v>0.0844946</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08768670000000001</v>
+        <v>0.0865813</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107301</v>
+        <v>0.105828</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110473</v>
+        <v>0.115036</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225522</v>
+        <v>0.225101</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08490739999999999</v>
+        <v>0.088631</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0881015</v>
+        <v>0.08699949999999999</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108321</v>
+        <v>0.108315</v>
       </c>
       <c r="C41" t="n">
-        <v>0.111534</v>
+        <v>0.110644</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231752</v>
+        <v>0.231033</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08608490000000001</v>
+        <v>0.0850084</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0887019</v>
+        <v>0.08765969999999999</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.111862</v>
+        <v>0.111827</v>
       </c>
       <c r="C42" t="n">
-        <v>0.115176</v>
+        <v>0.114763</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237926</v>
+        <v>0.23783</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0857203</v>
+        <v>0.08546960000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0892698</v>
+        <v>0.08807860000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.123951</v>
+        <v>0.116084</v>
       </c>
       <c r="C43" t="n">
-        <v>0.120901</v>
+        <v>0.119364</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243775</v>
+        <v>0.243749</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0871758</v>
+        <v>0.0860389</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0897932</v>
+        <v>0.088869</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122348</v>
+        <v>0.121683</v>
       </c>
       <c r="C44" t="n">
-        <v>0.12637</v>
+        <v>0.126262</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249884</v>
+        <v>0.250048</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08672729999999999</v>
+        <v>0.0865863</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0907482</v>
+        <v>0.08999310000000001</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.1289</v>
+        <v>0.12899</v>
       </c>
       <c r="C45" t="n">
-        <v>0.131792</v>
+        <v>0.138399</v>
       </c>
       <c r="D45" t="n">
-        <v>0.25586</v>
+        <v>0.255764</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0877004</v>
+        <v>0.08758929999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09193270000000001</v>
+        <v>0.0912065</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.141825</v>
+        <v>0.137821</v>
       </c>
       <c r="C46" t="n">
-        <v>0.14119</v>
+        <v>0.141029</v>
       </c>
       <c r="D46" t="n">
-        <v>0.26114</v>
+        <v>0.260991</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0894717</v>
+        <v>0.0890557</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0936066</v>
+        <v>0.0928919</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149932</v>
+        <v>0.150038</v>
       </c>
       <c r="C47" t="n">
-        <v>0.153147</v>
+        <v>0.152894</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266374</v>
+        <v>0.267006</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09263879999999999</v>
+        <v>0.09217690000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09764009999999999</v>
+        <v>0.100587</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167357</v>
+        <v>0.167401</v>
       </c>
       <c r="C48" t="n">
-        <v>0.17335</v>
+        <v>0.175633</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272239</v>
+        <v>0.27207</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0961839</v>
+        <v>0.09610100000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100239</v>
+        <v>0.0997599</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189971</v>
+        <v>0.190239</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193853</v>
+        <v>0.193823</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278074</v>
+        <v>0.278356</v>
       </c>
       <c r="E49" t="n">
-        <v>0.101978</v>
+        <v>0.101539</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105879</v>
+        <v>0.105579</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224501</v>
+        <v>0.224362</v>
       </c>
       <c r="C50" t="n">
-        <v>0.237887</v>
+        <v>0.225102</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198455</v>
+        <v>0.198492</v>
       </c>
       <c r="E50" t="n">
-        <v>0.112591</v>
+        <v>0.111646</v>
       </c>
       <c r="F50" t="n">
-        <v>0.11576</v>
+        <v>0.115413</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.269872</v>
+        <v>0.268228</v>
       </c>
       <c r="C51" t="n">
-        <v>0.272098</v>
+        <v>0.272866</v>
       </c>
       <c r="D51" t="n">
-        <v>0.20511</v>
+        <v>0.205004</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0925387</v>
+        <v>0.08573310000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0950829</v>
+        <v>0.0894698</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.334313</v>
+        <v>0.320189</v>
       </c>
       <c r="C52" t="n">
-        <v>0.342689</v>
+        <v>0.32514</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211132</v>
+        <v>0.211184</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0878361</v>
+        <v>0.0887389</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0981047</v>
+        <v>0.0897424</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.111008</v>
+        <v>0.10791</v>
       </c>
       <c r="C53" t="n">
-        <v>0.111727</v>
+        <v>0.113495</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217963</v>
+        <v>0.218068</v>
       </c>
       <c r="E53" t="n">
-        <v>0.08821130000000001</v>
+        <v>0.0862993</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0938876</v>
+        <v>0.09077399999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.11075</v>
+        <v>0.110583</v>
       </c>
       <c r="C54" t="n">
-        <v>0.114398</v>
+        <v>0.113113</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224515</v>
+        <v>0.224376</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0867404</v>
+        <v>0.08693960000000001</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0975661</v>
+        <v>0.0909875</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.123299</v>
+        <v>0.114348</v>
       </c>
       <c r="C55" t="n">
-        <v>0.116238</v>
+        <v>0.115802</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230849</v>
+        <v>0.230845</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0882624</v>
+        <v>0.0874685</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0919978</v>
+        <v>0.09925100000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.11553</v>
+        <v>0.114938</v>
       </c>
       <c r="C56" t="n">
-        <v>0.130066</v>
+        <v>0.118892</v>
       </c>
       <c r="D56" t="n">
-        <v>0.23689</v>
+        <v>0.236794</v>
       </c>
       <c r="E56" t="n">
-        <v>0.100359</v>
+        <v>0.0875853</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0963367</v>
+        <v>0.0916921</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.118653</v>
+        <v>0.119122</v>
       </c>
       <c r="C57" t="n">
-        <v>0.1295</v>
+        <v>0.12373</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242064</v>
+        <v>0.241991</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0934547</v>
+        <v>0.08795790000000001</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0969893</v>
+        <v>0.100129</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.127876</v>
+        <v>0.123798</v>
       </c>
       <c r="C58" t="n">
-        <v>0.138531</v>
+        <v>0.131049</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247511</v>
+        <v>0.247492</v>
       </c>
       <c r="E58" t="n">
-        <v>0.08910270000000001</v>
+        <v>0.0895522</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0946833</v>
+        <v>0.0938259</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130706</v>
+        <v>0.129644</v>
       </c>
       <c r="C59" t="n">
-        <v>0.137967</v>
+        <v>0.13541</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253029</v>
+        <v>0.25306</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09041390000000001</v>
+        <v>0.0905687</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09581199999999999</v>
+        <v>0.0961847</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138689</v>
+        <v>0.14226</v>
       </c>
       <c r="C60" t="n">
-        <v>0.144673</v>
+        <v>0.142347</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257834</v>
+        <v>0.25784</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0953247</v>
+        <v>0.0918297</v>
       </c>
       <c r="F60" t="n">
-        <v>0.107011</v>
+        <v>0.0969559</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149158</v>
+        <v>0.148464</v>
       </c>
       <c r="C61" t="n">
-        <v>0.169465</v>
+        <v>0.1602</v>
       </c>
       <c r="D61" t="n">
-        <v>0.26288</v>
+        <v>0.262806</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0957382</v>
+        <v>0.0939184</v>
       </c>
       <c r="F61" t="n">
-        <v>0.103907</v>
+        <v>0.0995682</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.176716</v>
+        <v>0.164966</v>
       </c>
       <c r="C62" t="n">
-        <v>0.168978</v>
+        <v>0.169681</v>
       </c>
       <c r="D62" t="n">
-        <v>0.269361</v>
+        <v>0.270628</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09932149999999999</v>
+        <v>0.0973772</v>
       </c>
       <c r="F62" t="n">
-        <v>0.103339</v>
+        <v>0.107593</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.199916</v>
+        <v>0.186663</v>
       </c>
       <c r="C63" t="n">
-        <v>0.198672</v>
+        <v>0.190708</v>
       </c>
       <c r="D63" t="n">
-        <v>0.275324</v>
+        <v>0.274896</v>
       </c>
       <c r="E63" t="n">
-        <v>0.110107</v>
+        <v>0.103116</v>
       </c>
       <c r="F63" t="n">
-        <v>0.109414</v>
+        <v>0.11073</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.216557</v>
+        <v>0.216541</v>
       </c>
       <c r="C64" t="n">
-        <v>0.227078</v>
+        <v>0.223155</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200793</v>
+        <v>0.200856</v>
       </c>
       <c r="E64" t="n">
-        <v>0.111044</v>
+        <v>0.111352</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11764</v>
+        <v>0.116654</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258599</v>
+        <v>0.258339</v>
       </c>
       <c r="C65" t="n">
-        <v>0.26947</v>
+        <v>0.265121</v>
       </c>
       <c r="D65" t="n">
-        <v>0.207634</v>
+        <v>0.209213</v>
       </c>
       <c r="E65" t="n">
-        <v>0.136969</v>
+        <v>0.125929</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132552</v>
+        <v>0.131779</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.328054</v>
+        <v>0.312204</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322848</v>
+        <v>0.319764</v>
       </c>
       <c r="D66" t="n">
-        <v>0.21502</v>
+        <v>0.21738</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0930367</v>
+        <v>0.09817720000000001</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09779649999999999</v>
+        <v>0.102517</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121842</v>
+        <v>0.129467</v>
       </c>
       <c r="C67" t="n">
-        <v>0.134245</v>
+        <v>0.126819</v>
       </c>
       <c r="D67" t="n">
-        <v>0.224788</v>
+        <v>0.225817</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0935275</v>
+        <v>0.095138</v>
       </c>
       <c r="F67" t="n">
-        <v>0.103164</v>
+        <v>0.101264</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.132663</v>
+        <v>0.131728</v>
       </c>
       <c r="C68" t="n">
-        <v>0.131234</v>
+        <v>0.135873</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233525</v>
+        <v>0.235312</v>
       </c>
       <c r="E68" t="n">
-        <v>0.098675</v>
+        <v>0.101158</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103706</v>
+        <v>0.102203</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.134932</v>
+        <v>0.124841</v>
       </c>
       <c r="C69" t="n">
-        <v>0.130024</v>
+        <v>0.137883</v>
       </c>
       <c r="D69" t="n">
-        <v>0.239971</v>
+        <v>0.244352</v>
       </c>
       <c r="E69" t="n">
-        <v>0.106959</v>
+        <v>0.0946845</v>
       </c>
       <c r="F69" t="n">
-        <v>0.104233</v>
+        <v>0.104642</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.126921</v>
+        <v>0.127838</v>
       </c>
       <c r="C70" t="n">
-        <v>0.13468</v>
+        <v>0.143294</v>
       </c>
       <c r="D70" t="n">
-        <v>0.249817</v>
+        <v>0.250445</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09664830000000001</v>
+        <v>0.108003</v>
       </c>
       <c r="F70" t="n">
-        <v>0.104461</v>
+        <v>0.09996140000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.141826</v>
+        <v>0.130592</v>
       </c>
       <c r="C71" t="n">
-        <v>0.139277</v>
+        <v>0.138218</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259595</v>
+        <v>0.263649</v>
       </c>
       <c r="E71" t="n">
-        <v>0.100661</v>
+        <v>0.0950295</v>
       </c>
       <c r="F71" t="n">
-        <v>0.102364</v>
+        <v>0.101505</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.137438</v>
+        <v>0.145776</v>
       </c>
       <c r="C72" t="n">
-        <v>0.151769</v>
+        <v>0.152625</v>
       </c>
       <c r="D72" t="n">
-        <v>0.270696</v>
+        <v>0.271533</v>
       </c>
       <c r="E72" t="n">
-        <v>0.10459</v>
+        <v>0.101295</v>
       </c>
       <c r="F72" t="n">
-        <v>0.103809</v>
+        <v>0.102632</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.151836</v>
+        <v>0.141135</v>
       </c>
       <c r="C73" t="n">
-        <v>0.150829</v>
+        <v>0.149456</v>
       </c>
       <c r="D73" t="n">
-        <v>0.28201</v>
+        <v>0.283475</v>
       </c>
       <c r="E73" t="n">
-        <v>0.102647</v>
+        <v>0.103416</v>
       </c>
       <c r="F73" t="n">
-        <v>0.10523</v>
+        <v>0.104003</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.150231</v>
+        <v>0.150593</v>
       </c>
       <c r="C74" t="n">
-        <v>0.16905</v>
+        <v>0.160934</v>
       </c>
       <c r="D74" t="n">
-        <v>0.292776</v>
+        <v>0.295</v>
       </c>
       <c r="E74" t="n">
-        <v>0.104596</v>
+        <v>0.0984883</v>
       </c>
       <c r="F74" t="n">
-        <v>0.111732</v>
+        <v>0.107125</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.16461</v>
+        <v>0.161181</v>
       </c>
       <c r="C75" t="n">
-        <v>0.171728</v>
+        <v>0.169916</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307472</v>
+        <v>0.308126</v>
       </c>
       <c r="E75" t="n">
-        <v>0.108978</v>
+        <v>0.107052</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116356</v>
+        <v>0.109042</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.187282</v>
+        <v>0.176018</v>
       </c>
       <c r="C76" t="n">
-        <v>0.188987</v>
+        <v>0.193224</v>
       </c>
       <c r="D76" t="n">
-        <v>0.323227</v>
+        <v>0.324801</v>
       </c>
       <c r="E76" t="n">
-        <v>0.110261</v>
+        <v>0.103298</v>
       </c>
       <c r="F76" t="n">
-        <v>0.115955</v>
+        <v>0.112303</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19495</v>
+        <v>0.214271</v>
       </c>
       <c r="C77" t="n">
-        <v>0.206446</v>
+        <v>0.222644</v>
       </c>
       <c r="D77" t="n">
-        <v>0.338826</v>
+        <v>0.339594</v>
       </c>
       <c r="E77" t="n">
-        <v>0.119759</v>
+        <v>0.109579</v>
       </c>
       <c r="F77" t="n">
-        <v>0.118912</v>
+        <v>0.118838</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.231013</v>
+        <v>0.224343</v>
       </c>
       <c r="C78" t="n">
-        <v>0.249771</v>
+        <v>0.23597</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265138</v>
+        <v>0.262968</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125004</v>
+        <v>0.117177</v>
       </c>
       <c r="F78" t="n">
-        <v>0.141452</v>
+        <v>0.134516</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.268042</v>
+        <v>0.266814</v>
       </c>
       <c r="C79" t="n">
-        <v>0.293503</v>
+        <v>0.279227</v>
       </c>
       <c r="D79" t="n">
-        <v>0.281133</v>
+        <v>0.281049</v>
       </c>
       <c r="E79" t="n">
-        <v>0.13168</v>
+        <v>0.132093</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141823</v>
+        <v>0.142989</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.320892</v>
+        <v>0.329314</v>
       </c>
       <c r="C80" t="n">
-        <v>0.33961</v>
+        <v>0.349209</v>
       </c>
       <c r="D80" t="n">
-        <v>0.299022</v>
+        <v>0.298592</v>
       </c>
       <c r="E80" t="n">
-        <v>0.104727</v>
+        <v>0.100279</v>
       </c>
       <c r="F80" t="n">
-        <v>0.107565</v>
+        <v>0.106535</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.135129</v>
+        <v>0.144888</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141402</v>
+        <v>0.141611</v>
       </c>
       <c r="D81" t="n">
-        <v>0.318383</v>
+        <v>0.31516</v>
       </c>
       <c r="E81" t="n">
-        <v>0.10621</v>
+        <v>0.100815</v>
       </c>
       <c r="F81" t="n">
-        <v>0.113639</v>
+        <v>0.107564</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.137267</v>
+        <v>0.146594</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14598</v>
+        <v>0.153743</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339027</v>
+        <v>0.337288</v>
       </c>
       <c r="E82" t="n">
-        <v>0.10517</v>
+        <v>0.101328</v>
       </c>
       <c r="F82" t="n">
-        <v>0.114345</v>
+        <v>0.109103</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.147912</v>
+        <v>0.149671</v>
       </c>
       <c r="C83" t="n">
-        <v>0.145986</v>
+        <v>0.157019</v>
       </c>
       <c r="D83" t="n">
-        <v>0.360202</v>
+        <v>0.357154</v>
       </c>
       <c r="E83" t="n">
-        <v>0.108973</v>
+        <v>0.102321</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115483</v>
+        <v>0.11037</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148856</v>
+        <v>0.151932</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149793</v>
+        <v>0.152569</v>
       </c>
       <c r="D84" t="n">
-        <v>0.381606</v>
+        <v>0.378843</v>
       </c>
       <c r="E84" t="n">
-        <v>0.102799</v>
+        <v>0.103112</v>
       </c>
       <c r="F84" t="n">
-        <v>0.110265</v>
+        <v>0.112471</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.155033</v>
+        <v>0.145485</v>
       </c>
       <c r="C85" t="n">
-        <v>0.155124</v>
+        <v>0.16584</v>
       </c>
       <c r="D85" t="n">
-        <v>0.403468</v>
+        <v>0.4009</v>
       </c>
       <c r="E85" t="n">
-        <v>0.103538</v>
+        <v>0.104245</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111605</v>
+        <v>0.114517</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.158011</v>
+        <v>0.157607</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168572</v>
+        <v>0.173361</v>
       </c>
       <c r="D86" t="n">
-        <v>0.42523</v>
+        <v>0.423401</v>
       </c>
       <c r="E86" t="n">
-        <v>0.10777</v>
+        <v>0.110822</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113085</v>
+        <v>0.123844</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.160819</v>
+        <v>0.167367</v>
       </c>
       <c r="C87" t="n">
-        <v>0.172198</v>
+        <v>0.182814</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448552</v>
+        <v>0.446866</v>
       </c>
       <c r="E87" t="n">
-        <v>0.105223</v>
+        <v>0.113336</v>
       </c>
       <c r="F87" t="n">
-        <v>0.12138</v>
+        <v>0.121154</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.16671</v>
+        <v>0.170548</v>
       </c>
       <c r="C88" t="n">
-        <v>0.178431</v>
+        <v>0.193524</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472365</v>
+        <v>0.47099</v>
       </c>
       <c r="E88" t="n">
-        <v>0.113252</v>
+        <v>0.109396</v>
       </c>
       <c r="F88" t="n">
-        <v>0.117876</v>
+        <v>0.125217</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184183</v>
+        <v>0.177491</v>
       </c>
       <c r="C89" t="n">
-        <v>0.203338</v>
+        <v>0.200012</v>
       </c>
       <c r="D89" t="n">
-        <v>0.497621</v>
+        <v>0.496845</v>
       </c>
       <c r="E89" t="n">
-        <v>0.109038</v>
+        <v>0.112471</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121767</v>
+        <v>0.130331</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197465</v>
+        <v>0.197468</v>
       </c>
       <c r="C90" t="n">
-        <v>0.212213</v>
+        <v>0.228056</v>
       </c>
       <c r="D90" t="n">
-        <v>0.523686</v>
+        <v>0.523788</v>
       </c>
       <c r="E90" t="n">
-        <v>0.115437</v>
+        <v>0.11699</v>
       </c>
       <c r="F90" t="n">
-        <v>0.131496</v>
+        <v>0.142925</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.208619</v>
+        <v>0.214976</v>
       </c>
       <c r="C91" t="n">
-        <v>0.235035</v>
+        <v>0.24445</v>
       </c>
       <c r="D91" t="n">
-        <v>0.551199</v>
+        <v>0.551256</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11796</v>
+        <v>0.122736</v>
       </c>
       <c r="F91" t="n">
-        <v>0.13744</v>
+        <v>0.149213</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.23595</v>
+        <v>0.250926</v>
       </c>
       <c r="C92" t="n">
-        <v>0.28332</v>
+        <v>0.281884</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412347</v>
+        <v>0.411851</v>
       </c>
       <c r="E92" t="n">
-        <v>0.125611</v>
+        <v>0.139328</v>
       </c>
       <c r="F92" t="n">
-        <v>0.155368</v>
+        <v>0.157065</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.290035</v>
+        <v>0.294807</v>
       </c>
       <c r="C93" t="n">
-        <v>0.332775</v>
+        <v>0.328742</v>
       </c>
       <c r="D93" t="n">
-        <v>0.430528</v>
+        <v>0.430253</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139263</v>
+        <v>0.147305</v>
       </c>
       <c r="F93" t="n">
-        <v>0.169942</v>
+        <v>0.174405</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.34432</v>
+        <v>0.345987</v>
       </c>
       <c r="C94" t="n">
-        <v>0.421299</v>
+        <v>0.420901</v>
       </c>
       <c r="D94" t="n">
-        <v>0.449334</v>
+        <v>0.449455</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106129</v>
+        <v>0.11106</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119895</v>
+        <v>0.126812</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.154728</v>
+        <v>0.160074</v>
       </c>
       <c r="C95" t="n">
-        <v>0.170666</v>
+        <v>0.170254</v>
       </c>
       <c r="D95" t="n">
-        <v>0.468673</v>
+        <v>0.469443</v>
       </c>
       <c r="E95" t="n">
-        <v>0.113104</v>
+        <v>0.119225</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123357</v>
+        <v>0.129641</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.157032</v>
+        <v>0.15218</v>
       </c>
       <c r="C96" t="n">
-        <v>0.16599</v>
+        <v>0.175387</v>
       </c>
       <c r="D96" t="n">
-        <v>0.488735</v>
+        <v>0.489004</v>
       </c>
       <c r="E96" t="n">
-        <v>0.108639</v>
+        <v>0.120323</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127827</v>
+        <v>0.132633</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.160424</v>
+        <v>0.16601</v>
       </c>
       <c r="C97" t="n">
-        <v>0.182572</v>
+        <v>0.177817</v>
       </c>
       <c r="D97" t="n">
-        <v>0.509559</v>
+        <v>0.50988</v>
       </c>
       <c r="E97" t="n">
-        <v>0.112325</v>
+        <v>0.11651</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132526</v>
+        <v>0.13634</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.164833</v>
+        <v>0.163978</v>
       </c>
       <c r="C98" t="n">
-        <v>0.18093</v>
+        <v>0.181857</v>
       </c>
       <c r="D98" t="n">
-        <v>0.532213</v>
+        <v>0.531859</v>
       </c>
       <c r="E98" t="n">
-        <v>0.112516</v>
+        <v>0.120915</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138131</v>
+        <v>0.139167</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.159816</v>
+        <v>0.175274</v>
       </c>
       <c r="C99" t="n">
-        <v>0.201372</v>
+        <v>0.19534</v>
       </c>
       <c r="D99" t="n">
-        <v>0.55374</v>
+        <v>0.553396</v>
       </c>
       <c r="E99" t="n">
-        <v>0.120467</v>
+        <v>0.120703</v>
       </c>
       <c r="F99" t="n">
-        <v>0.146829</v>
+        <v>0.142361</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.174688</v>
+        <v>0.170534</v>
       </c>
       <c r="C100" t="n">
-        <v>0.20305</v>
+        <v>0.19564</v>
       </c>
       <c r="D100" t="n">
-        <v>0.575329</v>
+        <v>0.576663</v>
       </c>
       <c r="E100" t="n">
-        <v>0.124551</v>
+        <v>0.122641</v>
       </c>
       <c r="F100" t="n">
-        <v>0.154434</v>
+        <v>0.145613</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.1863</v>
+        <v>0.188938</v>
       </c>
       <c r="C101" t="n">
-        <v>0.215271</v>
+        <v>0.214936</v>
       </c>
       <c r="D101" t="n">
-        <v>0.600938</v>
+        <v>0.601403</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122356</v>
+        <v>0.125024</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157641</v>
+        <v>0.149675</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186929</v>
+        <v>0.189475</v>
       </c>
       <c r="C102" t="n">
-        <v>0.229795</v>
+        <v>0.218072</v>
       </c>
       <c r="D102" t="n">
-        <v>0.625224</v>
+        <v>0.627237</v>
       </c>
       <c r="E102" t="n">
-        <v>0.126633</v>
+        <v>0.127622</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164786</v>
+        <v>0.154118</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212785</v>
+        <v>0.209811</v>
       </c>
       <c r="C103" t="n">
-        <v>0.248822</v>
+        <v>0.234348</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652488</v>
+        <v>0.655098</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132224</v>
+        <v>0.130499</v>
       </c>
       <c r="F103" t="n">
-        <v>0.173125</v>
+        <v>0.16014</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.219144</v>
+        <v>0.222804</v>
       </c>
       <c r="C104" t="n">
-        <v>0.283428</v>
+        <v>0.255966</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680777</v>
+        <v>0.682708</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138242</v>
+        <v>0.134962</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181813</v>
+        <v>0.167836</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.244331</v>
+        <v>0.234717</v>
       </c>
       <c r="C105" t="n">
-        <v>0.307275</v>
+        <v>0.29459</v>
       </c>
       <c r="D105" t="n">
-        <v>0.712924</v>
+        <v>0.713691</v>
       </c>
       <c r="E105" t="n">
-        <v>0.146643</v>
+        <v>0.140375</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192144</v>
+        <v>0.17841</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.285126</v>
+        <v>0.272721</v>
       </c>
       <c r="C106" t="n">
-        <v>0.337336</v>
+        <v>0.328271</v>
       </c>
       <c r="D106" t="n">
-        <v>0.742753</v>
+        <v>0.746164</v>
       </c>
       <c r="E106" t="n">
-        <v>0.157701</v>
+        <v>0.149124</v>
       </c>
       <c r="F106" t="n">
-        <v>0.205561</v>
+        <v>0.192542</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.327763</v>
+        <v>0.307601</v>
       </c>
       <c r="C107" t="n">
-        <v>0.392209</v>
+        <v>0.390274</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5828449999999999</v>
+        <v>0.584186</v>
       </c>
       <c r="E107" t="n">
-        <v>0.173372</v>
+        <v>0.162862</v>
       </c>
       <c r="F107" t="n">
-        <v>0.231659</v>
+        <v>0.213647</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.382293</v>
+        <v>0.372798</v>
       </c>
       <c r="C108" t="n">
-        <v>0.470116</v>
+        <v>0.468227</v>
       </c>
       <c r="D108" t="n">
-        <v>0.6023230000000001</v>
+        <v>0.605309</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127656</v>
+        <v>0.120704</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159504</v>
+        <v>0.145831</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482858</v>
+        <v>0.471201</v>
       </c>
       <c r="C109" t="n">
-        <v>0.591199</v>
+        <v>0.589542</v>
       </c>
       <c r="D109" t="n">
-        <v>0.622692</v>
+        <v>0.6265269999999999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.131644</v>
+        <v>0.121873</v>
       </c>
       <c r="F109" t="n">
-        <v>0.163123</v>
+        <v>0.149612</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.177841</v>
+        <v>0.164596</v>
       </c>
       <c r="C110" t="n">
-        <v>0.216268</v>
+        <v>0.20405</v>
       </c>
       <c r="D110" t="n">
-        <v>0.644817</v>
+        <v>0.647884</v>
       </c>
       <c r="E110" t="n">
-        <v>0.132529</v>
+        <v>0.128361</v>
       </c>
       <c r="F110" t="n">
-        <v>0.170584</v>
+        <v>0.153617</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175107</v>
+        <v>0.169785</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212312</v>
+        <v>0.20991</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667807</v>
+        <v>0.671746</v>
       </c>
       <c r="E111" t="n">
-        <v>0.135089</v>
+        <v>0.124971</v>
       </c>
       <c r="F111" t="n">
-        <v>0.172495</v>
+        <v>0.158912</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.181072</v>
+        <v>0.179726</v>
       </c>
       <c r="C112" t="n">
-        <v>0.229666</v>
+        <v>0.210159</v>
       </c>
       <c r="D112" t="n">
-        <v>0.691428</v>
+        <v>0.69553</v>
       </c>
       <c r="E112" t="n">
-        <v>0.143718</v>
+        <v>0.126657</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174281</v>
+        <v>0.164067</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185902</v>
+        <v>0.180779</v>
       </c>
       <c r="C113" t="n">
-        <v>0.235566</v>
+        <v>0.21902</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716299</v>
+        <v>0.7194970000000001</v>
       </c>
       <c r="E113" t="n">
-        <v>0.140055</v>
+        <v>0.129834</v>
       </c>
       <c r="F113" t="n">
-        <v>0.182557</v>
+        <v>0.171087</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.202286</v>
+        <v>0.190918</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235285</v>
+        <v>0.230537</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742743</v>
+        <v>0.745884</v>
       </c>
       <c r="E114" t="n">
-        <v>0.142776</v>
+        <v>0.133163</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182919</v>
+        <v>0.177537</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.200415</v>
+        <v>0.191501</v>
       </c>
       <c r="C115" t="n">
-        <v>0.252523</v>
+        <v>0.253677</v>
       </c>
       <c r="D115" t="n">
-        <v>0.769113</v>
+        <v>0.772694</v>
       </c>
       <c r="E115" t="n">
-        <v>0.145765</v>
+        <v>0.137715</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187677</v>
+        <v>0.183994</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209631</v>
+        <v>0.204422</v>
       </c>
       <c r="C116" t="n">
-        <v>0.267317</v>
+        <v>0.258075</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795197</v>
+        <v>0.798915</v>
       </c>
       <c r="E116" t="n">
-        <v>0.148767</v>
+        <v>0.142967</v>
       </c>
       <c r="F116" t="n">
-        <v>0.192901</v>
+        <v>0.190603</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.224778</v>
+        <v>0.229087</v>
       </c>
       <c r="C117" t="n">
-        <v>0.275832</v>
+        <v>0.277768</v>
       </c>
       <c r="D117" t="n">
-        <v>0.823495</v>
+        <v>0.827031</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153792</v>
+        <v>0.148264</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199435</v>
+        <v>0.197401</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.247248</v>
+        <v>0.235655</v>
       </c>
       <c r="C118" t="n">
-        <v>0.300771</v>
+        <v>0.295917</v>
       </c>
       <c r="D118" t="n">
-        <v>0.851963</v>
+        <v>0.856306</v>
       </c>
       <c r="E118" t="n">
-        <v>0.157937</v>
+        <v>0.154847</v>
       </c>
       <c r="F118" t="n">
-        <v>0.206912</v>
+        <v>0.205703</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262828</v>
+        <v>0.25743</v>
       </c>
       <c r="C119" t="n">
-        <v>0.328178</v>
+        <v>0.325375</v>
       </c>
       <c r="D119" t="n">
-        <v>0.883259</v>
+        <v>0.888737</v>
       </c>
       <c r="E119" t="n">
-        <v>0.16471</v>
+        <v>0.162522</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216512</v>
+        <v>0.215817</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.299882</v>
+        <v>0.297948</v>
       </c>
       <c r="C120" t="n">
-        <v>0.378737</v>
+        <v>0.372983</v>
       </c>
       <c r="D120" t="n">
-        <v>0.915956</v>
+        <v>0.921193</v>
       </c>
       <c r="E120" t="n">
-        <v>0.174018</v>
+        <v>0.172483</v>
       </c>
       <c r="F120" t="n">
-        <v>0.235286</v>
+        <v>0.229052</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.334295</v>
+        <v>0.339503</v>
       </c>
       <c r="C121" t="n">
-        <v>0.420262</v>
+        <v>0.424295</v>
       </c>
       <c r="D121" t="n">
-        <v>0.667786</v>
+        <v>0.671102</v>
       </c>
       <c r="E121" t="n">
-        <v>0.187674</v>
+        <v>0.186981</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249621</v>
+        <v>0.249079</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.396001</v>
+        <v>0.39375</v>
       </c>
       <c r="C122" t="n">
-        <v>0.502207</v>
+        <v>0.51688</v>
       </c>
       <c r="D122" t="n">
-        <v>0.6875289999999999</v>
+        <v>0.691501</v>
       </c>
       <c r="E122" t="n">
-        <v>0.216628</v>
+        <v>0.218314</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281344</v>
+        <v>0.281063</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.505314</v>
+        <v>0.49528</v>
       </c>
       <c r="C123" t="n">
-        <v>0.632207</v>
+        <v>0.632933</v>
       </c>
       <c r="D123" t="n">
-        <v>0.708773</v>
+        <v>0.71249</v>
       </c>
       <c r="E123" t="n">
-        <v>0.148984</v>
+        <v>0.145281</v>
       </c>
       <c r="F123" t="n">
-        <v>0.184524</v>
+        <v>0.183006</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.191183</v>
+        <v>0.200046</v>
       </c>
       <c r="C124" t="n">
-        <v>0.238936</v>
+        <v>0.228653</v>
       </c>
       <c r="D124" t="n">
-        <v>0.730639</v>
+        <v>0.734297</v>
       </c>
       <c r="E124" t="n">
-        <v>0.153482</v>
+        <v>0.14722</v>
       </c>
       <c r="F124" t="n">
-        <v>0.1883</v>
+        <v>0.187158</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.197997</v>
+        <v>0.201428</v>
       </c>
       <c r="C125" t="n">
-        <v>0.242095</v>
+        <v>0.234832</v>
       </c>
       <c r="D125" t="n">
-        <v>0.753368</v>
+        <v>0.757278</v>
       </c>
       <c r="E125" t="n">
-        <v>0.149349</v>
+        <v>0.147449</v>
       </c>
       <c r="F125" t="n">
-        <v>0.192781</v>
+        <v>0.189043</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.207519</v>
+        <v>0.206652</v>
       </c>
       <c r="C126" t="n">
-        <v>0.244673</v>
+        <v>0.252604</v>
       </c>
       <c r="D126" t="n">
-        <v>0.777512</v>
+        <v>0.7813330000000001</v>
       </c>
       <c r="E126" t="n">
-        <v>0.150539</v>
+        <v>0.151538</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194224</v>
+        <v>0.196816</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.210447</v>
+        <v>0.213255</v>
       </c>
       <c r="C127" t="n">
-        <v>0.251161</v>
+        <v>0.251445</v>
       </c>
       <c r="D127" t="n">
-        <v>0.802168</v>
+        <v>0.806376</v>
       </c>
       <c r="E127" t="n">
-        <v>0.153426</v>
+        <v>0.15354</v>
       </c>
       <c r="F127" t="n">
-        <v>0.20079</v>
+        <v>0.204158</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.213142</v>
+        <v>0.218576</v>
       </c>
       <c r="C128" t="n">
-        <v>0.271804</v>
+        <v>0.26893</v>
       </c>
       <c r="D128" t="n">
-        <v>0.828219</v>
+        <v>0.832556</v>
       </c>
       <c r="E128" t="n">
-        <v>0.157073</v>
+        <v>0.162149</v>
       </c>
       <c r="F128" t="n">
-        <v>0.204623</v>
+        <v>0.208449</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.213601</v>
+        <v>0.225566</v>
       </c>
       <c r="C129" t="n">
-        <v>0.281736</v>
+        <v>0.277531</v>
       </c>
       <c r="D129" t="n">
-        <v>0.85548</v>
+        <v>0.86017</v>
       </c>
       <c r="E129" t="n">
-        <v>0.159114</v>
+        <v>0.157898</v>
       </c>
       <c r="F129" t="n">
-        <v>0.208744</v>
+        <v>0.208997</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230356</v>
+        <v>0.227266</v>
       </c>
       <c r="C130" t="n">
-        <v>0.297067</v>
+        <v>0.296746</v>
       </c>
       <c r="D130" t="n">
-        <v>0.883477</v>
+        <v>0.888223</v>
       </c>
       <c r="E130" t="n">
-        <v>0.164354</v>
+        <v>0.165438</v>
       </c>
       <c r="F130" t="n">
-        <v>0.22105</v>
+        <v>0.216196</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.24814</v>
+        <v>0.241424</v>
       </c>
       <c r="C131" t="n">
-        <v>0.302183</v>
+        <v>0.31278</v>
       </c>
       <c r="D131" t="n">
-        <v>0.913046</v>
+        <v>0.9178500000000001</v>
       </c>
       <c r="E131" t="n">
-        <v>0.165562</v>
+        <v>0.166679</v>
       </c>
       <c r="F131" t="n">
-        <v>0.222815</v>
+        <v>0.224345</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.252344</v>
+        <v>0.262745</v>
       </c>
       <c r="C132" t="n">
-        <v>0.33494</v>
+        <v>0.32848</v>
       </c>
       <c r="D132" t="n">
-        <v>0.944245</v>
+        <v>0.948663</v>
       </c>
       <c r="E132" t="n">
-        <v>0.178059</v>
+        <v>0.175203</v>
       </c>
       <c r="F132" t="n">
-        <v>0.23275</v>
+        <v>0.235576</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.281989</v>
+        <v>0.285139</v>
       </c>
       <c r="C133" t="n">
-        <v>0.358574</v>
+        <v>0.367935</v>
       </c>
       <c r="D133" t="n">
-        <v>0.9760450000000001</v>
+        <v>0.981311</v>
       </c>
       <c r="E133" t="n">
-        <v>0.17587</v>
+        <v>0.178623</v>
       </c>
       <c r="F133" t="n">
-        <v>0.239536</v>
+        <v>0.24149</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.308714</v>
+        <v>0.315566</v>
       </c>
       <c r="C134" t="n">
-        <v>0.399554</v>
+        <v>0.401123</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00987</v>
+        <v>1.01534</v>
       </c>
       <c r="E134" t="n">
-        <v>0.192027</v>
+        <v>0.190462</v>
       </c>
       <c r="F134" t="n">
-        <v>0.256121</v>
+        <v>0.257477</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.346728</v>
+        <v>0.350117</v>
       </c>
       <c r="C135" t="n">
-        <v>0.458609</v>
+        <v>0.454542</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690357</v>
+        <v>0.694522</v>
       </c>
       <c r="E135" t="n">
-        <v>0.203214</v>
+        <v>0.199767</v>
       </c>
       <c r="F135" t="n">
-        <v>0.27341</v>
+        <v>0.276741</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.408823</v>
+        <v>0.411434</v>
       </c>
       <c r="C136" t="n">
-        <v>0.550509</v>
+        <v>0.539672</v>
       </c>
       <c r="D136" t="n">
-        <v>0.708871</v>
+        <v>0.712687</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220992</v>
+        <v>0.219709</v>
       </c>
       <c r="F136" t="n">
-        <v>0.307916</v>
+        <v>0.309021</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.501207</v>
+        <v>0.503754</v>
       </c>
       <c r="C137" t="n">
-        <v>0.666005</v>
+        <v>0.670513</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727781</v>
+        <v>0.731909</v>
       </c>
       <c r="E137" t="n">
-        <v>0.261983</v>
+        <v>0.262752</v>
       </c>
       <c r="F137" t="n">
-        <v>0.306101</v>
+        <v>0.313627</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.334224</v>
+        <v>0.333185</v>
       </c>
       <c r="C138" t="n">
-        <v>0.38471</v>
+        <v>0.389432</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7478669999999999</v>
+        <v>0.751672</v>
       </c>
       <c r="E138" t="n">
-        <v>0.268733</v>
+        <v>0.267715</v>
       </c>
       <c r="F138" t="n">
-        <v>0.315583</v>
+        <v>0.317394</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.332487</v>
+        <v>0.340326</v>
       </c>
       <c r="C139" t="n">
-        <v>0.3978</v>
+        <v>0.398872</v>
       </c>
       <c r="D139" t="n">
-        <v>0.768509</v>
+        <v>0.772483</v>
       </c>
       <c r="E139" t="n">
-        <v>0.270998</v>
+        <v>0.272497</v>
       </c>
       <c r="F139" t="n">
-        <v>0.321437</v>
+        <v>0.321451</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.341871</v>
+        <v>0.336538</v>
       </c>
       <c r="C140" t="n">
-        <v>0.394678</v>
+        <v>0.404336</v>
       </c>
       <c r="D140" t="n">
-        <v>0.78955</v>
+        <v>0.793664</v>
       </c>
       <c r="E140" t="n">
-        <v>0.271738</v>
+        <v>0.272354</v>
       </c>
       <c r="F140" t="n">
-        <v>0.325976</v>
+        <v>0.324821</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.348062</v>
+        <v>0.35433</v>
       </c>
       <c r="C141" t="n">
-        <v>0.415038</v>
+        <v>0.413187</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8119420000000001</v>
+        <v>0.8161890000000001</v>
       </c>
       <c r="E141" t="n">
-        <v>0.270259</v>
+        <v>0.273022</v>
       </c>
       <c r="F141" t="n">
-        <v>0.327583</v>
+        <v>0.329956</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.349957</v>
+        <v>0.361383</v>
       </c>
       <c r="C142" t="n">
-        <v>0.418335</v>
+        <v>0.424352</v>
       </c>
       <c r="D142" t="n">
-        <v>0.835354</v>
+        <v>0.840503</v>
       </c>
       <c r="E142" t="n">
-        <v>0.274514</v>
+        <v>0.271819</v>
       </c>
       <c r="F142" t="n">
-        <v>0.333108</v>
+        <v>0.334258</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.36322</v>
+        <v>0.367981</v>
       </c>
       <c r="C143" t="n">
-        <v>0.427554</v>
+        <v>0.437877</v>
       </c>
       <c r="D143" t="n">
-        <v>0.860083</v>
+        <v>0.864482</v>
       </c>
       <c r="E143" t="n">
-        <v>0.28181</v>
+        <v>0.272614</v>
       </c>
       <c r="F143" t="n">
-        <v>0.342759</v>
+        <v>0.341744</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102299</v>
+        <v>0.102473</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105503</v>
+        <v>0.110188</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179894</v>
+        <v>0.179117</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0826611</v>
+        <v>0.0826783</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0824903</v>
+        <v>0.0824824</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110564</v>
+        <v>0.110021</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113788</v>
+        <v>0.113753</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186455</v>
+        <v>0.185535</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0823923</v>
+        <v>0.0821779</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0809429</v>
+        <v>0.0808918</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123853</v>
+        <v>0.126451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126168</v>
+        <v>0.123786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193396</v>
+        <v>0.193297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0809333</v>
+        <v>0.0807742</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08200200000000001</v>
+        <v>0.0818972</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140407</v>
+        <v>0.140703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149825</v>
+        <v>0.14405</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200884</v>
+        <v>0.200686</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0817259</v>
+        <v>0.0819341</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0821105</v>
+        <v>0.0820617</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166812</v>
+        <v>0.170066</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167414</v>
+        <v>0.167246</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207562</v>
+        <v>0.20692</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0831443</v>
+        <v>0.0832878</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0837803</v>
+        <v>0.0834563</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200352</v>
+        <v>0.20167</v>
       </c>
       <c r="C7" t="n">
-        <v>0.209801</v>
+        <v>0.201332</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155981</v>
+        <v>0.156313</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0876319</v>
+        <v>0.088088</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08880730000000001</v>
+        <v>0.0884664</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248206</v>
+        <v>0.250048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245478</v>
+        <v>0.245281</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163009</v>
+        <v>0.16339</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103445</v>
+        <v>0.103949</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104281</v>
+        <v>0.104143</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292617</v>
+        <v>0.297421</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294541</v>
+        <v>0.294575</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169428</v>
+        <v>0.170519</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0819928</v>
+        <v>0.08192199999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827281</v>
+        <v>0.0826407</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0946512</v>
+        <v>0.09413299999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09645910000000001</v>
+        <v>0.095799</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17652</v>
+        <v>0.176617</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08217960000000001</v>
+        <v>0.0820975</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0828236</v>
+        <v>0.0842247</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09600939999999999</v>
+        <v>0.0954368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987435</v>
+        <v>0.0963024</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184062</v>
+        <v>0.184416</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0823435</v>
+        <v>0.08222069999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0834527</v>
+        <v>0.0832127</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.100974</v>
+        <v>0.0967987</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101583</v>
+        <v>0.0976504</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191889</v>
+        <v>0.192335</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0824457</v>
+        <v>0.0823931</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08362550000000001</v>
+        <v>0.0834767</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0987553</v>
+        <v>0.0986249</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105479</v>
+        <v>0.10019</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198011</v>
+        <v>0.199128</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.0826397</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0844641</v>
+        <v>0.0845133</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100799</v>
+        <v>0.100683</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10286</v>
+        <v>0.106907</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205703</v>
+        <v>0.205507</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0856809</v>
+        <v>0.08289050000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0837083</v>
+        <v>0.0836182</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105058</v>
+        <v>0.105546</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108087</v>
+        <v>0.109493</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213361</v>
+        <v>0.212735</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0834334</v>
+        <v>0.0834155</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0833627</v>
+        <v>0.0837585</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11245</v>
+        <v>0.11482</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115553</v>
+        <v>0.117583</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219066</v>
+        <v>0.218732</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0834037</v>
+        <v>0.0833448</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0837175</v>
+        <v>0.0838965</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121977</v>
+        <v>0.121267</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127975</v>
+        <v>0.12335</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224743</v>
+        <v>0.224827</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0836688</v>
+        <v>0.0836162</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0861811</v>
+        <v>0.0859463</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133039</v>
+        <v>0.138292</v>
       </c>
       <c r="C18" t="n">
-        <v>0.134119</v>
+        <v>0.142954</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230211</v>
+        <v>0.23037</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08415499999999999</v>
+        <v>0.085803</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0869181</v>
+        <v>0.08472979999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.15018</v>
+        <v>0.150644</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161605</v>
+        <v>0.15436</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236751</v>
+        <v>0.236983</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0841356</v>
+        <v>0.0842393</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0883804</v>
+        <v>0.0923161</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170977</v>
+        <v>0.176239</v>
       </c>
       <c r="C20" t="n">
-        <v>0.172727</v>
+        <v>0.183739</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242117</v>
+        <v>0.242776</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0879009</v>
+        <v>0.0880012</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0914576</v>
+        <v>0.0948286</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.203473</v>
+        <v>0.208915</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207519</v>
+        <v>0.216339</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177784</v>
+        <v>0.177503</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0961675</v>
+        <v>0.096329</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0975488</v>
+        <v>0.0993053</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245347</v>
+        <v>0.244301</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244954</v>
+        <v>0.244602</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184843</v>
+        <v>0.185249</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110817</v>
+        <v>0.112213</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112655</v>
+        <v>0.113354</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289655</v>
+        <v>0.29319</v>
       </c>
       <c r="C23" t="n">
-        <v>0.294623</v>
+        <v>0.300126</v>
       </c>
       <c r="D23" t="n">
-        <v>0.191819</v>
+        <v>0.192017</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08349090000000001</v>
+        <v>0.0843646</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0843685</v>
+        <v>0.0848809</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100503</v>
+        <v>0.101161</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11171</v>
+        <v>0.103551</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198737</v>
+        <v>0.197991</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0833801</v>
+        <v>0.08700720000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08574270000000001</v>
+        <v>0.08802840000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103056</v>
+        <v>0.103149</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105452</v>
+        <v>0.108276</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206758</v>
+        <v>0.205938</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08363619999999999</v>
+        <v>0.08787929999999999</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08596769999999999</v>
+        <v>0.0857144</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103547</v>
+        <v>0.105328</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108772</v>
+        <v>0.109766</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213384</v>
+        <v>0.212388</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08370660000000001</v>
+        <v>0.08766839999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0874954</v>
+        <v>0.08852309999999999</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.107542</v>
+        <v>0.10758</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109204</v>
+        <v>0.108846</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220596</v>
+        <v>0.219639</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0880775</v>
+        <v>0.09571540000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0891449</v>
+        <v>0.08909540000000001</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109375</v>
+        <v>0.113681</v>
       </c>
       <c r="C28" t="n">
-        <v>0.115666</v>
+        <v>0.120721</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226237</v>
+        <v>0.225597</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084483</v>
+        <v>0.0871963</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0901576</v>
+        <v>0.08729290000000001</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115661</v>
+        <v>0.116619</v>
       </c>
       <c r="C29" t="n">
-        <v>0.120844</v>
+        <v>0.120126</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232637</v>
+        <v>0.232687</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0861107</v>
+        <v>0.08636770000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0878221</v>
+        <v>0.0914132</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119367</v>
+        <v>0.120987</v>
       </c>
       <c r="C30" t="n">
-        <v>0.12495</v>
+        <v>0.123619</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237178</v>
+        <v>0.237656</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0894717</v>
+        <v>0.09354510000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09448719999999999</v>
+        <v>0.0933011</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127108</v>
+        <v>0.130139</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129646</v>
+        <v>0.133443</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242379</v>
+        <v>0.242367</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0875963</v>
+        <v>0.08712159999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0890529</v>
+        <v>0.0926405</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136842</v>
+        <v>0.139289</v>
       </c>
       <c r="C32" t="n">
-        <v>0.145006</v>
+        <v>0.147134</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248823</v>
+        <v>0.24921</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0884515</v>
+        <v>0.0920096</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09402770000000001</v>
+        <v>0.0943175</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150786</v>
+        <v>0.154262</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152953</v>
+        <v>0.152823</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254324</v>
+        <v>0.254641</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09147130000000001</v>
+        <v>0.0914281</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0928219</v>
+        <v>0.09375890000000001</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169858</v>
+        <v>0.171083</v>
       </c>
       <c r="C34" t="n">
-        <v>0.172403</v>
+        <v>0.173846</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259805</v>
+        <v>0.260039</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0952982</v>
+        <v>0.101093</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10071</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193761</v>
+        <v>0.200546</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195356</v>
+        <v>0.195507</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190527</v>
+        <v>0.19067</v>
       </c>
       <c r="E35" t="n">
-        <v>0.104368</v>
+        <v>0.11061</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107524</v>
+        <v>0.114174</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23307</v>
+        <v>0.242818</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232938</v>
+        <v>0.235514</v>
       </c>
       <c r="D36" t="n">
         <v>0.197287</v>
       </c>
       <c r="E36" t="n">
-        <v>0.121358</v>
+        <v>0.115897</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1174</v>
+        <v>0.125259</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.277672</v>
+        <v>0.277865</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280784</v>
+        <v>0.287654</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204488</v>
+        <v>0.204404</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0842186</v>
+        <v>0.0844391</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0866625</v>
+        <v>0.09096899999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104881</v>
+        <v>0.105885</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107105</v>
+        <v>0.116584</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211345</v>
+        <v>0.211086</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0887449</v>
+        <v>0.08502079999999999</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08835369999999999</v>
+        <v>0.0913534</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107695</v>
+        <v>0.113894</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10764</v>
+        <v>0.110423</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217851</v>
+        <v>0.218044</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08600190000000001</v>
+        <v>0.0930124</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0883853</v>
+        <v>0.0958788</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107706</v>
+        <v>0.106992</v>
       </c>
       <c r="C40" t="n">
-        <v>0.111766</v>
+        <v>0.110656</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224917</v>
+        <v>0.224999</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0893958</v>
+        <v>0.0848558</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0886623</v>
+        <v>0.0924012</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109209</v>
+        <v>0.110272</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121704</v>
+        <v>0.116815</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231036</v>
+        <v>0.231109</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0898008</v>
+        <v>0.0941718</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0890923</v>
+        <v>0.0885768</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113117</v>
+        <v>0.113845</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117542</v>
+        <v>0.116208</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238093</v>
+        <v>0.238483</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0869515</v>
+        <v>0.0868727</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0905918</v>
+        <v>0.0954334</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116659</v>
+        <v>0.117752</v>
       </c>
       <c r="C43" t="n">
-        <v>0.119593</v>
+        <v>0.120693</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243824</v>
+        <v>0.24387</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08632910000000001</v>
+        <v>0.0907245</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0904025</v>
+        <v>0.0939953</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12578</v>
+        <v>0.122826</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127679</v>
+        <v>0.133025</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250125</v>
+        <v>0.249944</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0881547</v>
+        <v>0.0958391</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09075999999999999</v>
+        <v>0.0915087</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.136132</v>
+        <v>0.131319</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133033</v>
+        <v>0.135279</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255562</v>
+        <v>0.255784</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0883128</v>
+        <v>0.0958461</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0919432</v>
+        <v>0.0935976</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138138</v>
+        <v>0.140043</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143014</v>
+        <v>0.143701</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260846</v>
+        <v>0.26072</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0894259</v>
+        <v>0.0902932</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09363970000000001</v>
+        <v>0.0980685</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150149</v>
+        <v>0.15363</v>
       </c>
       <c r="C47" t="n">
-        <v>0.154379</v>
+        <v>0.154943</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266185</v>
+        <v>0.266122</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0922502</v>
+        <v>0.0929407</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09747160000000001</v>
+        <v>0.0963157</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167762</v>
+        <v>0.181219</v>
       </c>
       <c r="C48" t="n">
-        <v>0.175553</v>
+        <v>0.173121</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272097</v>
+        <v>0.272185</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0964685</v>
+        <v>0.09620190000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100177</v>
+        <v>0.100352</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190233</v>
+        <v>0.191398</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193977</v>
+        <v>0.194004</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278027</v>
+        <v>0.278119</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102152</v>
+        <v>0.102617</v>
       </c>
       <c r="F49" t="n">
-        <v>0.113274</v>
+        <v>0.107534</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224564</v>
+        <v>0.228059</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226567</v>
+        <v>0.227602</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198275</v>
+        <v>0.198505</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11196</v>
+        <v>0.112887</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116285</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268868</v>
+        <v>0.276149</v>
       </c>
       <c r="C51" t="n">
-        <v>0.273698</v>
+        <v>0.284095</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204881</v>
+        <v>0.205094</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0874028</v>
+        <v>0.0858892</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0904712</v>
+        <v>0.09011039999999999</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.334694</v>
+        <v>0.31976</v>
       </c>
       <c r="C52" t="n">
-        <v>0.331476</v>
+        <v>0.331893</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211226</v>
+        <v>0.211313</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0879407</v>
+        <v>0.0879549</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08994729999999999</v>
+        <v>0.0907111</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.120928</v>
+        <v>0.111437</v>
       </c>
       <c r="C53" t="n">
-        <v>0.112075</v>
+        <v>0.114467</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217859</v>
+        <v>0.218324</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0875317</v>
+        <v>0.0874822</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0906457</v>
+        <v>0.09131930000000001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110545</v>
+        <v>0.120629</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115073</v>
+        <v>0.116999</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224524</v>
+        <v>0.224719</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0869968</v>
+        <v>0.0917345</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09080149999999999</v>
+        <v>0.0928619</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.120775</v>
+        <v>0.113375</v>
       </c>
       <c r="C55" t="n">
-        <v>0.12344</v>
+        <v>0.118753</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230548</v>
+        <v>0.230836</v>
       </c>
       <c r="E55" t="n">
-        <v>0.087614</v>
+        <v>0.0886224</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0957399</v>
+        <v>0.09380860000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115978</v>
+        <v>0.119163</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119878</v>
+        <v>0.123886</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236592</v>
+        <v>0.236697</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0884578</v>
+        <v>0.0922259</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0954356</v>
+        <v>0.09687129999999999</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1208</v>
+        <v>0.120013</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133534</v>
+        <v>0.126912</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24206</v>
+        <v>0.242251</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0898557</v>
+        <v>0.08942219999999999</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09431929999999999</v>
+        <v>0.09770669999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.132959</v>
+        <v>0.126714</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136849</v>
+        <v>0.137065</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247361</v>
+        <v>0.247344</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0937727</v>
+        <v>0.090003</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09514830000000001</v>
+        <v>0.0949488</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131247</v>
+        <v>0.130765</v>
       </c>
       <c r="C59" t="n">
-        <v>0.139123</v>
+        <v>0.137915</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252799</v>
+        <v>0.252853</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09057320000000001</v>
+        <v>0.0914147</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0964696</v>
+        <v>0.0990279</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139317</v>
+        <v>0.142359</v>
       </c>
       <c r="C60" t="n">
-        <v>0.146517</v>
+        <v>0.14446</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257889</v>
+        <v>0.257897</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0922795</v>
+        <v>0.09282020000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09765310000000001</v>
+        <v>0.0994254</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149794</v>
+        <v>0.153494</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156423</v>
+        <v>0.154032</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262687</v>
+        <v>0.262846</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09612179999999999</v>
+        <v>0.0997371</v>
       </c>
       <c r="F61" t="n">
-        <v>0.104949</v>
+        <v>0.11293</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.163889</v>
+        <v>0.165413</v>
       </c>
       <c r="C62" t="n">
-        <v>0.173058</v>
+        <v>0.17642</v>
       </c>
       <c r="D62" t="n">
-        <v>0.268869</v>
+        <v>0.269444</v>
       </c>
       <c r="E62" t="n">
-        <v>0.106123</v>
+        <v>0.09924479999999999</v>
       </c>
       <c r="F62" t="n">
-        <v>0.108027</v>
+        <v>0.107939</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185329</v>
+        <v>0.188479</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194791</v>
+        <v>0.193379</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274643</v>
+        <v>0.274982</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10267</v>
+        <v>0.109754</v>
       </c>
       <c r="F63" t="n">
-        <v>0.11378</v>
+        <v>0.114673</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217355</v>
+        <v>0.217928</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22562</v>
+        <v>0.224617</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200925</v>
+        <v>0.201156</v>
       </c>
       <c r="E64" t="n">
-        <v>0.119438</v>
+        <v>0.119034</v>
       </c>
       <c r="F64" t="n">
-        <v>0.118221</v>
+        <v>0.11726</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271217</v>
+        <v>0.262751</v>
       </c>
       <c r="C65" t="n">
-        <v>0.273725</v>
+        <v>0.269368</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2077</v>
+        <v>0.208305</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127073</v>
+        <v>0.127899</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132606</v>
+        <v>0.132669</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.310465</v>
+        <v>0.33472</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321295</v>
+        <v>0.322211</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216183</v>
+        <v>0.216267</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0931049</v>
+        <v>0.0982447</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10937</v>
+        <v>0.101927</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130765</v>
+        <v>0.130799</v>
       </c>
       <c r="C67" t="n">
-        <v>0.12838</v>
+        <v>0.135489</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226134</v>
+        <v>0.225327</v>
       </c>
       <c r="E67" t="n">
-        <v>0.104325</v>
+        <v>0.0980892</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0975816</v>
+        <v>0.105225</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.13186</v>
+        <v>0.123235</v>
       </c>
       <c r="C68" t="n">
-        <v>0.136397</v>
+        <v>0.129117</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233653</v>
+        <v>0.233133</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0940457</v>
+        <v>0.100367</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103667</v>
+        <v>0.110621</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125406</v>
+        <v>0.133719</v>
       </c>
       <c r="C69" t="n">
-        <v>0.137648</v>
+        <v>0.131171</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241037</v>
+        <v>0.242138</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0995211</v>
+        <v>0.0996049</v>
       </c>
       <c r="F69" t="n">
-        <v>0.111257</v>
+        <v>0.106566</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128547</v>
+        <v>0.136786</v>
       </c>
       <c r="C70" t="n">
-        <v>0.136115</v>
+        <v>0.142444</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250725</v>
+        <v>0.250817</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100059</v>
+        <v>0.100442</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101945</v>
+        <v>0.101414</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131445</v>
+        <v>0.132763</v>
       </c>
       <c r="C71" t="n">
-        <v>0.13862</v>
+        <v>0.138565</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260889</v>
+        <v>0.261776</v>
       </c>
       <c r="E71" t="n">
-        <v>0.097218</v>
+        <v>0.108423</v>
       </c>
       <c r="F71" t="n">
-        <v>0.106592</v>
+        <v>0.107223</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146887</v>
+        <v>0.145325</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153486</v>
+        <v>0.144419</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272348</v>
+        <v>0.272016</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0967867</v>
+        <v>0.101495</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108177</v>
+        <v>0.108001</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.145106</v>
+        <v>0.148532</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159009</v>
+        <v>0.159118</v>
       </c>
       <c r="D73" t="n">
-        <v>0.28187</v>
+        <v>0.281077</v>
       </c>
       <c r="E73" t="n">
-        <v>0.107779</v>
+        <v>0.102912</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104765</v>
+        <v>0.11194</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161142</v>
+        <v>0.161507</v>
       </c>
       <c r="C74" t="n">
-        <v>0.160189</v>
+        <v>0.162953</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296082</v>
+        <v>0.296971</v>
       </c>
       <c r="E74" t="n">
-        <v>0.107308</v>
+        <v>0.105288</v>
       </c>
       <c r="F74" t="n">
-        <v>0.10639</v>
+        <v>0.113591</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162091</v>
+        <v>0.172302</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178737</v>
+        <v>0.172423</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310382</v>
+        <v>0.308289</v>
       </c>
       <c r="E75" t="n">
-        <v>0.105411</v>
+        <v>0.114791</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116559</v>
+        <v>0.116485</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175258</v>
+        <v>0.176837</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189146</v>
+        <v>0.188081</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326351</v>
+        <v>0.325767</v>
       </c>
       <c r="E76" t="n">
-        <v>0.118718</v>
+        <v>0.104854</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11908</v>
+        <v>0.118219</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19492</v>
+        <v>0.197633</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204968</v>
+        <v>0.206844</v>
       </c>
       <c r="D77" t="n">
-        <v>0.341803</v>
+        <v>0.340838</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109662</v>
+        <v>0.109683</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12534</v>
+        <v>0.117703</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22914</v>
+        <v>0.234394</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237238</v>
+        <v>0.235022</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266567</v>
+        <v>0.263717</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125632</v>
+        <v>0.124085</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127963</v>
+        <v>0.133327</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27374</v>
+        <v>0.275225</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27872</v>
+        <v>0.278778</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282873</v>
+        <v>0.28102</v>
       </c>
       <c r="E79" t="n">
-        <v>0.138257</v>
+        <v>0.14148</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148005</v>
+        <v>0.141043</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.32653</v>
+        <v>0.328269</v>
       </c>
       <c r="C80" t="n">
-        <v>0.356212</v>
+        <v>0.341947</v>
       </c>
       <c r="D80" t="n">
-        <v>0.298937</v>
+        <v>0.29975</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105869</v>
+        <v>0.109343</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067</v>
+        <v>0.111694</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.143648</v>
+        <v>0.144611</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141756</v>
+        <v>0.141516</v>
       </c>
       <c r="D81" t="n">
-        <v>0.319403</v>
+        <v>0.317104</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107762</v>
+        <v>0.10803</v>
       </c>
       <c r="F81" t="n">
-        <v>0.106891</v>
+        <v>0.107912</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146224</v>
+        <v>0.136889</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14374</v>
+        <v>0.152802</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339857</v>
+        <v>0.33861</v>
       </c>
       <c r="E82" t="n">
-        <v>0.104754</v>
+        <v>0.105478</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107997</v>
+        <v>0.115801</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148878</v>
+        <v>0.139009</v>
       </c>
       <c r="C83" t="n">
-        <v>0.149369</v>
+        <v>0.155713</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361283</v>
+        <v>0.358944</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101981</v>
+        <v>0.101956</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115475</v>
+        <v>0.114016</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14117</v>
+        <v>0.151348</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149797</v>
+        <v>0.149626</v>
       </c>
       <c r="D84" t="n">
-        <v>0.381626</v>
+        <v>0.379871</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107481</v>
+        <v>0.106895</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109967</v>
+        <v>0.116467</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145113</v>
+        <v>0.152481</v>
       </c>
       <c r="C85" t="n">
-        <v>0.162555</v>
+        <v>0.154883</v>
       </c>
       <c r="D85" t="n">
-        <v>0.404512</v>
+        <v>0.403215</v>
       </c>
       <c r="E85" t="n">
-        <v>0.110373</v>
+        <v>0.110573</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114278</v>
+        <v>0.111108</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.149525</v>
+        <v>0.149435</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168694</v>
+        <v>0.168546</v>
       </c>
       <c r="D86" t="n">
-        <v>0.427241</v>
+        <v>0.425186</v>
       </c>
       <c r="E86" t="n">
-        <v>0.111475</v>
+        <v>0.105187</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113188</v>
+        <v>0.113727</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.162563</v>
+        <v>0.165159</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177016</v>
+        <v>0.176545</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450663</v>
+        <v>0.449308</v>
       </c>
       <c r="E87" t="n">
-        <v>0.105384</v>
+        <v>0.10563</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115667</v>
+        <v>0.120756</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17445</v>
+        <v>0.162869</v>
       </c>
       <c r="C88" t="n">
-        <v>0.177916</v>
+        <v>0.187717</v>
       </c>
       <c r="D88" t="n">
-        <v>0.473721</v>
+        <v>0.472905</v>
       </c>
       <c r="E88" t="n">
-        <v>0.10741</v>
+        <v>0.106951</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125676</v>
+        <v>0.124118</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.174759</v>
+        <v>0.17333</v>
       </c>
       <c r="C89" t="n">
-        <v>0.201739</v>
+        <v>0.19905</v>
       </c>
       <c r="D89" t="n">
-        <v>0.499156</v>
+        <v>0.497556</v>
       </c>
       <c r="E89" t="n">
-        <v>0.116946</v>
+        <v>0.108815</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122577</v>
+        <v>0.129473</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197575</v>
+        <v>0.199022</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220158</v>
+        <v>0.208465</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525479</v>
+        <v>0.523612</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113347</v>
+        <v>0.119043</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128962</v>
+        <v>0.13431</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.218572</v>
+        <v>0.207209</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233891</v>
+        <v>0.238663</v>
       </c>
       <c r="D91" t="n">
-        <v>0.552256</v>
+        <v>0.551921</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11848</v>
+        <v>0.117341</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143834</v>
+        <v>0.14205</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242226</v>
+        <v>0.235419</v>
       </c>
       <c r="C92" t="n">
-        <v>0.277437</v>
+        <v>0.27585</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412733</v>
+        <v>0.413519</v>
       </c>
       <c r="E92" t="n">
-        <v>0.12702</v>
+        <v>0.130525</v>
       </c>
       <c r="F92" t="n">
-        <v>0.156345</v>
+        <v>0.153853</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.280186</v>
+        <v>0.277272</v>
       </c>
       <c r="C93" t="n">
-        <v>0.357217</v>
+        <v>0.346019</v>
       </c>
       <c r="D93" t="n">
-        <v>0.431583</v>
+        <v>0.43163</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14693</v>
+        <v>0.140388</v>
       </c>
       <c r="F93" t="n">
-        <v>0.16995</v>
+        <v>0.1701</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.344429</v>
+        <v>0.342049</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41231</v>
+        <v>0.412888</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450849</v>
+        <v>0.449905</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106868</v>
+        <v>0.106212</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12011</v>
+        <v>0.119795</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.145182</v>
+        <v>0.145832</v>
       </c>
       <c r="C95" t="n">
-        <v>0.161074</v>
+        <v>0.16133</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469897</v>
+        <v>0.46897</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108381</v>
+        <v>0.110741</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123513</v>
+        <v>0.123881</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153077</v>
+        <v>0.157375</v>
       </c>
       <c r="C96" t="n">
-        <v>0.170288</v>
+        <v>0.166733</v>
       </c>
       <c r="D96" t="n">
-        <v>0.492284</v>
+        <v>0.489924</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115109</v>
+        <v>0.109513</v>
       </c>
       <c r="F96" t="n">
-        <v>0.129938</v>
+        <v>0.128111</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153236</v>
+        <v>0.156964</v>
       </c>
       <c r="C97" t="n">
-        <v>0.173335</v>
+        <v>0.1837</v>
       </c>
       <c r="D97" t="n">
-        <v>0.512189</v>
+        <v>0.5103259999999999</v>
       </c>
       <c r="E97" t="n">
-        <v>0.114664</v>
+        <v>0.110859</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135649</v>
+        <v>0.133626</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.155348</v>
+        <v>0.158</v>
       </c>
       <c r="C98" t="n">
-        <v>0.192632</v>
+        <v>0.190491</v>
       </c>
       <c r="D98" t="n">
-        <v>0.531796</v>
+        <v>0.532805</v>
       </c>
       <c r="E98" t="n">
-        <v>0.118953</v>
+        <v>0.118457</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138072</v>
+        <v>0.138587</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.16961</v>
+        <v>0.159923</v>
       </c>
       <c r="C99" t="n">
-        <v>0.191052</v>
+        <v>0.192092</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553366</v>
+        <v>0.553566</v>
       </c>
       <c r="E99" t="n">
-        <v>0.115594</v>
+        <v>0.121645</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147575</v>
+        <v>0.149002</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167593</v>
+        <v>0.175567</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208322</v>
+        <v>0.204531</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576799</v>
+        <v>0.576029</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118399</v>
+        <v>0.118523</v>
       </c>
       <c r="F100" t="n">
-        <v>0.15056</v>
+        <v>0.15658</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.185524</v>
+        <v>0.186209</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223648</v>
+        <v>0.217456</v>
       </c>
       <c r="D101" t="n">
-        <v>0.600619</v>
+        <v>0.600633</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122541</v>
+        <v>0.122227</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157396</v>
+        <v>0.157987</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196072</v>
+        <v>0.197549</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232886</v>
+        <v>0.241773</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6277700000000001</v>
+        <v>0.627524</v>
       </c>
       <c r="E102" t="n">
-        <v>0.131045</v>
+        <v>0.127109</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164278</v>
+        <v>0.164745</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202971</v>
+        <v>0.212659</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258763</v>
+        <v>0.252152</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653913</v>
+        <v>0.653803</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131856</v>
+        <v>0.13219</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172877</v>
+        <v>0.173265</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218853</v>
+        <v>0.221982</v>
       </c>
       <c r="C104" t="n">
-        <v>0.28017</v>
+        <v>0.271772</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680511</v>
+        <v>0.681084</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138038</v>
+        <v>0.138748</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181794</v>
+        <v>0.184628</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243152</v>
+        <v>0.243359</v>
       </c>
       <c r="C105" t="n">
-        <v>0.307575</v>
+        <v>0.314976</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71376</v>
+        <v>0.711126</v>
       </c>
       <c r="E105" t="n">
-        <v>0.149419</v>
+        <v>0.150992</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192323</v>
+        <v>0.192183</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277518</v>
+        <v>0.283105</v>
       </c>
       <c r="C106" t="n">
-        <v>0.336866</v>
+        <v>0.337508</v>
       </c>
       <c r="D106" t="n">
-        <v>0.744909</v>
+        <v>0.743258</v>
       </c>
       <c r="E106" t="n">
-        <v>0.16156</v>
+        <v>0.15823</v>
       </c>
       <c r="F106" t="n">
-        <v>0.20557</v>
+        <v>0.211871</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317812</v>
+        <v>0.320042</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403143</v>
+        <v>0.403206</v>
       </c>
       <c r="D107" t="n">
-        <v>0.581893</v>
+        <v>0.581578</v>
       </c>
       <c r="E107" t="n">
-        <v>0.179837</v>
+        <v>0.180311</v>
       </c>
       <c r="F107" t="n">
-        <v>0.225221</v>
+        <v>0.225353</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.385367</v>
+        <v>0.383407</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474288</v>
+        <v>0.490577</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602503</v>
+        <v>0.602681</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127101</v>
+        <v>0.127774</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159177</v>
+        <v>0.159322</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480512</v>
+        <v>0.479066</v>
       </c>
       <c r="C109" t="n">
-        <v>0.591257</v>
+        <v>0.593214</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623573</v>
+        <v>0.623892</v>
       </c>
       <c r="E109" t="n">
-        <v>0.129482</v>
+        <v>0.13384</v>
       </c>
       <c r="F109" t="n">
-        <v>0.166012</v>
+        <v>0.163233</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.170775</v>
+        <v>0.17112</v>
       </c>
       <c r="C110" t="n">
-        <v>0.217372</v>
+        <v>0.216617</v>
       </c>
       <c r="D110" t="n">
-        <v>0.645783</v>
+        <v>0.646458</v>
       </c>
       <c r="E110" t="n">
-        <v>0.135248</v>
+        <v>0.132393</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1667</v>
+        <v>0.166736</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175052</v>
+        <v>0.186495</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212532</v>
+        <v>0.212356</v>
       </c>
       <c r="D111" t="n">
-        <v>0.668441</v>
+        <v>0.668975</v>
       </c>
       <c r="E111" t="n">
-        <v>0.141053</v>
+        <v>0.135045</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170497</v>
+        <v>0.170538</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179714</v>
+        <v>0.190651</v>
       </c>
       <c r="C112" t="n">
-        <v>0.221723</v>
+        <v>0.225042</v>
       </c>
       <c r="D112" t="n">
-        <v>0.691638</v>
+        <v>0.692544</v>
       </c>
       <c r="E112" t="n">
-        <v>0.137009</v>
+        <v>0.137316</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174245</v>
+        <v>0.174462</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.186246</v>
+        <v>0.185481</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226366</v>
+        <v>0.22651</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716625</v>
+        <v>0.716871</v>
       </c>
       <c r="E113" t="n">
-        <v>0.139959</v>
+        <v>0.144076</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178304</v>
+        <v>0.178438</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.20272</v>
+        <v>0.192238</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246478</v>
+        <v>0.237277</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742117</v>
+        <v>0.7422840000000001</v>
       </c>
       <c r="E114" t="n">
-        <v>0.142504</v>
+        <v>0.142784</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182744</v>
+        <v>0.182919</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199909</v>
+        <v>0.200304</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246073</v>
+        <v>0.246901</v>
       </c>
       <c r="D115" t="n">
-        <v>0.768271</v>
+        <v>0.769633</v>
       </c>
       <c r="E115" t="n">
-        <v>0.145633</v>
+        <v>0.145802</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187567</v>
+        <v>0.187698</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22054</v>
+        <v>0.209688</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259559</v>
+        <v>0.260008</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795025</v>
+        <v>0.794784</v>
       </c>
       <c r="E116" t="n">
-        <v>0.148844</v>
+        <v>0.148979</v>
       </c>
       <c r="F116" t="n">
-        <v>0.197611</v>
+        <v>0.193148</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232134</v>
+        <v>0.231257</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286268</v>
+        <v>0.276973</v>
       </c>
       <c r="D117" t="n">
-        <v>0.824638</v>
+        <v>0.823722</v>
       </c>
       <c r="E117" t="n">
-        <v>0.152845</v>
+        <v>0.153155</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199315</v>
+        <v>0.200684</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2378</v>
+        <v>0.240762</v>
       </c>
       <c r="C118" t="n">
-        <v>0.297698</v>
+        <v>0.300499</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852299</v>
+        <v>0.852479</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15773</v>
+        <v>0.158054</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207083</v>
+        <v>0.207031</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259649</v>
+        <v>0.263615</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325009</v>
+        <v>0.329263</v>
       </c>
       <c r="D119" t="n">
-        <v>0.883943</v>
+        <v>0.883818</v>
       </c>
       <c r="E119" t="n">
-        <v>0.171009</v>
+        <v>0.164675</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216294</v>
+        <v>0.223363</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288596</v>
+        <v>0.299257</v>
       </c>
       <c r="C120" t="n">
-        <v>0.376008</v>
+        <v>0.363134</v>
       </c>
       <c r="D120" t="n">
-        <v>0.915811</v>
+        <v>0.915805</v>
       </c>
       <c r="E120" t="n">
-        <v>0.173419</v>
+        <v>0.173891</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229626</v>
+        <v>0.229814</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333168</v>
+        <v>0.331739</v>
       </c>
       <c r="C121" t="n">
-        <v>0.418735</v>
+        <v>0.44193</v>
       </c>
       <c r="D121" t="n">
-        <v>0.666343</v>
+        <v>0.667183</v>
       </c>
       <c r="E121" t="n">
-        <v>0.191729</v>
+        <v>0.188353</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249269</v>
+        <v>0.249289</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.405557</v>
+        <v>0.396166</v>
       </c>
       <c r="C122" t="n">
-        <v>0.502499</v>
+        <v>0.511666</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68623</v>
+        <v>0.687416</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210653</v>
+        <v>0.210846</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281049</v>
+        <v>0.281491</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492533</v>
+        <v>0.497575</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6286040000000001</v>
+        <v>0.639208</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7073469999999999</v>
+        <v>0.708902</v>
       </c>
       <c r="E123" t="n">
-        <v>0.143939</v>
+        <v>0.148297</v>
       </c>
       <c r="F123" t="n">
-        <v>0.186195</v>
+        <v>0.184297</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20082</v>
+        <v>0.198878</v>
       </c>
       <c r="C124" t="n">
-        <v>0.238964</v>
+        <v>0.229731</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.730246</v>
       </c>
       <c r="E124" t="n">
-        <v>0.15359</v>
+        <v>0.146729</v>
       </c>
       <c r="F124" t="n">
-        <v>0.185526</v>
+        <v>0.186407</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.192192</v>
+        <v>0.202323</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246171</v>
+        <v>0.239272</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7528359999999999</v>
+        <v>0.753875</v>
       </c>
       <c r="E125" t="n">
-        <v>0.147808</v>
+        <v>0.148993</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190763</v>
+        <v>0.190464</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.206337</v>
+        <v>0.19855</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243478</v>
+        <v>0.245217</v>
       </c>
       <c r="D126" t="n">
-        <v>0.775919</v>
+        <v>0.776613</v>
       </c>
       <c r="E126" t="n">
-        <v>0.157702</v>
+        <v>0.150214</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194295</v>
+        <v>0.194933</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201521</v>
+        <v>0.210199</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249792</v>
+        <v>0.26663</v>
       </c>
       <c r="D127" t="n">
-        <v>0.800156</v>
+        <v>0.801413</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154783</v>
+        <v>0.154174</v>
       </c>
       <c r="F127" t="n">
-        <v>0.199039</v>
+        <v>0.198146</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21373</v>
+        <v>0.220739</v>
       </c>
       <c r="C128" t="n">
-        <v>0.271526</v>
+        <v>0.257849</v>
       </c>
       <c r="D128" t="n">
-        <v>0.826344</v>
+        <v>0.827674</v>
       </c>
       <c r="E128" t="n">
-        <v>0.159524</v>
+        <v>0.15669</v>
       </c>
       <c r="F128" t="n">
-        <v>0.212529</v>
+        <v>0.205023</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217014</v>
+        <v>0.214901</v>
       </c>
       <c r="C129" t="n">
-        <v>0.280501</v>
+        <v>0.285073</v>
       </c>
       <c r="D129" t="n">
-        <v>0.853481</v>
+        <v>0.854681</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163251</v>
+        <v>0.157727</v>
       </c>
       <c r="F129" t="n">
-        <v>0.209722</v>
+        <v>0.210374</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.236461</v>
+        <v>0.223637</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300318</v>
+        <v>0.290669</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8821020000000001</v>
+        <v>0.883847</v>
       </c>
       <c r="E130" t="n">
-        <v>0.16384</v>
+        <v>0.161775</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215224</v>
+        <v>0.215217</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240487</v>
+        <v>0.247022</v>
       </c>
       <c r="C131" t="n">
-        <v>0.313006</v>
+        <v>0.314676</v>
       </c>
       <c r="D131" t="n">
-        <v>0.911572</v>
+        <v>0.912579</v>
       </c>
       <c r="E131" t="n">
-        <v>0.16536</v>
+        <v>0.171475</v>
       </c>
       <c r="F131" t="n">
-        <v>0.221508</v>
+        <v>0.220133</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.253786</v>
+        <v>0.261815</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333909</v>
+        <v>0.328756</v>
       </c>
       <c r="D132" t="n">
-        <v>0.941553</v>
+        <v>0.943887</v>
       </c>
       <c r="E132" t="n">
-        <v>0.172207</v>
+        <v>0.170138</v>
       </c>
       <c r="F132" t="n">
-        <v>0.230421</v>
+        <v>0.230562</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276986</v>
+        <v>0.275545</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355722</v>
+        <v>0.359899</v>
       </c>
       <c r="D133" t="n">
-        <v>0.974621</v>
+        <v>0.97634</v>
       </c>
       <c r="E133" t="n">
-        <v>0.17961</v>
+        <v>0.181339</v>
       </c>
       <c r="F133" t="n">
-        <v>0.242344</v>
+        <v>0.242793</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.303162</v>
+        <v>0.306425</v>
       </c>
       <c r="C134" t="n">
-        <v>0.400576</v>
+        <v>0.39932</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00818</v>
+        <v>1.00939</v>
       </c>
       <c r="E134" t="n">
-        <v>0.196963</v>
+        <v>0.191135</v>
       </c>
       <c r="F134" t="n">
-        <v>0.253315</v>
+        <v>0.254559</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.352737</v>
+        <v>0.345232</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453079</v>
+        <v>0.460974</v>
       </c>
       <c r="D135" t="n">
-        <v>0.689411</v>
+        <v>0.690391</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200569</v>
+        <v>0.200516</v>
       </c>
       <c r="F135" t="n">
-        <v>0.276764</v>
+        <v>0.273417</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.407639</v>
+        <v>0.417288</v>
       </c>
       <c r="C136" t="n">
-        <v>0.53596</v>
+        <v>0.532456</v>
       </c>
       <c r="D136" t="n">
-        <v>0.707985</v>
+        <v>0.708417</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220418</v>
+        <v>0.223497</v>
       </c>
       <c r="F136" t="n">
-        <v>0.307876</v>
+        <v>0.313085</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509264</v>
+        <v>0.520802</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662875</v>
+        <v>0.677061</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727162</v>
+        <v>0.727994</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26336</v>
+        <v>0.265974</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305964</v>
+        <v>0.312242</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.338529</v>
+        <v>0.345841</v>
       </c>
       <c r="C138" t="n">
-        <v>0.378836</v>
+        <v>0.389638</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7464769999999999</v>
+        <v>0.74719</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261065</v>
+        <v>0.266186</v>
       </c>
       <c r="F138" t="n">
-        <v>0.313658</v>
+        <v>0.315323</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334485</v>
+        <v>0.333274</v>
       </c>
       <c r="C139" t="n">
-        <v>0.389453</v>
+        <v>0.397946</v>
       </c>
       <c r="D139" t="n">
-        <v>0.767076</v>
+        <v>0.768174</v>
       </c>
       <c r="E139" t="n">
-        <v>0.269825</v>
+        <v>0.268882</v>
       </c>
       <c r="F139" t="n">
-        <v>0.318651</v>
+        <v>0.318562</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33927</v>
+        <v>0.336047</v>
       </c>
       <c r="C140" t="n">
-        <v>0.397263</v>
+        <v>0.396299</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788419</v>
+        <v>0.788306</v>
       </c>
       <c r="E140" t="n">
-        <v>0.270241</v>
+        <v>0.272516</v>
       </c>
       <c r="F140" t="n">
-        <v>0.323727</v>
+        <v>0.322259</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347716</v>
+        <v>0.343579</v>
       </c>
       <c r="C141" t="n">
-        <v>0.406633</v>
+        <v>0.415029</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8106680000000001</v>
+        <v>0.810777</v>
       </c>
       <c r="E141" t="n">
-        <v>0.268334</v>
+        <v>0.272383</v>
       </c>
       <c r="F141" t="n">
-        <v>0.329523</v>
+        <v>0.328126</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35535</v>
+        <v>0.360315</v>
       </c>
       <c r="C142" t="n">
-        <v>0.427503</v>
+        <v>0.417571</v>
       </c>
       <c r="D142" t="n">
-        <v>0.834187</v>
+        <v>0.834292</v>
       </c>
       <c r="E142" t="n">
-        <v>0.274118</v>
+        <v>0.273135</v>
       </c>
       <c r="F142" t="n">
-        <v>0.333461</v>
+        <v>0.336271</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.358712</v>
+        <v>0.361161</v>
       </c>
       <c r="C143" t="n">
-        <v>0.434735</v>
+        <v>0.435033</v>
       </c>
       <c r="D143" t="n">
-        <v>0.859027</v>
+        <v>0.859429</v>
       </c>
       <c r="E143" t="n">
-        <v>0.279229</v>
+        <v>0.281091</v>
       </c>
       <c r="F143" t="n">
-        <v>0.34016</v>
+        <v>0.339184</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102473</v>
+        <v>0.102334</v>
       </c>
       <c r="C2" t="n">
-        <v>0.110188</v>
+        <v>0.105312</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179117</v>
+        <v>0.180181</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0826783</v>
+        <v>0.0826392</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0824824</v>
+        <v>0.08248</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110021</v>
+        <v>0.110207</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113753</v>
+        <v>0.114186</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185535</v>
+        <v>0.187236</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0821779</v>
+        <v>0.082204</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0808918</v>
+        <v>0.0810264</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.126451</v>
+        <v>0.12412</v>
       </c>
       <c r="C4" t="n">
-        <v>0.123786</v>
+        <v>0.124193</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193297</v>
+        <v>0.194603</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0807742</v>
+        <v>0.0808541</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0818972</v>
+        <v>0.0820863</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140703</v>
+        <v>0.140253</v>
       </c>
       <c r="C5" t="n">
-        <v>0.14405</v>
+        <v>0.14424</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200686</v>
+        <v>0.201181</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0819341</v>
+        <v>0.0820583</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0820617</v>
+        <v>0.0822377</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.170066</v>
+        <v>0.167261</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167246</v>
+        <v>0.167264</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20692</v>
+        <v>0.207175</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0832878</v>
+        <v>0.0829483</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0834563</v>
+        <v>0.08334709999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.20167</v>
+        <v>0.200214</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201332</v>
+        <v>0.201253</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156313</v>
+        <v>0.155018</v>
       </c>
       <c r="E7" t="n">
-        <v>0.088088</v>
+        <v>0.0879812</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0884664</v>
+        <v>0.0890421</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.250048</v>
+        <v>0.248115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245281</v>
+        <v>0.260037</v>
       </c>
       <c r="D8" t="n">
-        <v>0.16339</v>
+        <v>0.162882</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103949</v>
+        <v>0.103578</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104143</v>
+        <v>0.104074</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.297421</v>
+        <v>0.292138</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294575</v>
+        <v>0.294384</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170519</v>
+        <v>0.169004</v>
       </c>
       <c r="E9" t="n">
-        <v>0.08192199999999999</v>
+        <v>0.08191039999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0826407</v>
+        <v>0.082729</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09413299999999999</v>
+        <v>0.0941934</v>
       </c>
       <c r="C10" t="n">
-        <v>0.095799</v>
+        <v>0.09524199999999999</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176617</v>
+        <v>0.175953</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0820975</v>
+        <v>0.0820198</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0842247</v>
+        <v>0.08263620000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0954368</v>
+        <v>0.0955468</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0963024</v>
+        <v>0.09709909999999999</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184416</v>
+        <v>0.183721</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08222069999999999</v>
+        <v>0.0822653</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0832127</v>
+        <v>0.0833322</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0967987</v>
+        <v>0.0972285</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0976504</v>
+        <v>0.0983401</v>
       </c>
       <c r="D12" t="n">
-        <v>0.192335</v>
+        <v>0.191188</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0823931</v>
+        <v>0.0825534</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0834767</v>
+        <v>0.0834637</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0986249</v>
+        <v>0.0988265</v>
       </c>
       <c r="C13" t="n">
-        <v>0.10019</v>
+        <v>0.100931</v>
       </c>
       <c r="D13" t="n">
-        <v>0.199128</v>
+        <v>0.197758</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0826397</v>
+        <v>0.0826171</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0845133</v>
+        <v>0.0836987</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100683</v>
+        <v>0.10079</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106907</v>
+        <v>0.105655</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205507</v>
+        <v>0.204738</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08289050000000001</v>
+        <v>0.0829162</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0836182</v>
+        <v>0.0835747</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105546</v>
+        <v>0.105579</v>
       </c>
       <c r="C15" t="n">
-        <v>0.109493</v>
+        <v>0.10836</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212735</v>
+        <v>0.211645</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0834155</v>
+        <v>0.0831987</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0837585</v>
+        <v>0.0906082</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11482</v>
+        <v>0.112514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.117583</v>
+        <v>0.114575</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218732</v>
+        <v>0.217576</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0833448</v>
+        <v>0.0833667</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0838965</v>
+        <v>0.0914986</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121267</v>
+        <v>0.121804</v>
       </c>
       <c r="C17" t="n">
-        <v>0.12335</v>
+        <v>0.124659</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224827</v>
+        <v>0.223823</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0836162</v>
+        <v>0.0838628</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0859463</v>
+        <v>0.08439140000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.138292</v>
+        <v>0.13291</v>
       </c>
       <c r="C18" t="n">
-        <v>0.142954</v>
+        <v>0.13559</v>
       </c>
       <c r="D18" t="n">
-        <v>0.23037</v>
+        <v>0.230402</v>
       </c>
       <c r="E18" t="n">
-        <v>0.085803</v>
+        <v>0.0838428</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08472979999999999</v>
+        <v>0.08468879999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150644</v>
+        <v>0.149982</v>
       </c>
       <c r="C19" t="n">
-        <v>0.15436</v>
+        <v>0.150859</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236983</v>
+        <v>0.236281</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0842393</v>
+        <v>0.0840789</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0923161</v>
+        <v>0.0853664</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.176239</v>
+        <v>0.170945</v>
       </c>
       <c r="C20" t="n">
-        <v>0.183739</v>
+        <v>0.171093</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242776</v>
+        <v>0.241465</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0880012</v>
+        <v>0.08788700000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0948286</v>
+        <v>0.0914708</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.208915</v>
+        <v>0.200369</v>
       </c>
       <c r="C21" t="n">
-        <v>0.216339</v>
+        <v>0.208377</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177503</v>
+        <v>0.177777</v>
       </c>
       <c r="E21" t="n">
-        <v>0.096329</v>
+        <v>0.0963661</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0993053</v>
+        <v>0.103395</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.244301</v>
+        <v>0.239691</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244602</v>
+        <v>0.245487</v>
       </c>
       <c r="D22" t="n">
-        <v>0.185249</v>
+        <v>0.184352</v>
       </c>
       <c r="E22" t="n">
-        <v>0.112213</v>
+        <v>0.110265</v>
       </c>
       <c r="F22" t="n">
-        <v>0.113354</v>
+        <v>0.111232</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.29319</v>
+        <v>0.287106</v>
       </c>
       <c r="C23" t="n">
-        <v>0.300126</v>
+        <v>0.292068</v>
       </c>
       <c r="D23" t="n">
-        <v>0.192017</v>
+        <v>0.191542</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0843646</v>
+        <v>0.0830982</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0848809</v>
+        <v>0.0837712</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.101161</v>
+        <v>0.100348</v>
       </c>
       <c r="C24" t="n">
-        <v>0.103551</v>
+        <v>0.102096</v>
       </c>
       <c r="D24" t="n">
-        <v>0.197991</v>
+        <v>0.198338</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08700720000000001</v>
+        <v>0.0832072</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08802840000000001</v>
+        <v>0.0895405</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103149</v>
+        <v>0.101646</v>
       </c>
       <c r="C25" t="n">
-        <v>0.108276</v>
+        <v>0.104482</v>
       </c>
       <c r="D25" t="n">
-        <v>0.205938</v>
+        <v>0.205875</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08787929999999999</v>
+        <v>0.08344260000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0857144</v>
+        <v>0.0842668</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.105328</v>
+        <v>0.104871</v>
       </c>
       <c r="C26" t="n">
-        <v>0.109766</v>
+        <v>0.107131</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212388</v>
+        <v>0.212409</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08766839999999999</v>
+        <v>0.0852542</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08852309999999999</v>
+        <v>0.0888384</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.10758</v>
+        <v>0.108134</v>
       </c>
       <c r="C27" t="n">
-        <v>0.108846</v>
+        <v>0.109368</v>
       </c>
       <c r="D27" t="n">
-        <v>0.219639</v>
+        <v>0.219799</v>
       </c>
       <c r="E27" t="n">
-        <v>0.09571540000000001</v>
+        <v>0.0839722</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08909540000000001</v>
+        <v>0.0853761</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.113681</v>
+        <v>0.111336</v>
       </c>
       <c r="C28" t="n">
-        <v>0.120721</v>
+        <v>0.120565</v>
       </c>
       <c r="D28" t="n">
-        <v>0.225597</v>
+        <v>0.225288</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0871963</v>
+        <v>0.0844608</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08729290000000001</v>
+        <v>0.0857914</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.116619</v>
+        <v>0.115526</v>
       </c>
       <c r="C29" t="n">
-        <v>0.120126</v>
+        <v>0.122791</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232687</v>
+        <v>0.232905</v>
       </c>
       <c r="E29" t="n">
-        <v>0.08636770000000001</v>
+        <v>0.08489679999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0914132</v>
+        <v>0.09031989999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120987</v>
+        <v>0.119995</v>
       </c>
       <c r="C30" t="n">
-        <v>0.123619</v>
+        <v>0.126418</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237656</v>
+        <v>0.236862</v>
       </c>
       <c r="E30" t="n">
-        <v>0.09354510000000001</v>
+        <v>0.0894414</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0933011</v>
+        <v>0.08893</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.130139</v>
+        <v>0.127461</v>
       </c>
       <c r="C31" t="n">
-        <v>0.133443</v>
+        <v>0.132881</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242367</v>
+        <v>0.242593</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08712159999999999</v>
+        <v>0.08727989999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0926405</v>
+        <v>0.0900762</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.139289</v>
+        <v>0.136881</v>
       </c>
       <c r="C32" t="n">
-        <v>0.147134</v>
+        <v>0.150396</v>
       </c>
       <c r="D32" t="n">
-        <v>0.24921</v>
+        <v>0.248134</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0920096</v>
+        <v>0.0909794</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0943175</v>
+        <v>0.09402870000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.154262</v>
+        <v>0.151668</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152823</v>
+        <v>0.152841</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254641</v>
+        <v>0.254356</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0914281</v>
+        <v>0.09466280000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.09375890000000001</v>
+        <v>0.096998</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.171083</v>
+        <v>0.170224</v>
       </c>
       <c r="C34" t="n">
-        <v>0.173846</v>
+        <v>0.174342</v>
       </c>
       <c r="D34" t="n">
-        <v>0.260039</v>
+        <v>0.259259</v>
       </c>
       <c r="E34" t="n">
-        <v>0.101093</v>
+        <v>0.0962672</v>
       </c>
       <c r="F34" t="n">
-        <v>0.103</v>
+        <v>0.0985729</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.200546</v>
+        <v>0.193324</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195507</v>
+        <v>0.19864</v>
       </c>
       <c r="D35" t="n">
-        <v>0.19067</v>
+        <v>0.190534</v>
       </c>
       <c r="E35" t="n">
-        <v>0.11061</v>
+        <v>0.103303</v>
       </c>
       <c r="F35" t="n">
-        <v>0.114174</v>
+        <v>0.108649</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.242818</v>
+        <v>0.232953</v>
       </c>
       <c r="C36" t="n">
-        <v>0.235514</v>
+        <v>0.245</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197287</v>
+        <v>0.197186</v>
       </c>
       <c r="E36" t="n">
-        <v>0.115897</v>
+        <v>0.117575</v>
       </c>
       <c r="F36" t="n">
-        <v>0.125259</v>
+        <v>0.11754</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.277865</v>
+        <v>0.279264</v>
       </c>
       <c r="C37" t="n">
-        <v>0.287654</v>
+        <v>0.282633</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204404</v>
+        <v>0.205065</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0844391</v>
+        <v>0.0884239</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09096899999999999</v>
+        <v>0.0950942</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.105885</v>
+        <v>0.104144</v>
       </c>
       <c r="C38" t="n">
-        <v>0.116584</v>
+        <v>0.108467</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211086</v>
+        <v>0.21086</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08502079999999999</v>
+        <v>0.08520750000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0913534</v>
+        <v>0.0939379</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.113894</v>
+        <v>0.105368</v>
       </c>
       <c r="C39" t="n">
-        <v>0.110423</v>
+        <v>0.108639</v>
       </c>
       <c r="D39" t="n">
-        <v>0.218044</v>
+        <v>0.21775</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0930124</v>
+        <v>0.0856843</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0958788</v>
+        <v>0.0888791</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.106992</v>
+        <v>0.106287</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110656</v>
+        <v>0.111785</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224999</v>
+        <v>0.225036</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0848558</v>
+        <v>0.0849929</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0924012</v>
+        <v>0.089001</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.110272</v>
+        <v>0.109524</v>
       </c>
       <c r="C41" t="n">
-        <v>0.116815</v>
+        <v>0.112467</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231109</v>
+        <v>0.231375</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0941718</v>
+        <v>0.0863473</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0885768</v>
+        <v>0.100063</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113845</v>
+        <v>0.11398</v>
       </c>
       <c r="C42" t="n">
-        <v>0.116208</v>
+        <v>0.11517</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238483</v>
+        <v>0.237305</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0868727</v>
+        <v>0.0858733</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0954334</v>
+        <v>0.090214</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.117752</v>
+        <v>0.118496</v>
       </c>
       <c r="C43" t="n">
-        <v>0.120693</v>
+        <v>0.120327</v>
       </c>
       <c r="D43" t="n">
-        <v>0.24387</v>
+        <v>0.243574</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0907245</v>
+        <v>0.0862401</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0939953</v>
+        <v>0.0904735</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.122826</v>
+        <v>0.122622</v>
       </c>
       <c r="C44" t="n">
-        <v>0.133025</v>
+        <v>0.132303</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249944</v>
+        <v>0.249552</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0958391</v>
+        <v>0.0868544</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0915087</v>
+        <v>0.09504460000000001</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.131319</v>
+        <v>0.136061</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135279</v>
+        <v>0.131646</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255784</v>
+        <v>0.255391</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0958461</v>
+        <v>0.0878081</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0935976</v>
+        <v>0.0918839</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.140043</v>
+        <v>0.145489</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143701</v>
+        <v>0.14121</v>
       </c>
       <c r="D46" t="n">
-        <v>0.26072</v>
+        <v>0.260912</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0902932</v>
+        <v>0.0919481</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0980685</v>
+        <v>0.094163</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.15363</v>
+        <v>0.150608</v>
       </c>
       <c r="C47" t="n">
-        <v>0.154943</v>
+        <v>0.156584</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266122</v>
+        <v>0.266191</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0929407</v>
+        <v>0.0921959</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0963157</v>
+        <v>0.0972121</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.181219</v>
+        <v>0.167706</v>
       </c>
       <c r="C48" t="n">
-        <v>0.173121</v>
+        <v>0.174519</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272185</v>
+        <v>0.271979</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09620190000000001</v>
+        <v>0.096319</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100352</v>
+        <v>0.100908</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.191398</v>
+        <v>0.189298</v>
       </c>
       <c r="C49" t="n">
-        <v>0.194004</v>
+        <v>0.193931</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278119</v>
+        <v>0.277775</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102617</v>
+        <v>0.10242</v>
       </c>
       <c r="F49" t="n">
-        <v>0.107534</v>
+        <v>0.106215</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.228059</v>
+        <v>0.22471</v>
       </c>
       <c r="C50" t="n">
-        <v>0.227602</v>
+        <v>0.228865</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198505</v>
+        <v>0.198175</v>
       </c>
       <c r="E50" t="n">
-        <v>0.112887</v>
+        <v>0.112509</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1174</v>
+        <v>0.116004</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.276149</v>
+        <v>0.270854</v>
       </c>
       <c r="C51" t="n">
-        <v>0.284095</v>
+        <v>0.272873</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205094</v>
+        <v>0.204878</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0858892</v>
+        <v>0.0863191</v>
       </c>
       <c r="F51" t="n">
-        <v>0.09011039999999999</v>
+        <v>0.0900687</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.31976</v>
+        <v>0.325846</v>
       </c>
       <c r="C52" t="n">
-        <v>0.331893</v>
+        <v>0.337485</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211313</v>
+        <v>0.211078</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0879549</v>
+        <v>0.09112679999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0907111</v>
+        <v>0.0897978</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.111437</v>
+        <v>0.117847</v>
       </c>
       <c r="C53" t="n">
-        <v>0.114467</v>
+        <v>0.112229</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218324</v>
+        <v>0.217928</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0874822</v>
+        <v>0.08694689999999999</v>
       </c>
       <c r="F53" t="n">
-        <v>0.09131930000000001</v>
+        <v>0.0919895</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.120629</v>
+        <v>0.112091</v>
       </c>
       <c r="C54" t="n">
-        <v>0.116999</v>
+        <v>0.117179</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224719</v>
+        <v>0.224345</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0917345</v>
+        <v>0.100266</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0928619</v>
+        <v>0.0907699</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113375</v>
+        <v>0.115459</v>
       </c>
       <c r="C55" t="n">
-        <v>0.118753</v>
+        <v>0.126106</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230836</v>
+        <v>0.230778</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0886224</v>
+        <v>0.0874659</v>
       </c>
       <c r="F55" t="n">
-        <v>0.09380860000000001</v>
+        <v>0.09536699999999999</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.119163</v>
+        <v>0.115282</v>
       </c>
       <c r="C56" t="n">
-        <v>0.123886</v>
+        <v>0.121211</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236697</v>
+        <v>0.236772</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0922259</v>
+        <v>0.08853270000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.09687129999999999</v>
+        <v>0.09629169999999999</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.120013</v>
+        <v>0.12806</v>
       </c>
       <c r="C57" t="n">
-        <v>0.126912</v>
+        <v>0.126959</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242251</v>
+        <v>0.242143</v>
       </c>
       <c r="E57" t="n">
-        <v>0.08942219999999999</v>
+        <v>0.0962345</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09770669999999999</v>
+        <v>0.0967253</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.126714</v>
+        <v>0.126082</v>
       </c>
       <c r="C58" t="n">
-        <v>0.137065</v>
+        <v>0.130393</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247344</v>
+        <v>0.247383</v>
       </c>
       <c r="E58" t="n">
-        <v>0.090003</v>
+        <v>0.0895025</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0949488</v>
+        <v>0.0955244</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.130765</v>
+        <v>0.134521</v>
       </c>
       <c r="C59" t="n">
-        <v>0.137915</v>
+        <v>0.146965</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252853</v>
+        <v>0.252804</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0914147</v>
+        <v>0.0905243</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0990279</v>
+        <v>0.0951298</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.142359</v>
+        <v>0.140398</v>
       </c>
       <c r="C60" t="n">
-        <v>0.14446</v>
+        <v>0.156157</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257897</v>
+        <v>0.257679</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09282020000000001</v>
+        <v>0.0935074</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0994254</v>
+        <v>0.101435</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.153494</v>
+        <v>0.152261</v>
       </c>
       <c r="C61" t="n">
-        <v>0.154032</v>
+        <v>0.156354</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262846</v>
+        <v>0.262469</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0997371</v>
+        <v>0.102899</v>
       </c>
       <c r="F61" t="n">
-        <v>0.11293</v>
+        <v>0.101025</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.165413</v>
+        <v>0.163729</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17642</v>
+        <v>0.171501</v>
       </c>
       <c r="D62" t="n">
-        <v>0.269444</v>
+        <v>0.268521</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09924479999999999</v>
+        <v>0.104597</v>
       </c>
       <c r="F62" t="n">
-        <v>0.107939</v>
+        <v>0.103822</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.188479</v>
+        <v>0.185905</v>
       </c>
       <c r="C63" t="n">
-        <v>0.193379</v>
+        <v>0.191361</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274982</v>
+        <v>0.273905</v>
       </c>
       <c r="E63" t="n">
-        <v>0.109754</v>
+        <v>0.110103</v>
       </c>
       <c r="F63" t="n">
-        <v>0.114673</v>
+        <v>0.114735</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217928</v>
+        <v>0.216641</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224617</v>
+        <v>0.226758</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201156</v>
+        <v>0.200231</v>
       </c>
       <c r="E64" t="n">
-        <v>0.119034</v>
+        <v>0.121272</v>
       </c>
       <c r="F64" t="n">
-        <v>0.11726</v>
+        <v>0.116983</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.262751</v>
+        <v>0.258242</v>
       </c>
       <c r="C65" t="n">
-        <v>0.269368</v>
+        <v>0.268374</v>
       </c>
       <c r="D65" t="n">
-        <v>0.208305</v>
+        <v>0.207253</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127899</v>
+        <v>0.137517</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132669</v>
+        <v>0.132581</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.33472</v>
+        <v>0.309862</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322211</v>
+        <v>0.320977</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216267</v>
+        <v>0.214819</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0982447</v>
+        <v>0.09868879999999999</v>
       </c>
       <c r="F66" t="n">
-        <v>0.101927</v>
+        <v>0.09903869999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130799</v>
+        <v>0.129579</v>
       </c>
       <c r="C67" t="n">
-        <v>0.135489</v>
+        <v>0.134872</v>
       </c>
       <c r="D67" t="n">
-        <v>0.225327</v>
+        <v>0.224839</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0980892</v>
+        <v>0.0935467</v>
       </c>
       <c r="F67" t="n">
-        <v>0.105225</v>
+        <v>0.103378</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123235</v>
+        <v>0.127279</v>
       </c>
       <c r="C68" t="n">
-        <v>0.129117</v>
+        <v>0.12892</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233133</v>
+        <v>0.231828</v>
       </c>
       <c r="E68" t="n">
-        <v>0.100367</v>
+        <v>0.106813</v>
       </c>
       <c r="F68" t="n">
-        <v>0.110621</v>
+        <v>0.105535</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.133719</v>
+        <v>0.134007</v>
       </c>
       <c r="C69" t="n">
-        <v>0.131171</v>
+        <v>0.139498</v>
       </c>
       <c r="D69" t="n">
-        <v>0.242138</v>
+        <v>0.240889</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0996049</v>
+        <v>0.09721870000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.106566</v>
+        <v>0.100317</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.136786</v>
+        <v>0.128545</v>
       </c>
       <c r="C70" t="n">
-        <v>0.142444</v>
+        <v>0.143055</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250817</v>
+        <v>0.249937</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100442</v>
+        <v>0.0955602</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101414</v>
+        <v>0.105011</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.132763</v>
+        <v>0.132877</v>
       </c>
       <c r="C71" t="n">
-        <v>0.138565</v>
+        <v>0.146817</v>
       </c>
       <c r="D71" t="n">
-        <v>0.261776</v>
+        <v>0.258415</v>
       </c>
       <c r="E71" t="n">
-        <v>0.108423</v>
+        <v>0.108404</v>
       </c>
       <c r="F71" t="n">
-        <v>0.107223</v>
+        <v>0.108045</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.145325</v>
+        <v>0.137702</v>
       </c>
       <c r="C72" t="n">
-        <v>0.144419</v>
+        <v>0.15191</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272016</v>
+        <v>0.267764</v>
       </c>
       <c r="E72" t="n">
-        <v>0.101495</v>
+        <v>0.097202</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108001</v>
+        <v>0.103543</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.148532</v>
+        <v>0.142158</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159118</v>
+        <v>0.152175</v>
       </c>
       <c r="D73" t="n">
-        <v>0.281077</v>
+        <v>0.278259</v>
       </c>
       <c r="E73" t="n">
-        <v>0.102912</v>
+        <v>0.102205</v>
       </c>
       <c r="F73" t="n">
-        <v>0.11194</v>
+        <v>0.112097</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161507</v>
+        <v>0.152164</v>
       </c>
       <c r="C74" t="n">
-        <v>0.162953</v>
+        <v>0.168134</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296971</v>
+        <v>0.292537</v>
       </c>
       <c r="E74" t="n">
-        <v>0.105288</v>
+        <v>0.104336</v>
       </c>
       <c r="F74" t="n">
-        <v>0.113591</v>
+        <v>0.111588</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.172302</v>
+        <v>0.171639</v>
       </c>
       <c r="C75" t="n">
-        <v>0.172423</v>
+        <v>0.168777</v>
       </c>
       <c r="D75" t="n">
-        <v>0.308289</v>
+        <v>0.303999</v>
       </c>
       <c r="E75" t="n">
-        <v>0.114791</v>
+        <v>0.102094</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116485</v>
+        <v>0.114353</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.176837</v>
+        <v>0.179054</v>
       </c>
       <c r="C76" t="n">
-        <v>0.188081</v>
+        <v>0.183964</v>
       </c>
       <c r="D76" t="n">
-        <v>0.325767</v>
+        <v>0.322639</v>
       </c>
       <c r="E76" t="n">
-        <v>0.104854</v>
+        <v>0.113921</v>
       </c>
       <c r="F76" t="n">
-        <v>0.118219</v>
+        <v>0.112116</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.197633</v>
+        <v>0.198052</v>
       </c>
       <c r="C77" t="n">
-        <v>0.206844</v>
+        <v>0.209459</v>
       </c>
       <c r="D77" t="n">
-        <v>0.340838</v>
+        <v>0.33676</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109683</v>
+        <v>0.116303</v>
       </c>
       <c r="F77" t="n">
-        <v>0.117703</v>
+        <v>0.124458</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.234394</v>
+        <v>0.221178</v>
       </c>
       <c r="C78" t="n">
-        <v>0.235022</v>
+        <v>0.232448</v>
       </c>
       <c r="D78" t="n">
-        <v>0.263717</v>
+        <v>0.261854</v>
       </c>
       <c r="E78" t="n">
-        <v>0.124085</v>
+        <v>0.125661</v>
       </c>
       <c r="F78" t="n">
-        <v>0.133327</v>
+        <v>0.13344</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.275225</v>
+        <v>0.276113</v>
       </c>
       <c r="C79" t="n">
-        <v>0.278778</v>
+        <v>0.277603</v>
       </c>
       <c r="D79" t="n">
-        <v>0.28102</v>
+        <v>0.276896</v>
       </c>
       <c r="E79" t="n">
-        <v>0.14148</v>
+        <v>0.141599</v>
       </c>
       <c r="F79" t="n">
-        <v>0.141043</v>
+        <v>0.144782</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.328269</v>
+        <v>0.331813</v>
       </c>
       <c r="C80" t="n">
-        <v>0.341947</v>
+        <v>0.353484</v>
       </c>
       <c r="D80" t="n">
-        <v>0.29975</v>
+        <v>0.29566</v>
       </c>
       <c r="E80" t="n">
-        <v>0.109343</v>
+        <v>0.110545</v>
       </c>
       <c r="F80" t="n">
-        <v>0.111694</v>
+        <v>0.109729</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.144611</v>
+        <v>0.135034</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141516</v>
+        <v>0.141085</v>
       </c>
       <c r="D81" t="n">
-        <v>0.317104</v>
+        <v>0.317529</v>
       </c>
       <c r="E81" t="n">
-        <v>0.10803</v>
+        <v>0.101775</v>
       </c>
       <c r="F81" t="n">
-        <v>0.107912</v>
+        <v>0.112342</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.136889</v>
+        <v>0.140182</v>
       </c>
       <c r="C82" t="n">
-        <v>0.152802</v>
+        <v>0.147499</v>
       </c>
       <c r="D82" t="n">
-        <v>0.33861</v>
+        <v>0.336279</v>
       </c>
       <c r="E82" t="n">
-        <v>0.105478</v>
+        <v>0.101556</v>
       </c>
       <c r="F82" t="n">
-        <v>0.115801</v>
+        <v>0.114383</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.139009</v>
+        <v>0.140016</v>
       </c>
       <c r="C83" t="n">
-        <v>0.155713</v>
+        <v>0.145939</v>
       </c>
       <c r="D83" t="n">
-        <v>0.358944</v>
+        <v>0.357493</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101956</v>
+        <v>0.102301</v>
       </c>
       <c r="F83" t="n">
-        <v>0.114016</v>
+        <v>0.108935</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.151348</v>
+        <v>0.151633</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149626</v>
+        <v>0.150183</v>
       </c>
       <c r="D84" t="n">
-        <v>0.379871</v>
+        <v>0.379103</v>
       </c>
       <c r="E84" t="n">
-        <v>0.106895</v>
+        <v>0.102637</v>
       </c>
       <c r="F84" t="n">
-        <v>0.116467</v>
+        <v>0.116124</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.152481</v>
+        <v>0.146047</v>
       </c>
       <c r="C85" t="n">
-        <v>0.154883</v>
+        <v>0.153557</v>
       </c>
       <c r="D85" t="n">
-        <v>0.403215</v>
+        <v>0.401556</v>
       </c>
       <c r="E85" t="n">
-        <v>0.110573</v>
+        <v>0.103096</v>
       </c>
       <c r="F85" t="n">
-        <v>0.111108</v>
+        <v>0.110874</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.149435</v>
+        <v>0.152524</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168546</v>
+        <v>0.16838</v>
       </c>
       <c r="D86" t="n">
-        <v>0.425186</v>
+        <v>0.425387</v>
       </c>
       <c r="E86" t="n">
-        <v>0.105187</v>
+        <v>0.104058</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113727</v>
+        <v>0.116838</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.165159</v>
+        <v>0.158236</v>
       </c>
       <c r="C87" t="n">
-        <v>0.176545</v>
+        <v>0.171169</v>
       </c>
       <c r="D87" t="n">
-        <v>0.449308</v>
+        <v>0.44853</v>
       </c>
       <c r="E87" t="n">
-        <v>0.10563</v>
+        <v>0.112271</v>
       </c>
       <c r="F87" t="n">
-        <v>0.120756</v>
+        <v>0.121046</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.162869</v>
+        <v>0.173463</v>
       </c>
       <c r="C88" t="n">
-        <v>0.187717</v>
+        <v>0.175567</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472905</v>
+        <v>0.471781</v>
       </c>
       <c r="E88" t="n">
-        <v>0.106951</v>
+        <v>0.107192</v>
       </c>
       <c r="F88" t="n">
-        <v>0.124118</v>
+        <v>0.124703</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.17333</v>
+        <v>0.173433</v>
       </c>
       <c r="C89" t="n">
-        <v>0.19905</v>
+        <v>0.19179</v>
       </c>
       <c r="D89" t="n">
-        <v>0.497556</v>
+        <v>0.497336</v>
       </c>
       <c r="E89" t="n">
-        <v>0.108815</v>
+        <v>0.115391</v>
       </c>
       <c r="F89" t="n">
-        <v>0.129473</v>
+        <v>0.122245</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.199022</v>
+        <v>0.189518</v>
       </c>
       <c r="C90" t="n">
-        <v>0.208465</v>
+        <v>0.212146</v>
       </c>
       <c r="D90" t="n">
-        <v>0.523612</v>
+        <v>0.52354</v>
       </c>
       <c r="E90" t="n">
-        <v>0.119043</v>
+        <v>0.112838</v>
       </c>
       <c r="F90" t="n">
-        <v>0.13431</v>
+        <v>0.13512</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.207209</v>
+        <v>0.207634</v>
       </c>
       <c r="C91" t="n">
-        <v>0.238663</v>
+        <v>0.237281</v>
       </c>
       <c r="D91" t="n">
-        <v>0.551921</v>
+        <v>0.55111</v>
       </c>
       <c r="E91" t="n">
-        <v>0.117341</v>
+        <v>0.117471</v>
       </c>
       <c r="F91" t="n">
-        <v>0.14205</v>
+        <v>0.138366</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.235419</v>
+        <v>0.236622</v>
       </c>
       <c r="C92" t="n">
-        <v>0.27585</v>
+        <v>0.287658</v>
       </c>
       <c r="D92" t="n">
-        <v>0.413519</v>
+        <v>0.412956</v>
       </c>
       <c r="E92" t="n">
-        <v>0.130525</v>
+        <v>0.126296</v>
       </c>
       <c r="F92" t="n">
-        <v>0.153853</v>
+        <v>0.148823</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.277272</v>
+        <v>0.28156</v>
       </c>
       <c r="C93" t="n">
-        <v>0.346019</v>
+        <v>0.333898</v>
       </c>
       <c r="D93" t="n">
-        <v>0.43163</v>
+        <v>0.430269</v>
       </c>
       <c r="E93" t="n">
-        <v>0.140388</v>
+        <v>0.139915</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1701</v>
+        <v>0.176195</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.342049</v>
+        <v>0.345933</v>
       </c>
       <c r="C94" t="n">
-        <v>0.412888</v>
+        <v>0.413097</v>
       </c>
       <c r="D94" t="n">
-        <v>0.449905</v>
+        <v>0.450074</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106212</v>
+        <v>0.106785</v>
       </c>
       <c r="F94" t="n">
-        <v>0.119795</v>
+        <v>0.119814</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.145832</v>
+        <v>0.144589</v>
       </c>
       <c r="C95" t="n">
-        <v>0.16133</v>
+        <v>0.160194</v>
       </c>
       <c r="D95" t="n">
-        <v>0.46897</v>
+        <v>0.46903</v>
       </c>
       <c r="E95" t="n">
-        <v>0.110741</v>
+        <v>0.107501</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123881</v>
+        <v>0.123906</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.157375</v>
+        <v>0.146756</v>
       </c>
       <c r="C96" t="n">
-        <v>0.166733</v>
+        <v>0.166265</v>
       </c>
       <c r="D96" t="n">
-        <v>0.489924</v>
+        <v>0.489073</v>
       </c>
       <c r="E96" t="n">
-        <v>0.109513</v>
+        <v>0.114906</v>
       </c>
       <c r="F96" t="n">
-        <v>0.128111</v>
+        <v>0.127995</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.156964</v>
+        <v>0.151905</v>
       </c>
       <c r="C97" t="n">
-        <v>0.1837</v>
+        <v>0.181239</v>
       </c>
       <c r="D97" t="n">
-        <v>0.5103259999999999</v>
+        <v>0.509664</v>
       </c>
       <c r="E97" t="n">
-        <v>0.110859</v>
+        <v>0.110341</v>
       </c>
       <c r="F97" t="n">
-        <v>0.133626</v>
+        <v>0.134162</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.158</v>
+        <v>0.154019</v>
       </c>
       <c r="C98" t="n">
-        <v>0.190491</v>
+        <v>0.18143</v>
       </c>
       <c r="D98" t="n">
-        <v>0.532805</v>
+        <v>0.530966</v>
       </c>
       <c r="E98" t="n">
-        <v>0.118457</v>
+        <v>0.112856</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138587</v>
+        <v>0.138088</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.159923</v>
+        <v>0.170904</v>
       </c>
       <c r="C99" t="n">
-        <v>0.192092</v>
+        <v>0.190737</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553566</v>
+        <v>0.552715</v>
       </c>
       <c r="E99" t="n">
-        <v>0.121645</v>
+        <v>0.120745</v>
       </c>
       <c r="F99" t="n">
-        <v>0.149002</v>
+        <v>0.143931</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.175567</v>
+        <v>0.172402</v>
       </c>
       <c r="C100" t="n">
-        <v>0.204531</v>
+        <v>0.213429</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576029</v>
+        <v>0.575985</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118523</v>
+        <v>0.118192</v>
       </c>
       <c r="F100" t="n">
-        <v>0.15658</v>
+        <v>0.150336</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.186209</v>
+        <v>0.177357</v>
       </c>
       <c r="C101" t="n">
-        <v>0.217456</v>
+        <v>0.224747</v>
       </c>
       <c r="D101" t="n">
-        <v>0.600633</v>
+        <v>0.600172</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122227</v>
+        <v>0.122421</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157987</v>
+        <v>0.157281</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.197549</v>
+        <v>0.187708</v>
       </c>
       <c r="C102" t="n">
-        <v>0.241773</v>
+        <v>0.230003</v>
       </c>
       <c r="D102" t="n">
-        <v>0.627524</v>
+        <v>0.626324</v>
       </c>
       <c r="E102" t="n">
-        <v>0.127109</v>
+        <v>0.126895</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164745</v>
+        <v>0.164462</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.212659</v>
+        <v>0.202254</v>
       </c>
       <c r="C103" t="n">
-        <v>0.252152</v>
+        <v>0.249826</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653803</v>
+        <v>0.653845</v>
       </c>
       <c r="E103" t="n">
-        <v>0.13219</v>
+        <v>0.132085</v>
       </c>
       <c r="F103" t="n">
-        <v>0.173265</v>
+        <v>0.172842</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.221982</v>
+        <v>0.218818</v>
       </c>
       <c r="C104" t="n">
-        <v>0.271772</v>
+        <v>0.282224</v>
       </c>
       <c r="D104" t="n">
-        <v>0.681084</v>
+        <v>0.681544</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138748</v>
+        <v>0.138537</v>
       </c>
       <c r="F104" t="n">
-        <v>0.184628</v>
+        <v>0.18169</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243359</v>
+        <v>0.244377</v>
       </c>
       <c r="C105" t="n">
-        <v>0.314976</v>
+        <v>0.310822</v>
       </c>
       <c r="D105" t="n">
-        <v>0.711126</v>
+        <v>0.710948</v>
       </c>
       <c r="E105" t="n">
-        <v>0.150992</v>
+        <v>0.151161</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192183</v>
+        <v>0.192053</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.283105</v>
+        <v>0.275377</v>
       </c>
       <c r="C106" t="n">
-        <v>0.337508</v>
+        <v>0.34751</v>
       </c>
       <c r="D106" t="n">
-        <v>0.743258</v>
+        <v>0.743993</v>
       </c>
       <c r="E106" t="n">
-        <v>0.15823</v>
+        <v>0.158078</v>
       </c>
       <c r="F106" t="n">
-        <v>0.211871</v>
+        <v>0.205657</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.320042</v>
+        <v>0.318166</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403206</v>
+        <v>0.392545</v>
       </c>
       <c r="D107" t="n">
-        <v>0.581578</v>
+        <v>0.582745</v>
       </c>
       <c r="E107" t="n">
-        <v>0.180311</v>
+        <v>0.17326</v>
       </c>
       <c r="F107" t="n">
-        <v>0.225353</v>
+        <v>0.225496</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.383407</v>
+        <v>0.383915</v>
       </c>
       <c r="C108" t="n">
-        <v>0.490577</v>
+        <v>0.485783</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602681</v>
+        <v>0.602954</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127774</v>
+        <v>0.127544</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159322</v>
+        <v>0.159414</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.479066</v>
+        <v>0.480285</v>
       </c>
       <c r="C109" t="n">
-        <v>0.593214</v>
+        <v>0.590594</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623892</v>
+        <v>0.623734</v>
       </c>
       <c r="E109" t="n">
-        <v>0.13384</v>
+        <v>0.130119</v>
       </c>
       <c r="F109" t="n">
-        <v>0.163233</v>
+        <v>0.162899</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.17112</v>
+        <v>0.171198</v>
       </c>
       <c r="C110" t="n">
-        <v>0.216617</v>
+        <v>0.216742</v>
       </c>
       <c r="D110" t="n">
-        <v>0.646458</v>
+        <v>0.646191</v>
       </c>
       <c r="E110" t="n">
-        <v>0.132393</v>
+        <v>0.135505</v>
       </c>
       <c r="F110" t="n">
-        <v>0.166736</v>
+        <v>0.166845</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.186495</v>
+        <v>0.178673</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212356</v>
+        <v>0.212477</v>
       </c>
       <c r="D111" t="n">
-        <v>0.668975</v>
+        <v>0.66932</v>
       </c>
       <c r="E111" t="n">
-        <v>0.135045</v>
+        <v>0.13532</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170538</v>
+        <v>0.170842</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.190651</v>
+        <v>0.18992</v>
       </c>
       <c r="C112" t="n">
-        <v>0.225042</v>
+        <v>0.218804</v>
       </c>
       <c r="D112" t="n">
-        <v>0.692544</v>
+        <v>0.693344</v>
       </c>
       <c r="E112" t="n">
-        <v>0.137316</v>
+        <v>0.137448</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174462</v>
+        <v>0.174317</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.185481</v>
+        <v>0.185143</v>
       </c>
       <c r="C113" t="n">
-        <v>0.22651</v>
+        <v>0.237157</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716871</v>
+        <v>0.717961</v>
       </c>
       <c r="E113" t="n">
-        <v>0.144076</v>
+        <v>0.139893</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178438</v>
+        <v>0.178534</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.192238</v>
+        <v>0.191691</v>
       </c>
       <c r="C114" t="n">
-        <v>0.237277</v>
+        <v>0.246012</v>
       </c>
       <c r="D114" t="n">
-        <v>0.7422840000000001</v>
+        <v>0.74321</v>
       </c>
       <c r="E114" t="n">
-        <v>0.142784</v>
+        <v>0.14282</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182919</v>
+        <v>0.185421</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.200304</v>
+        <v>0.199294</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246901</v>
+        <v>0.246165</v>
       </c>
       <c r="D115" t="n">
-        <v>0.769633</v>
+        <v>0.768898</v>
       </c>
       <c r="E115" t="n">
-        <v>0.145802</v>
+        <v>0.145738</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187698</v>
+        <v>0.187734</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.209688</v>
+        <v>0.209574</v>
       </c>
       <c r="C116" t="n">
-        <v>0.260008</v>
+        <v>0.268956</v>
       </c>
       <c r="D116" t="n">
-        <v>0.794784</v>
+        <v>0.796107</v>
       </c>
       <c r="E116" t="n">
-        <v>0.148979</v>
+        <v>0.154381</v>
       </c>
       <c r="F116" t="n">
-        <v>0.193148</v>
+        <v>0.193105</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.231257</v>
+        <v>0.222516</v>
       </c>
       <c r="C117" t="n">
-        <v>0.276973</v>
+        <v>0.285897</v>
       </c>
       <c r="D117" t="n">
-        <v>0.823722</v>
+        <v>0.825257</v>
       </c>
       <c r="E117" t="n">
-        <v>0.153155</v>
+        <v>0.153032</v>
       </c>
       <c r="F117" t="n">
-        <v>0.200684</v>
+        <v>0.199469</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240762</v>
+        <v>0.24119</v>
       </c>
       <c r="C118" t="n">
-        <v>0.300499</v>
+        <v>0.297092</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852479</v>
+        <v>0.853335</v>
       </c>
       <c r="E118" t="n">
-        <v>0.158054</v>
+        <v>0.157959</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207031</v>
+        <v>0.207012</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.263615</v>
+        <v>0.260514</v>
       </c>
       <c r="C119" t="n">
-        <v>0.329263</v>
+        <v>0.336508</v>
       </c>
       <c r="D119" t="n">
-        <v>0.883818</v>
+        <v>0.884418</v>
       </c>
       <c r="E119" t="n">
-        <v>0.164675</v>
+        <v>0.164411</v>
       </c>
       <c r="F119" t="n">
-        <v>0.223363</v>
+        <v>0.216692</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.299257</v>
+        <v>0.290727</v>
       </c>
       <c r="C120" t="n">
-        <v>0.363134</v>
+        <v>0.364171</v>
       </c>
       <c r="D120" t="n">
-        <v>0.915805</v>
+        <v>0.9169850000000001</v>
       </c>
       <c r="E120" t="n">
-        <v>0.173891</v>
+        <v>0.173812</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229814</v>
+        <v>0.230259</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.331739</v>
+        <v>0.331624</v>
       </c>
       <c r="C121" t="n">
-        <v>0.44193</v>
+        <v>0.43179</v>
       </c>
       <c r="D121" t="n">
-        <v>0.667183</v>
+        <v>0.668311</v>
       </c>
       <c r="E121" t="n">
-        <v>0.188353</v>
+        <v>0.187527</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249289</v>
+        <v>0.249528</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.396166</v>
+        <v>0.404783</v>
       </c>
       <c r="C122" t="n">
-        <v>0.511666</v>
+        <v>0.515711</v>
       </c>
       <c r="D122" t="n">
-        <v>0.687416</v>
+        <v>0.688076</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210846</v>
+        <v>0.210979</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281491</v>
+        <v>0.281883</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.497575</v>
+        <v>0.491248</v>
       </c>
       <c r="C123" t="n">
-        <v>0.639208</v>
+        <v>0.628505</v>
       </c>
       <c r="D123" t="n">
-        <v>0.708902</v>
+        <v>0.709429</v>
       </c>
       <c r="E123" t="n">
-        <v>0.148297</v>
+        <v>0.143056</v>
       </c>
       <c r="F123" t="n">
-        <v>0.184297</v>
+        <v>0.186416</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.198878</v>
+        <v>0.187627</v>
       </c>
       <c r="C124" t="n">
-        <v>0.229731</v>
+        <v>0.23594</v>
       </c>
       <c r="D124" t="n">
-        <v>0.730246</v>
+        <v>0.731523</v>
       </c>
       <c r="E124" t="n">
-        <v>0.146729</v>
+        <v>0.147999</v>
       </c>
       <c r="F124" t="n">
-        <v>0.186407</v>
+        <v>0.187565</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.202323</v>
+        <v>0.200729</v>
       </c>
       <c r="C125" t="n">
-        <v>0.239272</v>
+        <v>0.245514</v>
       </c>
       <c r="D125" t="n">
-        <v>0.753875</v>
+        <v>0.754111</v>
       </c>
       <c r="E125" t="n">
-        <v>0.148993</v>
+        <v>0.147064</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190464</v>
+        <v>0.189579</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.19855</v>
+        <v>0.201292</v>
       </c>
       <c r="C126" t="n">
-        <v>0.245217</v>
+        <v>0.258031</v>
       </c>
       <c r="D126" t="n">
-        <v>0.776613</v>
+        <v>0.777693</v>
       </c>
       <c r="E126" t="n">
-        <v>0.150214</v>
+        <v>0.152939</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194933</v>
+        <v>0.197207</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.210199</v>
+        <v>0.199966</v>
       </c>
       <c r="C127" t="n">
-        <v>0.26663</v>
+        <v>0.263144</v>
       </c>
       <c r="D127" t="n">
-        <v>0.801413</v>
+        <v>0.8029809999999999</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154174</v>
+        <v>0.156692</v>
       </c>
       <c r="F127" t="n">
-        <v>0.198146</v>
+        <v>0.203036</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.220739</v>
+        <v>0.216058</v>
       </c>
       <c r="C128" t="n">
-        <v>0.257849</v>
+        <v>0.271871</v>
       </c>
       <c r="D128" t="n">
-        <v>0.827674</v>
+        <v>0.828685</v>
       </c>
       <c r="E128" t="n">
-        <v>0.15669</v>
+        <v>0.156659</v>
       </c>
       <c r="F128" t="n">
-        <v>0.205023</v>
+        <v>0.204897</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.214901</v>
+        <v>0.224728</v>
       </c>
       <c r="C129" t="n">
-        <v>0.285073</v>
+        <v>0.286386</v>
       </c>
       <c r="D129" t="n">
-        <v>0.854681</v>
+        <v>0.856128</v>
       </c>
       <c r="E129" t="n">
-        <v>0.157727</v>
+        <v>0.161853</v>
       </c>
       <c r="F129" t="n">
-        <v>0.210374</v>
+        <v>0.210487</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.223637</v>
+        <v>0.233899</v>
       </c>
       <c r="C130" t="n">
-        <v>0.290669</v>
+        <v>0.287964</v>
       </c>
       <c r="D130" t="n">
-        <v>0.883847</v>
+        <v>0.8845150000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.161775</v>
+        <v>0.16086</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215217</v>
+        <v>0.219524</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.247022</v>
+        <v>0.239846</v>
       </c>
       <c r="C131" t="n">
-        <v>0.314676</v>
+        <v>0.313563</v>
       </c>
       <c r="D131" t="n">
-        <v>0.912579</v>
+        <v>0.914375</v>
       </c>
       <c r="E131" t="n">
-        <v>0.171475</v>
+        <v>0.179991</v>
       </c>
       <c r="F131" t="n">
-        <v>0.220133</v>
+        <v>0.222038</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.261815</v>
+        <v>0.2651</v>
       </c>
       <c r="C132" t="n">
-        <v>0.328756</v>
+        <v>0.343902</v>
       </c>
       <c r="D132" t="n">
-        <v>0.943887</v>
+        <v>0.945368</v>
       </c>
       <c r="E132" t="n">
-        <v>0.170138</v>
+        <v>0.176154</v>
       </c>
       <c r="F132" t="n">
-        <v>0.230562</v>
+        <v>0.230911</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.275545</v>
+        <v>0.281593</v>
       </c>
       <c r="C133" t="n">
-        <v>0.359899</v>
+        <v>0.366856</v>
       </c>
       <c r="D133" t="n">
-        <v>0.97634</v>
+        <v>0.977278</v>
       </c>
       <c r="E133" t="n">
-        <v>0.181339</v>
+        <v>0.17953</v>
       </c>
       <c r="F133" t="n">
-        <v>0.242793</v>
+        <v>0.242187</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.306425</v>
+        <v>0.306733</v>
       </c>
       <c r="C134" t="n">
-        <v>0.39932</v>
+        <v>0.401102</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00939</v>
+        <v>1.01048</v>
       </c>
       <c r="E134" t="n">
-        <v>0.191135</v>
+        <v>0.186028</v>
       </c>
       <c r="F134" t="n">
-        <v>0.254559</v>
+        <v>0.255102</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.345232</v>
+        <v>0.355913</v>
       </c>
       <c r="C135" t="n">
-        <v>0.460974</v>
+        <v>0.465076</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690391</v>
+        <v>0.6912700000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200516</v>
+        <v>0.204644</v>
       </c>
       <c r="F135" t="n">
-        <v>0.273417</v>
+        <v>0.281726</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.417288</v>
+        <v>0.405597</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532456</v>
+        <v>0.535821</v>
       </c>
       <c r="D136" t="n">
-        <v>0.708417</v>
+        <v>0.709183</v>
       </c>
       <c r="E136" t="n">
-        <v>0.223497</v>
+        <v>0.218983</v>
       </c>
       <c r="F136" t="n">
-        <v>0.313085</v>
+        <v>0.309766</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.520802</v>
+        <v>0.5073839999999999</v>
       </c>
       <c r="C137" t="n">
-        <v>0.677061</v>
+        <v>0.668388</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727994</v>
+        <v>0.728035</v>
       </c>
       <c r="E137" t="n">
-        <v>0.265974</v>
+        <v>0.265858</v>
       </c>
       <c r="F137" t="n">
-        <v>0.312242</v>
+        <v>0.311784</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.345841</v>
+        <v>0.333737</v>
       </c>
       <c r="C138" t="n">
-        <v>0.389638</v>
+        <v>0.389083</v>
       </c>
       <c r="D138" t="n">
-        <v>0.74719</v>
+        <v>0.745018</v>
       </c>
       <c r="E138" t="n">
-        <v>0.266186</v>
+        <v>0.267128</v>
       </c>
       <c r="F138" t="n">
-        <v>0.315323</v>
+        <v>0.315708</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.333274</v>
+        <v>0.338372</v>
       </c>
       <c r="C139" t="n">
-        <v>0.397946</v>
+        <v>0.38784</v>
       </c>
       <c r="D139" t="n">
-        <v>0.768174</v>
+        <v>0.768703</v>
       </c>
       <c r="E139" t="n">
-        <v>0.268882</v>
+        <v>0.268688</v>
       </c>
       <c r="F139" t="n">
-        <v>0.318562</v>
+        <v>0.317292</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.336047</v>
+        <v>0.335879</v>
       </c>
       <c r="C140" t="n">
-        <v>0.396299</v>
+        <v>0.397996</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788306</v>
+        <v>0.790269</v>
       </c>
       <c r="E140" t="n">
-        <v>0.272516</v>
+        <v>0.269837</v>
       </c>
       <c r="F140" t="n">
-        <v>0.322259</v>
+        <v>0.323479</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.343579</v>
+        <v>0.353595</v>
       </c>
       <c r="C141" t="n">
-        <v>0.415029</v>
+        <v>0.405273</v>
       </c>
       <c r="D141" t="n">
-        <v>0.810777</v>
+        <v>0.812433</v>
       </c>
       <c r="E141" t="n">
-        <v>0.272383</v>
+        <v>0.260954</v>
       </c>
       <c r="F141" t="n">
-        <v>0.328126</v>
+        <v>0.326948</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.360315</v>
+        <v>0.355114</v>
       </c>
       <c r="C142" t="n">
-        <v>0.417571</v>
+        <v>0.424409</v>
       </c>
       <c r="D142" t="n">
-        <v>0.834292</v>
+        <v>0.83613</v>
       </c>
       <c r="E142" t="n">
-        <v>0.273135</v>
+        <v>0.262899</v>
       </c>
       <c r="F142" t="n">
-        <v>0.336271</v>
+        <v>0.333706</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.361161</v>
+        <v>0.359579</v>
       </c>
       <c r="C143" t="n">
-        <v>0.435033</v>
+        <v>0.431451</v>
       </c>
       <c r="D143" t="n">
-        <v>0.859429</v>
+        <v>0.860496</v>
       </c>
       <c r="E143" t="n">
-        <v>0.281091</v>
+        <v>0.279323</v>
       </c>
       <c r="F143" t="n">
-        <v>0.339184</v>
+        <v>0.340089</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102299</v>
+        <v>0.102581</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105503</v>
+        <v>0.105343</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179894</v>
+        <v>0.178729</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0826611</v>
+        <v>0.082722</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0824903</v>
+        <v>0.08252669999999999</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110564</v>
+        <v>0.110613</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113788</v>
+        <v>0.114031</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186455</v>
+        <v>0.184599</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0823923</v>
+        <v>0.08238529999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0809429</v>
+        <v>0.08100400000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123853</v>
+        <v>0.124064</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126168</v>
+        <v>0.124148</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193396</v>
+        <v>0.192414</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0809333</v>
+        <v>0.0808677</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08200200000000001</v>
+        <v>0.08200730000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140407</v>
+        <v>0.139983</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149825</v>
+        <v>0.144422</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200884</v>
+        <v>0.199902</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0817259</v>
+        <v>0.08215749999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0821105</v>
+        <v>0.082263</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166812</v>
+        <v>0.166854</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167414</v>
+        <v>0.167104</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207562</v>
+        <v>0.206237</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0831443</v>
+        <v>0.08295660000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0837803</v>
+        <v>0.0837555</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200352</v>
+        <v>0.200474</v>
       </c>
       <c r="C7" t="n">
-        <v>0.209801</v>
+        <v>0.201276</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155981</v>
+        <v>0.155264</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0876319</v>
+        <v>0.08819150000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08880730000000001</v>
+        <v>0.0885614</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248206</v>
+        <v>0.247987</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245478</v>
+        <v>0.244894</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163009</v>
+        <v>0.162067</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103445</v>
+        <v>0.104343</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104281</v>
+        <v>0.103941</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292617</v>
+        <v>0.292289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294541</v>
+        <v>0.29454</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169428</v>
+        <v>0.168635</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0819928</v>
+        <v>0.08194510000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827281</v>
+        <v>0.0828354</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0946512</v>
+        <v>0.0941496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09645910000000001</v>
+        <v>0.0951969</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17652</v>
+        <v>0.175578</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08217960000000001</v>
+        <v>0.08204599999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0828236</v>
+        <v>0.0830302</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09600939999999999</v>
+        <v>0.0955961</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987435</v>
+        <v>0.0971149</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184062</v>
+        <v>0.1836</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0823435</v>
+        <v>0.0822914</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0834527</v>
+        <v>0.08355020000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.100974</v>
+        <v>0.09682399999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101583</v>
+        <v>0.0985224</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191889</v>
+        <v>0.190997</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0824457</v>
+        <v>0.0824994</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08362550000000001</v>
+        <v>0.0837623</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0987553</v>
+        <v>0.0993054</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105479</v>
+        <v>0.100919</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198011</v>
+        <v>0.198072</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.0827832</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0844641</v>
+        <v>0.08399</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100799</v>
+        <v>0.101148</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10286</v>
+        <v>0.103617</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205703</v>
+        <v>0.205508</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0856809</v>
+        <v>0.08299869999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0837083</v>
+        <v>0.08407820000000001</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105058</v>
+        <v>0.10558</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108087</v>
+        <v>0.108265</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213361</v>
+        <v>0.213149</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0834334</v>
+        <v>0.0832267</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0833627</v>
+        <v>0.084276</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11245</v>
+        <v>0.11212</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115553</v>
+        <v>0.113772</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219066</v>
+        <v>0.218589</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0834037</v>
+        <v>0.0833651</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0837175</v>
+        <v>0.0838309</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121977</v>
+        <v>0.121256</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127975</v>
+        <v>0.123769</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224743</v>
+        <v>0.224946</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0836688</v>
+        <v>0.0837016</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0861811</v>
+        <v>0.08430360000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133039</v>
+        <v>0.133027</v>
       </c>
       <c r="C18" t="n">
-        <v>0.134119</v>
+        <v>0.134859</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230211</v>
+        <v>0.230166</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08415499999999999</v>
+        <v>0.0838237</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0869181</v>
+        <v>0.0843882</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.15018</v>
+        <v>0.150087</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161605</v>
+        <v>0.151514</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236751</v>
+        <v>0.236779</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0841356</v>
+        <v>0.08403330000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0883804</v>
+        <v>0.08574030000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170977</v>
+        <v>0.177855</v>
       </c>
       <c r="C20" t="n">
-        <v>0.172727</v>
+        <v>0.170928</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242117</v>
+        <v>0.242327</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0879009</v>
+        <v>0.0882906</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0914576</v>
+        <v>0.0895828</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.203473</v>
+        <v>0.20107</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207519</v>
+        <v>0.205844</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177784</v>
+        <v>0.179038</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0961675</v>
+        <v>0.09640120000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0975488</v>
+        <v>0.097332</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245347</v>
+        <v>0.239887</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244954</v>
+        <v>0.245584</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184843</v>
+        <v>0.185808</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110817</v>
+        <v>0.11051</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112655</v>
+        <v>0.111328</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289655</v>
+        <v>0.287004</v>
       </c>
       <c r="C23" t="n">
-        <v>0.294623</v>
+        <v>0.290891</v>
       </c>
       <c r="D23" t="n">
-        <v>0.191819</v>
+        <v>0.192842</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08349090000000001</v>
+        <v>0.0831519</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0843685</v>
+        <v>0.0845791</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100503</v>
+        <v>0.100456</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11171</v>
+        <v>0.102298</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198737</v>
+        <v>0.199869</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0833801</v>
+        <v>0.0832195</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08574270000000001</v>
+        <v>0.0851802</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103056</v>
+        <v>0.101739</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105452</v>
+        <v>0.103765</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206758</v>
+        <v>0.207482</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08363619999999999</v>
+        <v>0.083479</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08596769999999999</v>
+        <v>0.0855987</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103547</v>
+        <v>0.10324</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108772</v>
+        <v>0.106093</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213384</v>
+        <v>0.21384</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08370660000000001</v>
+        <v>0.0837087</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0874954</v>
+        <v>0.086113</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.107542</v>
+        <v>0.105542</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109204</v>
+        <v>0.116148</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220596</v>
+        <v>0.221067</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0880775</v>
+        <v>0.083992</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0891449</v>
+        <v>0.08641699999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109375</v>
+        <v>0.109242</v>
       </c>
       <c r="C28" t="n">
-        <v>0.115666</v>
+        <v>0.111786</v>
       </c>
       <c r="D28" t="n">
         <v>0.226237</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084483</v>
+        <v>0.0843738</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0901576</v>
+        <v>0.0871908</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115661</v>
+        <v>0.113402</v>
       </c>
       <c r="C29" t="n">
-        <v>0.120844</v>
+        <v>0.116266</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232637</v>
+        <v>0.232787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0861107</v>
+        <v>0.0847016</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0878221</v>
+        <v>0.0873205</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119367</v>
+        <v>0.121061</v>
       </c>
       <c r="C30" t="n">
-        <v>0.12495</v>
+        <v>0.122365</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237178</v>
+        <v>0.238258</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0894717</v>
+        <v>0.0851991</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09448719999999999</v>
+        <v>0.0883598</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127108</v>
+        <v>0.127681</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129646</v>
+        <v>0.137035</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242379</v>
+        <v>0.243631</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0875963</v>
+        <v>0.0858937</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0890529</v>
+        <v>0.0895895</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136842</v>
+        <v>0.14064</v>
       </c>
       <c r="C32" t="n">
-        <v>0.145006</v>
+        <v>0.141341</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248823</v>
+        <v>0.24889</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0884515</v>
+        <v>0.08679480000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09402770000000001</v>
+        <v>0.09043900000000001</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150786</v>
+        <v>0.150529</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152953</v>
+        <v>0.152956</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254324</v>
+        <v>0.254539</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09147130000000001</v>
+        <v>0.0925436</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0928219</v>
+        <v>0.0930552</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169858</v>
+        <v>0.169813</v>
       </c>
       <c r="C34" t="n">
-        <v>0.172403</v>
+        <v>0.170937</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259805</v>
+        <v>0.259653</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0952982</v>
+        <v>0.0951693</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10071</v>
+        <v>0.09894699999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193761</v>
+        <v>0.19389</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195356</v>
+        <v>0.195377</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190527</v>
+        <v>0.190568</v>
       </c>
       <c r="E35" t="n">
-        <v>0.104368</v>
+        <v>0.1031</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107524</v>
+        <v>0.10607</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23307</v>
+        <v>0.232946</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232938</v>
+        <v>0.232474</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197287</v>
+        <v>0.197506</v>
       </c>
       <c r="E36" t="n">
-        <v>0.121358</v>
+        <v>0.115175</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1174</v>
+        <v>0.117443</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.277672</v>
+        <v>0.276609</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280784</v>
+        <v>0.280888</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204488</v>
+        <v>0.204668</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0842186</v>
+        <v>0.0843473</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0866625</v>
+        <v>0.0885939</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104881</v>
+        <v>0.111724</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107105</v>
+        <v>0.107669</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211345</v>
+        <v>0.211548</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0887449</v>
+        <v>0.0879399</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08835369999999999</v>
+        <v>0.0871889</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107695</v>
+        <v>0.10544</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10764</v>
+        <v>0.108753</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217851</v>
+        <v>0.217446</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08600190000000001</v>
+        <v>0.0846715</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0883853</v>
+        <v>0.0884639</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107706</v>
+        <v>0.106582</v>
       </c>
       <c r="C40" t="n">
-        <v>0.111766</v>
+        <v>0.111089</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224917</v>
+        <v>0.224681</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0893958</v>
+        <v>0.0893896</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0886623</v>
+        <v>0.0887119</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109209</v>
+        <v>0.110881</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121704</v>
+        <v>0.111954</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231036</v>
+        <v>0.230995</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0898008</v>
+        <v>0.0887754</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0890923</v>
+        <v>0.089084</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113117</v>
+        <v>0.113113</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117542</v>
+        <v>0.116002</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238093</v>
+        <v>0.237615</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0869515</v>
+        <v>0.08575770000000001</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0905918</v>
+        <v>0.0894445</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116659</v>
+        <v>0.119106</v>
       </c>
       <c r="C43" t="n">
-        <v>0.119593</v>
+        <v>0.120201</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243824</v>
+        <v>0.243967</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08632910000000001</v>
+        <v>0.0861036</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0904025</v>
+        <v>0.0973011</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12578</v>
+        <v>0.121722</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127679</v>
+        <v>0.124502</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250125</v>
+        <v>0.249459</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0881547</v>
+        <v>0.0868757</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09075999999999999</v>
+        <v>0.0916708</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.136132</v>
+        <v>0.131942</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133033</v>
+        <v>0.132144</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255562</v>
+        <v>0.255472</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0883128</v>
+        <v>0.0912268</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0919432</v>
+        <v>0.0919329</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138138</v>
+        <v>0.141275</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143014</v>
+        <v>0.141285</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260846</v>
+        <v>0.260996</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0894259</v>
+        <v>0.08947579999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09363970000000001</v>
+        <v>0.0935627</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150149</v>
+        <v>0.15002</v>
       </c>
       <c r="C47" t="n">
-        <v>0.154379</v>
+        <v>0.153225</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266185</v>
+        <v>0.266308</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0922502</v>
+        <v>0.0922347</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09747160000000001</v>
+        <v>0.09636649999999999</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167762</v>
+        <v>0.167434</v>
       </c>
       <c r="C48" t="n">
-        <v>0.175553</v>
+        <v>0.172832</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272097</v>
+        <v>0.27218</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0964685</v>
+        <v>0.0962978</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100177</v>
+        <v>0.105507</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190233</v>
+        <v>0.190192</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193977</v>
+        <v>0.193796</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278027</v>
+        <v>0.277837</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102152</v>
+        <v>0.102105</v>
       </c>
       <c r="F49" t="n">
-        <v>0.113274</v>
+        <v>0.106145</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224564</v>
+        <v>0.224228</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226567</v>
+        <v>0.225228</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198275</v>
+        <v>0.198226</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11196</v>
+        <v>0.111894</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116285</v>
+        <v>0.115914</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268868</v>
+        <v>0.269689</v>
       </c>
       <c r="C51" t="n">
-        <v>0.273698</v>
+        <v>0.271527</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204881</v>
+        <v>0.205093</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0874028</v>
+        <v>0.08781799999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0904712</v>
+        <v>0.0939589</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.334694</v>
+        <v>0.321566</v>
       </c>
       <c r="C52" t="n">
-        <v>0.331476</v>
+        <v>0.34008</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211226</v>
+        <v>0.211326</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0879407</v>
+        <v>0.08699709999999999</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08994729999999999</v>
+        <v>0.0903612</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.120928</v>
+        <v>0.111589</v>
       </c>
       <c r="C53" t="n">
-        <v>0.112075</v>
+        <v>0.112918</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217859</v>
+        <v>0.21813</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0875317</v>
+        <v>0.0914466</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0906457</v>
+        <v>0.09070350000000001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110545</v>
+        <v>0.112012</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115073</v>
+        <v>0.114672</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224524</v>
+        <v>0.224599</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0869968</v>
+        <v>0.0879009</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09080149999999999</v>
+        <v>0.091983</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.120775</v>
+        <v>0.123069</v>
       </c>
       <c r="C55" t="n">
-        <v>0.12344</v>
+        <v>0.116467</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230548</v>
+        <v>0.230776</v>
       </c>
       <c r="E55" t="n">
-        <v>0.087614</v>
+        <v>0.0870407</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0957399</v>
+        <v>0.09215420000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115978</v>
+        <v>0.124156</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119878</v>
+        <v>0.12163</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236592</v>
+        <v>0.236749</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0884578</v>
+        <v>0.0959706</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0954356</v>
+        <v>0.0981971</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1208</v>
+        <v>0.125812</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133534</v>
+        <v>0.126512</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24206</v>
+        <v>0.242182</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0898557</v>
+        <v>0.0935888</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09431929999999999</v>
+        <v>0.0946207</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.132959</v>
+        <v>0.135354</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136849</v>
+        <v>0.129387</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247361</v>
+        <v>0.247505</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0937727</v>
+        <v>0.0948267</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09514830000000001</v>
+        <v>0.0949542</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131247</v>
+        <v>0.139396</v>
       </c>
       <c r="C59" t="n">
-        <v>0.139123</v>
+        <v>0.139866</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252799</v>
+        <v>0.252787</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09057320000000001</v>
+        <v>0.0954672</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0964696</v>
+        <v>0.0991513</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139317</v>
+        <v>0.140546</v>
       </c>
       <c r="C60" t="n">
-        <v>0.146517</v>
+        <v>0.146173</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257889</v>
+        <v>0.257711</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0922795</v>
+        <v>0.0941732</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09765310000000001</v>
+        <v>0.0979701</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149794</v>
+        <v>0.14879</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156423</v>
+        <v>0.156106</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262687</v>
+        <v>0.262958</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09612179999999999</v>
+        <v>0.0962311</v>
       </c>
       <c r="F61" t="n">
-        <v>0.104949</v>
+        <v>0.104318</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.163889</v>
+        <v>0.166844</v>
       </c>
       <c r="C62" t="n">
-        <v>0.173058</v>
+        <v>0.179371</v>
       </c>
       <c r="D62" t="n">
-        <v>0.268869</v>
+        <v>0.269627</v>
       </c>
       <c r="E62" t="n">
-        <v>0.106123</v>
+        <v>0.106718</v>
       </c>
       <c r="F62" t="n">
-        <v>0.108027</v>
+        <v>0.103326</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185329</v>
+        <v>0.187594</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194791</v>
+        <v>0.200313</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274643</v>
+        <v>0.275248</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10267</v>
+        <v>0.10299</v>
       </c>
       <c r="F63" t="n">
-        <v>0.11378</v>
+        <v>0.108841</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217355</v>
+        <v>0.220574</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22562</v>
+        <v>0.227063</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200925</v>
+        <v>0.201392</v>
       </c>
       <c r="E64" t="n">
-        <v>0.119438</v>
+        <v>0.119481</v>
       </c>
       <c r="F64" t="n">
-        <v>0.118221</v>
+        <v>0.11678</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271217</v>
+        <v>0.261386</v>
       </c>
       <c r="C65" t="n">
-        <v>0.273725</v>
+        <v>0.26838</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2077</v>
+        <v>0.207967</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127073</v>
+        <v>0.126475</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132606</v>
+        <v>0.132491</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.310465</v>
+        <v>0.309928</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321295</v>
+        <v>0.322242</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216183</v>
+        <v>0.216008</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0931049</v>
+        <v>0.094333</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10937</v>
+        <v>0.105114</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130765</v>
+        <v>0.131392</v>
       </c>
       <c r="C67" t="n">
-        <v>0.12838</v>
+        <v>0.126605</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226134</v>
+        <v>0.225507</v>
       </c>
       <c r="E67" t="n">
-        <v>0.104325</v>
+        <v>0.106366</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0975816</v>
+        <v>0.09843880000000001</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.13186</v>
+        <v>0.121975</v>
       </c>
       <c r="C68" t="n">
-        <v>0.136397</v>
+        <v>0.13676</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233653</v>
+        <v>0.232835</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0940457</v>
+        <v>0.0977821</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103667</v>
+        <v>0.09888719999999999</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125406</v>
+        <v>0.134326</v>
       </c>
       <c r="C69" t="n">
-        <v>0.137648</v>
+        <v>0.131985</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241037</v>
+        <v>0.241608</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0995211</v>
+        <v>0.09941120000000001</v>
       </c>
       <c r="F69" t="n">
-        <v>0.111257</v>
+        <v>0.104316</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128547</v>
+        <v>0.127464</v>
       </c>
       <c r="C70" t="n">
-        <v>0.136115</v>
+        <v>0.142486</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250725</v>
+        <v>0.250515</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100059</v>
+        <v>0.0990656</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101945</v>
+        <v>0.105627</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131445</v>
+        <v>0.132103</v>
       </c>
       <c r="C71" t="n">
-        <v>0.13862</v>
+        <v>0.142505</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260889</v>
+        <v>0.26157</v>
       </c>
       <c r="E71" t="n">
-        <v>0.097218</v>
+        <v>0.108314</v>
       </c>
       <c r="F71" t="n">
-        <v>0.106592</v>
+        <v>0.106849</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146887</v>
+        <v>0.138051</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153486</v>
+        <v>0.152643</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272348</v>
+        <v>0.271436</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0967867</v>
+        <v>0.108216</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108177</v>
+        <v>0.107992</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.145106</v>
+        <v>0.141998</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159009</v>
+        <v>0.159154</v>
       </c>
       <c r="D73" t="n">
-        <v>0.28187</v>
+        <v>0.281664</v>
       </c>
       <c r="E73" t="n">
-        <v>0.107779</v>
+        <v>0.102571</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104765</v>
+        <v>0.111984</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161142</v>
+        <v>0.152948</v>
       </c>
       <c r="C74" t="n">
-        <v>0.160189</v>
+        <v>0.158521</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296082</v>
+        <v>0.295548</v>
       </c>
       <c r="E74" t="n">
-        <v>0.107308</v>
+        <v>0.10373</v>
       </c>
       <c r="F74" t="n">
-        <v>0.10639</v>
+        <v>0.118937</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162091</v>
+        <v>0.164137</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178737</v>
+        <v>0.180246</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310382</v>
+        <v>0.310605</v>
       </c>
       <c r="E75" t="n">
-        <v>0.105411</v>
+        <v>0.107103</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116559</v>
+        <v>0.108958</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175258</v>
+        <v>0.175457</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189146</v>
+        <v>0.188543</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326351</v>
+        <v>0.327774</v>
       </c>
       <c r="E76" t="n">
-        <v>0.118718</v>
+        <v>0.118428</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11908</v>
+        <v>0.118191</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19492</v>
+        <v>0.206523</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204968</v>
+        <v>0.208422</v>
       </c>
       <c r="D77" t="n">
-        <v>0.341803</v>
+        <v>0.347685</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109662</v>
+        <v>0.115694</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12534</v>
+        <v>0.119336</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22914</v>
+        <v>0.222846</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237238</v>
+        <v>0.244336</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266567</v>
+        <v>0.267275</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125632</v>
+        <v>0.124687</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127963</v>
+        <v>0.134417</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27374</v>
+        <v>0.262977</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27872</v>
+        <v>0.278686</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282873</v>
+        <v>0.28045</v>
       </c>
       <c r="E79" t="n">
-        <v>0.138257</v>
+        <v>0.141085</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148005</v>
+        <v>0.145018</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.32653</v>
+        <v>0.318181</v>
       </c>
       <c r="C80" t="n">
-        <v>0.356212</v>
+        <v>0.341869</v>
       </c>
       <c r="D80" t="n">
-        <v>0.298937</v>
+        <v>0.30003</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105869</v>
+        <v>0.10026</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067</v>
+        <v>0.110844</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.143648</v>
+        <v>0.139266</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141756</v>
+        <v>0.141319</v>
       </c>
       <c r="D81" t="n">
-        <v>0.319403</v>
+        <v>0.318415</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107762</v>
+        <v>0.101147</v>
       </c>
       <c r="F81" t="n">
-        <v>0.106891</v>
+        <v>0.107175</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146224</v>
+        <v>0.146193</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14374</v>
+        <v>0.143204</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339857</v>
+        <v>0.337534</v>
       </c>
       <c r="E82" t="n">
-        <v>0.104754</v>
+        <v>0.10221</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107997</v>
+        <v>0.108197</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148878</v>
+        <v>0.14842</v>
       </c>
       <c r="C83" t="n">
-        <v>0.149369</v>
+        <v>0.151292</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361283</v>
+        <v>0.360302</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101981</v>
+        <v>0.101759</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115475</v>
+        <v>0.108993</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14117</v>
+        <v>0.148197</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149797</v>
+        <v>0.152505</v>
       </c>
       <c r="D84" t="n">
-        <v>0.381626</v>
+        <v>0.380949</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107481</v>
+        <v>0.108485</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109967</v>
+        <v>0.110211</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145113</v>
+        <v>0.145141</v>
       </c>
       <c r="C85" t="n">
-        <v>0.162555</v>
+        <v>0.163297</v>
       </c>
       <c r="D85" t="n">
-        <v>0.404512</v>
+        <v>0.403863</v>
       </c>
       <c r="E85" t="n">
-        <v>0.110373</v>
+        <v>0.108084</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114278</v>
+        <v>0.11121</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.149525</v>
+        <v>0.149741</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168694</v>
+        <v>0.16294</v>
       </c>
       <c r="D86" t="n">
-        <v>0.427241</v>
+        <v>0.42594</v>
       </c>
       <c r="E86" t="n">
-        <v>0.111475</v>
+        <v>0.104693</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113188</v>
+        <v>0.1137</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.162563</v>
+        <v>0.165519</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177016</v>
+        <v>0.175959</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450663</v>
+        <v>0.448287</v>
       </c>
       <c r="E87" t="n">
-        <v>0.105384</v>
+        <v>0.105191</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115667</v>
+        <v>0.115707</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17445</v>
+        <v>0.173889</v>
       </c>
       <c r="C88" t="n">
-        <v>0.177916</v>
+        <v>0.177445</v>
       </c>
       <c r="D88" t="n">
-        <v>0.473721</v>
+        <v>0.473559</v>
       </c>
       <c r="E88" t="n">
-        <v>0.10741</v>
+        <v>0.111048</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125676</v>
+        <v>0.123686</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.174759</v>
+        <v>0.185683</v>
       </c>
       <c r="C89" t="n">
-        <v>0.201739</v>
+        <v>0.198684</v>
       </c>
       <c r="D89" t="n">
-        <v>0.499156</v>
+        <v>0.498764</v>
       </c>
       <c r="E89" t="n">
-        <v>0.116946</v>
+        <v>0.110332</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122577</v>
+        <v>0.126594</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197575</v>
+        <v>0.196507</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220158</v>
+        <v>0.209924</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525479</v>
+        <v>0.524183</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113347</v>
+        <v>0.112749</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128962</v>
+        <v>0.128406</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.218572</v>
+        <v>0.20807</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233891</v>
+        <v>0.236047</v>
       </c>
       <c r="D91" t="n">
-        <v>0.552256</v>
+        <v>0.551188</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11848</v>
+        <v>0.118181</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143834</v>
+        <v>0.141</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242226</v>
+        <v>0.243845</v>
       </c>
       <c r="C92" t="n">
-        <v>0.277437</v>
+        <v>0.284685</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412733</v>
+        <v>0.413529</v>
       </c>
       <c r="E92" t="n">
-        <v>0.12702</v>
+        <v>0.125862</v>
       </c>
       <c r="F92" t="n">
-        <v>0.156345</v>
+        <v>0.151026</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.280186</v>
+        <v>0.290092</v>
       </c>
       <c r="C93" t="n">
-        <v>0.357217</v>
+        <v>0.331762</v>
       </c>
       <c r="D93" t="n">
-        <v>0.431583</v>
+        <v>0.431119</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14693</v>
+        <v>0.139594</v>
       </c>
       <c r="F93" t="n">
-        <v>0.16995</v>
+        <v>0.170066</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.344429</v>
+        <v>0.354597</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41231</v>
+        <v>0.414199</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450849</v>
+        <v>0.449807</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106868</v>
+        <v>0.111667</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12011</v>
+        <v>0.119317</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.145182</v>
+        <v>0.149436</v>
       </c>
       <c r="C95" t="n">
-        <v>0.161074</v>
+        <v>0.167146</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469897</v>
+        <v>0.470348</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108381</v>
+        <v>0.107075</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123513</v>
+        <v>0.123106</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153077</v>
+        <v>0.155691</v>
       </c>
       <c r="C96" t="n">
-        <v>0.170288</v>
+        <v>0.176094</v>
       </c>
       <c r="D96" t="n">
-        <v>0.492284</v>
+        <v>0.488464</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115109</v>
+        <v>0.10869</v>
       </c>
       <c r="F96" t="n">
-        <v>0.129938</v>
+        <v>0.127242</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153236</v>
+        <v>0.160152</v>
       </c>
       <c r="C97" t="n">
-        <v>0.173335</v>
+        <v>0.178147</v>
       </c>
       <c r="D97" t="n">
-        <v>0.512189</v>
+        <v>0.5098200000000001</v>
       </c>
       <c r="E97" t="n">
-        <v>0.114664</v>
+        <v>0.113405</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135649</v>
+        <v>0.133014</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.155348</v>
+        <v>0.163031</v>
       </c>
       <c r="C98" t="n">
-        <v>0.192632</v>
+        <v>0.190706</v>
       </c>
       <c r="D98" t="n">
-        <v>0.531796</v>
+        <v>0.530515</v>
       </c>
       <c r="E98" t="n">
-        <v>0.118953</v>
+        <v>0.112751</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138072</v>
+        <v>0.137684</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.16961</v>
+        <v>0.170065</v>
       </c>
       <c r="C99" t="n">
-        <v>0.191052</v>
+        <v>0.190735</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553366</v>
+        <v>0.5536140000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.115594</v>
+        <v>0.115249</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147575</v>
+        <v>0.144292</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167593</v>
+        <v>0.169021</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208322</v>
+        <v>0.202216</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576799</v>
+        <v>0.576066</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118399</v>
+        <v>0.130771</v>
       </c>
       <c r="F100" t="n">
-        <v>0.15056</v>
+        <v>0.150507</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.185524</v>
+        <v>0.175024</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223648</v>
+        <v>0.224485</v>
       </c>
       <c r="D101" t="n">
-        <v>0.600619</v>
+        <v>0.599759</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122541</v>
+        <v>0.121961</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157396</v>
+        <v>0.163201</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196072</v>
+        <v>0.197119</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232886</v>
+        <v>0.239906</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6277700000000001</v>
+        <v>0.626209</v>
       </c>
       <c r="E102" t="n">
-        <v>0.131045</v>
+        <v>0.126501</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164278</v>
+        <v>0.164906</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202971</v>
+        <v>0.20234</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258763</v>
+        <v>0.260641</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653913</v>
+        <v>0.653098</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131856</v>
+        <v>0.138242</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172877</v>
+        <v>0.173136</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218853</v>
+        <v>0.219574</v>
       </c>
       <c r="C104" t="n">
-        <v>0.28017</v>
+        <v>0.270982</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680511</v>
+        <v>0.68309</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138038</v>
+        <v>0.145038</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181794</v>
+        <v>0.181619</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243152</v>
+        <v>0.2471</v>
       </c>
       <c r="C105" t="n">
-        <v>0.307575</v>
+        <v>0.300983</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71376</v>
+        <v>0.71182</v>
       </c>
       <c r="E105" t="n">
-        <v>0.149419</v>
+        <v>0.150681</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192323</v>
+        <v>0.19238</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277518</v>
+        <v>0.279052</v>
       </c>
       <c r="C106" t="n">
-        <v>0.336866</v>
+        <v>0.337359</v>
       </c>
       <c r="D106" t="n">
-        <v>0.744909</v>
+        <v>0.742812</v>
       </c>
       <c r="E106" t="n">
-        <v>0.16156</v>
+        <v>0.157831</v>
       </c>
       <c r="F106" t="n">
-        <v>0.20557</v>
+        <v>0.20564</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317812</v>
+        <v>0.317425</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403143</v>
+        <v>0.390955</v>
       </c>
       <c r="D107" t="n">
-        <v>0.581893</v>
+        <v>0.582434</v>
       </c>
       <c r="E107" t="n">
-        <v>0.179837</v>
+        <v>0.173754</v>
       </c>
       <c r="F107" t="n">
-        <v>0.225221</v>
+        <v>0.225353</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.385367</v>
+        <v>0.384188</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474288</v>
+        <v>0.473524</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602503</v>
+        <v>0.601322</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127101</v>
+        <v>0.127775</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159177</v>
+        <v>0.159461</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480512</v>
+        <v>0.478385</v>
       </c>
       <c r="C109" t="n">
-        <v>0.591257</v>
+        <v>0.586284</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623573</v>
+        <v>0.623583</v>
       </c>
       <c r="E109" t="n">
-        <v>0.129482</v>
+        <v>0.129951</v>
       </c>
       <c r="F109" t="n">
-        <v>0.166012</v>
+        <v>0.162993</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.170775</v>
+        <v>0.170866</v>
       </c>
       <c r="C110" t="n">
-        <v>0.217372</v>
+        <v>0.206449</v>
       </c>
       <c r="D110" t="n">
-        <v>0.645783</v>
+        <v>0.645029</v>
       </c>
       <c r="E110" t="n">
-        <v>0.135248</v>
+        <v>0.132373</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1667</v>
+        <v>0.166712</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175052</v>
+        <v>0.176497</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212532</v>
+        <v>0.223243</v>
       </c>
       <c r="D111" t="n">
-        <v>0.668441</v>
+        <v>0.668718</v>
       </c>
       <c r="E111" t="n">
-        <v>0.141053</v>
+        <v>0.139624</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170497</v>
+        <v>0.172684</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179714</v>
+        <v>0.190395</v>
       </c>
       <c r="C112" t="n">
-        <v>0.221723</v>
+        <v>0.219363</v>
       </c>
       <c r="D112" t="n">
-        <v>0.691638</v>
+        <v>0.692855</v>
       </c>
       <c r="E112" t="n">
-        <v>0.137009</v>
+        <v>0.137659</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174245</v>
+        <v>0.174302</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.186246</v>
+        <v>0.195786</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226366</v>
+        <v>0.227648</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716625</v>
+        <v>0.717415</v>
       </c>
       <c r="E113" t="n">
-        <v>0.139959</v>
+        <v>0.140047</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178304</v>
+        <v>0.178488</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.20272</v>
+        <v>0.195658</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246478</v>
+        <v>0.245756</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742117</v>
+        <v>0.743574</v>
       </c>
       <c r="E114" t="n">
-        <v>0.142504</v>
+        <v>0.143194</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182744</v>
+        <v>0.183817</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199909</v>
+        <v>0.19955</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246073</v>
+        <v>0.246152</v>
       </c>
       <c r="D115" t="n">
-        <v>0.768271</v>
+        <v>0.769195</v>
       </c>
       <c r="E115" t="n">
-        <v>0.145633</v>
+        <v>0.146527</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187567</v>
+        <v>0.190457</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22054</v>
+        <v>0.212022</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259559</v>
+        <v>0.259507</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795025</v>
+        <v>0.795722</v>
       </c>
       <c r="E116" t="n">
-        <v>0.148844</v>
+        <v>0.14903</v>
       </c>
       <c r="F116" t="n">
-        <v>0.197611</v>
+        <v>0.193123</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232134</v>
+        <v>0.225284</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286268</v>
+        <v>0.275954</v>
       </c>
       <c r="D117" t="n">
-        <v>0.824638</v>
+        <v>0.823705</v>
       </c>
       <c r="E117" t="n">
-        <v>0.152845</v>
+        <v>0.156585</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199315</v>
+        <v>0.199363</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2378</v>
+        <v>0.238637</v>
       </c>
       <c r="C118" t="n">
-        <v>0.297698</v>
+        <v>0.310208</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852299</v>
+        <v>0.852533</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15773</v>
+        <v>0.158191</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207083</v>
+        <v>0.206882</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259649</v>
+        <v>0.267956</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325009</v>
+        <v>0.343154</v>
       </c>
       <c r="D119" t="n">
-        <v>0.883943</v>
+        <v>0.883192</v>
       </c>
       <c r="E119" t="n">
-        <v>0.171009</v>
+        <v>0.164614</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216294</v>
+        <v>0.216467</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288596</v>
+        <v>0.289822</v>
       </c>
       <c r="C120" t="n">
-        <v>0.376008</v>
+        <v>0.372267</v>
       </c>
       <c r="D120" t="n">
-        <v>0.915811</v>
+        <v>0.915391</v>
       </c>
       <c r="E120" t="n">
-        <v>0.173419</v>
+        <v>0.173941</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229626</v>
+        <v>0.229844</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333168</v>
+        <v>0.331922</v>
       </c>
       <c r="C121" t="n">
-        <v>0.418735</v>
+        <v>0.417887</v>
       </c>
       <c r="D121" t="n">
-        <v>0.666343</v>
+        <v>0.667874</v>
       </c>
       <c r="E121" t="n">
-        <v>0.191729</v>
+        <v>0.18769</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249269</v>
+        <v>0.249382</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.405557</v>
+        <v>0.406979</v>
       </c>
       <c r="C122" t="n">
-        <v>0.502499</v>
+        <v>0.503127</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68623</v>
+        <v>0.688047</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210653</v>
+        <v>0.210777</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281049</v>
+        <v>0.281431</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492533</v>
+        <v>0.493895</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6286040000000001</v>
+        <v>0.628847</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7073469999999999</v>
+        <v>0.709358</v>
       </c>
       <c r="E123" t="n">
-        <v>0.143939</v>
+        <v>0.145303</v>
       </c>
       <c r="F123" t="n">
-        <v>0.186195</v>
+        <v>0.183223</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20082</v>
+        <v>0.197274</v>
       </c>
       <c r="C124" t="n">
-        <v>0.238964</v>
+        <v>0.227982</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.730831</v>
       </c>
       <c r="E124" t="n">
-        <v>0.15359</v>
+        <v>0.150635</v>
       </c>
       <c r="F124" t="n">
-        <v>0.185526</v>
+        <v>0.195037</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.192192</v>
+        <v>0.191334</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246171</v>
+        <v>0.241647</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7528359999999999</v>
+        <v>0.754196</v>
       </c>
       <c r="E125" t="n">
-        <v>0.147808</v>
+        <v>0.148475</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190763</v>
+        <v>0.192248</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.206337</v>
+        <v>0.198396</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243478</v>
+        <v>0.254441</v>
       </c>
       <c r="D126" t="n">
-        <v>0.775919</v>
+        <v>0.777077</v>
       </c>
       <c r="E126" t="n">
-        <v>0.157702</v>
+        <v>0.154387</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194295</v>
+        <v>0.195019</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201521</v>
+        <v>0.213797</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249792</v>
+        <v>0.261892</v>
       </c>
       <c r="D127" t="n">
-        <v>0.800156</v>
+        <v>0.802499</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154783</v>
+        <v>0.154255</v>
       </c>
       <c r="F127" t="n">
-        <v>0.199039</v>
+        <v>0.198425</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21373</v>
+        <v>0.208594</v>
       </c>
       <c r="C128" t="n">
-        <v>0.271526</v>
+        <v>0.260426</v>
       </c>
       <c r="D128" t="n">
-        <v>0.826344</v>
+        <v>0.8283239999999999</v>
       </c>
       <c r="E128" t="n">
-        <v>0.159524</v>
+        <v>0.160016</v>
       </c>
       <c r="F128" t="n">
-        <v>0.212529</v>
+        <v>0.200967</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217014</v>
+        <v>0.225262</v>
       </c>
       <c r="C129" t="n">
-        <v>0.280501</v>
+        <v>0.275558</v>
       </c>
       <c r="D129" t="n">
-        <v>0.853481</v>
+        <v>0.855738</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163251</v>
+        <v>0.164757</v>
       </c>
       <c r="F129" t="n">
-        <v>0.209722</v>
+        <v>0.209343</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.236461</v>
+        <v>0.226585</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300318</v>
+        <v>0.286907</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8821020000000001</v>
+        <v>0.883768</v>
       </c>
       <c r="E130" t="n">
-        <v>0.16384</v>
+        <v>0.165995</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215224</v>
+        <v>0.21748</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240487</v>
+        <v>0.238308</v>
       </c>
       <c r="C131" t="n">
-        <v>0.313006</v>
+        <v>0.311239</v>
       </c>
       <c r="D131" t="n">
-        <v>0.911572</v>
+        <v>0.913204</v>
       </c>
       <c r="E131" t="n">
-        <v>0.16536</v>
+        <v>0.168172</v>
       </c>
       <c r="F131" t="n">
-        <v>0.221508</v>
+        <v>0.223542</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.253786</v>
+        <v>0.260414</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333909</v>
+        <v>0.330464</v>
       </c>
       <c r="D132" t="n">
-        <v>0.941553</v>
+        <v>0.944393</v>
       </c>
       <c r="E132" t="n">
-        <v>0.172207</v>
+        <v>0.171884</v>
       </c>
       <c r="F132" t="n">
-        <v>0.230421</v>
+        <v>0.230508</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276986</v>
+        <v>0.27493</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355722</v>
+        <v>0.358617</v>
       </c>
       <c r="D133" t="n">
-        <v>0.974621</v>
+        <v>0.976563</v>
       </c>
       <c r="E133" t="n">
-        <v>0.17961</v>
+        <v>0.182585</v>
       </c>
       <c r="F133" t="n">
-        <v>0.242344</v>
+        <v>0.244802</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.303162</v>
+        <v>0.307059</v>
       </c>
       <c r="C134" t="n">
-        <v>0.400576</v>
+        <v>0.407435</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00818</v>
+        <v>1.0104</v>
       </c>
       <c r="E134" t="n">
-        <v>0.196963</v>
+        <v>0.189014</v>
       </c>
       <c r="F134" t="n">
-        <v>0.253315</v>
+        <v>0.255347</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.352737</v>
+        <v>0.356131</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453079</v>
+        <v>0.459672</v>
       </c>
       <c r="D135" t="n">
-        <v>0.689411</v>
+        <v>0.690848</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200569</v>
+        <v>0.198701</v>
       </c>
       <c r="F135" t="n">
-        <v>0.276764</v>
+        <v>0.273519</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.407639</v>
+        <v>0.412427</v>
       </c>
       <c r="C136" t="n">
-        <v>0.53596</v>
+        <v>0.544892</v>
       </c>
       <c r="D136" t="n">
-        <v>0.707985</v>
+        <v>0.708803</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220418</v>
+        <v>0.221068</v>
       </c>
       <c r="F136" t="n">
-        <v>0.307876</v>
+        <v>0.305771</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509264</v>
+        <v>0.5040480000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662875</v>
+        <v>0.662957</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727162</v>
+        <v>0.72767</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26336</v>
+        <v>0.261191</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305964</v>
+        <v>0.310448</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.338529</v>
+        <v>0.332601</v>
       </c>
       <c r="C138" t="n">
-        <v>0.378836</v>
+        <v>0.380693</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7464769999999999</v>
+        <v>0.7478939999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261065</v>
+        <v>0.269215</v>
       </c>
       <c r="F138" t="n">
-        <v>0.313658</v>
+        <v>0.314301</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334485</v>
+        <v>0.334939</v>
       </c>
       <c r="C139" t="n">
-        <v>0.389453</v>
+        <v>0.386498</v>
       </c>
       <c r="D139" t="n">
-        <v>0.767076</v>
+        <v>0.768235</v>
       </c>
       <c r="E139" t="n">
-        <v>0.269825</v>
+        <v>0.264622</v>
       </c>
       <c r="F139" t="n">
-        <v>0.318651</v>
+        <v>0.319134</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33927</v>
+        <v>0.339463</v>
       </c>
       <c r="C140" t="n">
-        <v>0.397263</v>
+        <v>0.397046</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788419</v>
+        <v>0.789616</v>
       </c>
       <c r="E140" t="n">
-        <v>0.270241</v>
+        <v>0.269884</v>
       </c>
       <c r="F140" t="n">
-        <v>0.323727</v>
+        <v>0.320827</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347716</v>
+        <v>0.348517</v>
       </c>
       <c r="C141" t="n">
-        <v>0.406633</v>
+        <v>0.404511</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8106680000000001</v>
+        <v>0.812172</v>
       </c>
       <c r="E141" t="n">
-        <v>0.268334</v>
+        <v>0.271372</v>
       </c>
       <c r="F141" t="n">
-        <v>0.329523</v>
+        <v>0.329454</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35535</v>
+        <v>0.351222</v>
       </c>
       <c r="C142" t="n">
-        <v>0.427503</v>
+        <v>0.418199</v>
       </c>
       <c r="D142" t="n">
-        <v>0.834187</v>
+        <v>0.835588</v>
       </c>
       <c r="E142" t="n">
-        <v>0.274118</v>
+        <v>0.273203</v>
       </c>
       <c r="F142" t="n">
-        <v>0.333461</v>
+        <v>0.337438</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.358712</v>
+        <v>0.35824</v>
       </c>
       <c r="C143" t="n">
-        <v>0.434735</v>
+        <v>0.428139</v>
       </c>
       <c r="D143" t="n">
-        <v>0.859027</v>
+        <v>0.860058</v>
       </c>
       <c r="E143" t="n">
-        <v>0.279229</v>
+        <v>0.282223</v>
       </c>
       <c r="F143" t="n">
-        <v>0.34016</v>
+        <v>0.34106</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102299</v>
+        <v>0.102466</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105503</v>
+        <v>0.105095</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179894</v>
+        <v>0.179396</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0826611</v>
+        <v>0.0801767</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0824903</v>
+        <v>0.0807577</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110564</v>
+        <v>0.110343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113788</v>
+        <v>0.114193</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186455</v>
+        <v>0.186067</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0823923</v>
+        <v>0.07997319999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0809429</v>
+        <v>0.08095040000000001</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123853</v>
+        <v>0.124307</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126168</v>
+        <v>0.124209</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193396</v>
+        <v>0.19276</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0809333</v>
+        <v>0.0797006</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08200200000000001</v>
+        <v>0.0803125</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140407</v>
+        <v>0.140057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149825</v>
+        <v>0.144696</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200884</v>
+        <v>0.19964</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0817259</v>
+        <v>0.07925550000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0821105</v>
+        <v>0.0801887</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166812</v>
+        <v>0.166879</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167414</v>
+        <v>0.167395</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207562</v>
+        <v>0.206613</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0831443</v>
+        <v>0.0805091</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0837803</v>
+        <v>0.0818089</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200352</v>
+        <v>0.200238</v>
       </c>
       <c r="C7" t="n">
-        <v>0.209801</v>
+        <v>0.202843</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155981</v>
+        <v>0.155952</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0876319</v>
+        <v>0.08619309999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08880730000000001</v>
+        <v>0.0881349</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248206</v>
+        <v>0.247976</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245478</v>
+        <v>0.253551</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163009</v>
+        <v>0.163192</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103445</v>
+        <v>0.100099</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104281</v>
+        <v>0.103281</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292617</v>
+        <v>0.29206</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294541</v>
+        <v>0.29464</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169428</v>
+        <v>0.169918</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0819928</v>
+        <v>0.07987030000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827281</v>
+        <v>0.0804626</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0946512</v>
+        <v>0.0942239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09645910000000001</v>
+        <v>0.0959972</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17652</v>
+        <v>0.176185</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08217960000000001</v>
+        <v>0.079856</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0828236</v>
+        <v>0.0805352</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09600939999999999</v>
+        <v>0.0955201</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987435</v>
+        <v>0.0972065</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184062</v>
+        <v>0.18418</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0823435</v>
+        <v>0.0801254</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0834527</v>
+        <v>0.0808632</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.100974</v>
+        <v>0.0967925</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101583</v>
+        <v>0.0984684</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191889</v>
+        <v>0.191388</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0824457</v>
+        <v>0.0802824</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08362550000000001</v>
+        <v>0.0809209</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0987553</v>
+        <v>0.0988187</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105479</v>
+        <v>0.105569</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198011</v>
+        <v>0.198727</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.08045140000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0844641</v>
+        <v>0.0810908</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100799</v>
+        <v>0.101359</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10286</v>
+        <v>0.103871</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205703</v>
+        <v>0.205842</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0856809</v>
+        <v>0.08050649999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0837083</v>
+        <v>0.0815419</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105058</v>
+        <v>0.105682</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108087</v>
+        <v>0.107637</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213361</v>
+        <v>0.213478</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0834334</v>
+        <v>0.08098809999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0833627</v>
+        <v>0.08507430000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11245</v>
+        <v>0.111899</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115553</v>
+        <v>0.11433</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219066</v>
+        <v>0.218825</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0834037</v>
+        <v>0.08100599999999999</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0837175</v>
+        <v>0.0846794</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121977</v>
+        <v>0.122262</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127975</v>
+        <v>0.124319</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224743</v>
+        <v>0.225368</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0836688</v>
+        <v>0.081023</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0861811</v>
+        <v>0.085843</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133039</v>
+        <v>0.134731</v>
       </c>
       <c r="C18" t="n">
-        <v>0.134119</v>
+        <v>0.139933</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230211</v>
+        <v>0.229883</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08415499999999999</v>
+        <v>0.0816885</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0869181</v>
+        <v>0.0859758</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.15018</v>
+        <v>0.149938</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161605</v>
+        <v>0.151831</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236751</v>
+        <v>0.237297</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0841356</v>
+        <v>0.0820311</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0883804</v>
+        <v>0.08404739999999999</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170977</v>
+        <v>0.171123</v>
       </c>
       <c r="C20" t="n">
-        <v>0.172727</v>
+        <v>0.173753</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242117</v>
+        <v>0.242789</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0879009</v>
+        <v>0.08505310000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0914576</v>
+        <v>0.0888116</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.203473</v>
+        <v>0.20041</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207519</v>
+        <v>0.222313</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177784</v>
+        <v>0.177751</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0961675</v>
+        <v>0.094072</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0975488</v>
+        <v>0.09822350000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245347</v>
+        <v>0.240257</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244954</v>
+        <v>0.245486</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184843</v>
+        <v>0.184979</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110817</v>
+        <v>0.10836</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112655</v>
+        <v>0.112241</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289655</v>
+        <v>0.287823</v>
       </c>
       <c r="C23" t="n">
-        <v>0.294623</v>
+        <v>0.306204</v>
       </c>
       <c r="D23" t="n">
-        <v>0.191819</v>
+        <v>0.192248</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08349090000000001</v>
+        <v>0.0814742</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0843685</v>
+        <v>0.0823594</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100503</v>
+        <v>0.100412</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11171</v>
+        <v>0.103895</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198737</v>
+        <v>0.199536</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0833801</v>
+        <v>0.0817055</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08574270000000001</v>
+        <v>0.08270429999999999</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103056</v>
+        <v>0.101655</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105452</v>
+        <v>0.105391</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206758</v>
+        <v>0.207041</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08363619999999999</v>
+        <v>0.08186</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08596769999999999</v>
+        <v>0.0840984</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103547</v>
+        <v>0.103516</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108772</v>
+        <v>0.110217</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213384</v>
+        <v>0.21363</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08370660000000001</v>
+        <v>0.0824289</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0874954</v>
+        <v>0.0849882</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.107542</v>
+        <v>0.105529</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109204</v>
+        <v>0.110146</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220596</v>
+        <v>0.220511</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0880775</v>
+        <v>0.0839216</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0891449</v>
+        <v>0.0841128</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109375</v>
+        <v>0.111155</v>
       </c>
       <c r="C28" t="n">
-        <v>0.115666</v>
+        <v>0.118565</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226237</v>
+        <v>0.227015</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084483</v>
+        <v>0.0825241</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0901576</v>
+        <v>0.0848645</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115661</v>
+        <v>0.11468</v>
       </c>
       <c r="C29" t="n">
-        <v>0.120844</v>
+        <v>0.123248</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232637</v>
+        <v>0.233463</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0861107</v>
+        <v>0.082986</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0878221</v>
+        <v>0.0856695</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119367</v>
+        <v>0.120711</v>
       </c>
       <c r="C30" t="n">
-        <v>0.12495</v>
+        <v>0.124042</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237178</v>
+        <v>0.237822</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0894717</v>
+        <v>0.08351509999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09448719999999999</v>
+        <v>0.08786869999999999</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127108</v>
+        <v>0.127406</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129646</v>
+        <v>0.131252</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242379</v>
+        <v>0.243293</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0875963</v>
+        <v>0.08409030000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0890529</v>
+        <v>0.08738319999999999</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136842</v>
+        <v>0.136788</v>
       </c>
       <c r="C32" t="n">
-        <v>0.145006</v>
+        <v>0.14092</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248823</v>
+        <v>0.249192</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0884515</v>
+        <v>0.08516079999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09402770000000001</v>
+        <v>0.0885707</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150786</v>
+        <v>0.152809</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152953</v>
+        <v>0.153089</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254324</v>
+        <v>0.254724</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09147130000000001</v>
+        <v>0.09290080000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0928219</v>
+        <v>0.0937398</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169858</v>
+        <v>0.170372</v>
       </c>
       <c r="C34" t="n">
-        <v>0.172403</v>
+        <v>0.171048</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259805</v>
+        <v>0.260064</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0952982</v>
+        <v>0.09322510000000001</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10071</v>
+        <v>0.09835869999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193761</v>
+        <v>0.193587</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195356</v>
+        <v>0.196924</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190527</v>
+        <v>0.191453</v>
       </c>
       <c r="E35" t="n">
-        <v>0.104368</v>
+        <v>0.101753</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107524</v>
+        <v>0.106298</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23307</v>
+        <v>0.233085</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232938</v>
+        <v>0.232593</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197287</v>
+        <v>0.197697</v>
       </c>
       <c r="E36" t="n">
-        <v>0.121358</v>
+        <v>0.113433</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1174</v>
+        <v>0.116219</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.277672</v>
+        <v>0.287616</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280784</v>
+        <v>0.306077</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204488</v>
+        <v>0.204708</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0842186</v>
+        <v>0.0827431</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0866625</v>
+        <v>0.0869798</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104881</v>
+        <v>0.103111</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107105</v>
+        <v>0.107695</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211345</v>
+        <v>0.211195</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0887449</v>
+        <v>0.08296000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08835369999999999</v>
+        <v>0.0862556</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107695</v>
+        <v>0.107997</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10764</v>
+        <v>0.115797</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217851</v>
+        <v>0.217574</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08600190000000001</v>
+        <v>0.0831976</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0883853</v>
+        <v>0.08755780000000001</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107706</v>
+        <v>0.110669</v>
       </c>
       <c r="C40" t="n">
-        <v>0.111766</v>
+        <v>0.114227</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224917</v>
+        <v>0.225628</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0893958</v>
+        <v>0.0838299</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0886623</v>
+        <v>0.0871101</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109209</v>
+        <v>0.109629</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121704</v>
+        <v>0.113225</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231036</v>
+        <v>0.231523</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0898008</v>
+        <v>0.0838169</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0890923</v>
+        <v>0.0877083</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113117</v>
+        <v>0.114794</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117542</v>
+        <v>0.114774</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238093</v>
+        <v>0.237794</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0869515</v>
+        <v>0.0840876</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0905918</v>
+        <v>0.0882839</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116659</v>
+        <v>0.116144</v>
       </c>
       <c r="C43" t="n">
-        <v>0.119593</v>
+        <v>0.118488</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243824</v>
+        <v>0.244062</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08632910000000001</v>
+        <v>0.0859176</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0904025</v>
+        <v>0.089531</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12578</v>
+        <v>0.129339</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127679</v>
+        <v>0.126316</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250125</v>
+        <v>0.250181</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0881547</v>
+        <v>0.08517950000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09075999999999999</v>
+        <v>0.0893753</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.136132</v>
+        <v>0.128581</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133033</v>
+        <v>0.135041</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255562</v>
+        <v>0.255704</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0883128</v>
+        <v>0.08638759999999999</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0919432</v>
+        <v>0.09114659999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138138</v>
+        <v>0.139619</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143014</v>
+        <v>0.142825</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260846</v>
+        <v>0.261273</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0894259</v>
+        <v>0.08790829999999999</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09363970000000001</v>
+        <v>0.092224</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150149</v>
+        <v>0.149962</v>
       </c>
       <c r="C47" t="n">
-        <v>0.154379</v>
+        <v>0.155698</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266185</v>
+        <v>0.266617</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0922502</v>
+        <v>0.09053659999999999</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09747160000000001</v>
+        <v>0.0963846</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167762</v>
+        <v>0.172415</v>
       </c>
       <c r="C48" t="n">
-        <v>0.175553</v>
+        <v>0.172055</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272097</v>
+        <v>0.271986</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0964685</v>
+        <v>0.09457740000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100177</v>
+        <v>0.100131</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190233</v>
+        <v>0.198131</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193977</v>
+        <v>0.193915</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278027</v>
+        <v>0.277903</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102152</v>
+        <v>0.100266</v>
       </c>
       <c r="F49" t="n">
-        <v>0.113274</v>
+        <v>0.104429</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224564</v>
+        <v>0.224888</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226567</v>
+        <v>0.225403</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198275</v>
+        <v>0.198482</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11196</v>
+        <v>0.110318</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116285</v>
+        <v>0.114512</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268868</v>
+        <v>0.269175</v>
       </c>
       <c r="C51" t="n">
-        <v>0.273698</v>
+        <v>0.280348</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204881</v>
+        <v>0.205023</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0874028</v>
+        <v>0.0876165</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0904712</v>
+        <v>0.0897355</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.334694</v>
+        <v>0.318768</v>
       </c>
       <c r="C52" t="n">
-        <v>0.331476</v>
+        <v>0.329207</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211226</v>
+        <v>0.211438</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0879407</v>
+        <v>0.0863232</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08994729999999999</v>
+        <v>0.0884582</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.120928</v>
+        <v>0.117206</v>
       </c>
       <c r="C53" t="n">
-        <v>0.112075</v>
+        <v>0.112341</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217859</v>
+        <v>0.218016</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0875317</v>
+        <v>0.086162</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0906457</v>
+        <v>0.0900873</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110545</v>
+        <v>0.120593</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115073</v>
+        <v>0.117068</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224524</v>
+        <v>0.224392</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0869968</v>
+        <v>0.0869848</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09080149999999999</v>
+        <v>0.0902444</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.120775</v>
+        <v>0.113706</v>
       </c>
       <c r="C55" t="n">
-        <v>0.12344</v>
+        <v>0.117971</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230548</v>
+        <v>0.230623</v>
       </c>
       <c r="E55" t="n">
-        <v>0.087614</v>
+        <v>0.0867166</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0957399</v>
+        <v>0.0898685</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115978</v>
+        <v>0.118692</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119878</v>
+        <v>0.119753</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236592</v>
+        <v>0.236507</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0884578</v>
+        <v>0.08893760000000001</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0954356</v>
+        <v>0.0916844</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1208</v>
+        <v>0.122377</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133534</v>
+        <v>0.12608</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24206</v>
+        <v>0.24242</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0898557</v>
+        <v>0.0880553</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09431929999999999</v>
+        <v>0.09149069999999999</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.132959</v>
+        <v>0.127294</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136849</v>
+        <v>0.130911</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247361</v>
+        <v>0.248125</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0937727</v>
+        <v>0.0884001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09514830000000001</v>
+        <v>0.093011</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131247</v>
+        <v>0.131392</v>
       </c>
       <c r="C59" t="n">
-        <v>0.139123</v>
+        <v>0.146523</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252799</v>
+        <v>0.253066</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09057320000000001</v>
+        <v>0.08893570000000001</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0964696</v>
+        <v>0.0944286</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139317</v>
+        <v>0.138605</v>
       </c>
       <c r="C60" t="n">
-        <v>0.146517</v>
+        <v>0.14713</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257889</v>
+        <v>0.258245</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0922795</v>
+        <v>0.0907275</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09765310000000001</v>
+        <v>0.0973044</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149794</v>
+        <v>0.15147</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156423</v>
+        <v>0.157019</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262687</v>
+        <v>0.263836</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09612179999999999</v>
+        <v>0.0946192</v>
       </c>
       <c r="F61" t="n">
-        <v>0.104949</v>
+        <v>0.0989611</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.163889</v>
+        <v>0.173523</v>
       </c>
       <c r="C62" t="n">
-        <v>0.173058</v>
+        <v>0.174175</v>
       </c>
       <c r="D62" t="n">
-        <v>0.268869</v>
+        <v>0.271126</v>
       </c>
       <c r="E62" t="n">
-        <v>0.106123</v>
+        <v>0.0961875</v>
       </c>
       <c r="F62" t="n">
-        <v>0.108027</v>
+        <v>0.101782</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185329</v>
+        <v>0.185262</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194791</v>
+        <v>0.193102</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274643</v>
+        <v>0.276437</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10267</v>
+        <v>0.102499</v>
       </c>
       <c r="F63" t="n">
-        <v>0.11378</v>
+        <v>0.106913</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217355</v>
+        <v>0.229169</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22562</v>
+        <v>0.224321</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200925</v>
+        <v>0.201941</v>
       </c>
       <c r="E64" t="n">
-        <v>0.119438</v>
+        <v>0.109658</v>
       </c>
       <c r="F64" t="n">
-        <v>0.118221</v>
+        <v>0.115843</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271217</v>
+        <v>0.258552</v>
       </c>
       <c r="C65" t="n">
-        <v>0.273725</v>
+        <v>0.273672</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2077</v>
+        <v>0.208703</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127073</v>
+        <v>0.125066</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132606</v>
+        <v>0.130043</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.310465</v>
+        <v>0.31182</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321295</v>
+        <v>0.322497</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216183</v>
+        <v>0.216441</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0931049</v>
+        <v>0.0922531</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10937</v>
+        <v>0.0969508</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130765</v>
+        <v>0.121271</v>
       </c>
       <c r="C67" t="n">
-        <v>0.12838</v>
+        <v>0.128271</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226134</v>
+        <v>0.225571</v>
       </c>
       <c r="E67" t="n">
-        <v>0.104325</v>
+        <v>0.0927066</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0975816</v>
+        <v>0.0966514</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.13186</v>
+        <v>0.123211</v>
       </c>
       <c r="C68" t="n">
-        <v>0.136397</v>
+        <v>0.13032</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233653</v>
+        <v>0.2328</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0940457</v>
+        <v>0.0930015</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103667</v>
+        <v>0.0998264</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125406</v>
+        <v>0.126585</v>
       </c>
       <c r="C69" t="n">
-        <v>0.137648</v>
+        <v>0.136588</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241037</v>
+        <v>0.241081</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0995211</v>
+        <v>0.0934074</v>
       </c>
       <c r="F69" t="n">
-        <v>0.111257</v>
+        <v>0.0990558</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128547</v>
+        <v>0.137108</v>
       </c>
       <c r="C70" t="n">
-        <v>0.136115</v>
+        <v>0.134822</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250725</v>
+        <v>0.252613</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100059</v>
+        <v>0.0938345</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101945</v>
+        <v>0.09914920000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131445</v>
+        <v>0.130531</v>
       </c>
       <c r="C71" t="n">
-        <v>0.13862</v>
+        <v>0.138677</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260889</v>
+        <v>0.259952</v>
       </c>
       <c r="E71" t="n">
-        <v>0.097218</v>
+        <v>0.09535440000000001</v>
       </c>
       <c r="F71" t="n">
-        <v>0.106592</v>
+        <v>0.101616</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146887</v>
+        <v>0.145722</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153486</v>
+        <v>0.15229</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272348</v>
+        <v>0.2692</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0967867</v>
+        <v>0.0962108</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108177</v>
+        <v>0.102527</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.145106</v>
+        <v>0.142031</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159009</v>
+        <v>0.151468</v>
       </c>
       <c r="D73" t="n">
-        <v>0.28187</v>
+        <v>0.282253</v>
       </c>
       <c r="E73" t="n">
-        <v>0.107779</v>
+        <v>0.096655</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104765</v>
+        <v>0.103655</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161142</v>
+        <v>0.151369</v>
       </c>
       <c r="C74" t="n">
-        <v>0.160189</v>
+        <v>0.167639</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296082</v>
+        <v>0.293798</v>
       </c>
       <c r="E74" t="n">
-        <v>0.107308</v>
+        <v>0.0983446</v>
       </c>
       <c r="F74" t="n">
-        <v>0.10639</v>
+        <v>0.106228</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162091</v>
+        <v>0.162322</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178737</v>
+        <v>0.179684</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310382</v>
+        <v>0.307195</v>
       </c>
       <c r="E75" t="n">
-        <v>0.105411</v>
+        <v>0.100232</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116559</v>
+        <v>0.107719</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175258</v>
+        <v>0.185469</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189146</v>
+        <v>0.18885</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326351</v>
+        <v>0.321763</v>
       </c>
       <c r="E76" t="n">
-        <v>0.118718</v>
+        <v>0.10361</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11908</v>
+        <v>0.111707</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19492</v>
+        <v>0.204773</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204968</v>
+        <v>0.213417</v>
       </c>
       <c r="D77" t="n">
-        <v>0.341803</v>
+        <v>0.340918</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109662</v>
+        <v>0.108911</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12534</v>
+        <v>0.116554</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22914</v>
+        <v>0.223724</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237238</v>
+        <v>0.233127</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266567</v>
+        <v>0.263928</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125632</v>
+        <v>0.115255</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127963</v>
+        <v>0.125471</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27374</v>
+        <v>0.261698</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27872</v>
+        <v>0.291408</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282873</v>
+        <v>0.280703</v>
       </c>
       <c r="E79" t="n">
-        <v>0.138257</v>
+        <v>0.137375</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148005</v>
+        <v>0.139413</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.32653</v>
+        <v>0.322211</v>
       </c>
       <c r="C80" t="n">
-        <v>0.356212</v>
+        <v>0.340087</v>
       </c>
       <c r="D80" t="n">
-        <v>0.298937</v>
+        <v>0.300685</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105869</v>
+        <v>0.099693</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067</v>
+        <v>0.105166</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.143648</v>
+        <v>0.144725</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141756</v>
+        <v>0.150362</v>
       </c>
       <c r="D81" t="n">
-        <v>0.319403</v>
+        <v>0.31892</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107762</v>
+        <v>0.100043</v>
       </c>
       <c r="F81" t="n">
-        <v>0.106891</v>
+        <v>0.105946</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146224</v>
+        <v>0.13743</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14374</v>
+        <v>0.148107</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339857</v>
+        <v>0.339097</v>
       </c>
       <c r="E82" t="n">
-        <v>0.104754</v>
+        <v>0.100214</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107997</v>
+        <v>0.106599</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148878</v>
+        <v>0.148805</v>
       </c>
       <c r="C83" t="n">
-        <v>0.149369</v>
+        <v>0.146201</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361283</v>
+        <v>0.360687</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101981</v>
+        <v>0.101</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115475</v>
+        <v>0.107692</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14117</v>
+        <v>0.1515</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149797</v>
+        <v>0.155006</v>
       </c>
       <c r="D84" t="n">
-        <v>0.381626</v>
+        <v>0.381415</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107481</v>
+        <v>0.10126</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109967</v>
+        <v>0.108654</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145113</v>
+        <v>0.149285</v>
       </c>
       <c r="C85" t="n">
-        <v>0.162555</v>
+        <v>0.153506</v>
       </c>
       <c r="D85" t="n">
-        <v>0.404512</v>
+        <v>0.402651</v>
       </c>
       <c r="E85" t="n">
-        <v>0.110373</v>
+        <v>0.10197</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114278</v>
+        <v>0.110034</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.149525</v>
+        <v>0.155564</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168694</v>
+        <v>0.158907</v>
       </c>
       <c r="D86" t="n">
-        <v>0.427241</v>
+        <v>0.425242</v>
       </c>
       <c r="E86" t="n">
-        <v>0.111475</v>
+        <v>0.102932</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113188</v>
+        <v>0.111883</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.162563</v>
+        <v>0.155918</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177016</v>
+        <v>0.166137</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450663</v>
+        <v>0.448515</v>
       </c>
       <c r="E87" t="n">
-        <v>0.105384</v>
+        <v>0.104209</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115667</v>
+        <v>0.114075</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17445</v>
+        <v>0.164337</v>
       </c>
       <c r="C88" t="n">
-        <v>0.177916</v>
+        <v>0.183392</v>
       </c>
       <c r="D88" t="n">
-        <v>0.473721</v>
+        <v>0.472999</v>
       </c>
       <c r="E88" t="n">
-        <v>0.10741</v>
+        <v>0.105893</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125676</v>
+        <v>0.116782</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.174759</v>
+        <v>0.173652</v>
       </c>
       <c r="C89" t="n">
-        <v>0.201739</v>
+        <v>0.192513</v>
       </c>
       <c r="D89" t="n">
-        <v>0.499156</v>
+        <v>0.497415</v>
       </c>
       <c r="E89" t="n">
-        <v>0.116946</v>
+        <v>0.107829</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122577</v>
+        <v>0.121078</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197575</v>
+        <v>0.187564</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220158</v>
+        <v>0.218042</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525479</v>
+        <v>0.524331</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113347</v>
+        <v>0.111328</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128962</v>
+        <v>0.126342</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.218572</v>
+        <v>0.208478</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233891</v>
+        <v>0.23487</v>
       </c>
       <c r="D91" t="n">
-        <v>0.552256</v>
+        <v>0.550585</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11848</v>
+        <v>0.116698</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143834</v>
+        <v>0.135004</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242226</v>
+        <v>0.237474</v>
       </c>
       <c r="C92" t="n">
-        <v>0.277437</v>
+        <v>0.276393</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412733</v>
+        <v>0.412249</v>
       </c>
       <c r="E92" t="n">
-        <v>0.12702</v>
+        <v>0.125015</v>
       </c>
       <c r="F92" t="n">
-        <v>0.156345</v>
+        <v>0.148474</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.280186</v>
+        <v>0.278802</v>
       </c>
       <c r="C93" t="n">
-        <v>0.357217</v>
+        <v>0.331822</v>
       </c>
       <c r="D93" t="n">
-        <v>0.431583</v>
+        <v>0.430526</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14693</v>
+        <v>0.143865</v>
       </c>
       <c r="F93" t="n">
-        <v>0.16995</v>
+        <v>0.168489</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.344429</v>
+        <v>0.341715</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41231</v>
+        <v>0.414221</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450849</v>
+        <v>0.448731</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106868</v>
+        <v>0.105405</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12011</v>
+        <v>0.118623</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.145182</v>
+        <v>0.154881</v>
       </c>
       <c r="C95" t="n">
-        <v>0.161074</v>
+        <v>0.160301</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469897</v>
+        <v>0.469414</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108381</v>
+        <v>0.106566</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123513</v>
+        <v>0.121791</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153077</v>
+        <v>0.157278</v>
       </c>
       <c r="C96" t="n">
-        <v>0.170288</v>
+        <v>0.165501</v>
       </c>
       <c r="D96" t="n">
-        <v>0.492284</v>
+        <v>0.488457</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115109</v>
+        <v>0.107799</v>
       </c>
       <c r="F96" t="n">
-        <v>0.129938</v>
+        <v>0.126842</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153236</v>
+        <v>0.160443</v>
       </c>
       <c r="C97" t="n">
-        <v>0.173335</v>
+        <v>0.173284</v>
       </c>
       <c r="D97" t="n">
-        <v>0.512189</v>
+        <v>0.508638</v>
       </c>
       <c r="E97" t="n">
-        <v>0.114664</v>
+        <v>0.10978</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135649</v>
+        <v>0.132141</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.155348</v>
+        <v>0.16154</v>
       </c>
       <c r="C98" t="n">
-        <v>0.192632</v>
+        <v>0.187644</v>
       </c>
       <c r="D98" t="n">
-        <v>0.531796</v>
+        <v>0.529592</v>
       </c>
       <c r="E98" t="n">
-        <v>0.118953</v>
+        <v>0.111751</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138072</v>
+        <v>0.137194</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.16961</v>
+        <v>0.170709</v>
       </c>
       <c r="C99" t="n">
-        <v>0.191052</v>
+        <v>0.191111</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553366</v>
+        <v>0.553085</v>
       </c>
       <c r="E99" t="n">
-        <v>0.115594</v>
+        <v>0.114425</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147575</v>
+        <v>0.143385</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167593</v>
+        <v>0.177772</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208322</v>
+        <v>0.212071</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576799</v>
+        <v>0.576429</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118399</v>
+        <v>0.117301</v>
       </c>
       <c r="F100" t="n">
-        <v>0.15056</v>
+        <v>0.149273</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.185524</v>
+        <v>0.176236</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223648</v>
+        <v>0.221924</v>
       </c>
       <c r="D101" t="n">
-        <v>0.600619</v>
+        <v>0.599821</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122541</v>
+        <v>0.120973</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157396</v>
+        <v>0.156385</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196072</v>
+        <v>0.186287</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232886</v>
+        <v>0.240274</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6277700000000001</v>
+        <v>0.625839</v>
       </c>
       <c r="E102" t="n">
-        <v>0.131045</v>
+        <v>0.125798</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164278</v>
+        <v>0.163372</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202971</v>
+        <v>0.201748</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258763</v>
+        <v>0.255683</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653913</v>
+        <v>0.652879</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131856</v>
+        <v>0.130408</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172877</v>
+        <v>0.171465</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218853</v>
+        <v>0.218285</v>
       </c>
       <c r="C104" t="n">
-        <v>0.28017</v>
+        <v>0.278398</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680511</v>
+        <v>0.681546</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138038</v>
+        <v>0.137045</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181794</v>
+        <v>0.180269</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243152</v>
+        <v>0.243707</v>
       </c>
       <c r="C105" t="n">
-        <v>0.307575</v>
+        <v>0.300798</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71376</v>
+        <v>0.711724</v>
       </c>
       <c r="E105" t="n">
-        <v>0.149419</v>
+        <v>0.145527</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192323</v>
+        <v>0.190974</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277518</v>
+        <v>0.273213</v>
       </c>
       <c r="C106" t="n">
-        <v>0.336866</v>
+        <v>0.348181</v>
       </c>
       <c r="D106" t="n">
-        <v>0.744909</v>
+        <v>0.7447820000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.16156</v>
+        <v>0.156746</v>
       </c>
       <c r="F106" t="n">
-        <v>0.20557</v>
+        <v>0.204415</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317812</v>
+        <v>0.328462</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403143</v>
+        <v>0.391165</v>
       </c>
       <c r="D107" t="n">
-        <v>0.581893</v>
+        <v>0.582442</v>
       </c>
       <c r="E107" t="n">
-        <v>0.179837</v>
+        <v>0.171898</v>
       </c>
       <c r="F107" t="n">
-        <v>0.225221</v>
+        <v>0.224009</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.385367</v>
+        <v>0.386957</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474288</v>
+        <v>0.472044</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602503</v>
+        <v>0.602352</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127101</v>
+        <v>0.125989</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159177</v>
+        <v>0.15797</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480512</v>
+        <v>0.481809</v>
       </c>
       <c r="C109" t="n">
-        <v>0.591257</v>
+        <v>0.591566</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623573</v>
+        <v>0.622999</v>
       </c>
       <c r="E109" t="n">
-        <v>0.129482</v>
+        <v>0.128551</v>
       </c>
       <c r="F109" t="n">
-        <v>0.166012</v>
+        <v>0.161669</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.170775</v>
+        <v>0.181773</v>
       </c>
       <c r="C110" t="n">
-        <v>0.217372</v>
+        <v>0.206658</v>
       </c>
       <c r="D110" t="n">
-        <v>0.645783</v>
+        <v>0.644118</v>
       </c>
       <c r="E110" t="n">
-        <v>0.135248</v>
+        <v>0.130945</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1667</v>
+        <v>0.165277</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175052</v>
+        <v>0.175177</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212532</v>
+        <v>0.218381</v>
       </c>
       <c r="D111" t="n">
-        <v>0.668441</v>
+        <v>0.667023</v>
       </c>
       <c r="E111" t="n">
-        <v>0.141053</v>
+        <v>0.133711</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170497</v>
+        <v>0.169647</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179714</v>
+        <v>0.190513</v>
       </c>
       <c r="C112" t="n">
-        <v>0.221723</v>
+        <v>0.218923</v>
       </c>
       <c r="D112" t="n">
-        <v>0.691638</v>
+        <v>0.691271</v>
       </c>
       <c r="E112" t="n">
-        <v>0.137009</v>
+        <v>0.136019</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174245</v>
+        <v>0.173071</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.186246</v>
+        <v>0.186083</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226366</v>
+        <v>0.235462</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716625</v>
+        <v>0.716212</v>
       </c>
       <c r="E113" t="n">
-        <v>0.139959</v>
+        <v>0.138634</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178304</v>
+        <v>0.177152</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.20272</v>
+        <v>0.195109</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246478</v>
+        <v>0.246549</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742117</v>
+        <v>0.741649</v>
       </c>
       <c r="E114" t="n">
-        <v>0.142504</v>
+        <v>0.141536</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182744</v>
+        <v>0.181609</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199909</v>
+        <v>0.199609</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246073</v>
+        <v>0.246188</v>
       </c>
       <c r="D115" t="n">
-        <v>0.768271</v>
+        <v>0.767968</v>
       </c>
       <c r="E115" t="n">
-        <v>0.145633</v>
+        <v>0.14469</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187567</v>
+        <v>0.186448</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22054</v>
+        <v>0.208984</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259559</v>
+        <v>0.259429</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795025</v>
+        <v>0.795114</v>
       </c>
       <c r="E116" t="n">
-        <v>0.148844</v>
+        <v>0.147661</v>
       </c>
       <c r="F116" t="n">
-        <v>0.197611</v>
+        <v>0.192139</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232134</v>
+        <v>0.222658</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286268</v>
+        <v>0.27924</v>
       </c>
       <c r="D117" t="n">
-        <v>0.824638</v>
+        <v>0.823445</v>
       </c>
       <c r="E117" t="n">
-        <v>0.152845</v>
+        <v>0.151611</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199315</v>
+        <v>0.19828</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2378</v>
+        <v>0.238093</v>
       </c>
       <c r="C118" t="n">
-        <v>0.297698</v>
+        <v>0.303626</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852299</v>
+        <v>0.852522</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15773</v>
+        <v>0.156506</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207083</v>
+        <v>0.205863</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259649</v>
+        <v>0.260379</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325009</v>
+        <v>0.336648</v>
       </c>
       <c r="D119" t="n">
-        <v>0.883943</v>
+        <v>0.882888</v>
       </c>
       <c r="E119" t="n">
-        <v>0.171009</v>
+        <v>0.163439</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216294</v>
+        <v>0.215526</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288596</v>
+        <v>0.299028</v>
       </c>
       <c r="C120" t="n">
-        <v>0.376008</v>
+        <v>0.376498</v>
       </c>
       <c r="D120" t="n">
-        <v>0.915811</v>
+        <v>0.916032</v>
       </c>
       <c r="E120" t="n">
-        <v>0.173419</v>
+        <v>0.172601</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229626</v>
+        <v>0.2288</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333168</v>
+        <v>0.336521</v>
       </c>
       <c r="C121" t="n">
-        <v>0.418735</v>
+        <v>0.428946</v>
       </c>
       <c r="D121" t="n">
-        <v>0.666343</v>
+        <v>0.6671010000000001</v>
       </c>
       <c r="E121" t="n">
-        <v>0.191729</v>
+        <v>0.18602</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249269</v>
+        <v>0.248085</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.405557</v>
+        <v>0.396222</v>
       </c>
       <c r="C122" t="n">
-        <v>0.502499</v>
+        <v>0.518031</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68623</v>
+        <v>0.687192</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210653</v>
+        <v>0.209403</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281049</v>
+        <v>0.280257</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492533</v>
+        <v>0.495928</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6286040000000001</v>
+        <v>0.631484</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7073469999999999</v>
+        <v>0.708371</v>
       </c>
       <c r="E123" t="n">
-        <v>0.143939</v>
+        <v>0.143006</v>
       </c>
       <c r="F123" t="n">
-        <v>0.186195</v>
+        <v>0.181165</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20082</v>
+        <v>0.198976</v>
       </c>
       <c r="C124" t="n">
-        <v>0.238964</v>
+        <v>0.229001</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.730351</v>
       </c>
       <c r="E124" t="n">
-        <v>0.15359</v>
+        <v>0.145302</v>
       </c>
       <c r="F124" t="n">
-        <v>0.185526</v>
+        <v>0.186736</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.192192</v>
+        <v>0.196976</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246171</v>
+        <v>0.234089</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7528359999999999</v>
+        <v>0.752602</v>
       </c>
       <c r="E125" t="n">
-        <v>0.147808</v>
+        <v>0.148498</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190763</v>
+        <v>0.190473</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.206337</v>
+        <v>0.197582</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243478</v>
+        <v>0.248306</v>
       </c>
       <c r="D126" t="n">
-        <v>0.775919</v>
+        <v>0.776242</v>
       </c>
       <c r="E126" t="n">
-        <v>0.157702</v>
+        <v>0.148736</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194295</v>
+        <v>0.19536</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201521</v>
+        <v>0.203755</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249792</v>
+        <v>0.258721</v>
       </c>
       <c r="D127" t="n">
-        <v>0.800156</v>
+        <v>0.801393</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154783</v>
+        <v>0.151634</v>
       </c>
       <c r="F127" t="n">
-        <v>0.199039</v>
+        <v>0.197467</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21373</v>
+        <v>0.207533</v>
       </c>
       <c r="C128" t="n">
-        <v>0.271526</v>
+        <v>0.264266</v>
       </c>
       <c r="D128" t="n">
-        <v>0.826344</v>
+        <v>0.827166</v>
       </c>
       <c r="E128" t="n">
-        <v>0.159524</v>
+        <v>0.156012</v>
       </c>
       <c r="F128" t="n">
-        <v>0.212529</v>
+        <v>0.20412</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217014</v>
+        <v>0.225663</v>
       </c>
       <c r="C129" t="n">
-        <v>0.280501</v>
+        <v>0.282016</v>
       </c>
       <c r="D129" t="n">
-        <v>0.853481</v>
+        <v>0.854589</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163251</v>
+        <v>0.160023</v>
       </c>
       <c r="F129" t="n">
-        <v>0.209722</v>
+        <v>0.209145</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.236461</v>
+        <v>0.235488</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300318</v>
+        <v>0.287663</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8821020000000001</v>
+        <v>0.8826850000000001</v>
       </c>
       <c r="E130" t="n">
-        <v>0.16384</v>
+        <v>0.160827</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215224</v>
+        <v>0.215444</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240487</v>
+        <v>0.236621</v>
       </c>
       <c r="C131" t="n">
-        <v>0.313006</v>
+        <v>0.307403</v>
       </c>
       <c r="D131" t="n">
-        <v>0.911572</v>
+        <v>0.912416</v>
       </c>
       <c r="E131" t="n">
-        <v>0.16536</v>
+        <v>0.164515</v>
       </c>
       <c r="F131" t="n">
-        <v>0.221508</v>
+        <v>0.220952</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.253786</v>
+        <v>0.256272</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333909</v>
+        <v>0.328513</v>
       </c>
       <c r="D132" t="n">
-        <v>0.941553</v>
+        <v>0.9427990000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.172207</v>
+        <v>0.168583</v>
       </c>
       <c r="F132" t="n">
-        <v>0.230421</v>
+        <v>0.234051</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276986</v>
+        <v>0.280224</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355722</v>
+        <v>0.368381</v>
       </c>
       <c r="D133" t="n">
-        <v>0.974621</v>
+        <v>0.975619</v>
       </c>
       <c r="E133" t="n">
-        <v>0.17961</v>
+        <v>0.175319</v>
       </c>
       <c r="F133" t="n">
-        <v>0.242344</v>
+        <v>0.240221</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.303162</v>
+        <v>0.315807</v>
       </c>
       <c r="C134" t="n">
-        <v>0.400576</v>
+        <v>0.404918</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00818</v>
+        <v>1.00904</v>
       </c>
       <c r="E134" t="n">
-        <v>0.196963</v>
+        <v>0.18692</v>
       </c>
       <c r="F134" t="n">
-        <v>0.253315</v>
+        <v>0.254575</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.352737</v>
+        <v>0.347564</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453079</v>
+        <v>0.461132</v>
       </c>
       <c r="D135" t="n">
-        <v>0.689411</v>
+        <v>0.690246</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200569</v>
+        <v>0.196985</v>
       </c>
       <c r="F135" t="n">
-        <v>0.276764</v>
+        <v>0.276313</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.407639</v>
+        <v>0.416266</v>
       </c>
       <c r="C136" t="n">
-        <v>0.53596</v>
+        <v>0.548721</v>
       </c>
       <c r="D136" t="n">
-        <v>0.707985</v>
+        <v>0.708876</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220418</v>
+        <v>0.217866</v>
       </c>
       <c r="F136" t="n">
-        <v>0.307876</v>
+        <v>0.310193</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509264</v>
+        <v>0.52172</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662875</v>
+        <v>0.667064</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727162</v>
+        <v>0.727432</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26336</v>
+        <v>0.258176</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305964</v>
+        <v>0.305208</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.338529</v>
+        <v>0.329316</v>
       </c>
       <c r="C138" t="n">
-        <v>0.378836</v>
+        <v>0.38921</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7464769999999999</v>
+        <v>0.7470059999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261065</v>
+        <v>0.261232</v>
       </c>
       <c r="F138" t="n">
-        <v>0.313658</v>
+        <v>0.308382</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334485</v>
+        <v>0.338791</v>
       </c>
       <c r="C139" t="n">
-        <v>0.389453</v>
+        <v>0.393446</v>
       </c>
       <c r="D139" t="n">
-        <v>0.767076</v>
+        <v>0.767676</v>
       </c>
       <c r="E139" t="n">
-        <v>0.269825</v>
+        <v>0.264939</v>
       </c>
       <c r="F139" t="n">
-        <v>0.318651</v>
+        <v>0.315122</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33927</v>
+        <v>0.33964</v>
       </c>
       <c r="C140" t="n">
-        <v>0.397263</v>
+        <v>0.395704</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788419</v>
+        <v>0.789312</v>
       </c>
       <c r="E140" t="n">
-        <v>0.270241</v>
+        <v>0.264374</v>
       </c>
       <c r="F140" t="n">
-        <v>0.323727</v>
+        <v>0.318465</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347716</v>
+        <v>0.343538</v>
       </c>
       <c r="C141" t="n">
-        <v>0.406633</v>
+        <v>0.405129</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8106680000000001</v>
+        <v>0.811757</v>
       </c>
       <c r="E141" t="n">
-        <v>0.268334</v>
+        <v>0.268173</v>
       </c>
       <c r="F141" t="n">
-        <v>0.329523</v>
+        <v>0.323601</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35535</v>
+        <v>0.352775</v>
       </c>
       <c r="C142" t="n">
-        <v>0.427503</v>
+        <v>0.423683</v>
       </c>
       <c r="D142" t="n">
-        <v>0.834187</v>
+        <v>0.835233</v>
       </c>
       <c r="E142" t="n">
-        <v>0.274118</v>
+        <v>0.269711</v>
       </c>
       <c r="F142" t="n">
-        <v>0.333461</v>
+        <v>0.329546</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.358712</v>
+        <v>0.357126</v>
       </c>
       <c r="C143" t="n">
-        <v>0.434735</v>
+        <v>0.440306</v>
       </c>
       <c r="D143" t="n">
-        <v>0.859027</v>
+        <v>0.859893</v>
       </c>
       <c r="E143" t="n">
-        <v>0.279229</v>
+        <v>0.274045</v>
       </c>
       <c r="F143" t="n">
-        <v>0.34016</v>
+        <v>0.338018</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102466</v>
+        <v>0.102346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105095</v>
+        <v>0.105521</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179396</v>
+        <v>0.178793</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0801767</v>
+        <v>0.0801786</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0807577</v>
+        <v>0.0806288</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110343</v>
+        <v>0.110381</v>
       </c>
       <c r="C3" t="n">
-        <v>0.114193</v>
+        <v>0.113586</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186067</v>
+        <v>0.185684</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07997319999999999</v>
+        <v>0.08037080000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08095040000000001</v>
+        <v>0.0795168</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124307</v>
+        <v>0.123898</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124209</v>
+        <v>0.124113</v>
       </c>
       <c r="D4" t="n">
-        <v>0.19276</v>
+        <v>0.192253</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0797006</v>
+        <v>0.080556</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0803125</v>
+        <v>0.0805738</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140057</v>
+        <v>0.140197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.144696</v>
+        <v>0.143997</v>
       </c>
       <c r="D5" t="n">
-        <v>0.19964</v>
+        <v>0.199609</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07925550000000001</v>
+        <v>0.0792404</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0801887</v>
+        <v>0.0802998</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166879</v>
+        <v>0.167426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167395</v>
+        <v>0.167375</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206613</v>
+        <v>0.206173</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0805091</v>
+        <v>0.080513</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0818089</v>
+        <v>0.08173130000000001</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200238</v>
+        <v>0.200561</v>
       </c>
       <c r="C7" t="n">
-        <v>0.202843</v>
+        <v>0.201195</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155952</v>
+        <v>0.155519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08619309999999999</v>
+        <v>0.0859486</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0881349</v>
+        <v>0.0869398</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247976</v>
+        <v>0.248019</v>
       </c>
       <c r="C8" t="n">
-        <v>0.253551</v>
+        <v>0.244874</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163192</v>
+        <v>0.162479</v>
       </c>
       <c r="E8" t="n">
-        <v>0.100099</v>
+        <v>0.100891</v>
       </c>
       <c r="F8" t="n">
-        <v>0.103281</v>
+        <v>0.102626</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.29206</v>
+        <v>0.292088</v>
       </c>
       <c r="C9" t="n">
-        <v>0.29464</v>
+        <v>0.294564</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169918</v>
+        <v>0.169808</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07987030000000001</v>
+        <v>0.07977869999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0804626</v>
+        <v>0.08090310000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0942239</v>
+        <v>0.09459679999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0959972</v>
+        <v>0.0957472</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176185</v>
+        <v>0.176084</v>
       </c>
       <c r="E10" t="n">
-        <v>0.079856</v>
+        <v>0.0798175</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0805352</v>
+        <v>0.0810226</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0955201</v>
+        <v>0.0960102</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0972065</v>
+        <v>0.097119</v>
       </c>
       <c r="D11" t="n">
-        <v>0.18418</v>
+        <v>0.183916</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0801254</v>
+        <v>0.0802634</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0808632</v>
+        <v>0.0811554</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0967925</v>
+        <v>0.0967218</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0984684</v>
+        <v>0.09828539999999999</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191388</v>
+        <v>0.191668</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0802824</v>
+        <v>0.0802066</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0809209</v>
+        <v>0.0813961</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0988187</v>
+        <v>0.100642</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105569</v>
+        <v>0.11112</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198727</v>
+        <v>0.198617</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08045140000000001</v>
+        <v>0.0804281</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0810908</v>
+        <v>0.0816532</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.101359</v>
+        <v>0.100616</v>
       </c>
       <c r="C14" t="n">
-        <v>0.103871</v>
+        <v>0.105102</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205842</v>
+        <v>0.205142</v>
       </c>
       <c r="E14" t="n">
-        <v>0.08050649999999999</v>
+        <v>0.0805</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0815419</v>
+        <v>0.0817445</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105682</v>
+        <v>0.105096</v>
       </c>
       <c r="C15" t="n">
-        <v>0.107637</v>
+        <v>0.112518</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213478</v>
+        <v>0.212035</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08098809999999999</v>
+        <v>0.0810666</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08507430000000001</v>
+        <v>0.0820514</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.111899</v>
+        <v>0.111614</v>
       </c>
       <c r="C16" t="n">
-        <v>0.11433</v>
+        <v>0.114752</v>
       </c>
       <c r="D16" t="n">
-        <v>0.218825</v>
+        <v>0.217521</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08100599999999999</v>
+        <v>0.08105420000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0846794</v>
+        <v>0.0822958</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.122262</v>
+        <v>0.121087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.124319</v>
+        <v>0.124538</v>
       </c>
       <c r="D17" t="n">
-        <v>0.225368</v>
+        <v>0.224413</v>
       </c>
       <c r="E17" t="n">
-        <v>0.081023</v>
+        <v>0.08135870000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.085843</v>
+        <v>0.08258740000000001</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.134731</v>
+        <v>0.13286</v>
       </c>
       <c r="C18" t="n">
-        <v>0.139933</v>
+        <v>0.133936</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229883</v>
+        <v>0.229634</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0816885</v>
+        <v>0.0823425</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0859758</v>
+        <v>0.082784</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.149938</v>
+        <v>0.150203</v>
       </c>
       <c r="C19" t="n">
-        <v>0.151831</v>
+        <v>0.159435</v>
       </c>
       <c r="D19" t="n">
-        <v>0.237297</v>
+        <v>0.236075</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0820311</v>
+        <v>0.0817967</v>
       </c>
       <c r="F19" t="n">
-        <v>0.08404739999999999</v>
+        <v>0.0836633</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.171123</v>
+        <v>0.17271</v>
       </c>
       <c r="C20" t="n">
-        <v>0.173753</v>
+        <v>0.176705</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242789</v>
+        <v>0.241723</v>
       </c>
       <c r="E20" t="n">
-        <v>0.08505310000000001</v>
+        <v>0.0851071</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0888116</v>
+        <v>0.0900745</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.20041</v>
+        <v>0.20026</v>
       </c>
       <c r="C21" t="n">
-        <v>0.222313</v>
+        <v>0.214406</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177751</v>
+        <v>0.177251</v>
       </c>
       <c r="E21" t="n">
-        <v>0.094072</v>
+        <v>0.09364740000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09822350000000001</v>
+        <v>0.09630560000000001</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.240257</v>
+        <v>0.24065</v>
       </c>
       <c r="C22" t="n">
-        <v>0.245486</v>
+        <v>0.2443</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184979</v>
+        <v>0.185287</v>
       </c>
       <c r="E22" t="n">
-        <v>0.10836</v>
+        <v>0.108709</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112241</v>
+        <v>0.109869</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.287823</v>
+        <v>0.289808</v>
       </c>
       <c r="C23" t="n">
-        <v>0.306204</v>
+        <v>0.308804</v>
       </c>
       <c r="D23" t="n">
-        <v>0.192248</v>
+        <v>0.191854</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0814742</v>
+        <v>0.0814922</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0823594</v>
+        <v>0.08278779999999999</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100412</v>
+        <v>0.100249</v>
       </c>
       <c r="C24" t="n">
-        <v>0.103895</v>
+        <v>0.10356</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199536</v>
+        <v>0.199899</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0817055</v>
+        <v>0.08164059999999999</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08270429999999999</v>
+        <v>0.08433300000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.101655</v>
+        <v>0.102176</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105391</v>
+        <v>0.104379</v>
       </c>
       <c r="D25" t="n">
-        <v>0.207041</v>
+        <v>0.20644</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08186</v>
+        <v>0.0818503</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0840984</v>
+        <v>0.0838824</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103516</v>
+        <v>0.103838</v>
       </c>
       <c r="C26" t="n">
-        <v>0.110217</v>
+        <v>0.105542</v>
       </c>
       <c r="D26" t="n">
-        <v>0.21363</v>
+        <v>0.212598</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0824289</v>
+        <v>0.08207449999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0849882</v>
+        <v>0.0860547</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105529</v>
+        <v>0.105522</v>
       </c>
       <c r="C27" t="n">
-        <v>0.110146</v>
+        <v>0.109628</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220511</v>
+        <v>0.219893</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0839216</v>
+        <v>0.0828599</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0841128</v>
+        <v>0.08516079999999999</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111155</v>
+        <v>0.111513</v>
       </c>
       <c r="C28" t="n">
-        <v>0.118565</v>
+        <v>0.121218</v>
       </c>
       <c r="D28" t="n">
-        <v>0.227015</v>
+        <v>0.22631</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0825241</v>
+        <v>0.0825729</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0848645</v>
+        <v>0.0855976</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.11468</v>
+        <v>0.113417</v>
       </c>
       <c r="C29" t="n">
-        <v>0.123248</v>
+        <v>0.119403</v>
       </c>
       <c r="D29" t="n">
-        <v>0.233463</v>
+        <v>0.232282</v>
       </c>
       <c r="E29" t="n">
-        <v>0.082986</v>
+        <v>0.0830235</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0856695</v>
+        <v>0.0859838</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.120711</v>
+        <v>0.11908</v>
       </c>
       <c r="C30" t="n">
-        <v>0.124042</v>
+        <v>0.122188</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237822</v>
+        <v>0.236866</v>
       </c>
       <c r="E30" t="n">
-        <v>0.08351509999999999</v>
+        <v>0.0835567</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08786869999999999</v>
+        <v>0.0865181</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127406</v>
+        <v>0.126604</v>
       </c>
       <c r="C31" t="n">
-        <v>0.131252</v>
+        <v>0.12974</v>
       </c>
       <c r="D31" t="n">
-        <v>0.243293</v>
+        <v>0.242288</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08409030000000001</v>
+        <v>0.08413130000000001</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08738319999999999</v>
+        <v>0.0885645</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136788</v>
+        <v>0.136751</v>
       </c>
       <c r="C32" t="n">
-        <v>0.14092</v>
+        <v>0.141393</v>
       </c>
       <c r="D32" t="n">
-        <v>0.249192</v>
+        <v>0.248893</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08516079999999999</v>
+        <v>0.08550969999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0885707</v>
+        <v>0.0889313</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.152809</v>
+        <v>0.14993</v>
       </c>
       <c r="C33" t="n">
-        <v>0.153089</v>
+        <v>0.152949</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254724</v>
+        <v>0.253734</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09290080000000001</v>
+        <v>0.0878065</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0937398</v>
+        <v>0.0915586</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.170372</v>
+        <v>0.169729</v>
       </c>
       <c r="C34" t="n">
-        <v>0.171048</v>
+        <v>0.170842</v>
       </c>
       <c r="D34" t="n">
-        <v>0.260064</v>
+        <v>0.259824</v>
       </c>
       <c r="E34" t="n">
-        <v>0.09322510000000001</v>
+        <v>0.0934657</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09835869999999999</v>
+        <v>0.09686359999999999</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193587</v>
+        <v>0.194553</v>
       </c>
       <c r="C35" t="n">
-        <v>0.196924</v>
+        <v>0.195299</v>
       </c>
       <c r="D35" t="n">
-        <v>0.191453</v>
+        <v>0.190664</v>
       </c>
       <c r="E35" t="n">
-        <v>0.101753</v>
+        <v>0.101595</v>
       </c>
       <c r="F35" t="n">
-        <v>0.106298</v>
+        <v>0.104933</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.233085</v>
+        <v>0.232695</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232593</v>
+        <v>0.232562</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197697</v>
+        <v>0.197057</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113433</v>
+        <v>0.113358</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116219</v>
+        <v>0.116314</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.287616</v>
+        <v>0.280552</v>
       </c>
       <c r="C37" t="n">
-        <v>0.306077</v>
+        <v>0.283626</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204708</v>
+        <v>0.204249</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0827431</v>
+        <v>0.0826963</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0869798</v>
+        <v>0.08656990000000001</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103111</v>
+        <v>0.103298</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107695</v>
+        <v>0.108408</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211195</v>
+        <v>0.210928</v>
       </c>
       <c r="E38" t="n">
-        <v>0.08296000000000001</v>
+        <v>0.0832384</v>
       </c>
       <c r="F38" t="n">
-        <v>0.0862556</v>
+        <v>0.08785660000000001</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107997</v>
+        <v>0.105323</v>
       </c>
       <c r="C39" t="n">
-        <v>0.115797</v>
+        <v>0.10851</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217574</v>
+        <v>0.217491</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0831976</v>
+        <v>0.08495279999999999</v>
       </c>
       <c r="F39" t="n">
-        <v>0.08755780000000001</v>
+        <v>0.0875614</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.110669</v>
+        <v>0.107488</v>
       </c>
       <c r="C40" t="n">
-        <v>0.114227</v>
+        <v>0.110218</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225628</v>
+        <v>0.225164</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0838299</v>
+        <v>0.0846922</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0871101</v>
+        <v>0.0875736</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109629</v>
+        <v>0.108906</v>
       </c>
       <c r="C41" t="n">
-        <v>0.113225</v>
+        <v>0.112945</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231523</v>
+        <v>0.230867</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0838169</v>
+        <v>0.0838513</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0877083</v>
+        <v>0.0887392</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114794</v>
+        <v>0.114433</v>
       </c>
       <c r="C42" t="n">
-        <v>0.114774</v>
+        <v>0.116531</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237794</v>
+        <v>0.237842</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0840876</v>
+        <v>0.0843362</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0882839</v>
+        <v>0.08862730000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116144</v>
+        <v>0.115921</v>
       </c>
       <c r="C43" t="n">
-        <v>0.118488</v>
+        <v>0.124263</v>
       </c>
       <c r="D43" t="n">
-        <v>0.244062</v>
+        <v>0.243767</v>
       </c>
       <c r="E43" t="n">
-        <v>0.0859176</v>
+        <v>0.08722779999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.089531</v>
+        <v>0.0890812</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129339</v>
+        <v>0.123121</v>
       </c>
       <c r="C44" t="n">
-        <v>0.126316</v>
+        <v>0.125531</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250181</v>
+        <v>0.249841</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08517950000000001</v>
+        <v>0.08680839999999999</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0893753</v>
+        <v>0.09005639999999999</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.128581</v>
+        <v>0.131377</v>
       </c>
       <c r="C45" t="n">
-        <v>0.135041</v>
+        <v>0.132978</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255704</v>
+        <v>0.255551</v>
       </c>
       <c r="E45" t="n">
-        <v>0.08638759999999999</v>
+        <v>0.0862478</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09114659999999999</v>
+        <v>0.09121609999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.139619</v>
+        <v>0.137963</v>
       </c>
       <c r="C46" t="n">
-        <v>0.142825</v>
+        <v>0.141116</v>
       </c>
       <c r="D46" t="n">
-        <v>0.261273</v>
+        <v>0.260809</v>
       </c>
       <c r="E46" t="n">
-        <v>0.08790829999999999</v>
+        <v>0.0878208</v>
       </c>
       <c r="F46" t="n">
-        <v>0.092224</v>
+        <v>0.0926662</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.149962</v>
+        <v>0.1497</v>
       </c>
       <c r="C47" t="n">
-        <v>0.155698</v>
+        <v>0.155695</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266617</v>
+        <v>0.266134</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09053659999999999</v>
+        <v>0.09052350000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0963846</v>
+        <v>0.0950271</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.172415</v>
+        <v>0.169641</v>
       </c>
       <c r="C48" t="n">
-        <v>0.172055</v>
+        <v>0.173602</v>
       </c>
       <c r="D48" t="n">
-        <v>0.271986</v>
+        <v>0.272111</v>
       </c>
       <c r="E48" t="n">
-        <v>0.09457740000000001</v>
+        <v>0.095762</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100131</v>
+        <v>0.0995958</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.198131</v>
+        <v>0.189833</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193915</v>
+        <v>0.193772</v>
       </c>
       <c r="D49" t="n">
-        <v>0.277903</v>
+        <v>0.278955</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100266</v>
+        <v>0.100185</v>
       </c>
       <c r="F49" t="n">
-        <v>0.104429</v>
+        <v>0.105055</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224888</v>
+        <v>0.224402</v>
       </c>
       <c r="C50" t="n">
-        <v>0.225403</v>
+        <v>0.226398</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198482</v>
+        <v>0.198317</v>
       </c>
       <c r="E50" t="n">
-        <v>0.110318</v>
+        <v>0.11096</v>
       </c>
       <c r="F50" t="n">
-        <v>0.114512</v>
+        <v>0.114541</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.269175</v>
+        <v>0.276656</v>
       </c>
       <c r="C51" t="n">
-        <v>0.280348</v>
+        <v>0.27535</v>
       </c>
       <c r="D51" t="n">
-        <v>0.205023</v>
+        <v>0.204947</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0876165</v>
+        <v>0.0863328</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0897355</v>
+        <v>0.0938427</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.318768</v>
+        <v>0.326329</v>
       </c>
       <c r="C52" t="n">
-        <v>0.329207</v>
+        <v>0.340961</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211438</v>
+        <v>0.211211</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0863232</v>
+        <v>0.0865475</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0884582</v>
+        <v>0.08951870000000001</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.117206</v>
+        <v>0.109523</v>
       </c>
       <c r="C53" t="n">
-        <v>0.112341</v>
+        <v>0.111949</v>
       </c>
       <c r="D53" t="n">
-        <v>0.218016</v>
+        <v>0.217814</v>
       </c>
       <c r="E53" t="n">
-        <v>0.086162</v>
+        <v>0.0860802</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0900873</v>
+        <v>0.08981359999999999</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.120593</v>
+        <v>0.110615</v>
       </c>
       <c r="C54" t="n">
-        <v>0.117068</v>
+        <v>0.116275</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224392</v>
+        <v>0.224678</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0869848</v>
+        <v>0.0878617</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0902444</v>
+        <v>0.09172370000000001</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113706</v>
+        <v>0.113484</v>
       </c>
       <c r="C55" t="n">
-        <v>0.117971</v>
+        <v>0.117591</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230623</v>
+        <v>0.230624</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0867166</v>
+        <v>0.0868263</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0898685</v>
+        <v>0.0906387</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118692</v>
+        <v>0.118977</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119753</v>
+        <v>0.119631</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236507</v>
+        <v>0.236838</v>
       </c>
       <c r="E56" t="n">
-        <v>0.08893760000000001</v>
+        <v>0.0876083</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0916844</v>
+        <v>0.0914553</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.122377</v>
+        <v>0.121216</v>
       </c>
       <c r="C57" t="n">
-        <v>0.12608</v>
+        <v>0.125592</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24242</v>
+        <v>0.242056</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0880553</v>
+        <v>0.0884094</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09149069999999999</v>
+        <v>0.0917309</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.127294</v>
+        <v>0.128492</v>
       </c>
       <c r="C58" t="n">
-        <v>0.130911</v>
+        <v>0.130459</v>
       </c>
       <c r="D58" t="n">
-        <v>0.248125</v>
+        <v>0.247717</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0884001</v>
+        <v>0.0881567</v>
       </c>
       <c r="F58" t="n">
-        <v>0.093011</v>
+        <v>0.0937321</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131392</v>
+        <v>0.142339</v>
       </c>
       <c r="C59" t="n">
-        <v>0.146523</v>
+        <v>0.13735</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253066</v>
+        <v>0.252793</v>
       </c>
       <c r="E59" t="n">
-        <v>0.08893570000000001</v>
+        <v>0.0890339</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0944286</v>
+        <v>0.0964175</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.138605</v>
+        <v>0.13781</v>
       </c>
       <c r="C60" t="n">
-        <v>0.14713</v>
+        <v>0.144643</v>
       </c>
       <c r="D60" t="n">
-        <v>0.258245</v>
+        <v>0.257854</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0907275</v>
+        <v>0.09057809999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0973044</v>
+        <v>0.0955873</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.15147</v>
+        <v>0.152581</v>
       </c>
       <c r="C61" t="n">
-        <v>0.157019</v>
+        <v>0.158636</v>
       </c>
       <c r="D61" t="n">
-        <v>0.263836</v>
+        <v>0.262961</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0946192</v>
+        <v>0.093959</v>
       </c>
       <c r="F61" t="n">
-        <v>0.0989611</v>
+        <v>0.09779880000000001</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.173523</v>
+        <v>0.168387</v>
       </c>
       <c r="C62" t="n">
-        <v>0.174175</v>
+        <v>0.17102</v>
       </c>
       <c r="D62" t="n">
-        <v>0.271126</v>
+        <v>0.269317</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0961875</v>
+        <v>0.09720520000000001</v>
       </c>
       <c r="F62" t="n">
-        <v>0.101782</v>
+        <v>0.102889</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185262</v>
+        <v>0.187335</v>
       </c>
       <c r="C63" t="n">
-        <v>0.193102</v>
+        <v>0.191169</v>
       </c>
       <c r="D63" t="n">
-        <v>0.276437</v>
+        <v>0.275309</v>
       </c>
       <c r="E63" t="n">
-        <v>0.102499</v>
+        <v>0.101332</v>
       </c>
       <c r="F63" t="n">
-        <v>0.106913</v>
+        <v>0.106839</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.229169</v>
+        <v>0.214732</v>
       </c>
       <c r="C64" t="n">
-        <v>0.224321</v>
+        <v>0.225141</v>
       </c>
       <c r="D64" t="n">
-        <v>0.201941</v>
+        <v>0.200658</v>
       </c>
       <c r="E64" t="n">
-        <v>0.109658</v>
+        <v>0.109941</v>
       </c>
       <c r="F64" t="n">
-        <v>0.115843</v>
+        <v>0.115841</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.258552</v>
+        <v>0.263501</v>
       </c>
       <c r="C65" t="n">
-        <v>0.273672</v>
+        <v>0.267118</v>
       </c>
       <c r="D65" t="n">
-        <v>0.208703</v>
+        <v>0.207241</v>
       </c>
       <c r="E65" t="n">
-        <v>0.125066</v>
+        <v>0.125586</v>
       </c>
       <c r="F65" t="n">
-        <v>0.130043</v>
+        <v>0.130717</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.31182</v>
+        <v>0.308453</v>
       </c>
       <c r="C66" t="n">
-        <v>0.322497</v>
+        <v>0.332531</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216441</v>
+        <v>0.215667</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0922531</v>
+        <v>0.0924005</v>
       </c>
       <c r="F66" t="n">
-        <v>0.0969508</v>
+        <v>0.09672509999999999</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.121271</v>
+        <v>0.132048</v>
       </c>
       <c r="C67" t="n">
-        <v>0.128271</v>
+        <v>0.126624</v>
       </c>
       <c r="D67" t="n">
-        <v>0.225571</v>
+        <v>0.225274</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0927066</v>
+        <v>0.0929309</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0966514</v>
+        <v>0.0974945</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123211</v>
+        <v>0.123109</v>
       </c>
       <c r="C68" t="n">
-        <v>0.13032</v>
+        <v>0.13734</v>
       </c>
       <c r="D68" t="n">
-        <v>0.2328</v>
+        <v>0.233379</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0930015</v>
+        <v>0.0949069</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0998264</v>
+        <v>0.0977055</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.126585</v>
+        <v>0.133646</v>
       </c>
       <c r="C69" t="n">
-        <v>0.136588</v>
+        <v>0.140314</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241081</v>
+        <v>0.241764</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0934074</v>
+        <v>0.0937909</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0990558</v>
+        <v>0.0988714</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.137108</v>
+        <v>0.129644</v>
       </c>
       <c r="C70" t="n">
-        <v>0.134822</v>
+        <v>0.142909</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252613</v>
+        <v>0.252507</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0938345</v>
+        <v>0.0934318</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09914920000000001</v>
+        <v>0.09953770000000001</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.130531</v>
+        <v>0.1319</v>
       </c>
       <c r="C71" t="n">
-        <v>0.138677</v>
+        <v>0.140015</v>
       </c>
       <c r="D71" t="n">
-        <v>0.259952</v>
+        <v>0.262798</v>
       </c>
       <c r="E71" t="n">
-        <v>0.09535440000000001</v>
+        <v>0.0941278</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101616</v>
+        <v>0.101388</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.145722</v>
+        <v>0.14496</v>
       </c>
       <c r="C72" t="n">
-        <v>0.15229</v>
+        <v>0.152043</v>
       </c>
       <c r="D72" t="n">
-        <v>0.2692</v>
+        <v>0.270966</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0962108</v>
+        <v>0.0956158</v>
       </c>
       <c r="F72" t="n">
-        <v>0.102527</v>
+        <v>0.102815</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142031</v>
+        <v>0.142263</v>
       </c>
       <c r="C73" t="n">
-        <v>0.151468</v>
+        <v>0.159168</v>
       </c>
       <c r="D73" t="n">
-        <v>0.282253</v>
+        <v>0.283451</v>
       </c>
       <c r="E73" t="n">
-        <v>0.096655</v>
+        <v>0.0994434</v>
       </c>
       <c r="F73" t="n">
-        <v>0.103655</v>
+        <v>0.103945</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.151369</v>
+        <v>0.158656</v>
       </c>
       <c r="C74" t="n">
-        <v>0.167639</v>
+        <v>0.168907</v>
       </c>
       <c r="D74" t="n">
-        <v>0.293798</v>
+        <v>0.295078</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0983446</v>
+        <v>0.0985732</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106228</v>
+        <v>0.106046</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162322</v>
+        <v>0.16396</v>
       </c>
       <c r="C75" t="n">
-        <v>0.179684</v>
+        <v>0.17957</v>
       </c>
       <c r="D75" t="n">
-        <v>0.307195</v>
+        <v>0.308397</v>
       </c>
       <c r="E75" t="n">
-        <v>0.100232</v>
+        <v>0.1005</v>
       </c>
       <c r="F75" t="n">
-        <v>0.107719</v>
+        <v>0.109614</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.185469</v>
+        <v>0.182612</v>
       </c>
       <c r="C76" t="n">
-        <v>0.18885</v>
+        <v>0.1921</v>
       </c>
       <c r="D76" t="n">
-        <v>0.321763</v>
+        <v>0.32469</v>
       </c>
       <c r="E76" t="n">
-        <v>0.10361</v>
+        <v>0.103152</v>
       </c>
       <c r="F76" t="n">
-        <v>0.111707</v>
+        <v>0.111828</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.204773</v>
+        <v>0.19494</v>
       </c>
       <c r="C77" t="n">
-        <v>0.213417</v>
+        <v>0.209291</v>
       </c>
       <c r="D77" t="n">
-        <v>0.340918</v>
+        <v>0.345485</v>
       </c>
       <c r="E77" t="n">
-        <v>0.108911</v>
+        <v>0.108488</v>
       </c>
       <c r="F77" t="n">
-        <v>0.116554</v>
+        <v>0.1174</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.223724</v>
+        <v>0.224157</v>
       </c>
       <c r="C78" t="n">
-        <v>0.233127</v>
+        <v>0.237346</v>
       </c>
       <c r="D78" t="n">
-        <v>0.263928</v>
+        <v>0.267047</v>
       </c>
       <c r="E78" t="n">
-        <v>0.115255</v>
+        <v>0.115641</v>
       </c>
       <c r="F78" t="n">
-        <v>0.125471</v>
+        <v>0.125571</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.261698</v>
+        <v>0.262183</v>
       </c>
       <c r="C79" t="n">
-        <v>0.291408</v>
+        <v>0.278202</v>
       </c>
       <c r="D79" t="n">
-        <v>0.280703</v>
+        <v>0.282934</v>
       </c>
       <c r="E79" t="n">
-        <v>0.137375</v>
+        <v>0.130141</v>
       </c>
       <c r="F79" t="n">
-        <v>0.139413</v>
+        <v>0.14055</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322211</v>
+        <v>0.322058</v>
       </c>
       <c r="C80" t="n">
-        <v>0.340087</v>
+        <v>0.342642</v>
       </c>
       <c r="D80" t="n">
-        <v>0.300685</v>
+        <v>0.301704</v>
       </c>
       <c r="E80" t="n">
-        <v>0.099693</v>
+        <v>0.0996163</v>
       </c>
       <c r="F80" t="n">
-        <v>0.105166</v>
+        <v>0.105356</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.144725</v>
+        <v>0.145026</v>
       </c>
       <c r="C81" t="n">
-        <v>0.150362</v>
+        <v>0.146949</v>
       </c>
       <c r="D81" t="n">
-        <v>0.31892</v>
+        <v>0.321582</v>
       </c>
       <c r="E81" t="n">
-        <v>0.100043</v>
+        <v>0.09979789999999999</v>
       </c>
       <c r="F81" t="n">
-        <v>0.105946</v>
+        <v>0.105782</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.13743</v>
+        <v>0.146506</v>
       </c>
       <c r="C82" t="n">
-        <v>0.148107</v>
+        <v>0.142967</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339097</v>
+        <v>0.338806</v>
       </c>
       <c r="E82" t="n">
-        <v>0.100214</v>
+        <v>0.100081</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106599</v>
+        <v>0.106595</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148805</v>
+        <v>0.146098</v>
       </c>
       <c r="C83" t="n">
-        <v>0.146201</v>
+        <v>0.15508</v>
       </c>
       <c r="D83" t="n">
-        <v>0.360687</v>
+        <v>0.36089</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101</v>
+        <v>0.100873</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107692</v>
+        <v>0.107625</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.1515</v>
+        <v>0.141653</v>
       </c>
       <c r="C84" t="n">
-        <v>0.155006</v>
+        <v>0.150138</v>
       </c>
       <c r="D84" t="n">
-        <v>0.381415</v>
+        <v>0.382635</v>
       </c>
       <c r="E84" t="n">
-        <v>0.10126</v>
+        <v>0.101505</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108654</v>
+        <v>0.108766</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.149285</v>
+        <v>0.155397</v>
       </c>
       <c r="C85" t="n">
-        <v>0.153506</v>
+        <v>0.156281</v>
       </c>
       <c r="D85" t="n">
-        <v>0.402651</v>
+        <v>0.405432</v>
       </c>
       <c r="E85" t="n">
-        <v>0.10197</v>
+        <v>0.102345</v>
       </c>
       <c r="F85" t="n">
-        <v>0.110034</v>
+        <v>0.110244</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.155564</v>
+        <v>0.159469</v>
       </c>
       <c r="C86" t="n">
-        <v>0.158907</v>
+        <v>0.160999</v>
       </c>
       <c r="D86" t="n">
-        <v>0.425242</v>
+        <v>0.426908</v>
       </c>
       <c r="E86" t="n">
-        <v>0.102932</v>
+        <v>0.103194</v>
       </c>
       <c r="F86" t="n">
-        <v>0.111883</v>
+        <v>0.111743</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.155918</v>
+        <v>0.165631</v>
       </c>
       <c r="C87" t="n">
-        <v>0.166137</v>
+        <v>0.17552</v>
       </c>
       <c r="D87" t="n">
-        <v>0.448515</v>
+        <v>0.449801</v>
       </c>
       <c r="E87" t="n">
-        <v>0.104209</v>
+        <v>0.104432</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114075</v>
+        <v>0.114455</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.164337</v>
+        <v>0.162976</v>
       </c>
       <c r="C88" t="n">
-        <v>0.183392</v>
+        <v>0.1861</v>
       </c>
       <c r="D88" t="n">
-        <v>0.472999</v>
+        <v>0.47381</v>
       </c>
       <c r="E88" t="n">
-        <v>0.105893</v>
+        <v>0.105685</v>
       </c>
       <c r="F88" t="n">
-        <v>0.116782</v>
+        <v>0.11769</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.173652</v>
+        <v>0.184477</v>
       </c>
       <c r="C89" t="n">
-        <v>0.192513</v>
+        <v>0.191366</v>
       </c>
       <c r="D89" t="n">
-        <v>0.497415</v>
+        <v>0.499165</v>
       </c>
       <c r="E89" t="n">
-        <v>0.107829</v>
+        <v>0.108255</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121078</v>
+        <v>0.121882</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.187564</v>
+        <v>0.188351</v>
       </c>
       <c r="C90" t="n">
-        <v>0.218042</v>
+        <v>0.217407</v>
       </c>
       <c r="D90" t="n">
-        <v>0.524331</v>
+        <v>0.525533</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111328</v>
+        <v>0.111471</v>
       </c>
       <c r="F90" t="n">
-        <v>0.126342</v>
+        <v>0.127893</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.208478</v>
+        <v>0.208236</v>
       </c>
       <c r="C91" t="n">
-        <v>0.23487</v>
+        <v>0.238692</v>
       </c>
       <c r="D91" t="n">
-        <v>0.550585</v>
+        <v>0.552377</v>
       </c>
       <c r="E91" t="n">
-        <v>0.116698</v>
+        <v>0.116544</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135004</v>
+        <v>0.135928</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.237474</v>
+        <v>0.242511</v>
       </c>
       <c r="C92" t="n">
-        <v>0.276393</v>
+        <v>0.275862</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412249</v>
+        <v>0.415068</v>
       </c>
       <c r="E92" t="n">
-        <v>0.125015</v>
+        <v>0.127507</v>
       </c>
       <c r="F92" t="n">
-        <v>0.148474</v>
+        <v>0.14842</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.278802</v>
+        <v>0.284622</v>
       </c>
       <c r="C93" t="n">
-        <v>0.331822</v>
+        <v>0.33313</v>
       </c>
       <c r="D93" t="n">
-        <v>0.430526</v>
+        <v>0.432879</v>
       </c>
       <c r="E93" t="n">
-        <v>0.143865</v>
+        <v>0.139394</v>
       </c>
       <c r="F93" t="n">
-        <v>0.168489</v>
+        <v>0.17807</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.341715</v>
+        <v>0.347749</v>
       </c>
       <c r="C94" t="n">
-        <v>0.414221</v>
+        <v>0.414051</v>
       </c>
       <c r="D94" t="n">
-        <v>0.448731</v>
+        <v>0.450699</v>
       </c>
       <c r="E94" t="n">
-        <v>0.105405</v>
+        <v>0.105296</v>
       </c>
       <c r="F94" t="n">
-        <v>0.118623</v>
+        <v>0.11945</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.154881</v>
+        <v>0.144624</v>
       </c>
       <c r="C95" t="n">
-        <v>0.160301</v>
+        <v>0.171441</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469414</v>
+        <v>0.471243</v>
       </c>
       <c r="E95" t="n">
-        <v>0.106566</v>
+        <v>0.106194</v>
       </c>
       <c r="F95" t="n">
-        <v>0.121791</v>
+        <v>0.122964</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.157278</v>
+        <v>0.156935</v>
       </c>
       <c r="C96" t="n">
-        <v>0.165501</v>
+        <v>0.176983</v>
       </c>
       <c r="D96" t="n">
-        <v>0.488457</v>
+        <v>0.49094</v>
       </c>
       <c r="E96" t="n">
-        <v>0.107799</v>
+        <v>0.107792</v>
       </c>
       <c r="F96" t="n">
-        <v>0.126842</v>
+        <v>0.127053</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.160443</v>
+        <v>0.15011</v>
       </c>
       <c r="C97" t="n">
-        <v>0.173284</v>
+        <v>0.175155</v>
       </c>
       <c r="D97" t="n">
-        <v>0.508638</v>
+        <v>0.511139</v>
       </c>
       <c r="E97" t="n">
-        <v>0.10978</v>
+        <v>0.109339</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132141</v>
+        <v>0.132269</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.16154</v>
+        <v>0.155084</v>
       </c>
       <c r="C98" t="n">
-        <v>0.187644</v>
+        <v>0.191745</v>
       </c>
       <c r="D98" t="n">
-        <v>0.529592</v>
+        <v>0.53256</v>
       </c>
       <c r="E98" t="n">
-        <v>0.111751</v>
+        <v>0.11156</v>
       </c>
       <c r="F98" t="n">
-        <v>0.137194</v>
+        <v>0.137846</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.170709</v>
+        <v>0.168797</v>
       </c>
       <c r="C99" t="n">
-        <v>0.191111</v>
+        <v>0.201545</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553085</v>
+        <v>0.55509</v>
       </c>
       <c r="E99" t="n">
-        <v>0.114425</v>
+        <v>0.114142</v>
       </c>
       <c r="F99" t="n">
-        <v>0.143385</v>
+        <v>0.143119</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.177772</v>
+        <v>0.167277</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212071</v>
+        <v>0.212025</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576429</v>
+        <v>0.576941</v>
       </c>
       <c r="E100" t="n">
-        <v>0.117301</v>
+        <v>0.117412</v>
       </c>
       <c r="F100" t="n">
-        <v>0.149273</v>
+        <v>0.150048</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.176236</v>
+        <v>0.18746</v>
       </c>
       <c r="C101" t="n">
-        <v>0.221924</v>
+        <v>0.221084</v>
       </c>
       <c r="D101" t="n">
-        <v>0.599821</v>
+        <v>0.602487</v>
       </c>
       <c r="E101" t="n">
-        <v>0.120973</v>
+        <v>0.120965</v>
       </c>
       <c r="F101" t="n">
-        <v>0.156385</v>
+        <v>0.156569</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.186287</v>
+        <v>0.197036</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240274</v>
+        <v>0.240713</v>
       </c>
       <c r="D102" t="n">
-        <v>0.625839</v>
+        <v>0.628742</v>
       </c>
       <c r="E102" t="n">
-        <v>0.125798</v>
+        <v>0.125609</v>
       </c>
       <c r="F102" t="n">
-        <v>0.163372</v>
+        <v>0.163603</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.201748</v>
+        <v>0.211049</v>
       </c>
       <c r="C103" t="n">
-        <v>0.255683</v>
+        <v>0.248082</v>
       </c>
       <c r="D103" t="n">
-        <v>0.652879</v>
+        <v>0.655565</v>
       </c>
       <c r="E103" t="n">
-        <v>0.130408</v>
+        <v>0.131259</v>
       </c>
       <c r="F103" t="n">
-        <v>0.171465</v>
+        <v>0.171565</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218285</v>
+        <v>0.229778</v>
       </c>
       <c r="C104" t="n">
-        <v>0.278398</v>
+        <v>0.270515</v>
       </c>
       <c r="D104" t="n">
-        <v>0.681546</v>
+        <v>0.682962</v>
       </c>
       <c r="E104" t="n">
-        <v>0.137045</v>
+        <v>0.137212</v>
       </c>
       <c r="F104" t="n">
-        <v>0.180269</v>
+        <v>0.180314</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243707</v>
+        <v>0.245473</v>
       </c>
       <c r="C105" t="n">
-        <v>0.300798</v>
+        <v>0.303999</v>
       </c>
       <c r="D105" t="n">
-        <v>0.711724</v>
+        <v>0.715081</v>
       </c>
       <c r="E105" t="n">
-        <v>0.145527</v>
+        <v>0.145257</v>
       </c>
       <c r="F105" t="n">
-        <v>0.190974</v>
+        <v>0.19105</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.273213</v>
+        <v>0.274724</v>
       </c>
       <c r="C106" t="n">
-        <v>0.348181</v>
+        <v>0.348051</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7447820000000001</v>
+        <v>0.745513</v>
       </c>
       <c r="E106" t="n">
-        <v>0.156746</v>
+        <v>0.156464</v>
       </c>
       <c r="F106" t="n">
-        <v>0.204415</v>
+        <v>0.204116</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.328462</v>
+        <v>0.318</v>
       </c>
       <c r="C107" t="n">
-        <v>0.391165</v>
+        <v>0.393828</v>
       </c>
       <c r="D107" t="n">
-        <v>0.582442</v>
+        <v>0.583205</v>
       </c>
       <c r="E107" t="n">
-        <v>0.171898</v>
+        <v>0.171305</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224009</v>
+        <v>0.224033</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.386957</v>
+        <v>0.383158</v>
       </c>
       <c r="C108" t="n">
-        <v>0.472044</v>
+        <v>0.474252</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602352</v>
+        <v>0.602669</v>
       </c>
       <c r="E108" t="n">
-        <v>0.125989</v>
+        <v>0.126086</v>
       </c>
       <c r="F108" t="n">
-        <v>0.15797</v>
+        <v>0.158275</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.481809</v>
+        <v>0.482469</v>
       </c>
       <c r="C109" t="n">
-        <v>0.591566</v>
+        <v>0.5946630000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>0.622999</v>
+        <v>0.625861</v>
       </c>
       <c r="E109" t="n">
-        <v>0.128551</v>
+        <v>0.128479</v>
       </c>
       <c r="F109" t="n">
-        <v>0.161669</v>
+        <v>0.161717</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.181773</v>
+        <v>0.181957</v>
       </c>
       <c r="C110" t="n">
-        <v>0.206658</v>
+        <v>0.217432</v>
       </c>
       <c r="D110" t="n">
-        <v>0.644118</v>
+        <v>0.646963</v>
       </c>
       <c r="E110" t="n">
-        <v>0.130945</v>
+        <v>0.131172</v>
       </c>
       <c r="F110" t="n">
-        <v>0.165277</v>
+        <v>0.165727</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175177</v>
+        <v>0.184893</v>
       </c>
       <c r="C111" t="n">
-        <v>0.218381</v>
+        <v>0.212618</v>
       </c>
       <c r="D111" t="n">
-        <v>0.667023</v>
+        <v>0.669364</v>
       </c>
       <c r="E111" t="n">
-        <v>0.133711</v>
+        <v>0.133955</v>
       </c>
       <c r="F111" t="n">
-        <v>0.169647</v>
+        <v>0.16961</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.190513</v>
+        <v>0.190886</v>
       </c>
       <c r="C112" t="n">
-        <v>0.218923</v>
+        <v>0.229992</v>
       </c>
       <c r="D112" t="n">
-        <v>0.691271</v>
+        <v>0.6937449999999999</v>
       </c>
       <c r="E112" t="n">
-        <v>0.136019</v>
+        <v>0.135824</v>
       </c>
       <c r="F112" t="n">
-        <v>0.173071</v>
+        <v>0.173422</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.186083</v>
+        <v>0.19449</v>
       </c>
       <c r="C113" t="n">
-        <v>0.235462</v>
+        <v>0.237339</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716212</v>
+        <v>0.718825</v>
       </c>
       <c r="E113" t="n">
-        <v>0.138634</v>
+        <v>0.138906</v>
       </c>
       <c r="F113" t="n">
-        <v>0.177152</v>
+        <v>0.17828</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.195109</v>
+        <v>0.191809</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246549</v>
+        <v>0.246605</v>
       </c>
       <c r="D114" t="n">
-        <v>0.741649</v>
+        <v>0.744188</v>
       </c>
       <c r="E114" t="n">
-        <v>0.141536</v>
+        <v>0.141506</v>
       </c>
       <c r="F114" t="n">
-        <v>0.181609</v>
+        <v>0.182049</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199609</v>
+        <v>0.209682</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246188</v>
+        <v>0.258103</v>
       </c>
       <c r="D115" t="n">
-        <v>0.767968</v>
+        <v>0.770729</v>
       </c>
       <c r="E115" t="n">
-        <v>0.14469</v>
+        <v>0.144516</v>
       </c>
       <c r="F115" t="n">
-        <v>0.186448</v>
+        <v>0.186864</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.208984</v>
+        <v>0.210625</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259429</v>
+        <v>0.271695</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795114</v>
+        <v>0.798837</v>
       </c>
       <c r="E116" t="n">
-        <v>0.147661</v>
+        <v>0.147869</v>
       </c>
       <c r="F116" t="n">
-        <v>0.192139</v>
+        <v>0.19233</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.222658</v>
+        <v>0.227779</v>
       </c>
       <c r="C117" t="n">
-        <v>0.27924</v>
+        <v>0.276279</v>
       </c>
       <c r="D117" t="n">
-        <v>0.823445</v>
+        <v>0.8263239999999999</v>
       </c>
       <c r="E117" t="n">
-        <v>0.151611</v>
+        <v>0.15174</v>
       </c>
       <c r="F117" t="n">
-        <v>0.19828</v>
+        <v>0.198461</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.238093</v>
+        <v>0.244783</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303626</v>
+        <v>0.309129</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852522</v>
+        <v>0.856197</v>
       </c>
       <c r="E118" t="n">
-        <v>0.156506</v>
+        <v>0.156786</v>
       </c>
       <c r="F118" t="n">
-        <v>0.205863</v>
+        <v>0.206236</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260379</v>
+        <v>0.260069</v>
       </c>
       <c r="C119" t="n">
-        <v>0.336648</v>
+        <v>0.327696</v>
       </c>
       <c r="D119" t="n">
-        <v>0.882888</v>
+        <v>0.887722</v>
       </c>
       <c r="E119" t="n">
-        <v>0.163439</v>
+        <v>0.163156</v>
       </c>
       <c r="F119" t="n">
-        <v>0.215526</v>
+        <v>0.215859</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.299028</v>
+        <v>0.296331</v>
       </c>
       <c r="C120" t="n">
-        <v>0.376498</v>
+        <v>0.367433</v>
       </c>
       <c r="D120" t="n">
-        <v>0.916032</v>
+        <v>0.919668</v>
       </c>
       <c r="E120" t="n">
-        <v>0.172601</v>
+        <v>0.172503</v>
       </c>
       <c r="F120" t="n">
-        <v>0.2288</v>
+        <v>0.22906</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.336521</v>
+        <v>0.331163</v>
       </c>
       <c r="C121" t="n">
-        <v>0.428946</v>
+        <v>0.429256</v>
       </c>
       <c r="D121" t="n">
-        <v>0.6671010000000001</v>
+        <v>0.67064</v>
       </c>
       <c r="E121" t="n">
-        <v>0.18602</v>
+        <v>0.186308</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248085</v>
+        <v>0.248504</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.396222</v>
+        <v>0.395921</v>
       </c>
       <c r="C122" t="n">
-        <v>0.518031</v>
+        <v>0.50762</v>
       </c>
       <c r="D122" t="n">
-        <v>0.687192</v>
+        <v>0.690761</v>
       </c>
       <c r="E122" t="n">
-        <v>0.209403</v>
+        <v>0.2095</v>
       </c>
       <c r="F122" t="n">
-        <v>0.280257</v>
+        <v>0.280099</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.495928</v>
+        <v>0.496767</v>
       </c>
       <c r="C123" t="n">
-        <v>0.631484</v>
+        <v>0.632941</v>
       </c>
       <c r="D123" t="n">
-        <v>0.708371</v>
+        <v>0.711947</v>
       </c>
       <c r="E123" t="n">
-        <v>0.143006</v>
+        <v>0.144849</v>
       </c>
       <c r="F123" t="n">
-        <v>0.181165</v>
+        <v>0.189837</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.198976</v>
+        <v>0.199323</v>
       </c>
       <c r="C124" t="n">
-        <v>0.229001</v>
+        <v>0.242474</v>
       </c>
       <c r="D124" t="n">
-        <v>0.730351</v>
+        <v>0.73409</v>
       </c>
       <c r="E124" t="n">
-        <v>0.145302</v>
+        <v>0.147408</v>
       </c>
       <c r="F124" t="n">
-        <v>0.186736</v>
+        <v>0.189205</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.196976</v>
+        <v>0.201675</v>
       </c>
       <c r="C125" t="n">
-        <v>0.234089</v>
+        <v>0.245645</v>
       </c>
       <c r="D125" t="n">
-        <v>0.752602</v>
+        <v>0.756815</v>
       </c>
       <c r="E125" t="n">
-        <v>0.148498</v>
+        <v>0.14905</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190473</v>
+        <v>0.193494</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.197582</v>
+        <v>0.205407</v>
       </c>
       <c r="C126" t="n">
-        <v>0.248306</v>
+        <v>0.252077</v>
       </c>
       <c r="D126" t="n">
-        <v>0.776242</v>
+        <v>0.780565</v>
       </c>
       <c r="E126" t="n">
-        <v>0.148736</v>
+        <v>0.152546</v>
       </c>
       <c r="F126" t="n">
-        <v>0.19536</v>
+        <v>0.194784</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.203755</v>
+        <v>0.201251</v>
       </c>
       <c r="C127" t="n">
-        <v>0.258721</v>
+        <v>0.264392</v>
       </c>
       <c r="D127" t="n">
-        <v>0.801393</v>
+        <v>0.805501</v>
       </c>
       <c r="E127" t="n">
-        <v>0.151634</v>
+        <v>0.153921</v>
       </c>
       <c r="F127" t="n">
-        <v>0.197467</v>
+        <v>0.1979</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.207533</v>
+        <v>0.217897</v>
       </c>
       <c r="C128" t="n">
-        <v>0.264266</v>
+        <v>0.262903</v>
       </c>
       <c r="D128" t="n">
-        <v>0.827166</v>
+        <v>0.8316</v>
       </c>
       <c r="E128" t="n">
-        <v>0.156012</v>
+        <v>0.156004</v>
       </c>
       <c r="F128" t="n">
-        <v>0.20412</v>
+        <v>0.202741</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.225663</v>
+        <v>0.230195</v>
       </c>
       <c r="C129" t="n">
-        <v>0.282016</v>
+        <v>0.281237</v>
       </c>
       <c r="D129" t="n">
-        <v>0.854589</v>
+        <v>0.8592649999999999</v>
       </c>
       <c r="E129" t="n">
-        <v>0.160023</v>
+        <v>0.157289</v>
       </c>
       <c r="F129" t="n">
-        <v>0.209145</v>
+        <v>0.208232</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.235488</v>
+        <v>0.230121</v>
       </c>
       <c r="C130" t="n">
-        <v>0.287663</v>
+        <v>0.300449</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8826850000000001</v>
+        <v>0.887027</v>
       </c>
       <c r="E130" t="n">
-        <v>0.160827</v>
+        <v>0.162749</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215444</v>
+        <v>0.212783</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.236621</v>
+        <v>0.244693</v>
       </c>
       <c r="C131" t="n">
-        <v>0.307403</v>
+        <v>0.317004</v>
       </c>
       <c r="D131" t="n">
-        <v>0.912416</v>
+        <v>0.917056</v>
       </c>
       <c r="E131" t="n">
-        <v>0.164515</v>
+        <v>0.166667</v>
       </c>
       <c r="F131" t="n">
-        <v>0.220952</v>
+        <v>0.223581</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.256272</v>
+        <v>0.261856</v>
       </c>
       <c r="C132" t="n">
-        <v>0.328513</v>
+        <v>0.339407</v>
       </c>
       <c r="D132" t="n">
-        <v>0.9427990000000001</v>
+        <v>0.948152</v>
       </c>
       <c r="E132" t="n">
-        <v>0.168583</v>
+        <v>0.171222</v>
       </c>
       <c r="F132" t="n">
-        <v>0.234051</v>
+        <v>0.229658</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.280224</v>
+        <v>0.281724</v>
       </c>
       <c r="C133" t="n">
-        <v>0.368381</v>
+        <v>0.363021</v>
       </c>
       <c r="D133" t="n">
-        <v>0.975619</v>
+        <v>0.980352</v>
       </c>
       <c r="E133" t="n">
-        <v>0.175319</v>
+        <v>0.17769</v>
       </c>
       <c r="F133" t="n">
-        <v>0.240221</v>
+        <v>0.241058</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.315807</v>
+        <v>0.306887</v>
       </c>
       <c r="C134" t="n">
-        <v>0.404918</v>
+        <v>0.395265</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00904</v>
+        <v>1.01456</v>
       </c>
       <c r="E134" t="n">
-        <v>0.18692</v>
+        <v>0.183539</v>
       </c>
       <c r="F134" t="n">
-        <v>0.254575</v>
+        <v>0.256243</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.347564</v>
+        <v>0.345631</v>
       </c>
       <c r="C135" t="n">
-        <v>0.461132</v>
+        <v>0.46469</v>
       </c>
       <c r="D135" t="n">
-        <v>0.690246</v>
+        <v>0.6936330000000001</v>
       </c>
       <c r="E135" t="n">
-        <v>0.196985</v>
+        <v>0.198294</v>
       </c>
       <c r="F135" t="n">
-        <v>0.276313</v>
+        <v>0.271914</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.416266</v>
+        <v>0.410776</v>
       </c>
       <c r="C136" t="n">
-        <v>0.548721</v>
+        <v>0.532788</v>
       </c>
       <c r="D136" t="n">
-        <v>0.708876</v>
+        <v>0.712046</v>
       </c>
       <c r="E136" t="n">
-        <v>0.217866</v>
+        <v>0.218871</v>
       </c>
       <c r="F136" t="n">
-        <v>0.310193</v>
+        <v>0.302137</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.52172</v>
+        <v>0.506071</v>
       </c>
       <c r="C137" t="n">
-        <v>0.667064</v>
+        <v>0.667342</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727432</v>
+        <v>0.731073</v>
       </c>
       <c r="E137" t="n">
-        <v>0.258176</v>
+        <v>0.26298</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305208</v>
+        <v>0.305381</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.329316</v>
+        <v>0.330598</v>
       </c>
       <c r="C138" t="n">
-        <v>0.38921</v>
+        <v>0.386773</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7470059999999999</v>
+        <v>0.750929</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261232</v>
+        <v>0.262134</v>
       </c>
       <c r="F138" t="n">
-        <v>0.308382</v>
+        <v>0.30945</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.338791</v>
+        <v>0.348742</v>
       </c>
       <c r="C139" t="n">
-        <v>0.393446</v>
+        <v>0.391779</v>
       </c>
       <c r="D139" t="n">
-        <v>0.767676</v>
+        <v>0.771559</v>
       </c>
       <c r="E139" t="n">
-        <v>0.264939</v>
+        <v>0.265311</v>
       </c>
       <c r="F139" t="n">
-        <v>0.315122</v>
+        <v>0.314655</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33964</v>
+        <v>0.339777</v>
       </c>
       <c r="C140" t="n">
-        <v>0.395704</v>
+        <v>0.407592</v>
       </c>
       <c r="D140" t="n">
-        <v>0.789312</v>
+        <v>0.793807</v>
       </c>
       <c r="E140" t="n">
-        <v>0.264374</v>
+        <v>0.264132</v>
       </c>
       <c r="F140" t="n">
-        <v>0.318465</v>
+        <v>0.318997</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.343538</v>
+        <v>0.352403</v>
       </c>
       <c r="C141" t="n">
-        <v>0.405129</v>
+        <v>0.407409</v>
       </c>
       <c r="D141" t="n">
-        <v>0.811757</v>
+        <v>0.816262</v>
       </c>
       <c r="E141" t="n">
-        <v>0.268173</v>
+        <v>0.274631</v>
       </c>
       <c r="F141" t="n">
-        <v>0.323601</v>
+        <v>0.325784</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.352775</v>
+        <v>0.354723</v>
       </c>
       <c r="C142" t="n">
-        <v>0.423683</v>
+        <v>0.424547</v>
       </c>
       <c r="D142" t="n">
-        <v>0.835233</v>
+        <v>0.839611</v>
       </c>
       <c r="E142" t="n">
-        <v>0.269711</v>
+        <v>0.272811</v>
       </c>
       <c r="F142" t="n">
-        <v>0.329546</v>
+        <v>0.329406</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.357126</v>
+        <v>0.370834</v>
       </c>
       <c r="C143" t="n">
-        <v>0.440306</v>
+        <v>0.434451</v>
       </c>
       <c r="D143" t="n">
-        <v>0.859893</v>
+        <v>0.864408</v>
       </c>
       <c r="E143" t="n">
-        <v>0.274045</v>
+        <v>0.276094</v>
       </c>
       <c r="F143" t="n">
-        <v>0.338018</v>
+        <v>0.335081</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102346</v>
+        <v>0.10244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105521</v>
+        <v>0.105216</v>
       </c>
       <c r="D2" t="n">
-        <v>0.178793</v>
+        <v>0.180442</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0801786</v>
+        <v>0.08013670000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0806288</v>
+        <v>0.0807369</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110381</v>
+        <v>0.109909</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113586</v>
+        <v>0.113631</v>
       </c>
       <c r="D3" t="n">
-        <v>0.185684</v>
+        <v>0.187207</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08037080000000001</v>
+        <v>0.0802783</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0795168</v>
+        <v>0.08102669999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123898</v>
+        <v>0.124283</v>
       </c>
       <c r="C4" t="n">
-        <v>0.124113</v>
+        <v>0.123786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.192253</v>
+        <v>0.195297</v>
       </c>
       <c r="E4" t="n">
-        <v>0.080556</v>
+        <v>0.079795</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0805738</v>
+        <v>0.0802879</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140197</v>
+        <v>0.140196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.143997</v>
+        <v>0.14448</v>
       </c>
       <c r="D5" t="n">
-        <v>0.199609</v>
+        <v>0.201347</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0792404</v>
+        <v>0.07945720000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0802998</v>
+        <v>0.0803931</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.167426</v>
+        <v>0.166939</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167375</v>
+        <v>0.167132</v>
       </c>
       <c r="D6" t="n">
-        <v>0.206173</v>
+        <v>0.208275</v>
       </c>
       <c r="E6" t="n">
-        <v>0.080513</v>
+        <v>0.0807261</v>
       </c>
       <c r="F6" t="n">
-        <v>0.08173130000000001</v>
+        <v>0.0822566</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200561</v>
+        <v>0.200356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201195</v>
+        <v>0.201047</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155519</v>
+        <v>0.156249</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0859486</v>
+        <v>0.08625670000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0869398</v>
+        <v>0.0879079</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248019</v>
+        <v>0.247993</v>
       </c>
       <c r="C8" t="n">
-        <v>0.244874</v>
+        <v>0.245027</v>
       </c>
       <c r="D8" t="n">
-        <v>0.162479</v>
+        <v>0.163071</v>
       </c>
       <c r="E8" t="n">
-        <v>0.100891</v>
+        <v>0.10074</v>
       </c>
       <c r="F8" t="n">
-        <v>0.102626</v>
+        <v>0.103946</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292088</v>
+        <v>0.291656</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294564</v>
+        <v>0.294642</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169808</v>
+        <v>0.170634</v>
       </c>
       <c r="E9" t="n">
-        <v>0.07977869999999999</v>
+        <v>0.079959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08090310000000001</v>
+        <v>0.08039010000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.09459679999999999</v>
+        <v>0.0942021</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0957472</v>
+        <v>0.0974589</v>
       </c>
       <c r="D10" t="n">
-        <v>0.176084</v>
+        <v>0.177335</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0798175</v>
+        <v>0.0801471</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0810226</v>
+        <v>0.0805999</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.0960102</v>
+        <v>0.09620040000000001</v>
       </c>
       <c r="C11" t="n">
-        <v>0.097119</v>
+        <v>0.0966611</v>
       </c>
       <c r="D11" t="n">
-        <v>0.183916</v>
+        <v>0.184394</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0802634</v>
+        <v>0.0803613</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0811554</v>
+        <v>0.080822</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.0967218</v>
+        <v>0.09696340000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09828539999999999</v>
+        <v>0.0978251</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191668</v>
+        <v>0.19273</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0802066</v>
+        <v>0.08039780000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0813961</v>
+        <v>0.081224</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.100642</v>
+        <v>0.0987893</v>
       </c>
       <c r="C13" t="n">
-        <v>0.11112</v>
+        <v>0.101055</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198617</v>
+        <v>0.199918</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0804281</v>
+        <v>0.0805596</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0816532</v>
+        <v>0.0811723</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100616</v>
+        <v>0.100801</v>
       </c>
       <c r="C14" t="n">
-        <v>0.105102</v>
+        <v>0.103719</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205142</v>
+        <v>0.205987</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0805</v>
+        <v>0.0806588</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0817445</v>
+        <v>0.08164929999999999</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105096</v>
+        <v>0.105742</v>
       </c>
       <c r="C15" t="n">
-        <v>0.112518</v>
+        <v>0.108526</v>
       </c>
       <c r="D15" t="n">
-        <v>0.212035</v>
+        <v>0.213504</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0810666</v>
+        <v>0.0808566</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0820514</v>
+        <v>0.08195280000000001</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.111614</v>
+        <v>0.112546</v>
       </c>
       <c r="C16" t="n">
-        <v>0.114752</v>
+        <v>0.11382</v>
       </c>
       <c r="D16" t="n">
-        <v>0.217521</v>
+        <v>0.219494</v>
       </c>
       <c r="E16" t="n">
-        <v>0.08105420000000001</v>
+        <v>0.0811303</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0822958</v>
+        <v>0.08224330000000001</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121087</v>
+        <v>0.121798</v>
       </c>
       <c r="C17" t="n">
-        <v>0.124538</v>
+        <v>0.127308</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224413</v>
+        <v>0.22623</v>
       </c>
       <c r="E17" t="n">
-        <v>0.08135870000000001</v>
+        <v>0.08120520000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.08258740000000001</v>
+        <v>0.0829197</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.13286</v>
+        <v>0.133255</v>
       </c>
       <c r="C18" t="n">
-        <v>0.133936</v>
+        <v>0.137963</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229634</v>
+        <v>0.23289</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0823425</v>
+        <v>0.0818319</v>
       </c>
       <c r="F18" t="n">
-        <v>0.082784</v>
+        <v>0.083355</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.150203</v>
+        <v>0.15032</v>
       </c>
       <c r="C19" t="n">
-        <v>0.159435</v>
+        <v>0.152509</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236075</v>
+        <v>0.236672</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0817967</v>
+        <v>0.08206919999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0836633</v>
+        <v>0.0839149</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.17271</v>
+        <v>0.17155</v>
       </c>
       <c r="C20" t="n">
-        <v>0.176705</v>
+        <v>0.171536</v>
       </c>
       <c r="D20" t="n">
-        <v>0.241723</v>
+        <v>0.244499</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0851071</v>
+        <v>0.0852748</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0900745</v>
+        <v>0.0884824</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.20026</v>
+        <v>0.200715</v>
       </c>
       <c r="C21" t="n">
-        <v>0.214406</v>
+        <v>0.21368</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177251</v>
+        <v>0.177442</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09364740000000001</v>
+        <v>0.093918</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09630560000000001</v>
+        <v>0.0965857</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.24065</v>
+        <v>0.240667</v>
       </c>
       <c r="C22" t="n">
-        <v>0.2443</v>
+        <v>0.242334</v>
       </c>
       <c r="D22" t="n">
-        <v>0.185287</v>
+        <v>0.184715</v>
       </c>
       <c r="E22" t="n">
-        <v>0.108709</v>
+        <v>0.108492</v>
       </c>
       <c r="F22" t="n">
-        <v>0.109869</v>
+        <v>0.111085</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289808</v>
+        <v>0.287146</v>
       </c>
       <c r="C23" t="n">
-        <v>0.308804</v>
+        <v>0.307875</v>
       </c>
       <c r="D23" t="n">
-        <v>0.191854</v>
+        <v>0.191325</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0814922</v>
+        <v>0.0816389</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08278779999999999</v>
+        <v>0.0826249</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100249</v>
+        <v>0.100797</v>
       </c>
       <c r="C24" t="n">
-        <v>0.10356</v>
+        <v>0.102599</v>
       </c>
       <c r="D24" t="n">
-        <v>0.199899</v>
+        <v>0.19841</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08164059999999999</v>
+        <v>0.0817836</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08433300000000001</v>
+        <v>0.0829106</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.102176</v>
+        <v>0.102059</v>
       </c>
       <c r="C25" t="n">
-        <v>0.104379</v>
+        <v>0.105234</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20644</v>
+        <v>0.206724</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0818503</v>
+        <v>0.08200730000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0838824</v>
+        <v>0.0830443</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103838</v>
+        <v>0.103538</v>
       </c>
       <c r="C26" t="n">
-        <v>0.105542</v>
+        <v>0.11097</v>
       </c>
       <c r="D26" t="n">
-        <v>0.212598</v>
+        <v>0.212891</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08207449999999999</v>
+        <v>0.0821873</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0860547</v>
+        <v>0.08348460000000001</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.105522</v>
+        <v>0.106749</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109628</v>
+        <v>0.109873</v>
       </c>
       <c r="D27" t="n">
-        <v>0.219893</v>
+        <v>0.220249</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0828599</v>
+        <v>0.08243209999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>0.08516079999999999</v>
+        <v>0.0838513</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.111513</v>
+        <v>0.112867</v>
       </c>
       <c r="C28" t="n">
-        <v>0.121218</v>
+        <v>0.111993</v>
       </c>
       <c r="D28" t="n">
-        <v>0.22631</v>
+        <v>0.226809</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0825729</v>
+        <v>0.0827108</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0855976</v>
+        <v>0.0847421</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.113417</v>
+        <v>0.116918</v>
       </c>
       <c r="C29" t="n">
-        <v>0.119403</v>
+        <v>0.116118</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232282</v>
+        <v>0.233366</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0830235</v>
+        <v>0.08306089999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0859838</v>
+        <v>0.0861412</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.11908</v>
+        <v>0.119384</v>
       </c>
       <c r="C30" t="n">
-        <v>0.122188</v>
+        <v>0.122398</v>
       </c>
       <c r="D30" t="n">
-        <v>0.236866</v>
+        <v>0.237293</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0835567</v>
+        <v>0.08580260000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0865181</v>
+        <v>0.0856832</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.126604</v>
+        <v>0.129646</v>
       </c>
       <c r="C31" t="n">
-        <v>0.12974</v>
+        <v>0.13121</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242288</v>
+        <v>0.242339</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08413130000000001</v>
+        <v>0.0840764</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0885645</v>
+        <v>0.0879453</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136751</v>
+        <v>0.136299</v>
       </c>
       <c r="C32" t="n">
-        <v>0.141393</v>
+        <v>0.145595</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248893</v>
+        <v>0.250318</v>
       </c>
       <c r="E32" t="n">
-        <v>0.08550969999999999</v>
+        <v>0.0865808</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0889313</v>
+        <v>0.0891146</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.14993</v>
+        <v>0.150382</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152949</v>
+        <v>0.152612</v>
       </c>
       <c r="D33" t="n">
-        <v>0.253734</v>
+        <v>0.254817</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0878065</v>
+        <v>0.0880239</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0915586</v>
+        <v>0.0917664</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169729</v>
+        <v>0.169759</v>
       </c>
       <c r="C34" t="n">
-        <v>0.170842</v>
+        <v>0.171022</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259824</v>
+        <v>0.261334</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0934657</v>
+        <v>0.0932332</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09686359999999999</v>
+        <v>0.097611</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.194553</v>
+        <v>0.193822</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195299</v>
+        <v>0.197673</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190664</v>
+        <v>0.190481</v>
       </c>
       <c r="E35" t="n">
-        <v>0.101595</v>
+        <v>0.101567</v>
       </c>
       <c r="F35" t="n">
-        <v>0.104933</v>
+        <v>0.104113</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.232695</v>
+        <v>0.232768</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232562</v>
+        <v>0.232332</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197057</v>
+        <v>0.196751</v>
       </c>
       <c r="E36" t="n">
-        <v>0.113358</v>
+        <v>0.113361</v>
       </c>
       <c r="F36" t="n">
-        <v>0.116314</v>
+        <v>0.116519</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.280552</v>
+        <v>0.27983</v>
       </c>
       <c r="C37" t="n">
-        <v>0.283626</v>
+        <v>0.284123</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204249</v>
+        <v>0.204752</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0826963</v>
+        <v>0.0840905</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08656990000000001</v>
+        <v>0.08576</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.103298</v>
+        <v>0.104534</v>
       </c>
       <c r="C38" t="n">
-        <v>0.108408</v>
+        <v>0.10632</v>
       </c>
       <c r="D38" t="n">
-        <v>0.210928</v>
+        <v>0.211681</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0832384</v>
+        <v>0.0878772</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08785660000000001</v>
+        <v>0.08645799999999999</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.105323</v>
+        <v>0.108088</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10851</v>
+        <v>0.111332</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217491</v>
+        <v>0.218136</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08495279999999999</v>
+        <v>0.0842545</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0875614</v>
+        <v>0.0865047</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107488</v>
+        <v>0.107172</v>
       </c>
       <c r="C40" t="n">
-        <v>0.110218</v>
+        <v>0.113142</v>
       </c>
       <c r="D40" t="n">
-        <v>0.225164</v>
+        <v>0.224988</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0846922</v>
+        <v>0.0833217</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0875736</v>
+        <v>0.0872778</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.108906</v>
+        <v>0.112305</v>
       </c>
       <c r="C41" t="n">
-        <v>0.112945</v>
+        <v>0.114461</v>
       </c>
       <c r="D41" t="n">
-        <v>0.230867</v>
+        <v>0.231352</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0838513</v>
+        <v>0.0836348</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0887392</v>
+        <v>0.0875973</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.114433</v>
+        <v>0.121045</v>
       </c>
       <c r="C42" t="n">
-        <v>0.116531</v>
+        <v>0.122825</v>
       </c>
       <c r="D42" t="n">
-        <v>0.237842</v>
+        <v>0.237839</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0843362</v>
+        <v>0.0853018</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08862730000000001</v>
+        <v>0.08798889999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.115921</v>
+        <v>0.119946</v>
       </c>
       <c r="C43" t="n">
-        <v>0.124263</v>
+        <v>0.128036</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243767</v>
+        <v>0.244051</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08722779999999999</v>
+        <v>0.0849237</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0890812</v>
+        <v>0.0894447</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.123121</v>
+        <v>0.133304</v>
       </c>
       <c r="C44" t="n">
-        <v>0.125531</v>
+        <v>0.128466</v>
       </c>
       <c r="D44" t="n">
-        <v>0.249841</v>
+        <v>0.250032</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08680839999999999</v>
+        <v>0.0903014</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09005639999999999</v>
+        <v>0.0898799</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.131377</v>
+        <v>0.136068</v>
       </c>
       <c r="C45" t="n">
-        <v>0.132978</v>
+        <v>0.132599</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255551</v>
+        <v>0.25575</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0862478</v>
+        <v>0.0870387</v>
       </c>
       <c r="F45" t="n">
-        <v>0.09121609999999999</v>
+        <v>0.0910893</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.137963</v>
+        <v>0.149398</v>
       </c>
       <c r="C46" t="n">
-        <v>0.141116</v>
+        <v>0.145988</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260809</v>
+        <v>0.261142</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0878208</v>
+        <v>0.0910407</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0926662</v>
+        <v>0.093473</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.1497</v>
+        <v>0.154738</v>
       </c>
       <c r="C47" t="n">
-        <v>0.155695</v>
+        <v>0.157175</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266134</v>
+        <v>0.266607</v>
       </c>
       <c r="E47" t="n">
-        <v>0.09052350000000001</v>
+        <v>0.0925116</v>
       </c>
       <c r="F47" t="n">
-        <v>0.0950271</v>
+        <v>0.0958487</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.169641</v>
+        <v>0.179828</v>
       </c>
       <c r="C48" t="n">
-        <v>0.173602</v>
+        <v>0.193703</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272111</v>
+        <v>0.272089</v>
       </c>
       <c r="E48" t="n">
-        <v>0.095762</v>
+        <v>0.0968485</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0995958</v>
+        <v>0.0995365</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.189833</v>
+        <v>0.189863</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193772</v>
+        <v>0.194021</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278955</v>
+        <v>0.277879</v>
       </c>
       <c r="E49" t="n">
-        <v>0.100185</v>
+        <v>0.101004</v>
       </c>
       <c r="F49" t="n">
-        <v>0.105055</v>
+        <v>0.105879</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224402</v>
+        <v>0.233621</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226398</v>
+        <v>0.23622</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198317</v>
+        <v>0.198418</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11096</v>
+        <v>0.110354</v>
       </c>
       <c r="F50" t="n">
-        <v>0.114541</v>
+        <v>0.114312</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.276656</v>
+        <v>0.269878</v>
       </c>
       <c r="C51" t="n">
-        <v>0.27535</v>
+        <v>0.276099</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204947</v>
+        <v>0.205051</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0863328</v>
+        <v>0.0862791</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0938427</v>
+        <v>0.088936</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.326329</v>
+        <v>0.3218</v>
       </c>
       <c r="C52" t="n">
-        <v>0.340961</v>
+        <v>0.342182</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211211</v>
+        <v>0.211436</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0865475</v>
+        <v>0.0866485</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08951870000000001</v>
+        <v>0.08888749999999999</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.109523</v>
+        <v>0.1106</v>
       </c>
       <c r="C53" t="n">
-        <v>0.111949</v>
+        <v>0.112835</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217814</v>
+        <v>0.217871</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0860802</v>
+        <v>0.0857107</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08981359999999999</v>
+        <v>0.08988450000000001</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110615</v>
+        <v>0.112165</v>
       </c>
       <c r="C54" t="n">
-        <v>0.116275</v>
+        <v>0.114995</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224678</v>
+        <v>0.224547</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0878617</v>
+        <v>0.0873579</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09172370000000001</v>
+        <v>0.0906117</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.113484</v>
+        <v>0.113522</v>
       </c>
       <c r="C55" t="n">
-        <v>0.117591</v>
+        <v>0.118011</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230624</v>
+        <v>0.230774</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0868263</v>
+        <v>0.0882957</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0906387</v>
+        <v>0.0910555</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.118977</v>
+        <v>0.123934</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119631</v>
+        <v>0.121688</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236838</v>
+        <v>0.236668</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0876083</v>
+        <v>0.0876926</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0914553</v>
+        <v>0.0908204</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.121216</v>
+        <v>0.121484</v>
       </c>
       <c r="C57" t="n">
-        <v>0.125592</v>
+        <v>0.124329</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242056</v>
+        <v>0.242319</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0884094</v>
+        <v>0.0907158</v>
       </c>
       <c r="F57" t="n">
-        <v>0.0917309</v>
+        <v>0.09308080000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.128492</v>
+        <v>0.127005</v>
       </c>
       <c r="C58" t="n">
-        <v>0.130459</v>
+        <v>0.139578</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247717</v>
+        <v>0.247522</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0881567</v>
+        <v>0.0887566</v>
       </c>
       <c r="F58" t="n">
-        <v>0.0937321</v>
+        <v>0.09366339999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.142339</v>
+        <v>0.141841</v>
       </c>
       <c r="C59" t="n">
-        <v>0.13735</v>
+        <v>0.137708</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252793</v>
+        <v>0.252963</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0890339</v>
+        <v>0.0909684</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0964175</v>
+        <v>0.09453010000000001</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.13781</v>
+        <v>0.141402</v>
       </c>
       <c r="C60" t="n">
-        <v>0.144643</v>
+        <v>0.146834</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257854</v>
+        <v>0.258222</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09057809999999999</v>
+        <v>0.09203649999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.0955873</v>
+        <v>0.09581779999999999</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.152581</v>
+        <v>0.155838</v>
       </c>
       <c r="C61" t="n">
-        <v>0.158636</v>
+        <v>0.155554</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262961</v>
+        <v>0.263483</v>
       </c>
       <c r="E61" t="n">
-        <v>0.093959</v>
+        <v>0.0958204</v>
       </c>
       <c r="F61" t="n">
-        <v>0.09779880000000001</v>
+        <v>0.09820520000000001</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.168387</v>
+        <v>0.16718</v>
       </c>
       <c r="C62" t="n">
-        <v>0.17102</v>
+        <v>0.183581</v>
       </c>
       <c r="D62" t="n">
-        <v>0.269317</v>
+        <v>0.270219</v>
       </c>
       <c r="E62" t="n">
-        <v>0.09720520000000001</v>
+        <v>0.0980857</v>
       </c>
       <c r="F62" t="n">
-        <v>0.102889</v>
+        <v>0.102506</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.187335</v>
+        <v>0.192115</v>
       </c>
       <c r="C63" t="n">
-        <v>0.191169</v>
+        <v>0.193584</v>
       </c>
       <c r="D63" t="n">
-        <v>0.275309</v>
+        <v>0.275802</v>
       </c>
       <c r="E63" t="n">
-        <v>0.101332</v>
+        <v>0.102968</v>
       </c>
       <c r="F63" t="n">
-        <v>0.106839</v>
+        <v>0.107664</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.214732</v>
+        <v>0.219958</v>
       </c>
       <c r="C64" t="n">
-        <v>0.225141</v>
+        <v>0.234757</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200658</v>
+        <v>0.201273</v>
       </c>
       <c r="E64" t="n">
-        <v>0.109941</v>
+        <v>0.111217</v>
       </c>
       <c r="F64" t="n">
-        <v>0.115841</v>
+        <v>0.119574</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.263501</v>
+        <v>0.261169</v>
       </c>
       <c r="C65" t="n">
-        <v>0.267118</v>
+        <v>0.270153</v>
       </c>
       <c r="D65" t="n">
-        <v>0.207241</v>
+        <v>0.209525</v>
       </c>
       <c r="E65" t="n">
-        <v>0.125586</v>
+        <v>0.125535</v>
       </c>
       <c r="F65" t="n">
-        <v>0.130717</v>
+        <v>0.130508</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.308453</v>
+        <v>0.308483</v>
       </c>
       <c r="C66" t="n">
-        <v>0.332531</v>
+        <v>0.323242</v>
       </c>
       <c r="D66" t="n">
-        <v>0.215667</v>
+        <v>0.218113</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0924005</v>
+        <v>0.091955</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09672509999999999</v>
+        <v>0.0961968</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.132048</v>
+        <v>0.129291</v>
       </c>
       <c r="C67" t="n">
-        <v>0.126624</v>
+        <v>0.12615</v>
       </c>
       <c r="D67" t="n">
-        <v>0.225274</v>
+        <v>0.227078</v>
       </c>
       <c r="E67" t="n">
-        <v>0.0929309</v>
+        <v>0.09233470000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0974945</v>
+        <v>0.0967249</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.123109</v>
+        <v>0.122942</v>
       </c>
       <c r="C68" t="n">
-        <v>0.13734</v>
+        <v>0.127916</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233379</v>
+        <v>0.23511</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0949069</v>
+        <v>0.0982576</v>
       </c>
       <c r="F68" t="n">
-        <v>0.0977055</v>
+        <v>0.0978373</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.133646</v>
+        <v>0.134286</v>
       </c>
       <c r="C69" t="n">
-        <v>0.140314</v>
+        <v>0.140036</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241764</v>
+        <v>0.244274</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0937909</v>
+        <v>0.0927045</v>
       </c>
       <c r="F69" t="n">
-        <v>0.0988714</v>
+        <v>0.0988653</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.129644</v>
+        <v>0.128292</v>
       </c>
       <c r="C70" t="n">
-        <v>0.142909</v>
+        <v>0.144007</v>
       </c>
       <c r="D70" t="n">
-        <v>0.252507</v>
+        <v>0.253158</v>
       </c>
       <c r="E70" t="n">
-        <v>0.0934318</v>
+        <v>0.0987078</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09953770000000001</v>
+        <v>0.0996585</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.1319</v>
+        <v>0.142258</v>
       </c>
       <c r="C71" t="n">
-        <v>0.140015</v>
+        <v>0.138295</v>
       </c>
       <c r="D71" t="n">
-        <v>0.262798</v>
+        <v>0.264175</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0941278</v>
+        <v>0.0944213</v>
       </c>
       <c r="F71" t="n">
-        <v>0.101388</v>
+        <v>0.10053</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.14496</v>
+        <v>0.13665</v>
       </c>
       <c r="C72" t="n">
-        <v>0.152043</v>
+        <v>0.143632</v>
       </c>
       <c r="D72" t="n">
-        <v>0.270966</v>
+        <v>0.275647</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0956158</v>
+        <v>0.0955492</v>
       </c>
       <c r="F72" t="n">
-        <v>0.102815</v>
+        <v>0.10306</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.142263</v>
+        <v>0.153325</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159168</v>
+        <v>0.151909</v>
       </c>
       <c r="D73" t="n">
-        <v>0.283451</v>
+        <v>0.286325</v>
       </c>
       <c r="E73" t="n">
-        <v>0.0994434</v>
+        <v>0.100733</v>
       </c>
       <c r="F73" t="n">
-        <v>0.103945</v>
+        <v>0.104187</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.158656</v>
+        <v>0.151203</v>
       </c>
       <c r="C74" t="n">
-        <v>0.168907</v>
+        <v>0.160049</v>
       </c>
       <c r="D74" t="n">
-        <v>0.295078</v>
+        <v>0.298397</v>
       </c>
       <c r="E74" t="n">
-        <v>0.0985732</v>
+        <v>0.098597</v>
       </c>
       <c r="F74" t="n">
-        <v>0.106046</v>
+        <v>0.107677</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.16396</v>
+        <v>0.161267</v>
       </c>
       <c r="C75" t="n">
-        <v>0.17957</v>
+        <v>0.178696</v>
       </c>
       <c r="D75" t="n">
-        <v>0.308397</v>
+        <v>0.316211</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1005</v>
+        <v>0.100252</v>
       </c>
       <c r="F75" t="n">
-        <v>0.109614</v>
+        <v>0.108302</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.182612</v>
+        <v>0.177582</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1921</v>
+        <v>0.188402</v>
       </c>
       <c r="D76" t="n">
-        <v>0.32469</v>
+        <v>0.328759</v>
       </c>
       <c r="E76" t="n">
-        <v>0.103152</v>
+        <v>0.103153</v>
       </c>
       <c r="F76" t="n">
-        <v>0.111828</v>
+        <v>0.112196</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19494</v>
+        <v>0.201248</v>
       </c>
       <c r="C77" t="n">
-        <v>0.209291</v>
+        <v>0.208313</v>
       </c>
       <c r="D77" t="n">
-        <v>0.345485</v>
+        <v>0.347565</v>
       </c>
       <c r="E77" t="n">
-        <v>0.108488</v>
+        <v>0.108206</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1174</v>
+        <v>0.117083</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.224157</v>
+        <v>0.224379</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237346</v>
+        <v>0.246298</v>
       </c>
       <c r="D78" t="n">
-        <v>0.267047</v>
+        <v>0.264722</v>
       </c>
       <c r="E78" t="n">
-        <v>0.115641</v>
+        <v>0.115932</v>
       </c>
       <c r="F78" t="n">
-        <v>0.125571</v>
+        <v>0.12719</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.262183</v>
+        <v>0.265999</v>
       </c>
       <c r="C79" t="n">
-        <v>0.278202</v>
+        <v>0.282306</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282934</v>
+        <v>0.283133</v>
       </c>
       <c r="E79" t="n">
-        <v>0.130141</v>
+        <v>0.129834</v>
       </c>
       <c r="F79" t="n">
-        <v>0.14055</v>
+        <v>0.141792</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.322058</v>
+        <v>0.322584</v>
       </c>
       <c r="C80" t="n">
-        <v>0.342642</v>
+        <v>0.346711</v>
       </c>
       <c r="D80" t="n">
-        <v>0.301704</v>
+        <v>0.30148</v>
       </c>
       <c r="E80" t="n">
-        <v>0.0996163</v>
+        <v>0.0993392</v>
       </c>
       <c r="F80" t="n">
-        <v>0.105356</v>
+        <v>0.10562</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.145026</v>
+        <v>0.135492</v>
       </c>
       <c r="C81" t="n">
-        <v>0.146949</v>
+        <v>0.142498</v>
       </c>
       <c r="D81" t="n">
-        <v>0.321582</v>
+        <v>0.31725</v>
       </c>
       <c r="E81" t="n">
-        <v>0.09979789999999999</v>
+        <v>0.0997673</v>
       </c>
       <c r="F81" t="n">
-        <v>0.105782</v>
+        <v>0.106918</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146506</v>
+        <v>0.137112</v>
       </c>
       <c r="C82" t="n">
-        <v>0.142967</v>
+        <v>0.154124</v>
       </c>
       <c r="D82" t="n">
-        <v>0.338806</v>
+        <v>0.337132</v>
       </c>
       <c r="E82" t="n">
-        <v>0.100081</v>
+        <v>0.10022</v>
       </c>
       <c r="F82" t="n">
-        <v>0.106595</v>
+        <v>0.108107</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.146098</v>
+        <v>0.149025</v>
       </c>
       <c r="C83" t="n">
-        <v>0.15508</v>
+        <v>0.157738</v>
       </c>
       <c r="D83" t="n">
-        <v>0.36089</v>
+        <v>0.359292</v>
       </c>
       <c r="E83" t="n">
-        <v>0.100873</v>
+        <v>0.10142</v>
       </c>
       <c r="F83" t="n">
-        <v>0.107625</v>
+        <v>0.110022</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.141653</v>
+        <v>0.151772</v>
       </c>
       <c r="C84" t="n">
-        <v>0.150138</v>
+        <v>0.1604</v>
       </c>
       <c r="D84" t="n">
-        <v>0.382635</v>
+        <v>0.37931</v>
       </c>
       <c r="E84" t="n">
-        <v>0.101505</v>
+        <v>0.102426</v>
       </c>
       <c r="F84" t="n">
-        <v>0.108766</v>
+        <v>0.111141</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.155397</v>
+        <v>0.1562</v>
       </c>
       <c r="C85" t="n">
-        <v>0.156281</v>
+        <v>0.164322</v>
       </c>
       <c r="D85" t="n">
-        <v>0.405432</v>
+        <v>0.401749</v>
       </c>
       <c r="E85" t="n">
-        <v>0.102345</v>
+        <v>0.103143</v>
       </c>
       <c r="F85" t="n">
-        <v>0.110244</v>
+        <v>0.114027</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.159469</v>
+        <v>0.161003</v>
       </c>
       <c r="C86" t="n">
-        <v>0.160999</v>
+        <v>0.163763</v>
       </c>
       <c r="D86" t="n">
-        <v>0.426908</v>
+        <v>0.424512</v>
       </c>
       <c r="E86" t="n">
-        <v>0.103194</v>
+        <v>0.104804</v>
       </c>
       <c r="F86" t="n">
-        <v>0.111743</v>
+        <v>0.11719</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.165631</v>
+        <v>0.162453</v>
       </c>
       <c r="C87" t="n">
-        <v>0.17552</v>
+        <v>0.172103</v>
       </c>
       <c r="D87" t="n">
-        <v>0.449801</v>
+        <v>0.448179</v>
       </c>
       <c r="E87" t="n">
-        <v>0.104432</v>
+        <v>0.106463</v>
       </c>
       <c r="F87" t="n">
-        <v>0.114455</v>
+        <v>0.119747</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.162976</v>
+        <v>0.174738</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1861</v>
+        <v>0.182729</v>
       </c>
       <c r="D88" t="n">
-        <v>0.47381</v>
+        <v>0.472431</v>
       </c>
       <c r="E88" t="n">
-        <v>0.105685</v>
+        <v>0.108927</v>
       </c>
       <c r="F88" t="n">
-        <v>0.11769</v>
+        <v>0.123233</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.184477</v>
+        <v>0.185355</v>
       </c>
       <c r="C89" t="n">
-        <v>0.191366</v>
+        <v>0.199616</v>
       </c>
       <c r="D89" t="n">
-        <v>0.499165</v>
+        <v>0.496676</v>
       </c>
       <c r="E89" t="n">
-        <v>0.108255</v>
+        <v>0.111807</v>
       </c>
       <c r="F89" t="n">
-        <v>0.121882</v>
+        <v>0.128268</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.188351</v>
+        <v>0.203607</v>
       </c>
       <c r="C90" t="n">
-        <v>0.217407</v>
+        <v>0.221121</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525533</v>
+        <v>0.523804</v>
       </c>
       <c r="E90" t="n">
-        <v>0.111471</v>
+        <v>0.115888</v>
       </c>
       <c r="F90" t="n">
-        <v>0.127893</v>
+        <v>0.133632</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.208236</v>
+        <v>0.215624</v>
       </c>
       <c r="C91" t="n">
-        <v>0.238692</v>
+        <v>0.24506</v>
       </c>
       <c r="D91" t="n">
-        <v>0.552377</v>
+        <v>0.5509500000000001</v>
       </c>
       <c r="E91" t="n">
-        <v>0.116544</v>
+        <v>0.121499</v>
       </c>
       <c r="F91" t="n">
-        <v>0.135928</v>
+        <v>0.142959</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242511</v>
+        <v>0.245006</v>
       </c>
       <c r="C92" t="n">
-        <v>0.275862</v>
+        <v>0.288199</v>
       </c>
       <c r="D92" t="n">
-        <v>0.415068</v>
+        <v>0.412694</v>
       </c>
       <c r="E92" t="n">
-        <v>0.127507</v>
+        <v>0.131037</v>
       </c>
       <c r="F92" t="n">
-        <v>0.14842</v>
+        <v>0.153915</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.284622</v>
+        <v>0.285499</v>
       </c>
       <c r="C93" t="n">
-        <v>0.33313</v>
+        <v>0.330814</v>
       </c>
       <c r="D93" t="n">
-        <v>0.432879</v>
+        <v>0.429969</v>
       </c>
       <c r="E93" t="n">
-        <v>0.139394</v>
+        <v>0.145041</v>
       </c>
       <c r="F93" t="n">
-        <v>0.17807</v>
+        <v>0.171786</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.347749</v>
+        <v>0.349901</v>
       </c>
       <c r="C94" t="n">
-        <v>0.414051</v>
+        <v>0.407903</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450699</v>
+        <v>0.451315</v>
       </c>
       <c r="E94" t="n">
-        <v>0.105296</v>
+        <v>0.110171</v>
       </c>
       <c r="F94" t="n">
-        <v>0.11945</v>
+        <v>0.125581</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.144624</v>
+        <v>0.160144</v>
       </c>
       <c r="C95" t="n">
-        <v>0.171441</v>
+        <v>0.16641</v>
       </c>
       <c r="D95" t="n">
-        <v>0.471243</v>
+        <v>0.469993</v>
       </c>
       <c r="E95" t="n">
-        <v>0.106194</v>
+        <v>0.111787</v>
       </c>
       <c r="F95" t="n">
-        <v>0.122964</v>
+        <v>0.128169</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.156935</v>
+        <v>0.16077</v>
       </c>
       <c r="C96" t="n">
-        <v>0.176983</v>
+        <v>0.181373</v>
       </c>
       <c r="D96" t="n">
-        <v>0.49094</v>
+        <v>0.488525</v>
       </c>
       <c r="E96" t="n">
-        <v>0.107792</v>
+        <v>0.113778</v>
       </c>
       <c r="F96" t="n">
-        <v>0.127053</v>
+        <v>0.131225</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.15011</v>
+        <v>0.163862</v>
       </c>
       <c r="C97" t="n">
-        <v>0.175155</v>
+        <v>0.175314</v>
       </c>
       <c r="D97" t="n">
-        <v>0.511139</v>
+        <v>0.509725</v>
       </c>
       <c r="E97" t="n">
-        <v>0.109339</v>
+        <v>0.115252</v>
       </c>
       <c r="F97" t="n">
-        <v>0.132269</v>
+        <v>0.134413</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.155084</v>
+        <v>0.169517</v>
       </c>
       <c r="C98" t="n">
-        <v>0.191745</v>
+        <v>0.180972</v>
       </c>
       <c r="D98" t="n">
-        <v>0.53256</v>
+        <v>0.530874</v>
       </c>
       <c r="E98" t="n">
-        <v>0.11156</v>
+        <v>0.117464</v>
       </c>
       <c r="F98" t="n">
-        <v>0.137846</v>
+        <v>0.1373</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.168797</v>
+        <v>0.164898</v>
       </c>
       <c r="C99" t="n">
-        <v>0.201545</v>
+        <v>0.192375</v>
       </c>
       <c r="D99" t="n">
-        <v>0.55509</v>
+        <v>0.553358</v>
       </c>
       <c r="E99" t="n">
-        <v>0.114142</v>
+        <v>0.119424</v>
       </c>
       <c r="F99" t="n">
-        <v>0.143119</v>
+        <v>0.140656</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167277</v>
+        <v>0.171398</v>
       </c>
       <c r="C100" t="n">
-        <v>0.212025</v>
+        <v>0.195048</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576941</v>
+        <v>0.574529</v>
       </c>
       <c r="E100" t="n">
-        <v>0.117412</v>
+        <v>0.121576</v>
       </c>
       <c r="F100" t="n">
-        <v>0.150048</v>
+        <v>0.144283</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.18746</v>
+        <v>0.181509</v>
       </c>
       <c r="C101" t="n">
-        <v>0.221084</v>
+        <v>0.204989</v>
       </c>
       <c r="D101" t="n">
-        <v>0.602487</v>
+        <v>0.600481</v>
       </c>
       <c r="E101" t="n">
-        <v>0.120965</v>
+        <v>0.123371</v>
       </c>
       <c r="F101" t="n">
-        <v>0.156569</v>
+        <v>0.148312</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.197036</v>
+        <v>0.186903</v>
       </c>
       <c r="C102" t="n">
-        <v>0.240713</v>
+        <v>0.224169</v>
       </c>
       <c r="D102" t="n">
-        <v>0.628742</v>
+        <v>0.625914</v>
       </c>
       <c r="E102" t="n">
-        <v>0.125609</v>
+        <v>0.126313</v>
       </c>
       <c r="F102" t="n">
-        <v>0.163603</v>
+        <v>0.152958</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.211049</v>
+        <v>0.208077</v>
       </c>
       <c r="C103" t="n">
-        <v>0.248082</v>
+        <v>0.233533</v>
       </c>
       <c r="D103" t="n">
-        <v>0.655565</v>
+        <v>0.653857</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131259</v>
+        <v>0.129169</v>
       </c>
       <c r="F103" t="n">
-        <v>0.171565</v>
+        <v>0.159158</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.229778</v>
+        <v>0.222996</v>
       </c>
       <c r="C104" t="n">
-        <v>0.270515</v>
+        <v>0.26304</v>
       </c>
       <c r="D104" t="n">
-        <v>0.682962</v>
+        <v>0.68182</v>
       </c>
       <c r="E104" t="n">
-        <v>0.137212</v>
+        <v>0.133629</v>
       </c>
       <c r="F104" t="n">
-        <v>0.180314</v>
+        <v>0.166283</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.245473</v>
+        <v>0.238336</v>
       </c>
       <c r="C105" t="n">
-        <v>0.303999</v>
+        <v>0.299416</v>
       </c>
       <c r="D105" t="n">
-        <v>0.715081</v>
+        <v>0.712086</v>
       </c>
       <c r="E105" t="n">
-        <v>0.145257</v>
+        <v>0.139173</v>
       </c>
       <c r="F105" t="n">
-        <v>0.19105</v>
+        <v>0.17691</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.274724</v>
+        <v>0.262792</v>
       </c>
       <c r="C106" t="n">
-        <v>0.348051</v>
+        <v>0.337368</v>
       </c>
       <c r="D106" t="n">
-        <v>0.745513</v>
+        <v>0.743568</v>
       </c>
       <c r="E106" t="n">
-        <v>0.156464</v>
+        <v>0.147418</v>
       </c>
       <c r="F106" t="n">
-        <v>0.204116</v>
+        <v>0.19151</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.318</v>
+        <v>0.305849</v>
       </c>
       <c r="C107" t="n">
-        <v>0.393828</v>
+        <v>0.400658</v>
       </c>
       <c r="D107" t="n">
-        <v>0.583205</v>
+        <v>0.5805709999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.171305</v>
+        <v>0.160783</v>
       </c>
       <c r="F107" t="n">
-        <v>0.224033</v>
+        <v>0.213175</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.383158</v>
+        <v>0.385244</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474252</v>
+        <v>0.483719</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602669</v>
+        <v>0.602734</v>
       </c>
       <c r="E108" t="n">
-        <v>0.126086</v>
+        <v>0.119471</v>
       </c>
       <c r="F108" t="n">
-        <v>0.158275</v>
+        <v>0.144074</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.482469</v>
+        <v>0.484765</v>
       </c>
       <c r="C109" t="n">
-        <v>0.5946630000000001</v>
+        <v>0.587892</v>
       </c>
       <c r="D109" t="n">
-        <v>0.625861</v>
+        <v>0.623652</v>
       </c>
       <c r="E109" t="n">
-        <v>0.128479</v>
+        <v>0.120506</v>
       </c>
       <c r="F109" t="n">
-        <v>0.161717</v>
+        <v>0.147829</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.181957</v>
+        <v>0.163306</v>
       </c>
       <c r="C110" t="n">
-        <v>0.217432</v>
+        <v>0.193067</v>
       </c>
       <c r="D110" t="n">
-        <v>0.646963</v>
+        <v>0.645597</v>
       </c>
       <c r="E110" t="n">
-        <v>0.131172</v>
+        <v>0.121963</v>
       </c>
       <c r="F110" t="n">
-        <v>0.165727</v>
+        <v>0.15237</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.184893</v>
+        <v>0.164762</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212618</v>
+        <v>0.204908</v>
       </c>
       <c r="D111" t="n">
-        <v>0.669364</v>
+        <v>0.669164</v>
       </c>
       <c r="E111" t="n">
-        <v>0.133955</v>
+        <v>0.123522</v>
       </c>
       <c r="F111" t="n">
-        <v>0.16961</v>
+        <v>0.157333</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.190886</v>
+        <v>0.173713</v>
       </c>
       <c r="C112" t="n">
-        <v>0.229992</v>
+        <v>0.215773</v>
       </c>
       <c r="D112" t="n">
-        <v>0.6937449999999999</v>
+        <v>0.692972</v>
       </c>
       <c r="E112" t="n">
-        <v>0.135824</v>
+        <v>0.125453</v>
       </c>
       <c r="F112" t="n">
-        <v>0.173422</v>
+        <v>0.162893</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.19449</v>
+        <v>0.184916</v>
       </c>
       <c r="C113" t="n">
-        <v>0.237339</v>
+        <v>0.218561</v>
       </c>
       <c r="D113" t="n">
-        <v>0.718825</v>
+        <v>0.717952</v>
       </c>
       <c r="E113" t="n">
-        <v>0.138906</v>
+        <v>0.128036</v>
       </c>
       <c r="F113" t="n">
-        <v>0.17828</v>
+        <v>0.169445</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.191809</v>
+        <v>0.192078</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246605</v>
+        <v>0.230347</v>
       </c>
       <c r="D114" t="n">
-        <v>0.744188</v>
+        <v>0.742857</v>
       </c>
       <c r="E114" t="n">
-        <v>0.141506</v>
+        <v>0.131336</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182049</v>
+        <v>0.176055</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.209682</v>
+        <v>0.190734</v>
       </c>
       <c r="C115" t="n">
-        <v>0.258103</v>
+        <v>0.242472</v>
       </c>
       <c r="D115" t="n">
-        <v>0.770729</v>
+        <v>0.769406</v>
       </c>
       <c r="E115" t="n">
-        <v>0.144516</v>
+        <v>0.135732</v>
       </c>
       <c r="F115" t="n">
-        <v>0.186864</v>
+        <v>0.182827</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.210625</v>
+        <v>0.204847</v>
       </c>
       <c r="C116" t="n">
-        <v>0.271695</v>
+        <v>0.268266</v>
       </c>
       <c r="D116" t="n">
-        <v>0.798837</v>
+        <v>0.794888</v>
       </c>
       <c r="E116" t="n">
-        <v>0.147869</v>
+        <v>0.139833</v>
       </c>
       <c r="F116" t="n">
-        <v>0.19233</v>
+        <v>0.18898</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.227779</v>
+        <v>0.217985</v>
       </c>
       <c r="C117" t="n">
-        <v>0.276279</v>
+        <v>0.274739</v>
       </c>
       <c r="D117" t="n">
-        <v>0.8263239999999999</v>
+        <v>0.824088</v>
       </c>
       <c r="E117" t="n">
-        <v>0.15174</v>
+        <v>0.145929</v>
       </c>
       <c r="F117" t="n">
-        <v>0.198461</v>
+        <v>0.195836</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.244783</v>
+        <v>0.243129</v>
       </c>
       <c r="C118" t="n">
-        <v>0.309129</v>
+        <v>0.298748</v>
       </c>
       <c r="D118" t="n">
-        <v>0.856197</v>
+        <v>0.852756</v>
       </c>
       <c r="E118" t="n">
-        <v>0.156786</v>
+        <v>0.152005</v>
       </c>
       <c r="F118" t="n">
-        <v>0.206236</v>
+        <v>0.20385</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.260069</v>
+        <v>0.257477</v>
       </c>
       <c r="C119" t="n">
-        <v>0.327696</v>
+        <v>0.331664</v>
       </c>
       <c r="D119" t="n">
-        <v>0.887722</v>
+        <v>0.8832</v>
       </c>
       <c r="E119" t="n">
-        <v>0.163156</v>
+        <v>0.159078</v>
       </c>
       <c r="F119" t="n">
-        <v>0.215859</v>
+        <v>0.21371</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.296331</v>
+        <v>0.286192</v>
       </c>
       <c r="C120" t="n">
-        <v>0.367433</v>
+        <v>0.363909</v>
       </c>
       <c r="D120" t="n">
-        <v>0.919668</v>
+        <v>0.915781</v>
       </c>
       <c r="E120" t="n">
-        <v>0.172503</v>
+        <v>0.169543</v>
       </c>
       <c r="F120" t="n">
-        <v>0.22906</v>
+        <v>0.227058</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.331163</v>
+        <v>0.338361</v>
       </c>
       <c r="C121" t="n">
-        <v>0.429256</v>
+        <v>0.423657</v>
       </c>
       <c r="D121" t="n">
-        <v>0.67064</v>
+        <v>0.667295</v>
       </c>
       <c r="E121" t="n">
-        <v>0.186308</v>
+        <v>0.184325</v>
       </c>
       <c r="F121" t="n">
-        <v>0.248504</v>
+        <v>0.247028</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.395921</v>
+        <v>0.403909</v>
       </c>
       <c r="C122" t="n">
-        <v>0.50762</v>
+        <v>0.516361</v>
       </c>
       <c r="D122" t="n">
-        <v>0.690761</v>
+        <v>0.687463</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2095</v>
+        <v>0.207823</v>
       </c>
       <c r="F122" t="n">
-        <v>0.280099</v>
+        <v>0.27854</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.496767</v>
+        <v>0.494359</v>
       </c>
       <c r="C123" t="n">
-        <v>0.632941</v>
+        <v>0.630107</v>
       </c>
       <c r="D123" t="n">
-        <v>0.711947</v>
+        <v>0.708596</v>
       </c>
       <c r="E123" t="n">
-        <v>0.144849</v>
+        <v>0.143683</v>
       </c>
       <c r="F123" t="n">
-        <v>0.189837</v>
+        <v>0.183489</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.199323</v>
+        <v>0.188126</v>
       </c>
       <c r="C124" t="n">
-        <v>0.242474</v>
+        <v>0.231841</v>
       </c>
       <c r="D124" t="n">
-        <v>0.73409</v>
+        <v>0.730959</v>
       </c>
       <c r="E124" t="n">
-        <v>0.147408</v>
+        <v>0.147037</v>
       </c>
       <c r="F124" t="n">
-        <v>0.189205</v>
+        <v>0.189402</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.201675</v>
+        <v>0.195611</v>
       </c>
       <c r="C125" t="n">
-        <v>0.245645</v>
+        <v>0.2377</v>
       </c>
       <c r="D125" t="n">
-        <v>0.756815</v>
+        <v>0.753434</v>
       </c>
       <c r="E125" t="n">
-        <v>0.14905</v>
+        <v>0.151356</v>
       </c>
       <c r="F125" t="n">
-        <v>0.193494</v>
+        <v>0.192458</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.205407</v>
+        <v>0.197913</v>
       </c>
       <c r="C126" t="n">
-        <v>0.252077</v>
+        <v>0.249507</v>
       </c>
       <c r="D126" t="n">
-        <v>0.780565</v>
+        <v>0.777022</v>
       </c>
       <c r="E126" t="n">
-        <v>0.152546</v>
+        <v>0.15236</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194784</v>
+        <v>0.195441</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201251</v>
+        <v>0.204601</v>
       </c>
       <c r="C127" t="n">
-        <v>0.264392</v>
+        <v>0.26422</v>
       </c>
       <c r="D127" t="n">
-        <v>0.805501</v>
+        <v>0.801862</v>
       </c>
       <c r="E127" t="n">
-        <v>0.153921</v>
+        <v>0.15428</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1979</v>
+        <v>0.2033</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.217897</v>
+        <v>0.217065</v>
       </c>
       <c r="C128" t="n">
-        <v>0.262903</v>
+        <v>0.265262</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8316</v>
+        <v>0.828143</v>
       </c>
       <c r="E128" t="n">
-        <v>0.156004</v>
+        <v>0.157766</v>
       </c>
       <c r="F128" t="n">
-        <v>0.202741</v>
+        <v>0.206437</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.230195</v>
+        <v>0.215967</v>
       </c>
       <c r="C129" t="n">
-        <v>0.281237</v>
+        <v>0.273008</v>
       </c>
       <c r="D129" t="n">
-        <v>0.8592649999999999</v>
+        <v>0.855172</v>
       </c>
       <c r="E129" t="n">
-        <v>0.157289</v>
+        <v>0.156948</v>
       </c>
       <c r="F129" t="n">
-        <v>0.208232</v>
+        <v>0.208428</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.230121</v>
+        <v>0.228111</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300449</v>
+        <v>0.286568</v>
       </c>
       <c r="D130" t="n">
-        <v>0.887027</v>
+        <v>0.883165</v>
       </c>
       <c r="E130" t="n">
-        <v>0.162749</v>
+        <v>0.162035</v>
       </c>
       <c r="F130" t="n">
-        <v>0.212783</v>
+        <v>0.2123</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.244693</v>
+        <v>0.240208</v>
       </c>
       <c r="C131" t="n">
-        <v>0.317004</v>
+        <v>0.304364</v>
       </c>
       <c r="D131" t="n">
-        <v>0.917056</v>
+        <v>0.912409</v>
       </c>
       <c r="E131" t="n">
-        <v>0.166667</v>
+        <v>0.167289</v>
       </c>
       <c r="F131" t="n">
-        <v>0.223581</v>
+        <v>0.222203</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.261856</v>
+        <v>0.263659</v>
       </c>
       <c r="C132" t="n">
-        <v>0.339407</v>
+        <v>0.330127</v>
       </c>
       <c r="D132" t="n">
-        <v>0.948152</v>
+        <v>0.9437950000000001</v>
       </c>
       <c r="E132" t="n">
-        <v>0.171222</v>
+        <v>0.170282</v>
       </c>
       <c r="F132" t="n">
-        <v>0.229658</v>
+        <v>0.231977</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.281724</v>
+        <v>0.287096</v>
       </c>
       <c r="C133" t="n">
-        <v>0.363021</v>
+        <v>0.356279</v>
       </c>
       <c r="D133" t="n">
-        <v>0.980352</v>
+        <v>0.975716</v>
       </c>
       <c r="E133" t="n">
-        <v>0.17769</v>
+        <v>0.177425</v>
       </c>
       <c r="F133" t="n">
-        <v>0.241058</v>
+        <v>0.242973</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.306887</v>
+        <v>0.307597</v>
       </c>
       <c r="C134" t="n">
-        <v>0.395265</v>
+        <v>0.406734</v>
       </c>
       <c r="D134" t="n">
-        <v>1.01456</v>
+        <v>1.00919</v>
       </c>
       <c r="E134" t="n">
-        <v>0.183539</v>
+        <v>0.188123</v>
       </c>
       <c r="F134" t="n">
-        <v>0.256243</v>
+        <v>0.257729</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.345631</v>
+        <v>0.358717</v>
       </c>
       <c r="C135" t="n">
-        <v>0.46469</v>
+        <v>0.460987</v>
       </c>
       <c r="D135" t="n">
-        <v>0.6936330000000001</v>
+        <v>0.690505</v>
       </c>
       <c r="E135" t="n">
-        <v>0.198294</v>
+        <v>0.202675</v>
       </c>
       <c r="F135" t="n">
-        <v>0.271914</v>
+        <v>0.273898</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.410776</v>
+        <v>0.414091</v>
       </c>
       <c r="C136" t="n">
-        <v>0.532788</v>
+        <v>0.537762</v>
       </c>
       <c r="D136" t="n">
-        <v>0.712046</v>
+        <v>0.708373</v>
       </c>
       <c r="E136" t="n">
-        <v>0.218871</v>
+        <v>0.218208</v>
       </c>
       <c r="F136" t="n">
-        <v>0.302137</v>
+        <v>0.302778</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.506071</v>
+        <v>0.505869</v>
       </c>
       <c r="C137" t="n">
-        <v>0.667342</v>
+        <v>0.659413</v>
       </c>
       <c r="D137" t="n">
-        <v>0.731073</v>
+        <v>0.727448</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26298</v>
+        <v>0.259198</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305381</v>
+        <v>0.302958</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.330598</v>
+        <v>0.327681</v>
       </c>
       <c r="C138" t="n">
-        <v>0.386773</v>
+        <v>0.377259</v>
       </c>
       <c r="D138" t="n">
-        <v>0.750929</v>
+        <v>0.7470329999999999</v>
       </c>
       <c r="E138" t="n">
-        <v>0.262134</v>
+        <v>0.25893</v>
       </c>
       <c r="F138" t="n">
-        <v>0.30945</v>
+        <v>0.309529</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.348742</v>
+        <v>0.331754</v>
       </c>
       <c r="C139" t="n">
-        <v>0.391779</v>
+        <v>0.389643</v>
       </c>
       <c r="D139" t="n">
-        <v>0.771559</v>
+        <v>0.767776</v>
       </c>
       <c r="E139" t="n">
-        <v>0.265311</v>
+        <v>0.264304</v>
       </c>
       <c r="F139" t="n">
-        <v>0.314655</v>
+        <v>0.318214</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.339777</v>
+        <v>0.344743</v>
       </c>
       <c r="C140" t="n">
-        <v>0.407592</v>
+        <v>0.399008</v>
       </c>
       <c r="D140" t="n">
-        <v>0.793807</v>
+        <v>0.789538</v>
       </c>
       <c r="E140" t="n">
-        <v>0.264132</v>
+        <v>0.265364</v>
       </c>
       <c r="F140" t="n">
-        <v>0.318997</v>
+        <v>0.317056</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.352403</v>
+        <v>0.344064</v>
       </c>
       <c r="C141" t="n">
-        <v>0.407409</v>
+        <v>0.406534</v>
       </c>
       <c r="D141" t="n">
-        <v>0.816262</v>
+        <v>0.811852</v>
       </c>
       <c r="E141" t="n">
-        <v>0.274631</v>
+        <v>0.269726</v>
       </c>
       <c r="F141" t="n">
-        <v>0.325784</v>
+        <v>0.322649</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.354723</v>
+        <v>0.35064</v>
       </c>
       <c r="C142" t="n">
-        <v>0.424547</v>
+        <v>0.416867</v>
       </c>
       <c r="D142" t="n">
-        <v>0.839611</v>
+        <v>0.835344</v>
       </c>
       <c r="E142" t="n">
-        <v>0.272811</v>
+        <v>0.271685</v>
       </c>
       <c r="F142" t="n">
-        <v>0.329406</v>
+        <v>0.328156</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.370834</v>
+        <v>0.357677</v>
       </c>
       <c r="C143" t="n">
-        <v>0.434451</v>
+        <v>0.430475</v>
       </c>
       <c r="D143" t="n">
-        <v>0.864408</v>
+        <v>0.859657</v>
       </c>
       <c r="E143" t="n">
-        <v>0.276094</v>
+        <v>0.270758</v>
       </c>
       <c r="F143" t="n">
-        <v>0.335081</v>
+        <v>0.333742</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.102299</v>
+        <v>0.113276</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105503</v>
+        <v>0.113219</v>
       </c>
       <c r="D2" t="n">
-        <v>0.179894</v>
+        <v>0.182681</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0826611</v>
+        <v>0.0833541</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0824903</v>
+        <v>0.0835482</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.110564</v>
+        <v>0.121157</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113788</v>
+        <v>0.12226</v>
       </c>
       <c r="D3" t="n">
-        <v>0.186455</v>
+        <v>0.187383</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0823923</v>
+        <v>0.0839516</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0809429</v>
+        <v>0.08364729999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.123853</v>
+        <v>0.134557</v>
       </c>
       <c r="C4" t="n">
-        <v>0.126168</v>
+        <v>0.13177</v>
       </c>
       <c r="D4" t="n">
-        <v>0.193396</v>
+        <v>0.194094</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0809333</v>
+        <v>0.08448460000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>0.08200200000000001</v>
+        <v>0.0842952</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140407</v>
+        <v>0.152635</v>
       </c>
       <c r="C5" t="n">
-        <v>0.149825</v>
+        <v>0.151162</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200884</v>
+        <v>0.200848</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0817259</v>
+        <v>0.08600049999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0821105</v>
+        <v>0.08567619999999999</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166812</v>
+        <v>0.18307</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167414</v>
+        <v>0.175364</v>
       </c>
       <c r="D6" t="n">
-        <v>0.207562</v>
+        <v>0.20848</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0831443</v>
+        <v>0.0881609</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0837803</v>
+        <v>0.0905773</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200352</v>
+        <v>0.220359</v>
       </c>
       <c r="C7" t="n">
-        <v>0.209801</v>
+        <v>0.218662</v>
       </c>
       <c r="D7" t="n">
-        <v>0.155981</v>
+        <v>0.158642</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0876319</v>
+        <v>0.09610920000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08880730000000001</v>
+        <v>0.0996672</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.248206</v>
+        <v>0.258925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245478</v>
+        <v>0.26118</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163009</v>
+        <v>0.167288</v>
       </c>
       <c r="E8" t="n">
-        <v>0.103445</v>
+        <v>0.109506</v>
       </c>
       <c r="F8" t="n">
-        <v>0.104281</v>
+        <v>0.116618</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.292617</v>
+        <v>0.314598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294541</v>
+        <v>0.318036</v>
       </c>
       <c r="D9" t="n">
-        <v>0.169428</v>
+        <v>0.173853</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0819928</v>
+        <v>0.0824863</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0827281</v>
+        <v>0.08340980000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0946512</v>
+        <v>0.103332</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09645910000000001</v>
+        <v>0.104398</v>
       </c>
       <c r="D10" t="n">
-        <v>0.17652</v>
+        <v>0.178754</v>
       </c>
       <c r="E10" t="n">
-        <v>0.08217960000000001</v>
+        <v>0.0825835</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0828236</v>
+        <v>0.08338520000000001</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09600939999999999</v>
+        <v>0.104833</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0987435</v>
+        <v>0.10545</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184062</v>
+        <v>0.185968</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0823435</v>
+        <v>0.0828343</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0834527</v>
+        <v>0.08386200000000001</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.100974</v>
+        <v>0.106054</v>
       </c>
       <c r="C12" t="n">
-        <v>0.101583</v>
+        <v>0.106909</v>
       </c>
       <c r="D12" t="n">
-        <v>0.191889</v>
+        <v>0.193133</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0824457</v>
+        <v>0.0830279</v>
       </c>
       <c r="F12" t="n">
-        <v>0.08362550000000001</v>
+        <v>0.0841769</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0987553</v>
+        <v>0.108459</v>
       </c>
       <c r="C13" t="n">
-        <v>0.105479</v>
+        <v>0.108895</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198011</v>
+        <v>0.198053</v>
       </c>
       <c r="E13" t="n">
-        <v>0.08269020000000001</v>
+        <v>0.0832184</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0844641</v>
+        <v>0.0844871</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.100799</v>
+        <v>0.111577</v>
       </c>
       <c r="C14" t="n">
-        <v>0.10286</v>
+        <v>0.112471</v>
       </c>
       <c r="D14" t="n">
-        <v>0.205703</v>
+        <v>0.202999</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0856809</v>
+        <v>0.0835287</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0837083</v>
+        <v>0.0849192</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.105058</v>
+        <v>0.115632</v>
       </c>
       <c r="C15" t="n">
-        <v>0.108087</v>
+        <v>0.115384</v>
       </c>
       <c r="D15" t="n">
-        <v>0.213361</v>
+        <v>0.21291</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0834334</v>
+        <v>0.08400349999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0833627</v>
+        <v>0.0856427</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.11245</v>
+        <v>0.120622</v>
       </c>
       <c r="C16" t="n">
-        <v>0.115553</v>
+        <v>0.122628</v>
       </c>
       <c r="D16" t="n">
-        <v>0.219066</v>
+        <v>0.216408</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0834037</v>
+        <v>0.0842909</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0837175</v>
+        <v>0.0855486</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.121977</v>
+        <v>0.130524</v>
       </c>
       <c r="C17" t="n">
-        <v>0.127975</v>
+        <v>0.131078</v>
       </c>
       <c r="D17" t="n">
-        <v>0.224743</v>
+        <v>0.223265</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0836688</v>
+        <v>0.0849072</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0861811</v>
+        <v>0.0865388</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.133039</v>
+        <v>0.143991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.134119</v>
+        <v>0.141848</v>
       </c>
       <c r="D18" t="n">
-        <v>0.230211</v>
+        <v>0.229681</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08415499999999999</v>
+        <v>0.085993</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0869181</v>
+        <v>0.08773789999999999</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.15018</v>
+        <v>0.160155</v>
       </c>
       <c r="C19" t="n">
-        <v>0.161605</v>
+        <v>0.157445</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236751</v>
+        <v>0.236909</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0841356</v>
+        <v>0.08781750000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0883804</v>
+        <v>0.09346400000000001</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.170977</v>
+        <v>0.18061</v>
       </c>
       <c r="C20" t="n">
-        <v>0.172727</v>
+        <v>0.183369</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242117</v>
+        <v>0.242712</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0879009</v>
+        <v>0.0922553</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0914576</v>
+        <v>0.101523</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.203473</v>
+        <v>0.211006</v>
       </c>
       <c r="C21" t="n">
-        <v>0.207519</v>
+        <v>0.21129</v>
       </c>
       <c r="D21" t="n">
-        <v>0.177784</v>
+        <v>0.178827</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0961675</v>
+        <v>0.09943390000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0975488</v>
+        <v>0.112024</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.245347</v>
+        <v>0.251442</v>
       </c>
       <c r="C22" t="n">
-        <v>0.244954</v>
+        <v>0.248807</v>
       </c>
       <c r="D22" t="n">
-        <v>0.184843</v>
+        <v>0.186221</v>
       </c>
       <c r="E22" t="n">
-        <v>0.110817</v>
+        <v>0.113387</v>
       </c>
       <c r="F22" t="n">
-        <v>0.112655</v>
+        <v>0.123488</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.289655</v>
+        <v>0.301002</v>
       </c>
       <c r="C23" t="n">
-        <v>0.294623</v>
+        <v>0.295915</v>
       </c>
       <c r="D23" t="n">
-        <v>0.191819</v>
+        <v>0.193572</v>
       </c>
       <c r="E23" t="n">
-        <v>0.08349090000000001</v>
+        <v>0.0836118</v>
       </c>
       <c r="F23" t="n">
-        <v>0.0843685</v>
+        <v>0.08472970000000001</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.100503</v>
+        <v>0.107669</v>
       </c>
       <c r="C24" t="n">
-        <v>0.11171</v>
+        <v>0.108966</v>
       </c>
       <c r="D24" t="n">
-        <v>0.198737</v>
+        <v>0.201667</v>
       </c>
       <c r="E24" t="n">
-        <v>0.0833801</v>
+        <v>0.08379730000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08574270000000001</v>
+        <v>0.08536530000000001</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.103056</v>
+        <v>0.108811</v>
       </c>
       <c r="C25" t="n">
-        <v>0.105452</v>
+        <v>0.110337</v>
       </c>
       <c r="D25" t="n">
-        <v>0.206758</v>
+        <v>0.20805</v>
       </c>
       <c r="E25" t="n">
-        <v>0.08363619999999999</v>
+        <v>0.0840212</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08596769999999999</v>
+        <v>0.0858888</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.103547</v>
+        <v>0.110025</v>
       </c>
       <c r="C26" t="n">
-        <v>0.108772</v>
+        <v>0.111832</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213384</v>
+        <v>0.213046</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08370660000000001</v>
+        <v>0.08419939999999999</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0874954</v>
+        <v>0.0862922</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.107542</v>
+        <v>0.112535</v>
       </c>
       <c r="C27" t="n">
-        <v>0.109204</v>
+        <v>0.114605</v>
       </c>
       <c r="D27" t="n">
-        <v>0.220596</v>
+        <v>0.221847</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0880775</v>
+        <v>0.0846079</v>
       </c>
       <c r="F27" t="n">
-        <v>0.0891449</v>
+        <v>0.087059</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.109375</v>
+        <v>0.115094</v>
       </c>
       <c r="C28" t="n">
-        <v>0.115666</v>
+        <v>0.117759</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226237</v>
+        <v>0.226504</v>
       </c>
       <c r="E28" t="n">
-        <v>0.084483</v>
+        <v>0.0849087</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0901576</v>
+        <v>0.0896612</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.115661</v>
+        <v>0.120603</v>
       </c>
       <c r="C29" t="n">
-        <v>0.120844</v>
+        <v>0.122656</v>
       </c>
       <c r="D29" t="n">
-        <v>0.232637</v>
+        <v>0.234444</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0861107</v>
+        <v>0.0859948</v>
       </c>
       <c r="F29" t="n">
-        <v>0.0878221</v>
+        <v>0.09078899999999999</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.119367</v>
+        <v>0.125933</v>
       </c>
       <c r="C30" t="n">
-        <v>0.12495</v>
+        <v>0.130778</v>
       </c>
       <c r="D30" t="n">
-        <v>0.237178</v>
+        <v>0.239384</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0894717</v>
+        <v>0.0861524</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09448719999999999</v>
+        <v>0.0908761</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.127108</v>
+        <v>0.134728</v>
       </c>
       <c r="C31" t="n">
-        <v>0.129646</v>
+        <v>0.137941</v>
       </c>
       <c r="D31" t="n">
-        <v>0.242379</v>
+        <v>0.246879</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0875963</v>
+        <v>0.0884622</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0890529</v>
+        <v>0.0927632</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.136842</v>
+        <v>0.146112</v>
       </c>
       <c r="C32" t="n">
-        <v>0.145006</v>
+        <v>0.152023</v>
       </c>
       <c r="D32" t="n">
-        <v>0.248823</v>
+        <v>0.252064</v>
       </c>
       <c r="E32" t="n">
-        <v>0.0884515</v>
+        <v>0.090444</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09402770000000001</v>
+        <v>0.0961919</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.150786</v>
+        <v>0.158017</v>
       </c>
       <c r="C33" t="n">
-        <v>0.152953</v>
+        <v>0.160798</v>
       </c>
       <c r="D33" t="n">
-        <v>0.254324</v>
+        <v>0.255746</v>
       </c>
       <c r="E33" t="n">
-        <v>0.09147130000000001</v>
+        <v>0.0926564</v>
       </c>
       <c r="F33" t="n">
-        <v>0.0928219</v>
+        <v>0.102277</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.169858</v>
+        <v>0.177748</v>
       </c>
       <c r="C34" t="n">
-        <v>0.172403</v>
+        <v>0.184089</v>
       </c>
       <c r="D34" t="n">
-        <v>0.259805</v>
+        <v>0.264778</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0952982</v>
+        <v>0.0967375</v>
       </c>
       <c r="F34" t="n">
-        <v>0.10071</v>
+        <v>0.108996</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.193761</v>
+        <v>0.205865</v>
       </c>
       <c r="C35" t="n">
-        <v>0.195356</v>
+        <v>0.208005</v>
       </c>
       <c r="D35" t="n">
-        <v>0.190527</v>
+        <v>0.191073</v>
       </c>
       <c r="E35" t="n">
-        <v>0.104368</v>
+        <v>0.105019</v>
       </c>
       <c r="F35" t="n">
-        <v>0.107524</v>
+        <v>0.119094</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.23307</v>
+        <v>0.241775</v>
       </c>
       <c r="C36" t="n">
-        <v>0.232938</v>
+        <v>0.244338</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197287</v>
+        <v>0.197855</v>
       </c>
       <c r="E36" t="n">
-        <v>0.121358</v>
+        <v>0.118415</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1174</v>
+        <v>0.132607</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.277672</v>
+        <v>0.292103</v>
       </c>
       <c r="C37" t="n">
-        <v>0.280784</v>
+        <v>0.292654</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204488</v>
+        <v>0.204735</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0842186</v>
+        <v>0.085494</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0866625</v>
+        <v>0.09003369999999999</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.104881</v>
+        <v>0.111053</v>
       </c>
       <c r="C38" t="n">
-        <v>0.107105</v>
+        <v>0.11382</v>
       </c>
       <c r="D38" t="n">
-        <v>0.211345</v>
+        <v>0.212051</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0887449</v>
+        <v>0.0850265</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08835369999999999</v>
+        <v>0.090597</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.107695</v>
+        <v>0.113389</v>
       </c>
       <c r="C39" t="n">
-        <v>0.10764</v>
+        <v>0.115042</v>
       </c>
       <c r="D39" t="n">
-        <v>0.217851</v>
+        <v>0.219894</v>
       </c>
       <c r="E39" t="n">
-        <v>0.08600190000000001</v>
+        <v>0.0850923</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0883853</v>
+        <v>0.0913152</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.107706</v>
+        <v>0.116212</v>
       </c>
       <c r="C40" t="n">
-        <v>0.111766</v>
+        <v>0.11985</v>
       </c>
       <c r="D40" t="n">
-        <v>0.224917</v>
+        <v>0.227283</v>
       </c>
       <c r="E40" t="n">
-        <v>0.0893958</v>
+        <v>0.08727020000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0886623</v>
+        <v>0.0898441</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.109209</v>
+        <v>0.115557</v>
       </c>
       <c r="C41" t="n">
-        <v>0.121704</v>
+        <v>0.119401</v>
       </c>
       <c r="D41" t="n">
-        <v>0.231036</v>
+        <v>0.233322</v>
       </c>
       <c r="E41" t="n">
-        <v>0.0898008</v>
+        <v>0.08719440000000001</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0890923</v>
+        <v>0.092805</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.113117</v>
+        <v>0.118938</v>
       </c>
       <c r="C42" t="n">
-        <v>0.117542</v>
+        <v>0.122023</v>
       </c>
       <c r="D42" t="n">
-        <v>0.238093</v>
+        <v>0.240154</v>
       </c>
       <c r="E42" t="n">
-        <v>0.0869515</v>
+        <v>0.08685229999999999</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0905918</v>
+        <v>0.09280239999999999</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.116659</v>
+        <v>0.124162</v>
       </c>
       <c r="C43" t="n">
-        <v>0.119593</v>
+        <v>0.126424</v>
       </c>
       <c r="D43" t="n">
-        <v>0.243824</v>
+        <v>0.246927</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08632910000000001</v>
+        <v>0.08838169999999999</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0904025</v>
+        <v>0.09416330000000001</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.12578</v>
+        <v>0.129803</v>
       </c>
       <c r="C44" t="n">
-        <v>0.127679</v>
+        <v>0.1317</v>
       </c>
       <c r="D44" t="n">
-        <v>0.250125</v>
+        <v>0.253663</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0881547</v>
+        <v>0.089545</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09075999999999999</v>
+        <v>0.0962229</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.136132</v>
+        <v>0.134629</v>
       </c>
       <c r="C45" t="n">
-        <v>0.133033</v>
+        <v>0.140477</v>
       </c>
       <c r="D45" t="n">
-        <v>0.255562</v>
+        <v>0.259203</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0883128</v>
+        <v>0.0897372</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0919432</v>
+        <v>0.0983156</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.138138</v>
+        <v>0.145544</v>
       </c>
       <c r="C46" t="n">
-        <v>0.143014</v>
+        <v>0.147569</v>
       </c>
       <c r="D46" t="n">
-        <v>0.260846</v>
+        <v>0.265053</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0894259</v>
+        <v>0.0918612</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09363970000000001</v>
+        <v>0.09951740000000001</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.150149</v>
+        <v>0.158582</v>
       </c>
       <c r="C47" t="n">
-        <v>0.154379</v>
+        <v>0.16102</v>
       </c>
       <c r="D47" t="n">
-        <v>0.266185</v>
+        <v>0.270286</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0922502</v>
+        <v>0.0931949</v>
       </c>
       <c r="F47" t="n">
-        <v>0.09747160000000001</v>
+        <v>0.105382</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.167762</v>
+        <v>0.175035</v>
       </c>
       <c r="C48" t="n">
-        <v>0.175553</v>
+        <v>0.177151</v>
       </c>
       <c r="D48" t="n">
-        <v>0.272097</v>
+        <v>0.276541</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0964685</v>
+        <v>0.0974602</v>
       </c>
       <c r="F48" t="n">
-        <v>0.100177</v>
+        <v>0.108882</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.190233</v>
+        <v>0.199285</v>
       </c>
       <c r="C49" t="n">
-        <v>0.193977</v>
+        <v>0.19934</v>
       </c>
       <c r="D49" t="n">
-        <v>0.278027</v>
+        <v>0.283135</v>
       </c>
       <c r="E49" t="n">
-        <v>0.102152</v>
+        <v>0.104661</v>
       </c>
       <c r="F49" t="n">
-        <v>0.113274</v>
+        <v>0.116209</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.224564</v>
+        <v>0.23595</v>
       </c>
       <c r="C50" t="n">
-        <v>0.226567</v>
+        <v>0.239074</v>
       </c>
       <c r="D50" t="n">
-        <v>0.198275</v>
+        <v>0.196882</v>
       </c>
       <c r="E50" t="n">
-        <v>0.11196</v>
+        <v>0.114697</v>
       </c>
       <c r="F50" t="n">
-        <v>0.116285</v>
+        <v>0.12788</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.268868</v>
+        <v>0.276454</v>
       </c>
       <c r="C51" t="n">
-        <v>0.273698</v>
+        <v>0.280899</v>
       </c>
       <c r="D51" t="n">
-        <v>0.204881</v>
+        <v>0.203215</v>
       </c>
       <c r="E51" t="n">
-        <v>0.0874028</v>
+        <v>0.08737499999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0904712</v>
+        <v>0.0923303</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.334694</v>
+        <v>0.344088</v>
       </c>
       <c r="C52" t="n">
-        <v>0.331476</v>
+        <v>0.33488</v>
       </c>
       <c r="D52" t="n">
-        <v>0.211226</v>
+        <v>0.209902</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0879407</v>
+        <v>0.088576</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08994729999999999</v>
+        <v>0.0944784</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.120928</v>
+        <v>0.115303</v>
       </c>
       <c r="C53" t="n">
-        <v>0.112075</v>
+        <v>0.120784</v>
       </c>
       <c r="D53" t="n">
-        <v>0.217859</v>
+        <v>0.21736</v>
       </c>
       <c r="E53" t="n">
-        <v>0.0875317</v>
+        <v>0.088675</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0906457</v>
+        <v>0.0967601</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.110545</v>
+        <v>0.118117</v>
       </c>
       <c r="C54" t="n">
-        <v>0.115073</v>
+        <v>0.122787</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224524</v>
+        <v>0.224111</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0869968</v>
+        <v>0.0886715</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09080149999999999</v>
+        <v>0.0944777</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.120775</v>
+        <v>0.120463</v>
       </c>
       <c r="C55" t="n">
-        <v>0.12344</v>
+        <v>0.125984</v>
       </c>
       <c r="D55" t="n">
-        <v>0.230548</v>
+        <v>0.23082</v>
       </c>
       <c r="E55" t="n">
-        <v>0.087614</v>
+        <v>0.0902564</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0957399</v>
+        <v>0.0949962</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.115978</v>
+        <v>0.123905</v>
       </c>
       <c r="C56" t="n">
-        <v>0.119878</v>
+        <v>0.129292</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236592</v>
+        <v>0.236461</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0884578</v>
+        <v>0.0892385</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0954356</v>
+        <v>0.0967296</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.1208</v>
+        <v>0.128379</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133534</v>
+        <v>0.133764</v>
       </c>
       <c r="D57" t="n">
-        <v>0.24206</v>
+        <v>0.242309</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0898557</v>
+        <v>0.0912077</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09431929999999999</v>
+        <v>0.09765550000000001</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.132959</v>
+        <v>0.134294</v>
       </c>
       <c r="C58" t="n">
-        <v>0.136849</v>
+        <v>0.139947</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247361</v>
+        <v>0.247951</v>
       </c>
       <c r="E58" t="n">
-        <v>0.0937727</v>
+        <v>0.09114410000000001</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09514830000000001</v>
+        <v>0.09969989999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.131247</v>
+        <v>0.139854</v>
       </c>
       <c r="C59" t="n">
-        <v>0.139123</v>
+        <v>0.146113</v>
       </c>
       <c r="D59" t="n">
-        <v>0.252799</v>
+        <v>0.253853</v>
       </c>
       <c r="E59" t="n">
-        <v>0.09057320000000001</v>
+        <v>0.0929572</v>
       </c>
       <c r="F59" t="n">
-        <v>0.0964696</v>
+        <v>0.101571</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.139317</v>
+        <v>0.146805</v>
       </c>
       <c r="C60" t="n">
-        <v>0.146517</v>
+        <v>0.155986</v>
       </c>
       <c r="D60" t="n">
-        <v>0.257889</v>
+        <v>0.258854</v>
       </c>
       <c r="E60" t="n">
-        <v>0.0922795</v>
+        <v>0.09465229999999999</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09765310000000001</v>
+        <v>0.103629</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.149794</v>
+        <v>0.158699</v>
       </c>
       <c r="C61" t="n">
-        <v>0.156423</v>
+        <v>0.166293</v>
       </c>
       <c r="D61" t="n">
-        <v>0.262687</v>
+        <v>0.264864</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09612179999999999</v>
+        <v>0.0972182</v>
       </c>
       <c r="F61" t="n">
-        <v>0.104949</v>
+        <v>0.106769</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.163889</v>
+        <v>0.174453</v>
       </c>
       <c r="C62" t="n">
-        <v>0.173058</v>
+        <v>0.179621</v>
       </c>
       <c r="D62" t="n">
-        <v>0.268869</v>
+        <v>0.270728</v>
       </c>
       <c r="E62" t="n">
-        <v>0.106123</v>
+        <v>0.0993752</v>
       </c>
       <c r="F62" t="n">
-        <v>0.108027</v>
+        <v>0.113776</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.185329</v>
+        <v>0.1995</v>
       </c>
       <c r="C63" t="n">
-        <v>0.194791</v>
+        <v>0.206896</v>
       </c>
       <c r="D63" t="n">
-        <v>0.274643</v>
+        <v>0.276158</v>
       </c>
       <c r="E63" t="n">
-        <v>0.10267</v>
+        <v>0.105359</v>
       </c>
       <c r="F63" t="n">
-        <v>0.11378</v>
+        <v>0.118233</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.217355</v>
+        <v>0.23066</v>
       </c>
       <c r="C64" t="n">
-        <v>0.22562</v>
+        <v>0.232973</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200925</v>
+        <v>0.200941</v>
       </c>
       <c r="E64" t="n">
-        <v>0.119438</v>
+        <v>0.113758</v>
       </c>
       <c r="F64" t="n">
-        <v>0.118221</v>
+        <v>0.128335</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.271217</v>
+        <v>0.266116</v>
       </c>
       <c r="C65" t="n">
-        <v>0.273725</v>
+        <v>0.279101</v>
       </c>
       <c r="D65" t="n">
-        <v>0.2077</v>
+        <v>0.208797</v>
       </c>
       <c r="E65" t="n">
-        <v>0.127073</v>
+        <v>0.131273</v>
       </c>
       <c r="F65" t="n">
-        <v>0.132606</v>
+        <v>0.142855</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.310465</v>
+        <v>0.339629</v>
       </c>
       <c r="C66" t="n">
-        <v>0.321295</v>
+        <v>0.346896</v>
       </c>
       <c r="D66" t="n">
-        <v>0.216183</v>
+        <v>0.21819</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0931049</v>
+        <v>0.0942597</v>
       </c>
       <c r="F66" t="n">
-        <v>0.10937</v>
+        <v>0.100576</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130765</v>
+        <v>0.130038</v>
       </c>
       <c r="C67" t="n">
-        <v>0.12838</v>
+        <v>0.134507</v>
       </c>
       <c r="D67" t="n">
-        <v>0.226134</v>
+        <v>0.227916</v>
       </c>
       <c r="E67" t="n">
-        <v>0.104325</v>
+        <v>0.09456000000000001</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0975816</v>
+        <v>0.101479</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.13186</v>
+        <v>0.131834</v>
       </c>
       <c r="C68" t="n">
-        <v>0.136397</v>
+        <v>0.137479</v>
       </c>
       <c r="D68" t="n">
-        <v>0.233653</v>
+        <v>0.23645</v>
       </c>
       <c r="E68" t="n">
-        <v>0.0940457</v>
+        <v>0.095248</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103667</v>
+        <v>0.102028</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.125406</v>
+        <v>0.132028</v>
       </c>
       <c r="C69" t="n">
-        <v>0.137648</v>
+        <v>0.137836</v>
       </c>
       <c r="D69" t="n">
-        <v>0.241037</v>
+        <v>0.248579</v>
       </c>
       <c r="E69" t="n">
-        <v>0.0995211</v>
+        <v>0.096149</v>
       </c>
       <c r="F69" t="n">
-        <v>0.111257</v>
+        <v>0.103516</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.128547</v>
+        <v>0.137544</v>
       </c>
       <c r="C70" t="n">
-        <v>0.136115</v>
+        <v>0.142895</v>
       </c>
       <c r="D70" t="n">
-        <v>0.250725</v>
+        <v>0.257806</v>
       </c>
       <c r="E70" t="n">
-        <v>0.100059</v>
+        <v>0.09569660000000001</v>
       </c>
       <c r="F70" t="n">
-        <v>0.101945</v>
+        <v>0.105375</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.131445</v>
+        <v>0.140518</v>
       </c>
       <c r="C71" t="n">
-        <v>0.13862</v>
+        <v>0.14592</v>
       </c>
       <c r="D71" t="n">
-        <v>0.260889</v>
+        <v>0.264363</v>
       </c>
       <c r="E71" t="n">
-        <v>0.097218</v>
+        <v>0.0970726</v>
       </c>
       <c r="F71" t="n">
-        <v>0.106592</v>
+        <v>0.106449</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.146887</v>
+        <v>0.144007</v>
       </c>
       <c r="C72" t="n">
-        <v>0.153486</v>
+        <v>0.149215</v>
       </c>
       <c r="D72" t="n">
-        <v>0.272348</v>
+        <v>0.27416</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0967867</v>
+        <v>0.0988942</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108177</v>
+        <v>0.108248</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.145106</v>
+        <v>0.151084</v>
       </c>
       <c r="C73" t="n">
-        <v>0.159009</v>
+        <v>0.158158</v>
       </c>
       <c r="D73" t="n">
-        <v>0.28187</v>
+        <v>0.286029</v>
       </c>
       <c r="E73" t="n">
-        <v>0.107779</v>
+        <v>0.09981760000000001</v>
       </c>
       <c r="F73" t="n">
-        <v>0.104765</v>
+        <v>0.109502</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.161142</v>
+        <v>0.156163</v>
       </c>
       <c r="C74" t="n">
-        <v>0.160189</v>
+        <v>0.165421</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296082</v>
+        <v>0.296147</v>
       </c>
       <c r="E74" t="n">
-        <v>0.107308</v>
+        <v>0.100947</v>
       </c>
       <c r="F74" t="n">
-        <v>0.10639</v>
+        <v>0.113398</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.162091</v>
+        <v>0.166815</v>
       </c>
       <c r="C75" t="n">
-        <v>0.178737</v>
+        <v>0.175505</v>
       </c>
       <c r="D75" t="n">
-        <v>0.310382</v>
+        <v>0.314031</v>
       </c>
       <c r="E75" t="n">
-        <v>0.105411</v>
+        <v>0.104147</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116559</v>
+        <v>0.116099</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.175258</v>
+        <v>0.183438</v>
       </c>
       <c r="C76" t="n">
-        <v>0.189146</v>
+        <v>0.191448</v>
       </c>
       <c r="D76" t="n">
-        <v>0.326351</v>
+        <v>0.329476</v>
       </c>
       <c r="E76" t="n">
-        <v>0.118718</v>
+        <v>0.106463</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11908</v>
+        <v>0.11913</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.19492</v>
+        <v>0.203895</v>
       </c>
       <c r="C77" t="n">
-        <v>0.204968</v>
+        <v>0.218231</v>
       </c>
       <c r="D77" t="n">
-        <v>0.341803</v>
+        <v>0.347602</v>
       </c>
       <c r="E77" t="n">
-        <v>0.109662</v>
+        <v>0.111501</v>
       </c>
       <c r="F77" t="n">
-        <v>0.12534</v>
+        <v>0.124581</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.22914</v>
+        <v>0.229686</v>
       </c>
       <c r="C78" t="n">
-        <v>0.237238</v>
+        <v>0.247141</v>
       </c>
       <c r="D78" t="n">
-        <v>0.266567</v>
+        <v>0.265877</v>
       </c>
       <c r="E78" t="n">
-        <v>0.125632</v>
+        <v>0.119791</v>
       </c>
       <c r="F78" t="n">
-        <v>0.127963</v>
+        <v>0.139342</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.27374</v>
+        <v>0.286502</v>
       </c>
       <c r="C79" t="n">
-        <v>0.27872</v>
+        <v>0.297725</v>
       </c>
       <c r="D79" t="n">
-        <v>0.282873</v>
+        <v>0.286868</v>
       </c>
       <c r="E79" t="n">
-        <v>0.138257</v>
+        <v>0.134054</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148005</v>
+        <v>0.155302</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.32653</v>
+        <v>0.32817</v>
       </c>
       <c r="C80" t="n">
-        <v>0.356212</v>
+        <v>0.354895</v>
       </c>
       <c r="D80" t="n">
-        <v>0.298937</v>
+        <v>0.300495</v>
       </c>
       <c r="E80" t="n">
-        <v>0.105869</v>
+        <v>0.102652</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1067</v>
+        <v>0.109351</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.143648</v>
+        <v>0.142418</v>
       </c>
       <c r="C81" t="n">
-        <v>0.141756</v>
+        <v>0.148235</v>
       </c>
       <c r="D81" t="n">
-        <v>0.319403</v>
+        <v>0.317781</v>
       </c>
       <c r="E81" t="n">
-        <v>0.107762</v>
+        <v>0.102762</v>
       </c>
       <c r="F81" t="n">
-        <v>0.106891</v>
+        <v>0.110585</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.146224</v>
+        <v>0.143851</v>
       </c>
       <c r="C82" t="n">
-        <v>0.14374</v>
+        <v>0.151171</v>
       </c>
       <c r="D82" t="n">
-        <v>0.339857</v>
+        <v>0.335574</v>
       </c>
       <c r="E82" t="n">
-        <v>0.104754</v>
+        <v>0.103317</v>
       </c>
       <c r="F82" t="n">
-        <v>0.107997</v>
+        <v>0.112493</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.148878</v>
+        <v>0.146733</v>
       </c>
       <c r="C83" t="n">
-        <v>0.149369</v>
+        <v>0.153579</v>
       </c>
       <c r="D83" t="n">
-        <v>0.361283</v>
+        <v>0.358493</v>
       </c>
       <c r="E83" t="n">
-        <v>0.101981</v>
+        <v>0.104466</v>
       </c>
       <c r="F83" t="n">
-        <v>0.115475</v>
+        <v>0.113519</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.14117</v>
+        <v>0.148704</v>
       </c>
       <c r="C84" t="n">
-        <v>0.149797</v>
+        <v>0.159033</v>
       </c>
       <c r="D84" t="n">
-        <v>0.381626</v>
+        <v>0.380589</v>
       </c>
       <c r="E84" t="n">
-        <v>0.107481</v>
+        <v>0.104448</v>
       </c>
       <c r="F84" t="n">
-        <v>0.109967</v>
+        <v>0.115913</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.145113</v>
+        <v>0.152639</v>
       </c>
       <c r="C85" t="n">
-        <v>0.162555</v>
+        <v>0.16347</v>
       </c>
       <c r="D85" t="n">
-        <v>0.404512</v>
+        <v>0.400135</v>
       </c>
       <c r="E85" t="n">
-        <v>0.110373</v>
+        <v>0.105656</v>
       </c>
       <c r="F85" t="n">
-        <v>0.114278</v>
+        <v>0.117678</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.149525</v>
+        <v>0.157736</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168694</v>
+        <v>0.168912</v>
       </c>
       <c r="D86" t="n">
-        <v>0.427241</v>
+        <v>0.423976</v>
       </c>
       <c r="E86" t="n">
-        <v>0.111475</v>
+        <v>0.10733</v>
       </c>
       <c r="F86" t="n">
-        <v>0.113188</v>
+        <v>0.120932</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.162563</v>
+        <v>0.163623</v>
       </c>
       <c r="C87" t="n">
-        <v>0.177016</v>
+        <v>0.178333</v>
       </c>
       <c r="D87" t="n">
-        <v>0.450663</v>
+        <v>0.446633</v>
       </c>
       <c r="E87" t="n">
-        <v>0.105384</v>
+        <v>0.10868</v>
       </c>
       <c r="F87" t="n">
-        <v>0.115667</v>
+        <v>0.12505</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.17445</v>
+        <v>0.172496</v>
       </c>
       <c r="C88" t="n">
-        <v>0.177916</v>
+        <v>0.190285</v>
       </c>
       <c r="D88" t="n">
-        <v>0.473721</v>
+        <v>0.471233</v>
       </c>
       <c r="E88" t="n">
-        <v>0.10741</v>
+        <v>0.110612</v>
       </c>
       <c r="F88" t="n">
-        <v>0.125676</v>
+        <v>0.130211</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.174759</v>
+        <v>0.183763</v>
       </c>
       <c r="C89" t="n">
-        <v>0.201739</v>
+        <v>0.205439</v>
       </c>
       <c r="D89" t="n">
-        <v>0.499156</v>
+        <v>0.4979</v>
       </c>
       <c r="E89" t="n">
-        <v>0.116946</v>
+        <v>0.114127</v>
       </c>
       <c r="F89" t="n">
-        <v>0.122577</v>
+        <v>0.135879</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.197575</v>
+        <v>0.20109</v>
       </c>
       <c r="C90" t="n">
-        <v>0.220158</v>
+        <v>0.225706</v>
       </c>
       <c r="D90" t="n">
-        <v>0.525479</v>
+        <v>0.524072</v>
       </c>
       <c r="E90" t="n">
-        <v>0.113347</v>
+        <v>0.118417</v>
       </c>
       <c r="F90" t="n">
-        <v>0.128962</v>
+        <v>0.144514</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.218572</v>
+        <v>0.222046</v>
       </c>
       <c r="C91" t="n">
-        <v>0.233891</v>
+        <v>0.252084</v>
       </c>
       <c r="D91" t="n">
-        <v>0.552256</v>
+        <v>0.551041</v>
       </c>
       <c r="E91" t="n">
-        <v>0.11848</v>
+        <v>0.12477</v>
       </c>
       <c r="F91" t="n">
-        <v>0.143834</v>
+        <v>0.153843</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.242226</v>
+        <v>0.253284</v>
       </c>
       <c r="C92" t="n">
-        <v>0.277437</v>
+        <v>0.288792</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412733</v>
+        <v>0.412098</v>
       </c>
       <c r="E92" t="n">
-        <v>0.12702</v>
+        <v>0.134817</v>
       </c>
       <c r="F92" t="n">
-        <v>0.156345</v>
+        <v>0.168402</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.280186</v>
+        <v>0.300876</v>
       </c>
       <c r="C93" t="n">
-        <v>0.357217</v>
+        <v>0.340998</v>
       </c>
       <c r="D93" t="n">
-        <v>0.431583</v>
+        <v>0.430307</v>
       </c>
       <c r="E93" t="n">
-        <v>0.14693</v>
+        <v>0.151566</v>
       </c>
       <c r="F93" t="n">
-        <v>0.16995</v>
+        <v>0.18731</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.344429</v>
+        <v>0.361676</v>
       </c>
       <c r="C94" t="n">
-        <v>0.41231</v>
+        <v>0.427349</v>
       </c>
       <c r="D94" t="n">
-        <v>0.450849</v>
+        <v>0.449785</v>
       </c>
       <c r="E94" t="n">
-        <v>0.106868</v>
+        <v>0.111935</v>
       </c>
       <c r="F94" t="n">
-        <v>0.12011</v>
+        <v>0.130163</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.145182</v>
+        <v>0.156692</v>
       </c>
       <c r="C95" t="n">
-        <v>0.161074</v>
+        <v>0.175402</v>
       </c>
       <c r="D95" t="n">
-        <v>0.469897</v>
+        <v>0.468328</v>
       </c>
       <c r="E95" t="n">
-        <v>0.108381</v>
+        <v>0.113622</v>
       </c>
       <c r="F95" t="n">
-        <v>0.123513</v>
+        <v>0.134299</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.153077</v>
+        <v>0.159831</v>
       </c>
       <c r="C96" t="n">
-        <v>0.170288</v>
+        <v>0.178676</v>
       </c>
       <c r="D96" t="n">
-        <v>0.492284</v>
+        <v>0.489116</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115109</v>
+        <v>0.115369</v>
       </c>
       <c r="F96" t="n">
-        <v>0.129938</v>
+        <v>0.137559</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.153236</v>
+        <v>0.161394</v>
       </c>
       <c r="C97" t="n">
-        <v>0.173335</v>
+        <v>0.184369</v>
       </c>
       <c r="D97" t="n">
-        <v>0.512189</v>
+        <v>0.512064</v>
       </c>
       <c r="E97" t="n">
-        <v>0.114664</v>
+        <v>0.117578</v>
       </c>
       <c r="F97" t="n">
-        <v>0.135649</v>
+        <v>0.141596</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.155348</v>
+        <v>0.16651</v>
       </c>
       <c r="C98" t="n">
-        <v>0.192632</v>
+        <v>0.190044</v>
       </c>
       <c r="D98" t="n">
-        <v>0.531796</v>
+        <v>0.53252</v>
       </c>
       <c r="E98" t="n">
-        <v>0.118953</v>
+        <v>0.119727</v>
       </c>
       <c r="F98" t="n">
-        <v>0.138072</v>
+        <v>0.144597</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.16961</v>
+        <v>0.172046</v>
       </c>
       <c r="C99" t="n">
-        <v>0.191052</v>
+        <v>0.195953</v>
       </c>
       <c r="D99" t="n">
-        <v>0.553366</v>
+        <v>0.5547800000000001</v>
       </c>
       <c r="E99" t="n">
-        <v>0.115594</v>
+        <v>0.12141</v>
       </c>
       <c r="F99" t="n">
-        <v>0.147575</v>
+        <v>0.14789</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.167593</v>
+        <v>0.177637</v>
       </c>
       <c r="C100" t="n">
-        <v>0.208322</v>
+        <v>0.203765</v>
       </c>
       <c r="D100" t="n">
-        <v>0.576799</v>
+        <v>0.578939</v>
       </c>
       <c r="E100" t="n">
-        <v>0.118399</v>
+        <v>0.123859</v>
       </c>
       <c r="F100" t="n">
-        <v>0.15056</v>
+        <v>0.151996</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.185524</v>
+        <v>0.184535</v>
       </c>
       <c r="C101" t="n">
-        <v>0.223648</v>
+        <v>0.213846</v>
       </c>
       <c r="D101" t="n">
-        <v>0.600619</v>
+        <v>0.602145</v>
       </c>
       <c r="E101" t="n">
-        <v>0.122541</v>
+        <v>0.126572</v>
       </c>
       <c r="F101" t="n">
-        <v>0.157396</v>
+        <v>0.156673</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.196072</v>
+        <v>0.19443</v>
       </c>
       <c r="C102" t="n">
-        <v>0.232886</v>
+        <v>0.226732</v>
       </c>
       <c r="D102" t="n">
-        <v>0.6277700000000001</v>
+        <v>0.627969</v>
       </c>
       <c r="E102" t="n">
-        <v>0.131045</v>
+        <v>0.129777</v>
       </c>
       <c r="F102" t="n">
-        <v>0.164278</v>
+        <v>0.162034</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.202971</v>
+        <v>0.205347</v>
       </c>
       <c r="C103" t="n">
-        <v>0.258763</v>
+        <v>0.244931</v>
       </c>
       <c r="D103" t="n">
-        <v>0.653913</v>
+        <v>0.6536110000000001</v>
       </c>
       <c r="E103" t="n">
-        <v>0.131856</v>
+        <v>0.132947</v>
       </c>
       <c r="F103" t="n">
-        <v>0.172877</v>
+        <v>0.168714</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.218853</v>
+        <v>0.220666</v>
       </c>
       <c r="C104" t="n">
-        <v>0.28017</v>
+        <v>0.26913</v>
       </c>
       <c r="D104" t="n">
-        <v>0.680511</v>
+        <v>0.6822510000000001</v>
       </c>
       <c r="E104" t="n">
-        <v>0.138038</v>
+        <v>0.137316</v>
       </c>
       <c r="F104" t="n">
-        <v>0.181794</v>
+        <v>0.178151</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.243152</v>
+        <v>0.24237</v>
       </c>
       <c r="C105" t="n">
-        <v>0.307575</v>
+        <v>0.297119</v>
       </c>
       <c r="D105" t="n">
-        <v>0.71376</v>
+        <v>0.711493</v>
       </c>
       <c r="E105" t="n">
-        <v>0.149419</v>
+        <v>0.143701</v>
       </c>
       <c r="F105" t="n">
-        <v>0.192323</v>
+        <v>0.189217</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.277518</v>
+        <v>0.276648</v>
       </c>
       <c r="C106" t="n">
-        <v>0.336866</v>
+        <v>0.33937</v>
       </c>
       <c r="D106" t="n">
-        <v>0.744909</v>
+        <v>0.74271</v>
       </c>
       <c r="E106" t="n">
-        <v>0.16156</v>
+        <v>0.153225</v>
       </c>
       <c r="F106" t="n">
-        <v>0.20557</v>
+        <v>0.206437</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.317812</v>
+        <v>0.32096</v>
       </c>
       <c r="C107" t="n">
-        <v>0.403143</v>
+        <v>0.401776</v>
       </c>
       <c r="D107" t="n">
-        <v>0.581893</v>
+        <v>0.5942539999999999</v>
       </c>
       <c r="E107" t="n">
-        <v>0.179837</v>
+        <v>0.167795</v>
       </c>
       <c r="F107" t="n">
-        <v>0.225221</v>
+        <v>0.22785</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.385367</v>
+        <v>0.388151</v>
       </c>
       <c r="C108" t="n">
-        <v>0.474288</v>
+        <v>0.485959</v>
       </c>
       <c r="D108" t="n">
-        <v>0.602503</v>
+        <v>0.613581</v>
       </c>
       <c r="E108" t="n">
-        <v>0.127101</v>
+        <v>0.122109</v>
       </c>
       <c r="F108" t="n">
-        <v>0.159177</v>
+        <v>0.150201</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.480512</v>
+        <v>0.500475</v>
       </c>
       <c r="C109" t="n">
-        <v>0.591257</v>
+        <v>0.6071879999999999</v>
       </c>
       <c r="D109" t="n">
-        <v>0.623573</v>
+        <v>0.639933</v>
       </c>
       <c r="E109" t="n">
-        <v>0.129482</v>
+        <v>0.123268</v>
       </c>
       <c r="F109" t="n">
-        <v>0.166012</v>
+        <v>0.154788</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.170775</v>
+        <v>0.168749</v>
       </c>
       <c r="C110" t="n">
-        <v>0.217372</v>
+        <v>0.202712</v>
       </c>
       <c r="D110" t="n">
-        <v>0.645783</v>
+        <v>0.65971</v>
       </c>
       <c r="E110" t="n">
-        <v>0.135248</v>
+        <v>0.124732</v>
       </c>
       <c r="F110" t="n">
-        <v>0.1667</v>
+        <v>0.158918</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.175052</v>
+        <v>0.172392</v>
       </c>
       <c r="C111" t="n">
-        <v>0.212532</v>
+        <v>0.208434</v>
       </c>
       <c r="D111" t="n">
-        <v>0.668441</v>
+        <v>0.684581</v>
       </c>
       <c r="E111" t="n">
-        <v>0.141053</v>
+        <v>0.126653</v>
       </c>
       <c r="F111" t="n">
-        <v>0.170497</v>
+        <v>0.163583</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.179714</v>
+        <v>0.175747</v>
       </c>
       <c r="C112" t="n">
-        <v>0.221723</v>
+        <v>0.216633</v>
       </c>
       <c r="D112" t="n">
-        <v>0.691638</v>
+        <v>0.709365</v>
       </c>
       <c r="E112" t="n">
-        <v>0.137009</v>
+        <v>0.128856</v>
       </c>
       <c r="F112" t="n">
-        <v>0.174245</v>
+        <v>0.169666</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.186246</v>
+        <v>0.181487</v>
       </c>
       <c r="C113" t="n">
-        <v>0.226366</v>
+        <v>0.224895</v>
       </c>
       <c r="D113" t="n">
-        <v>0.716625</v>
+        <v>0.737193</v>
       </c>
       <c r="E113" t="n">
-        <v>0.139959</v>
+        <v>0.130967</v>
       </c>
       <c r="F113" t="n">
-        <v>0.178304</v>
+        <v>0.174821</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.20272</v>
+        <v>0.187567</v>
       </c>
       <c r="C114" t="n">
-        <v>0.246478</v>
+        <v>0.235712</v>
       </c>
       <c r="D114" t="n">
-        <v>0.742117</v>
+        <v>0.764145</v>
       </c>
       <c r="E114" t="n">
-        <v>0.142504</v>
+        <v>0.13333</v>
       </c>
       <c r="F114" t="n">
-        <v>0.182744</v>
+        <v>0.181188</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.199909</v>
+        <v>0.198061</v>
       </c>
       <c r="C115" t="n">
-        <v>0.246073</v>
+        <v>0.24763</v>
       </c>
       <c r="D115" t="n">
-        <v>0.768271</v>
+        <v>0.79278</v>
       </c>
       <c r="E115" t="n">
-        <v>0.145633</v>
+        <v>0.136501</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187567</v>
+        <v>0.187363</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.22054</v>
+        <v>0.207638</v>
       </c>
       <c r="C116" t="n">
-        <v>0.259559</v>
+        <v>0.262179</v>
       </c>
       <c r="D116" t="n">
-        <v>0.795025</v>
+        <v>0.819432</v>
       </c>
       <c r="E116" t="n">
-        <v>0.148844</v>
+        <v>0.13699</v>
       </c>
       <c r="F116" t="n">
-        <v>0.197611</v>
+        <v>0.194532</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.232134</v>
+        <v>0.221438</v>
       </c>
       <c r="C117" t="n">
-        <v>0.286268</v>
+        <v>0.280125</v>
       </c>
       <c r="D117" t="n">
-        <v>0.824638</v>
+        <v>0.850588</v>
       </c>
       <c r="E117" t="n">
-        <v>0.152845</v>
+        <v>0.14611</v>
       </c>
       <c r="F117" t="n">
-        <v>0.199315</v>
+        <v>0.202754</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.2378</v>
+        <v>0.240897</v>
       </c>
       <c r="C118" t="n">
-        <v>0.297698</v>
+        <v>0.303262</v>
       </c>
       <c r="D118" t="n">
-        <v>0.852299</v>
+        <v>0.880955</v>
       </c>
       <c r="E118" t="n">
-        <v>0.15773</v>
+        <v>0.151852</v>
       </c>
       <c r="F118" t="n">
-        <v>0.207083</v>
+        <v>0.212851</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.259649</v>
+        <v>0.262439</v>
       </c>
       <c r="C119" t="n">
-        <v>0.325009</v>
+        <v>0.332041</v>
       </c>
       <c r="D119" t="n">
-        <v>0.883943</v>
+        <v>0.912291</v>
       </c>
       <c r="E119" t="n">
-        <v>0.171009</v>
+        <v>0.159617</v>
       </c>
       <c r="F119" t="n">
-        <v>0.216294</v>
+        <v>0.22543</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.288596</v>
+        <v>0.297368</v>
       </c>
       <c r="C120" t="n">
-        <v>0.376008</v>
+        <v>0.375831</v>
       </c>
       <c r="D120" t="n">
-        <v>0.915811</v>
+        <v>0.94512</v>
       </c>
       <c r="E120" t="n">
-        <v>0.173419</v>
+        <v>0.171568</v>
       </c>
       <c r="F120" t="n">
-        <v>0.229626</v>
+        <v>0.241581</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.333168</v>
+        <v>0.343736</v>
       </c>
       <c r="C121" t="n">
-        <v>0.418735</v>
+        <v>0.426558</v>
       </c>
       <c r="D121" t="n">
-        <v>0.666343</v>
+        <v>0.684767</v>
       </c>
       <c r="E121" t="n">
-        <v>0.191729</v>
+        <v>0.18825</v>
       </c>
       <c r="F121" t="n">
-        <v>0.249269</v>
+        <v>0.261191</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.405557</v>
+        <v>0.40558</v>
       </c>
       <c r="C122" t="n">
-        <v>0.502499</v>
+        <v>0.513097</v>
       </c>
       <c r="D122" t="n">
-        <v>0.68623</v>
+        <v>0.705248</v>
       </c>
       <c r="E122" t="n">
-        <v>0.210653</v>
+        <v>0.214166</v>
       </c>
       <c r="F122" t="n">
-        <v>0.281049</v>
+        <v>0.288818</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.492533</v>
+        <v>0.509503</v>
       </c>
       <c r="C123" t="n">
-        <v>0.6286040000000001</v>
+        <v>0.644267</v>
       </c>
       <c r="D123" t="n">
-        <v>0.7073469999999999</v>
+        <v>0.728262</v>
       </c>
       <c r="E123" t="n">
-        <v>0.143939</v>
+        <v>0.145171</v>
       </c>
       <c r="F123" t="n">
-        <v>0.186195</v>
+        <v>0.192953</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.20082</v>
+        <v>0.197667</v>
       </c>
       <c r="C124" t="n">
-        <v>0.238964</v>
+        <v>0.233326</v>
       </c>
       <c r="D124" t="n">
-        <v>0.7293770000000001</v>
+        <v>0.75313</v>
       </c>
       <c r="E124" t="n">
-        <v>0.15359</v>
+        <v>0.155274</v>
       </c>
       <c r="F124" t="n">
-        <v>0.185526</v>
+        <v>0.192305</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.192192</v>
+        <v>0.187801</v>
       </c>
       <c r="C125" t="n">
-        <v>0.246171</v>
+        <v>0.244674</v>
       </c>
       <c r="D125" t="n">
-        <v>0.7528359999999999</v>
+        <v>0.765768</v>
       </c>
       <c r="E125" t="n">
-        <v>0.147808</v>
+        <v>0.150735</v>
       </c>
       <c r="F125" t="n">
-        <v>0.190763</v>
+        <v>0.197926</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.206337</v>
+        <v>0.193334</v>
       </c>
       <c r="C126" t="n">
-        <v>0.243478</v>
+        <v>0.236856</v>
       </c>
       <c r="D126" t="n">
-        <v>0.775919</v>
+        <v>0.802377</v>
       </c>
       <c r="E126" t="n">
-        <v>0.157702</v>
+        <v>0.155098</v>
       </c>
       <c r="F126" t="n">
-        <v>0.194295</v>
+        <v>0.202765</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.201521</v>
+        <v>0.208944</v>
       </c>
       <c r="C127" t="n">
-        <v>0.249792</v>
+        <v>0.256188</v>
       </c>
       <c r="D127" t="n">
-        <v>0.800156</v>
+        <v>0.8295630000000001</v>
       </c>
       <c r="E127" t="n">
-        <v>0.154783</v>
+        <v>0.148214</v>
       </c>
       <c r="F127" t="n">
-        <v>0.199039</v>
+        <v>0.205813</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.21373</v>
+        <v>0.207304</v>
       </c>
       <c r="C128" t="n">
-        <v>0.271526</v>
+        <v>0.267585</v>
       </c>
       <c r="D128" t="n">
-        <v>0.826344</v>
+        <v>0.8570410000000001</v>
       </c>
       <c r="E128" t="n">
-        <v>0.159524</v>
+        <v>0.150608</v>
       </c>
       <c r="F128" t="n">
-        <v>0.212529</v>
+        <v>0.213664</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.217014</v>
+        <v>0.222693</v>
       </c>
       <c r="C129" t="n">
-        <v>0.280501</v>
+        <v>0.277383</v>
       </c>
       <c r="D129" t="n">
-        <v>0.853481</v>
+        <v>0.885916</v>
       </c>
       <c r="E129" t="n">
-        <v>0.163251</v>
+        <v>0.161626</v>
       </c>
       <c r="F129" t="n">
-        <v>0.209722</v>
+        <v>0.213202</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.236461</v>
+        <v>0.2312</v>
       </c>
       <c r="C130" t="n">
-        <v>0.300318</v>
+        <v>0.288831</v>
       </c>
       <c r="D130" t="n">
-        <v>0.8821020000000001</v>
+        <v>0.907691</v>
       </c>
       <c r="E130" t="n">
-        <v>0.16384</v>
+        <v>0.166134</v>
       </c>
       <c r="F130" t="n">
-        <v>0.215224</v>
+        <v>0.227853</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.240487</v>
+        <v>0.249107</v>
       </c>
       <c r="C131" t="n">
-        <v>0.313006</v>
+        <v>0.310748</v>
       </c>
       <c r="D131" t="n">
-        <v>0.911572</v>
+        <v>0.944105</v>
       </c>
       <c r="E131" t="n">
-        <v>0.16536</v>
+        <v>0.165248</v>
       </c>
       <c r="F131" t="n">
-        <v>0.221508</v>
+        <v>0.233496</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.253786</v>
+        <v>0.248318</v>
       </c>
       <c r="C132" t="n">
-        <v>0.333909</v>
+        <v>0.334794</v>
       </c>
       <c r="D132" t="n">
-        <v>0.941553</v>
+        <v>0.975096</v>
       </c>
       <c r="E132" t="n">
-        <v>0.172207</v>
+        <v>0.17936</v>
       </c>
       <c r="F132" t="n">
-        <v>0.230421</v>
+        <v>0.227272</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.276986</v>
+        <v>0.283706</v>
       </c>
       <c r="C133" t="n">
-        <v>0.355722</v>
+        <v>0.365931</v>
       </c>
       <c r="D133" t="n">
-        <v>0.974621</v>
+        <v>1.00981</v>
       </c>
       <c r="E133" t="n">
-        <v>0.17961</v>
+        <v>0.181995</v>
       </c>
       <c r="F133" t="n">
-        <v>0.242344</v>
+        <v>0.260193</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.303162</v>
+        <v>0.299649</v>
       </c>
       <c r="C134" t="n">
-        <v>0.400576</v>
+        <v>0.413104</v>
       </c>
       <c r="D134" t="n">
-        <v>1.00818</v>
+        <v>1.04248</v>
       </c>
       <c r="E134" t="n">
-        <v>0.196963</v>
+        <v>0.181722</v>
       </c>
       <c r="F134" t="n">
-        <v>0.253315</v>
+        <v>0.267393</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.352737</v>
+        <v>0.361867</v>
       </c>
       <c r="C135" t="n">
-        <v>0.453079</v>
+        <v>0.476389</v>
       </c>
       <c r="D135" t="n">
-        <v>0.689411</v>
+        <v>0.69875</v>
       </c>
       <c r="E135" t="n">
-        <v>0.200569</v>
+        <v>0.204132</v>
       </c>
       <c r="F135" t="n">
-        <v>0.276764</v>
+        <v>0.297153</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.407639</v>
+        <v>0.416724</v>
       </c>
       <c r="C136" t="n">
-        <v>0.53596</v>
+        <v>0.5487030000000001</v>
       </c>
       <c r="D136" t="n">
-        <v>0.707985</v>
+        <v>0.7155550000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.220418</v>
+        <v>0.227813</v>
       </c>
       <c r="F136" t="n">
-        <v>0.307876</v>
+        <v>0.311739</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.509264</v>
+        <v>0.525617</v>
       </c>
       <c r="C137" t="n">
-        <v>0.662875</v>
+        <v>0.66699</v>
       </c>
       <c r="D137" t="n">
-        <v>0.727162</v>
+        <v>0.7274929999999999</v>
       </c>
       <c r="E137" t="n">
-        <v>0.26336</v>
+        <v>0.282974</v>
       </c>
       <c r="F137" t="n">
-        <v>0.305964</v>
+        <v>0.332244</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.338529</v>
+        <v>0.342188</v>
       </c>
       <c r="C138" t="n">
-        <v>0.378836</v>
+        <v>0.372328</v>
       </c>
       <c r="D138" t="n">
-        <v>0.7464769999999999</v>
+        <v>0.747672</v>
       </c>
       <c r="E138" t="n">
-        <v>0.261065</v>
+        <v>0.278426</v>
       </c>
       <c r="F138" t="n">
-        <v>0.313658</v>
+        <v>0.336069</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.334485</v>
+        <v>0.349375</v>
       </c>
       <c r="C139" t="n">
-        <v>0.389453</v>
+        <v>0.397778</v>
       </c>
       <c r="D139" t="n">
-        <v>0.767076</v>
+        <v>0.7726</v>
       </c>
       <c r="E139" t="n">
-        <v>0.269825</v>
+        <v>0.282629</v>
       </c>
       <c r="F139" t="n">
-        <v>0.318651</v>
+        <v>0.345986</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.33927</v>
+        <v>0.351318</v>
       </c>
       <c r="C140" t="n">
-        <v>0.397263</v>
+        <v>0.410058</v>
       </c>
       <c r="D140" t="n">
-        <v>0.788419</v>
+        <v>0.786723</v>
       </c>
       <c r="E140" t="n">
-        <v>0.270241</v>
+        <v>0.280448</v>
       </c>
       <c r="F140" t="n">
-        <v>0.323727</v>
+        <v>0.346422</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.347716</v>
+        <v>0.356708</v>
       </c>
       <c r="C141" t="n">
-        <v>0.406633</v>
+        <v>0.418835</v>
       </c>
       <c r="D141" t="n">
-        <v>0.8106680000000001</v>
+        <v>0.814978</v>
       </c>
       <c r="E141" t="n">
-        <v>0.268334</v>
+        <v>0.280404</v>
       </c>
       <c r="F141" t="n">
-        <v>0.329523</v>
+        <v>0.350561</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.35535</v>
+        <v>0.355443</v>
       </c>
       <c r="C142" t="n">
-        <v>0.427503</v>
+        <v>0.434069</v>
       </c>
       <c r="D142" t="n">
-        <v>0.834187</v>
+        <v>0.837601</v>
       </c>
       <c r="E142" t="n">
-        <v>0.274118</v>
+        <v>0.288312</v>
       </c>
       <c r="F142" t="n">
-        <v>0.333461</v>
+        <v>0.359332</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.358712</v>
+        <v>0.360352</v>
       </c>
       <c r="C143" t="n">
-        <v>0.434735</v>
+        <v>0.443782</v>
       </c>
       <c r="D143" t="n">
-        <v>0.859027</v>
+        <v>0.8611180000000001</v>
       </c>
       <c r="E143" t="n">
-        <v>0.279229</v>
+        <v>0.297126</v>
       </c>
       <c r="F143" t="n">
-        <v>0.34016</v>
+        <v>0.371672</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.113276</v>
+        <v>0.113266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.113219</v>
+        <v>0.113657</v>
       </c>
       <c r="D2" t="n">
-        <v>0.182681</v>
+        <v>0.186725</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0833541</v>
+        <v>0.083651</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0835482</v>
+        <v>0.08371140000000001</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.121157</v>
+        <v>0.120807</v>
       </c>
       <c r="C3" t="n">
-        <v>0.12226</v>
+        <v>0.122252</v>
       </c>
       <c r="D3" t="n">
-        <v>0.187383</v>
+        <v>0.192599</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0839516</v>
+        <v>0.0837111</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08364729999999999</v>
+        <v>0.08392289999999999</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.134557</v>
+        <v>0.134849</v>
       </c>
       <c r="C4" t="n">
-        <v>0.13177</v>
+        <v>0.131485</v>
       </c>
       <c r="D4" t="n">
-        <v>0.194094</v>
+        <v>0.197861</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08448460000000001</v>
+        <v>0.0843747</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0842952</v>
+        <v>0.0844184</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.152635</v>
+        <v>0.152379</v>
       </c>
       <c r="C5" t="n">
-        <v>0.151162</v>
+        <v>0.151005</v>
       </c>
       <c r="D5" t="n">
-        <v>0.200848</v>
+        <v>0.205307</v>
       </c>
       <c r="E5" t="n">
-        <v>0.08600049999999999</v>
+        <v>0.08602949999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08567619999999999</v>
+        <v>0.0860411</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.18307</v>
+        <v>0.18302</v>
       </c>
       <c r="C6" t="n">
-        <v>0.175364</v>
+        <v>0.175373</v>
       </c>
       <c r="D6" t="n">
-        <v>0.20848</v>
+        <v>0.211924</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0881609</v>
+        <v>0.08826050000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0905773</v>
+        <v>0.09061859999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.220359</v>
+        <v>0.220451</v>
       </c>
       <c r="C7" t="n">
-        <v>0.218662</v>
+        <v>0.218713</v>
       </c>
       <c r="D7" t="n">
-        <v>0.158642</v>
+        <v>0.163694</v>
       </c>
       <c r="E7" t="n">
-        <v>0.09610920000000001</v>
+        <v>0.095995</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0996672</v>
+        <v>0.100158</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.258925</v>
+        <v>0.258785</v>
       </c>
       <c r="C8" t="n">
-        <v>0.26118</v>
+        <v>0.261658</v>
       </c>
       <c r="D8" t="n">
-        <v>0.167288</v>
+        <v>0.172096</v>
       </c>
       <c r="E8" t="n">
-        <v>0.109506</v>
+        <v>0.109215</v>
       </c>
       <c r="F8" t="n">
-        <v>0.116618</v>
+        <v>0.117001</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.314598</v>
+        <v>0.314626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.318036</v>
+        <v>0.316145</v>
       </c>
       <c r="D9" t="n">
-        <v>0.173853</v>
+        <v>0.178823</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0824863</v>
+        <v>0.0824609</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08340980000000001</v>
+        <v>0.0833076</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.103332</v>
+        <v>0.103496</v>
       </c>
       <c r="C10" t="n">
-        <v>0.104398</v>
+        <v>0.104196</v>
       </c>
       <c r="D10" t="n">
-        <v>0.178754</v>
+        <v>0.182599</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0825835</v>
+        <v>0.08260389999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.08338520000000001</v>
+        <v>0.0832746</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.104833</v>
+        <v>0.104824</v>
       </c>
       <c r="C11" t="n">
-        <v>0.10545</v>
+        <v>0.105387</v>
       </c>
       <c r="D11" t="n">
-        <v>0.185968</v>
+        <v>0.189687</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0828343</v>
+        <v>0.0827837</v>
       </c>
       <c r="F11" t="n">
-        <v>0.08386200000000001</v>
+        <v>0.0840678</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.106054</v>
+        <v>0.106028</v>
       </c>
       <c r="C12" t="n">
-        <v>0.106909</v>
+        <v>0.10712</v>
       </c>
       <c r="D12" t="n">
-        <v>0.193133</v>
+        <v>0.196515</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0830279</v>
+        <v>0.0830895</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0841769</v>
+        <v>0.0842494</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.108459</v>
+        <v>0.108527</v>
       </c>
       <c r="C13" t="n">
-        <v>0.108895</v>
+        <v>0.109173</v>
       </c>
       <c r="D13" t="n">
-        <v>0.198053</v>
+        <v>0.20183</v>
       </c>
       <c r="E13" t="n">
-        <v>0.0832184</v>
+        <v>0.0832942</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0844871</v>
+        <v>0.0846001</v>
       </c>
     </row>
     <row r="14">
@@ -5324,19 +5324,19 @@
         <v>17927</v>
       </c>
       <c r="B14" t="n">
-        <v>0.111577</v>
+        <v>0.111785</v>
       </c>
       <c r="C14" t="n">
-        <v>0.112471</v>
+        <v>0.112805</v>
       </c>
       <c r="D14" t="n">
-        <v>0.202999</v>
+        <v>0.205357</v>
       </c>
       <c r="E14" t="n">
-        <v>0.0835287</v>
+        <v>0.08356089999999999</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0849192</v>
+        <v>0.0850214</v>
       </c>
     </row>
     <row r="15">
@@ -5344,19 +5344,19 @@
         <v>18818</v>
       </c>
       <c r="B15" t="n">
-        <v>0.115632</v>
+        <v>0.115603</v>
       </c>
       <c r="C15" t="n">
-        <v>0.115384</v>
+        <v>0.116988</v>
       </c>
       <c r="D15" t="n">
-        <v>0.21291</v>
+        <v>0.213661</v>
       </c>
       <c r="E15" t="n">
-        <v>0.08400349999999999</v>
+        <v>0.08606080000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0856427</v>
+        <v>0.0858052</v>
       </c>
     </row>
     <row r="16">
@@ -5364,19 +5364,19 @@
         <v>19753</v>
       </c>
       <c r="B16" t="n">
-        <v>0.120622</v>
+        <v>0.120738</v>
       </c>
       <c r="C16" t="n">
-        <v>0.122628</v>
+        <v>0.122978</v>
       </c>
       <c r="D16" t="n">
-        <v>0.216408</v>
+        <v>0.2186</v>
       </c>
       <c r="E16" t="n">
-        <v>0.0842909</v>
+        <v>0.0843348</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0855486</v>
+        <v>0.0872237</v>
       </c>
     </row>
     <row r="17">
@@ -5384,19 +5384,19 @@
         <v>20734</v>
       </c>
       <c r="B17" t="n">
-        <v>0.130524</v>
+        <v>0.131891</v>
       </c>
       <c r="C17" t="n">
-        <v>0.131078</v>
+        <v>0.131503</v>
       </c>
       <c r="D17" t="n">
-        <v>0.223265</v>
+        <v>0.225071</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0849072</v>
+        <v>0.085137</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0865388</v>
+        <v>0.09072479999999999</v>
       </c>
     </row>
     <row r="18">
@@ -5404,19 +5404,19 @@
         <v>21764</v>
       </c>
       <c r="B18" t="n">
-        <v>0.143991</v>
+        <v>0.144066</v>
       </c>
       <c r="C18" t="n">
-        <v>0.141848</v>
+        <v>0.142596</v>
       </c>
       <c r="D18" t="n">
-        <v>0.229681</v>
+        <v>0.23191</v>
       </c>
       <c r="E18" t="n">
-        <v>0.085993</v>
+        <v>0.0862154</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08773789999999999</v>
+        <v>0.08975610000000001</v>
       </c>
     </row>
     <row r="19">
@@ -5424,19 +5424,19 @@
         <v>22845</v>
       </c>
       <c r="B19" t="n">
-        <v>0.160155</v>
+        <v>0.160378</v>
       </c>
       <c r="C19" t="n">
-        <v>0.157445</v>
+        <v>0.157513</v>
       </c>
       <c r="D19" t="n">
-        <v>0.236909</v>
+        <v>0.239362</v>
       </c>
       <c r="E19" t="n">
-        <v>0.08781750000000001</v>
+        <v>0.0881502</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09346400000000001</v>
+        <v>0.0946003</v>
       </c>
     </row>
     <row r="20">
@@ -5444,19 +5444,19 @@
         <v>23980</v>
       </c>
       <c r="B20" t="n">
-        <v>0.18061</v>
+        <v>0.180887</v>
       </c>
       <c r="C20" t="n">
-        <v>0.183369</v>
+        <v>0.183543</v>
       </c>
       <c r="D20" t="n">
-        <v>0.242712</v>
+        <v>0.244336</v>
       </c>
       <c r="E20" t="n">
-        <v>0.0922553</v>
+        <v>0.0923099</v>
       </c>
       <c r="F20" t="n">
-        <v>0.101523</v>
+        <v>0.103203</v>
       </c>
     </row>
     <row r="21">
@@ -5464,19 +5464,19 @@
         <v>25171</v>
       </c>
       <c r="B21" t="n">
-        <v>0.211006</v>
+        <v>0.211357</v>
       </c>
       <c r="C21" t="n">
-        <v>0.21129</v>
+        <v>0.212994</v>
       </c>
       <c r="D21" t="n">
-        <v>0.178827</v>
+        <v>0.180131</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09943390000000001</v>
+        <v>0.0995519</v>
       </c>
       <c r="F21" t="n">
-        <v>0.112024</v>
+        <v>0.11412</v>
       </c>
     </row>
     <row r="22">
@@ -5484,19 +5484,19 @@
         <v>26421</v>
       </c>
       <c r="B22" t="n">
-        <v>0.251442</v>
+        <v>0.251239</v>
       </c>
       <c r="C22" t="n">
-        <v>0.248807</v>
+        <v>0.249782</v>
       </c>
       <c r="D22" t="n">
-        <v>0.186221</v>
+        <v>0.186895</v>
       </c>
       <c r="E22" t="n">
-        <v>0.113387</v>
+        <v>0.113465</v>
       </c>
       <c r="F22" t="n">
-        <v>0.123488</v>
+        <v>0.12547</v>
       </c>
     </row>
     <row r="23">
@@ -5504,19 +5504,19 @@
         <v>27733</v>
       </c>
       <c r="B23" t="n">
-        <v>0.301002</v>
+        <v>0.300961</v>
       </c>
       <c r="C23" t="n">
-        <v>0.295915</v>
+        <v>0.302064</v>
       </c>
       <c r="D23" t="n">
-        <v>0.193572</v>
+        <v>0.194592</v>
       </c>
       <c r="E23" t="n">
-        <v>0.0836118</v>
+        <v>0.0850559</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08472970000000001</v>
+        <v>0.086613</v>
       </c>
     </row>
     <row r="24">
@@ -5524,19 +5524,19 @@
         <v>29110</v>
       </c>
       <c r="B24" t="n">
-        <v>0.107669</v>
+        <v>0.108935</v>
       </c>
       <c r="C24" t="n">
-        <v>0.108966</v>
+        <v>0.110273</v>
       </c>
       <c r="D24" t="n">
-        <v>0.201667</v>
+        <v>0.202869</v>
       </c>
       <c r="E24" t="n">
-        <v>0.08379730000000001</v>
+        <v>0.0858481</v>
       </c>
       <c r="F24" t="n">
-        <v>0.08536530000000001</v>
+        <v>0.0861041</v>
       </c>
     </row>
     <row r="25">
@@ -5544,19 +5544,19 @@
         <v>30555</v>
       </c>
       <c r="B25" t="n">
-        <v>0.108811</v>
+        <v>0.109053</v>
       </c>
       <c r="C25" t="n">
-        <v>0.110337</v>
+        <v>0.112206</v>
       </c>
       <c r="D25" t="n">
-        <v>0.20805</v>
+        <v>0.208085</v>
       </c>
       <c r="E25" t="n">
-        <v>0.0840212</v>
+        <v>0.0848844</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0858888</v>
+        <v>0.0882704</v>
       </c>
     </row>
     <row r="26">
@@ -5564,19 +5564,19 @@
         <v>32072</v>
       </c>
       <c r="B26" t="n">
-        <v>0.110025</v>
+        <v>0.112984</v>
       </c>
       <c r="C26" t="n">
-        <v>0.111832</v>
+        <v>0.115439</v>
       </c>
       <c r="D26" t="n">
-        <v>0.213046</v>
+        <v>0.21529</v>
       </c>
       <c r="E26" t="n">
-        <v>0.08419939999999999</v>
+        <v>0.08541700000000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0862922</v>
+        <v>0.0879142</v>
       </c>
     </row>
     <row r="27">
@@ -5584,19 +5584,19 @@
         <v>33664</v>
       </c>
       <c r="B27" t="n">
-        <v>0.112535</v>
+        <v>0.11423</v>
       </c>
       <c r="C27" t="n">
-        <v>0.114605</v>
+        <v>0.116742</v>
       </c>
       <c r="D27" t="n">
-        <v>0.221847</v>
+        <v>0.222644</v>
       </c>
       <c r="E27" t="n">
-        <v>0.0846079</v>
+        <v>0.0867559</v>
       </c>
       <c r="F27" t="n">
-        <v>0.087059</v>
+        <v>0.0877226</v>
       </c>
     </row>
     <row r="28">
@@ -5604,19 +5604,19 @@
         <v>35335</v>
       </c>
       <c r="B28" t="n">
-        <v>0.115094</v>
+        <v>0.116944</v>
       </c>
       <c r="C28" t="n">
-        <v>0.117759</v>
+        <v>0.118717</v>
       </c>
       <c r="D28" t="n">
-        <v>0.226504</v>
+        <v>0.228413</v>
       </c>
       <c r="E28" t="n">
-        <v>0.0849087</v>
+        <v>0.08524229999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.0896612</v>
+        <v>0.0898161</v>
       </c>
     </row>
     <row r="29">
@@ -5624,19 +5624,19 @@
         <v>37089</v>
       </c>
       <c r="B29" t="n">
-        <v>0.120603</v>
+        <v>0.122522</v>
       </c>
       <c r="C29" t="n">
-        <v>0.122656</v>
+        <v>0.125365</v>
       </c>
       <c r="D29" t="n">
-        <v>0.234444</v>
+        <v>0.236051</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0859948</v>
+        <v>0.08580450000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09078899999999999</v>
+        <v>0.0904821</v>
       </c>
     </row>
     <row r="30">
@@ -5644,19 +5644,19 @@
         <v>38930</v>
       </c>
       <c r="B30" t="n">
-        <v>0.125933</v>
+        <v>0.12639</v>
       </c>
       <c r="C30" t="n">
-        <v>0.130778</v>
+        <v>0.128483</v>
       </c>
       <c r="D30" t="n">
-        <v>0.239384</v>
+        <v>0.242596</v>
       </c>
       <c r="E30" t="n">
-        <v>0.0861524</v>
+        <v>0.0863844</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0908761</v>
+        <v>0.0901334</v>
       </c>
     </row>
     <row r="31">
@@ -5664,19 +5664,19 @@
         <v>40863</v>
       </c>
       <c r="B31" t="n">
-        <v>0.134728</v>
+        <v>0.136564</v>
       </c>
       <c r="C31" t="n">
-        <v>0.137941</v>
+        <v>0.138668</v>
       </c>
       <c r="D31" t="n">
-        <v>0.246879</v>
+        <v>0.247459</v>
       </c>
       <c r="E31" t="n">
-        <v>0.0884622</v>
+        <v>0.0889432</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0927632</v>
+        <v>0.0945434</v>
       </c>
     </row>
     <row r="32">
@@ -5684,19 +5684,19 @@
         <v>42892</v>
       </c>
       <c r="B32" t="n">
-        <v>0.146112</v>
+        <v>0.146817</v>
       </c>
       <c r="C32" t="n">
-        <v>0.152023</v>
+        <v>0.149974</v>
       </c>
       <c r="D32" t="n">
-        <v>0.252064</v>
+        <v>0.254117</v>
       </c>
       <c r="E32" t="n">
-        <v>0.090444</v>
+        <v>0.08903949999999999</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0961919</v>
+        <v>0.0954779</v>
       </c>
     </row>
     <row r="33">
@@ -5704,19 +5704,19 @@
         <v>45022</v>
       </c>
       <c r="B33" t="n">
-        <v>0.158017</v>
+        <v>0.163237</v>
       </c>
       <c r="C33" t="n">
-        <v>0.160798</v>
+        <v>0.161953</v>
       </c>
       <c r="D33" t="n">
-        <v>0.255746</v>
+        <v>0.256247</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0926564</v>
+        <v>0.0918218</v>
       </c>
       <c r="F33" t="n">
-        <v>0.102277</v>
+        <v>0.101871</v>
       </c>
     </row>
     <row r="34">
@@ -5724,19 +5724,19 @@
         <v>47258</v>
       </c>
       <c r="B34" t="n">
-        <v>0.177748</v>
+        <v>0.177773</v>
       </c>
       <c r="C34" t="n">
-        <v>0.184089</v>
+        <v>0.183827</v>
       </c>
       <c r="D34" t="n">
-        <v>0.264778</v>
+        <v>0.265606</v>
       </c>
       <c r="E34" t="n">
-        <v>0.0967375</v>
+        <v>0.0974496</v>
       </c>
       <c r="F34" t="n">
-        <v>0.108996</v>
+        <v>0.111209</v>
       </c>
     </row>
     <row r="35">
@@ -5744,19 +5744,19 @@
         <v>49605</v>
       </c>
       <c r="B35" t="n">
-        <v>0.205865</v>
+        <v>0.212053</v>
       </c>
       <c r="C35" t="n">
-        <v>0.208005</v>
+        <v>0.207094</v>
       </c>
       <c r="D35" t="n">
-        <v>0.191073</v>
+        <v>0.193336</v>
       </c>
       <c r="E35" t="n">
-        <v>0.105019</v>
+        <v>0.105449</v>
       </c>
       <c r="F35" t="n">
-        <v>0.119094</v>
+        <v>0.117023</v>
       </c>
     </row>
     <row r="36">
@@ -5764,19 +5764,19 @@
         <v>52069</v>
       </c>
       <c r="B36" t="n">
-        <v>0.241775</v>
+        <v>0.249265</v>
       </c>
       <c r="C36" t="n">
-        <v>0.244338</v>
+        <v>0.245447</v>
       </c>
       <c r="D36" t="n">
-        <v>0.197855</v>
+        <v>0.199909</v>
       </c>
       <c r="E36" t="n">
-        <v>0.118415</v>
+        <v>0.118629</v>
       </c>
       <c r="F36" t="n">
-        <v>0.132607</v>
+        <v>0.131341</v>
       </c>
     </row>
     <row r="37">
@@ -5784,19 +5784,19 @@
         <v>54656</v>
       </c>
       <c r="B37" t="n">
-        <v>0.292103</v>
+        <v>0.296763</v>
       </c>
       <c r="C37" t="n">
-        <v>0.292654</v>
+        <v>0.300399</v>
       </c>
       <c r="D37" t="n">
-        <v>0.204735</v>
+        <v>0.207073</v>
       </c>
       <c r="E37" t="n">
-        <v>0.085494</v>
+        <v>0.0846804</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09003369999999999</v>
+        <v>0.0876565</v>
       </c>
     </row>
     <row r="38">
@@ -5804,19 +5804,19 @@
         <v>57372</v>
       </c>
       <c r="B38" t="n">
-        <v>0.111053</v>
+        <v>0.110573</v>
       </c>
       <c r="C38" t="n">
-        <v>0.11382</v>
+        <v>0.115017</v>
       </c>
       <c r="D38" t="n">
-        <v>0.212051</v>
+        <v>0.214032</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0850265</v>
+        <v>0.08711430000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>0.090597</v>
+        <v>0.089422</v>
       </c>
     </row>
     <row r="39">
@@ -5824,19 +5824,19 @@
         <v>60223</v>
       </c>
       <c r="B39" t="n">
-        <v>0.113389</v>
+        <v>0.112908</v>
       </c>
       <c r="C39" t="n">
-        <v>0.115042</v>
+        <v>0.113911</v>
       </c>
       <c r="D39" t="n">
-        <v>0.219894</v>
+        <v>0.221565</v>
       </c>
       <c r="E39" t="n">
-        <v>0.0850923</v>
+        <v>0.0872559</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0913152</v>
+        <v>0.0906965</v>
       </c>
     </row>
     <row r="40">
@@ -5844,19 +5844,19 @@
         <v>63216</v>
       </c>
       <c r="B40" t="n">
-        <v>0.116212</v>
+        <v>0.116985</v>
       </c>
       <c r="C40" t="n">
-        <v>0.11985</v>
+        <v>0.118167</v>
       </c>
       <c r="D40" t="n">
-        <v>0.227283</v>
+        <v>0.227926</v>
       </c>
       <c r="E40" t="n">
-        <v>0.08727020000000001</v>
+        <v>0.0870664</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0898441</v>
+        <v>0.0911265</v>
       </c>
     </row>
     <row r="41">
@@ -5864,19 +5864,19 @@
         <v>66358</v>
       </c>
       <c r="B41" t="n">
-        <v>0.115557</v>
+        <v>0.118443</v>
       </c>
       <c r="C41" t="n">
-        <v>0.119401</v>
+        <v>0.120802</v>
       </c>
       <c r="D41" t="n">
-        <v>0.233322</v>
+        <v>0.234246</v>
       </c>
       <c r="E41" t="n">
-        <v>0.08719440000000001</v>
+        <v>0.0868786</v>
       </c>
       <c r="F41" t="n">
-        <v>0.092805</v>
+        <v>0.0922197</v>
       </c>
     </row>
     <row r="42">
@@ -5884,19 +5884,19 @@
         <v>69657</v>
       </c>
       <c r="B42" t="n">
-        <v>0.118938</v>
+        <v>0.119384</v>
       </c>
       <c r="C42" t="n">
-        <v>0.122023</v>
+        <v>0.123506</v>
       </c>
       <c r="D42" t="n">
-        <v>0.240154</v>
+        <v>0.241713</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08685229999999999</v>
+        <v>0.0878784</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09280239999999999</v>
+        <v>0.09225650000000001</v>
       </c>
     </row>
     <row r="43">
@@ -5904,19 +5904,19 @@
         <v>73120</v>
       </c>
       <c r="B43" t="n">
-        <v>0.124162</v>
+        <v>0.125806</v>
       </c>
       <c r="C43" t="n">
-        <v>0.126424</v>
+        <v>0.128968</v>
       </c>
       <c r="D43" t="n">
-        <v>0.246927</v>
+        <v>0.248764</v>
       </c>
       <c r="E43" t="n">
-        <v>0.08838169999999999</v>
+        <v>0.0883737</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09416330000000001</v>
+        <v>0.0926474</v>
       </c>
     </row>
     <row r="44">
@@ -5924,19 +5924,19 @@
         <v>76756</v>
       </c>
       <c r="B44" t="n">
-        <v>0.129803</v>
+        <v>0.131189</v>
       </c>
       <c r="C44" t="n">
-        <v>0.1317</v>
+        <v>0.133293</v>
       </c>
       <c r="D44" t="n">
-        <v>0.253663</v>
+        <v>0.255387</v>
       </c>
       <c r="E44" t="n">
-        <v>0.089545</v>
+        <v>0.08858920000000001</v>
       </c>
       <c r="F44" t="n">
-        <v>0.0962229</v>
+        <v>0.0946089</v>
       </c>
     </row>
     <row r="45">
@@ -5944,19 +5944,19 @@
         <v>80573</v>
       </c>
       <c r="B45" t="n">
-        <v>0.134629</v>
+        <v>0.13699</v>
       </c>
       <c r="C45" t="n">
-        <v>0.140477</v>
+        <v>0.138749</v>
       </c>
       <c r="D45" t="n">
-        <v>0.259203</v>
+        <v>0.260694</v>
       </c>
       <c r="E45" t="n">
-        <v>0.0897372</v>
+        <v>0.08906500000000001</v>
       </c>
       <c r="F45" t="n">
-        <v>0.0983156</v>
+        <v>0.09820479999999999</v>
       </c>
     </row>
     <row r="46">
@@ -5964,19 +5964,19 @@
         <v>84580</v>
       </c>
       <c r="B46" t="n">
-        <v>0.145544</v>
+        <v>0.14824</v>
       </c>
       <c r="C46" t="n">
-        <v>0.147569</v>
+        <v>0.149696</v>
       </c>
       <c r="D46" t="n">
-        <v>0.265053</v>
+        <v>0.266573</v>
       </c>
       <c r="E46" t="n">
-        <v>0.0918612</v>
+        <v>0.0923224</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09951740000000001</v>
+        <v>0.101404</v>
       </c>
     </row>
     <row r="47">
@@ -5984,19 +5984,19 @@
         <v>88787</v>
       </c>
       <c r="B47" t="n">
-        <v>0.158582</v>
+        <v>0.162735</v>
       </c>
       <c r="C47" t="n">
-        <v>0.16102</v>
+        <v>0.161471</v>
       </c>
       <c r="D47" t="n">
-        <v>0.270286</v>
+        <v>0.272239</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0931949</v>
+        <v>0.0941163</v>
       </c>
       <c r="F47" t="n">
-        <v>0.105382</v>
+        <v>0.107278</v>
       </c>
     </row>
     <row r="48">
@@ -6004,19 +6004,19 @@
         <v>93204</v>
       </c>
       <c r="B48" t="n">
-        <v>0.175035</v>
+        <v>0.174251</v>
       </c>
       <c r="C48" t="n">
-        <v>0.177151</v>
+        <v>0.182311</v>
       </c>
       <c r="D48" t="n">
-        <v>0.276541</v>
+        <v>0.277542</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0974602</v>
+        <v>0.09883409999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.108882</v>
+        <v>0.110879</v>
       </c>
     </row>
     <row r="49">
@@ -6024,19 +6024,19 @@
         <v>97841</v>
       </c>
       <c r="B49" t="n">
-        <v>0.199285</v>
+        <v>0.199194</v>
       </c>
       <c r="C49" t="n">
-        <v>0.19934</v>
+        <v>0.200371</v>
       </c>
       <c r="D49" t="n">
-        <v>0.283135</v>
+        <v>0.284007</v>
       </c>
       <c r="E49" t="n">
-        <v>0.104661</v>
+        <v>0.105376</v>
       </c>
       <c r="F49" t="n">
-        <v>0.116209</v>
+        <v>0.117568</v>
       </c>
     </row>
     <row r="50">
@@ -6044,19 +6044,19 @@
         <v>102709</v>
       </c>
       <c r="B50" t="n">
-        <v>0.23595</v>
+        <v>0.237648</v>
       </c>
       <c r="C50" t="n">
-        <v>0.239074</v>
+        <v>0.23384</v>
       </c>
       <c r="D50" t="n">
-        <v>0.196882</v>
+        <v>0.198389</v>
       </c>
       <c r="E50" t="n">
-        <v>0.114697</v>
+        <v>0.115191</v>
       </c>
       <c r="F50" t="n">
-        <v>0.12788</v>
+        <v>0.127698</v>
       </c>
     </row>
     <row r="51">
@@ -6064,19 +6064,19 @@
         <v>107820</v>
       </c>
       <c r="B51" t="n">
-        <v>0.276454</v>
+        <v>0.28506</v>
       </c>
       <c r="C51" t="n">
-        <v>0.280899</v>
+        <v>0.287927</v>
       </c>
       <c r="D51" t="n">
-        <v>0.203215</v>
+        <v>0.204999</v>
       </c>
       <c r="E51" t="n">
-        <v>0.08737499999999999</v>
+        <v>0.08858920000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>0.0923303</v>
+        <v>0.0930964</v>
       </c>
     </row>
     <row r="52">
@@ -6084,19 +6084,19 @@
         <v>113186</v>
       </c>
       <c r="B52" t="n">
-        <v>0.344088</v>
+        <v>0.332622</v>
       </c>
       <c r="C52" t="n">
-        <v>0.33488</v>
+        <v>0.33599</v>
       </c>
       <c r="D52" t="n">
-        <v>0.209902</v>
+        <v>0.211535</v>
       </c>
       <c r="E52" t="n">
-        <v>0.088576</v>
+        <v>0.0883404</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0944784</v>
+        <v>0.09623</v>
       </c>
     </row>
     <row r="53">
@@ -6104,19 +6104,19 @@
         <v>118820</v>
       </c>
       <c r="B53" t="n">
-        <v>0.115303</v>
+        <v>0.116384</v>
       </c>
       <c r="C53" t="n">
-        <v>0.120784</v>
+        <v>0.122137</v>
       </c>
       <c r="D53" t="n">
-        <v>0.21736</v>
+        <v>0.219055</v>
       </c>
       <c r="E53" t="n">
-        <v>0.088675</v>
+        <v>0.0896245</v>
       </c>
       <c r="F53" t="n">
-        <v>0.0967601</v>
+        <v>0.0940795</v>
       </c>
     </row>
     <row r="54">
@@ -6124,19 +6124,19 @@
         <v>124735</v>
       </c>
       <c r="B54" t="n">
-        <v>0.118117</v>
+        <v>0.119257</v>
       </c>
       <c r="C54" t="n">
-        <v>0.122787</v>
+        <v>0.122572</v>
       </c>
       <c r="D54" t="n">
-        <v>0.224111</v>
+        <v>0.225857</v>
       </c>
       <c r="E54" t="n">
-        <v>0.0886715</v>
+        <v>0.0893641</v>
       </c>
       <c r="F54" t="n">
-        <v>0.0944777</v>
+        <v>0.0963262</v>
       </c>
     </row>
     <row r="55">
@@ -6144,19 +6144,19 @@
         <v>130945</v>
       </c>
       <c r="B55" t="n">
-        <v>0.120463</v>
+        <v>0.121872</v>
       </c>
       <c r="C55" t="n">
-        <v>0.125984</v>
+        <v>0.126929</v>
       </c>
       <c r="D55" t="n">
-        <v>0.23082</v>
+        <v>0.232627</v>
       </c>
       <c r="E55" t="n">
-        <v>0.0902564</v>
+        <v>0.0959286</v>
       </c>
       <c r="F55" t="n">
-        <v>0.0949962</v>
+        <v>0.09595670000000001</v>
       </c>
     </row>
     <row r="56">
@@ -6164,19 +6164,19 @@
         <v>137465</v>
       </c>
       <c r="B56" t="n">
-        <v>0.123905</v>
+        <v>0.123848</v>
       </c>
       <c r="C56" t="n">
-        <v>0.129292</v>
+        <v>0.131271</v>
       </c>
       <c r="D56" t="n">
-        <v>0.236461</v>
+        <v>0.238597</v>
       </c>
       <c r="E56" t="n">
-        <v>0.0892385</v>
+        <v>0.0901927</v>
       </c>
       <c r="F56" t="n">
-        <v>0.0967296</v>
+        <v>0.0976402</v>
       </c>
     </row>
     <row r="57">
@@ -6184,19 +6184,19 @@
         <v>144311</v>
       </c>
       <c r="B57" t="n">
-        <v>0.128379</v>
+        <v>0.126837</v>
       </c>
       <c r="C57" t="n">
-        <v>0.133764</v>
+        <v>0.132629</v>
       </c>
       <c r="D57" t="n">
-        <v>0.242309</v>
+        <v>0.244513</v>
       </c>
       <c r="E57" t="n">
-        <v>0.0912077</v>
+        <v>0.0904084</v>
       </c>
       <c r="F57" t="n">
-        <v>0.09765550000000001</v>
+        <v>0.101849</v>
       </c>
     </row>
     <row r="58">
@@ -6204,19 +6204,19 @@
         <v>151499</v>
       </c>
       <c r="B58" t="n">
-        <v>0.134294</v>
+        <v>0.13515</v>
       </c>
       <c r="C58" t="n">
-        <v>0.139947</v>
+        <v>0.137845</v>
       </c>
       <c r="D58" t="n">
-        <v>0.247951</v>
+        <v>0.250368</v>
       </c>
       <c r="E58" t="n">
-        <v>0.09114410000000001</v>
+        <v>0.09240959999999999</v>
       </c>
       <c r="F58" t="n">
-        <v>0.09969989999999999</v>
+        <v>0.09908939999999999</v>
       </c>
     </row>
     <row r="59">
@@ -6224,19 +6224,19 @@
         <v>159046</v>
       </c>
       <c r="B59" t="n">
-        <v>0.139854</v>
+        <v>0.137723</v>
       </c>
       <c r="C59" t="n">
-        <v>0.146113</v>
+        <v>0.144519</v>
       </c>
       <c r="D59" t="n">
-        <v>0.253853</v>
+        <v>0.255871</v>
       </c>
       <c r="E59" t="n">
-        <v>0.0929572</v>
+        <v>0.0931333</v>
       </c>
       <c r="F59" t="n">
-        <v>0.101571</v>
+        <v>0.101715</v>
       </c>
     </row>
     <row r="60">
@@ -6244,19 +6244,19 @@
         <v>166970</v>
       </c>
       <c r="B60" t="n">
-        <v>0.146805</v>
+        <v>0.146367</v>
       </c>
       <c r="C60" t="n">
-        <v>0.155986</v>
+        <v>0.154901</v>
       </c>
       <c r="D60" t="n">
-        <v>0.258854</v>
+        <v>0.261501</v>
       </c>
       <c r="E60" t="n">
-        <v>0.09465229999999999</v>
+        <v>0.09443070000000001</v>
       </c>
       <c r="F60" t="n">
-        <v>0.103629</v>
+        <v>0.102431</v>
       </c>
     </row>
     <row r="61">
@@ -6264,19 +6264,19 @@
         <v>175290</v>
       </c>
       <c r="B61" t="n">
-        <v>0.158699</v>
+        <v>0.158042</v>
       </c>
       <c r="C61" t="n">
-        <v>0.166293</v>
+        <v>0.167439</v>
       </c>
       <c r="D61" t="n">
-        <v>0.264864</v>
+        <v>0.267271</v>
       </c>
       <c r="E61" t="n">
-        <v>0.0972182</v>
+        <v>0.0964491</v>
       </c>
       <c r="F61" t="n">
-        <v>0.106769</v>
+        <v>0.106839</v>
       </c>
     </row>
     <row r="62">
@@ -6284,19 +6284,19 @@
         <v>184026</v>
       </c>
       <c r="B62" t="n">
-        <v>0.174453</v>
+        <v>0.181424</v>
       </c>
       <c r="C62" t="n">
-        <v>0.179621</v>
+        <v>0.181926</v>
       </c>
       <c r="D62" t="n">
-        <v>0.270728</v>
+        <v>0.272775</v>
       </c>
       <c r="E62" t="n">
-        <v>0.0993752</v>
+        <v>0.101523</v>
       </c>
       <c r="F62" t="n">
-        <v>0.113776</v>
+        <v>0.109682</v>
       </c>
     </row>
     <row r="63">
@@ -6304,19 +6304,19 @@
         <v>193198</v>
       </c>
       <c r="B63" t="n">
-        <v>0.1995</v>
+        <v>0.202413</v>
       </c>
       <c r="C63" t="n">
-        <v>0.206896</v>
+        <v>0.202146</v>
       </c>
       <c r="D63" t="n">
-        <v>0.276158</v>
+        <v>0.27826</v>
       </c>
       <c r="E63" t="n">
-        <v>0.105359</v>
+        <v>0.106435</v>
       </c>
       <c r="F63" t="n">
-        <v>0.118233</v>
+        <v>0.120551</v>
       </c>
     </row>
     <row r="64">
@@ -6324,19 +6324,19 @@
         <v>202828</v>
       </c>
       <c r="B64" t="n">
-        <v>0.23066</v>
+        <v>0.226781</v>
       </c>
       <c r="C64" t="n">
-        <v>0.232973</v>
+        <v>0.232467</v>
       </c>
       <c r="D64" t="n">
-        <v>0.200941</v>
+        <v>0.201921</v>
       </c>
       <c r="E64" t="n">
-        <v>0.113758</v>
+        <v>0.115818</v>
       </c>
       <c r="F64" t="n">
-        <v>0.128335</v>
+        <v>0.129539</v>
       </c>
     </row>
     <row r="65">
@@ -6344,19 +6344,19 @@
         <v>212939</v>
       </c>
       <c r="B65" t="n">
-        <v>0.266116</v>
+        <v>0.275287</v>
       </c>
       <c r="C65" t="n">
-        <v>0.279101</v>
+        <v>0.284782</v>
       </c>
       <c r="D65" t="n">
-        <v>0.208797</v>
+        <v>0.209589</v>
       </c>
       <c r="E65" t="n">
-        <v>0.131273</v>
+        <v>0.130949</v>
       </c>
       <c r="F65" t="n">
-        <v>0.142855</v>
+        <v>0.145115</v>
       </c>
     </row>
     <row r="66">
@@ -6364,19 +6364,19 @@
         <v>223555</v>
       </c>
       <c r="B66" t="n">
-        <v>0.339629</v>
+        <v>0.326866</v>
       </c>
       <c r="C66" t="n">
-        <v>0.346896</v>
+        <v>0.33753</v>
       </c>
       <c r="D66" t="n">
-        <v>0.21819</v>
+        <v>0.218066</v>
       </c>
       <c r="E66" t="n">
-        <v>0.0942597</v>
+        <v>0.095915</v>
       </c>
       <c r="F66" t="n">
-        <v>0.100576</v>
+        <v>0.101305</v>
       </c>
     </row>
     <row r="67">
@@ -6384,19 +6384,19 @@
         <v>234701</v>
       </c>
       <c r="B67" t="n">
-        <v>0.130038</v>
+        <v>0.127992</v>
       </c>
       <c r="C67" t="n">
-        <v>0.134507</v>
+        <v>0.132245</v>
       </c>
       <c r="D67" t="n">
-        <v>0.227916</v>
+        <v>0.229505</v>
       </c>
       <c r="E67" t="n">
-        <v>0.09456000000000001</v>
+        <v>0.101476</v>
       </c>
       <c r="F67" t="n">
-        <v>0.101479</v>
+        <v>0.102079</v>
       </c>
     </row>
     <row r="68">
@@ -6404,19 +6404,19 @@
         <v>246404</v>
       </c>
       <c r="B68" t="n">
-        <v>0.131834</v>
+        <v>0.128481</v>
       </c>
       <c r="C68" t="n">
-        <v>0.137479</v>
+        <v>0.134518</v>
       </c>
       <c r="D68" t="n">
-        <v>0.23645</v>
+        <v>0.235829</v>
       </c>
       <c r="E68" t="n">
-        <v>0.095248</v>
+        <v>0.09513190000000001</v>
       </c>
       <c r="F68" t="n">
-        <v>0.102028</v>
+        <v>0.104073</v>
       </c>
     </row>
     <row r="69">
@@ -6424,19 +6424,19 @@
         <v>258692</v>
       </c>
       <c r="B69" t="n">
-        <v>0.132028</v>
+        <v>0.13149</v>
       </c>
       <c r="C69" t="n">
-        <v>0.137836</v>
+        <v>0.138669</v>
       </c>
       <c r="D69" t="n">
-        <v>0.248579</v>
+        <v>0.245327</v>
       </c>
       <c r="E69" t="n">
-        <v>0.096149</v>
+        <v>0.0959549</v>
       </c>
       <c r="F69" t="n">
-        <v>0.103516</v>
+        <v>0.104205</v>
       </c>
     </row>
     <row r="70">
@@ -6444,19 +6444,19 @@
         <v>271594</v>
       </c>
       <c r="B70" t="n">
-        <v>0.137544</v>
+        <v>0.135271</v>
       </c>
       <c r="C70" t="n">
-        <v>0.142895</v>
+        <v>0.141933</v>
       </c>
       <c r="D70" t="n">
-        <v>0.257806</v>
+        <v>0.253886</v>
       </c>
       <c r="E70" t="n">
-        <v>0.09569660000000001</v>
+        <v>0.0969048</v>
       </c>
       <c r="F70" t="n">
-        <v>0.105375</v>
+        <v>0.106338</v>
       </c>
     </row>
     <row r="71">
@@ -6464,19 +6464,19 @@
         <v>285141</v>
       </c>
       <c r="B71" t="n">
-        <v>0.140518</v>
+        <v>0.137365</v>
       </c>
       <c r="C71" t="n">
-        <v>0.14592</v>
+        <v>0.145037</v>
       </c>
       <c r="D71" t="n">
-        <v>0.264363</v>
+        <v>0.264916</v>
       </c>
       <c r="E71" t="n">
-        <v>0.0970726</v>
+        <v>0.0983904</v>
       </c>
       <c r="F71" t="n">
-        <v>0.106449</v>
+        <v>0.106886</v>
       </c>
     </row>
     <row r="72">
@@ -6484,19 +6484,19 @@
         <v>299365</v>
       </c>
       <c r="B72" t="n">
-        <v>0.144007</v>
+        <v>0.141552</v>
       </c>
       <c r="C72" t="n">
-        <v>0.149215</v>
+        <v>0.149954</v>
       </c>
       <c r="D72" t="n">
-        <v>0.27416</v>
+        <v>0.275961</v>
       </c>
       <c r="E72" t="n">
-        <v>0.0988942</v>
+        <v>0.0987267</v>
       </c>
       <c r="F72" t="n">
-        <v>0.108248</v>
+        <v>0.108596</v>
       </c>
     </row>
     <row r="73">
@@ -6504,19 +6504,19 @@
         <v>314300</v>
       </c>
       <c r="B73" t="n">
-        <v>0.151084</v>
+        <v>0.149229</v>
       </c>
       <c r="C73" t="n">
-        <v>0.158158</v>
+        <v>0.159056</v>
       </c>
       <c r="D73" t="n">
-        <v>0.286029</v>
+        <v>0.285113</v>
       </c>
       <c r="E73" t="n">
-        <v>0.09981760000000001</v>
+        <v>0.0997859</v>
       </c>
       <c r="F73" t="n">
-        <v>0.109502</v>
+        <v>0.111402</v>
       </c>
     </row>
     <row r="74">
@@ -6524,19 +6524,19 @@
         <v>329981</v>
       </c>
       <c r="B74" t="n">
-        <v>0.156163</v>
+        <v>0.158825</v>
       </c>
       <c r="C74" t="n">
-        <v>0.165421</v>
+        <v>0.166389</v>
       </c>
       <c r="D74" t="n">
-        <v>0.296147</v>
+        <v>0.301519</v>
       </c>
       <c r="E74" t="n">
-        <v>0.100947</v>
+        <v>0.101322</v>
       </c>
       <c r="F74" t="n">
-        <v>0.113398</v>
+        <v>0.113948</v>
       </c>
     </row>
     <row r="75">
@@ -6544,19 +6544,19 @@
         <v>346446</v>
       </c>
       <c r="B75" t="n">
-        <v>0.166815</v>
+        <v>0.167746</v>
       </c>
       <c r="C75" t="n">
-        <v>0.175505</v>
+        <v>0.177006</v>
       </c>
       <c r="D75" t="n">
-        <v>0.314031</v>
+        <v>0.310921</v>
       </c>
       <c r="E75" t="n">
-        <v>0.104147</v>
+        <v>0.103776</v>
       </c>
       <c r="F75" t="n">
-        <v>0.116099</v>
+        <v>0.114787</v>
       </c>
     </row>
     <row r="76">
@@ -6564,19 +6564,19 @@
         <v>363734</v>
       </c>
       <c r="B76" t="n">
-        <v>0.183438</v>
+        <v>0.182482</v>
       </c>
       <c r="C76" t="n">
-        <v>0.191448</v>
+        <v>0.194278</v>
       </c>
       <c r="D76" t="n">
-        <v>0.329476</v>
+        <v>0.335442</v>
       </c>
       <c r="E76" t="n">
-        <v>0.106463</v>
+        <v>0.106799</v>
       </c>
       <c r="F76" t="n">
-        <v>0.11913</v>
+        <v>0.119745</v>
       </c>
     </row>
     <row r="77">
@@ -6584,19 +6584,19 @@
         <v>381886</v>
       </c>
       <c r="B77" t="n">
-        <v>0.203895</v>
+        <v>0.204715</v>
       </c>
       <c r="C77" t="n">
-        <v>0.218231</v>
+        <v>0.214762</v>
       </c>
       <c r="D77" t="n">
-        <v>0.347602</v>
+        <v>0.347929</v>
       </c>
       <c r="E77" t="n">
-        <v>0.111501</v>
+        <v>0.112526</v>
       </c>
       <c r="F77" t="n">
-        <v>0.124581</v>
+        <v>0.131414</v>
       </c>
     </row>
     <row r="78">
@@ -6604,19 +6604,19 @@
         <v>400945</v>
       </c>
       <c r="B78" t="n">
-        <v>0.229686</v>
+        <v>0.235407</v>
       </c>
       <c r="C78" t="n">
-        <v>0.247141</v>
+        <v>0.245649</v>
       </c>
       <c r="D78" t="n">
-        <v>0.265877</v>
+        <v>0.26771</v>
       </c>
       <c r="E78" t="n">
-        <v>0.119791</v>
+        <v>0.120035</v>
       </c>
       <c r="F78" t="n">
-        <v>0.139342</v>
+        <v>0.13682</v>
       </c>
     </row>
     <row r="79">
@@ -6624,19 +6624,19 @@
         <v>420956</v>
       </c>
       <c r="B79" t="n">
-        <v>0.286502</v>
+        <v>0.278993</v>
       </c>
       <c r="C79" t="n">
-        <v>0.297725</v>
+        <v>0.294117</v>
       </c>
       <c r="D79" t="n">
-        <v>0.286868</v>
+        <v>0.28529</v>
       </c>
       <c r="E79" t="n">
-        <v>0.134054</v>
+        <v>0.135421</v>
       </c>
       <c r="F79" t="n">
-        <v>0.155302</v>
+        <v>0.153919</v>
       </c>
     </row>
     <row r="80">
@@ -6644,19 +6644,19 @@
         <v>441967</v>
       </c>
       <c r="B80" t="n">
-        <v>0.32817</v>
+        <v>0.333141</v>
       </c>
       <c r="C80" t="n">
-        <v>0.354895</v>
+        <v>0.35382</v>
       </c>
       <c r="D80" t="n">
-        <v>0.300495</v>
+        <v>0.305105</v>
       </c>
       <c r="E80" t="n">
-        <v>0.102652</v>
+        <v>0.10324</v>
       </c>
       <c r="F80" t="n">
-        <v>0.109351</v>
+        <v>0.111175</v>
       </c>
     </row>
     <row r="81">
@@ -6664,19 +6664,19 @@
         <v>464028</v>
       </c>
       <c r="B81" t="n">
-        <v>0.142418</v>
+        <v>0.14223</v>
       </c>
       <c r="C81" t="n">
-        <v>0.148235</v>
+        <v>0.149593</v>
       </c>
       <c r="D81" t="n">
-        <v>0.317781</v>
+        <v>0.326032</v>
       </c>
       <c r="E81" t="n">
-        <v>0.102762</v>
+        <v>0.103638</v>
       </c>
       <c r="F81" t="n">
-        <v>0.110585</v>
+        <v>0.112899</v>
       </c>
     </row>
     <row r="82">
@@ -6684,19 +6684,19 @@
         <v>487192</v>
       </c>
       <c r="B82" t="n">
-        <v>0.143851</v>
+        <v>0.144603</v>
       </c>
       <c r="C82" t="n">
-        <v>0.151171</v>
+        <v>0.150988</v>
       </c>
       <c r="D82" t="n">
-        <v>0.335574</v>
+        <v>0.344052</v>
       </c>
       <c r="E82" t="n">
-        <v>0.103317</v>
+        <v>0.104941</v>
       </c>
       <c r="F82" t="n">
-        <v>0.112493</v>
+        <v>0.113365</v>
       </c>
     </row>
     <row r="83">
@@ -6704,19 +6704,19 @@
         <v>511514</v>
       </c>
       <c r="B83" t="n">
-        <v>0.146733</v>
+        <v>0.146241</v>
       </c>
       <c r="C83" t="n">
-        <v>0.153579</v>
+        <v>0.154305</v>
       </c>
       <c r="D83" t="n">
-        <v>0.358493</v>
+        <v>0.368174</v>
       </c>
       <c r="E83" t="n">
-        <v>0.104466</v>
+        <v>0.104447</v>
       </c>
       <c r="F83" t="n">
-        <v>0.113519</v>
+        <v>0.115949</v>
       </c>
     </row>
     <row r="84">
@@ -6724,19 +6724,19 @@
         <v>537052</v>
       </c>
       <c r="B84" t="n">
-        <v>0.148704</v>
+        <v>0.149964</v>
       </c>
       <c r="C84" t="n">
-        <v>0.159033</v>
+        <v>0.159842</v>
       </c>
       <c r="D84" t="n">
-        <v>0.380589</v>
+        <v>0.390836</v>
       </c>
       <c r="E84" t="n">
-        <v>0.104448</v>
+        <v>0.106779</v>
       </c>
       <c r="F84" t="n">
-        <v>0.115913</v>
+        <v>0.117824</v>
       </c>
     </row>
     <row r="85">
@@ -6744,19 +6744,19 @@
         <v>563866</v>
       </c>
       <c r="B85" t="n">
-        <v>0.152639</v>
+        <v>0.152875</v>
       </c>
       <c r="C85" t="n">
-        <v>0.16347</v>
+        <v>0.16468</v>
       </c>
       <c r="D85" t="n">
-        <v>0.400135</v>
+        <v>0.414111</v>
       </c>
       <c r="E85" t="n">
-        <v>0.105656</v>
+        <v>0.107008</v>
       </c>
       <c r="F85" t="n">
-        <v>0.117678</v>
+        <v>0.120462</v>
       </c>
     </row>
     <row r="86">
@@ -6764,19 +6764,19 @@
         <v>592020</v>
       </c>
       <c r="B86" t="n">
-        <v>0.157736</v>
+        <v>0.157179</v>
       </c>
       <c r="C86" t="n">
-        <v>0.168912</v>
+        <v>0.170821</v>
       </c>
       <c r="D86" t="n">
-        <v>0.423976</v>
+        <v>0.438515</v>
       </c>
       <c r="E86" t="n">
-        <v>0.10733</v>
+        <v>0.108304</v>
       </c>
       <c r="F86" t="n">
-        <v>0.120932</v>
+        <v>0.123134</v>
       </c>
     </row>
     <row r="87">
@@ -6784,19 +6784,19 @@
         <v>621581</v>
       </c>
       <c r="B87" t="n">
-        <v>0.163623</v>
+        <v>0.163912</v>
       </c>
       <c r="C87" t="n">
-        <v>0.178333</v>
+        <v>0.179445</v>
       </c>
       <c r="D87" t="n">
-        <v>0.446633</v>
+        <v>0.464025</v>
       </c>
       <c r="E87" t="n">
-        <v>0.10868</v>
+        <v>0.110034</v>
       </c>
       <c r="F87" t="n">
-        <v>0.12505</v>
+        <v>0.127506</v>
       </c>
     </row>
     <row r="88">
@@ -6804,19 +6804,19 @@
         <v>652620</v>
       </c>
       <c r="B88" t="n">
-        <v>0.172496</v>
+        <v>0.173571</v>
       </c>
       <c r="C88" t="n">
-        <v>0.190285</v>
+        <v>0.191333</v>
       </c>
       <c r="D88" t="n">
-        <v>0.471233</v>
+        <v>0.489788</v>
       </c>
       <c r="E88" t="n">
-        <v>0.110612</v>
+        <v>0.112406</v>
       </c>
       <c r="F88" t="n">
-        <v>0.130211</v>
+        <v>0.132134</v>
       </c>
     </row>
     <row r="89">
@@ -6824,19 +6824,19 @@
         <v>685210</v>
       </c>
       <c r="B89" t="n">
-        <v>0.183763</v>
+        <v>0.186379</v>
       </c>
       <c r="C89" t="n">
-        <v>0.205439</v>
+        <v>0.205603</v>
       </c>
       <c r="D89" t="n">
-        <v>0.4979</v>
+        <v>0.515255</v>
       </c>
       <c r="E89" t="n">
-        <v>0.114127</v>
+        <v>0.115201</v>
       </c>
       <c r="F89" t="n">
-        <v>0.135879</v>
+        <v>0.138338</v>
       </c>
     </row>
     <row r="90">
@@ -6844,19 +6844,19 @@
         <v>719429</v>
       </c>
       <c r="B90" t="n">
-        <v>0.20109</v>
+        <v>0.200617</v>
       </c>
       <c r="C90" t="n">
-        <v>0.225706</v>
+        <v>0.227332</v>
       </c>
       <c r="D90" t="n">
-        <v>0.524072</v>
+        <v>0.545019</v>
       </c>
       <c r="E90" t="n">
-        <v>0.118417</v>
+        <v>0.119341</v>
       </c>
       <c r="F90" t="n">
-        <v>0.144514</v>
+        <v>0.146861</v>
       </c>
     </row>
     <row r="91">
@@ -6864,19 +6864,19 @@
         <v>755358</v>
       </c>
       <c r="B91" t="n">
-        <v>0.222046</v>
+        <v>0.223419</v>
       </c>
       <c r="C91" t="n">
-        <v>0.252084</v>
+        <v>0.252535</v>
       </c>
       <c r="D91" t="n">
-        <v>0.551041</v>
+        <v>0.573645</v>
       </c>
       <c r="E91" t="n">
-        <v>0.12477</v>
+        <v>0.126189</v>
       </c>
       <c r="F91" t="n">
-        <v>0.153843</v>
+        <v>0.155647</v>
       </c>
     </row>
     <row r="92">
@@ -6884,19 +6884,19 @@
         <v>793083</v>
       </c>
       <c r="B92" t="n">
-        <v>0.253284</v>
+        <v>0.255686</v>
       </c>
       <c r="C92" t="n">
-        <v>0.288792</v>
+        <v>0.289787</v>
       </c>
       <c r="D92" t="n">
-        <v>0.412098</v>
+        <v>0.425616</v>
       </c>
       <c r="E92" t="n">
-        <v>0.134817</v>
+        <v>0.135109</v>
       </c>
       <c r="F92" t="n">
-        <v>0.168402</v>
+        <v>0.169482</v>
       </c>
     </row>
     <row r="93">
@@ -6904,19 +6904,19 @@
         <v>832694</v>
       </c>
       <c r="B93" t="n">
-        <v>0.300876</v>
+        <v>0.294917</v>
       </c>
       <c r="C93" t="n">
-        <v>0.340998</v>
+        <v>0.340087</v>
       </c>
       <c r="D93" t="n">
-        <v>0.430307</v>
+        <v>0.445331</v>
       </c>
       <c r="E93" t="n">
-        <v>0.151566</v>
+        <v>0.151211</v>
       </c>
       <c r="F93" t="n">
-        <v>0.18731</v>
+        <v>0.187405</v>
       </c>
     </row>
     <row r="94">
@@ -6924,19 +6924,19 @@
         <v>874285</v>
       </c>
       <c r="B94" t="n">
-        <v>0.361676</v>
+        <v>0.361903</v>
       </c>
       <c r="C94" t="n">
-        <v>0.427349</v>
+        <v>0.422881</v>
       </c>
       <c r="D94" t="n">
-        <v>0.449785</v>
+        <v>0.465469</v>
       </c>
       <c r="E94" t="n">
-        <v>0.111935</v>
+        <v>0.112821</v>
       </c>
       <c r="F94" t="n">
-        <v>0.130163</v>
+        <v>0.131309</v>
       </c>
     </row>
     <row r="95">
@@ -6944,19 +6944,19 @@
         <v>917955</v>
       </c>
       <c r="B95" t="n">
-        <v>0.156692</v>
+        <v>0.156748</v>
       </c>
       <c r="C95" t="n">
-        <v>0.175402</v>
+        <v>0.173306</v>
       </c>
       <c r="D95" t="n">
-        <v>0.468328</v>
+        <v>0.48655</v>
       </c>
       <c r="E95" t="n">
-        <v>0.113622</v>
+        <v>0.115742</v>
       </c>
       <c r="F95" t="n">
-        <v>0.134299</v>
+        <v>0.134731</v>
       </c>
     </row>
     <row r="96">
@@ -6964,19 +6964,19 @@
         <v>963808</v>
       </c>
       <c r="B96" t="n">
-        <v>0.159831</v>
+        <v>0.15921</v>
       </c>
       <c r="C96" t="n">
-        <v>0.178676</v>
+        <v>0.178329</v>
       </c>
       <c r="D96" t="n">
-        <v>0.489116</v>
+        <v>0.5079090000000001</v>
       </c>
       <c r="E96" t="n">
-        <v>0.115369</v>
+        <v>0.116313</v>
       </c>
       <c r="F96" t="n">
-        <v>0.137559</v>
+        <v>0.137646</v>
       </c>
     </row>
     <row r="97">
@@ -6984,19 +6984,19 @@
         <v>1011953</v>
       </c>
       <c r="B97" t="n">
-        <v>0.161394</v>
+        <v>0.162405</v>
       </c>
       <c r="C97" t="n">
-        <v>0.184369</v>
+        <v>0.18253</v>
       </c>
       <c r="D97" t="n">
-        <v>0.512064</v>
+        <v>0.530601</v>
       </c>
       <c r="E97" t="n">
-        <v>0.117578</v>
+        <v>0.118682</v>
       </c>
       <c r="F97" t="n">
-        <v>0.141596</v>
+        <v>0.141385</v>
       </c>
     </row>
     <row r="98">
@@ -7004,19 +7004,19 @@
         <v>1062505</v>
       </c>
       <c r="B98" t="n">
-        <v>0.16651</v>
+        <v>0.168514</v>
       </c>
       <c r="C98" t="n">
-        <v>0.190044</v>
+        <v>0.190346</v>
       </c>
       <c r="D98" t="n">
-        <v>0.53252</v>
+        <v>0.553271</v>
       </c>
       <c r="E98" t="n">
-        <v>0.119727</v>
+        <v>0.121254</v>
       </c>
       <c r="F98" t="n">
-        <v>0.144597</v>
+        <v>0.145136</v>
       </c>
     </row>
     <row r="99">
@@ -7024,19 +7024,19 @@
         <v>1115584</v>
       </c>
       <c r="B99" t="n">
-        <v>0.172046</v>
+        <v>0.171523</v>
       </c>
       <c r="C99" t="n">
-        <v>0.195953</v>
+        <v>0.196334</v>
       </c>
       <c r="D99" t="n">
-        <v>0.5547800000000001</v>
+        <v>0.579103</v>
       </c>
       <c r="E99" t="n">
-        <v>0.12141</v>
+        <v>0.123536</v>
       </c>
       <c r="F99" t="n">
-        <v>0.14789</v>
+        <v>0.148035</v>
       </c>
     </row>
     <row r="100">
@@ -7044,19 +7044,19 @@
         <v>1171316</v>
       </c>
       <c r="B100" t="n">
-        <v>0.177637</v>
+        <v>0.177595</v>
       </c>
       <c r="C100" t="n">
-        <v>0.203765</v>
+        <v>0.202047</v>
       </c>
       <c r="D100" t="n">
-        <v>0.578939</v>
+        <v>0.60244</v>
       </c>
       <c r="E100" t="n">
-        <v>0.123859</v>
+        <v>0.12576</v>
       </c>
       <c r="F100" t="n">
-        <v>0.151996</v>
+        <v>0.150823</v>
       </c>
     </row>
     <row r="101">
@@ -7064,19 +7064,19 @@
         <v>1229834</v>
       </c>
       <c r="B101" t="n">
-        <v>0.184535</v>
+        <v>0.184468</v>
       </c>
       <c r="C101" t="n">
-        <v>0.213846</v>
+        <v>0.213184</v>
       </c>
       <c r="D101" t="n">
-        <v>0.602145</v>
+        <v>0.628356</v>
       </c>
       <c r="E101" t="n">
-        <v>0.126572</v>
+        <v>0.128558</v>
       </c>
       <c r="F101" t="n">
-        <v>0.156673</v>
+        <v>0.156288</v>
       </c>
     </row>
     <row r="102">
@@ -7084,19 +7084,19 @@
         <v>1291277</v>
       </c>
       <c r="B102" t="n">
-        <v>0.19443</v>
+        <v>0.194053</v>
       </c>
       <c r="C102" t="n">
-        <v>0.226732</v>
+        <v>0.225627</v>
       </c>
       <c r="D102" t="n">
-        <v>0.627969</v>
+        <v>0.656849</v>
       </c>
       <c r="E102" t="n">
-        <v>0.129777</v>
+        <v>0.130108</v>
       </c>
       <c r="F102" t="n">
-        <v>0.162034</v>
+        <v>0.161976</v>
       </c>
     </row>
     <row r="103">
@@ -7104,19 +7104,19 @@
         <v>1355792</v>
       </c>
       <c r="B103" t="n">
-        <v>0.205347</v>
+        <v>0.206123</v>
       </c>
       <c r="C103" t="n">
-        <v>0.244931</v>
+        <v>0.241624</v>
       </c>
       <c r="D103" t="n">
-        <v>0.6536110000000001</v>
+        <v>0.685131</v>
       </c>
       <c r="E103" t="n">
-        <v>0.132947</v>
+        <v>0.132883</v>
       </c>
       <c r="F103" t="n">
-        <v>0.168714</v>
+        <v>0.168887</v>
       </c>
     </row>
     <row r="104">
@@ -7124,19 +7124,19 @@
         <v>1423532</v>
       </c>
       <c r="B104" t="n">
-        <v>0.220666</v>
+        <v>0.221474</v>
       </c>
       <c r="C104" t="n">
-        <v>0.26913</v>
+        <v>0.26573</v>
       </c>
       <c r="D104" t="n">
-        <v>0.6822510000000001</v>
+        <v>0.713968</v>
       </c>
       <c r="E104" t="n">
-        <v>0.137316</v>
+        <v>0.138376</v>
       </c>
       <c r="F104" t="n">
-        <v>0.178151</v>
+        <v>0.177894</v>
       </c>
     </row>
     <row r="105">
@@ -7144,19 +7144,19 @@
         <v>1494659</v>
       </c>
       <c r="B105" t="n">
-        <v>0.24237</v>
+        <v>0.241812</v>
       </c>
       <c r="C105" t="n">
-        <v>0.297119</v>
+        <v>0.298546</v>
       </c>
       <c r="D105" t="n">
-        <v>0.711493</v>
+        <v>0.745298</v>
       </c>
       <c r="E105" t="n">
-        <v>0.143701</v>
+        <v>0.144508</v>
       </c>
       <c r="F105" t="n">
-        <v>0.189217</v>
+        <v>0.189165</v>
       </c>
     </row>
     <row r="106">
@@ -7164,19 +7164,19 @@
         <v>1569342</v>
       </c>
       <c r="B106" t="n">
-        <v>0.276648</v>
+        <v>0.271825</v>
       </c>
       <c r="C106" t="n">
-        <v>0.33937</v>
+        <v>0.338844</v>
       </c>
       <c r="D106" t="n">
-        <v>0.74271</v>
+        <v>0.7791090000000001</v>
       </c>
       <c r="E106" t="n">
-        <v>0.153225</v>
+        <v>0.153573</v>
       </c>
       <c r="F106" t="n">
-        <v>0.206437</v>
+        <v>0.206242</v>
       </c>
     </row>
     <row r="107">
@@ -7184,19 +7184,19 @@
         <v>1647759</v>
       </c>
       <c r="B107" t="n">
-        <v>0.32096</v>
+        <v>0.321084</v>
       </c>
       <c r="C107" t="n">
-        <v>0.401776</v>
+        <v>0.402654</v>
       </c>
       <c r="D107" t="n">
-        <v>0.5942539999999999</v>
+        <v>0.615255</v>
       </c>
       <c r="E107" t="n">
-        <v>0.167795</v>
+        <v>0.167894</v>
       </c>
       <c r="F107" t="n">
-        <v>0.22785</v>
+        <v>0.228668</v>
       </c>
     </row>
     <row r="108">
@@ -7204,19 +7204,19 @@
         <v>1730096</v>
       </c>
       <c r="B108" t="n">
-        <v>0.388151</v>
+        <v>0.391658</v>
       </c>
       <c r="C108" t="n">
-        <v>0.485959</v>
+        <v>0.496365</v>
       </c>
       <c r="D108" t="n">
-        <v>0.613581</v>
+        <v>0.636962</v>
       </c>
       <c r="E108" t="n">
-        <v>0.122109</v>
+        <v>0.123206</v>
       </c>
       <c r="F108" t="n">
-        <v>0.150201</v>
+        <v>0.150151</v>
       </c>
     </row>
     <row r="109">
@@ -7224,19 +7224,19 @@
         <v>1816549</v>
       </c>
       <c r="B109" t="n">
-        <v>0.500475</v>
+        <v>0.488922</v>
       </c>
       <c r="C109" t="n">
-        <v>0.6071879999999999</v>
+        <v>0.607524</v>
       </c>
       <c r="D109" t="n">
-        <v>0.639933</v>
+        <v>0.662357</v>
       </c>
       <c r="E109" t="n">
-        <v>0.123268</v>
+        <v>0.125166</v>
       </c>
       <c r="F109" t="n">
-        <v>0.154788</v>
+        <v>0.155348</v>
       </c>
     </row>
     <row r="110">
@@ -7244,19 +7244,19 @@
         <v>1907324</v>
       </c>
       <c r="B110" t="n">
-        <v>0.168749</v>
+        <v>0.169014</v>
       </c>
       <c r="C110" t="n">
-        <v>0.202712</v>
+        <v>0.199573</v>
       </c>
       <c r="D110" t="n">
-        <v>0.65971</v>
+        <v>0.674594</v>
       </c>
       <c r="E110" t="n">
-        <v>0.124732</v>
+        <v>0.12331</v>
       </c>
       <c r="F110" t="n">
-        <v>0.158918</v>
+        <v>0.158999</v>
       </c>
     </row>
     <row r="111">
@@ -7264,19 +7264,19 @@
         <v>2002637</v>
       </c>
       <c r="B111" t="n">
-        <v>0.172392</v>
+        <v>0.171435</v>
       </c>
       <c r="C111" t="n">
-        <v>0.208434</v>
+        <v>0.206716</v>
       </c>
       <c r="D111" t="n">
-        <v>0.684581</v>
+        <v>0.711539</v>
       </c>
       <c r="E111" t="n">
-        <v>0.126653</v>
+        <v>0.127837</v>
       </c>
       <c r="F111" t="n">
-        <v>0.163583</v>
+        <v>0.164732</v>
       </c>
     </row>
     <row r="112">
@@ -7284,19 +7284,19 @@
         <v>2102715</v>
       </c>
       <c r="B112" t="n">
-        <v>0.175747</v>
+        <v>0.174812</v>
       </c>
       <c r="C112" t="n">
-        <v>0.216633</v>
+        <v>0.21461</v>
       </c>
       <c r="D112" t="n">
-        <v>0.709365</v>
+        <v>0.737106</v>
       </c>
       <c r="E112" t="n">
-        <v>0.128856</v>
+        <v>0.129905</v>
       </c>
       <c r="F112" t="n">
-        <v>0.169666</v>
+        <v>0.170982</v>
       </c>
     </row>
     <row r="113">
@@ -7304,19 +7304,19 @@
         <v>2207796</v>
       </c>
       <c r="B113" t="n">
-        <v>0.181487</v>
+        <v>0.179828</v>
       </c>
       <c r="C113" t="n">
-        <v>0.224895</v>
+        <v>0.225418</v>
       </c>
       <c r="D113" t="n">
-        <v>0.737193</v>
+        <v>0.763411</v>
       </c>
       <c r="E113" t="n">
-        <v>0.130967</v>
+        <v>0.131713</v>
       </c>
       <c r="F113" t="n">
-        <v>0.174821</v>
+        <v>0.175393</v>
       </c>
     </row>
     <row r="114">
@@ -7324,19 +7324,19 @@
         <v>2318131</v>
       </c>
       <c r="B114" t="n">
-        <v>0.187567</v>
+        <v>0.187581</v>
       </c>
       <c r="C114" t="n">
-        <v>0.235712</v>
+        <v>0.236241</v>
       </c>
       <c r="D114" t="n">
-        <v>0.764145</v>
+        <v>0.791808</v>
       </c>
       <c r="E114" t="n">
-        <v>0.13333</v>
+        <v>0.134766</v>
       </c>
       <c r="F114" t="n">
-        <v>0.181188</v>
+        <v>0.182634</v>
       </c>
     </row>
     <row r="115">
@@ -7344,19 +7344,19 @@
         <v>2433982</v>
       </c>
       <c r="B115" t="n">
-        <v>0.198061</v>
+        <v>0.196599</v>
       </c>
       <c r="C115" t="n">
-        <v>0.24763</v>
+        <v>0.248102</v>
       </c>
       <c r="D115" t="n">
-        <v>0.79278</v>
+        <v>0.818106</v>
       </c>
       <c r="E115" t="n">
-        <v>0.136501</v>
+        <v>0.135209</v>
       </c>
       <c r="F115" t="n">
-        <v>0.187363</v>
+        <v>0.189018</v>
       </c>
     </row>
     <row r="116">
@@ -7364,19 +7364,19 @@
         <v>2555625</v>
       </c>
       <c r="B116" t="n">
-        <v>0.207638</v>
+        <v>0.207599</v>
       </c>
       <c r="C116" t="n">
-        <v>0.262179</v>
+        <v>0.26238</v>
       </c>
       <c r="D116" t="n">
-        <v>0.819432</v>
+        <v>0.8466320000000001</v>
       </c>
       <c r="E116" t="n">
-        <v>0.13699</v>
+        <v>0.142042</v>
       </c>
       <c r="F116" t="n">
-        <v>0.194532</v>
+        <v>0.197256</v>
       </c>
     </row>
     <row r="117">
@@ -7384,19 +7384,19 @@
         <v>2683350</v>
       </c>
       <c r="B117" t="n">
-        <v>0.221438</v>
+        <v>0.222595</v>
       </c>
       <c r="C117" t="n">
-        <v>0.280125</v>
+        <v>0.280757</v>
       </c>
       <c r="D117" t="n">
-        <v>0.850588</v>
+        <v>0.875506</v>
       </c>
       <c r="E117" t="n">
-        <v>0.14611</v>
+        <v>0.148341</v>
       </c>
       <c r="F117" t="n">
-        <v>0.202754</v>
+        <v>0.206463</v>
       </c>
     </row>
     <row r="118">
@@ -7404,19 +7404,19 @@
         <v>2817461</v>
       </c>
       <c r="B118" t="n">
-        <v>0.240897</v>
+        <v>0.238189</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303262</v>
+        <v>0.303559</v>
       </c>
       <c r="D118" t="n">
-        <v>0.880955</v>
+        <v>0.905933</v>
       </c>
       <c r="E118" t="n">
-        <v>0.151852</v>
+        <v>0.1523</v>
       </c>
       <c r="F118" t="n">
-        <v>0.212851</v>
+        <v>0.214882</v>
       </c>
     </row>
     <row r="119">
@@ -7424,19 +7424,19 @@
         <v>2958277</v>
       </c>
       <c r="B119" t="n">
-        <v>0.262439</v>
+        <v>0.261919</v>
       </c>
       <c r="C119" t="n">
-        <v>0.332041</v>
+        <v>0.332666</v>
       </c>
       <c r="D119" t="n">
-        <v>0.912291</v>
+        <v>0.936971</v>
       </c>
       <c r="E119" t="n">
-        <v>0.159617</v>
+        <v>0.165317</v>
       </c>
       <c r="F119" t="n">
-        <v>0.22543</v>
+        <v>0.228423</v>
       </c>
     </row>
     <row r="120">
@@ -7444,19 +7444,19 @@
         <v>3106133</v>
       </c>
       <c r="B120" t="n">
-        <v>0.297368</v>
+        <v>0.297082</v>
       </c>
       <c r="C120" t="n">
-        <v>0.375831</v>
+        <v>0.373791</v>
       </c>
       <c r="D120" t="n">
-        <v>0.94512</v>
+        <v>0.9690879999999999</v>
       </c>
       <c r="E120" t="n">
-        <v>0.171568</v>
+        <v>0.176042</v>
       </c>
       <c r="F120" t="n">
-        <v>0.241581</v>
+        <v>0.242074</v>
       </c>
     </row>
     <row r="121">
@@ -7464,19 +7464,19 @@
         <v>3261381</v>
       </c>
       <c r="B121" t="n">
-        <v>0.343736</v>
+        <v>0.345758</v>
       </c>
       <c r="C121" t="n">
-        <v>0.426558</v>
+        <v>0.42841</v>
       </c>
       <c r="D121" t="n">
-        <v>0.684767</v>
+        <v>0.712561</v>
       </c>
       <c r="E121" t="n">
-        <v>0.18825</v>
+        <v>0.192295</v>
       </c>
       <c r="F121" t="n">
-        <v>0.261191</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="122">
@@ -7484,19 +7484,19 @@
         <v>3424391</v>
       </c>
       <c r="B122" t="n">
-        <v>0.40558</v>
+        <v>0.412435</v>
       </c>
       <c r="C122" t="n">
-        <v>0.513097</v>
+        <v>0.5176539999999999</v>
       </c>
       <c r="D122" t="n">
-        <v>0.705248</v>
+        <v>0.727266</v>
       </c>
       <c r="E122" t="n">
-        <v>0.214166</v>
+        <v>0.217082</v>
       </c>
       <c r="F122" t="n">
-        <v>0.288818</v>
+        <v>0.293675</v>
       </c>
     </row>
     <row r="123">
@@ -7504,19 +7504,19 @@
         <v>3595551</v>
       </c>
       <c r="B123" t="n">
-        <v>0.509503</v>
+        <v>0.521327</v>
       </c>
       <c r="C123" t="n">
-        <v>0.644267</v>
+        <v>0.637479</v>
       </c>
       <c r="D123" t="n">
-        <v>0.728262</v>
+        <v>0.760327</v>
       </c>
       <c r="E123" t="n">
-        <v>0.145171</v>
+        <v>0.15449</v>
       </c>
       <c r="F123" t="n">
-        <v>0.192953</v>
+        <v>0.181504</v>
       </c>
     </row>
     <row r="124">
@@ -7524,19 +7524,19 @@
         <v>3775269</v>
       </c>
       <c r="B124" t="n">
-        <v>0.197667</v>
+        <v>0.195388</v>
       </c>
       <c r="C124" t="n">
-        <v>0.233326</v>
+        <v>0.234989</v>
       </c>
       <c r="D124" t="n">
-        <v>0.75313</v>
+        <v>0.773983</v>
       </c>
       <c r="E124" t="n">
-        <v>0.155274</v>
+        <v>0.150684</v>
       </c>
       <c r="F124" t="n">
-        <v>0.192305</v>
+        <v>0.193709</v>
       </c>
     </row>
     <row r="125">
@@ -7544,19 +7544,19 @@
         <v>3963972</v>
       </c>
       <c r="B125" t="n">
-        <v>0.187801</v>
+        <v>0.201273</v>
       </c>
       <c r="C125" t="n">
-        <v>0.244674</v>
+        <v>0.229465</v>
       </c>
       <c r="D125" t="n">
-        <v>0.765768</v>
+        <v>0.810768</v>
       </c>
       <c r="E125" t="n">
-        <v>0.150735</v>
+        <v>0.158614</v>
       </c>
       <c r="F125" t="n">
-        <v>0.197926</v>
+        <v>0.201885</v>
       </c>
     </row>
     <row r="126">
@@ -7564,19 +7564,19 @@
         <v>4162110</v>
       </c>
       <c r="B126" t="n">
-        <v>0.193334</v>
+        <v>0.196511</v>
       </c>
       <c r="C126" t="n">
-        <v>0.236856</v>
+        <v>0.250912</v>
       </c>
       <c r="D126" t="n">
-        <v>0.802377</v>
+        <v>0.836905</v>
       </c>
       <c r="E126" t="n">
-        <v>0.155098</v>
+        <v>0.16041</v>
       </c>
       <c r="F126" t="n">
-        <v>0.202765</v>
+        <v>0.206429</v>
       </c>
     </row>
     <row r="127">
@@ -7584,19 +7584,19 @@
         <v>4370154</v>
       </c>
       <c r="B127" t="n">
-        <v>0.208944</v>
+        <v>0.208928</v>
       </c>
       <c r="C127" t="n">
-        <v>0.256188</v>
+        <v>0.250303</v>
       </c>
       <c r="D127" t="n">
-        <v>0.8295630000000001</v>
+        <v>0.854863</v>
       </c>
       <c r="E127" t="n">
-        <v>0.148214</v>
+        <v>0.164313</v>
       </c>
       <c r="F127" t="n">
-        <v>0.205813</v>
+        <v>0.203566</v>
       </c>
     </row>
     <row r="128">
@@ -7604,19 +7604,19 @@
         <v>4588600</v>
       </c>
       <c r="B128" t="n">
-        <v>0.207304</v>
+        <v>0.215248</v>
       </c>
       <c r="C128" t="n">
-        <v>0.267585</v>
+        <v>0.27263</v>
       </c>
       <c r="D128" t="n">
-        <v>0.8570410000000001</v>
+        <v>0.89211</v>
       </c>
       <c r="E128" t="n">
-        <v>0.150608</v>
+        <v>0.15391</v>
       </c>
       <c r="F128" t="n">
-        <v>0.213664</v>
+        <v>0.214441</v>
       </c>
     </row>
     <row r="129">
@@ -7624,19 +7624,19 @@
         <v>4817968</v>
       </c>
       <c r="B129" t="n">
-        <v>0.222693</v>
+        <v>0.222177</v>
       </c>
       <c r="C129" t="n">
-        <v>0.277383</v>
+        <v>0.264926</v>
       </c>
       <c r="D129" t="n">
-        <v>0.885916</v>
+        <v>0.920141</v>
       </c>
       <c r="E129" t="n">
-        <v>0.161626</v>
+        <v>0.162046</v>
       </c>
       <c r="F129" t="n">
-        <v>0.213202</v>
+        <v>0.210827</v>
       </c>
     </row>
     <row r="130">
@@ -7644,19 +7644,19 @@
         <v>5058804</v>
       </c>
       <c r="B130" t="n">
-        <v>0.2312</v>
+        <v>0.222824</v>
       </c>
       <c r="C130" t="n">
-        <v>0.288831</v>
+        <v>0.278042</v>
       </c>
       <c r="D130" t="n">
-        <v>0.907691</v>
+        <v>0.948597</v>
       </c>
       <c r="E130" t="n">
-        <v>0.166134</v>
+        <v>0.168585</v>
       </c>
       <c r="F130" t="n">
-        <v>0.227853</v>
+        <v>0.229232</v>
       </c>
     </row>
     <row r="131">
@@ -7664,19 +7664,19 @@
         <v>5311681</v>
       </c>
       <c r="B131" t="n">
-        <v>0.249107</v>
+        <v>0.246633</v>
       </c>
       <c r="C131" t="n">
-        <v>0.310748</v>
+        <v>0.313104</v>
       </c>
       <c r="D131" t="n">
-        <v>0.944105</v>
+        <v>0.968357</v>
       </c>
       <c r="E131" t="n">
-        <v>0.165248</v>
+        <v>0.169561</v>
       </c>
       <c r="F131" t="n">
-        <v>0.233496</v>
+        <v>0.237029</v>
       </c>
     </row>
     <row r="132">
@@ -7684,19 +7684,19 @@
         <v>5577201</v>
       </c>
       <c r="B132" t="n">
-        <v>0.248318</v>
+        <v>0.261737</v>
       </c>
       <c r="C132" t="n">
-        <v>0.334794</v>
+        <v>0.336968</v>
       </c>
       <c r="D132" t="n">
-        <v>0.975096</v>
+        <v>1.00883</v>
       </c>
       <c r="E132" t="n">
-        <v>0.17936</v>
+        <v>0.179223</v>
       </c>
       <c r="F132" t="n">
-        <v>0.227272</v>
+        <v>0.254291</v>
       </c>
     </row>
     <row r="133">
@@ -7704,19 +7704,19 @@
         <v>5855997</v>
       </c>
       <c r="B133" t="n">
-        <v>0.283706</v>
+        <v>0.289972</v>
       </c>
       <c r="C133" t="n">
-        <v>0.365931</v>
+        <v>0.3661</v>
       </c>
       <c r="D133" t="n">
-        <v>1.00981</v>
+        <v>1.03929</v>
       </c>
       <c r="E133" t="n">
-        <v>0.181995</v>
+        <v>0.18375</v>
       </c>
       <c r="F133" t="n">
-        <v>0.260193</v>
+        <v>0.257861</v>
       </c>
     </row>
     <row r="134">
@@ -7724,19 +7724,19 @@
         <v>6148732</v>
       </c>
       <c r="B134" t="n">
-        <v>0.299649</v>
+        <v>0.315484</v>
       </c>
       <c r="C134" t="n">
-        <v>0.413104</v>
+        <v>0.413496</v>
       </c>
       <c r="D134" t="n">
-        <v>1.04248</v>
+        <v>1.06176</v>
       </c>
       <c r="E134" t="n">
-        <v>0.181722</v>
+        <v>0.196766</v>
       </c>
       <c r="F134" t="n">
-        <v>0.267393</v>
+        <v>0.278068</v>
       </c>
     </row>
     <row r="135">
@@ -7744,19 +7744,19 @@
         <v>6456103</v>
       </c>
       <c r="B135" t="n">
-        <v>0.361867</v>
+        <v>0.343765</v>
       </c>
       <c r="C135" t="n">
-        <v>0.476389</v>
+        <v>0.466937</v>
       </c>
       <c r="D135" t="n">
-        <v>0.69875</v>
+        <v>0.716201</v>
       </c>
       <c r="E135" t="n">
-        <v>0.204132</v>
+        <v>0.20626</v>
       </c>
       <c r="F135" t="n">
-        <v>0.297153</v>
+        <v>0.291918</v>
       </c>
     </row>
     <row r="136">
@@ -7764,19 +7764,19 @@
         <v>6778842</v>
       </c>
       <c r="B136" t="n">
-        <v>0.416724</v>
+        <v>0.424326</v>
       </c>
       <c r="C136" t="n">
-        <v>0.5487030000000001</v>
+        <v>0.546965</v>
       </c>
       <c r="D136" t="n">
-        <v>0.7155550000000001</v>
+        <v>0.7349020000000001</v>
       </c>
       <c r="E136" t="n">
-        <v>0.227813</v>
+        <v>0.228616</v>
       </c>
       <c r="F136" t="n">
-        <v>0.311739</v>
+        <v>0.320014</v>
       </c>
     </row>
     <row r="137">
@@ -7784,19 +7784,19 @@
         <v>7117717</v>
       </c>
       <c r="B137" t="n">
-        <v>0.525617</v>
+        <v>0.5225610000000001</v>
       </c>
       <c r="C137" t="n">
-        <v>0.66699</v>
+        <v>0.682392</v>
       </c>
       <c r="D137" t="n">
-        <v>0.7274929999999999</v>
+        <v>0.755453</v>
       </c>
       <c r="E137" t="n">
-        <v>0.282974</v>
+        <v>0.280434</v>
       </c>
       <c r="F137" t="n">
-        <v>0.332244</v>
+        <v>0.338479</v>
       </c>
     </row>
     <row r="138">
@@ -7804,19 +7804,19 @@
         <v>7473535</v>
       </c>
       <c r="B138" t="n">
-        <v>0.342188</v>
+        <v>0.347636</v>
       </c>
       <c r="C138" t="n">
-        <v>0.372328</v>
+        <v>0.366566</v>
       </c>
       <c r="D138" t="n">
-        <v>0.747672</v>
+        <v>0.776625</v>
       </c>
       <c r="E138" t="n">
-        <v>0.278426</v>
+        <v>0.294596</v>
       </c>
       <c r="F138" t="n">
-        <v>0.336069</v>
+        <v>0.339201</v>
       </c>
     </row>
     <row r="139">
@@ -7824,19 +7824,19 @@
         <v>7847143</v>
       </c>
       <c r="B139" t="n">
-        <v>0.349375</v>
+        <v>0.351294</v>
       </c>
       <c r="C139" t="n">
-        <v>0.397778</v>
+        <v>0.40292</v>
       </c>
       <c r="D139" t="n">
-        <v>0.7726</v>
+        <v>0.798948</v>
       </c>
       <c r="E139" t="n">
-        <v>0.282629</v>
+        <v>0.303209</v>
       </c>
       <c r="F139" t="n">
-        <v>0.345986</v>
+        <v>0.344721</v>
       </c>
     </row>
     <row r="140">
@@ -7844,19 +7844,19 @@
         <v>8239431</v>
       </c>
       <c r="B140" t="n">
-        <v>0.351318</v>
+        <v>0.324135</v>
       </c>
       <c r="C140" t="n">
-        <v>0.410058</v>
+        <v>0.405192</v>
       </c>
       <c r="D140" t="n">
-        <v>0.786723</v>
+        <v>0.823259</v>
       </c>
       <c r="E140" t="n">
-        <v>0.280448</v>
+        <v>0.296972</v>
       </c>
       <c r="F140" t="n">
-        <v>0.346422</v>
+        <v>0.354976</v>
       </c>
     </row>
     <row r="141">
@@ -7864,19 +7864,19 @@
         <v>8651333</v>
       </c>
       <c r="B141" t="n">
-        <v>0.356708</v>
+        <v>0.360172</v>
       </c>
       <c r="C141" t="n">
-        <v>0.418835</v>
+        <v>0.4147</v>
       </c>
       <c r="D141" t="n">
-        <v>0.814978</v>
+        <v>0.846872</v>
       </c>
       <c r="E141" t="n">
-        <v>0.280404</v>
+        <v>0.295325</v>
       </c>
       <c r="F141" t="n">
-        <v>0.350561</v>
+        <v>0.357892</v>
       </c>
     </row>
     <row r="142">
@@ -7884,19 +7884,19 @@
         <v>9083830</v>
       </c>
       <c r="B142" t="n">
-        <v>0.355443</v>
+        <v>0.338986</v>
       </c>
       <c r="C142" t="n">
-        <v>0.434069</v>
+        <v>0.432113</v>
       </c>
       <c r="D142" t="n">
-        <v>0.837601</v>
+        <v>0.872942</v>
       </c>
       <c r="E142" t="n">
-        <v>0.288312</v>
+        <v>0.303096</v>
       </c>
       <c r="F142" t="n">
-        <v>0.359332</v>
+        <v>0.363303</v>
       </c>
     </row>
     <row r="143">
@@ -7904,19 +7904,19 @@
         <v>9537951</v>
       </c>
       <c r="B143" t="n">
-        <v>0.360352</v>
+        <v>0.382415</v>
       </c>
       <c r="C143" t="n">
-        <v>0.443782</v>
+        <v>0.423545</v>
       </c>
       <c r="D143" t="n">
-        <v>0.8611180000000001</v>
+        <v>0.900212</v>
       </c>
       <c r="E143" t="n">
-        <v>0.297126</v>
+        <v>0.311089</v>
       </c>
       <c r="F143" t="n">
-        <v>0.371672</v>
+        <v>0.355387</v>
       </c>
     </row>
   </sheetData>

--- a/gcc-x86/Scattered unsuccessful looukp.xlsx
+++ b/gcc-x86/Scattered unsuccessful looukp.xlsx
@@ -5084,19 +5084,19 @@
         <v>10000</v>
       </c>
       <c r="B2" t="n">
-        <v>0.10244</v>
+        <v>0.113259</v>
       </c>
       <c r="C2" t="n">
-        <v>0.105216</v>
+        <v>0.113449</v>
       </c>
       <c r="D2" t="n">
-        <v>0.180442</v>
+        <v>0.189869</v>
       </c>
       <c r="E2" t="n">
-        <v>0.08013670000000001</v>
+        <v>0.0836089</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0807369</v>
+        <v>0.083818</v>
       </c>
     </row>
     <row r="3">
@@ -5104,19 +5104,19 @@
         <v>10500</v>
       </c>
       <c r="B3" t="n">
-        <v>0.109909</v>
+        <v>0.121058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.113631</v>
+        <v>0.1227</v>
       </c>
       <c r="D3" t="n">
-        <v>0.187207</v>
+        <v>0.196535</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0802783</v>
+        <v>0.0839221</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08102669999999999</v>
+        <v>0.0840182</v>
       </c>
     </row>
     <row r="4">
@@ -5124,19 +5124,19 @@
         <v>11025</v>
       </c>
       <c r="B4" t="n">
-        <v>0.124283</v>
+        <v>0.134727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.123786</v>
+        <v>0.131668</v>
       </c>
       <c r="D4" t="n">
-        <v>0.195297</v>
+        <v>0.204811</v>
       </c>
       <c r="E4" t="n">
-        <v>0.079795</v>
+        <v>0.0828545</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0802879</v>
+        <v>0.08401450000000001</v>
       </c>
     </row>
     <row r="5">
@@ -5144,19 +5144,19 @@
         <v>11576</v>
       </c>
       <c r="B5" t="n">
-        <v>0.140196</v>
+        <v>0.153004</v>
       </c>
       <c r="C5" t="n">
-        <v>0.14448</v>
+        <v>0.151045</v>
       </c>
       <c r="D5" t="n">
-        <v>0.201347</v>
+        <v>0.211863</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07945720000000001</v>
+        <v>0.0828937</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0803931</v>
+        <v>0.0839901</v>
       </c>
     </row>
     <row r="6">
@@ -5164,19 +5164,19 @@
         <v>12154</v>
       </c>
       <c r="B6" t="n">
-        <v>0.166939</v>
+        <v>0.183257</v>
       </c>
       <c r="C6" t="n">
-        <v>0.167132</v>
+        <v>0.175881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.208275</v>
+        <v>0.219127</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0807261</v>
+        <v>0.0842719</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0822566</v>
+        <v>0.08543729999999999</v>
       </c>
     </row>
     <row r="7">
@@ -5184,19 +5184,19 @@
         <v>12760</v>
       </c>
       <c r="B7" t="n">
-        <v>0.200356</v>
+        <v>0.220268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.201047</v>
+        <v>0.219525</v>
       </c>
       <c r="D7" t="n">
-        <v>0.156249</v>
+        <v>0.16581</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08625670000000001</v>
+        <v>0.0891417</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0879079</v>
+        <v>0.09095010000000001</v>
       </c>
     </row>
     <row r="8">
@@ -5204,19 +5204,19 @@
         <v>13396</v>
       </c>
       <c r="B8" t="n">
-        <v>0.247993</v>
+        <v>0.259193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.245027</v>
+        <v>0.261782</v>
       </c>
       <c r="D8" t="n">
-        <v>0.163071</v>
+        <v>0.17456</v>
       </c>
       <c r="E8" t="n">
-        <v>0.10074</v>
+        <v>0.105789</v>
       </c>
       <c r="F8" t="n">
-        <v>0.103946</v>
+        <v>0.10613</v>
       </c>
     </row>
     <row r="9">
@@ -5224,19 +5224,19 @@
         <v>14063</v>
       </c>
       <c r="B9" t="n">
-        <v>0.291656</v>
+        <v>0.314404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.294642</v>
+        <v>0.319488</v>
       </c>
       <c r="D9" t="n">
-        <v>0.170634</v>
+        <v>0.181081</v>
       </c>
       <c r="E9" t="n">
-        <v>0.079959</v>
+        <v>0.0826495</v>
       </c>
       <c r="F9" t="n">
-        <v>0.08039010000000001</v>
+        <v>0.08354880000000001</v>
       </c>
     </row>
     <row r="10">
@@ -5244,19 +5244,19 @@
         <v>14763</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0942021</v>
+        <v>0.103489</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0974589</v>
+        <v>0.104428</v>
       </c>
       <c r="D10" t="n">
-        <v>0.177335</v>
+        <v>0.18612</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0801471</v>
+        <v>0.0828747</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0805999</v>
+        <v>0.0837548</v>
       </c>
     </row>
     <row r="11">
@@ -5264,19 +5264,19 @@
         <v>15498</v>
       </c>
       <c r="B11" t="n">
-        <v>0.09620040000000001</v>
+        <v>0.104878</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0966611</v>
+        <v>0.105527</v>
       </c>
       <c r="D11" t="n">
-        <v>0.184394</v>
+        <v>0.193386</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0803613</v>
+        <v>0.08310190000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.080822</v>
+        <v>0.0840646</v>
       </c>
     </row>
     <row r="12">
@@ -5284,19 +5284,19 @@
         <v>16269</v>
       </c>
       <c r="B12" t="n">
-        <v>0.09696340000000001</v>
+        <v>0.106055</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0978251</v>
+        <v>0.107191</v>
       </c>
       <c r="D12" t="n">
-        <v>0.19273</v>
+        <v>0.199376</v>
       </c>
       <c r="E12" t="n">
-        <v>0.08039780000000001</v>
+        <v>0.0833088</v>
       </c>
       <c r="F12" t="n">
-        <v>0.081224</v>
+        <v>0.0844167</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>17078</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0987893</v>
+        <v>0.108419</v>
       </c>
       <c r="C13" t="n">
-        <v>0.101055</v>
+        <v>0.108747</v>
       </c>
       <c r="D13" t="n">
-        <v>0.19